--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="69">
   <si>
     <t>T0</t>
   </si>
@@ -184,6 +184,45 @@
   </si>
   <si>
     <t>NxCH13</t>
+  </si>
+  <si>
+    <t>N0PN</t>
+  </si>
+  <si>
+    <t>N0CH0</t>
+  </si>
+  <si>
+    <t>N3CH0</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>N3PN</t>
+  </si>
+  <si>
+    <t>N2CH0</t>
+  </si>
+  <si>
+    <t>N2CH1</t>
+  </si>
+  <si>
+    <t>N3CH1</t>
+  </si>
+  <si>
+    <t>N0CH1</t>
+  </si>
+  <si>
+    <t>N1CH0</t>
+  </si>
+  <si>
+    <t>N1CH1</t>
+  </si>
+  <si>
+    <t>N2PN</t>
+  </si>
+  <si>
+    <t>N1PN</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,8 +1081,8 @@
     <col min="11" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1132,33 @@
         <v>7</v>
       </c>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -1123,8 +1187,35 @@
       <c r="U3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1147,8 +1238,35 @@
       <c r="U4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>52</v>
       </c>
@@ -1195,8 +1313,35 @@
       <c r="U5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1219,9 +1364,36 @@
       <c r="U6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1444,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="6" t="s">
         <v>46</v>
@@ -1302,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3"/>
@@ -1326,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
@@ -1370,7 +1542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1394,8 +1566,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1618,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="158">
   <si>
     <t>T0</t>
   </si>
@@ -223,13 +223,280 @@
   </si>
   <si>
     <t>N1PN</t>
+  </si>
+  <si>
+    <t>R0PN0</t>
+  </si>
+  <si>
+    <t>R0PN1</t>
+  </si>
+  <si>
+    <t>R0PN2</t>
+  </si>
+  <si>
+    <t>R0PN3</t>
+  </si>
+  <si>
+    <t>R0PN4</t>
+  </si>
+  <si>
+    <t>R0PN5</t>
+  </si>
+  <si>
+    <t>R0PN6</t>
+  </si>
+  <si>
+    <t>R0PN7</t>
+  </si>
+  <si>
+    <t>R0CH0</t>
+  </si>
+  <si>
+    <t>R0CH1</t>
+  </si>
+  <si>
+    <t>R0CH2</t>
+  </si>
+  <si>
+    <t>R0CH3</t>
+  </si>
+  <si>
+    <t>R0CH4</t>
+  </si>
+  <si>
+    <t>R0CH5</t>
+  </si>
+  <si>
+    <t>R0CH6</t>
+  </si>
+  <si>
+    <t>R0CH7</t>
+  </si>
+  <si>
+    <t>Xst</t>
+  </si>
+  <si>
+    <t>Yst</t>
+  </si>
+  <si>
+    <t>Zst</t>
+  </si>
+  <si>
+    <t>dXst</t>
+  </si>
+  <si>
+    <t>dYst</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>dY</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Px,Py</t>
+  </si>
+  <si>
+    <t>Pz</t>
+  </si>
+  <si>
+    <t>Cx,Cy</t>
+  </si>
+  <si>
+    <t>Cz</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>kx</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>KAst</t>
+  </si>
+  <si>
+    <t>dKAst</t>
+  </si>
+  <si>
+    <t>dKAx</t>
+  </si>
+  <si>
+    <t>dXst*VCNT</t>
+  </si>
+  <si>
+    <t>dYst*VCNT</t>
+  </si>
+  <si>
+    <t>A*dX</t>
+  </si>
+  <si>
+    <t>B*dY</t>
+  </si>
+  <si>
+    <t>D*dX</t>
+  </si>
+  <si>
+    <t>E*dY</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>tmpx0</t>
+  </si>
+  <si>
+    <t>tmpy0</t>
+  </si>
+  <si>
+    <t>tmpx0-Px</t>
+  </si>
+  <si>
+    <t>tmpy0-Py</t>
+  </si>
+  <si>
+    <t>tmpx0*A</t>
+  </si>
+  <si>
+    <t>tmpy0*B</t>
+  </si>
+  <si>
+    <t>mult2</t>
+  </si>
+  <si>
+    <t>tmpx0*D</t>
+  </si>
+  <si>
+    <t>tmpy0*E</t>
+  </si>
+  <si>
+    <t>Zst-Pz</t>
+  </si>
+  <si>
+    <t>tmpz0</t>
+  </si>
+  <si>
+    <t>tmpz0*C</t>
+  </si>
+  <si>
+    <t>tmpz0*F</t>
+  </si>
+  <si>
+    <t>Xsp</t>
+  </si>
+  <si>
+    <t>Ysp</t>
+  </si>
+  <si>
+    <t>subpcx</t>
+  </si>
+  <si>
+    <t>subpcy</t>
+  </si>
+  <si>
+    <t>subpcz</t>
+  </si>
+  <si>
+    <t>Px-Cx</t>
+  </si>
+  <si>
+    <t>Py-Cy</t>
+  </si>
+  <si>
+    <t>Pz-Cz</t>
+  </si>
+  <si>
+    <t>subpcx*A</t>
+  </si>
+  <si>
+    <t>Xp</t>
+  </si>
+  <si>
+    <t>Yp</t>
+  </si>
+  <si>
+    <t>subpcx*D</t>
+  </si>
+  <si>
+    <t>subpcy*B</t>
+  </si>
+  <si>
+    <t>subpcy*E</t>
+  </si>
+  <si>
+    <t>Xp+mult</t>
+  </si>
+  <si>
+    <t>Yp+mult</t>
+  </si>
+  <si>
+    <t>subpcz*C</t>
+  </si>
+  <si>
+    <t>subpcz*F</t>
+  </si>
+  <si>
+    <t>Xp+Cx</t>
+  </si>
+  <si>
+    <t>Yp+Cy</t>
+  </si>
+  <si>
+    <t>Xsp+mult2</t>
+  </si>
+  <si>
+    <t>Ysp+mult2</t>
+  </si>
+  <si>
+    <t>dX+mult</t>
+  </si>
+  <si>
+    <t>dY+mult</t>
+  </si>
+  <si>
+    <t>tmpx0+mult</t>
+  </si>
+  <si>
+    <t>tmpy0+mult</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>sum2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +514,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +572,62 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -547,11 +876,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,6 +1118,199 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,22 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,8 +1626,8 @@
     <col min="11" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1703,7 @@
       </c>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -1215,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1266,29 +1811,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1341,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1392,8 +1937,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1443,8 +1988,56 @@
         <v>7</v>
       </c>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="6" t="s">
         <v>46</v>
@@ -1473,8 +2066,48 @@
       <c r="U9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+    </row>
+    <row r="10" spans="2:38" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3"/>
@@ -1497,8 +2130,48 @@
       <c r="U10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH10" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+    </row>
+    <row r="11" spans="2:38" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
@@ -1541,8 +2214,48 @@
       <c r="U11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y11" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA11" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB11" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF11" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH11" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+    </row>
+    <row r="12" spans="2:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1565,9 +2278,57 @@
       <c r="U12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z12" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB12" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC12" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF12" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG12" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI12" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ12" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +2379,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1650,7 +2411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4061,6 +4822,791 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AE18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="88" customWidth="1"/>
+    <col min="2" max="32" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y3" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+    </row>
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="121" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="86"/>
+      <c r="N4" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y4" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z4" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA4" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB4" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+    </row>
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="U5" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="V5" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="W6" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="X6" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="83">
+        <v>0</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+    </row>
+    <row r="9" spans="1:30" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="109">
+        <v>0</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="109"/>
+      <c r="AB9" s="109"/>
+    </row>
+    <row r="10" spans="1:30" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="109">
+        <v>0</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+    </row>
+    <row r="11" spans="1:30" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="109">
+        <v>0</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+    </row>
+    <row r="12" spans="1:30" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="109">
+        <v>0</v>
+      </c>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+    </row>
+    <row r="13" spans="1:30" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="83">
+        <v>0</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+    </row>
+    <row r="14" spans="1:30" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="83">
+        <v>0</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+    </row>
+    <row r="15" spans="1:30" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="83">
+        <v>0</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="T15" s="83"/>
+      <c r="U15" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="V15" s="83"/>
+      <c r="W15" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+    </row>
+    <row r="16" spans="1:30" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="83">
+        <v>0</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="U16" s="83"/>
+      <c r="V16" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="W16" s="83"/>
+      <c r="X16" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+    </row>
+    <row r="17" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="83">
+        <v>0</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="U17" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="V17" s="83"/>
+      <c r="W17" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB17" s="83"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+    </row>
+    <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="V18" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
     <sheet name="Лист2" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="372">
   <si>
     <t>T0</t>
   </si>
@@ -490,6 +491,648 @@
   </si>
   <si>
     <t>sum2</t>
+  </si>
+  <si>
+    <t>RP0</t>
+  </si>
+  <si>
+    <t>RP1</t>
+  </si>
+  <si>
+    <t>RP2</t>
+  </si>
+  <si>
+    <t>RP3</t>
+  </si>
+  <si>
+    <t>RP4</t>
+  </si>
+  <si>
+    <t>RP5</t>
+  </si>
+  <si>
+    <t>RP6</t>
+  </si>
+  <si>
+    <t>RP7</t>
+  </si>
+  <si>
+    <t>RP8</t>
+  </si>
+  <si>
+    <t>RP9</t>
+  </si>
+  <si>
+    <t>RP10</t>
+  </si>
+  <si>
+    <t>RP11</t>
+  </si>
+  <si>
+    <t>RP12</t>
+  </si>
+  <si>
+    <t>RP13</t>
+  </si>
+  <si>
+    <t>RP14</t>
+  </si>
+  <si>
+    <t>RP15</t>
+  </si>
+  <si>
+    <t>RP16</t>
+  </si>
+  <si>
+    <t>RP17</t>
+  </si>
+  <si>
+    <t>RP18</t>
+  </si>
+  <si>
+    <t>RP19</t>
+  </si>
+  <si>
+    <t>RP20</t>
+  </si>
+  <si>
+    <t>RP21</t>
+  </si>
+  <si>
+    <t>RP22</t>
+  </si>
+  <si>
+    <t>RP23</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>RPn</t>
+  </si>
+  <si>
+    <t>Rotation parameter table</t>
+  </si>
+  <si>
+    <t>Back screen</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>VRAM refresh</t>
+  </si>
+  <si>
+    <t>RPN0</t>
+  </si>
+  <si>
+    <t>RPN1</t>
+  </si>
+  <si>
+    <t>RPN2</t>
+  </si>
+  <si>
+    <t>RPN3</t>
+  </si>
+  <si>
+    <t>RPN4</t>
+  </si>
+  <si>
+    <t>RPN5</t>
+  </si>
+  <si>
+    <t>RPN6</t>
+  </si>
+  <si>
+    <t>RPN7</t>
+  </si>
+  <si>
+    <t>RPN304</t>
+  </si>
+  <si>
+    <t>RPN305</t>
+  </si>
+  <si>
+    <t>RPN306</t>
+  </si>
+  <si>
+    <t>RPN307</t>
+  </si>
+  <si>
+    <t>RPN308</t>
+  </si>
+  <si>
+    <t>RPN309</t>
+  </si>
+  <si>
+    <t>RPN310</t>
+  </si>
+  <si>
+    <t>RPN311</t>
+  </si>
+  <si>
+    <t>RPN312</t>
+  </si>
+  <si>
+    <t>RPN313</t>
+  </si>
+  <si>
+    <t>RPN314</t>
+  </si>
+  <si>
+    <t>RPN315</t>
+  </si>
+  <si>
+    <t>RPN316</t>
+  </si>
+  <si>
+    <t>RPN317</t>
+  </si>
+  <si>
+    <t>RPN318</t>
+  </si>
+  <si>
+    <t>RPN319</t>
+  </si>
+  <si>
+    <t>RPN320</t>
+  </si>
+  <si>
+    <t>RPN321</t>
+  </si>
+  <si>
+    <t>RPN322</t>
+  </si>
+  <si>
+    <t>RPN323</t>
+  </si>
+  <si>
+    <t>RPN324</t>
+  </si>
+  <si>
+    <t>RPN325</t>
+  </si>
+  <si>
+    <t>RPN326</t>
+  </si>
+  <si>
+    <t>RPN327</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>RCH0</t>
+  </si>
+  <si>
+    <t>RCH1</t>
+  </si>
+  <si>
+    <t>RCH2</t>
+  </si>
+  <si>
+    <t>RCH3</t>
+  </si>
+  <si>
+    <t>RCH300</t>
+  </si>
+  <si>
+    <t>RCH301</t>
+  </si>
+  <si>
+    <t>RCH302</t>
+  </si>
+  <si>
+    <t>RCH303</t>
+  </si>
+  <si>
+    <t>RCH304</t>
+  </si>
+  <si>
+    <t>RCH305</t>
+  </si>
+  <si>
+    <t>RCH306</t>
+  </si>
+  <si>
+    <t>RCH307</t>
+  </si>
+  <si>
+    <t>RCH308</t>
+  </si>
+  <si>
+    <t>RCH309</t>
+  </si>
+  <si>
+    <t>RCH310</t>
+  </si>
+  <si>
+    <t>RCH311</t>
+  </si>
+  <si>
+    <t>RCH312</t>
+  </si>
+  <si>
+    <t>RCH313</t>
+  </si>
+  <si>
+    <t>RCH314</t>
+  </si>
+  <si>
+    <t>RCH315</t>
+  </si>
+  <si>
+    <t>RCH316</t>
+  </si>
+  <si>
+    <t>RCH317</t>
+  </si>
+  <si>
+    <t>RCH318</t>
+  </si>
+  <si>
+    <t>RCH319</t>
+  </si>
+  <si>
+    <t>RCH320</t>
+  </si>
+  <si>
+    <t>RCH321</t>
+  </si>
+  <si>
+    <t>RCH322</t>
+  </si>
+  <si>
+    <t>RCH323</t>
+  </si>
+  <si>
+    <t>RCH324</t>
+  </si>
+  <si>
+    <t>RCH325</t>
+  </si>
+  <si>
+    <t>RCH326</t>
+  </si>
+  <si>
+    <t>RCH327</t>
+  </si>
+  <si>
+    <t>RPNn</t>
+  </si>
+  <si>
+    <t>RCHn</t>
+  </si>
+  <si>
+    <t>Rotation pattern data</t>
+  </si>
+  <si>
+    <t>Rotation character/bitmap data</t>
+  </si>
+  <si>
+    <t>18A</t>
+  </si>
+  <si>
+    <t>LS0</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>Line scroll table</t>
+  </si>
+  <si>
+    <t>NPN0</t>
+  </si>
+  <si>
+    <t>NPN1</t>
+  </si>
+  <si>
+    <t>NPN2</t>
+  </si>
+  <si>
+    <t>NPN3</t>
+  </si>
+  <si>
+    <t>19D</t>
+  </si>
+  <si>
+    <t>1A0</t>
+  </si>
+  <si>
+    <t>1A1</t>
+  </si>
+  <si>
+    <t>1A2</t>
+  </si>
+  <si>
+    <t>1A3</t>
+  </si>
+  <si>
+    <t>1A4</t>
+  </si>
+  <si>
+    <t>1A5</t>
+  </si>
+  <si>
+    <t>1A6</t>
+  </si>
+  <si>
+    <t>1A7</t>
+  </si>
+  <si>
+    <t>1A8</t>
+  </si>
+  <si>
+    <t>1A9</t>
+  </si>
+  <si>
+    <t>1AA</t>
+  </si>
+  <si>
+    <t>1AB</t>
+  </si>
+  <si>
+    <t>1AC</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>12D</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>NPN40</t>
+  </si>
+  <si>
+    <t>NCH0</t>
+  </si>
+  <si>
+    <t>NCH1</t>
+  </si>
+  <si>
+    <t>NCH2</t>
+  </si>
+  <si>
+    <t>NCH3</t>
+  </si>
+  <si>
+    <t>NCH39</t>
+  </si>
+  <si>
+    <t>NCH40</t>
+  </si>
+  <si>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>13B</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>13D</t>
+  </si>
+  <si>
+    <t>13E</t>
+  </si>
+  <si>
+    <t>13F</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>UBM</t>
+  </si>
+  <si>
+    <t>LBM</t>
+  </si>
+  <si>
+    <t>#CS</t>
+  </si>
+  <si>
+    <t>#ADDT</t>
+  </si>
+  <si>
+    <t>#DTEN</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>read/write data</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data </t>
+  </si>
+  <si>
+    <t>1st address</t>
+  </si>
+  <si>
+    <t>2nd address</t>
+  </si>
+  <si>
+    <t>write 1st address</t>
+  </si>
+  <si>
+    <t>write 2nd address</t>
+  </si>
+  <si>
+    <t>HSYNC</t>
+  </si>
+  <si>
+    <t>IRQH</t>
+  </si>
+  <si>
+    <t>Normal pattern data</t>
+  </si>
+  <si>
+    <t>Normal character/bitmap data</t>
+  </si>
+  <si>
+    <t>HTIM</t>
+  </si>
+  <si>
+    <t>RPN8</t>
+  </si>
+  <si>
+    <t>RPN9</t>
+  </si>
+  <si>
+    <t>RPN10</t>
+  </si>
+  <si>
+    <t>RPN11</t>
+  </si>
+  <si>
+    <t>RPN12</t>
+  </si>
+  <si>
+    <t>RPN13</t>
+  </si>
+  <si>
+    <t>RPN14</t>
+  </si>
+  <si>
+    <t>RPN15</t>
+  </si>
+  <si>
+    <t>RCH4</t>
+  </si>
+  <si>
+    <t>RCH5</t>
+  </si>
+  <si>
+    <t>RCH6</t>
+  </si>
+  <si>
+    <t>RCH7</t>
+  </si>
+  <si>
+    <t>RCH8</t>
+  </si>
+  <si>
+    <t>RCH9</t>
+  </si>
+  <si>
+    <t>RCH10</t>
+  </si>
+  <si>
+    <t>RCH11</t>
   </si>
 </sst>
 </file>
@@ -523,7 +1166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,8 +1269,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -911,11 +1590,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,6 +2017,177 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,6 +3255,31 @@
         <v>7</v>
       </c>
       <c r="U14" s="1"/>
+      <c r="W14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
@@ -2408,6 +3310,33 @@
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="190" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2434,8 +3363,35 @@
       <c r="U16" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="190" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="190" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
@@ -2474,8 +3430,35 @@
       <c r="U17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2498,9 +3481,36 @@
       <c r="U18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +3561,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2581,7 +3591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2605,7 +3615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
@@ -2641,7 +3651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2665,9 +3675,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +3741,7 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -2787,7 +3797,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -2811,7 +3821,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2835,7 +3845,7 @@
       <c r="S30" s="4"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +3901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20">
@@ -4826,7 +5836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
@@ -5609,12 +6619,1785 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E1:EN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BD14" sqref="BD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="7.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:144" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:144" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK2" s="1">
+        <v>181</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>182</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>183</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>184</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>185</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>186</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>190</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>191</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>192</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>193</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>194</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>131</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>132</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>133</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>134</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>135</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>136</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>137</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>138</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>139</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>140</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>141</v>
+      </c>
+      <c r="DJ2" s="1">
+        <v>142</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>143</v>
+      </c>
+      <c r="DL2" s="1">
+        <v>144</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>145</v>
+      </c>
+      <c r="DN2" s="1">
+        <v>146</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>147</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>148</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="164" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="164" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="164" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="164" t="s">
+        <v>163</v>
+      </c>
+      <c r="S3" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="T3" s="164" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="V3" s="164" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="X3" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y3" s="164" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z3" s="164" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA3" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB3" s="164" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC3" s="164" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD3" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE3" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF3" s="164" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG3" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH3" s="164" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI3" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ3" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK3" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL3" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM3" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN3" s="155" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO3" s="155" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP3" s="158" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA3" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB3" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC3" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD3" s="176" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE3" s="179"/>
+      <c r="BF3" s="85"/>
+      <c r="BG3" s="85"/>
+      <c r="BH3" s="85"/>
+      <c r="BI3" s="85"/>
+      <c r="BJ3" s="85"/>
+      <c r="BK3" s="85"/>
+      <c r="BL3" s="85"/>
+      <c r="BM3" s="85"/>
+      <c r="BN3" s="85"/>
+      <c r="BO3" s="85"/>
+      <c r="BP3" s="85"/>
+      <c r="BQ3" s="85"/>
+      <c r="BR3" s="85"/>
+      <c r="BS3" s="85"/>
+      <c r="BT3" s="85"/>
+      <c r="BU3" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="BV3" s="182" t="s">
+        <v>189</v>
+      </c>
+      <c r="BW3" s="182" t="s">
+        <v>190</v>
+      </c>
+      <c r="BX3" s="182" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY3" s="182" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" s="182" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA3" s="182" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB3" s="182" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC3" s="182" t="s">
+        <v>356</v>
+      </c>
+      <c r="CD3" s="182" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE3" s="182" t="s">
+        <v>358</v>
+      </c>
+      <c r="CF3" s="182" t="s">
+        <v>359</v>
+      </c>
+      <c r="CG3" s="182" t="s">
+        <v>360</v>
+      </c>
+      <c r="CH3" s="182" t="s">
+        <v>361</v>
+      </c>
+      <c r="CI3" s="182" t="s">
+        <v>362</v>
+      </c>
+      <c r="CJ3" s="182" t="s">
+        <v>363</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="CL3" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="CM3" s="182" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN3" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="CO3" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="CP3" s="182" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ3" s="182" t="s">
+        <v>201</v>
+      </c>
+      <c r="CR3" s="182" t="s">
+        <v>202</v>
+      </c>
+      <c r="CS3" s="182" t="s">
+        <v>203</v>
+      </c>
+      <c r="CT3" s="182" t="s">
+        <v>204</v>
+      </c>
+      <c r="CU3" s="182" t="s">
+        <v>205</v>
+      </c>
+      <c r="CV3" s="182" t="s">
+        <v>206</v>
+      </c>
+      <c r="CW3" s="182" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX3" s="182" t="s">
+        <v>208</v>
+      </c>
+      <c r="CY3" s="182" t="s">
+        <v>209</v>
+      </c>
+      <c r="CZ3" s="182" t="s">
+        <v>210</v>
+      </c>
+      <c r="DA3" s="182" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB3" s="182" t="s">
+        <v>212</v>
+      </c>
+      <c r="DC3" s="182" t="s">
+        <v>213</v>
+      </c>
+      <c r="DD3" s="182" t="s">
+        <v>214</v>
+      </c>
+      <c r="DE3" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="DF3" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="DG3" s="182" t="s">
+        <v>217</v>
+      </c>
+      <c r="DH3" s="182" t="s">
+        <v>218</v>
+      </c>
+      <c r="DI3" s="182" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ3" s="85"/>
+      <c r="DK3" s="85"/>
+      <c r="DL3" s="85"/>
+      <c r="DM3" s="85"/>
+      <c r="DN3" s="85"/>
+      <c r="DO3" s="85"/>
+      <c r="DP3" s="184"/>
+      <c r="DQ3" s="85"/>
+      <c r="DR3" s="185"/>
+      <c r="DS3" s="85"/>
+      <c r="DT3" s="185"/>
+      <c r="DU3" s="85"/>
+      <c r="DV3" s="185"/>
+      <c r="DW3" s="85"/>
+      <c r="DX3" s="185"/>
+      <c r="DY3" s="85"/>
+      <c r="DZ3" s="185"/>
+      <c r="EA3" s="85"/>
+      <c r="EB3" s="185"/>
+      <c r="EC3" s="85"/>
+      <c r="ED3" s="185"/>
+      <c r="EE3" s="85"/>
+      <c r="EF3" s="185"/>
+      <c r="EG3" s="85"/>
+      <c r="EH3" s="185"/>
+      <c r="EI3" s="85"/>
+      <c r="EJ3" s="185"/>
+      <c r="EK3" s="85"/>
+      <c r="EL3" s="185"/>
+      <c r="EM3" s="85"/>
+      <c r="EN3" s="186"/>
+    </row>
+    <row r="4" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="159"/>
+      <c r="AQ4" s="162"/>
+      <c r="AR4" s="162"/>
+      <c r="AS4" s="162"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="162"/>
+      <c r="AV4" s="162"/>
+      <c r="AW4" s="162"/>
+      <c r="AX4" s="162"/>
+      <c r="AY4" s="162"/>
+      <c r="AZ4" s="174"/>
+      <c r="BA4" s="153"/>
+      <c r="BB4" s="153"/>
+      <c r="BC4" s="153"/>
+      <c r="BD4" s="177"/>
+      <c r="BE4" s="30"/>
+      <c r="BF4" s="162"/>
+      <c r="BG4" s="162"/>
+      <c r="BH4" s="162"/>
+      <c r="BI4" s="162"/>
+      <c r="BJ4" s="162"/>
+      <c r="BK4" s="162"/>
+      <c r="BL4" s="162"/>
+      <c r="BM4" s="162"/>
+      <c r="BN4" s="162"/>
+      <c r="BO4" s="162"/>
+      <c r="BP4" s="162"/>
+      <c r="BQ4" s="162"/>
+      <c r="BR4" s="162"/>
+      <c r="BS4" s="162"/>
+      <c r="BT4" s="162"/>
+      <c r="BU4" s="162"/>
+      <c r="BV4" s="162"/>
+      <c r="BW4" s="162"/>
+      <c r="BX4" s="162"/>
+      <c r="BY4" s="183" t="s">
+        <v>221</v>
+      </c>
+      <c r="BZ4" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA4" s="183" t="s">
+        <v>223</v>
+      </c>
+      <c r="CB4" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC4" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="CD4" s="183" t="s">
+        <v>365</v>
+      </c>
+      <c r="CE4" s="183" t="s">
+        <v>366</v>
+      </c>
+      <c r="CF4" s="183" t="s">
+        <v>367</v>
+      </c>
+      <c r="CG4" s="183" t="s">
+        <v>368</v>
+      </c>
+      <c r="CH4" s="183" t="s">
+        <v>369</v>
+      </c>
+      <c r="CI4" s="183" t="s">
+        <v>370</v>
+      </c>
+      <c r="CJ4" s="183" t="s">
+        <v>371</v>
+      </c>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="183" t="s">
+        <v>225</v>
+      </c>
+      <c r="CM4" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN4" s="183" t="s">
+        <v>227</v>
+      </c>
+      <c r="CO4" s="183" t="s">
+        <v>228</v>
+      </c>
+      <c r="CP4" s="183" t="s">
+        <v>229</v>
+      </c>
+      <c r="CQ4" s="183" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR4" s="183" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS4" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="CT4" s="183" t="s">
+        <v>233</v>
+      </c>
+      <c r="CU4" s="183" t="s">
+        <v>234</v>
+      </c>
+      <c r="CV4" s="183" t="s">
+        <v>235</v>
+      </c>
+      <c r="CW4" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="CX4" s="183" t="s">
+        <v>237</v>
+      </c>
+      <c r="CY4" s="183" t="s">
+        <v>238</v>
+      </c>
+      <c r="CZ4" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="DA4" s="183" t="s">
+        <v>240</v>
+      </c>
+      <c r="DB4" s="183" t="s">
+        <v>241</v>
+      </c>
+      <c r="DC4" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="DD4" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="DE4" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="DF4" s="183" t="s">
+        <v>245</v>
+      </c>
+      <c r="DG4" s="183" t="s">
+        <v>246</v>
+      </c>
+      <c r="DH4" s="183" t="s">
+        <v>247</v>
+      </c>
+      <c r="DI4" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="DJ4" s="183" t="s">
+        <v>249</v>
+      </c>
+      <c r="DK4" s="183" t="s">
+        <v>250</v>
+      </c>
+      <c r="DL4" s="183" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM4" s="183" t="s">
+        <v>252</v>
+      </c>
+      <c r="DN4" s="162"/>
+      <c r="DO4" s="162"/>
+      <c r="DP4" s="20"/>
+      <c r="DQ4" s="162"/>
+      <c r="DR4" s="161"/>
+      <c r="DS4" s="162"/>
+      <c r="DT4" s="161"/>
+      <c r="DU4" s="162"/>
+      <c r="DV4" s="161"/>
+      <c r="DW4" s="162"/>
+      <c r="DX4" s="161"/>
+      <c r="DY4" s="162"/>
+      <c r="DZ4" s="161"/>
+      <c r="EA4" s="162"/>
+      <c r="EB4" s="161"/>
+      <c r="EC4" s="162"/>
+      <c r="ED4" s="161"/>
+      <c r="EE4" s="162"/>
+      <c r="EF4" s="161"/>
+      <c r="EG4" s="162"/>
+      <c r="EH4" s="161"/>
+      <c r="EI4" s="162"/>
+      <c r="EJ4" s="161"/>
+      <c r="EK4" s="162"/>
+      <c r="EL4" s="161"/>
+      <c r="EM4" s="162"/>
+      <c r="EN4" s="187"/>
+    </row>
+    <row r="5" spans="5:144" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="162"/>
+      <c r="AR5" s="162"/>
+      <c r="AS5" s="162"/>
+      <c r="AT5" s="171"/>
+      <c r="AU5" s="162"/>
+      <c r="AV5" s="162"/>
+      <c r="AW5" s="162"/>
+      <c r="AX5" s="162"/>
+      <c r="AY5" s="162"/>
+      <c r="AZ5" s="174"/>
+      <c r="BA5" s="153"/>
+      <c r="BB5" s="153"/>
+      <c r="BC5" s="153"/>
+      <c r="BD5" s="177"/>
+      <c r="BE5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BL5" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BN5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BP5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BR5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BS5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT5" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="BU5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="BZ5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="CA5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB5" s="180" t="s">
+        <v>263</v>
+      </c>
+      <c r="CC5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CF5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CH5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CI5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CJ5" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="CL5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CM5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CN5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CO5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CP5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CQ5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CR5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CS5" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="CT5" s="30"/>
+      <c r="CU5" s="30"/>
+      <c r="CV5" s="30"/>
+      <c r="CW5" s="30"/>
+      <c r="CX5" s="30"/>
+      <c r="CY5" s="30"/>
+      <c r="CZ5" s="30"/>
+      <c r="DA5" s="30"/>
+      <c r="DB5" s="162"/>
+      <c r="DC5" s="162"/>
+      <c r="DD5" s="162"/>
+      <c r="DE5" s="162"/>
+      <c r="DF5" s="162"/>
+      <c r="DG5" s="162"/>
+      <c r="DH5" s="162"/>
+      <c r="DI5" s="162"/>
+      <c r="DJ5" s="162"/>
+      <c r="DK5" s="162"/>
+      <c r="DL5" s="162"/>
+      <c r="DM5" s="162"/>
+      <c r="DN5" s="162"/>
+      <c r="DO5" s="162"/>
+      <c r="DP5" s="20"/>
+      <c r="DQ5" s="162"/>
+      <c r="DR5" s="161"/>
+      <c r="DS5" s="162"/>
+      <c r="DT5" s="161"/>
+      <c r="DU5" s="162"/>
+      <c r="DV5" s="161"/>
+      <c r="DW5" s="162"/>
+      <c r="DX5" s="161"/>
+      <c r="DY5" s="162"/>
+      <c r="DZ5" s="161"/>
+      <c r="EA5" s="162"/>
+      <c r="EB5" s="161"/>
+      <c r="EC5" s="162"/>
+      <c r="ED5" s="161"/>
+      <c r="EE5" s="162"/>
+      <c r="EF5" s="161"/>
+      <c r="EG5" s="162"/>
+      <c r="EH5" s="161"/>
+      <c r="EI5" s="162"/>
+      <c r="EJ5" s="161"/>
+      <c r="EK5" s="162"/>
+      <c r="EL5" s="161"/>
+      <c r="EM5" s="162"/>
+      <c r="EN5" s="187"/>
+    </row>
+    <row r="6" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="166"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="166"/>
+      <c r="AH6" s="166"/>
+      <c r="AI6" s="166"/>
+      <c r="AJ6" s="166"/>
+      <c r="AK6" s="157"/>
+      <c r="AL6" s="157"/>
+      <c r="AM6" s="157"/>
+      <c r="AN6" s="157"/>
+      <c r="AO6" s="157"/>
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="163"/>
+      <c r="AR6" s="163"/>
+      <c r="AS6" s="163"/>
+      <c r="AT6" s="172"/>
+      <c r="AU6" s="163"/>
+      <c r="AV6" s="163"/>
+      <c r="AW6" s="163"/>
+      <c r="AX6" s="163"/>
+      <c r="AY6" s="163"/>
+      <c r="AZ6" s="175"/>
+      <c r="BA6" s="154"/>
+      <c r="BB6" s="154"/>
+      <c r="BC6" s="154"/>
+      <c r="BD6" s="178"/>
+      <c r="BE6" s="29"/>
+      <c r="BF6" s="163"/>
+      <c r="BG6" s="163"/>
+      <c r="BH6" s="163"/>
+      <c r="BI6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BK6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BL6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BM6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BN6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BO6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BP6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="BQ6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BR6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BS6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BT6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BU6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BV6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BW6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BX6" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="BY6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="BZ6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="CA6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="CB6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="CC6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="CD6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="CE6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="CF6" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="CG6" s="181" t="s">
+        <v>289</v>
+      </c>
+      <c r="CH6" s="181" t="s">
+        <v>289</v>
+      </c>
+      <c r="CI6" s="181" t="s">
+        <v>289</v>
+      </c>
+      <c r="CJ6" s="181" t="s">
+        <v>289</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="CL6" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="CM6" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="CN6" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="CO6" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="CP6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CQ6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CR6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CS6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CT6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CU6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CV6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CW6" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="CX6" s="28"/>
+      <c r="CY6" s="28"/>
+      <c r="CZ6" s="28"/>
+      <c r="DA6" s="28"/>
+      <c r="DB6" s="28"/>
+      <c r="DC6" s="28"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="28"/>
+      <c r="DF6" s="163"/>
+      <c r="DG6" s="163"/>
+      <c r="DH6" s="163"/>
+      <c r="DI6" s="163"/>
+      <c r="DJ6" s="163"/>
+      <c r="DK6" s="163"/>
+      <c r="DL6" s="163"/>
+      <c r="DM6" s="163"/>
+      <c r="DN6" s="163"/>
+      <c r="DO6" s="163"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="163"/>
+      <c r="DR6" s="188"/>
+      <c r="DS6" s="163"/>
+      <c r="DT6" s="188"/>
+      <c r="DU6" s="163"/>
+      <c r="DV6" s="188"/>
+      <c r="DW6" s="163"/>
+      <c r="DX6" s="188"/>
+      <c r="DY6" s="163"/>
+      <c r="DZ6" s="188"/>
+      <c r="EA6" s="163"/>
+      <c r="EB6" s="188"/>
+      <c r="EC6" s="163"/>
+      <c r="ED6" s="188"/>
+      <c r="EE6" s="163"/>
+      <c r="EF6" s="188"/>
+      <c r="EG6" s="163"/>
+      <c r="EH6" s="188"/>
+      <c r="EI6" s="163"/>
+      <c r="EJ6" s="188"/>
+      <c r="EK6" s="163"/>
+      <c r="EL6" s="188"/>
+      <c r="EM6" s="163"/>
+      <c r="EN6" s="189"/>
+    </row>
+    <row r="7" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="149" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="146"/>
+      <c r="AM7" s="146"/>
+      <c r="AN7" s="146"/>
+      <c r="AO7" s="146"/>
+      <c r="AP7" s="146"/>
+    </row>
+    <row r="8" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
+      <c r="AK8" s="148"/>
+      <c r="AL8" s="148"/>
+      <c r="AM8" s="148"/>
+      <c r="AN8" s="148"/>
+      <c r="AO8" s="148"/>
+      <c r="AP8" s="148"/>
+      <c r="AQ8" s="148"/>
+      <c r="AR8" s="148"/>
+      <c r="AS8" s="148"/>
+      <c r="AT8" s="148"/>
+      <c r="AU8" s="148"/>
+      <c r="AV8" s="148"/>
+      <c r="AW8" s="148"/>
+      <c r="AX8" s="148"/>
+      <c r="AY8" s="148"/>
+      <c r="AZ8" s="148"/>
+      <c r="BA8" s="148"/>
+      <c r="BB8" s="148"/>
+      <c r="BC8" s="148"/>
+      <c r="BD8" s="148"/>
+      <c r="BE8" s="148"/>
+      <c r="BF8" s="148"/>
+      <c r="BG8" s="148"/>
+      <c r="BH8" s="148"/>
+      <c r="BI8" s="148"/>
+      <c r="BJ8" s="148"/>
+      <c r="BK8" s="148"/>
+      <c r="BL8" s="148"/>
+      <c r="BM8" s="148"/>
+      <c r="BN8" s="148"/>
+      <c r="BO8" s="148"/>
+      <c r="BP8" s="148"/>
+      <c r="BQ8" s="148"/>
+      <c r="BR8" s="148"/>
+      <c r="BS8" s="148"/>
+      <c r="BT8" s="148"/>
+      <c r="BU8" s="148"/>
+      <c r="BV8" s="148"/>
+      <c r="BW8" s="148"/>
+      <c r="BX8" s="148"/>
+      <c r="BY8" s="148"/>
+      <c r="BZ8" s="148"/>
+      <c r="CZ8" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="DA8" s="148"/>
+      <c r="DB8" s="148"/>
+      <c r="DC8" s="148"/>
+      <c r="DD8" s="148"/>
+      <c r="DE8" s="148"/>
+      <c r="DF8" s="148"/>
+      <c r="DG8" s="148"/>
+      <c r="DH8" s="148"/>
+      <c r="DI8" s="148"/>
+      <c r="DJ8" s="148"/>
+      <c r="DK8" s="148"/>
+      <c r="DL8" s="148"/>
+      <c r="DM8" s="148"/>
+      <c r="DN8" s="148"/>
+      <c r="DO8" s="148"/>
+      <c r="DP8" s="148"/>
+      <c r="DQ8" s="148"/>
+      <c r="DR8" s="148"/>
+      <c r="DS8" s="148"/>
+      <c r="DT8" s="148"/>
+      <c r="DU8" s="148"/>
+      <c r="DV8" s="148"/>
+      <c r="DW8" s="148"/>
+      <c r="DX8" s="148"/>
+      <c r="DY8" s="148"/>
+      <c r="DZ8" s="148"/>
+      <c r="EA8" s="148"/>
+      <c r="EB8" s="148"/>
+      <c r="EC8" s="148"/>
+      <c r="ED8" s="148"/>
+      <c r="EE8" s="148"/>
+      <c r="EF8" s="148"/>
+      <c r="EG8" s="148"/>
+      <c r="EH8" s="148"/>
+      <c r="EI8" s="148"/>
+      <c r="EJ8" s="148"/>
+      <c r="EK8" s="148"/>
+      <c r="EL8" s="148"/>
+      <c r="EM8" s="148"/>
+      <c r="EN8" s="148"/>
+    </row>
+    <row r="9" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV9" s="147" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW9" s="147"/>
+      <c r="AX9" s="147"/>
+      <c r="AY9" s="147"/>
+      <c r="AZ9" s="147"/>
+      <c r="BA9" s="147"/>
+      <c r="BB9" s="147"/>
+      <c r="BC9" s="147"/>
+      <c r="BD9" s="147"/>
+      <c r="BE9" s="147"/>
+      <c r="BF9" s="147"/>
+      <c r="BG9" s="147"/>
+      <c r="BH9" s="147"/>
+      <c r="BI9" s="147"/>
+      <c r="BJ9" s="147"/>
+      <c r="BK9" s="147"/>
+      <c r="BL9" s="147"/>
+      <c r="BM9" s="147"/>
+      <c r="BN9" s="147"/>
+      <c r="BO9" s="147"/>
+      <c r="BP9" s="147"/>
+      <c r="BQ9" s="147"/>
+      <c r="BR9" s="147"/>
+      <c r="BS9" s="147"/>
+    </row>
+    <row r="19" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="140" t="s">
+        <v>261</v>
+      </c>
+      <c r="N19" s="134" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="N20" s="134" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="N21" s="134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="N22" s="134" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="143" t="s">
+        <v>258</v>
+      </c>
+      <c r="N23" s="134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="135" t="s">
+        <v>183</v>
+      </c>
+      <c r="N24" s="134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="136" t="s">
+        <v>182</v>
+      </c>
+      <c r="N25" s="134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="AG3:AG6"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="AJ3:AJ6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AC3:AC6"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
+    <mergeCell ref="W3:W6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="AV9:BS9"/>
+    <mergeCell ref="CZ8:EN8"/>
+    <mergeCell ref="E7:AJ7"/>
+    <mergeCell ref="E8:BZ8"/>
+    <mergeCell ref="AZ3:AZ6"/>
+    <mergeCell ref="BA3:BA6"/>
+    <mergeCell ref="BB3:BB6"/>
+    <mergeCell ref="BC3:BC6"/>
+    <mergeCell ref="BD3:BD6"/>
+    <mergeCell ref="AT3:AT6"/>
+    <mergeCell ref="AP3:AP6"/>
+    <mergeCell ref="AO3:AO6"/>
+    <mergeCell ref="AN3:AN6"/>
+    <mergeCell ref="AM3:AM6"/>
+    <mergeCell ref="AL3:AL6"/>
+    <mergeCell ref="AK3:AK6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="145" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="145" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="145" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="145" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="145" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="145" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="M3" s="145" t="s">
+        <v>308</v>
+      </c>
+      <c r="N3" s="145" t="s">
+        <v>309</v>
+      </c>
+      <c r="O3" s="145" t="s">
+        <v>310</v>
+      </c>
+      <c r="P3" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q3" s="145" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="141" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="141" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="145" t="s">
+        <v>321</v>
+      </c>
+      <c r="K5" s="145" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="145" t="s">
+        <v>319</v>
+      </c>
+      <c r="M5" s="145" t="s">
+        <v>318</v>
+      </c>
+      <c r="N5" s="145" t="s">
+        <v>317</v>
+      </c>
+      <c r="O5" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="P5" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q5" s="145" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="144" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="144" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="144" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7" s="144" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7" s="144" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" s="144" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="144" t="s">
+        <v>339</v>
+      </c>
+      <c r="L7" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="M7" s="144" t="s">
+        <v>341</v>
+      </c>
+      <c r="N7" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="O7" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="P7" s="144" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q7" s="144" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="151"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="151"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" s="151"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="399">
   <si>
     <t>T0</t>
   </si>
@@ -1133,6 +1133,87 @@
   </si>
   <si>
     <t>RCH11</t>
+  </si>
+  <si>
+    <t>19A</t>
+  </si>
+  <si>
+    <t>19B</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>19E</t>
+  </si>
+  <si>
+    <t>19F</t>
+  </si>
+  <si>
+    <t>18F</t>
+  </si>
+  <si>
+    <t>18E</t>
+  </si>
+  <si>
+    <t>18D</t>
+  </si>
+  <si>
+    <t>18C</t>
+  </si>
+  <si>
+    <t>18B</t>
+  </si>
+  <si>
+    <t>17F</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>00A</t>
+  </si>
+  <si>
+    <t>00B</t>
+  </si>
+  <si>
+    <t>Vinc</t>
+  </si>
+  <si>
+    <t>LSn</t>
+  </si>
+  <si>
+    <t>NCHn</t>
+  </si>
+  <si>
+    <t>NPNn</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2057,6 +2138,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2069,124 +2195,82 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2492,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
@@ -3312,10 +3396,10 @@
       <c r="U15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="190" t="s">
+      <c r="W15" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="190" t="s">
+      <c r="X15" s="161" t="s">
         <v>64</v>
       </c>
       <c r="Y15" s="8" t="s">
@@ -3363,10 +3447,10 @@
       <c r="U16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W16" s="190" t="s">
+      <c r="W16" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="X16" s="190" t="s">
+      <c r="X16" s="161" t="s">
         <v>66</v>
       </c>
       <c r="Y16" s="8" t="s">
@@ -6621,8 +6705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:EN26"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BD14" sqref="BD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6630,7 +6714,176 @@
     <col min="1" max="16384" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:144" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="5:144" s="191" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="191" t="s">
+        <v>382</v>
+      </c>
+      <c r="N1" s="191">
+        <v>180</v>
+      </c>
+      <c r="O1" s="191">
+        <v>181</v>
+      </c>
+      <c r="P1" s="191">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="191">
+        <v>183</v>
+      </c>
+      <c r="R1" s="191">
+        <v>184</v>
+      </c>
+      <c r="S1" s="191">
+        <v>185</v>
+      </c>
+      <c r="T1" s="191">
+        <v>186</v>
+      </c>
+      <c r="U1" s="191">
+        <v>187</v>
+      </c>
+      <c r="V1" s="191">
+        <v>188</v>
+      </c>
+      <c r="W1" s="191">
+        <v>189</v>
+      </c>
+      <c r="X1" s="191" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="191" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z1" s="191" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA1" s="191" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB1" s="191" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC1" s="191" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD1" s="191">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="191">
+        <v>191</v>
+      </c>
+      <c r="AF1" s="191">
+        <v>192</v>
+      </c>
+      <c r="AG1" s="191">
+        <v>193</v>
+      </c>
+      <c r="AH1" s="191">
+        <v>194</v>
+      </c>
+      <c r="AI1" s="191">
+        <v>195</v>
+      </c>
+      <c r="AJ1" s="191">
+        <v>196</v>
+      </c>
+      <c r="AK1" s="191">
+        <v>197</v>
+      </c>
+      <c r="AL1" s="191">
+        <v>198</v>
+      </c>
+      <c r="AM1" s="191">
+        <v>199</v>
+      </c>
+      <c r="AN1" s="191" t="s">
+        <v>372</v>
+      </c>
+      <c r="AO1" s="191" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP1" s="191" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ1" s="191" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR1" s="191" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS1" s="191" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT1" s="191" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU1" s="191" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV1" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW1" s="191" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX1" s="191" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY1" s="191" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ1" s="191" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA1" s="191" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB1" s="191" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC1" s="191" t="s">
+        <v>275</v>
+      </c>
+      <c r="BD1" s="191" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE1" s="191" t="s">
+        <v>383</v>
+      </c>
+      <c r="BF1" s="191" t="s">
+        <v>384</v>
+      </c>
+      <c r="BG1" s="191" t="s">
+        <v>385</v>
+      </c>
+      <c r="BH1" s="191" t="s">
+        <v>386</v>
+      </c>
+      <c r="BI1" s="191" t="s">
+        <v>387</v>
+      </c>
+      <c r="BJ1" s="191" t="s">
+        <v>388</v>
+      </c>
+      <c r="BK1" s="191" t="s">
+        <v>389</v>
+      </c>
+      <c r="BL1" s="191" t="s">
+        <v>390</v>
+      </c>
+      <c r="BM1" s="191" t="s">
+        <v>391</v>
+      </c>
+      <c r="BN1" s="191" t="s">
+        <v>392</v>
+      </c>
+      <c r="BO1" s="191" t="s">
+        <v>393</v>
+      </c>
+      <c r="BP1" s="191" t="s">
+        <v>394</v>
+      </c>
+    </row>
     <row r="2" spans="5:144" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AK2" s="1">
         <v>181</v>
@@ -6816,100 +7069,100 @@
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
       <c r="L3" s="85"/>
-      <c r="M3" s="167" t="s">
+      <c r="M3" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="164" t="s">
+      <c r="N3" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="164" t="s">
+      <c r="O3" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="164" t="s">
+      <c r="P3" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="164" t="s">
+      <c r="Q3" s="187" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="164" t="s">
+      <c r="R3" s="187" t="s">
         <v>163</v>
       </c>
-      <c r="S3" s="164" t="s">
+      <c r="S3" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="T3" s="164" t="s">
+      <c r="T3" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="U3" s="164" t="s">
+      <c r="U3" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="V3" s="164" t="s">
+      <c r="V3" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="W3" s="164" t="s">
+      <c r="W3" s="187" t="s">
         <v>168</v>
       </c>
-      <c r="X3" s="164" t="s">
+      <c r="X3" s="187" t="s">
         <v>169</v>
       </c>
-      <c r="Y3" s="164" t="s">
+      <c r="Y3" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" s="164" t="s">
+      <c r="Z3" s="187" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" s="164" t="s">
+      <c r="AA3" s="187" t="s">
         <v>172</v>
       </c>
-      <c r="AB3" s="164" t="s">
+      <c r="AB3" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" s="164" t="s">
+      <c r="AC3" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" s="164" t="s">
+      <c r="AD3" s="187" t="s">
         <v>175</v>
       </c>
-      <c r="AE3" s="164" t="s">
+      <c r="AE3" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="AF3" s="164" t="s">
+      <c r="AF3" s="187" t="s">
         <v>177</v>
       </c>
-      <c r="AG3" s="164" t="s">
+      <c r="AG3" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="AH3" s="164" t="s">
+      <c r="AH3" s="187" t="s">
         <v>179</v>
       </c>
-      <c r="AI3" s="164" t="s">
+      <c r="AI3" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="AJ3" s="164" t="s">
+      <c r="AJ3" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="AK3" s="155" t="s">
+      <c r="AK3" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="AL3" s="155" t="s">
+      <c r="AL3" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="AM3" s="155" t="s">
+      <c r="AM3" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="AN3" s="155" t="s">
+      <c r="AN3" s="181" t="s">
         <v>259</v>
       </c>
-      <c r="AO3" s="155" t="s">
+      <c r="AO3" s="181" t="s">
         <v>259</v>
       </c>
-      <c r="AP3" s="158" t="s">
+      <c r="AP3" s="178" t="s">
         <v>259</v>
       </c>
       <c r="AQ3" s="85"/>
       <c r="AR3" s="85"/>
       <c r="AS3" s="85"/>
-      <c r="AT3" s="170" t="s">
+      <c r="AT3" s="175" t="s">
         <v>182</v>
       </c>
       <c r="AU3" s="85"/>
@@ -6917,22 +7170,22 @@
       <c r="AW3" s="85"/>
       <c r="AX3" s="85"/>
       <c r="AY3" s="85"/>
-      <c r="AZ3" s="173" t="s">
+      <c r="AZ3" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="BA3" s="152" t="s">
+      <c r="BA3" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="BB3" s="152" t="s">
+      <c r="BB3" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="BC3" s="152" t="s">
+      <c r="BC3" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="BD3" s="176" t="s">
+      <c r="BD3" s="172" t="s">
         <v>186</v>
       </c>
-      <c r="BE3" s="179"/>
+      <c r="BE3" s="150"/>
       <c r="BF3" s="85"/>
       <c r="BG3" s="85"/>
       <c r="BH3" s="85"/>
@@ -6948,127 +7201,127 @@
       <c r="BR3" s="85"/>
       <c r="BS3" s="85"/>
       <c r="BT3" s="85"/>
-      <c r="BU3" s="182" t="s">
+      <c r="BU3" s="153" t="s">
         <v>188</v>
       </c>
-      <c r="BV3" s="182" t="s">
+      <c r="BV3" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="BW3" s="182" t="s">
+      <c r="BW3" s="153" t="s">
         <v>190</v>
       </c>
-      <c r="BX3" s="182" t="s">
+      <c r="BX3" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="BY3" s="182" t="s">
+      <c r="BY3" s="153" t="s">
         <v>192</v>
       </c>
-      <c r="BZ3" s="182" t="s">
+      <c r="BZ3" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="CA3" s="182" t="s">
+      <c r="CA3" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="CB3" s="182" t="s">
+      <c r="CB3" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="CC3" s="182" t="s">
+      <c r="CC3" s="153" t="s">
         <v>356</v>
       </c>
-      <c r="CD3" s="182" t="s">
+      <c r="CD3" s="153" t="s">
         <v>357</v>
       </c>
-      <c r="CE3" s="182" t="s">
+      <c r="CE3" s="153" t="s">
         <v>358</v>
       </c>
-      <c r="CF3" s="182" t="s">
+      <c r="CF3" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="CG3" s="182" t="s">
+      <c r="CG3" s="153" t="s">
         <v>360</v>
       </c>
-      <c r="CH3" s="182" t="s">
+      <c r="CH3" s="153" t="s">
         <v>361</v>
       </c>
-      <c r="CI3" s="182" t="s">
+      <c r="CI3" s="153" t="s">
         <v>362</v>
       </c>
-      <c r="CJ3" s="182" t="s">
+      <c r="CJ3" s="153" t="s">
         <v>363</v>
       </c>
       <c r="CK3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="CL3" s="182" t="s">
+      <c r="CL3" s="153" t="s">
         <v>196</v>
       </c>
-      <c r="CM3" s="182" t="s">
+      <c r="CM3" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="CN3" s="182" t="s">
+      <c r="CN3" s="153" t="s">
         <v>198</v>
       </c>
-      <c r="CO3" s="182" t="s">
+      <c r="CO3" s="153" t="s">
         <v>199</v>
       </c>
-      <c r="CP3" s="182" t="s">
+      <c r="CP3" s="153" t="s">
         <v>200</v>
       </c>
-      <c r="CQ3" s="182" t="s">
+      <c r="CQ3" s="153" t="s">
         <v>201</v>
       </c>
-      <c r="CR3" s="182" t="s">
+      <c r="CR3" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="CS3" s="182" t="s">
+      <c r="CS3" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="CT3" s="182" t="s">
+      <c r="CT3" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="CU3" s="182" t="s">
+      <c r="CU3" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="CV3" s="182" t="s">
+      <c r="CV3" s="153" t="s">
         <v>206</v>
       </c>
-      <c r="CW3" s="182" t="s">
+      <c r="CW3" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="CX3" s="182" t="s">
+      <c r="CX3" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="CY3" s="182" t="s">
+      <c r="CY3" s="153" t="s">
         <v>209</v>
       </c>
-      <c r="CZ3" s="182" t="s">
+      <c r="CZ3" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="DA3" s="182" t="s">
+      <c r="DA3" s="153" t="s">
         <v>211</v>
       </c>
-      <c r="DB3" s="182" t="s">
+      <c r="DB3" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="DC3" s="182" t="s">
+      <c r="DC3" s="153" t="s">
         <v>213</v>
       </c>
-      <c r="DD3" s="182" t="s">
+      <c r="DD3" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="DE3" s="182" t="s">
+      <c r="DE3" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="DF3" s="182" t="s">
+      <c r="DF3" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="DG3" s="182" t="s">
+      <c r="DG3" s="153" t="s">
         <v>217</v>
       </c>
-      <c r="DH3" s="182" t="s">
+      <c r="DH3" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="DI3" s="182" t="s">
+      <c r="DI3" s="153" t="s">
         <v>219</v>
       </c>
       <c r="DJ3" s="85"/>
@@ -7077,425 +7330,425 @@
       <c r="DM3" s="85"/>
       <c r="DN3" s="85"/>
       <c r="DO3" s="85"/>
-      <c r="DP3" s="184"/>
+      <c r="DP3" s="155"/>
       <c r="DQ3" s="85"/>
-      <c r="DR3" s="185"/>
+      <c r="DR3" s="156"/>
       <c r="DS3" s="85"/>
-      <c r="DT3" s="185"/>
+      <c r="DT3" s="156"/>
       <c r="DU3" s="85"/>
-      <c r="DV3" s="185"/>
+      <c r="DV3" s="156"/>
       <c r="DW3" s="85"/>
-      <c r="DX3" s="185"/>
+      <c r="DX3" s="156"/>
       <c r="DY3" s="85"/>
-      <c r="DZ3" s="185"/>
+      <c r="DZ3" s="156"/>
       <c r="EA3" s="85"/>
-      <c r="EB3" s="185"/>
+      <c r="EB3" s="156"/>
       <c r="EC3" s="85"/>
-      <c r="ED3" s="185"/>
+      <c r="ED3" s="156"/>
       <c r="EE3" s="85"/>
-      <c r="EF3" s="185"/>
+      <c r="EF3" s="156"/>
       <c r="EG3" s="85"/>
-      <c r="EH3" s="185"/>
+      <c r="EH3" s="156"/>
       <c r="EI3" s="85"/>
-      <c r="EJ3" s="185"/>
+      <c r="EJ3" s="156"/>
       <c r="EK3" s="85"/>
-      <c r="EL3" s="185"/>
+      <c r="EL3" s="156"/>
       <c r="EM3" s="85"/>
-      <c r="EN3" s="186"/>
+      <c r="EN3" s="157"/>
     </row>
     <row r="4" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="159"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="162"/>
-      <c r="AV4" s="162"/>
-      <c r="AW4" s="162"/>
-      <c r="AX4" s="162"/>
-      <c r="AY4" s="162"/>
-      <c r="AZ4" s="174"/>
-      <c r="BA4" s="153"/>
-      <c r="BB4" s="153"/>
-      <c r="BC4" s="153"/>
-      <c r="BD4" s="177"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="188"/>
+      <c r="U4" s="188"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
+      <c r="AD4" s="188"/>
+      <c r="AE4" s="188"/>
+      <c r="AF4" s="188"/>
+      <c r="AG4" s="188"/>
+      <c r="AH4" s="188"/>
+      <c r="AI4" s="188"/>
+      <c r="AJ4" s="188"/>
+      <c r="AK4" s="182"/>
+      <c r="AL4" s="182"/>
+      <c r="AM4" s="182"/>
+      <c r="AN4" s="182"/>
+      <c r="AO4" s="182"/>
+      <c r="AP4" s="179"/>
+      <c r="AQ4" s="148"/>
+      <c r="AR4" s="148"/>
+      <c r="AS4" s="148"/>
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="148"/>
+      <c r="AV4" s="148"/>
+      <c r="AW4" s="148"/>
+      <c r="AX4" s="148"/>
+      <c r="AY4" s="148"/>
+      <c r="AZ4" s="167"/>
+      <c r="BA4" s="170"/>
+      <c r="BB4" s="170"/>
+      <c r="BC4" s="170"/>
+      <c r="BD4" s="173"/>
       <c r="BE4" s="30"/>
-      <c r="BF4" s="162"/>
-      <c r="BG4" s="162"/>
-      <c r="BH4" s="162"/>
-      <c r="BI4" s="162"/>
-      <c r="BJ4" s="162"/>
-      <c r="BK4" s="162"/>
-      <c r="BL4" s="162"/>
-      <c r="BM4" s="162"/>
-      <c r="BN4" s="162"/>
-      <c r="BO4" s="162"/>
-      <c r="BP4" s="162"/>
-      <c r="BQ4" s="162"/>
-      <c r="BR4" s="162"/>
-      <c r="BS4" s="162"/>
-      <c r="BT4" s="162"/>
-      <c r="BU4" s="162"/>
-      <c r="BV4" s="162"/>
-      <c r="BW4" s="162"/>
-      <c r="BX4" s="162"/>
-      <c r="BY4" s="183" t="s">
+      <c r="BF4" s="148"/>
+      <c r="BG4" s="148"/>
+      <c r="BH4" s="148"/>
+      <c r="BI4" s="148"/>
+      <c r="BJ4" s="148"/>
+      <c r="BK4" s="148"/>
+      <c r="BL4" s="148"/>
+      <c r="BM4" s="148"/>
+      <c r="BN4" s="148"/>
+      <c r="BO4" s="148"/>
+      <c r="BP4" s="148"/>
+      <c r="BQ4" s="148"/>
+      <c r="BR4" s="148"/>
+      <c r="BS4" s="148"/>
+      <c r="BT4" s="148"/>
+      <c r="BU4" s="148"/>
+      <c r="BV4" s="148"/>
+      <c r="BW4" s="148"/>
+      <c r="BX4" s="148"/>
+      <c r="BY4" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="BZ4" s="183" t="s">
+      <c r="BZ4" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="CA4" s="183" t="s">
+      <c r="CA4" s="154" t="s">
         <v>223</v>
       </c>
-      <c r="CB4" s="183" t="s">
+      <c r="CB4" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="CC4" s="183" t="s">
+      <c r="CC4" s="154" t="s">
         <v>364</v>
       </c>
-      <c r="CD4" s="183" t="s">
+      <c r="CD4" s="154" t="s">
         <v>365</v>
       </c>
-      <c r="CE4" s="183" t="s">
+      <c r="CE4" s="154" t="s">
         <v>366</v>
       </c>
-      <c r="CF4" s="183" t="s">
+      <c r="CF4" s="154" t="s">
         <v>367</v>
       </c>
-      <c r="CG4" s="183" t="s">
+      <c r="CG4" s="154" t="s">
         <v>368</v>
       </c>
-      <c r="CH4" s="183" t="s">
+      <c r="CH4" s="154" t="s">
         <v>369</v>
       </c>
-      <c r="CI4" s="183" t="s">
+      <c r="CI4" s="154" t="s">
         <v>370</v>
       </c>
-      <c r="CJ4" s="183" t="s">
+      <c r="CJ4" s="154" t="s">
         <v>371</v>
       </c>
       <c r="CK4" s="2"/>
-      <c r="CL4" s="183" t="s">
+      <c r="CL4" s="154" t="s">
         <v>225</v>
       </c>
-      <c r="CM4" s="183" t="s">
+      <c r="CM4" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="CN4" s="183" t="s">
+      <c r="CN4" s="154" t="s">
         <v>227</v>
       </c>
-      <c r="CO4" s="183" t="s">
+      <c r="CO4" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="CP4" s="183" t="s">
+      <c r="CP4" s="154" t="s">
         <v>229</v>
       </c>
-      <c r="CQ4" s="183" t="s">
+      <c r="CQ4" s="154" t="s">
         <v>230</v>
       </c>
-      <c r="CR4" s="183" t="s">
+      <c r="CR4" s="154" t="s">
         <v>231</v>
       </c>
-      <c r="CS4" s="183" t="s">
+      <c r="CS4" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="CT4" s="183" t="s">
+      <c r="CT4" s="154" t="s">
         <v>233</v>
       </c>
-      <c r="CU4" s="183" t="s">
+      <c r="CU4" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="CV4" s="183" t="s">
+      <c r="CV4" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="CW4" s="183" t="s">
+      <c r="CW4" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="CX4" s="183" t="s">
+      <c r="CX4" s="154" t="s">
         <v>237</v>
       </c>
-      <c r="CY4" s="183" t="s">
+      <c r="CY4" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="CZ4" s="183" t="s">
+      <c r="CZ4" s="154" t="s">
         <v>239</v>
       </c>
-      <c r="DA4" s="183" t="s">
+      <c r="DA4" s="154" t="s">
         <v>240</v>
       </c>
-      <c r="DB4" s="183" t="s">
+      <c r="DB4" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="DC4" s="183" t="s">
+      <c r="DC4" s="154" t="s">
         <v>242</v>
       </c>
-      <c r="DD4" s="183" t="s">
+      <c r="DD4" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="DE4" s="183" t="s">
+      <c r="DE4" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="DF4" s="183" t="s">
+      <c r="DF4" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="DG4" s="183" t="s">
+      <c r="DG4" s="154" t="s">
         <v>246</v>
       </c>
-      <c r="DH4" s="183" t="s">
+      <c r="DH4" s="154" t="s">
         <v>247</v>
       </c>
-      <c r="DI4" s="183" t="s">
+      <c r="DI4" s="154" t="s">
         <v>248</v>
       </c>
-      <c r="DJ4" s="183" t="s">
+      <c r="DJ4" s="154" t="s">
         <v>249</v>
       </c>
-      <c r="DK4" s="183" t="s">
+      <c r="DK4" s="154" t="s">
         <v>250</v>
       </c>
-      <c r="DL4" s="183" t="s">
+      <c r="DL4" s="154" t="s">
         <v>251</v>
       </c>
-      <c r="DM4" s="183" t="s">
+      <c r="DM4" s="154" t="s">
         <v>252</v>
       </c>
-      <c r="DN4" s="162"/>
-      <c r="DO4" s="162"/>
+      <c r="DN4" s="148"/>
+      <c r="DO4" s="148"/>
       <c r="DP4" s="20"/>
-      <c r="DQ4" s="162"/>
-      <c r="DR4" s="161"/>
-      <c r="DS4" s="162"/>
-      <c r="DT4" s="161"/>
-      <c r="DU4" s="162"/>
-      <c r="DV4" s="161"/>
-      <c r="DW4" s="162"/>
-      <c r="DX4" s="161"/>
-      <c r="DY4" s="162"/>
-      <c r="DZ4" s="161"/>
-      <c r="EA4" s="162"/>
-      <c r="EB4" s="161"/>
-      <c r="EC4" s="162"/>
-      <c r="ED4" s="161"/>
-      <c r="EE4" s="162"/>
-      <c r="EF4" s="161"/>
-      <c r="EG4" s="162"/>
-      <c r="EH4" s="161"/>
-      <c r="EI4" s="162"/>
-      <c r="EJ4" s="161"/>
-      <c r="EK4" s="162"/>
-      <c r="EL4" s="161"/>
-      <c r="EM4" s="162"/>
-      <c r="EN4" s="187"/>
+      <c r="DQ4" s="148"/>
+      <c r="DR4" s="147"/>
+      <c r="DS4" s="148"/>
+      <c r="DT4" s="147"/>
+      <c r="DU4" s="148"/>
+      <c r="DV4" s="147"/>
+      <c r="DW4" s="148"/>
+      <c r="DX4" s="147"/>
+      <c r="DY4" s="148"/>
+      <c r="DZ4" s="147"/>
+      <c r="EA4" s="148"/>
+      <c r="EB4" s="147"/>
+      <c r="EC4" s="148"/>
+      <c r="ED4" s="147"/>
+      <c r="EE4" s="148"/>
+      <c r="EF4" s="147"/>
+      <c r="EG4" s="148"/>
+      <c r="EH4" s="147"/>
+      <c r="EI4" s="148"/>
+      <c r="EJ4" s="147"/>
+      <c r="EK4" s="148"/>
+      <c r="EL4" s="147"/>
+      <c r="EM4" s="148"/>
+      <c r="EN4" s="158"/>
     </row>
     <row r="5" spans="5:144" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="156"/>
-      <c r="AL5" s="156"/>
-      <c r="AM5" s="156"/>
-      <c r="AN5" s="156"/>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="159"/>
-      <c r="AQ5" s="162"/>
-      <c r="AR5" s="162"/>
-      <c r="AS5" s="162"/>
-      <c r="AT5" s="171"/>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="162"/>
-      <c r="AW5" s="162"/>
-      <c r="AX5" s="162"/>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="174"/>
-      <c r="BA5" s="153"/>
-      <c r="BB5" s="153"/>
-      <c r="BC5" s="153"/>
-      <c r="BD5" s="177"/>
-      <c r="BE5" s="180" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="188"/>
+      <c r="T5" s="188"/>
+      <c r="U5" s="188"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AE5" s="188"/>
+      <c r="AF5" s="188"/>
+      <c r="AG5" s="188"/>
+      <c r="AH5" s="188"/>
+      <c r="AI5" s="188"/>
+      <c r="AJ5" s="188"/>
+      <c r="AK5" s="182"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="182"/>
+      <c r="AN5" s="182"/>
+      <c r="AO5" s="182"/>
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="176"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="167"/>
+      <c r="BA5" s="170"/>
+      <c r="BB5" s="170"/>
+      <c r="BC5" s="170"/>
+      <c r="BD5" s="173"/>
+      <c r="BE5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BF5" s="180" t="s">
+      <c r="BF5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BG5" s="180" t="s">
+      <c r="BG5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BH5" s="180" t="s">
+      <c r="BH5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BI5" s="180" t="s">
+      <c r="BI5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BJ5" s="180" t="s">
+      <c r="BJ5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BK5" s="180" t="s">
+      <c r="BK5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BL5" s="180" t="s">
+      <c r="BL5" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="BM5" s="180" t="s">
+      <c r="BM5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BN5" s="180" t="s">
+      <c r="BN5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BO5" s="180" t="s">
+      <c r="BO5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BP5" s="180" t="s">
+      <c r="BP5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BQ5" s="180" t="s">
+      <c r="BQ5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BR5" s="180" t="s">
+      <c r="BR5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BS5" s="180" t="s">
+      <c r="BS5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BT5" s="180" t="s">
+      <c r="BT5" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="BU5" s="180" t="s">
+      <c r="BU5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="BV5" s="180" t="s">
+      <c r="BV5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="BW5" s="180" t="s">
+      <c r="BW5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="BX5" s="180" t="s">
+      <c r="BX5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="BY5" s="180" t="s">
+      <c r="BY5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="BZ5" s="180" t="s">
+      <c r="BZ5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="CA5" s="180" t="s">
+      <c r="CA5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="CB5" s="180" t="s">
+      <c r="CB5" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="CC5" s="180" t="s">
+      <c r="CC5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CD5" s="180" t="s">
+      <c r="CD5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CE5" s="180" t="s">
+      <c r="CE5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CF5" s="180" t="s">
+      <c r="CF5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CG5" s="180" t="s">
+      <c r="CG5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CH5" s="180" t="s">
+      <c r="CH5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CI5" s="180" t="s">
+      <c r="CI5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CJ5" s="180" t="s">
+      <c r="CJ5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="CL5" s="180" t="s">
+      <c r="CL5" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="CM5" s="180" t="s">
+      <c r="CM5" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="CN5" s="180" t="s">
+      <c r="CN5" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="CO5" s="180" t="s">
+      <c r="CO5" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="CP5" s="180" t="s">
+      <c r="CP5" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="CQ5" s="180" t="s">
+      <c r="CQ5" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="CR5" s="180" t="s">
+      <c r="CR5" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="CS5" s="180" t="s">
+      <c r="CS5" s="151" t="s">
         <v>285</v>
       </c>
       <c r="CT5" s="30"/>
@@ -7506,224 +7759,224 @@
       <c r="CY5" s="30"/>
       <c r="CZ5" s="30"/>
       <c r="DA5" s="30"/>
-      <c r="DB5" s="162"/>
-      <c r="DC5" s="162"/>
-      <c r="DD5" s="162"/>
-      <c r="DE5" s="162"/>
-      <c r="DF5" s="162"/>
-      <c r="DG5" s="162"/>
-      <c r="DH5" s="162"/>
-      <c r="DI5" s="162"/>
-      <c r="DJ5" s="162"/>
-      <c r="DK5" s="162"/>
-      <c r="DL5" s="162"/>
-      <c r="DM5" s="162"/>
-      <c r="DN5" s="162"/>
-      <c r="DO5" s="162"/>
+      <c r="DB5" s="148"/>
+      <c r="DC5" s="148"/>
+      <c r="DD5" s="148"/>
+      <c r="DE5" s="148"/>
+      <c r="DF5" s="148"/>
+      <c r="DG5" s="148"/>
+      <c r="DH5" s="148"/>
+      <c r="DI5" s="148"/>
+      <c r="DJ5" s="148"/>
+      <c r="DK5" s="148"/>
+      <c r="DL5" s="148"/>
+      <c r="DM5" s="148"/>
+      <c r="DN5" s="148"/>
+      <c r="DO5" s="148"/>
       <c r="DP5" s="20"/>
-      <c r="DQ5" s="162"/>
-      <c r="DR5" s="161"/>
-      <c r="DS5" s="162"/>
-      <c r="DT5" s="161"/>
-      <c r="DU5" s="162"/>
-      <c r="DV5" s="161"/>
-      <c r="DW5" s="162"/>
-      <c r="DX5" s="161"/>
-      <c r="DY5" s="162"/>
-      <c r="DZ5" s="161"/>
-      <c r="EA5" s="162"/>
-      <c r="EB5" s="161"/>
-      <c r="EC5" s="162"/>
-      <c r="ED5" s="161"/>
-      <c r="EE5" s="162"/>
-      <c r="EF5" s="161"/>
-      <c r="EG5" s="162"/>
-      <c r="EH5" s="161"/>
-      <c r="EI5" s="162"/>
-      <c r="EJ5" s="161"/>
-      <c r="EK5" s="162"/>
-      <c r="EL5" s="161"/>
-      <c r="EM5" s="162"/>
-      <c r="EN5" s="187"/>
+      <c r="DQ5" s="148"/>
+      <c r="DR5" s="147"/>
+      <c r="DS5" s="148"/>
+      <c r="DT5" s="147"/>
+      <c r="DU5" s="148"/>
+      <c r="DV5" s="147"/>
+      <c r="DW5" s="148"/>
+      <c r="DX5" s="147"/>
+      <c r="DY5" s="148"/>
+      <c r="DZ5" s="147"/>
+      <c r="EA5" s="148"/>
+      <c r="EB5" s="147"/>
+      <c r="EC5" s="148"/>
+      <c r="ED5" s="147"/>
+      <c r="EE5" s="148"/>
+      <c r="EF5" s="147"/>
+      <c r="EG5" s="148"/>
+      <c r="EH5" s="147"/>
+      <c r="EI5" s="148"/>
+      <c r="EJ5" s="147"/>
+      <c r="EK5" s="148"/>
+      <c r="EL5" s="147"/>
+      <c r="EM5" s="148"/>
+      <c r="EN5" s="158"/>
     </row>
     <row r="6" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="166"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="166"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="166"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="157"/>
-      <c r="AM6" s="157"/>
-      <c r="AN6" s="157"/>
-      <c r="AO6" s="157"/>
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="163"/>
-      <c r="AR6" s="163"/>
-      <c r="AS6" s="163"/>
-      <c r="AT6" s="172"/>
-      <c r="AU6" s="163"/>
-      <c r="AV6" s="163"/>
-      <c r="AW6" s="163"/>
-      <c r="AX6" s="163"/>
-      <c r="AY6" s="163"/>
-      <c r="AZ6" s="175"/>
-      <c r="BA6" s="154"/>
-      <c r="BB6" s="154"/>
-      <c r="BC6" s="154"/>
-      <c r="BD6" s="178"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="189"/>
+      <c r="AC6" s="189"/>
+      <c r="AD6" s="189"/>
+      <c r="AE6" s="189"/>
+      <c r="AF6" s="189"/>
+      <c r="AG6" s="189"/>
+      <c r="AH6" s="189"/>
+      <c r="AI6" s="189"/>
+      <c r="AJ6" s="189"/>
+      <c r="AK6" s="183"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="183"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="183"/>
+      <c r="AP6" s="180"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="177"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="149"/>
+      <c r="AZ6" s="168"/>
+      <c r="BA6" s="171"/>
+      <c r="BB6" s="171"/>
+      <c r="BC6" s="171"/>
+      <c r="BD6" s="174"/>
       <c r="BE6" s="29"/>
-      <c r="BF6" s="163"/>
-      <c r="BG6" s="163"/>
-      <c r="BH6" s="163"/>
-      <c r="BI6" s="181" t="s">
+      <c r="BF6" s="149"/>
+      <c r="BG6" s="149"/>
+      <c r="BH6" s="149"/>
+      <c r="BI6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BJ6" s="181" t="s">
+      <c r="BJ6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BK6" s="181" t="s">
+      <c r="BK6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BL6" s="181" t="s">
+      <c r="BL6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BM6" s="181" t="s">
+      <c r="BM6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BN6" s="181" t="s">
+      <c r="BN6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BO6" s="181" t="s">
+      <c r="BO6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BP6" s="181" t="s">
+      <c r="BP6" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="BQ6" s="181" t="s">
+      <c r="BQ6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BR6" s="181" t="s">
+      <c r="BR6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BS6" s="181" t="s">
+      <c r="BS6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BT6" s="181" t="s">
+      <c r="BT6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BU6" s="181" t="s">
+      <c r="BU6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BV6" s="181" t="s">
+      <c r="BV6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BW6" s="181" t="s">
+      <c r="BW6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BX6" s="181" t="s">
+      <c r="BX6" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="BY6" s="181" t="s">
+      <c r="BY6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="BZ6" s="181" t="s">
+      <c r="BZ6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="CA6" s="181" t="s">
+      <c r="CA6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="CB6" s="181" t="s">
+      <c r="CB6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="CC6" s="181" t="s">
+      <c r="CC6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="CD6" s="181" t="s">
+      <c r="CD6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="CE6" s="181" t="s">
+      <c r="CE6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="CF6" s="181" t="s">
+      <c r="CF6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="CG6" s="181" t="s">
+      <c r="CG6" s="152" t="s">
         <v>289</v>
       </c>
-      <c r="CH6" s="181" t="s">
+      <c r="CH6" s="152" t="s">
         <v>289</v>
       </c>
-      <c r="CI6" s="181" t="s">
+      <c r="CI6" s="152" t="s">
         <v>289</v>
       </c>
-      <c r="CJ6" s="181" t="s">
+      <c r="CJ6" s="152" t="s">
         <v>289</v>
       </c>
       <c r="CK6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="CL6" s="181" t="s">
+      <c r="CL6" s="152" t="s">
         <v>290</v>
       </c>
-      <c r="CM6" s="181" t="s">
+      <c r="CM6" s="152" t="s">
         <v>290</v>
       </c>
-      <c r="CN6" s="181" t="s">
+      <c r="CN6" s="152" t="s">
         <v>290</v>
       </c>
-      <c r="CO6" s="181" t="s">
+      <c r="CO6" s="152" t="s">
         <v>290</v>
       </c>
-      <c r="CP6" s="181" t="s">
+      <c r="CP6" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="CQ6" s="181" t="s">
+      <c r="CQ6" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="CR6" s="181" t="s">
+      <c r="CR6" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="CS6" s="181" t="s">
+      <c r="CS6" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="CT6" s="181" t="s">
+      <c r="CT6" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="CU6" s="181" t="s">
+      <c r="CU6" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="CV6" s="181" t="s">
+      <c r="CV6" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="CW6" s="181" t="s">
+      <c r="CW6" s="152" t="s">
         <v>291</v>
       </c>
       <c r="CX6" s="28"/>
@@ -7734,77 +7987,77 @@
       <c r="DC6" s="28"/>
       <c r="DD6" s="28"/>
       <c r="DE6" s="28"/>
-      <c r="DF6" s="163"/>
-      <c r="DG6" s="163"/>
-      <c r="DH6" s="163"/>
-      <c r="DI6" s="163"/>
-      <c r="DJ6" s="163"/>
-      <c r="DK6" s="163"/>
-      <c r="DL6" s="163"/>
-      <c r="DM6" s="163"/>
-      <c r="DN6" s="163"/>
-      <c r="DO6" s="163"/>
+      <c r="DF6" s="149"/>
+      <c r="DG6" s="149"/>
+      <c r="DH6" s="149"/>
+      <c r="DI6" s="149"/>
+      <c r="DJ6" s="149"/>
+      <c r="DK6" s="149"/>
+      <c r="DL6" s="149"/>
+      <c r="DM6" s="149"/>
+      <c r="DN6" s="149"/>
+      <c r="DO6" s="149"/>
       <c r="DP6" s="13"/>
-      <c r="DQ6" s="163"/>
-      <c r="DR6" s="188"/>
-      <c r="DS6" s="163"/>
-      <c r="DT6" s="188"/>
-      <c r="DU6" s="163"/>
-      <c r="DV6" s="188"/>
-      <c r="DW6" s="163"/>
-      <c r="DX6" s="188"/>
-      <c r="DY6" s="163"/>
-      <c r="DZ6" s="188"/>
-      <c r="EA6" s="163"/>
-      <c r="EB6" s="188"/>
-      <c r="EC6" s="163"/>
-      <c r="ED6" s="188"/>
-      <c r="EE6" s="163"/>
-      <c r="EF6" s="188"/>
-      <c r="EG6" s="163"/>
-      <c r="EH6" s="188"/>
-      <c r="EI6" s="163"/>
-      <c r="EJ6" s="188"/>
-      <c r="EK6" s="163"/>
-      <c r="EL6" s="188"/>
-      <c r="EM6" s="163"/>
-      <c r="EN6" s="189"/>
+      <c r="DQ6" s="149"/>
+      <c r="DR6" s="159"/>
+      <c r="DS6" s="149"/>
+      <c r="DT6" s="159"/>
+      <c r="DU6" s="149"/>
+      <c r="DV6" s="159"/>
+      <c r="DW6" s="149"/>
+      <c r="DX6" s="159"/>
+      <c r="DY6" s="149"/>
+      <c r="DZ6" s="159"/>
+      <c r="EA6" s="149"/>
+      <c r="EB6" s="159"/>
+      <c r="EC6" s="149"/>
+      <c r="ED6" s="159"/>
+      <c r="EE6" s="149"/>
+      <c r="EF6" s="159"/>
+      <c r="EG6" s="149"/>
+      <c r="EH6" s="159"/>
+      <c r="EI6" s="149"/>
+      <c r="EJ6" s="159"/>
+      <c r="EK6" s="149"/>
+      <c r="EL6" s="159"/>
+      <c r="EM6" s="149"/>
+      <c r="EN6" s="160"/>
     </row>
     <row r="7" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="149" t="s">
+      <c r="E7" s="164" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
       <c r="AK7" s="146"/>
       <c r="AL7" s="146"/>
       <c r="AM7" s="146"/>
@@ -7813,157 +8066,160 @@
       <c r="AP7" s="146"/>
     </row>
     <row r="8" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="163" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="148"/>
-      <c r="AL8" s="148"/>
-      <c r="AM8" s="148"/>
-      <c r="AN8" s="148"/>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="148"/>
-      <c r="AR8" s="148"/>
-      <c r="AS8" s="148"/>
-      <c r="AT8" s="148"/>
-      <c r="AU8" s="148"/>
-      <c r="AV8" s="148"/>
-      <c r="AW8" s="148"/>
-      <c r="AX8" s="148"/>
-      <c r="AY8" s="148"/>
-      <c r="AZ8" s="148"/>
-      <c r="BA8" s="148"/>
-      <c r="BB8" s="148"/>
-      <c r="BC8" s="148"/>
-      <c r="BD8" s="148"/>
-      <c r="BE8" s="148"/>
-      <c r="BF8" s="148"/>
-      <c r="BG8" s="148"/>
-      <c r="BH8" s="148"/>
-      <c r="BI8" s="148"/>
-      <c r="BJ8" s="148"/>
-      <c r="BK8" s="148"/>
-      <c r="BL8" s="148"/>
-      <c r="BM8" s="148"/>
-      <c r="BN8" s="148"/>
-      <c r="BO8" s="148"/>
-      <c r="BP8" s="148"/>
-      <c r="BQ8" s="148"/>
-      <c r="BR8" s="148"/>
-      <c r="BS8" s="148"/>
-      <c r="BT8" s="148"/>
-      <c r="BU8" s="148"/>
-      <c r="BV8" s="148"/>
-      <c r="BW8" s="148"/>
-      <c r="BX8" s="148"/>
-      <c r="BY8" s="148"/>
-      <c r="BZ8" s="148"/>
-      <c r="CZ8" s="148" t="s">
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="163"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="163"/>
+      <c r="AM8" s="163"/>
+      <c r="AN8" s="163"/>
+      <c r="AO8" s="163"/>
+      <c r="AP8" s="163"/>
+      <c r="AQ8" s="163"/>
+      <c r="AR8" s="163"/>
+      <c r="AS8" s="163"/>
+      <c r="AT8" s="163"/>
+      <c r="AU8" s="163"/>
+      <c r="AV8" s="163"/>
+      <c r="AW8" s="163"/>
+      <c r="AX8" s="163"/>
+      <c r="AY8" s="163"/>
+      <c r="AZ8" s="163"/>
+      <c r="BA8" s="163"/>
+      <c r="BB8" s="163"/>
+      <c r="BC8" s="163"/>
+      <c r="BD8" s="163"/>
+      <c r="BE8" s="163"/>
+      <c r="BF8" s="163"/>
+      <c r="BG8" s="163"/>
+      <c r="BH8" s="163"/>
+      <c r="BI8" s="163"/>
+      <c r="BJ8" s="163"/>
+      <c r="BK8" s="163"/>
+      <c r="BL8" s="163"/>
+      <c r="BM8" s="163"/>
+      <c r="BN8" s="163"/>
+      <c r="BO8" s="163"/>
+      <c r="BP8" s="163"/>
+      <c r="BQ8" s="163"/>
+      <c r="BR8" s="163"/>
+      <c r="BS8" s="163"/>
+      <c r="BT8" s="163"/>
+      <c r="BU8" s="163"/>
+      <c r="BV8" s="163"/>
+      <c r="BW8" s="163"/>
+      <c r="BX8" s="163"/>
+      <c r="BY8" s="163"/>
+      <c r="BZ8" s="163"/>
+      <c r="CZ8" s="163" t="s">
         <v>352</v>
       </c>
-      <c r="DA8" s="148"/>
-      <c r="DB8" s="148"/>
-      <c r="DC8" s="148"/>
-      <c r="DD8" s="148"/>
-      <c r="DE8" s="148"/>
-      <c r="DF8" s="148"/>
-      <c r="DG8" s="148"/>
-      <c r="DH8" s="148"/>
-      <c r="DI8" s="148"/>
-      <c r="DJ8" s="148"/>
-      <c r="DK8" s="148"/>
-      <c r="DL8" s="148"/>
-      <c r="DM8" s="148"/>
-      <c r="DN8" s="148"/>
-      <c r="DO8" s="148"/>
-      <c r="DP8" s="148"/>
-      <c r="DQ8" s="148"/>
-      <c r="DR8" s="148"/>
-      <c r="DS8" s="148"/>
-      <c r="DT8" s="148"/>
-      <c r="DU8" s="148"/>
-      <c r="DV8" s="148"/>
-      <c r="DW8" s="148"/>
-      <c r="DX8" s="148"/>
-      <c r="DY8" s="148"/>
-      <c r="DZ8" s="148"/>
-      <c r="EA8" s="148"/>
-      <c r="EB8" s="148"/>
-      <c r="EC8" s="148"/>
-      <c r="ED8" s="148"/>
-      <c r="EE8" s="148"/>
-      <c r="EF8" s="148"/>
-      <c r="EG8" s="148"/>
-      <c r="EH8" s="148"/>
-      <c r="EI8" s="148"/>
-      <c r="EJ8" s="148"/>
-      <c r="EK8" s="148"/>
-      <c r="EL8" s="148"/>
-      <c r="EM8" s="148"/>
-      <c r="EN8" s="148"/>
+      <c r="DA8" s="163"/>
+      <c r="DB8" s="163"/>
+      <c r="DC8" s="163"/>
+      <c r="DD8" s="163"/>
+      <c r="DE8" s="163"/>
+      <c r="DF8" s="163"/>
+      <c r="DG8" s="163"/>
+      <c r="DH8" s="163"/>
+      <c r="DI8" s="163"/>
+      <c r="DJ8" s="163"/>
+      <c r="DK8" s="163"/>
+      <c r="DL8" s="163"/>
+      <c r="DM8" s="163"/>
+      <c r="DN8" s="163"/>
+      <c r="DO8" s="163"/>
+      <c r="DP8" s="163"/>
+      <c r="DQ8" s="163"/>
+      <c r="DR8" s="163"/>
+      <c r="DS8" s="163"/>
+      <c r="DT8" s="163"/>
+      <c r="DU8" s="163"/>
+      <c r="DV8" s="163"/>
+      <c r="DW8" s="163"/>
+      <c r="DX8" s="163"/>
+      <c r="DY8" s="163"/>
+      <c r="DZ8" s="163"/>
+      <c r="EA8" s="163"/>
+      <c r="EB8" s="163"/>
+      <c r="EC8" s="163"/>
+      <c r="ED8" s="163"/>
+      <c r="EE8" s="163"/>
+      <c r="EF8" s="163"/>
+      <c r="EG8" s="163"/>
+      <c r="EH8" s="163"/>
+      <c r="EI8" s="163"/>
+      <c r="EJ8" s="163"/>
+      <c r="EK8" s="163"/>
+      <c r="EL8" s="163"/>
+      <c r="EM8" s="163"/>
+      <c r="EN8" s="163"/>
     </row>
     <row r="9" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV9" s="147" t="s">
+      <c r="AV9" s="162" t="s">
         <v>355</v>
       </c>
-      <c r="AW9" s="147"/>
-      <c r="AX9" s="147"/>
-      <c r="AY9" s="147"/>
-      <c r="AZ9" s="147"/>
-      <c r="BA9" s="147"/>
-      <c r="BB9" s="147"/>
-      <c r="BC9" s="147"/>
-      <c r="BD9" s="147"/>
-      <c r="BE9" s="147"/>
-      <c r="BF9" s="147"/>
-      <c r="BG9" s="147"/>
-      <c r="BH9" s="147"/>
-      <c r="BI9" s="147"/>
-      <c r="BJ9" s="147"/>
-      <c r="BK9" s="147"/>
-      <c r="BL9" s="147"/>
-      <c r="BM9" s="147"/>
-      <c r="BN9" s="147"/>
-      <c r="BO9" s="147"/>
-      <c r="BP9" s="147"/>
-      <c r="BQ9" s="147"/>
-      <c r="BR9" s="147"/>
-      <c r="BS9" s="147"/>
+      <c r="AW9" s="162"/>
+      <c r="AX9" s="162"/>
+      <c r="AY9" s="162"/>
+      <c r="AZ9" s="162"/>
+      <c r="BA9" s="162"/>
+      <c r="BB9" s="162"/>
+      <c r="BC9" s="162"/>
+      <c r="BD9" s="162"/>
+      <c r="BE9" s="162"/>
+      <c r="BF9" s="162"/>
+      <c r="BG9" s="162"/>
+      <c r="BH9" s="162"/>
+      <c r="BI9" s="162"/>
+      <c r="BJ9" s="162"/>
+      <c r="BK9" s="162"/>
+      <c r="BL9" s="162"/>
+      <c r="BM9" s="162"/>
+      <c r="BN9" s="162"/>
+      <c r="BO9" s="162"/>
+      <c r="BP9" s="162"/>
+      <c r="BQ9" s="162"/>
+      <c r="BR9" s="162"/>
+      <c r="BS9" s="162"/>
+      <c r="DY9" s="3" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="19" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M19" s="140" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="N19" s="134" t="s">
         <v>353</v>
@@ -7971,7 +8227,7 @@
     </row>
     <row r="20" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20" s="5" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="N20" s="134" t="s">
         <v>354</v>
@@ -7995,7 +8251,7 @@
     </row>
     <row r="23" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="143" t="s">
-        <v>258</v>
+        <v>396</v>
       </c>
       <c r="N23" s="134" t="s">
         <v>260</v>
@@ -8334,8 +8590,8 @@
       <c r="F9" s="84" t="s">
         <v>327</v>
       </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
@@ -8350,10 +8606,10 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="190" t="s">
         <v>349</v>
       </c>
-      <c r="H10" s="151"/>
+      <c r="H10" s="190"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
@@ -8368,10 +8624,10 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="190" t="s">
         <v>350</v>
       </c>
-      <c r="H11" s="151"/>
+      <c r="H11" s="190"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
@@ -8386,10 +8642,10 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="190" t="s">
         <v>329</v>
       </c>
-      <c r="H12" s="151"/>
+      <c r="H12" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="421">
   <si>
     <t>T0</t>
   </si>
@@ -850,12 +850,6 @@
     <t>1AA</t>
   </si>
   <si>
-    <t>1AB</t>
-  </si>
-  <si>
-    <t>1AC</t>
-  </si>
-  <si>
     <t>12A</t>
   </si>
   <si>
@@ -1214,6 +1208,78 @@
   </si>
   <si>
     <t>NPNn</t>
+  </si>
+  <si>
+    <t>00C</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>00D</t>
+  </si>
+  <si>
+    <t>00E</t>
+  </si>
+  <si>
+    <t>00F</t>
+  </si>
+  <si>
+    <t>01A</t>
+  </si>
+  <si>
+    <t>01B</t>
+  </si>
+  <si>
+    <t>01C</t>
+  </si>
+  <si>
+    <t>01D</t>
+  </si>
+  <si>
+    <t>01E</t>
+  </si>
+  <si>
+    <t>01F</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>RPN16</t>
+  </si>
+  <si>
+    <t>RCH12</t>
+  </si>
+  <si>
+    <t>NPN4</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1698,11 +1764,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2147,18 +2471,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2181,6 +2496,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2195,82 +2600,100 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3396,10 +3819,10 @@
       <c r="U15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="161" t="s">
+      <c r="W15" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="161" t="s">
+      <c r="X15" s="158" t="s">
         <v>64</v>
       </c>
       <c r="Y15" s="8" t="s">
@@ -3447,10 +3870,10 @@
       <c r="U16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W16" s="161" t="s">
+      <c r="W16" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="X16" s="161" t="s">
+      <c r="X16" s="158" t="s">
         <v>66</v>
       </c>
       <c r="Y16" s="8" t="s">
@@ -6703,10 +7126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:EN26"/>
+  <dimension ref="E1:EO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CL11" sqref="CL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6714,177 +7137,240 @@
     <col min="1" max="16384" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:144" s="191" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M1" s="191" t="s">
+    <row r="1" spans="5:145" s="159" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="159" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="159">
+        <v>180</v>
+      </c>
+      <c r="O1" s="159">
+        <v>181</v>
+      </c>
+      <c r="P1" s="159">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="159">
+        <v>183</v>
+      </c>
+      <c r="R1" s="159">
+        <v>184</v>
+      </c>
+      <c r="S1" s="159">
+        <v>185</v>
+      </c>
+      <c r="T1" s="159">
+        <v>186</v>
+      </c>
+      <c r="U1" s="159">
+        <v>187</v>
+      </c>
+      <c r="V1" s="159">
+        <v>188</v>
+      </c>
+      <c r="W1" s="159">
+        <v>189</v>
+      </c>
+      <c r="X1" s="159" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="159" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z1" s="159" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA1" s="159" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB1" s="159" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC1" s="159" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD1" s="159">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="159">
+        <v>191</v>
+      </c>
+      <c r="AF1" s="159">
+        <v>192</v>
+      </c>
+      <c r="AG1" s="159">
+        <v>193</v>
+      </c>
+      <c r="AH1" s="159">
+        <v>194</v>
+      </c>
+      <c r="AI1" s="159">
+        <v>195</v>
+      </c>
+      <c r="AJ1" s="159">
+        <v>196</v>
+      </c>
+      <c r="AK1" s="159">
+        <v>197</v>
+      </c>
+      <c r="AL1" s="159">
+        <v>198</v>
+      </c>
+      <c r="AM1" s="159">
+        <v>199</v>
+      </c>
+      <c r="AN1" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO1" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP1" s="159" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ1" s="159" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR1" s="159" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS1" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT1" s="159" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU1" s="159" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV1" s="159" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW1" s="159" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB1" s="159" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC1" s="159" t="s">
+        <v>275</v>
+      </c>
+      <c r="BD1" s="159" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE1" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="BF1" s="159" t="s">
         <v>382</v>
       </c>
-      <c r="N1" s="191">
-        <v>180</v>
-      </c>
-      <c r="O1" s="191">
-        <v>181</v>
-      </c>
-      <c r="P1" s="191">
-        <v>182</v>
-      </c>
-      <c r="Q1" s="191">
-        <v>183</v>
-      </c>
-      <c r="R1" s="191">
-        <v>184</v>
-      </c>
-      <c r="S1" s="191">
-        <v>185</v>
-      </c>
-      <c r="T1" s="191">
-        <v>186</v>
-      </c>
-      <c r="U1" s="191">
-        <v>187</v>
-      </c>
-      <c r="V1" s="191">
-        <v>188</v>
-      </c>
-      <c r="W1" s="191">
-        <v>189</v>
-      </c>
-      <c r="X1" s="191" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y1" s="191" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z1" s="191" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA1" s="191" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB1" s="191" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC1" s="191" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD1" s="191">
-        <v>190</v>
-      </c>
-      <c r="AE1" s="191">
-        <v>191</v>
-      </c>
-      <c r="AF1" s="191">
-        <v>192</v>
-      </c>
-      <c r="AG1" s="191">
-        <v>193</v>
-      </c>
-      <c r="AH1" s="191">
-        <v>194</v>
-      </c>
-      <c r="AI1" s="191">
-        <v>195</v>
-      </c>
-      <c r="AJ1" s="191">
-        <v>196</v>
-      </c>
-      <c r="AK1" s="191">
-        <v>197</v>
-      </c>
-      <c r="AL1" s="191">
-        <v>198</v>
-      </c>
-      <c r="AM1" s="191">
-        <v>199</v>
-      </c>
-      <c r="AN1" s="191" t="s">
-        <v>372</v>
-      </c>
-      <c r="AO1" s="191" t="s">
-        <v>373</v>
-      </c>
-      <c r="AP1" s="191" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ1" s="191" t="s">
-        <v>265</v>
-      </c>
-      <c r="AR1" s="191" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS1" s="191" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT1" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="AU1" s="191" t="s">
-        <v>267</v>
-      </c>
-      <c r="AV1" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="AW1" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="AX1" s="191" t="s">
-        <v>270</v>
-      </c>
-      <c r="AY1" s="191" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ1" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="BA1" s="191" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB1" s="191" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC1" s="191" t="s">
-        <v>275</v>
-      </c>
-      <c r="BD1" s="191" t="s">
-        <v>276</v>
-      </c>
-      <c r="BE1" s="191" t="s">
+      <c r="BG1" s="159" t="s">
         <v>383</v>
       </c>
-      <c r="BF1" s="191" t="s">
+      <c r="BH1" s="159" t="s">
         <v>384</v>
       </c>
-      <c r="BG1" s="191" t="s">
+      <c r="BI1" s="159" t="s">
         <v>385</v>
       </c>
-      <c r="BH1" s="191" t="s">
+      <c r="BJ1" s="159" t="s">
         <v>386</v>
       </c>
-      <c r="BI1" s="191" t="s">
+      <c r="BK1" s="159" t="s">
         <v>387</v>
       </c>
-      <c r="BJ1" s="191" t="s">
+      <c r="BL1" s="159" t="s">
         <v>388</v>
       </c>
-      <c r="BK1" s="191" t="s">
+      <c r="BM1" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="BL1" s="191" t="s">
+      <c r="BN1" s="159" t="s">
         <v>390</v>
       </c>
-      <c r="BM1" s="191" t="s">
+      <c r="BO1" s="159" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="191" t="s">
+      <c r="BP1" s="159" t="s">
         <v>392</v>
       </c>
-      <c r="BO1" s="191" t="s">
-        <v>393</v>
-      </c>
-      <c r="BP1" s="191" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="5:144" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BQ1" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="BR1" s="159" t="s">
+        <v>408</v>
+      </c>
+      <c r="BS1" s="159" t="s">
+        <v>409</v>
+      </c>
+      <c r="BT1" s="159" t="s">
+        <v>410</v>
+      </c>
+      <c r="BU1" s="159" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV1" s="159" t="s">
+        <v>399</v>
+      </c>
+      <c r="BW1" s="159" t="s">
+        <v>400</v>
+      </c>
+      <c r="BX1" s="159" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY1" s="159" t="s">
+        <v>402</v>
+      </c>
+      <c r="BZ1" s="159" t="s">
+        <v>403</v>
+      </c>
+      <c r="CA1" s="159" t="s">
+        <v>404</v>
+      </c>
+      <c r="CB1" s="159" t="s">
+        <v>405</v>
+      </c>
+      <c r="CC1" s="159" t="s">
+        <v>406</v>
+      </c>
+      <c r="CD1" s="159" t="s">
+        <v>407</v>
+      </c>
+      <c r="CE1" s="159" t="s">
+        <v>411</v>
+      </c>
+      <c r="CF1" s="159" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG1" s="159" t="s">
+        <v>413</v>
+      </c>
+      <c r="CH1" s="159" t="s">
+        <v>414</v>
+      </c>
+      <c r="CI1" s="159" t="s">
+        <v>415</v>
+      </c>
+      <c r="CJ1" s="159" t="s">
+        <v>416</v>
+      </c>
+      <c r="CK1" s="159" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="5:145" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AK2" s="1">
         <v>181</v>
       </c>
@@ -6957,110 +7443,134 @@
       <c r="BZ2" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>5</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>6</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>7</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>9</v>
+      </c>
+      <c r="CM2" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="CP2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CR2" s="1">
+      <c r="CS2" s="1">
         <v>130</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CT2" s="1">
         <v>131</v>
       </c>
-      <c r="CT2" s="1">
+      <c r="CU2" s="1">
         <v>132</v>
       </c>
-      <c r="CU2" s="1">
+      <c r="CV2" s="1">
         <v>133</v>
       </c>
-      <c r="CV2" s="1">
+      <c r="CW2" s="1">
         <v>134</v>
       </c>
-      <c r="CW2" s="1">
+      <c r="CX2" s="1">
         <v>135</v>
       </c>
-      <c r="CX2" s="1">
+      <c r="CY2" s="1">
         <v>136</v>
       </c>
-      <c r="CY2" s="1">
+      <c r="CZ2" s="1">
         <v>137</v>
       </c>
-      <c r="CZ2" s="1">
+      <c r="DA2" s="1">
         <v>138</v>
       </c>
-      <c r="DA2" s="1">
+      <c r="DB2" s="1">
         <v>139</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="DH2" s="1">
+      <c r="DI2" s="1">
         <v>140</v>
       </c>
-      <c r="DI2" s="1">
+      <c r="DJ2" s="1">
         <v>141</v>
       </c>
-      <c r="DJ2" s="1">
+      <c r="DK2" s="1">
         <v>142</v>
       </c>
-      <c r="DK2" s="1">
+      <c r="DL2" s="1">
         <v>143</v>
       </c>
-      <c r="DL2" s="1">
+      <c r="DM2" s="1">
         <v>144</v>
       </c>
-      <c r="DM2" s="1">
+      <c r="DN2" s="1">
         <v>145</v>
       </c>
-      <c r="DN2" s="1">
+      <c r="DO2" s="1">
         <v>146</v>
       </c>
-      <c r="DO2" s="1">
+      <c r="DP2" s="1">
         <v>147</v>
       </c>
-      <c r="DP2" s="1">
+      <c r="DQ2" s="1">
         <v>148</v>
       </c>
-      <c r="DQ2" s="1">
+      <c r="DR2" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:145" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="85"/>
       <c r="F3" s="85"/>
       <c r="G3" s="85"/>
@@ -7068,295 +7578,298 @@
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="184" t="s">
+      <c r="L3" s="152"/>
+      <c r="M3" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="187" t="s">
+      <c r="N3" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="187" t="s">
+      <c r="O3" s="180" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="187" t="s">
+      <c r="P3" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="187" t="s">
+      <c r="Q3" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="187" t="s">
+      <c r="R3" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="S3" s="187" t="s">
+      <c r="S3" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="T3" s="187" t="s">
+      <c r="T3" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="U3" s="187" t="s">
+      <c r="U3" s="180" t="s">
         <v>166</v>
       </c>
-      <c r="V3" s="187" t="s">
+      <c r="V3" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="W3" s="187" t="s">
+      <c r="W3" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="X3" s="187" t="s">
+      <c r="X3" s="180" t="s">
         <v>169</v>
       </c>
-      <c r="Y3" s="187" t="s">
+      <c r="Y3" s="180" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" s="187" t="s">
+      <c r="Z3" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" s="187" t="s">
+      <c r="AA3" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="AB3" s="187" t="s">
+      <c r="AB3" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" s="187" t="s">
+      <c r="AC3" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" s="187" t="s">
+      <c r="AD3" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="AE3" s="187" t="s">
+      <c r="AE3" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="AF3" s="187" t="s">
+      <c r="AF3" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="AG3" s="187" t="s">
+      <c r="AG3" s="180" t="s">
         <v>178</v>
       </c>
-      <c r="AH3" s="187" t="s">
+      <c r="AH3" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="AI3" s="187" t="s">
+      <c r="AI3" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="AJ3" s="187" t="s">
+      <c r="AJ3" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="AK3" s="181" t="s">
+      <c r="AK3" s="211" t="s">
         <v>258</v>
       </c>
-      <c r="AL3" s="181" t="s">
+      <c r="AL3" s="208" t="s">
         <v>258</v>
       </c>
-      <c r="AM3" s="181" t="s">
+      <c r="AM3" s="208" t="s">
         <v>258</v>
       </c>
-      <c r="AN3" s="181" t="s">
+      <c r="AN3" s="208" t="s">
         <v>259</v>
       </c>
-      <c r="AO3" s="181" t="s">
+      <c r="AO3" s="208" t="s">
         <v>259</v>
       </c>
-      <c r="AP3" s="178" t="s">
+      <c r="AP3" s="205" t="s">
         <v>259</v>
       </c>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="175" t="s">
+      <c r="AQ3" s="173"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="166" t="s">
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="193" t="s">
         <v>186</v>
       </c>
-      <c r="BA3" s="169" t="s">
+      <c r="BA3" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="BB3" s="169" t="s">
+      <c r="BB3" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="BC3" s="169" t="s">
+      <c r="BC3" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="BD3" s="172" t="s">
+      <c r="BD3" s="199" t="s">
         <v>186</v>
       </c>
-      <c r="BE3" s="150"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="85"/>
-      <c r="BK3" s="85"/>
-      <c r="BL3" s="85"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="85"/>
-      <c r="BO3" s="85"/>
-      <c r="BP3" s="85"/>
-      <c r="BQ3" s="85"/>
-      <c r="BR3" s="85"/>
-      <c r="BS3" s="85"/>
-      <c r="BT3" s="85"/>
-      <c r="BU3" s="153" t="s">
+      <c r="BE3" s="176"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="173"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="161" t="s">
         <v>188</v>
       </c>
-      <c r="BV3" s="153" t="s">
+      <c r="BV3" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="BW3" s="153" t="s">
+      <c r="BW3" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="BX3" s="153" t="s">
+      <c r="BX3" s="162" t="s">
         <v>191</v>
       </c>
-      <c r="BY3" s="153" t="s">
+      <c r="BY3" s="162" t="s">
         <v>192</v>
       </c>
-      <c r="BZ3" s="153" t="s">
+      <c r="BZ3" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="CA3" s="153" t="s">
+      <c r="CA3" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="CB3" s="153" t="s">
+      <c r="CB3" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="CC3" s="153" t="s">
+      <c r="CC3" s="161" t="s">
+        <v>354</v>
+      </c>
+      <c r="CD3" s="162" t="s">
+        <v>355</v>
+      </c>
+      <c r="CE3" s="162" t="s">
         <v>356</v>
       </c>
-      <c r="CD3" s="153" t="s">
+      <c r="CF3" s="162" t="s">
         <v>357</v>
       </c>
-      <c r="CE3" s="153" t="s">
+      <c r="CG3" s="162" t="s">
         <v>358</v>
       </c>
-      <c r="CF3" s="153" t="s">
+      <c r="CH3" s="162" t="s">
         <v>359</v>
       </c>
-      <c r="CG3" s="153" t="s">
+      <c r="CI3" s="162" t="s">
         <v>360</v>
       </c>
-      <c r="CH3" s="153" t="s">
+      <c r="CJ3" s="163" t="s">
         <v>361</v>
       </c>
-      <c r="CI3" s="153" t="s">
-        <v>362</v>
-      </c>
-      <c r="CJ3" s="153" t="s">
-        <v>363</v>
-      </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CK3" s="221" t="s">
+        <v>418</v>
+      </c>
+      <c r="CL3" s="174" t="s">
         <v>220</v>
       </c>
-      <c r="CL3" s="153" t="s">
+      <c r="CM3" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="CM3" s="153" t="s">
+      <c r="CN3" s="162" t="s">
         <v>197</v>
       </c>
-      <c r="CN3" s="153" t="s">
+      <c r="CO3" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="CO3" s="153" t="s">
+      <c r="CP3" s="162" t="s">
         <v>199</v>
       </c>
-      <c r="CP3" s="153" t="s">
+      <c r="CQ3" s="162" t="s">
         <v>200</v>
       </c>
-      <c r="CQ3" s="153" t="s">
+      <c r="CR3" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="CR3" s="153" t="s">
+      <c r="CS3" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="CS3" s="153" t="s">
+      <c r="CT3" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="CT3" s="153" t="s">
+      <c r="CU3" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="CU3" s="153" t="s">
+      <c r="CV3" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="CV3" s="153" t="s">
+      <c r="CW3" s="162" t="s">
         <v>206</v>
       </c>
-      <c r="CW3" s="153" t="s">
+      <c r="CX3" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="CX3" s="153" t="s">
+      <c r="CY3" s="162" t="s">
         <v>208</v>
       </c>
-      <c r="CY3" s="153" t="s">
+      <c r="CZ3" s="162" t="s">
         <v>209</v>
       </c>
-      <c r="CZ3" s="153" t="s">
+      <c r="DA3" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="DA3" s="153" t="s">
+      <c r="DB3" s="163" t="s">
         <v>211</v>
       </c>
-      <c r="DB3" s="153" t="s">
+      <c r="DC3" s="161" t="s">
         <v>212</v>
       </c>
-      <c r="DC3" s="153" t="s">
+      <c r="DD3" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="DD3" s="153" t="s">
+      <c r="DE3" s="162" t="s">
         <v>214</v>
       </c>
-      <c r="DE3" s="153" t="s">
+      <c r="DF3" s="162" t="s">
         <v>215</v>
       </c>
-      <c r="DF3" s="153" t="s">
+      <c r="DG3" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="DG3" s="153" t="s">
+      <c r="DH3" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="DH3" s="153" t="s">
+      <c r="DI3" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="DI3" s="153" t="s">
+      <c r="DJ3" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="DJ3" s="85"/>
-      <c r="DK3" s="85"/>
-      <c r="DL3" s="85"/>
-      <c r="DM3" s="85"/>
-      <c r="DN3" s="85"/>
-      <c r="DO3" s="85"/>
-      <c r="DP3" s="155"/>
-      <c r="DQ3" s="85"/>
-      <c r="DR3" s="156"/>
-      <c r="DS3" s="85"/>
-      <c r="DT3" s="156"/>
-      <c r="DU3" s="85"/>
-      <c r="DV3" s="156"/>
-      <c r="DW3" s="85"/>
-      <c r="DX3" s="156"/>
-      <c r="DY3" s="85"/>
-      <c r="DZ3" s="156"/>
-      <c r="EA3" s="85"/>
-      <c r="EB3" s="156"/>
-      <c r="EC3" s="85"/>
-      <c r="ED3" s="156"/>
-      <c r="EE3" s="85"/>
-      <c r="EF3" s="156"/>
-      <c r="EG3" s="85"/>
-      <c r="EH3" s="156"/>
-      <c r="EI3" s="85"/>
-      <c r="EJ3" s="156"/>
-      <c r="EK3" s="85"/>
-      <c r="EL3" s="156"/>
-      <c r="EM3" s="85"/>
-      <c r="EN3" s="157"/>
-    </row>
-    <row r="4" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DK3" s="173"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="64"/>
+      <c r="DR3" s="15"/>
+      <c r="DS3" s="153"/>
+      <c r="DT3" s="85"/>
+      <c r="DU3" s="153"/>
+      <c r="DV3" s="85"/>
+      <c r="DW3" s="153"/>
+      <c r="DX3" s="85"/>
+      <c r="DY3" s="153"/>
+      <c r="DZ3" s="85"/>
+      <c r="EA3" s="153"/>
+      <c r="EB3" s="85"/>
+      <c r="EC3" s="153"/>
+      <c r="ED3" s="85"/>
+      <c r="EE3" s="153"/>
+      <c r="EF3" s="85"/>
+      <c r="EG3" s="153"/>
+      <c r="EH3" s="85"/>
+      <c r="EI3" s="153"/>
+      <c r="EJ3" s="85"/>
+      <c r="EK3" s="153"/>
+      <c r="EL3" s="85"/>
+      <c r="EM3" s="153"/>
+      <c r="EN3" s="85"/>
+      <c r="EO3" s="154"/>
+    </row>
+    <row r="4" spans="5:145" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="148"/>
       <c r="F4" s="148"/>
       <c r="G4" s="148"/>
@@ -7364,221 +7877,224 @@
       <c r="I4" s="148"/>
       <c r="J4" s="148"/>
       <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="188"/>
-      <c r="U4" s="188"/>
-      <c r="V4" s="188"/>
-      <c r="W4" s="188"/>
-      <c r="X4" s="188"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AD4" s="188"/>
-      <c r="AE4" s="188"/>
-      <c r="AF4" s="188"/>
-      <c r="AG4" s="188"/>
-      <c r="AH4" s="188"/>
-      <c r="AI4" s="188"/>
-      <c r="AJ4" s="188"/>
-      <c r="AK4" s="182"/>
-      <c r="AL4" s="182"/>
-      <c r="AM4" s="182"/>
-      <c r="AN4" s="182"/>
-      <c r="AO4" s="182"/>
-      <c r="AP4" s="179"/>
-      <c r="AQ4" s="148"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="181"/>
+      <c r="U4" s="181"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="181"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="181"/>
+      <c r="Z4" s="181"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="181"/>
+      <c r="AE4" s="181"/>
+      <c r="AF4" s="181"/>
+      <c r="AG4" s="181"/>
+      <c r="AH4" s="181"/>
+      <c r="AI4" s="181"/>
+      <c r="AJ4" s="184"/>
+      <c r="AK4" s="212"/>
+      <c r="AL4" s="209"/>
+      <c r="AM4" s="209"/>
+      <c r="AN4" s="209"/>
+      <c r="AO4" s="209"/>
+      <c r="AP4" s="206"/>
+      <c r="AQ4" s="164"/>
       <c r="AR4" s="148"/>
-      <c r="AS4" s="148"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="148"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="203"/>
+      <c r="AU4" s="164"/>
       <c r="AV4" s="148"/>
       <c r="AW4" s="148"/>
       <c r="AX4" s="148"/>
-      <c r="AY4" s="148"/>
-      <c r="AZ4" s="167"/>
-      <c r="BA4" s="170"/>
-      <c r="BB4" s="170"/>
-      <c r="BC4" s="170"/>
-      <c r="BD4" s="173"/>
-      <c r="BE4" s="30"/>
+      <c r="AY4" s="174"/>
+      <c r="AZ4" s="194"/>
+      <c r="BA4" s="197"/>
+      <c r="BB4" s="197"/>
+      <c r="BC4" s="197"/>
+      <c r="BD4" s="200"/>
+      <c r="BE4" s="172"/>
       <c r="BF4" s="148"/>
       <c r="BG4" s="148"/>
       <c r="BH4" s="148"/>
       <c r="BI4" s="148"/>
       <c r="BJ4" s="148"/>
       <c r="BK4" s="148"/>
-      <c r="BL4" s="148"/>
-      <c r="BM4" s="148"/>
+      <c r="BL4" s="174"/>
+      <c r="BM4" s="164"/>
       <c r="BN4" s="148"/>
       <c r="BO4" s="148"/>
       <c r="BP4" s="148"/>
       <c r="BQ4" s="148"/>
       <c r="BR4" s="148"/>
       <c r="BS4" s="148"/>
-      <c r="BT4" s="148"/>
-      <c r="BU4" s="148"/>
+      <c r="BT4" s="174"/>
+      <c r="BU4" s="164"/>
       <c r="BV4" s="148"/>
       <c r="BW4" s="148"/>
       <c r="BX4" s="148"/>
-      <c r="BY4" s="154" t="s">
+      <c r="BY4" s="151" t="s">
         <v>221</v>
       </c>
-      <c r="BZ4" s="154" t="s">
+      <c r="BZ4" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="CA4" s="154" t="s">
+      <c r="CA4" s="151" t="s">
         <v>223</v>
       </c>
-      <c r="CB4" s="154" t="s">
+      <c r="CB4" s="165" t="s">
         <v>224</v>
       </c>
-      <c r="CC4" s="154" t="s">
+      <c r="CC4" s="171" t="s">
+        <v>362</v>
+      </c>
+      <c r="CD4" s="151" t="s">
+        <v>363</v>
+      </c>
+      <c r="CE4" s="151" t="s">
         <v>364</v>
       </c>
-      <c r="CD4" s="154" t="s">
+      <c r="CF4" s="151" t="s">
         <v>365</v>
       </c>
-      <c r="CE4" s="154" t="s">
+      <c r="CG4" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="CF4" s="154" t="s">
+      <c r="CH4" s="151" t="s">
         <v>367</v>
       </c>
-      <c r="CG4" s="154" t="s">
+      <c r="CI4" s="151" t="s">
         <v>368</v>
       </c>
-      <c r="CH4" s="154" t="s">
+      <c r="CJ4" s="165" t="s">
         <v>369</v>
       </c>
-      <c r="CI4" s="154" t="s">
-        <v>370</v>
-      </c>
-      <c r="CJ4" s="154" t="s">
-        <v>371</v>
-      </c>
-      <c r="CK4" s="2"/>
-      <c r="CL4" s="154" t="s">
+      <c r="CK4" s="222" t="s">
+        <v>419</v>
+      </c>
+      <c r="CL4" s="174"/>
+      <c r="CM4" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="CM4" s="154" t="s">
+      <c r="CN4" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="CN4" s="154" t="s">
+      <c r="CO4" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="CO4" s="154" t="s">
+      <c r="CP4" s="151" t="s">
         <v>228</v>
       </c>
-      <c r="CP4" s="154" t="s">
+      <c r="CQ4" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="CQ4" s="154" t="s">
+      <c r="CR4" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="CR4" s="154" t="s">
+      <c r="CS4" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="CS4" s="154" t="s">
+      <c r="CT4" s="165" t="s">
         <v>232</v>
       </c>
-      <c r="CT4" s="154" t="s">
+      <c r="CU4" s="171" t="s">
         <v>233</v>
       </c>
-      <c r="CU4" s="154" t="s">
+      <c r="CV4" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="CV4" s="154" t="s">
+      <c r="CW4" s="151" t="s">
         <v>235</v>
       </c>
-      <c r="CW4" s="154" t="s">
+      <c r="CX4" s="151" t="s">
         <v>236</v>
       </c>
-      <c r="CX4" s="154" t="s">
+      <c r="CY4" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="CY4" s="154" t="s">
+      <c r="CZ4" s="151" t="s">
         <v>238</v>
       </c>
-      <c r="CZ4" s="154" t="s">
+      <c r="DA4" s="151" t="s">
         <v>239</v>
       </c>
-      <c r="DA4" s="154" t="s">
+      <c r="DB4" s="165" t="s">
         <v>240</v>
       </c>
-      <c r="DB4" s="154" t="s">
+      <c r="DC4" s="171" t="s">
         <v>241</v>
       </c>
-      <c r="DC4" s="154" t="s">
+      <c r="DD4" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="DD4" s="154" t="s">
+      <c r="DE4" s="151" t="s">
         <v>243</v>
       </c>
-      <c r="DE4" s="154" t="s">
+      <c r="DF4" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="DF4" s="154" t="s">
+      <c r="DG4" s="151" t="s">
         <v>245</v>
       </c>
-      <c r="DG4" s="154" t="s">
+      <c r="DH4" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="DH4" s="154" t="s">
+      <c r="DI4" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="DI4" s="154" t="s">
+      <c r="DJ4" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="DJ4" s="154" t="s">
+      <c r="DK4" s="171" t="s">
         <v>249</v>
       </c>
-      <c r="DK4" s="154" t="s">
+      <c r="DL4" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="DL4" s="154" t="s">
+      <c r="DM4" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="DM4" s="154" t="s">
+      <c r="DN4" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="DN4" s="148"/>
       <c r="DO4" s="148"/>
-      <c r="DP4" s="20"/>
-      <c r="DQ4" s="148"/>
-      <c r="DR4" s="147"/>
-      <c r="DS4" s="148"/>
-      <c r="DT4" s="147"/>
-      <c r="DU4" s="148"/>
-      <c r="DV4" s="147"/>
-      <c r="DW4" s="148"/>
-      <c r="DX4" s="147"/>
-      <c r="DY4" s="148"/>
-      <c r="DZ4" s="147"/>
-      <c r="EA4" s="148"/>
-      <c r="EB4" s="147"/>
-      <c r="EC4" s="148"/>
-      <c r="ED4" s="147"/>
-      <c r="EE4" s="148"/>
-      <c r="EF4" s="147"/>
-      <c r="EG4" s="148"/>
-      <c r="EH4" s="147"/>
-      <c r="EI4" s="148"/>
-      <c r="EJ4" s="147"/>
-      <c r="EK4" s="148"/>
-      <c r="EL4" s="147"/>
-      <c r="EM4" s="148"/>
-      <c r="EN4" s="158"/>
-    </row>
-    <row r="5" spans="5:144" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DP4" s="148"/>
+      <c r="DQ4" s="20"/>
+      <c r="DR4" s="174"/>
+      <c r="DS4" s="147"/>
+      <c r="DT4" s="148"/>
+      <c r="DU4" s="147"/>
+      <c r="DV4" s="148"/>
+      <c r="DW4" s="147"/>
+      <c r="DX4" s="148"/>
+      <c r="DY4" s="147"/>
+      <c r="DZ4" s="148"/>
+      <c r="EA4" s="147"/>
+      <c r="EB4" s="148"/>
+      <c r="EC4" s="147"/>
+      <c r="ED4" s="148"/>
+      <c r="EE4" s="147"/>
+      <c r="EF4" s="148"/>
+      <c r="EG4" s="147"/>
+      <c r="EH4" s="148"/>
+      <c r="EI4" s="147"/>
+      <c r="EJ4" s="148"/>
+      <c r="EK4" s="147"/>
+      <c r="EL4" s="148"/>
+      <c r="EM4" s="147"/>
+      <c r="EN4" s="148"/>
+      <c r="EO4" s="155"/>
+    </row>
+    <row r="5" spans="5:145" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="148"/>
       <c r="F5" s="148"/>
       <c r="G5" s="148"/>
@@ -7586,220 +8102,224 @@
       <c r="I5" s="148"/>
       <c r="J5" s="148"/>
       <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188"/>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="188"/>
-      <c r="AJ5" s="188"/>
-      <c r="AK5" s="182"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="182"/>
-      <c r="AN5" s="182"/>
-      <c r="AO5" s="182"/>
-      <c r="AP5" s="179"/>
-      <c r="AQ5" s="148"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="212"/>
+      <c r="AL5" s="209"/>
+      <c r="AM5" s="209"/>
+      <c r="AN5" s="209"/>
+      <c r="AO5" s="209"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="164"/>
       <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="176"/>
-      <c r="AU5" s="148"/>
+      <c r="AS5" s="174"/>
+      <c r="AT5" s="203"/>
+      <c r="AU5" s="164"/>
       <c r="AV5" s="148"/>
       <c r="AW5" s="148"/>
       <c r="AX5" s="148"/>
-      <c r="AY5" s="148"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="170"/>
-      <c r="BB5" s="170"/>
-      <c r="BC5" s="170"/>
-      <c r="BD5" s="173"/>
-      <c r="BE5" s="151" t="s">
+      <c r="AY5" s="174"/>
+      <c r="AZ5" s="194"/>
+      <c r="BA5" s="197"/>
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="200"/>
+      <c r="BE5" s="160" t="s">
         <v>261</v>
       </c>
-      <c r="BF5" s="151" t="s">
+      <c r="BF5" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="BG5" s="151" t="s">
+      <c r="BG5" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="BH5" s="151" t="s">
+      <c r="BH5" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="BI5" s="151" t="s">
+      <c r="BI5" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="BJ5" s="151" t="s">
+      <c r="BJ5" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="BK5" s="151" t="s">
+      <c r="BK5" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="BL5" s="151" t="s">
+      <c r="BL5" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="BM5" s="151" t="s">
+      <c r="BM5" s="166" t="s">
         <v>262</v>
       </c>
-      <c r="BN5" s="151" t="s">
+      <c r="BN5" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="BO5" s="151" t="s">
+      <c r="BO5" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="BP5" s="151" t="s">
+      <c r="BP5" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="BQ5" s="151" t="s">
+      <c r="BQ5" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="BR5" s="151" t="s">
+      <c r="BR5" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="BS5" s="151" t="s">
+      <c r="BS5" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="BT5" s="151" t="s">
+      <c r="BT5" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="BU5" s="151" t="s">
+      <c r="BU5" s="166" t="s">
         <v>263</v>
       </c>
-      <c r="BV5" s="151" t="s">
+      <c r="BV5" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="BW5" s="151" t="s">
+      <c r="BW5" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="BX5" s="151" t="s">
+      <c r="BX5" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="BY5" s="151" t="s">
+      <c r="BY5" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="BZ5" s="151" t="s">
+      <c r="BZ5" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="CA5" s="151" t="s">
+      <c r="CA5" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="CB5" s="151" t="s">
+      <c r="CB5" s="167" t="s">
         <v>263</v>
       </c>
-      <c r="CC5" s="151" t="s">
+      <c r="CC5" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="CD5" s="151" t="s">
+      <c r="CD5" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="CE5" s="151" t="s">
+      <c r="CE5" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="CF5" s="151" t="s">
+      <c r="CF5" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="CG5" s="151" t="s">
+      <c r="CG5" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="CH5" s="151" t="s">
+      <c r="CH5" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="CI5" s="151" t="s">
+      <c r="CI5" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="CJ5" s="151" t="s">
+      <c r="CJ5" s="167" t="s">
         <v>264</v>
       </c>
-      <c r="CL5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CM5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CN5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CO5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CP5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CQ5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CR5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CS5" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="CT5" s="30"/>
-      <c r="CU5" s="30"/>
+      <c r="CK5" s="223" t="s">
+        <v>420</v>
+      </c>
+      <c r="CL5" s="174"/>
+      <c r="CM5" s="166" t="s">
+        <v>283</v>
+      </c>
+      <c r="CN5" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO5" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP5" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="CQ5" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="CR5" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="CS5" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="CT5" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="CU5" s="215"/>
       <c r="CV5" s="30"/>
       <c r="CW5" s="30"/>
       <c r="CX5" s="30"/>
       <c r="CY5" s="30"/>
       <c r="CZ5" s="30"/>
       <c r="DA5" s="30"/>
-      <c r="DB5" s="148"/>
-      <c r="DC5" s="148"/>
+      <c r="DB5" s="216"/>
+      <c r="DC5" s="164"/>
       <c r="DD5" s="148"/>
       <c r="DE5" s="148"/>
       <c r="DF5" s="148"/>
       <c r="DG5" s="148"/>
       <c r="DH5" s="148"/>
       <c r="DI5" s="148"/>
-      <c r="DJ5" s="148"/>
-      <c r="DK5" s="148"/>
+      <c r="DJ5" s="174"/>
+      <c r="DK5" s="164"/>
       <c r="DL5" s="148"/>
       <c r="DM5" s="148"/>
       <c r="DN5" s="148"/>
       <c r="DO5" s="148"/>
-      <c r="DP5" s="20"/>
-      <c r="DQ5" s="148"/>
-      <c r="DR5" s="147"/>
-      <c r="DS5" s="148"/>
-      <c r="DT5" s="147"/>
-      <c r="DU5" s="148"/>
-      <c r="DV5" s="147"/>
-      <c r="DW5" s="148"/>
-      <c r="DX5" s="147"/>
-      <c r="DY5" s="148"/>
-      <c r="DZ5" s="147"/>
-      <c r="EA5" s="148"/>
-      <c r="EB5" s="147"/>
-      <c r="EC5" s="148"/>
-      <c r="ED5" s="147"/>
-      <c r="EE5" s="148"/>
-      <c r="EF5" s="147"/>
-      <c r="EG5" s="148"/>
-      <c r="EH5" s="147"/>
-      <c r="EI5" s="148"/>
-      <c r="EJ5" s="147"/>
-      <c r="EK5" s="148"/>
-      <c r="EL5" s="147"/>
-      <c r="EM5" s="148"/>
-      <c r="EN5" s="158"/>
-    </row>
-    <row r="6" spans="5:144" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DP5" s="148"/>
+      <c r="DQ5" s="20"/>
+      <c r="DR5" s="174"/>
+      <c r="DS5" s="147"/>
+      <c r="DT5" s="148"/>
+      <c r="DU5" s="147"/>
+      <c r="DV5" s="148"/>
+      <c r="DW5" s="147"/>
+      <c r="DX5" s="148"/>
+      <c r="DY5" s="147"/>
+      <c r="DZ5" s="148"/>
+      <c r="EA5" s="147"/>
+      <c r="EB5" s="148"/>
+      <c r="EC5" s="147"/>
+      <c r="ED5" s="148"/>
+      <c r="EE5" s="147"/>
+      <c r="EF5" s="148"/>
+      <c r="EG5" s="147"/>
+      <c r="EH5" s="148"/>
+      <c r="EI5" s="147"/>
+      <c r="EJ5" s="148"/>
+      <c r="EK5" s="147"/>
+      <c r="EL5" s="148"/>
+      <c r="EM5" s="147"/>
+      <c r="EN5" s="148"/>
+      <c r="EO5" s="155"/>
+    </row>
+    <row r="6" spans="5:145" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="149"/>
       <c r="F6" s="149"/>
       <c r="G6" s="149"/>
@@ -7807,257 +8327,260 @@
       <c r="I6" s="149"/>
       <c r="J6" s="149"/>
       <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="189"/>
-      <c r="S6" s="189"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="189"/>
-      <c r="W6" s="189"/>
-      <c r="X6" s="189"/>
-      <c r="Y6" s="189"/>
-      <c r="Z6" s="189"/>
-      <c r="AA6" s="189"/>
-      <c r="AB6" s="189"/>
-      <c r="AC6" s="189"/>
-      <c r="AD6" s="189"/>
-      <c r="AE6" s="189"/>
-      <c r="AF6" s="189"/>
-      <c r="AG6" s="189"/>
-      <c r="AH6" s="189"/>
-      <c r="AI6" s="189"/>
-      <c r="AJ6" s="189"/>
-      <c r="AK6" s="183"/>
-      <c r="AL6" s="183"/>
-      <c r="AM6" s="183"/>
-      <c r="AN6" s="183"/>
-      <c r="AO6" s="183"/>
-      <c r="AP6" s="180"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="149"/>
-      <c r="AS6" s="149"/>
-      <c r="AT6" s="177"/>
-      <c r="AU6" s="149"/>
-      <c r="AV6" s="149"/>
-      <c r="AW6" s="149"/>
-      <c r="AX6" s="149"/>
-      <c r="AY6" s="149"/>
-      <c r="AZ6" s="168"/>
-      <c r="BA6" s="171"/>
-      <c r="BB6" s="171"/>
-      <c r="BC6" s="171"/>
-      <c r="BD6" s="174"/>
-      <c r="BE6" s="29"/>
-      <c r="BF6" s="149"/>
-      <c r="BG6" s="149"/>
-      <c r="BH6" s="149"/>
-      <c r="BI6" s="152" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="182"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="182"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="182"/>
+      <c r="AH6" s="182"/>
+      <c r="AI6" s="182"/>
+      <c r="AJ6" s="185"/>
+      <c r="AK6" s="213"/>
+      <c r="AL6" s="210"/>
+      <c r="AM6" s="210"/>
+      <c r="AN6" s="210"/>
+      <c r="AO6" s="210"/>
+      <c r="AP6" s="207"/>
+      <c r="AQ6" s="178"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="179"/>
+      <c r="AT6" s="204"/>
+      <c r="AU6" s="178"/>
+      <c r="AV6" s="175"/>
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="175"/>
+      <c r="AY6" s="179"/>
+      <c r="AZ6" s="195"/>
+      <c r="BA6" s="198"/>
+      <c r="BB6" s="198"/>
+      <c r="BC6" s="198"/>
+      <c r="BD6" s="201"/>
+      <c r="BE6" s="177"/>
+      <c r="BF6" s="175"/>
+      <c r="BG6" s="175"/>
+      <c r="BH6" s="175"/>
+      <c r="BI6" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ6" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK6" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL6" s="170" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM6" s="168" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN6" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO6" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="BP6" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ6" s="169" t="s">
+        <v>285</v>
+      </c>
+      <c r="BR6" s="169" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS6" s="169" t="s">
+        <v>285</v>
+      </c>
+      <c r="BT6" s="170" t="s">
+        <v>285</v>
+      </c>
+      <c r="BU6" s="168" t="s">
+        <v>285</v>
+      </c>
+      <c r="BV6" s="169" t="s">
+        <v>285</v>
+      </c>
+      <c r="BW6" s="169" t="s">
+        <v>285</v>
+      </c>
+      <c r="BX6" s="169" t="s">
+        <v>285</v>
+      </c>
+      <c r="BY6" s="169" t="s">
         <v>286</v>
       </c>
-      <c r="BJ6" s="152" t="s">
+      <c r="BZ6" s="169" t="s">
         <v>286</v>
       </c>
-      <c r="BK6" s="152" t="s">
+      <c r="CA6" s="169" t="s">
         <v>286</v>
       </c>
-      <c r="BL6" s="152" t="s">
+      <c r="CB6" s="170" t="s">
         <v>286</v>
       </c>
-      <c r="BM6" s="152" t="s">
+      <c r="CC6" s="168" t="s">
         <v>286</v>
       </c>
-      <c r="BN6" s="152" t="s">
+      <c r="CD6" s="169" t="s">
         <v>286</v>
       </c>
-      <c r="BO6" s="152" t="s">
+      <c r="CE6" s="169" t="s">
         <v>286</v>
       </c>
-      <c r="BP6" s="152" t="s">
+      <c r="CF6" s="169" t="s">
         <v>286</v>
       </c>
-      <c r="BQ6" s="152" t="s">
+      <c r="CG6" s="169" t="s">
         <v>287</v>
       </c>
-      <c r="BR6" s="152" t="s">
+      <c r="CH6" s="169" t="s">
         <v>287</v>
       </c>
-      <c r="BS6" s="152" t="s">
+      <c r="CI6" s="169" t="s">
         <v>287</v>
       </c>
-      <c r="BT6" s="152" t="s">
+      <c r="CJ6" s="170" t="s">
         <v>287</v>
       </c>
-      <c r="BU6" s="152" t="s">
+      <c r="CK6" s="224" t="s">
         <v>287</v>
       </c>
-      <c r="BV6" s="152" t="s">
-        <v>287</v>
-      </c>
-      <c r="BW6" s="152" t="s">
-        <v>287</v>
-      </c>
-      <c r="BX6" s="152" t="s">
-        <v>287</v>
-      </c>
-      <c r="BY6" s="152" t="s">
+      <c r="CL6" s="174" t="s">
+        <v>220</v>
+      </c>
+      <c r="CM6" s="168" t="s">
         <v>288</v>
       </c>
-      <c r="BZ6" s="152" t="s">
+      <c r="CN6" s="169" t="s">
         <v>288</v>
       </c>
-      <c r="CA6" s="152" t="s">
+      <c r="CO6" s="169" t="s">
         <v>288</v>
       </c>
-      <c r="CB6" s="152" t="s">
+      <c r="CP6" s="169" t="s">
         <v>288</v>
       </c>
-      <c r="CC6" s="152" t="s">
-        <v>288</v>
-      </c>
-      <c r="CD6" s="152" t="s">
-        <v>288</v>
-      </c>
-      <c r="CE6" s="152" t="s">
-        <v>288</v>
-      </c>
-      <c r="CF6" s="152" t="s">
-        <v>288</v>
-      </c>
-      <c r="CG6" s="152" t="s">
+      <c r="CQ6" s="169" t="s">
         <v>289</v>
       </c>
-      <c r="CH6" s="152" t="s">
+      <c r="CR6" s="169" t="s">
         <v>289</v>
       </c>
-      <c r="CI6" s="152" t="s">
+      <c r="CS6" s="169" t="s">
         <v>289</v>
       </c>
-      <c r="CJ6" s="152" t="s">
+      <c r="CT6" s="170" t="s">
         <v>289</v>
       </c>
-      <c r="CK6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL6" s="152" t="s">
-        <v>290</v>
-      </c>
-      <c r="CM6" s="152" t="s">
-        <v>290</v>
-      </c>
-      <c r="CN6" s="152" t="s">
-        <v>290</v>
-      </c>
-      <c r="CO6" s="152" t="s">
-        <v>290</v>
-      </c>
-      <c r="CP6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CQ6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CR6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CS6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CT6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CU6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CV6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CW6" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="CX6" s="28"/>
-      <c r="CY6" s="28"/>
-      <c r="CZ6" s="28"/>
-      <c r="DA6" s="28"/>
-      <c r="DB6" s="28"/>
-      <c r="DC6" s="28"/>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="28"/>
-      <c r="DF6" s="149"/>
-      <c r="DG6" s="149"/>
-      <c r="DH6" s="149"/>
-      <c r="DI6" s="149"/>
-      <c r="DJ6" s="149"/>
-      <c r="DK6" s="149"/>
-      <c r="DL6" s="149"/>
-      <c r="DM6" s="149"/>
-      <c r="DN6" s="149"/>
-      <c r="DO6" s="149"/>
-      <c r="DP6" s="13"/>
-      <c r="DQ6" s="149"/>
-      <c r="DR6" s="159"/>
-      <c r="DS6" s="149"/>
-      <c r="DT6" s="159"/>
-      <c r="DU6" s="149"/>
-      <c r="DV6" s="159"/>
-      <c r="DW6" s="149"/>
-      <c r="DX6" s="159"/>
-      <c r="DY6" s="149"/>
-      <c r="DZ6" s="159"/>
-      <c r="EA6" s="149"/>
-      <c r="EB6" s="159"/>
-      <c r="EC6" s="149"/>
-      <c r="ED6" s="159"/>
-      <c r="EE6" s="149"/>
-      <c r="EF6" s="159"/>
-      <c r="EG6" s="149"/>
-      <c r="EH6" s="159"/>
-      <c r="EI6" s="149"/>
-      <c r="EJ6" s="159"/>
-      <c r="EK6" s="149"/>
-      <c r="EL6" s="159"/>
-      <c r="EM6" s="149"/>
-      <c r="EN6" s="160"/>
-    </row>
-    <row r="7" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="164" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="165"/>
-      <c r="AJ7" s="165"/>
+      <c r="CU6" s="168" t="s">
+        <v>289</v>
+      </c>
+      <c r="CV6" s="169" t="s">
+        <v>289</v>
+      </c>
+      <c r="CW6" s="169" t="s">
+        <v>289</v>
+      </c>
+      <c r="CX6" s="169" t="s">
+        <v>289</v>
+      </c>
+      <c r="CY6" s="217"/>
+      <c r="CZ6" s="217"/>
+      <c r="DA6" s="217"/>
+      <c r="DB6" s="218"/>
+      <c r="DC6" s="219"/>
+      <c r="DD6" s="217"/>
+      <c r="DE6" s="217"/>
+      <c r="DF6" s="217"/>
+      <c r="DG6" s="175"/>
+      <c r="DH6" s="175"/>
+      <c r="DI6" s="175"/>
+      <c r="DJ6" s="179"/>
+      <c r="DK6" s="178"/>
+      <c r="DL6" s="175"/>
+      <c r="DM6" s="175"/>
+      <c r="DN6" s="175"/>
+      <c r="DO6" s="175"/>
+      <c r="DP6" s="175"/>
+      <c r="DQ6" s="220"/>
+      <c r="DR6" s="179"/>
+      <c r="DS6" s="156"/>
+      <c r="DT6" s="149"/>
+      <c r="DU6" s="156"/>
+      <c r="DV6" s="149"/>
+      <c r="DW6" s="156"/>
+      <c r="DX6" s="149"/>
+      <c r="DY6" s="156"/>
+      <c r="DZ6" s="149"/>
+      <c r="EA6" s="156"/>
+      <c r="EB6" s="149"/>
+      <c r="EC6" s="156"/>
+      <c r="ED6" s="149"/>
+      <c r="EE6" s="156"/>
+      <c r="EF6" s="149"/>
+      <c r="EG6" s="156"/>
+      <c r="EH6" s="149"/>
+      <c r="EI6" s="156"/>
+      <c r="EJ6" s="149"/>
+      <c r="EK6" s="156"/>
+      <c r="EL6" s="149"/>
+      <c r="EM6" s="156"/>
+      <c r="EN6" s="149"/>
+      <c r="EO6" s="157"/>
+    </row>
+    <row r="7" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="191" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="192"/>
+      <c r="AA7" s="192"/>
+      <c r="AB7" s="192"/>
+      <c r="AC7" s="192"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="192"/>
+      <c r="AG7" s="192"/>
+      <c r="AH7" s="192"/>
+      <c r="AI7" s="192"/>
+      <c r="AJ7" s="192"/>
       <c r="AK7" s="146"/>
       <c r="AL7" s="146"/>
       <c r="AM7" s="146"/>
@@ -8065,172 +8588,172 @@
       <c r="AO7" s="146"/>
       <c r="AP7" s="146"/>
     </row>
-    <row r="8" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="163" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="163"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="163"/>
-      <c r="AI8" s="163"/>
-      <c r="AJ8" s="163"/>
-      <c r="AK8" s="163"/>
-      <c r="AL8" s="163"/>
-      <c r="AM8" s="163"/>
-      <c r="AN8" s="163"/>
-      <c r="AO8" s="163"/>
-      <c r="AP8" s="163"/>
-      <c r="AQ8" s="163"/>
-      <c r="AR8" s="163"/>
-      <c r="AS8" s="163"/>
-      <c r="AT8" s="163"/>
-      <c r="AU8" s="163"/>
-      <c r="AV8" s="163"/>
-      <c r="AW8" s="163"/>
-      <c r="AX8" s="163"/>
-      <c r="AY8" s="163"/>
-      <c r="AZ8" s="163"/>
-      <c r="BA8" s="163"/>
-      <c r="BB8" s="163"/>
-      <c r="BC8" s="163"/>
-      <c r="BD8" s="163"/>
-      <c r="BE8" s="163"/>
-      <c r="BF8" s="163"/>
-      <c r="BG8" s="163"/>
-      <c r="BH8" s="163"/>
-      <c r="BI8" s="163"/>
-      <c r="BJ8" s="163"/>
-      <c r="BK8" s="163"/>
-      <c r="BL8" s="163"/>
-      <c r="BM8" s="163"/>
-      <c r="BN8" s="163"/>
-      <c r="BO8" s="163"/>
-      <c r="BP8" s="163"/>
-      <c r="BQ8" s="163"/>
-      <c r="BR8" s="163"/>
-      <c r="BS8" s="163"/>
-      <c r="BT8" s="163"/>
-      <c r="BU8" s="163"/>
-      <c r="BV8" s="163"/>
-      <c r="BW8" s="163"/>
-      <c r="BX8" s="163"/>
-      <c r="BY8" s="163"/>
-      <c r="BZ8" s="163"/>
-      <c r="CZ8" s="163" t="s">
-        <v>352</v>
-      </c>
-      <c r="DA8" s="163"/>
-      <c r="DB8" s="163"/>
-      <c r="DC8" s="163"/>
-      <c r="DD8" s="163"/>
-      <c r="DE8" s="163"/>
-      <c r="DF8" s="163"/>
-      <c r="DG8" s="163"/>
-      <c r="DH8" s="163"/>
-      <c r="DI8" s="163"/>
-      <c r="DJ8" s="163"/>
-      <c r="DK8" s="163"/>
-      <c r="DL8" s="163"/>
-      <c r="DM8" s="163"/>
-      <c r="DN8" s="163"/>
-      <c r="DO8" s="163"/>
-      <c r="DP8" s="163"/>
-      <c r="DQ8" s="163"/>
-      <c r="DR8" s="163"/>
-      <c r="DS8" s="163"/>
-      <c r="DT8" s="163"/>
-      <c r="DU8" s="163"/>
-      <c r="DV8" s="163"/>
-      <c r="DW8" s="163"/>
-      <c r="DX8" s="163"/>
-      <c r="DY8" s="163"/>
-      <c r="DZ8" s="163"/>
-      <c r="EA8" s="163"/>
-      <c r="EB8" s="163"/>
-      <c r="EC8" s="163"/>
-      <c r="ED8" s="163"/>
-      <c r="EE8" s="163"/>
-      <c r="EF8" s="163"/>
-      <c r="EG8" s="163"/>
-      <c r="EH8" s="163"/>
-      <c r="EI8" s="163"/>
-      <c r="EJ8" s="163"/>
-      <c r="EK8" s="163"/>
-      <c r="EL8" s="163"/>
-      <c r="EM8" s="163"/>
-      <c r="EN8" s="163"/>
-    </row>
-    <row r="9" spans="5:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV9" s="162" t="s">
-        <v>355</v>
-      </c>
-      <c r="AW9" s="162"/>
-      <c r="AX9" s="162"/>
-      <c r="AY9" s="162"/>
-      <c r="AZ9" s="162"/>
-      <c r="BA9" s="162"/>
-      <c r="BB9" s="162"/>
-      <c r="BC9" s="162"/>
-      <c r="BD9" s="162"/>
-      <c r="BE9" s="162"/>
-      <c r="BF9" s="162"/>
-      <c r="BG9" s="162"/>
-      <c r="BH9" s="162"/>
-      <c r="BI9" s="162"/>
-      <c r="BJ9" s="162"/>
-      <c r="BK9" s="162"/>
-      <c r="BL9" s="162"/>
-      <c r="BM9" s="162"/>
-      <c r="BN9" s="162"/>
-      <c r="BO9" s="162"/>
-      <c r="BP9" s="162"/>
-      <c r="BQ9" s="162"/>
-      <c r="BR9" s="162"/>
-      <c r="BS9" s="162"/>
-      <c r="DY9" s="3" t="s">
-        <v>395</v>
+    <row r="8" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="190" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="190"/>
+      <c r="N8" s="190"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
+      <c r="Q8" s="190"/>
+      <c r="R8" s="190"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="190"/>
+      <c r="U8" s="190"/>
+      <c r="V8" s="190"/>
+      <c r="W8" s="190"/>
+      <c r="X8" s="190"/>
+      <c r="Y8" s="190"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="190"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="190"/>
+      <c r="AF8" s="190"/>
+      <c r="AG8" s="190"/>
+      <c r="AH8" s="190"/>
+      <c r="AI8" s="190"/>
+      <c r="AJ8" s="190"/>
+      <c r="AK8" s="190"/>
+      <c r="AL8" s="190"/>
+      <c r="AM8" s="190"/>
+      <c r="AN8" s="190"/>
+      <c r="AO8" s="190"/>
+      <c r="AP8" s="190"/>
+      <c r="AQ8" s="190"/>
+      <c r="AR8" s="190"/>
+      <c r="AS8" s="190"/>
+      <c r="AT8" s="190"/>
+      <c r="AU8" s="190"/>
+      <c r="AV8" s="190"/>
+      <c r="AW8" s="190"/>
+      <c r="AX8" s="190"/>
+      <c r="AY8" s="190"/>
+      <c r="AZ8" s="190"/>
+      <c r="BA8" s="190"/>
+      <c r="BB8" s="190"/>
+      <c r="BC8" s="190"/>
+      <c r="BD8" s="190"/>
+      <c r="BE8" s="190"/>
+      <c r="BF8" s="190"/>
+      <c r="BG8" s="190"/>
+      <c r="BH8" s="190"/>
+      <c r="BI8" s="190"/>
+      <c r="BJ8" s="190"/>
+      <c r="BK8" s="190"/>
+      <c r="BL8" s="190"/>
+      <c r="BM8" s="190"/>
+      <c r="BN8" s="190"/>
+      <c r="BO8" s="190"/>
+      <c r="BP8" s="190"/>
+      <c r="BQ8" s="190"/>
+      <c r="BR8" s="190"/>
+      <c r="BS8" s="190"/>
+      <c r="BT8" s="190"/>
+      <c r="BU8" s="190"/>
+      <c r="BV8" s="190"/>
+      <c r="BW8" s="190"/>
+      <c r="BX8" s="190"/>
+      <c r="BY8" s="190"/>
+      <c r="BZ8" s="190"/>
+      <c r="DA8" s="190" t="s">
+        <v>350</v>
+      </c>
+      <c r="DB8" s="190"/>
+      <c r="DC8" s="190"/>
+      <c r="DD8" s="190"/>
+      <c r="DE8" s="190"/>
+      <c r="DF8" s="190"/>
+      <c r="DG8" s="190"/>
+      <c r="DH8" s="190"/>
+      <c r="DI8" s="190"/>
+      <c r="DJ8" s="190"/>
+      <c r="DK8" s="190"/>
+      <c r="DL8" s="190"/>
+      <c r="DM8" s="190"/>
+      <c r="DN8" s="190"/>
+      <c r="DO8" s="190"/>
+      <c r="DP8" s="190"/>
+      <c r="DQ8" s="190"/>
+      <c r="DR8" s="190"/>
+      <c r="DS8" s="190"/>
+      <c r="DT8" s="190"/>
+      <c r="DU8" s="190"/>
+      <c r="DV8" s="190"/>
+      <c r="DW8" s="190"/>
+      <c r="DX8" s="190"/>
+      <c r="DY8" s="190"/>
+      <c r="DZ8" s="190"/>
+      <c r="EA8" s="190"/>
+      <c r="EB8" s="190"/>
+      <c r="EC8" s="190"/>
+      <c r="ED8" s="190"/>
+      <c r="EE8" s="190"/>
+      <c r="EF8" s="190"/>
+      <c r="EG8" s="190"/>
+      <c r="EH8" s="190"/>
+      <c r="EI8" s="190"/>
+      <c r="EJ8" s="190"/>
+      <c r="EK8" s="190"/>
+      <c r="EL8" s="190"/>
+      <c r="EM8" s="190"/>
+      <c r="EN8" s="190"/>
+      <c r="EO8" s="190"/>
+    </row>
+    <row r="9" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV9" s="189" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW9" s="189"/>
+      <c r="AX9" s="189"/>
+      <c r="AY9" s="189"/>
+      <c r="AZ9" s="189"/>
+      <c r="BA9" s="189"/>
+      <c r="BB9" s="189"/>
+      <c r="BC9" s="189"/>
+      <c r="BD9" s="189"/>
+      <c r="BE9" s="189"/>
+      <c r="BF9" s="189"/>
+      <c r="BG9" s="189"/>
+      <c r="BH9" s="189"/>
+      <c r="BI9" s="189"/>
+      <c r="BJ9" s="189"/>
+      <c r="BK9" s="189"/>
+      <c r="BL9" s="189"/>
+      <c r="BM9" s="189"/>
+      <c r="BN9" s="189"/>
+      <c r="BO9" s="189"/>
+      <c r="BP9" s="189"/>
+      <c r="BQ9" s="189"/>
+      <c r="BR9" s="189"/>
+      <c r="BS9" s="189"/>
+      <c r="DZ9" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M19" s="140" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N19" s="134" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N20" s="134" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8251,7 +8774,7 @@
     </row>
     <row r="23" spans="13:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="143" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N23" s="134" t="s">
         <v>260</v>
@@ -8283,32 +8806,8 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AG3:AG6"/>
-    <mergeCell ref="AH3:AH6"/>
-    <mergeCell ref="AI3:AI6"/>
-    <mergeCell ref="AJ3:AJ6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="AC3:AC6"/>
-    <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AF3:AF6"/>
-    <mergeCell ref="W3:W6"/>
-    <mergeCell ref="X3:X6"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AA6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="T3:T6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="V3:V6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="AV9:BS9"/>
-    <mergeCell ref="CZ8:EN8"/>
+    <mergeCell ref="DA8:EO8"/>
     <mergeCell ref="E7:AJ7"/>
     <mergeCell ref="E8:BZ8"/>
     <mergeCell ref="AZ3:AZ6"/>
@@ -8323,6 +8822,30 @@
     <mergeCell ref="AM3:AM6"/>
     <mergeCell ref="AL3:AL6"/>
     <mergeCell ref="AK3:AK6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="W3:W6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="AG3:AG6"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="AJ3:AJ6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AC3:AC6"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8394,55 +8917,55 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3" s="145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="145" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="E3" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="G3" s="145" t="s">
         <v>300</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="145" t="s">
+      <c r="H3" s="145" t="s">
         <v>301</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="I3" s="145" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="J3" s="145" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="K3" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="145" t="s">
+      <c r="L3" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="K3" s="145" t="s">
+      <c r="M3" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="145" t="s">
+      <c r="N3" s="145" t="s">
         <v>307</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="O3" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="P3" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="O3" s="145" t="s">
+      <c r="Q3" s="145" t="s">
         <v>310</v>
-      </c>
-      <c r="P3" s="145" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q3" s="145" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -8465,45 +8988,45 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B5" s="142" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="141" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E5" s="141" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="145" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K5" s="145" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L5" s="145" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M5" s="145" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N5" s="145" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O5" s="145" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P5" s="145" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="145" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -8526,72 +9049,72 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="144" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="E7" s="144" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="F7" s="144" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="144" t="s">
+      <c r="G7" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="F7" s="144" t="s">
+      <c r="H7" s="144" t="s">
         <v>334</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="I7" s="144" t="s">
         <v>335</v>
       </c>
-      <c r="H7" s="144" t="s">
+      <c r="J7" s="144" t="s">
         <v>336</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="K7" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="J7" s="144" t="s">
+      <c r="L7" s="144" t="s">
         <v>338</v>
       </c>
-      <c r="K7" s="144" t="s">
+      <c r="M7" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="L7" s="144" t="s">
+      <c r="N7" s="144" t="s">
         <v>340</v>
       </c>
-      <c r="M7" s="144" t="s">
+      <c r="O7" s="144" t="s">
         <v>341</v>
       </c>
-      <c r="N7" s="144" t="s">
+      <c r="P7" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="O7" s="144" t="s">
+      <c r="Q7" s="144" t="s">
         <v>343</v>
-      </c>
-      <c r="P7" s="144" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q7" s="144" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D9" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="84" t="s">
         <v>325</v>
       </c>
-      <c r="E9" s="84" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
@@ -8606,10 +9129,10 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="190" t="s">
-        <v>349</v>
-      </c>
-      <c r="H10" s="190"/>
+      <c r="G10" s="214" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="214"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
@@ -8624,10 +9147,10 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="190" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="190"/>
+      <c r="G11" s="214" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="214"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
@@ -8642,10 +9165,10 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="190" t="s">
-        <v>329</v>
-      </c>
-      <c r="H12" s="190"/>
+      <c r="G12" s="214" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="421">
   <si>
     <t>T0</t>
   </si>
@@ -2561,31 +2561,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2663,38 +2666,35 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2999,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4067,6 +4067,31 @@
         <v>7</v>
       </c>
       <c r="U20" s="1"/>
+      <c r="W20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE20" s="1"/>
     </row>
     <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -4095,6 +4120,19 @@
         <v>41</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4121,6 +4159,17 @@
       <c r="U22" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="W22" s="8"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -4155,6 +4204,21 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4179,6 +4243,17 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7128,7 +7203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:EO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+    <sheetView topLeftCell="BX1" workbookViewId="0">
       <selection activeCell="CL11" sqref="CL11"/>
     </sheetView>
   </sheetViews>
@@ -7579,100 +7654,100 @@
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
       <c r="L3" s="152"/>
-      <c r="M3" s="186" t="s">
+      <c r="M3" s="215" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="180" t="s">
+      <c r="N3" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="180" t="s">
+      <c r="O3" s="218" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="180" t="s">
+      <c r="P3" s="218" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="180" t="s">
+      <c r="Q3" s="218" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="180" t="s">
+      <c r="R3" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="S3" s="180" t="s">
+      <c r="S3" s="218" t="s">
         <v>164</v>
       </c>
-      <c r="T3" s="180" t="s">
+      <c r="T3" s="218" t="s">
         <v>165</v>
       </c>
-      <c r="U3" s="180" t="s">
+      <c r="U3" s="218" t="s">
         <v>166</v>
       </c>
-      <c r="V3" s="180" t="s">
+      <c r="V3" s="218" t="s">
         <v>167</v>
       </c>
-      <c r="W3" s="180" t="s">
+      <c r="W3" s="218" t="s">
         <v>168</v>
       </c>
-      <c r="X3" s="180" t="s">
+      <c r="X3" s="218" t="s">
         <v>169</v>
       </c>
-      <c r="Y3" s="180" t="s">
+      <c r="Y3" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" s="180" t="s">
+      <c r="Z3" s="218" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" s="180" t="s">
+      <c r="AA3" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="AB3" s="180" t="s">
+      <c r="AB3" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" s="180" t="s">
+      <c r="AC3" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" s="180" t="s">
+      <c r="AD3" s="218" t="s">
         <v>175</v>
       </c>
-      <c r="AE3" s="180" t="s">
+      <c r="AE3" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="AF3" s="180" t="s">
+      <c r="AF3" s="218" t="s">
         <v>177</v>
       </c>
-      <c r="AG3" s="180" t="s">
+      <c r="AG3" s="218" t="s">
         <v>178</v>
       </c>
-      <c r="AH3" s="180" t="s">
+      <c r="AH3" s="218" t="s">
         <v>179</v>
       </c>
-      <c r="AI3" s="180" t="s">
+      <c r="AI3" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="AJ3" s="183" t="s">
+      <c r="AJ3" s="221" t="s">
         <v>181</v>
       </c>
-      <c r="AK3" s="211" t="s">
+      <c r="AK3" s="212" t="s">
         <v>258</v>
       </c>
-      <c r="AL3" s="208" t="s">
+      <c r="AL3" s="209" t="s">
         <v>258</v>
       </c>
-      <c r="AM3" s="208" t="s">
+      <c r="AM3" s="209" t="s">
         <v>258</v>
       </c>
-      <c r="AN3" s="208" t="s">
+      <c r="AN3" s="209" t="s">
         <v>259</v>
       </c>
-      <c r="AO3" s="208" t="s">
+      <c r="AO3" s="209" t="s">
         <v>259</v>
       </c>
-      <c r="AP3" s="205" t="s">
+      <c r="AP3" s="206" t="s">
         <v>259</v>
       </c>
       <c r="AQ3" s="173"/>
       <c r="AR3" s="14"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="202" t="s">
+      <c r="AT3" s="203" t="s">
         <v>182</v>
       </c>
       <c r="AU3" s="173"/>
@@ -7680,19 +7755,19 @@
       <c r="AW3" s="14"/>
       <c r="AX3" s="14"/>
       <c r="AY3" s="15"/>
-      <c r="AZ3" s="193" t="s">
+      <c r="AZ3" s="194" t="s">
         <v>186</v>
       </c>
-      <c r="BA3" s="196" t="s">
+      <c r="BA3" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="BB3" s="196" t="s">
+      <c r="BB3" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="BC3" s="196" t="s">
+      <c r="BC3" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="BD3" s="199" t="s">
+      <c r="BD3" s="200" t="s">
         <v>186</v>
       </c>
       <c r="BE3" s="176"/>
@@ -7759,7 +7834,7 @@
       <c r="CJ3" s="163" t="s">
         <v>361</v>
       </c>
-      <c r="CK3" s="221" t="s">
+      <c r="CK3" s="186" t="s">
         <v>418</v>
       </c>
       <c r="CL3" s="174" t="s">
@@ -7878,50 +7953,50 @@
       <c r="J4" s="148"/>
       <c r="K4" s="148"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="181"/>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="181"/>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="181"/>
-      <c r="AG4" s="181"/>
-      <c r="AH4" s="181"/>
-      <c r="AI4" s="181"/>
-      <c r="AJ4" s="184"/>
-      <c r="AK4" s="212"/>
-      <c r="AL4" s="209"/>
-      <c r="AM4" s="209"/>
-      <c r="AN4" s="209"/>
-      <c r="AO4" s="209"/>
-      <c r="AP4" s="206"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="219"/>
+      <c r="P4" s="219"/>
+      <c r="Q4" s="219"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="219"/>
+      <c r="T4" s="219"/>
+      <c r="U4" s="219"/>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="219"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="219"/>
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="219"/>
+      <c r="AE4" s="219"/>
+      <c r="AF4" s="219"/>
+      <c r="AG4" s="219"/>
+      <c r="AH4" s="219"/>
+      <c r="AI4" s="219"/>
+      <c r="AJ4" s="222"/>
+      <c r="AK4" s="213"/>
+      <c r="AL4" s="210"/>
+      <c r="AM4" s="210"/>
+      <c r="AN4" s="210"/>
+      <c r="AO4" s="210"/>
+      <c r="AP4" s="207"/>
       <c r="AQ4" s="164"/>
       <c r="AR4" s="148"/>
       <c r="AS4" s="174"/>
-      <c r="AT4" s="203"/>
+      <c r="AT4" s="204"/>
       <c r="AU4" s="164"/>
       <c r="AV4" s="148"/>
       <c r="AW4" s="148"/>
       <c r="AX4" s="148"/>
       <c r="AY4" s="174"/>
-      <c r="AZ4" s="194"/>
-      <c r="BA4" s="197"/>
-      <c r="BB4" s="197"/>
-      <c r="BC4" s="197"/>
-      <c r="BD4" s="200"/>
+      <c r="AZ4" s="195"/>
+      <c r="BA4" s="198"/>
+      <c r="BB4" s="198"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="201"/>
       <c r="BE4" s="172"/>
       <c r="BF4" s="148"/>
       <c r="BG4" s="148"/>
@@ -7978,7 +8053,7 @@
       <c r="CJ4" s="165" t="s">
         <v>369</v>
       </c>
-      <c r="CK4" s="222" t="s">
+      <c r="CK4" s="187" t="s">
         <v>419</v>
       </c>
       <c r="CL4" s="174"/>
@@ -8103,50 +8178,50 @@
       <c r="J5" s="148"/>
       <c r="K5" s="148"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="212"/>
-      <c r="AL5" s="209"/>
-      <c r="AM5" s="209"/>
-      <c r="AN5" s="209"/>
-      <c r="AO5" s="209"/>
-      <c r="AP5" s="206"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="219"/>
+      <c r="O5" s="219"/>
+      <c r="P5" s="219"/>
+      <c r="Q5" s="219"/>
+      <c r="R5" s="219"/>
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
+      <c r="V5" s="219"/>
+      <c r="W5" s="219"/>
+      <c r="X5" s="219"/>
+      <c r="Y5" s="219"/>
+      <c r="Z5" s="219"/>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="219"/>
+      <c r="AC5" s="219"/>
+      <c r="AD5" s="219"/>
+      <c r="AE5" s="219"/>
+      <c r="AF5" s="219"/>
+      <c r="AG5" s="219"/>
+      <c r="AH5" s="219"/>
+      <c r="AI5" s="219"/>
+      <c r="AJ5" s="222"/>
+      <c r="AK5" s="213"/>
+      <c r="AL5" s="210"/>
+      <c r="AM5" s="210"/>
+      <c r="AN5" s="210"/>
+      <c r="AO5" s="210"/>
+      <c r="AP5" s="207"/>
       <c r="AQ5" s="164"/>
       <c r="AR5" s="148"/>
       <c r="AS5" s="174"/>
-      <c r="AT5" s="203"/>
+      <c r="AT5" s="204"/>
       <c r="AU5" s="164"/>
       <c r="AV5" s="148"/>
       <c r="AW5" s="148"/>
       <c r="AX5" s="148"/>
       <c r="AY5" s="174"/>
-      <c r="AZ5" s="194"/>
-      <c r="BA5" s="197"/>
-      <c r="BB5" s="197"/>
-      <c r="BC5" s="197"/>
-      <c r="BD5" s="200"/>
+      <c r="AZ5" s="195"/>
+      <c r="BA5" s="198"/>
+      <c r="BB5" s="198"/>
+      <c r="BC5" s="198"/>
+      <c r="BD5" s="201"/>
       <c r="BE5" s="160" t="s">
         <v>261</v>
       </c>
@@ -8243,7 +8318,7 @@
       <c r="CJ5" s="167" t="s">
         <v>264</v>
       </c>
-      <c r="CK5" s="223" t="s">
+      <c r="CK5" s="188" t="s">
         <v>420</v>
       </c>
       <c r="CL5" s="174"/>
@@ -8271,14 +8346,14 @@
       <c r="CT5" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="CU5" s="215"/>
+      <c r="CU5" s="180"/>
       <c r="CV5" s="30"/>
       <c r="CW5" s="30"/>
       <c r="CX5" s="30"/>
       <c r="CY5" s="30"/>
       <c r="CZ5" s="30"/>
       <c r="DA5" s="30"/>
-      <c r="DB5" s="216"/>
+      <c r="DB5" s="181"/>
       <c r="DC5" s="164"/>
       <c r="DD5" s="148"/>
       <c r="DE5" s="148"/>
@@ -8328,50 +8403,50 @@
       <c r="J6" s="149"/>
       <c r="K6" s="149"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="182"/>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="182"/>
-      <c r="AH6" s="182"/>
-      <c r="AI6" s="182"/>
-      <c r="AJ6" s="185"/>
-      <c r="AK6" s="213"/>
-      <c r="AL6" s="210"/>
-      <c r="AM6" s="210"/>
-      <c r="AN6" s="210"/>
-      <c r="AO6" s="210"/>
-      <c r="AP6" s="207"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="220"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="220"/>
+      <c r="V6" s="220"/>
+      <c r="W6" s="220"/>
+      <c r="X6" s="220"/>
+      <c r="Y6" s="220"/>
+      <c r="Z6" s="220"/>
+      <c r="AA6" s="220"/>
+      <c r="AB6" s="220"/>
+      <c r="AC6" s="220"/>
+      <c r="AD6" s="220"/>
+      <c r="AE6" s="220"/>
+      <c r="AF6" s="220"/>
+      <c r="AG6" s="220"/>
+      <c r="AH6" s="220"/>
+      <c r="AI6" s="220"/>
+      <c r="AJ6" s="223"/>
+      <c r="AK6" s="214"/>
+      <c r="AL6" s="211"/>
+      <c r="AM6" s="211"/>
+      <c r="AN6" s="211"/>
+      <c r="AO6" s="211"/>
+      <c r="AP6" s="208"/>
       <c r="AQ6" s="178"/>
       <c r="AR6" s="175"/>
       <c r="AS6" s="179"/>
-      <c r="AT6" s="204"/>
+      <c r="AT6" s="205"/>
       <c r="AU6" s="178"/>
       <c r="AV6" s="175"/>
       <c r="AW6" s="175"/>
       <c r="AX6" s="175"/>
       <c r="AY6" s="179"/>
-      <c r="AZ6" s="195"/>
-      <c r="BA6" s="198"/>
-      <c r="BB6" s="198"/>
-      <c r="BC6" s="198"/>
-      <c r="BD6" s="201"/>
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="199"/>
+      <c r="BB6" s="199"/>
+      <c r="BC6" s="199"/>
+      <c r="BD6" s="202"/>
       <c r="BE6" s="177"/>
       <c r="BF6" s="175"/>
       <c r="BG6" s="175"/>
@@ -8460,7 +8535,7 @@
       <c r="CJ6" s="170" t="s">
         <v>287</v>
       </c>
-      <c r="CK6" s="224" t="s">
+      <c r="CK6" s="189" t="s">
         <v>287</v>
       </c>
       <c r="CL6" s="174" t="s">
@@ -8502,14 +8577,14 @@
       <c r="CX6" s="169" t="s">
         <v>289</v>
       </c>
-      <c r="CY6" s="217"/>
-      <c r="CZ6" s="217"/>
-      <c r="DA6" s="217"/>
-      <c r="DB6" s="218"/>
-      <c r="DC6" s="219"/>
-      <c r="DD6" s="217"/>
-      <c r="DE6" s="217"/>
-      <c r="DF6" s="217"/>
+      <c r="CY6" s="182"/>
+      <c r="CZ6" s="182"/>
+      <c r="DA6" s="182"/>
+      <c r="DB6" s="183"/>
+      <c r="DC6" s="184"/>
+      <c r="DD6" s="182"/>
+      <c r="DE6" s="182"/>
+      <c r="DF6" s="182"/>
       <c r="DG6" s="175"/>
       <c r="DH6" s="175"/>
       <c r="DI6" s="175"/>
@@ -8520,7 +8595,7 @@
       <c r="DN6" s="175"/>
       <c r="DO6" s="175"/>
       <c r="DP6" s="175"/>
-      <c r="DQ6" s="220"/>
+      <c r="DQ6" s="185"/>
       <c r="DR6" s="179"/>
       <c r="DS6" s="156"/>
       <c r="DT6" s="149"/>
@@ -8547,40 +8622,40 @@
       <c r="EO6" s="157"/>
     </row>
     <row r="7" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="191" t="s">
+      <c r="E7" s="192" t="s">
         <v>349</v>
       </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="192"/>
-      <c r="AB7" s="192"/>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="192"/>
-      <c r="AF7" s="192"/>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="192"/>
-      <c r="AI7" s="192"/>
-      <c r="AJ7" s="192"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="193"/>
+      <c r="AJ7" s="193"/>
       <c r="AK7" s="146"/>
       <c r="AL7" s="146"/>
       <c r="AM7" s="146"/>
@@ -8589,153 +8664,153 @@
       <c r="AP7" s="146"/>
     </row>
     <row r="8" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="191" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="190"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="190"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="190"/>
-      <c r="AF8" s="190"/>
-      <c r="AG8" s="190"/>
-      <c r="AH8" s="190"/>
-      <c r="AI8" s="190"/>
-      <c r="AJ8" s="190"/>
-      <c r="AK8" s="190"/>
-      <c r="AL8" s="190"/>
-      <c r="AM8" s="190"/>
-      <c r="AN8" s="190"/>
-      <c r="AO8" s="190"/>
-      <c r="AP8" s="190"/>
-      <c r="AQ8" s="190"/>
-      <c r="AR8" s="190"/>
-      <c r="AS8" s="190"/>
-      <c r="AT8" s="190"/>
-      <c r="AU8" s="190"/>
-      <c r="AV8" s="190"/>
-      <c r="AW8" s="190"/>
-      <c r="AX8" s="190"/>
-      <c r="AY8" s="190"/>
-      <c r="AZ8" s="190"/>
-      <c r="BA8" s="190"/>
-      <c r="BB8" s="190"/>
-      <c r="BC8" s="190"/>
-      <c r="BD8" s="190"/>
-      <c r="BE8" s="190"/>
-      <c r="BF8" s="190"/>
-      <c r="BG8" s="190"/>
-      <c r="BH8" s="190"/>
-      <c r="BI8" s="190"/>
-      <c r="BJ8" s="190"/>
-      <c r="BK8" s="190"/>
-      <c r="BL8" s="190"/>
-      <c r="BM8" s="190"/>
-      <c r="BN8" s="190"/>
-      <c r="BO8" s="190"/>
-      <c r="BP8" s="190"/>
-      <c r="BQ8" s="190"/>
-      <c r="BR8" s="190"/>
-      <c r="BS8" s="190"/>
-      <c r="BT8" s="190"/>
-      <c r="BU8" s="190"/>
-      <c r="BV8" s="190"/>
-      <c r="BW8" s="190"/>
-      <c r="BX8" s="190"/>
-      <c r="BY8" s="190"/>
-      <c r="BZ8" s="190"/>
-      <c r="DA8" s="190" t="s">
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="191"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191"/>
+      <c r="AA8" s="191"/>
+      <c r="AB8" s="191"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="191"/>
+      <c r="AE8" s="191"/>
+      <c r="AF8" s="191"/>
+      <c r="AG8" s="191"/>
+      <c r="AH8" s="191"/>
+      <c r="AI8" s="191"/>
+      <c r="AJ8" s="191"/>
+      <c r="AK8" s="191"/>
+      <c r="AL8" s="191"/>
+      <c r="AM8" s="191"/>
+      <c r="AN8" s="191"/>
+      <c r="AO8" s="191"/>
+      <c r="AP8" s="191"/>
+      <c r="AQ8" s="191"/>
+      <c r="AR8" s="191"/>
+      <c r="AS8" s="191"/>
+      <c r="AT8" s="191"/>
+      <c r="AU8" s="191"/>
+      <c r="AV8" s="191"/>
+      <c r="AW8" s="191"/>
+      <c r="AX8" s="191"/>
+      <c r="AY8" s="191"/>
+      <c r="AZ8" s="191"/>
+      <c r="BA8" s="191"/>
+      <c r="BB8" s="191"/>
+      <c r="BC8" s="191"/>
+      <c r="BD8" s="191"/>
+      <c r="BE8" s="191"/>
+      <c r="BF8" s="191"/>
+      <c r="BG8" s="191"/>
+      <c r="BH8" s="191"/>
+      <c r="BI8" s="191"/>
+      <c r="BJ8" s="191"/>
+      <c r="BK8" s="191"/>
+      <c r="BL8" s="191"/>
+      <c r="BM8" s="191"/>
+      <c r="BN8" s="191"/>
+      <c r="BO8" s="191"/>
+      <c r="BP8" s="191"/>
+      <c r="BQ8" s="191"/>
+      <c r="BR8" s="191"/>
+      <c r="BS8" s="191"/>
+      <c r="BT8" s="191"/>
+      <c r="BU8" s="191"/>
+      <c r="BV8" s="191"/>
+      <c r="BW8" s="191"/>
+      <c r="BX8" s="191"/>
+      <c r="BY8" s="191"/>
+      <c r="BZ8" s="191"/>
+      <c r="DA8" s="191" t="s">
         <v>350</v>
       </c>
-      <c r="DB8" s="190"/>
-      <c r="DC8" s="190"/>
-      <c r="DD8" s="190"/>
-      <c r="DE8" s="190"/>
-      <c r="DF8" s="190"/>
-      <c r="DG8" s="190"/>
-      <c r="DH8" s="190"/>
-      <c r="DI8" s="190"/>
-      <c r="DJ8" s="190"/>
-      <c r="DK8" s="190"/>
-      <c r="DL8" s="190"/>
-      <c r="DM8" s="190"/>
-      <c r="DN8" s="190"/>
-      <c r="DO8" s="190"/>
-      <c r="DP8" s="190"/>
-      <c r="DQ8" s="190"/>
-      <c r="DR8" s="190"/>
-      <c r="DS8" s="190"/>
-      <c r="DT8" s="190"/>
-      <c r="DU8" s="190"/>
-      <c r="DV8" s="190"/>
-      <c r="DW8" s="190"/>
-      <c r="DX8" s="190"/>
-      <c r="DY8" s="190"/>
-      <c r="DZ8" s="190"/>
-      <c r="EA8" s="190"/>
-      <c r="EB8" s="190"/>
-      <c r="EC8" s="190"/>
-      <c r="ED8" s="190"/>
-      <c r="EE8" s="190"/>
-      <c r="EF8" s="190"/>
-      <c r="EG8" s="190"/>
-      <c r="EH8" s="190"/>
-      <c r="EI8" s="190"/>
-      <c r="EJ8" s="190"/>
-      <c r="EK8" s="190"/>
-      <c r="EL8" s="190"/>
-      <c r="EM8" s="190"/>
-      <c r="EN8" s="190"/>
-      <c r="EO8" s="190"/>
+      <c r="DB8" s="191"/>
+      <c r="DC8" s="191"/>
+      <c r="DD8" s="191"/>
+      <c r="DE8" s="191"/>
+      <c r="DF8" s="191"/>
+      <c r="DG8" s="191"/>
+      <c r="DH8" s="191"/>
+      <c r="DI8" s="191"/>
+      <c r="DJ8" s="191"/>
+      <c r="DK8" s="191"/>
+      <c r="DL8" s="191"/>
+      <c r="DM8" s="191"/>
+      <c r="DN8" s="191"/>
+      <c r="DO8" s="191"/>
+      <c r="DP8" s="191"/>
+      <c r="DQ8" s="191"/>
+      <c r="DR8" s="191"/>
+      <c r="DS8" s="191"/>
+      <c r="DT8" s="191"/>
+      <c r="DU8" s="191"/>
+      <c r="DV8" s="191"/>
+      <c r="DW8" s="191"/>
+      <c r="DX8" s="191"/>
+      <c r="DY8" s="191"/>
+      <c r="DZ8" s="191"/>
+      <c r="EA8" s="191"/>
+      <c r="EB8" s="191"/>
+      <c r="EC8" s="191"/>
+      <c r="ED8" s="191"/>
+      <c r="EE8" s="191"/>
+      <c r="EF8" s="191"/>
+      <c r="EG8" s="191"/>
+      <c r="EH8" s="191"/>
+      <c r="EI8" s="191"/>
+      <c r="EJ8" s="191"/>
+      <c r="EK8" s="191"/>
+      <c r="EL8" s="191"/>
+      <c r="EM8" s="191"/>
+      <c r="EN8" s="191"/>
+      <c r="EO8" s="191"/>
     </row>
     <row r="9" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV9" s="189" t="s">
+      <c r="AV9" s="190" t="s">
         <v>353</v>
       </c>
-      <c r="AW9" s="189"/>
-      <c r="AX9" s="189"/>
-      <c r="AY9" s="189"/>
-      <c r="AZ9" s="189"/>
-      <c r="BA9" s="189"/>
-      <c r="BB9" s="189"/>
-      <c r="BC9" s="189"/>
-      <c r="BD9" s="189"/>
-      <c r="BE9" s="189"/>
-      <c r="BF9" s="189"/>
-      <c r="BG9" s="189"/>
-      <c r="BH9" s="189"/>
-      <c r="BI9" s="189"/>
-      <c r="BJ9" s="189"/>
-      <c r="BK9" s="189"/>
-      <c r="BL9" s="189"/>
-      <c r="BM9" s="189"/>
-      <c r="BN9" s="189"/>
-      <c r="BO9" s="189"/>
-      <c r="BP9" s="189"/>
-      <c r="BQ9" s="189"/>
-      <c r="BR9" s="189"/>
-      <c r="BS9" s="189"/>
+      <c r="AW9" s="190"/>
+      <c r="AX9" s="190"/>
+      <c r="AY9" s="190"/>
+      <c r="AZ9" s="190"/>
+      <c r="BA9" s="190"/>
+      <c r="BB9" s="190"/>
+      <c r="BC9" s="190"/>
+      <c r="BD9" s="190"/>
+      <c r="BE9" s="190"/>
+      <c r="BF9" s="190"/>
+      <c r="BG9" s="190"/>
+      <c r="BH9" s="190"/>
+      <c r="BI9" s="190"/>
+      <c r="BJ9" s="190"/>
+      <c r="BK9" s="190"/>
+      <c r="BL9" s="190"/>
+      <c r="BM9" s="190"/>
+      <c r="BN9" s="190"/>
+      <c r="BO9" s="190"/>
+      <c r="BP9" s="190"/>
+      <c r="BQ9" s="190"/>
+      <c r="BR9" s="190"/>
+      <c r="BS9" s="190"/>
       <c r="DZ9" s="3" t="s">
         <v>393</v>
       </c>
@@ -8806,6 +8881,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AG3:AG6"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="AJ3:AJ6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AC3:AC6"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
+    <mergeCell ref="W3:W6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="AV9:BS9"/>
     <mergeCell ref="DA8:EO8"/>
     <mergeCell ref="E7:AJ7"/>
@@ -8822,30 +8921,6 @@
     <mergeCell ref="AM3:AM6"/>
     <mergeCell ref="AL3:AL6"/>
     <mergeCell ref="AK3:AK6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="T3:T6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="V3:V6"/>
-    <mergeCell ref="W3:W6"/>
-    <mergeCell ref="X3:X6"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AA6"/>
-    <mergeCell ref="AG3:AG6"/>
-    <mergeCell ref="AH3:AH6"/>
-    <mergeCell ref="AI3:AI6"/>
-    <mergeCell ref="AJ3:AJ6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="AC3:AC6"/>
-    <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AF3:AF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9113,8 +9188,8 @@
       <c r="F9" s="84" t="s">
         <v>325</v>
       </c>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
@@ -9129,10 +9204,10 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="214" t="s">
+      <c r="G10" s="224" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="214"/>
+      <c r="H10" s="224"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
@@ -9147,10 +9222,10 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="214" t="s">
+      <c r="G11" s="224" t="s">
         <v>348</v>
       </c>
-      <c r="H11" s="214"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
@@ -9165,10 +9240,10 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="214" t="s">
+      <c r="G12" s="224" t="s">
         <v>327</v>
       </c>
-      <c r="H12" s="214"/>
+      <c r="H12" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="424">
   <si>
     <t>T0</t>
   </si>
@@ -1280,6 +1280,15 @@
   </si>
   <si>
     <t>NPN4</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>15F</t>
   </si>
 </sst>
 </file>
@@ -2591,6 +2600,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2664,33 +2700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2999,7 +3008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
@@ -7203,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:EO26"/>
   <sheetViews>
-    <sheetView topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CL11" sqref="CL11"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="DN13" sqref="DN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7444,6 +7453,15 @@
       <c r="CK1" s="159" t="s">
         <v>417</v>
       </c>
+      <c r="CU1" s="159" t="s">
+        <v>421</v>
+      </c>
+      <c r="DK1" s="159" t="s">
+        <v>422</v>
+      </c>
+      <c r="DR1" s="159" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="2" spans="5:145" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AK2" s="1">
@@ -7654,100 +7672,100 @@
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
       <c r="L3" s="152"/>
-      <c r="M3" s="215" t="s">
+      <c r="M3" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="218" t="s">
+      <c r="N3" s="190" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="218" t="s">
+      <c r="O3" s="190" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="218" t="s">
+      <c r="P3" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="218" t="s">
+      <c r="Q3" s="190" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="218" t="s">
+      <c r="R3" s="190" t="s">
         <v>163</v>
       </c>
-      <c r="S3" s="218" t="s">
+      <c r="S3" s="190" t="s">
         <v>164</v>
       </c>
-      <c r="T3" s="218" t="s">
+      <c r="T3" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="U3" s="218" t="s">
+      <c r="U3" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="V3" s="218" t="s">
+      <c r="V3" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="W3" s="218" t="s">
+      <c r="W3" s="190" t="s">
         <v>168</v>
       </c>
-      <c r="X3" s="218" t="s">
+      <c r="X3" s="190" t="s">
         <v>169</v>
       </c>
-      <c r="Y3" s="218" t="s">
+      <c r="Y3" s="190" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" s="218" t="s">
+      <c r="Z3" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" s="218" t="s">
+      <c r="AA3" s="190" t="s">
         <v>172</v>
       </c>
-      <c r="AB3" s="218" t="s">
+      <c r="AB3" s="190" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" s="218" t="s">
+      <c r="AC3" s="190" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" s="218" t="s">
+      <c r="AD3" s="190" t="s">
         <v>175</v>
       </c>
-      <c r="AE3" s="218" t="s">
+      <c r="AE3" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="AF3" s="218" t="s">
+      <c r="AF3" s="190" t="s">
         <v>177</v>
       </c>
-      <c r="AG3" s="218" t="s">
+      <c r="AG3" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="AH3" s="218" t="s">
+      <c r="AH3" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="AI3" s="218" t="s">
+      <c r="AI3" s="190" t="s">
         <v>180</v>
       </c>
-      <c r="AJ3" s="221" t="s">
+      <c r="AJ3" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="AK3" s="212" t="s">
+      <c r="AK3" s="221" t="s">
         <v>258</v>
       </c>
-      <c r="AL3" s="209" t="s">
+      <c r="AL3" s="218" t="s">
         <v>258</v>
       </c>
-      <c r="AM3" s="209" t="s">
+      <c r="AM3" s="218" t="s">
         <v>258</v>
       </c>
-      <c r="AN3" s="209" t="s">
+      <c r="AN3" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="AO3" s="209" t="s">
+      <c r="AO3" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="AP3" s="206" t="s">
+      <c r="AP3" s="215" t="s">
         <v>259</v>
       </c>
       <c r="AQ3" s="173"/>
       <c r="AR3" s="14"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="203" t="s">
+      <c r="AT3" s="212" t="s">
         <v>182</v>
       </c>
       <c r="AU3" s="173"/>
@@ -7755,19 +7773,19 @@
       <c r="AW3" s="14"/>
       <c r="AX3" s="14"/>
       <c r="AY3" s="15"/>
-      <c r="AZ3" s="194" t="s">
+      <c r="AZ3" s="203" t="s">
         <v>186</v>
       </c>
-      <c r="BA3" s="197" t="s">
+      <c r="BA3" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="BB3" s="197" t="s">
+      <c r="BB3" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="BC3" s="197" t="s">
+      <c r="BC3" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="BD3" s="200" t="s">
+      <c r="BD3" s="209" t="s">
         <v>186</v>
       </c>
       <c r="BE3" s="176"/>
@@ -7953,50 +7971,50 @@
       <c r="J4" s="148"/>
       <c r="K4" s="148"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="219"/>
-      <c r="V4" s="219"/>
-      <c r="W4" s="219"/>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="219"/>
-      <c r="Z4" s="219"/>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="219"/>
-      <c r="AC4" s="219"/>
-      <c r="AD4" s="219"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="219"/>
-      <c r="AG4" s="219"/>
-      <c r="AH4" s="219"/>
-      <c r="AI4" s="219"/>
-      <c r="AJ4" s="222"/>
-      <c r="AK4" s="213"/>
-      <c r="AL4" s="210"/>
-      <c r="AM4" s="210"/>
-      <c r="AN4" s="210"/>
-      <c r="AO4" s="210"/>
-      <c r="AP4" s="207"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="191"/>
+      <c r="R4" s="191"/>
+      <c r="S4" s="191"/>
+      <c r="T4" s="191"/>
+      <c r="U4" s="191"/>
+      <c r="V4" s="191"/>
+      <c r="W4" s="191"/>
+      <c r="X4" s="191"/>
+      <c r="Y4" s="191"/>
+      <c r="Z4" s="191"/>
+      <c r="AA4" s="191"/>
+      <c r="AB4" s="191"/>
+      <c r="AC4" s="191"/>
+      <c r="AD4" s="191"/>
+      <c r="AE4" s="191"/>
+      <c r="AF4" s="191"/>
+      <c r="AG4" s="191"/>
+      <c r="AH4" s="191"/>
+      <c r="AI4" s="191"/>
+      <c r="AJ4" s="194"/>
+      <c r="AK4" s="222"/>
+      <c r="AL4" s="219"/>
+      <c r="AM4" s="219"/>
+      <c r="AN4" s="219"/>
+      <c r="AO4" s="219"/>
+      <c r="AP4" s="216"/>
       <c r="AQ4" s="164"/>
       <c r="AR4" s="148"/>
       <c r="AS4" s="174"/>
-      <c r="AT4" s="204"/>
+      <c r="AT4" s="213"/>
       <c r="AU4" s="164"/>
       <c r="AV4" s="148"/>
       <c r="AW4" s="148"/>
       <c r="AX4" s="148"/>
       <c r="AY4" s="174"/>
-      <c r="AZ4" s="195"/>
-      <c r="BA4" s="198"/>
-      <c r="BB4" s="198"/>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="201"/>
+      <c r="AZ4" s="204"/>
+      <c r="BA4" s="207"/>
+      <c r="BB4" s="207"/>
+      <c r="BC4" s="207"/>
+      <c r="BD4" s="210"/>
       <c r="BE4" s="172"/>
       <c r="BF4" s="148"/>
       <c r="BG4" s="148"/>
@@ -8178,50 +8196,50 @@
       <c r="J5" s="148"/>
       <c r="K5" s="148"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="219"/>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="219"/>
-      <c r="V5" s="219"/>
-      <c r="W5" s="219"/>
-      <c r="X5" s="219"/>
-      <c r="Y5" s="219"/>
-      <c r="Z5" s="219"/>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="219"/>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="219"/>
-      <c r="AE5" s="219"/>
-      <c r="AF5" s="219"/>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="219"/>
-      <c r="AI5" s="219"/>
-      <c r="AJ5" s="222"/>
-      <c r="AK5" s="213"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="210"/>
-      <c r="AP5" s="207"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="191"/>
+      <c r="S5" s="191"/>
+      <c r="T5" s="191"/>
+      <c r="U5" s="191"/>
+      <c r="V5" s="191"/>
+      <c r="W5" s="191"/>
+      <c r="X5" s="191"/>
+      <c r="Y5" s="191"/>
+      <c r="Z5" s="191"/>
+      <c r="AA5" s="191"/>
+      <c r="AB5" s="191"/>
+      <c r="AC5" s="191"/>
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="194"/>
+      <c r="AK5" s="222"/>
+      <c r="AL5" s="219"/>
+      <c r="AM5" s="219"/>
+      <c r="AN5" s="219"/>
+      <c r="AO5" s="219"/>
+      <c r="AP5" s="216"/>
       <c r="AQ5" s="164"/>
       <c r="AR5" s="148"/>
       <c r="AS5" s="174"/>
-      <c r="AT5" s="204"/>
+      <c r="AT5" s="213"/>
       <c r="AU5" s="164"/>
       <c r="AV5" s="148"/>
       <c r="AW5" s="148"/>
       <c r="AX5" s="148"/>
       <c r="AY5" s="174"/>
-      <c r="AZ5" s="195"/>
-      <c r="BA5" s="198"/>
-      <c r="BB5" s="198"/>
-      <c r="BC5" s="198"/>
-      <c r="BD5" s="201"/>
+      <c r="AZ5" s="204"/>
+      <c r="BA5" s="207"/>
+      <c r="BB5" s="207"/>
+      <c r="BC5" s="207"/>
+      <c r="BD5" s="210"/>
       <c r="BE5" s="160" t="s">
         <v>261</v>
       </c>
@@ -8403,50 +8421,50 @@
       <c r="J6" s="149"/>
       <c r="K6" s="149"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="217"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="220"/>
-      <c r="V6" s="220"/>
-      <c r="W6" s="220"/>
-      <c r="X6" s="220"/>
-      <c r="Y6" s="220"/>
-      <c r="Z6" s="220"/>
-      <c r="AA6" s="220"/>
-      <c r="AB6" s="220"/>
-      <c r="AC6" s="220"/>
-      <c r="AD6" s="220"/>
-      <c r="AE6" s="220"/>
-      <c r="AF6" s="220"/>
-      <c r="AG6" s="220"/>
-      <c r="AH6" s="220"/>
-      <c r="AI6" s="220"/>
-      <c r="AJ6" s="223"/>
-      <c r="AK6" s="214"/>
-      <c r="AL6" s="211"/>
-      <c r="AM6" s="211"/>
-      <c r="AN6" s="211"/>
-      <c r="AO6" s="211"/>
-      <c r="AP6" s="208"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="192"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="192"/>
+      <c r="AG6" s="192"/>
+      <c r="AH6" s="192"/>
+      <c r="AI6" s="192"/>
+      <c r="AJ6" s="195"/>
+      <c r="AK6" s="223"/>
+      <c r="AL6" s="220"/>
+      <c r="AM6" s="220"/>
+      <c r="AN6" s="220"/>
+      <c r="AO6" s="220"/>
+      <c r="AP6" s="217"/>
       <c r="AQ6" s="178"/>
       <c r="AR6" s="175"/>
       <c r="AS6" s="179"/>
-      <c r="AT6" s="205"/>
+      <c r="AT6" s="214"/>
       <c r="AU6" s="178"/>
       <c r="AV6" s="175"/>
       <c r="AW6" s="175"/>
       <c r="AX6" s="175"/>
       <c r="AY6" s="179"/>
-      <c r="AZ6" s="196"/>
-      <c r="BA6" s="199"/>
-      <c r="BB6" s="199"/>
-      <c r="BC6" s="199"/>
-      <c r="BD6" s="202"/>
+      <c r="AZ6" s="205"/>
+      <c r="BA6" s="208"/>
+      <c r="BB6" s="208"/>
+      <c r="BC6" s="208"/>
+      <c r="BD6" s="211"/>
       <c r="BE6" s="177"/>
       <c r="BF6" s="175"/>
       <c r="BG6" s="175"/>
@@ -8622,40 +8640,40 @@
       <c r="EO6" s="157"/>
     </row>
     <row r="7" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="192" t="s">
+      <c r="E7" s="201" t="s">
         <v>349</v>
       </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
-      <c r="AB7" s="193"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="193"/>
-      <c r="AE7" s="193"/>
-      <c r="AF7" s="193"/>
-      <c r="AG7" s="193"/>
-      <c r="AH7" s="193"/>
-      <c r="AI7" s="193"/>
-      <c r="AJ7" s="193"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="202"/>
+      <c r="W7" s="202"/>
+      <c r="X7" s="202"/>
+      <c r="Y7" s="202"/>
+      <c r="Z7" s="202"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="202"/>
+      <c r="AD7" s="202"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="202"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="202"/>
+      <c r="AI7" s="202"/>
+      <c r="AJ7" s="202"/>
       <c r="AK7" s="146"/>
       <c r="AL7" s="146"/>
       <c r="AM7" s="146"/>
@@ -8664,153 +8682,153 @@
       <c r="AP7" s="146"/>
     </row>
     <row r="8" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="200" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="191"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="191"/>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="191"/>
-      <c r="AG8" s="191"/>
-      <c r="AH8" s="191"/>
-      <c r="AI8" s="191"/>
-      <c r="AJ8" s="191"/>
-      <c r="AK8" s="191"/>
-      <c r="AL8" s="191"/>
-      <c r="AM8" s="191"/>
-      <c r="AN8" s="191"/>
-      <c r="AO8" s="191"/>
-      <c r="AP8" s="191"/>
-      <c r="AQ8" s="191"/>
-      <c r="AR8" s="191"/>
-      <c r="AS8" s="191"/>
-      <c r="AT8" s="191"/>
-      <c r="AU8" s="191"/>
-      <c r="AV8" s="191"/>
-      <c r="AW8" s="191"/>
-      <c r="AX8" s="191"/>
-      <c r="AY8" s="191"/>
-      <c r="AZ8" s="191"/>
-      <c r="BA8" s="191"/>
-      <c r="BB8" s="191"/>
-      <c r="BC8" s="191"/>
-      <c r="BD8" s="191"/>
-      <c r="BE8" s="191"/>
-      <c r="BF8" s="191"/>
-      <c r="BG8" s="191"/>
-      <c r="BH8" s="191"/>
-      <c r="BI8" s="191"/>
-      <c r="BJ8" s="191"/>
-      <c r="BK8" s="191"/>
-      <c r="BL8" s="191"/>
-      <c r="BM8" s="191"/>
-      <c r="BN8" s="191"/>
-      <c r="BO8" s="191"/>
-      <c r="BP8" s="191"/>
-      <c r="BQ8" s="191"/>
-      <c r="BR8" s="191"/>
-      <c r="BS8" s="191"/>
-      <c r="BT8" s="191"/>
-      <c r="BU8" s="191"/>
-      <c r="BV8" s="191"/>
-      <c r="BW8" s="191"/>
-      <c r="BX8" s="191"/>
-      <c r="BY8" s="191"/>
-      <c r="BZ8" s="191"/>
-      <c r="DA8" s="191" t="s">
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="200"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="200"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="200"/>
+      <c r="AQ8" s="200"/>
+      <c r="AR8" s="200"/>
+      <c r="AS8" s="200"/>
+      <c r="AT8" s="200"/>
+      <c r="AU8" s="200"/>
+      <c r="AV8" s="200"/>
+      <c r="AW8" s="200"/>
+      <c r="AX8" s="200"/>
+      <c r="AY8" s="200"/>
+      <c r="AZ8" s="200"/>
+      <c r="BA8" s="200"/>
+      <c r="BB8" s="200"/>
+      <c r="BC8" s="200"/>
+      <c r="BD8" s="200"/>
+      <c r="BE8" s="200"/>
+      <c r="BF8" s="200"/>
+      <c r="BG8" s="200"/>
+      <c r="BH8" s="200"/>
+      <c r="BI8" s="200"/>
+      <c r="BJ8" s="200"/>
+      <c r="BK8" s="200"/>
+      <c r="BL8" s="200"/>
+      <c r="BM8" s="200"/>
+      <c r="BN8" s="200"/>
+      <c r="BO8" s="200"/>
+      <c r="BP8" s="200"/>
+      <c r="BQ8" s="200"/>
+      <c r="BR8" s="200"/>
+      <c r="BS8" s="200"/>
+      <c r="BT8" s="200"/>
+      <c r="BU8" s="200"/>
+      <c r="BV8" s="200"/>
+      <c r="BW8" s="200"/>
+      <c r="BX8" s="200"/>
+      <c r="BY8" s="200"/>
+      <c r="BZ8" s="200"/>
+      <c r="DA8" s="200" t="s">
         <v>350</v>
       </c>
-      <c r="DB8" s="191"/>
-      <c r="DC8" s="191"/>
-      <c r="DD8" s="191"/>
-      <c r="DE8" s="191"/>
-      <c r="DF8" s="191"/>
-      <c r="DG8" s="191"/>
-      <c r="DH8" s="191"/>
-      <c r="DI8" s="191"/>
-      <c r="DJ8" s="191"/>
-      <c r="DK8" s="191"/>
-      <c r="DL8" s="191"/>
-      <c r="DM8" s="191"/>
-      <c r="DN8" s="191"/>
-      <c r="DO8" s="191"/>
-      <c r="DP8" s="191"/>
-      <c r="DQ8" s="191"/>
-      <c r="DR8" s="191"/>
-      <c r="DS8" s="191"/>
-      <c r="DT8" s="191"/>
-      <c r="DU8" s="191"/>
-      <c r="DV8" s="191"/>
-      <c r="DW8" s="191"/>
-      <c r="DX8" s="191"/>
-      <c r="DY8" s="191"/>
-      <c r="DZ8" s="191"/>
-      <c r="EA8" s="191"/>
-      <c r="EB8" s="191"/>
-      <c r="EC8" s="191"/>
-      <c r="ED8" s="191"/>
-      <c r="EE8" s="191"/>
-      <c r="EF8" s="191"/>
-      <c r="EG8" s="191"/>
-      <c r="EH8" s="191"/>
-      <c r="EI8" s="191"/>
-      <c r="EJ8" s="191"/>
-      <c r="EK8" s="191"/>
-      <c r="EL8" s="191"/>
-      <c r="EM8" s="191"/>
-      <c r="EN8" s="191"/>
-      <c r="EO8" s="191"/>
+      <c r="DB8" s="200"/>
+      <c r="DC8" s="200"/>
+      <c r="DD8" s="200"/>
+      <c r="DE8" s="200"/>
+      <c r="DF8" s="200"/>
+      <c r="DG8" s="200"/>
+      <c r="DH8" s="200"/>
+      <c r="DI8" s="200"/>
+      <c r="DJ8" s="200"/>
+      <c r="DK8" s="200"/>
+      <c r="DL8" s="200"/>
+      <c r="DM8" s="200"/>
+      <c r="DN8" s="200"/>
+      <c r="DO8" s="200"/>
+      <c r="DP8" s="200"/>
+      <c r="DQ8" s="200"/>
+      <c r="DR8" s="200"/>
+      <c r="DS8" s="200"/>
+      <c r="DT8" s="200"/>
+      <c r="DU8" s="200"/>
+      <c r="DV8" s="200"/>
+      <c r="DW8" s="200"/>
+      <c r="DX8" s="200"/>
+      <c r="DY8" s="200"/>
+      <c r="DZ8" s="200"/>
+      <c r="EA8" s="200"/>
+      <c r="EB8" s="200"/>
+      <c r="EC8" s="200"/>
+      <c r="ED8" s="200"/>
+      <c r="EE8" s="200"/>
+      <c r="EF8" s="200"/>
+      <c r="EG8" s="200"/>
+      <c r="EH8" s="200"/>
+      <c r="EI8" s="200"/>
+      <c r="EJ8" s="200"/>
+      <c r="EK8" s="200"/>
+      <c r="EL8" s="200"/>
+      <c r="EM8" s="200"/>
+      <c r="EN8" s="200"/>
+      <c r="EO8" s="200"/>
     </row>
     <row r="9" spans="5:145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV9" s="190" t="s">
+      <c r="AV9" s="199" t="s">
         <v>353</v>
       </c>
-      <c r="AW9" s="190"/>
-      <c r="AX9" s="190"/>
-      <c r="AY9" s="190"/>
-      <c r="AZ9" s="190"/>
-      <c r="BA9" s="190"/>
-      <c r="BB9" s="190"/>
-      <c r="BC9" s="190"/>
-      <c r="BD9" s="190"/>
-      <c r="BE9" s="190"/>
-      <c r="BF9" s="190"/>
-      <c r="BG9" s="190"/>
-      <c r="BH9" s="190"/>
-      <c r="BI9" s="190"/>
-      <c r="BJ9" s="190"/>
-      <c r="BK9" s="190"/>
-      <c r="BL9" s="190"/>
-      <c r="BM9" s="190"/>
-      <c r="BN9" s="190"/>
-      <c r="BO9" s="190"/>
-      <c r="BP9" s="190"/>
-      <c r="BQ9" s="190"/>
-      <c r="BR9" s="190"/>
-      <c r="BS9" s="190"/>
+      <c r="AW9" s="199"/>
+      <c r="AX9" s="199"/>
+      <c r="AY9" s="199"/>
+      <c r="AZ9" s="199"/>
+      <c r="BA9" s="199"/>
+      <c r="BB9" s="199"/>
+      <c r="BC9" s="199"/>
+      <c r="BD9" s="199"/>
+      <c r="BE9" s="199"/>
+      <c r="BF9" s="199"/>
+      <c r="BG9" s="199"/>
+      <c r="BH9" s="199"/>
+      <c r="BI9" s="199"/>
+      <c r="BJ9" s="199"/>
+      <c r="BK9" s="199"/>
+      <c r="BL9" s="199"/>
+      <c r="BM9" s="199"/>
+      <c r="BN9" s="199"/>
+      <c r="BO9" s="199"/>
+      <c r="BP9" s="199"/>
+      <c r="BQ9" s="199"/>
+      <c r="BR9" s="199"/>
+      <c r="BS9" s="199"/>
       <c r="DZ9" s="3" t="s">
         <v>393</v>
       </c>
@@ -8881,30 +8899,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AG3:AG6"/>
-    <mergeCell ref="AH3:AH6"/>
-    <mergeCell ref="AI3:AI6"/>
-    <mergeCell ref="AJ3:AJ6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="AC3:AC6"/>
-    <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AF3:AF6"/>
-    <mergeCell ref="W3:W6"/>
-    <mergeCell ref="X3:X6"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AA6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="T3:T6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="V3:V6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="AV9:BS9"/>
     <mergeCell ref="DA8:EO8"/>
     <mergeCell ref="E7:AJ7"/>
@@ -8921,6 +8915,30 @@
     <mergeCell ref="AM3:AM6"/>
     <mergeCell ref="AL3:AL6"/>
     <mergeCell ref="AK3:AK6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="W3:W6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="AG3:AG6"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="AJ3:AJ6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AC3:AC6"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -3138,29 +3138,215 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3174,12 +3360,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3216,9 +3396,6 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3264,208 +3441,40 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3480,22 +3489,13 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7858,7 +7858,7 @@
   </sheetPr>
   <dimension ref="A1:EQ181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="DF33" sqref="DF33"/>
     </sheetView>
   </sheetViews>
@@ -7878,14 +7878,14 @@
       <c r="B1" s="153"/>
     </row>
     <row r="2" spans="1:147" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="231" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="D2" s="313" t="s">
+      <c r="B2" s="231"/>
+      <c r="D2" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="313"/>
+      <c r="E2" s="231"/>
       <c r="F2" s="190" t="s">
         <v>335</v>
       </c>
@@ -8312,17 +8312,17 @@
       </c>
     </row>
     <row r="3" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="252" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="239" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="281" t="s">
+      <c r="C3" s="235"/>
+      <c r="D3" s="252" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="273" t="s">
+      <c r="E3" s="239" t="s">
         <v>267</v>
       </c>
       <c r="G3" s="129" t="s">
@@ -8448,178 +8448,178 @@
       <c r="BC3" s="122"/>
       <c r="BD3" s="85"/>
       <c r="BE3" s="122"/>
-      <c r="BF3" s="326" t="s">
+      <c r="BF3" s="225" t="s">
         <v>373</v>
       </c>
-      <c r="BG3" s="222" t="s">
+      <c r="BG3" s="228" t="s">
         <v>375</v>
       </c>
-      <c r="BH3" s="222" t="s">
+      <c r="BH3" s="228" t="s">
         <v>376</v>
       </c>
-      <c r="BI3" s="222" t="s">
+      <c r="BI3" s="228" t="s">
         <v>377</v>
       </c>
-      <c r="BJ3" s="222" t="s">
+      <c r="BJ3" s="228" t="s">
         <v>378</v>
       </c>
-      <c r="BK3" s="222" t="s">
+      <c r="BK3" s="228" t="s">
         <v>379</v>
       </c>
-      <c r="BL3" s="222" t="s">
+      <c r="BL3" s="228" t="s">
         <v>380</v>
       </c>
-      <c r="BM3" s="222" t="s">
+      <c r="BM3" s="228" t="s">
         <v>381</v>
       </c>
-      <c r="BN3" s="222" t="s">
+      <c r="BN3" s="228" t="s">
         <v>382</v>
       </c>
-      <c r="BO3" s="222" t="s">
+      <c r="BO3" s="228" t="s">
         <v>383</v>
       </c>
-      <c r="BP3" s="222" t="s">
+      <c r="BP3" s="228" t="s">
         <v>384</v>
       </c>
-      <c r="BQ3" s="222" t="s">
+      <c r="BQ3" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="BR3" s="222" t="s">
+      <c r="BR3" s="228" t="s">
         <v>386</v>
       </c>
-      <c r="BS3" s="222" t="s">
+      <c r="BS3" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="BT3" s="222" t="s">
+      <c r="BT3" s="228" t="s">
         <v>388</v>
       </c>
-      <c r="BU3" s="222" t="s">
+      <c r="BU3" s="228" t="s">
         <v>389</v>
       </c>
-      <c r="BV3" s="222" t="s">
+      <c r="BV3" s="228" t="s">
         <v>390</v>
       </c>
-      <c r="BW3" s="222" t="s">
+      <c r="BW3" s="228" t="s">
         <v>391</v>
       </c>
-      <c r="BX3" s="222" t="s">
+      <c r="BX3" s="228" t="s">
         <v>392</v>
       </c>
-      <c r="BY3" s="222" t="s">
+      <c r="BY3" s="228" t="s">
         <v>393</v>
       </c>
-      <c r="BZ3" s="222" t="s">
+      <c r="BZ3" s="228" t="s">
         <v>394</v>
       </c>
-      <c r="CA3" s="222" t="s">
+      <c r="CA3" s="228" t="s">
         <v>395</v>
       </c>
-      <c r="CB3" s="222" t="s">
+      <c r="CB3" s="228" t="s">
         <v>396</v>
       </c>
-      <c r="CC3" s="234" t="s">
+      <c r="CC3" s="286" t="s">
         <v>397</v>
       </c>
-      <c r="CD3" s="326" t="s">
+      <c r="CD3" s="225" t="s">
         <v>374</v>
       </c>
-      <c r="CE3" s="222" t="s">
+      <c r="CE3" s="228" t="s">
         <v>398</v>
       </c>
-      <c r="CF3" s="222" t="s">
+      <c r="CF3" s="228" t="s">
         <v>399</v>
       </c>
-      <c r="CG3" s="222" t="s">
+      <c r="CG3" s="228" t="s">
         <v>400</v>
       </c>
-      <c r="CH3" s="222" t="s">
+      <c r="CH3" s="228" t="s">
         <v>401</v>
       </c>
-      <c r="CI3" s="222" t="s">
+      <c r="CI3" s="228" t="s">
         <v>402</v>
       </c>
-      <c r="CJ3" s="222" t="s">
+      <c r="CJ3" s="228" t="s">
         <v>403</v>
       </c>
-      <c r="CK3" s="222" t="s">
+      <c r="CK3" s="228" t="s">
         <v>404</v>
       </c>
-      <c r="CL3" s="222" t="s">
+      <c r="CL3" s="228" t="s">
         <v>405</v>
       </c>
-      <c r="CM3" s="222" t="s">
+      <c r="CM3" s="228" t="s">
         <v>406</v>
       </c>
-      <c r="CN3" s="222" t="s">
+      <c r="CN3" s="228" t="s">
         <v>407</v>
       </c>
-      <c r="CO3" s="222" t="s">
+      <c r="CO3" s="228" t="s">
         <v>408</v>
       </c>
-      <c r="CP3" s="222" t="s">
+      <c r="CP3" s="228" t="s">
         <v>409</v>
       </c>
-      <c r="CQ3" s="222" t="s">
+      <c r="CQ3" s="228" t="s">
         <v>410</v>
       </c>
-      <c r="CR3" s="222" t="s">
+      <c r="CR3" s="228" t="s">
         <v>411</v>
       </c>
-      <c r="CS3" s="222" t="s">
+      <c r="CS3" s="228" t="s">
         <v>412</v>
       </c>
-      <c r="CT3" s="222" t="s">
+      <c r="CT3" s="228" t="s">
         <v>413</v>
       </c>
-      <c r="CU3" s="222" t="s">
+      <c r="CU3" s="228" t="s">
         <v>414</v>
       </c>
-      <c r="CV3" s="222" t="s">
+      <c r="CV3" s="228" t="s">
         <v>415</v>
       </c>
-      <c r="CW3" s="222" t="s">
+      <c r="CW3" s="228" t="s">
         <v>416</v>
       </c>
-      <c r="CX3" s="222" t="s">
+      <c r="CX3" s="228" t="s">
         <v>417</v>
       </c>
-      <c r="CY3" s="222" t="s">
+      <c r="CY3" s="228" t="s">
         <v>418</v>
       </c>
-      <c r="CZ3" s="222" t="s">
+      <c r="CZ3" s="228" t="s">
         <v>419</v>
       </c>
-      <c r="DA3" s="234" t="s">
+      <c r="DA3" s="286" t="s">
         <v>420</v>
       </c>
-      <c r="DB3" s="224" t="s">
+      <c r="DB3" s="329" t="s">
         <v>188</v>
       </c>
-      <c r="DC3" s="227" t="s">
+      <c r="DC3" s="332" t="s">
         <v>188</v>
       </c>
-      <c r="DD3" s="227" t="s">
+      <c r="DD3" s="332" t="s">
         <v>188</v>
       </c>
-      <c r="DE3" s="227" t="s">
+      <c r="DE3" s="332" t="s">
         <v>189</v>
       </c>
-      <c r="DF3" s="227" t="s">
+      <c r="DF3" s="332" t="s">
         <v>189</v>
       </c>
-      <c r="DG3" s="258" t="s">
+      <c r="DG3" s="317" t="s">
         <v>189</v>
       </c>
-      <c r="DH3" s="339" t="s">
+      <c r="DH3" s="323" t="s">
         <v>433</v>
       </c>
-      <c r="DI3" s="336" t="s">
+      <c r="DI3" s="326" t="s">
         <v>434</v>
       </c>
-      <c r="DJ3" s="323" t="s">
+      <c r="DJ3" s="222" t="s">
         <v>366</v>
       </c>
-      <c r="DK3" s="261" t="s">
+      <c r="DK3" s="320" t="s">
         <v>114</v>
       </c>
       <c r="DL3" s="137"/>
@@ -8627,19 +8627,19 @@
       <c r="DN3" s="206"/>
       <c r="DO3" s="14"/>
       <c r="DP3" s="64"/>
-      <c r="DQ3" s="246" t="s">
+      <c r="DQ3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DR3" s="246" t="s">
+      <c r="DR3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DS3" s="246" t="s">
+      <c r="DS3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DT3" s="246" t="s">
+      <c r="DT3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DU3" s="250" t="s">
+      <c r="DU3" s="309" t="s">
         <v>116</v>
       </c>
       <c r="DV3" s="161"/>
@@ -8678,11 +8678,11 @@
       </c>
     </row>
     <row r="4" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="282"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="314"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="274"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="240"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -8812,74 +8812,74 @@
       <c r="BC4" s="117"/>
       <c r="BD4" s="118"/>
       <c r="BE4" s="117"/>
-      <c r="BF4" s="327"/>
-      <c r="BG4" s="223"/>
-      <c r="BH4" s="223"/>
-      <c r="BI4" s="223"/>
-      <c r="BJ4" s="223"/>
-      <c r="BK4" s="223"/>
-      <c r="BL4" s="223"/>
-      <c r="BM4" s="223"/>
-      <c r="BN4" s="223"/>
-      <c r="BO4" s="223"/>
-      <c r="BP4" s="223"/>
-      <c r="BQ4" s="223"/>
-      <c r="BR4" s="223"/>
-      <c r="BS4" s="223"/>
-      <c r="BT4" s="223"/>
-      <c r="BU4" s="223"/>
-      <c r="BV4" s="223"/>
-      <c r="BW4" s="223"/>
-      <c r="BX4" s="223"/>
-      <c r="BY4" s="223"/>
-      <c r="BZ4" s="223"/>
-      <c r="CA4" s="223"/>
-      <c r="CB4" s="223"/>
-      <c r="CC4" s="235"/>
-      <c r="CD4" s="327"/>
-      <c r="CE4" s="223"/>
-      <c r="CF4" s="223"/>
-      <c r="CG4" s="223"/>
-      <c r="CH4" s="223"/>
-      <c r="CI4" s="223"/>
-      <c r="CJ4" s="223"/>
-      <c r="CK4" s="223"/>
-      <c r="CL4" s="223"/>
-      <c r="CM4" s="223"/>
-      <c r="CN4" s="223"/>
-      <c r="CO4" s="223"/>
-      <c r="CP4" s="223"/>
-      <c r="CQ4" s="223"/>
-      <c r="CR4" s="223"/>
-      <c r="CS4" s="223"/>
-      <c r="CT4" s="223"/>
-      <c r="CU4" s="223"/>
-      <c r="CV4" s="223"/>
-      <c r="CW4" s="223"/>
-      <c r="CX4" s="223"/>
-      <c r="CY4" s="223"/>
-      <c r="CZ4" s="223"/>
-      <c r="DA4" s="235"/>
-      <c r="DB4" s="225"/>
-      <c r="DC4" s="228"/>
-      <c r="DD4" s="228"/>
-      <c r="DE4" s="228"/>
-      <c r="DF4" s="228"/>
-      <c r="DG4" s="259"/>
-      <c r="DH4" s="340"/>
-      <c r="DI4" s="337"/>
-      <c r="DJ4" s="324"/>
-      <c r="DK4" s="262"/>
+      <c r="BF4" s="226"/>
+      <c r="BG4" s="229"/>
+      <c r="BH4" s="229"/>
+      <c r="BI4" s="229"/>
+      <c r="BJ4" s="229"/>
+      <c r="BK4" s="229"/>
+      <c r="BL4" s="229"/>
+      <c r="BM4" s="229"/>
+      <c r="BN4" s="229"/>
+      <c r="BO4" s="229"/>
+      <c r="BP4" s="229"/>
+      <c r="BQ4" s="229"/>
+      <c r="BR4" s="229"/>
+      <c r="BS4" s="229"/>
+      <c r="BT4" s="229"/>
+      <c r="BU4" s="229"/>
+      <c r="BV4" s="229"/>
+      <c r="BW4" s="229"/>
+      <c r="BX4" s="229"/>
+      <c r="BY4" s="229"/>
+      <c r="BZ4" s="229"/>
+      <c r="CA4" s="229"/>
+      <c r="CB4" s="229"/>
+      <c r="CC4" s="287"/>
+      <c r="CD4" s="226"/>
+      <c r="CE4" s="229"/>
+      <c r="CF4" s="229"/>
+      <c r="CG4" s="229"/>
+      <c r="CH4" s="229"/>
+      <c r="CI4" s="229"/>
+      <c r="CJ4" s="229"/>
+      <c r="CK4" s="229"/>
+      <c r="CL4" s="229"/>
+      <c r="CM4" s="229"/>
+      <c r="CN4" s="229"/>
+      <c r="CO4" s="229"/>
+      <c r="CP4" s="229"/>
+      <c r="CQ4" s="229"/>
+      <c r="CR4" s="229"/>
+      <c r="CS4" s="229"/>
+      <c r="CT4" s="229"/>
+      <c r="CU4" s="229"/>
+      <c r="CV4" s="229"/>
+      <c r="CW4" s="229"/>
+      <c r="CX4" s="229"/>
+      <c r="CY4" s="229"/>
+      <c r="CZ4" s="229"/>
+      <c r="DA4" s="287"/>
+      <c r="DB4" s="330"/>
+      <c r="DC4" s="333"/>
+      <c r="DD4" s="333"/>
+      <c r="DE4" s="333"/>
+      <c r="DF4" s="333"/>
+      <c r="DG4" s="318"/>
+      <c r="DH4" s="324"/>
+      <c r="DI4" s="327"/>
+      <c r="DJ4" s="223"/>
+      <c r="DK4" s="321"/>
       <c r="DL4" s="131"/>
       <c r="DM4" s="20"/>
       <c r="DN4" s="207"/>
       <c r="DO4" s="202"/>
       <c r="DP4" s="20"/>
-      <c r="DQ4" s="247"/>
-      <c r="DR4" s="247"/>
-      <c r="DS4" s="247"/>
-      <c r="DT4" s="247"/>
-      <c r="DU4" s="251"/>
+      <c r="DQ4" s="307"/>
+      <c r="DR4" s="307"/>
+      <c r="DS4" s="307"/>
+      <c r="DT4" s="307"/>
+      <c r="DU4" s="310"/>
       <c r="DV4" s="143"/>
       <c r="DW4" s="155"/>
       <c r="DX4" s="155"/>
@@ -8908,11 +8908,11 @@
       </c>
     </row>
     <row r="5" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="314"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="274"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="240"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -9002,74 +9002,74 @@
       <c r="BC5" s="117"/>
       <c r="BD5" s="118"/>
       <c r="BE5" s="117"/>
-      <c r="BF5" s="327"/>
-      <c r="BG5" s="223"/>
-      <c r="BH5" s="223"/>
-      <c r="BI5" s="223"/>
-      <c r="BJ5" s="223"/>
-      <c r="BK5" s="223"/>
-      <c r="BL5" s="223"/>
-      <c r="BM5" s="223"/>
-      <c r="BN5" s="223"/>
-      <c r="BO5" s="223"/>
-      <c r="BP5" s="223"/>
-      <c r="BQ5" s="223"/>
-      <c r="BR5" s="223"/>
-      <c r="BS5" s="223"/>
-      <c r="BT5" s="223"/>
-      <c r="BU5" s="223"/>
-      <c r="BV5" s="223"/>
-      <c r="BW5" s="223"/>
-      <c r="BX5" s="223"/>
-      <c r="BY5" s="223"/>
-      <c r="BZ5" s="223"/>
-      <c r="CA5" s="223"/>
-      <c r="CB5" s="223"/>
-      <c r="CC5" s="235"/>
-      <c r="CD5" s="327"/>
-      <c r="CE5" s="223"/>
-      <c r="CF5" s="223"/>
-      <c r="CG5" s="223"/>
-      <c r="CH5" s="223"/>
-      <c r="CI5" s="223"/>
-      <c r="CJ5" s="223"/>
-      <c r="CK5" s="223"/>
-      <c r="CL5" s="223"/>
-      <c r="CM5" s="223"/>
-      <c r="CN5" s="223"/>
-      <c r="CO5" s="223"/>
-      <c r="CP5" s="223"/>
-      <c r="CQ5" s="223"/>
-      <c r="CR5" s="223"/>
-      <c r="CS5" s="223"/>
-      <c r="CT5" s="223"/>
-      <c r="CU5" s="223"/>
-      <c r="CV5" s="223"/>
-      <c r="CW5" s="223"/>
-      <c r="CX5" s="223"/>
-      <c r="CY5" s="223"/>
-      <c r="CZ5" s="223"/>
-      <c r="DA5" s="235"/>
-      <c r="DB5" s="225"/>
-      <c r="DC5" s="228"/>
-      <c r="DD5" s="228"/>
-      <c r="DE5" s="228"/>
-      <c r="DF5" s="228"/>
-      <c r="DG5" s="259"/>
-      <c r="DH5" s="340"/>
-      <c r="DI5" s="337"/>
-      <c r="DJ5" s="324"/>
-      <c r="DK5" s="262"/>
+      <c r="BF5" s="226"/>
+      <c r="BG5" s="229"/>
+      <c r="BH5" s="229"/>
+      <c r="BI5" s="229"/>
+      <c r="BJ5" s="229"/>
+      <c r="BK5" s="229"/>
+      <c r="BL5" s="229"/>
+      <c r="BM5" s="229"/>
+      <c r="BN5" s="229"/>
+      <c r="BO5" s="229"/>
+      <c r="BP5" s="229"/>
+      <c r="BQ5" s="229"/>
+      <c r="BR5" s="229"/>
+      <c r="BS5" s="229"/>
+      <c r="BT5" s="229"/>
+      <c r="BU5" s="229"/>
+      <c r="BV5" s="229"/>
+      <c r="BW5" s="229"/>
+      <c r="BX5" s="229"/>
+      <c r="BY5" s="229"/>
+      <c r="BZ5" s="229"/>
+      <c r="CA5" s="229"/>
+      <c r="CB5" s="229"/>
+      <c r="CC5" s="287"/>
+      <c r="CD5" s="226"/>
+      <c r="CE5" s="229"/>
+      <c r="CF5" s="229"/>
+      <c r="CG5" s="229"/>
+      <c r="CH5" s="229"/>
+      <c r="CI5" s="229"/>
+      <c r="CJ5" s="229"/>
+      <c r="CK5" s="229"/>
+      <c r="CL5" s="229"/>
+      <c r="CM5" s="229"/>
+      <c r="CN5" s="229"/>
+      <c r="CO5" s="229"/>
+      <c r="CP5" s="229"/>
+      <c r="CQ5" s="229"/>
+      <c r="CR5" s="229"/>
+      <c r="CS5" s="229"/>
+      <c r="CT5" s="229"/>
+      <c r="CU5" s="229"/>
+      <c r="CV5" s="229"/>
+      <c r="CW5" s="229"/>
+      <c r="CX5" s="229"/>
+      <c r="CY5" s="229"/>
+      <c r="CZ5" s="229"/>
+      <c r="DA5" s="287"/>
+      <c r="DB5" s="330"/>
+      <c r="DC5" s="333"/>
+      <c r="DD5" s="333"/>
+      <c r="DE5" s="333"/>
+      <c r="DF5" s="333"/>
+      <c r="DG5" s="318"/>
+      <c r="DH5" s="324"/>
+      <c r="DI5" s="327"/>
+      <c r="DJ5" s="223"/>
+      <c r="DK5" s="321"/>
       <c r="DL5" s="131"/>
       <c r="DM5" s="20"/>
       <c r="DN5" s="143"/>
       <c r="DO5" s="30"/>
       <c r="DP5" s="211"/>
-      <c r="DQ5" s="247"/>
-      <c r="DR5" s="247"/>
-      <c r="DS5" s="247"/>
-      <c r="DT5" s="247"/>
-      <c r="DU5" s="251"/>
+      <c r="DQ5" s="307"/>
+      <c r="DR5" s="307"/>
+      <c r="DS5" s="307"/>
+      <c r="DT5" s="307"/>
+      <c r="DU5" s="310"/>
       <c r="DV5" s="133" t="s">
         <v>191</v>
       </c>
@@ -9138,11 +9138,11 @@
       </c>
     </row>
     <row r="6" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="314"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="274"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="240"/>
       <c r="G6" s="214" t="s">
         <v>216</v>
       </c>
@@ -9240,74 +9240,74 @@
       <c r="BC6" s="117"/>
       <c r="BD6" s="203"/>
       <c r="BE6" s="117"/>
-      <c r="BF6" s="327"/>
-      <c r="BG6" s="223"/>
-      <c r="BH6" s="223"/>
-      <c r="BI6" s="223"/>
-      <c r="BJ6" s="223"/>
-      <c r="BK6" s="223"/>
-      <c r="BL6" s="223"/>
-      <c r="BM6" s="223"/>
-      <c r="BN6" s="223"/>
-      <c r="BO6" s="223"/>
-      <c r="BP6" s="223"/>
-      <c r="BQ6" s="223"/>
-      <c r="BR6" s="223"/>
-      <c r="BS6" s="223"/>
-      <c r="BT6" s="223"/>
-      <c r="BU6" s="223"/>
-      <c r="BV6" s="223"/>
-      <c r="BW6" s="223"/>
-      <c r="BX6" s="223"/>
-      <c r="BY6" s="223"/>
-      <c r="BZ6" s="223"/>
-      <c r="CA6" s="223"/>
-      <c r="CB6" s="223"/>
-      <c r="CC6" s="235"/>
-      <c r="CD6" s="327"/>
-      <c r="CE6" s="223"/>
-      <c r="CF6" s="223"/>
-      <c r="CG6" s="223"/>
-      <c r="CH6" s="223"/>
-      <c r="CI6" s="223"/>
-      <c r="CJ6" s="223"/>
-      <c r="CK6" s="223"/>
-      <c r="CL6" s="223"/>
-      <c r="CM6" s="223"/>
-      <c r="CN6" s="223"/>
-      <c r="CO6" s="223"/>
-      <c r="CP6" s="223"/>
-      <c r="CQ6" s="223"/>
-      <c r="CR6" s="223"/>
-      <c r="CS6" s="223"/>
-      <c r="CT6" s="223"/>
-      <c r="CU6" s="223"/>
-      <c r="CV6" s="223"/>
-      <c r="CW6" s="223"/>
-      <c r="CX6" s="223"/>
-      <c r="CY6" s="223"/>
-      <c r="CZ6" s="223"/>
-      <c r="DA6" s="235"/>
-      <c r="DB6" s="225"/>
-      <c r="DC6" s="228"/>
-      <c r="DD6" s="228"/>
-      <c r="DE6" s="228"/>
-      <c r="DF6" s="228"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="340"/>
-      <c r="DI6" s="337"/>
-      <c r="DJ6" s="324"/>
-      <c r="DK6" s="262"/>
+      <c r="BF6" s="226"/>
+      <c r="BG6" s="229"/>
+      <c r="BH6" s="229"/>
+      <c r="BI6" s="229"/>
+      <c r="BJ6" s="229"/>
+      <c r="BK6" s="229"/>
+      <c r="BL6" s="229"/>
+      <c r="BM6" s="229"/>
+      <c r="BN6" s="229"/>
+      <c r="BO6" s="229"/>
+      <c r="BP6" s="229"/>
+      <c r="BQ6" s="229"/>
+      <c r="BR6" s="229"/>
+      <c r="BS6" s="229"/>
+      <c r="BT6" s="229"/>
+      <c r="BU6" s="229"/>
+      <c r="BV6" s="229"/>
+      <c r="BW6" s="229"/>
+      <c r="BX6" s="229"/>
+      <c r="BY6" s="229"/>
+      <c r="BZ6" s="229"/>
+      <c r="CA6" s="229"/>
+      <c r="CB6" s="229"/>
+      <c r="CC6" s="287"/>
+      <c r="CD6" s="226"/>
+      <c r="CE6" s="229"/>
+      <c r="CF6" s="229"/>
+      <c r="CG6" s="229"/>
+      <c r="CH6" s="229"/>
+      <c r="CI6" s="229"/>
+      <c r="CJ6" s="229"/>
+      <c r="CK6" s="229"/>
+      <c r="CL6" s="229"/>
+      <c r="CM6" s="229"/>
+      <c r="CN6" s="229"/>
+      <c r="CO6" s="229"/>
+      <c r="CP6" s="229"/>
+      <c r="CQ6" s="229"/>
+      <c r="CR6" s="229"/>
+      <c r="CS6" s="229"/>
+      <c r="CT6" s="229"/>
+      <c r="CU6" s="229"/>
+      <c r="CV6" s="229"/>
+      <c r="CW6" s="229"/>
+      <c r="CX6" s="229"/>
+      <c r="CY6" s="229"/>
+      <c r="CZ6" s="229"/>
+      <c r="DA6" s="287"/>
+      <c r="DB6" s="330"/>
+      <c r="DC6" s="333"/>
+      <c r="DD6" s="333"/>
+      <c r="DE6" s="333"/>
+      <c r="DF6" s="333"/>
+      <c r="DG6" s="318"/>
+      <c r="DH6" s="324"/>
+      <c r="DI6" s="327"/>
+      <c r="DJ6" s="223"/>
+      <c r="DK6" s="321"/>
       <c r="DL6" s="131"/>
       <c r="DM6" s="20"/>
       <c r="DN6" s="143"/>
       <c r="DO6" s="30"/>
       <c r="DP6" s="211"/>
-      <c r="DQ6" s="248"/>
-      <c r="DR6" s="248"/>
-      <c r="DS6" s="248"/>
-      <c r="DT6" s="248"/>
-      <c r="DU6" s="252"/>
+      <c r="DQ6" s="276"/>
+      <c r="DR6" s="276"/>
+      <c r="DS6" s="276"/>
+      <c r="DT6" s="276"/>
+      <c r="DU6" s="311"/>
       <c r="DV6" s="143"/>
       <c r="DW6" s="30"/>
       <c r="DX6" s="211"/>
@@ -9368,11 +9368,11 @@
       </c>
     </row>
     <row r="7" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="283"/>
-      <c r="B7" s="274"/>
-      <c r="C7" s="314"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="274"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="240"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
       <c r="I7" s="209" t="s">
@@ -9438,64 +9438,64 @@
       <c r="BC7" s="123"/>
       <c r="BD7" s="119"/>
       <c r="BE7" s="123"/>
-      <c r="BF7" s="328"/>
-      <c r="BG7" s="267"/>
-      <c r="BH7" s="267"/>
-      <c r="BI7" s="267"/>
-      <c r="BJ7" s="267"/>
-      <c r="BK7" s="267"/>
-      <c r="BL7" s="267"/>
-      <c r="BM7" s="267"/>
-      <c r="BN7" s="267"/>
-      <c r="BO7" s="267"/>
-      <c r="BP7" s="267"/>
-      <c r="BQ7" s="267"/>
-      <c r="BR7" s="267"/>
-      <c r="BS7" s="267"/>
-      <c r="BT7" s="267"/>
-      <c r="BU7" s="267"/>
-      <c r="BV7" s="267"/>
-      <c r="BW7" s="267"/>
-      <c r="BX7" s="267"/>
-      <c r="BY7" s="267"/>
-      <c r="BZ7" s="267"/>
-      <c r="CA7" s="267"/>
-      <c r="CB7" s="267"/>
-      <c r="CC7" s="268"/>
-      <c r="CD7" s="327"/>
-      <c r="CE7" s="223"/>
-      <c r="CF7" s="223"/>
-      <c r="CG7" s="223"/>
-      <c r="CH7" s="223"/>
-      <c r="CI7" s="223"/>
-      <c r="CJ7" s="223"/>
-      <c r="CK7" s="223"/>
-      <c r="CL7" s="223"/>
-      <c r="CM7" s="223"/>
-      <c r="CN7" s="223"/>
-      <c r="CO7" s="223"/>
-      <c r="CP7" s="223"/>
-      <c r="CQ7" s="223"/>
-      <c r="CR7" s="223"/>
-      <c r="CS7" s="223"/>
-      <c r="CT7" s="223"/>
-      <c r="CU7" s="223"/>
-      <c r="CV7" s="223"/>
-      <c r="CW7" s="223"/>
-      <c r="CX7" s="223"/>
-      <c r="CY7" s="223"/>
-      <c r="CZ7" s="223"/>
-      <c r="DA7" s="235"/>
-      <c r="DB7" s="226"/>
-      <c r="DC7" s="229"/>
-      <c r="DD7" s="229"/>
-      <c r="DE7" s="229"/>
-      <c r="DF7" s="229"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="341"/>
-      <c r="DI7" s="338"/>
-      <c r="DJ7" s="325"/>
-      <c r="DK7" s="263"/>
+      <c r="BF7" s="227"/>
+      <c r="BG7" s="230"/>
+      <c r="BH7" s="230"/>
+      <c r="BI7" s="230"/>
+      <c r="BJ7" s="230"/>
+      <c r="BK7" s="230"/>
+      <c r="BL7" s="230"/>
+      <c r="BM7" s="230"/>
+      <c r="BN7" s="230"/>
+      <c r="BO7" s="230"/>
+      <c r="BP7" s="230"/>
+      <c r="BQ7" s="230"/>
+      <c r="BR7" s="230"/>
+      <c r="BS7" s="230"/>
+      <c r="BT7" s="230"/>
+      <c r="BU7" s="230"/>
+      <c r="BV7" s="230"/>
+      <c r="BW7" s="230"/>
+      <c r="BX7" s="230"/>
+      <c r="BY7" s="230"/>
+      <c r="BZ7" s="230"/>
+      <c r="CA7" s="230"/>
+      <c r="CB7" s="230"/>
+      <c r="CC7" s="288"/>
+      <c r="CD7" s="226"/>
+      <c r="CE7" s="229"/>
+      <c r="CF7" s="229"/>
+      <c r="CG7" s="229"/>
+      <c r="CH7" s="229"/>
+      <c r="CI7" s="229"/>
+      <c r="CJ7" s="229"/>
+      <c r="CK7" s="229"/>
+      <c r="CL7" s="229"/>
+      <c r="CM7" s="229"/>
+      <c r="CN7" s="229"/>
+      <c r="CO7" s="229"/>
+      <c r="CP7" s="229"/>
+      <c r="CQ7" s="229"/>
+      <c r="CR7" s="229"/>
+      <c r="CS7" s="229"/>
+      <c r="CT7" s="229"/>
+      <c r="CU7" s="229"/>
+      <c r="CV7" s="229"/>
+      <c r="CW7" s="229"/>
+      <c r="CX7" s="229"/>
+      <c r="CY7" s="229"/>
+      <c r="CZ7" s="229"/>
+      <c r="DA7" s="287"/>
+      <c r="DB7" s="331"/>
+      <c r="DC7" s="334"/>
+      <c r="DD7" s="334"/>
+      <c r="DE7" s="334"/>
+      <c r="DF7" s="334"/>
+      <c r="DG7" s="319"/>
+      <c r="DH7" s="325"/>
+      <c r="DI7" s="328"/>
+      <c r="DJ7" s="224"/>
+      <c r="DK7" s="322"/>
       <c r="DL7" s="141"/>
       <c r="DM7" s="148"/>
       <c r="DN7" s="209" t="s">
@@ -9507,11 +9507,11 @@
       <c r="DP7" s="212" t="s">
         <v>368</v>
       </c>
-      <c r="DQ7" s="249"/>
-      <c r="DR7" s="249"/>
-      <c r="DS7" s="249"/>
-      <c r="DT7" s="249"/>
-      <c r="DU7" s="253"/>
+      <c r="DQ7" s="308"/>
+      <c r="DR7" s="308"/>
+      <c r="DS7" s="308"/>
+      <c r="DT7" s="308"/>
+      <c r="DU7" s="312"/>
       <c r="DV7" s="209" t="s">
         <v>371</v>
       </c>
@@ -9554,173 +9554,173 @@
       <c r="EQ7" s="145"/>
     </row>
     <row r="8" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="284"/>
-      <c r="B8" s="274"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="274"/>
-      <c r="BV8" s="254" t="s">
+      <c r="A8" s="236"/>
+      <c r="B8" s="240"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="240"/>
+      <c r="BV8" s="313" t="s">
         <v>226</v>
       </c>
-      <c r="BW8" s="255"/>
-      <c r="BX8" s="255"/>
-      <c r="BY8" s="255"/>
-      <c r="BZ8" s="255"/>
-      <c r="CA8" s="255"/>
-      <c r="CB8" s="255"/>
-      <c r="CC8" s="255"/>
-      <c r="CD8" s="256"/>
-      <c r="CE8" s="256"/>
-      <c r="CF8" s="256"/>
-      <c r="CG8" s="256"/>
-      <c r="CH8" s="256"/>
-      <c r="CI8" s="256"/>
-      <c r="CJ8" s="256"/>
-      <c r="CK8" s="256"/>
-      <c r="CL8" s="256"/>
-      <c r="CM8" s="256"/>
-      <c r="CN8" s="256"/>
-      <c r="CO8" s="256"/>
-      <c r="CP8" s="256"/>
-      <c r="CQ8" s="256"/>
-      <c r="CR8" s="256"/>
-      <c r="CS8" s="256"/>
-      <c r="CT8" s="256"/>
-      <c r="CU8" s="256"/>
-      <c r="CV8" s="256"/>
-      <c r="CW8" s="256"/>
-      <c r="CX8" s="256"/>
-      <c r="CY8" s="256"/>
-      <c r="CZ8" s="256"/>
-      <c r="DA8" s="257"/>
+      <c r="BW8" s="314"/>
+      <c r="BX8" s="314"/>
+      <c r="BY8" s="314"/>
+      <c r="BZ8" s="314"/>
+      <c r="CA8" s="314"/>
+      <c r="CB8" s="314"/>
+      <c r="CC8" s="314"/>
+      <c r="CD8" s="315"/>
+      <c r="CE8" s="315"/>
+      <c r="CF8" s="315"/>
+      <c r="CG8" s="315"/>
+      <c r="CH8" s="315"/>
+      <c r="CI8" s="315"/>
+      <c r="CJ8" s="315"/>
+      <c r="CK8" s="315"/>
+      <c r="CL8" s="315"/>
+      <c r="CM8" s="315"/>
+      <c r="CN8" s="315"/>
+      <c r="CO8" s="315"/>
+      <c r="CP8" s="315"/>
+      <c r="CQ8" s="315"/>
+      <c r="CR8" s="315"/>
+      <c r="CS8" s="315"/>
+      <c r="CT8" s="315"/>
+      <c r="CU8" s="315"/>
+      <c r="CV8" s="315"/>
+      <c r="CW8" s="315"/>
+      <c r="CX8" s="315"/>
+      <c r="CY8" s="315"/>
+      <c r="CZ8" s="315"/>
+      <c r="DA8" s="316"/>
     </row>
     <row r="9" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="282"/>
-      <c r="B9" s="274"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="274"/>
-      <c r="AG9" s="236" t="s">
+      <c r="A9" s="237"/>
+      <c r="B9" s="240"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="240"/>
+      <c r="AG9" s="296" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="237"/>
-      <c r="AI9" s="237"/>
-      <c r="AJ9" s="237"/>
-      <c r="AK9" s="237"/>
-      <c r="AL9" s="237"/>
-      <c r="AM9" s="237"/>
-      <c r="AN9" s="237"/>
-      <c r="AO9" s="237"/>
-      <c r="AP9" s="237"/>
-      <c r="AQ9" s="237"/>
-      <c r="AR9" s="237"/>
-      <c r="AS9" s="237"/>
-      <c r="AT9" s="237"/>
-      <c r="AU9" s="237"/>
-      <c r="AV9" s="237"/>
-      <c r="AW9" s="237"/>
-      <c r="AX9" s="237"/>
-      <c r="AY9" s="237"/>
-      <c r="AZ9" s="237"/>
-      <c r="BA9" s="237"/>
-      <c r="BB9" s="237"/>
-      <c r="BC9" s="237"/>
-      <c r="BD9" s="237"/>
-      <c r="BE9" s="237"/>
-      <c r="BF9" s="237"/>
-      <c r="BG9" s="237"/>
-      <c r="BH9" s="237"/>
-      <c r="BI9" s="237"/>
-      <c r="BJ9" s="237"/>
-      <c r="BK9" s="237"/>
-      <c r="BL9" s="237"/>
-      <c r="BM9" s="237"/>
-      <c r="BN9" s="237"/>
-      <c r="BO9" s="237"/>
-      <c r="BP9" s="237"/>
-      <c r="BQ9" s="237"/>
-      <c r="BR9" s="237"/>
-      <c r="BS9" s="237"/>
-      <c r="BT9" s="237"/>
-      <c r="BU9" s="237"/>
-      <c r="BV9" s="237"/>
-      <c r="BW9" s="237"/>
-      <c r="BX9" s="237"/>
-      <c r="BY9" s="237"/>
-      <c r="BZ9" s="237"/>
-      <c r="CA9" s="237"/>
-      <c r="CB9" s="237"/>
-      <c r="CC9" s="237"/>
-      <c r="CD9" s="237"/>
-      <c r="CE9" s="237"/>
-      <c r="CF9" s="237"/>
-      <c r="CG9" s="237"/>
-      <c r="CH9" s="237"/>
-      <c r="CI9" s="237"/>
-      <c r="CJ9" s="237"/>
-      <c r="CK9" s="237"/>
-      <c r="CL9" s="237"/>
-      <c r="CM9" s="237"/>
-      <c r="CN9" s="237"/>
-      <c r="CO9" s="237"/>
-      <c r="CP9" s="237"/>
-      <c r="CQ9" s="237"/>
-      <c r="CR9" s="237"/>
-      <c r="CS9" s="237"/>
-      <c r="CT9" s="237"/>
-      <c r="CU9" s="237"/>
-      <c r="CV9" s="237"/>
-      <c r="CW9" s="237"/>
-      <c r="CX9" s="237"/>
-      <c r="CY9" s="237"/>
-      <c r="CZ9" s="237"/>
-      <c r="DA9" s="237"/>
-      <c r="DB9" s="237"/>
-      <c r="DC9" s="237"/>
-      <c r="DD9" s="237"/>
-      <c r="DE9" s="237"/>
-      <c r="DF9" s="237"/>
-      <c r="DG9" s="237"/>
-      <c r="DH9" s="237"/>
-      <c r="DI9" s="237"/>
-      <c r="DJ9" s="237"/>
-      <c r="DK9" s="237"/>
-      <c r="DL9" s="237"/>
-      <c r="DM9" s="237"/>
-      <c r="DN9" s="237"/>
-      <c r="DO9" s="237"/>
-      <c r="DP9" s="237"/>
-      <c r="DQ9" s="237"/>
-      <c r="DR9" s="237"/>
-      <c r="DS9" s="237"/>
-      <c r="DT9" s="237"/>
-      <c r="DU9" s="237"/>
-      <c r="DV9" s="237"/>
-      <c r="DW9" s="237"/>
-      <c r="DX9" s="237"/>
-      <c r="DY9" s="237"/>
-      <c r="DZ9" s="237"/>
-      <c r="EA9" s="237"/>
-      <c r="EB9" s="237"/>
-      <c r="EC9" s="237"/>
-      <c r="ED9" s="237"/>
-      <c r="EE9" s="237"/>
-      <c r="EF9" s="237"/>
-      <c r="EG9" s="237"/>
-      <c r="EH9" s="237"/>
-      <c r="EI9" s="237"/>
-      <c r="EJ9" s="237"/>
-      <c r="EK9" s="237"/>
-      <c r="EL9" s="237"/>
-      <c r="EM9" s="237"/>
-      <c r="EN9" s="237"/>
-      <c r="EO9" s="237"/>
-      <c r="EP9" s="237"/>
-      <c r="EQ9" s="238"/>
+      <c r="AH9" s="297"/>
+      <c r="AI9" s="297"/>
+      <c r="AJ9" s="297"/>
+      <c r="AK9" s="297"/>
+      <c r="AL9" s="297"/>
+      <c r="AM9" s="297"/>
+      <c r="AN9" s="297"/>
+      <c r="AO9" s="297"/>
+      <c r="AP9" s="297"/>
+      <c r="AQ9" s="297"/>
+      <c r="AR9" s="297"/>
+      <c r="AS9" s="297"/>
+      <c r="AT9" s="297"/>
+      <c r="AU9" s="297"/>
+      <c r="AV9" s="297"/>
+      <c r="AW9" s="297"/>
+      <c r="AX9" s="297"/>
+      <c r="AY9" s="297"/>
+      <c r="AZ9" s="297"/>
+      <c r="BA9" s="297"/>
+      <c r="BB9" s="297"/>
+      <c r="BC9" s="297"/>
+      <c r="BD9" s="297"/>
+      <c r="BE9" s="297"/>
+      <c r="BF9" s="297"/>
+      <c r="BG9" s="297"/>
+      <c r="BH9" s="297"/>
+      <c r="BI9" s="297"/>
+      <c r="BJ9" s="297"/>
+      <c r="BK9" s="297"/>
+      <c r="BL9" s="297"/>
+      <c r="BM9" s="297"/>
+      <c r="BN9" s="297"/>
+      <c r="BO9" s="297"/>
+      <c r="BP9" s="297"/>
+      <c r="BQ9" s="297"/>
+      <c r="BR9" s="297"/>
+      <c r="BS9" s="297"/>
+      <c r="BT9" s="297"/>
+      <c r="BU9" s="297"/>
+      <c r="BV9" s="297"/>
+      <c r="BW9" s="297"/>
+      <c r="BX9" s="297"/>
+      <c r="BY9" s="297"/>
+      <c r="BZ9" s="297"/>
+      <c r="CA9" s="297"/>
+      <c r="CB9" s="297"/>
+      <c r="CC9" s="297"/>
+      <c r="CD9" s="297"/>
+      <c r="CE9" s="297"/>
+      <c r="CF9" s="297"/>
+      <c r="CG9" s="297"/>
+      <c r="CH9" s="297"/>
+      <c r="CI9" s="297"/>
+      <c r="CJ9" s="297"/>
+      <c r="CK9" s="297"/>
+      <c r="CL9" s="297"/>
+      <c r="CM9" s="297"/>
+      <c r="CN9" s="297"/>
+      <c r="CO9" s="297"/>
+      <c r="CP9" s="297"/>
+      <c r="CQ9" s="297"/>
+      <c r="CR9" s="297"/>
+      <c r="CS9" s="297"/>
+      <c r="CT9" s="297"/>
+      <c r="CU9" s="297"/>
+      <c r="CV9" s="297"/>
+      <c r="CW9" s="297"/>
+      <c r="CX9" s="297"/>
+      <c r="CY9" s="297"/>
+      <c r="CZ9" s="297"/>
+      <c r="DA9" s="297"/>
+      <c r="DB9" s="297"/>
+      <c r="DC9" s="297"/>
+      <c r="DD9" s="297"/>
+      <c r="DE9" s="297"/>
+      <c r="DF9" s="297"/>
+      <c r="DG9" s="297"/>
+      <c r="DH9" s="297"/>
+      <c r="DI9" s="297"/>
+      <c r="DJ9" s="297"/>
+      <c r="DK9" s="297"/>
+      <c r="DL9" s="297"/>
+      <c r="DM9" s="297"/>
+      <c r="DN9" s="297"/>
+      <c r="DO9" s="297"/>
+      <c r="DP9" s="297"/>
+      <c r="DQ9" s="297"/>
+      <c r="DR9" s="297"/>
+      <c r="DS9" s="297"/>
+      <c r="DT9" s="297"/>
+      <c r="DU9" s="297"/>
+      <c r="DV9" s="297"/>
+      <c r="DW9" s="297"/>
+      <c r="DX9" s="297"/>
+      <c r="DY9" s="297"/>
+      <c r="DZ9" s="297"/>
+      <c r="EA9" s="297"/>
+      <c r="EB9" s="297"/>
+      <c r="EC9" s="297"/>
+      <c r="ED9" s="297"/>
+      <c r="EE9" s="297"/>
+      <c r="EF9" s="297"/>
+      <c r="EG9" s="297"/>
+      <c r="EH9" s="297"/>
+      <c r="EI9" s="297"/>
+      <c r="EJ9" s="297"/>
+      <c r="EK9" s="297"/>
+      <c r="EL9" s="297"/>
+      <c r="EM9" s="297"/>
+      <c r="EN9" s="297"/>
+      <c r="EO9" s="297"/>
+      <c r="EP9" s="297"/>
+      <c r="EQ9" s="298"/>
     </row>
     <row r="10" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="282"/>
-      <c r="B10" s="274"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="274"/>
+      <c r="A10" s="237"/>
+      <c r="B10" s="240"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="240"/>
       <c r="AT10" s="33"/>
       <c r="AU10" s="33"/>
       <c r="AV10" s="33"/>
@@ -9749,143 +9749,143 @@
       <c r="BS10" s="33"/>
       <c r="BT10" s="33"/>
       <c r="BU10" s="33"/>
-      <c r="DM10" s="243" t="s">
+      <c r="DM10" s="303" t="s">
         <v>230</v>
       </c>
-      <c r="DN10" s="244"/>
-      <c r="DO10" s="244"/>
-      <c r="DP10" s="244"/>
-      <c r="DQ10" s="244"/>
-      <c r="DR10" s="244"/>
-      <c r="DS10" s="244"/>
-      <c r="DT10" s="244"/>
-      <c r="DU10" s="244"/>
-      <c r="DV10" s="244"/>
-      <c r="DW10" s="244"/>
-      <c r="DX10" s="244"/>
-      <c r="DY10" s="244"/>
-      <c r="DZ10" s="244"/>
-      <c r="EA10" s="244"/>
-      <c r="EB10" s="244"/>
-      <c r="EC10" s="244"/>
-      <c r="ED10" s="244"/>
-      <c r="EE10" s="244"/>
-      <c r="EF10" s="244"/>
-      <c r="EG10" s="244"/>
-      <c r="EH10" s="244"/>
-      <c r="EI10" s="244"/>
-      <c r="EJ10" s="245"/>
+      <c r="DN10" s="304"/>
+      <c r="DO10" s="304"/>
+      <c r="DP10" s="304"/>
+      <c r="DQ10" s="304"/>
+      <c r="DR10" s="304"/>
+      <c r="DS10" s="304"/>
+      <c r="DT10" s="304"/>
+      <c r="DU10" s="304"/>
+      <c r="DV10" s="304"/>
+      <c r="DW10" s="304"/>
+      <c r="DX10" s="304"/>
+      <c r="DY10" s="304"/>
+      <c r="DZ10" s="304"/>
+      <c r="EA10" s="304"/>
+      <c r="EB10" s="304"/>
+      <c r="EC10" s="304"/>
+      <c r="ED10" s="304"/>
+      <c r="EE10" s="304"/>
+      <c r="EF10" s="304"/>
+      <c r="EG10" s="304"/>
+      <c r="EH10" s="304"/>
+      <c r="EI10" s="304"/>
+      <c r="EJ10" s="305"/>
     </row>
     <row r="11" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="283"/>
-      <c r="B11" s="274"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="274"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="240"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="240"/>
       <c r="I11" s="114" t="s">
         <v>261</v>
       </c>
       <c r="J11" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="AS11" s="239" t="s">
+      <c r="AS11" s="299" t="s">
         <v>314</v>
       </c>
-      <c r="AT11" s="240"/>
-      <c r="AU11" s="240"/>
-      <c r="AV11" s="240"/>
-      <c r="AW11" s="240"/>
-      <c r="AX11" s="240"/>
-      <c r="AY11" s="240"/>
-      <c r="AZ11" s="240"/>
-      <c r="BA11" s="240"/>
-      <c r="BB11" s="240"/>
-      <c r="BC11" s="240"/>
-      <c r="BD11" s="240"/>
-      <c r="BE11" s="240"/>
-      <c r="BF11" s="240"/>
-      <c r="BG11" s="240"/>
-      <c r="BH11" s="240"/>
-      <c r="BI11" s="240"/>
-      <c r="BJ11" s="240"/>
-      <c r="BK11" s="240"/>
-      <c r="BL11" s="240"/>
-      <c r="BM11" s="240"/>
-      <c r="BN11" s="240"/>
-      <c r="BO11" s="240"/>
-      <c r="BP11" s="240"/>
-      <c r="BQ11" s="240"/>
-      <c r="BR11" s="240"/>
-      <c r="BS11" s="240"/>
-      <c r="BT11" s="240"/>
-      <c r="BU11" s="240"/>
-      <c r="BV11" s="240"/>
-      <c r="BW11" s="240"/>
-      <c r="BX11" s="240"/>
-      <c r="BY11" s="240"/>
-      <c r="BZ11" s="240"/>
-      <c r="CA11" s="240"/>
-      <c r="CB11" s="240"/>
-      <c r="CC11" s="240"/>
-      <c r="CD11" s="240"/>
-      <c r="CE11" s="240"/>
-      <c r="CF11" s="240"/>
-      <c r="CG11" s="240"/>
-      <c r="CH11" s="240"/>
-      <c r="CI11" s="240"/>
-      <c r="CJ11" s="240"/>
-      <c r="CK11" s="240"/>
-      <c r="CL11" s="240"/>
-      <c r="CM11" s="240"/>
-      <c r="CN11" s="240"/>
-      <c r="CO11" s="240"/>
-      <c r="CP11" s="240"/>
-      <c r="CQ11" s="240"/>
-      <c r="CR11" s="240"/>
-      <c r="CS11" s="240"/>
-      <c r="CT11" s="240"/>
-      <c r="CU11" s="240"/>
-      <c r="CV11" s="240"/>
-      <c r="CW11" s="240"/>
-      <c r="CX11" s="240"/>
-      <c r="CY11" s="240"/>
-      <c r="CZ11" s="240"/>
-      <c r="DA11" s="240"/>
-      <c r="DB11" s="240"/>
-      <c r="DC11" s="240"/>
-      <c r="DD11" s="240"/>
-      <c r="DE11" s="240"/>
-      <c r="DF11" s="240"/>
-      <c r="DG11" s="240"/>
-      <c r="DH11" s="240"/>
-      <c r="DI11" s="240"/>
-      <c r="DJ11" s="240"/>
-      <c r="DK11" s="240"/>
-      <c r="DL11" s="240"/>
-      <c r="DM11" s="241"/>
-      <c r="DN11" s="241"/>
-      <c r="DO11" s="241"/>
-      <c r="DP11" s="241"/>
-      <c r="DQ11" s="241"/>
-      <c r="DR11" s="241"/>
-      <c r="DS11" s="241"/>
-      <c r="DT11" s="241"/>
-      <c r="DU11" s="241"/>
-      <c r="DV11" s="241"/>
-      <c r="DW11" s="241"/>
-      <c r="DX11" s="241"/>
-      <c r="DY11" s="241"/>
-      <c r="DZ11" s="241"/>
-      <c r="EA11" s="242"/>
+      <c r="AT11" s="300"/>
+      <c r="AU11" s="300"/>
+      <c r="AV11" s="300"/>
+      <c r="AW11" s="300"/>
+      <c r="AX11" s="300"/>
+      <c r="AY11" s="300"/>
+      <c r="AZ11" s="300"/>
+      <c r="BA11" s="300"/>
+      <c r="BB11" s="300"/>
+      <c r="BC11" s="300"/>
+      <c r="BD11" s="300"/>
+      <c r="BE11" s="300"/>
+      <c r="BF11" s="300"/>
+      <c r="BG11" s="300"/>
+      <c r="BH11" s="300"/>
+      <c r="BI11" s="300"/>
+      <c r="BJ11" s="300"/>
+      <c r="BK11" s="300"/>
+      <c r="BL11" s="300"/>
+      <c r="BM11" s="300"/>
+      <c r="BN11" s="300"/>
+      <c r="BO11" s="300"/>
+      <c r="BP11" s="300"/>
+      <c r="BQ11" s="300"/>
+      <c r="BR11" s="300"/>
+      <c r="BS11" s="300"/>
+      <c r="BT11" s="300"/>
+      <c r="BU11" s="300"/>
+      <c r="BV11" s="300"/>
+      <c r="BW11" s="300"/>
+      <c r="BX11" s="300"/>
+      <c r="BY11" s="300"/>
+      <c r="BZ11" s="300"/>
+      <c r="CA11" s="300"/>
+      <c r="CB11" s="300"/>
+      <c r="CC11" s="300"/>
+      <c r="CD11" s="300"/>
+      <c r="CE11" s="300"/>
+      <c r="CF11" s="300"/>
+      <c r="CG11" s="300"/>
+      <c r="CH11" s="300"/>
+      <c r="CI11" s="300"/>
+      <c r="CJ11" s="300"/>
+      <c r="CK11" s="300"/>
+      <c r="CL11" s="300"/>
+      <c r="CM11" s="300"/>
+      <c r="CN11" s="300"/>
+      <c r="CO11" s="300"/>
+      <c r="CP11" s="300"/>
+      <c r="CQ11" s="300"/>
+      <c r="CR11" s="300"/>
+      <c r="CS11" s="300"/>
+      <c r="CT11" s="300"/>
+      <c r="CU11" s="300"/>
+      <c r="CV11" s="300"/>
+      <c r="CW11" s="300"/>
+      <c r="CX11" s="300"/>
+      <c r="CY11" s="300"/>
+      <c r="CZ11" s="300"/>
+      <c r="DA11" s="300"/>
+      <c r="DB11" s="300"/>
+      <c r="DC11" s="300"/>
+      <c r="DD11" s="300"/>
+      <c r="DE11" s="300"/>
+      <c r="DF11" s="300"/>
+      <c r="DG11" s="300"/>
+      <c r="DH11" s="300"/>
+      <c r="DI11" s="300"/>
+      <c r="DJ11" s="300"/>
+      <c r="DK11" s="300"/>
+      <c r="DL11" s="300"/>
+      <c r="DM11" s="301"/>
+      <c r="DN11" s="301"/>
+      <c r="DO11" s="301"/>
+      <c r="DP11" s="301"/>
+      <c r="DQ11" s="301"/>
+      <c r="DR11" s="301"/>
+      <c r="DS11" s="301"/>
+      <c r="DT11" s="301"/>
+      <c r="DU11" s="301"/>
+      <c r="DV11" s="301"/>
+      <c r="DW11" s="301"/>
+      <c r="DX11" s="301"/>
+      <c r="DY11" s="301"/>
+      <c r="DZ11" s="301"/>
+      <c r="EA11" s="302"/>
     </row>
     <row r="12" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="274"/>
+      <c r="B12" s="240"/>
       <c r="D12" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="274"/>
+      <c r="E12" s="240"/>
       <c r="I12" s="154" t="s">
         <v>260</v>
       </c>
@@ -9897,11 +9897,11 @@
       <c r="A13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="274"/>
+      <c r="B13" s="240"/>
       <c r="D13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="274"/>
+      <c r="E13" s="240"/>
       <c r="I13" s="208" t="s">
         <v>370</v>
       </c>
@@ -9913,11 +9913,11 @@
       <c r="A14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="274"/>
+      <c r="B14" s="240"/>
       <c r="D14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="274"/>
+      <c r="E14" s="240"/>
       <c r="I14" s="112" t="s">
         <v>183</v>
       </c>
@@ -9927,41 +9927,41 @@
     </row>
     <row r="15" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="274"/>
+      <c r="B15" s="240"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="274"/>
+      <c r="E15" s="240"/>
       <c r="I15" s="113" t="s">
         <v>184</v>
       </c>
       <c r="J15" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="DM15" s="233" t="s">
+      <c r="DM15" s="295" t="s">
         <v>327</v>
       </c>
-      <c r="DN15" s="233"/>
+      <c r="DN15" s="295"/>
     </row>
     <row r="16" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="284"/>
-      <c r="B16" s="274"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="274"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="240"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="240"/>
       <c r="I16" s="115" t="s">
         <v>259</v>
       </c>
       <c r="J16" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="DM16" s="233" t="s">
+      <c r="DM16" s="295" t="s">
         <v>326</v>
       </c>
-      <c r="DN16" s="233"/>
+      <c r="DN16" s="295"/>
     </row>
     <row r="17" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="282"/>
-      <c r="B17" s="274"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="274"/>
+      <c r="A17" s="237"/>
+      <c r="B17" s="240"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="240"/>
       <c r="I17" s="110" t="s">
         <v>421</v>
       </c>
@@ -9970,10 +9970,10 @@
       </c>
     </row>
     <row r="18" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="282"/>
-      <c r="B18" s="274"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="274"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="240"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="240"/>
       <c r="I18" s="221" t="s">
         <v>436</v>
       </c>
@@ -9982,10 +9982,10 @@
       </c>
     </row>
     <row r="19" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="283"/>
-      <c r="B19" s="274"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="274"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="240"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="240"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -9994,10 +9994,10 @@
       </c>
     </row>
     <row r="20" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="282"/>
-      <c r="B20" s="274"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="274"/>
+      <c r="A20" s="237"/>
+      <c r="B20" s="240"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="240"/>
       <c r="I20" s="204" t="s">
         <v>114</v>
       </c>
@@ -10006,10 +10006,10 @@
       </c>
     </row>
     <row r="21" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="282"/>
-      <c r="B21" s="274"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="274"/>
+      <c r="A21" s="237"/>
+      <c r="B21" s="240"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="240"/>
       <c r="I21" s="201" t="s">
         <v>116</v>
       </c>
@@ -10018,25 +10018,25 @@
       </c>
     </row>
     <row r="22" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="282"/>
-      <c r="B22" s="274"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="274"/>
+      <c r="A22" s="237"/>
+      <c r="B22" s="240"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="240"/>
     </row>
     <row r="23" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="283"/>
-      <c r="B23" s="274"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="274"/>
+      <c r="A23" s="251"/>
+      <c r="B23" s="240"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="240"/>
     </row>
     <row r="24" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="284" t="s">
+      <c r="A24" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="274"/>
-      <c r="C24" s="314"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="274"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="240"/>
       <c r="G24" s="156"/>
       <c r="H24" s="157"/>
       <c r="I24" s="157"/>
@@ -10098,7 +10098,7 @@
       <c r="BM24" s="157"/>
       <c r="BN24" s="157"/>
       <c r="BO24" s="157"/>
-      <c r="BP24" s="269" t="s">
+      <c r="BP24" s="289" t="s">
         <v>313</v>
       </c>
       <c r="BQ24" s="157"/>
@@ -10182,11 +10182,11 @@
       <c r="EQ24" s="16"/>
     </row>
     <row r="25" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="282"/>
-      <c r="B25" s="274"/>
-      <c r="C25" s="314"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="274"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="240"/>
+      <c r="C25" s="235"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="240"/>
       <c r="G25" s="158"/>
       <c r="H25" s="159"/>
       <c r="I25" s="159"/>
@@ -10248,7 +10248,7 @@
       <c r="BM25" s="159"/>
       <c r="BN25" s="159"/>
       <c r="BO25" s="159"/>
-      <c r="BP25" s="270"/>
+      <c r="BP25" s="290"/>
       <c r="BQ25" s="159"/>
       <c r="BR25" s="159"/>
       <c r="BS25" s="159"/>
@@ -10330,11 +10330,11 @@
       <c r="EQ25" s="160"/>
     </row>
     <row r="26" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="282"/>
-      <c r="B26" s="274"/>
-      <c r="C26" s="314"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="274"/>
+      <c r="A26" s="237"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="240"/>
       <c r="G26" s="158"/>
       <c r="H26" s="159"/>
       <c r="I26" s="159"/>
@@ -10396,7 +10396,7 @@
       <c r="BM26" s="159"/>
       <c r="BN26" s="159"/>
       <c r="BO26" s="159"/>
-      <c r="BP26" s="270"/>
+      <c r="BP26" s="290"/>
       <c r="BQ26" s="159"/>
       <c r="BR26" s="159"/>
       <c r="BS26" s="159"/>
@@ -10478,11 +10478,11 @@
       <c r="EQ26" s="160"/>
     </row>
     <row r="27" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="291"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="314"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="274"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="240"/>
       <c r="G27" s="13"/>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -10544,7 +10544,7 @@
       <c r="BM27" s="123"/>
       <c r="BN27" s="123"/>
       <c r="BO27" s="123"/>
-      <c r="BP27" s="271"/>
+      <c r="BP27" s="291"/>
       <c r="BQ27" s="123"/>
       <c r="BR27" s="123"/>
       <c r="BS27" s="123"/>
@@ -10626,15 +10626,15 @@
       <c r="EQ27" s="124"/>
     </row>
     <row r="28" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="276" t="s">
+      <c r="A28" s="253" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="307" t="s">
+      <c r="B28" s="245" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="284"/>
-      <c r="E28" s="274"/>
-      <c r="G28" s="272" t="s">
+      <c r="D28" s="236"/>
+      <c r="E28" s="240"/>
+      <c r="G28" s="275" t="s">
         <v>332</v>
       </c>
       <c r="H28" s="156"/>
@@ -10779,11 +10779,11 @@
       <c r="EQ28" s="16"/>
     </row>
     <row r="29" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="277"/>
-      <c r="B29" s="308"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="274"/>
-      <c r="G29" s="272"/>
+      <c r="A29" s="243"/>
+      <c r="B29" s="246"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="240"/>
+      <c r="G29" s="275"/>
       <c r="H29" s="158"/>
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
@@ -10926,11 +10926,11 @@
       <c r="EQ29" s="160"/>
     </row>
     <row r="30" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="277"/>
-      <c r="B30" s="308"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="274"/>
-      <c r="G30" s="272"/>
+      <c r="A30" s="243"/>
+      <c r="B30" s="246"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="240"/>
+      <c r="G30" s="275"/>
       <c r="H30" s="158"/>
       <c r="I30" s="159"/>
       <c r="J30" s="159"/>
@@ -11073,11 +11073,11 @@
       <c r="EQ30" s="160"/>
     </row>
     <row r="31" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="280"/>
-      <c r="B31" s="308"/>
-      <c r="D31" s="283"/>
-      <c r="E31" s="274"/>
-      <c r="G31" s="272"/>
+      <c r="A31" s="254"/>
+      <c r="B31" s="246"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="240"/>
+      <c r="G31" s="275"/>
       <c r="H31" s="13"/>
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
@@ -11223,11 +11223,11 @@
       <c r="A32" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="308"/>
+      <c r="B32" s="246"/>
       <c r="D32" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="274"/>
+      <c r="E32" s="240"/>
       <c r="G32" s="193" t="s">
         <v>268</v>
       </c>
@@ -11376,11 +11376,11 @@
       <c r="A33" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="308"/>
+      <c r="B33" s="246"/>
       <c r="D33" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="274"/>
+      <c r="E33" s="240"/>
       <c r="G33" s="192" t="s">
         <v>268</v>
       </c>
@@ -11529,11 +11529,11 @@
       <c r="A34" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="308"/>
+      <c r="B34" s="246"/>
       <c r="D34" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="274"/>
+      <c r="E34" s="240"/>
       <c r="G34" s="192" t="s">
         <v>268</v>
       </c>
@@ -11680,9 +11680,9 @@
     </row>
     <row r="35" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="308"/>
+      <c r="B35" s="246"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="274"/>
+      <c r="E35" s="240"/>
       <c r="G35" s="192"/>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
@@ -11826,10 +11826,10 @@
       <c r="EQ35" s="124"/>
     </row>
     <row r="36" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="279"/>
-      <c r="B36" s="308"/>
+      <c r="A36" s="242"/>
+      <c r="B36" s="246"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="274"/>
+      <c r="E36" s="240"/>
       <c r="G36" s="87"/>
       <c r="H36" s="157"/>
       <c r="I36" s="157"/>
@@ -11973,10 +11973,10 @@
       <c r="EQ36" s="16"/>
     </row>
     <row r="37" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="277"/>
-      <c r="B37" s="308"/>
+      <c r="A37" s="243"/>
+      <c r="B37" s="246"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="274"/>
+      <c r="E37" s="240"/>
       <c r="G37" s="191"/>
       <c r="H37" s="159"/>
       <c r="I37" s="159"/>
@@ -12120,10 +12120,10 @@
       <c r="EQ37" s="160"/>
     </row>
     <row r="38" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="277"/>
-      <c r="B38" s="308"/>
+      <c r="A38" s="243"/>
+      <c r="B38" s="246"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="274"/>
+      <c r="E38" s="240"/>
       <c r="G38" s="191"/>
       <c r="H38" s="159"/>
       <c r="I38" s="159"/>
@@ -12267,10 +12267,10 @@
       <c r="EQ38" s="160"/>
     </row>
     <row r="39" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="287"/>
-      <c r="B39" s="309"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="247"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="274"/>
+      <c r="E39" s="240"/>
       <c r="G39" s="191"/>
       <c r="H39" s="123"/>
       <c r="I39" s="123"/>
@@ -12414,36 +12414,36 @@
       <c r="EQ39" s="124"/>
     </row>
     <row r="40" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="315"/>
-      <c r="B40" s="304" t="s">
+      <c r="A40" s="248"/>
+      <c r="B40" s="232" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="288"/>
-      <c r="E40" s="274"/>
+      <c r="D40" s="255"/>
+      <c r="E40" s="240"/>
       <c r="G40" s="87"/>
       <c r="EQ40" s="16"/>
     </row>
     <row r="41" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="302"/>
-      <c r="B41" s="305"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="274"/>
+      <c r="A41" s="249"/>
+      <c r="B41" s="233"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="240"/>
       <c r="G41" s="191"/>
       <c r="EQ41" s="160"/>
     </row>
     <row r="42" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="302"/>
-      <c r="B42" s="305"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="274"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="233"/>
+      <c r="D42" s="256"/>
+      <c r="E42" s="240"/>
       <c r="G42" s="191"/>
       <c r="EQ42" s="160"/>
     </row>
     <row r="43" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="316"/>
-      <c r="B43" s="305"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="274"/>
+      <c r="A43" s="250"/>
+      <c r="B43" s="233"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="240"/>
       <c r="G43" s="191"/>
       <c r="EQ43" s="160"/>
     </row>
@@ -12451,11 +12451,11 @@
       <c r="A44" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="305"/>
+      <c r="B44" s="233"/>
       <c r="D44" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="274"/>
+      <c r="E44" s="240"/>
       <c r="G44" s="193" t="s">
         <v>268</v>
       </c>
@@ -12604,11 +12604,11 @@
       <c r="A45" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="305"/>
+      <c r="B45" s="233"/>
       <c r="D45" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="274"/>
+      <c r="E45" s="240"/>
       <c r="G45" s="192" t="s">
         <v>268</v>
       </c>
@@ -12757,11 +12757,11 @@
       <c r="A46" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="305"/>
+      <c r="B46" s="233"/>
       <c r="D46" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="274"/>
+      <c r="E46" s="240"/>
       <c r="G46" s="192" t="s">
         <v>268</v>
       </c>
@@ -12908,9 +12908,9 @@
     </row>
     <row r="47" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="305"/>
+      <c r="B47" s="233"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="274"/>
+      <c r="E47" s="240"/>
       <c r="G47" s="192"/>
       <c r="H47" s="123"/>
       <c r="I47" s="123"/>
@@ -13054,52 +13054,52 @@
       <c r="EQ47" s="124"/>
     </row>
     <row r="48" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="294" t="s">
+      <c r="A48" s="260" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="305"/>
-      <c r="D48" s="284" t="s">
+      <c r="B48" s="233"/>
+      <c r="D48" s="236" t="s">
         <v>334</v>
       </c>
-      <c r="E48" s="274"/>
+      <c r="E48" s="240"/>
       <c r="G48" s="87"/>
       <c r="EQ48" s="160"/>
     </row>
     <row r="49" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="294"/>
-      <c r="B49" s="305"/>
-      <c r="D49" s="282"/>
-      <c r="E49" s="274"/>
+      <c r="A49" s="260"/>
+      <c r="B49" s="233"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="240"/>
       <c r="G49" s="158"/>
       <c r="EQ49" s="160"/>
     </row>
     <row r="50" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="294"/>
-      <c r="B50" s="305"/>
-      <c r="D50" s="282"/>
-      <c r="E50" s="274"/>
+      <c r="A50" s="260"/>
+      <c r="B50" s="233"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="240"/>
       <c r="G50" s="158"/>
       <c r="EQ50" s="160"/>
     </row>
     <row r="51" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
-      <c r="B51" s="306"/>
-      <c r="D51" s="283"/>
-      <c r="E51" s="275"/>
+      <c r="A51" s="261"/>
+      <c r="B51" s="234"/>
+      <c r="D51" s="251"/>
+      <c r="E51" s="241"/>
       <c r="G51" s="13"/>
       <c r="EQ51" s="160"/>
     </row>
     <row r="52" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="317" t="s">
+      <c r="A52" s="269" t="s">
         <v>328</v>
       </c>
-      <c r="B52" s="297" t="s">
+      <c r="B52" s="263" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="282" t="s">
+      <c r="D52" s="237" t="s">
         <v>328</v>
       </c>
-      <c r="E52" s="310" t="s">
+      <c r="E52" s="283" t="s">
         <v>269</v>
       </c>
       <c r="G52" s="156"/>
@@ -13169,7 +13169,7 @@
       <c r="BS52" s="157"/>
       <c r="BT52" s="157"/>
       <c r="BU52" s="157"/>
-      <c r="BV52" s="264"/>
+      <c r="BV52" s="280"/>
       <c r="BW52" s="164"/>
       <c r="BX52" s="164"/>
       <c r="BY52" s="164"/>
@@ -13245,10 +13245,10 @@
       <c r="EQ52" s="165"/>
     </row>
     <row r="53" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="318"/>
-      <c r="B53" s="298"/>
-      <c r="D53" s="282"/>
-      <c r="E53" s="311"/>
+      <c r="A53" s="270"/>
+      <c r="B53" s="264"/>
+      <c r="D53" s="237"/>
+      <c r="E53" s="284"/>
       <c r="G53" s="158"/>
       <c r="H53" s="159"/>
       <c r="I53" s="159"/>
@@ -13316,7 +13316,7 @@
       <c r="BS53" s="159"/>
       <c r="BT53" s="159"/>
       <c r="BU53" s="159"/>
-      <c r="BV53" s="265"/>
+      <c r="BV53" s="281"/>
       <c r="BW53" s="166"/>
       <c r="BX53" s="166"/>
       <c r="BY53" s="166"/>
@@ -13392,10 +13392,10 @@
       <c r="EQ53" s="167"/>
     </row>
     <row r="54" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="318"/>
-      <c r="B54" s="298"/>
-      <c r="D54" s="282"/>
-      <c r="E54" s="311"/>
+      <c r="A54" s="270"/>
+      <c r="B54" s="264"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="284"/>
       <c r="G54" s="158"/>
       <c r="H54" s="159"/>
       <c r="I54" s="159"/>
@@ -13463,7 +13463,7 @@
       <c r="BS54" s="159"/>
       <c r="BT54" s="159"/>
       <c r="BU54" s="159"/>
-      <c r="BV54" s="265"/>
+      <c r="BV54" s="281"/>
       <c r="BW54" s="166"/>
       <c r="BX54" s="166"/>
       <c r="BY54" s="166"/>
@@ -13539,10 +13539,10 @@
       <c r="EQ54" s="167"/>
     </row>
     <row r="55" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="318"/>
-      <c r="B55" s="298"/>
-      <c r="D55" s="283"/>
-      <c r="E55" s="311"/>
+      <c r="A55" s="270"/>
+      <c r="B55" s="264"/>
+      <c r="D55" s="251"/>
+      <c r="E55" s="284"/>
       <c r="G55" s="13"/>
       <c r="H55" s="123"/>
       <c r="I55" s="123"/>
@@ -13610,7 +13610,7 @@
       <c r="BS55" s="123"/>
       <c r="BT55" s="123"/>
       <c r="BU55" s="123"/>
-      <c r="BV55" s="266"/>
+      <c r="BV55" s="282"/>
       <c r="BW55" s="168"/>
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
@@ -13686,14 +13686,14 @@
       <c r="EQ55" s="169"/>
     </row>
     <row r="56" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="319" t="s">
+      <c r="A56" s="271" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="298"/>
-      <c r="D56" s="284" t="s">
+      <c r="B56" s="264"/>
+      <c r="D56" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="311"/>
+      <c r="E56" s="284"/>
       <c r="G56" s="170"/>
       <c r="H56" s="164"/>
       <c r="I56" s="164"/>
@@ -13837,10 +13837,10 @@
       <c r="EQ56" s="165"/>
     </row>
     <row r="57" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="320"/>
-      <c r="B57" s="298"/>
-      <c r="D57" s="282"/>
-      <c r="E57" s="311"/>
+      <c r="A57" s="272"/>
+      <c r="B57" s="264"/>
+      <c r="D57" s="237"/>
+      <c r="E57" s="284"/>
       <c r="G57" s="171"/>
       <c r="H57" s="166"/>
       <c r="I57" s="166"/>
@@ -13984,10 +13984,10 @@
       <c r="EQ57" s="167"/>
     </row>
     <row r="58" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="320"/>
-      <c r="B58" s="298"/>
-      <c r="D58" s="282"/>
-      <c r="E58" s="311"/>
+      <c r="A58" s="272"/>
+      <c r="B58" s="264"/>
+      <c r="D58" s="237"/>
+      <c r="E58" s="284"/>
       <c r="G58" s="171"/>
       <c r="H58" s="166"/>
       <c r="I58" s="166"/>
@@ -14131,10 +14131,10 @@
       <c r="EQ58" s="167"/>
     </row>
     <row r="59" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="322"/>
-      <c r="B59" s="298"/>
-      <c r="D59" s="283"/>
-      <c r="E59" s="311"/>
+      <c r="A59" s="274"/>
+      <c r="B59" s="264"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="284"/>
       <c r="G59" s="172"/>
       <c r="H59" s="168"/>
       <c r="I59" s="168"/>
@@ -14278,14 +14278,14 @@
       <c r="EQ59" s="169"/>
     </row>
     <row r="60" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="319" t="s">
+      <c r="A60" s="271" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="298"/>
-      <c r="D60" s="284" t="s">
+      <c r="B60" s="264"/>
+      <c r="D60" s="236" t="s">
         <v>310</v>
       </c>
-      <c r="E60" s="311"/>
+      <c r="E60" s="284"/>
       <c r="G60" s="170"/>
       <c r="H60" s="164"/>
       <c r="I60" s="164"/>
@@ -14352,7 +14352,7 @@
       <c r="BR60" s="164"/>
       <c r="BS60" s="164"/>
       <c r="BT60" s="164"/>
-      <c r="BU60" s="264"/>
+      <c r="BU60" s="280"/>
       <c r="BV60" s="157"/>
       <c r="BW60" s="157"/>
       <c r="BX60" s="157"/>
@@ -14429,10 +14429,10 @@
       <c r="EQ60" s="16"/>
     </row>
     <row r="61" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="320"/>
-      <c r="B61" s="298"/>
-      <c r="D61" s="282"/>
-      <c r="E61" s="311"/>
+      <c r="A61" s="272"/>
+      <c r="B61" s="264"/>
+      <c r="D61" s="237"/>
+      <c r="E61" s="284"/>
       <c r="G61" s="171"/>
       <c r="H61" s="166"/>
       <c r="I61" s="166"/>
@@ -14499,7 +14499,7 @@
       <c r="BR61" s="166"/>
       <c r="BS61" s="166"/>
       <c r="BT61" s="166"/>
-      <c r="BU61" s="265"/>
+      <c r="BU61" s="281"/>
       <c r="BV61" s="159"/>
       <c r="BW61" s="159"/>
       <c r="BX61" s="159"/>
@@ -14576,10 +14576,10 @@
       <c r="EQ61" s="160"/>
     </row>
     <row r="62" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="320"/>
-      <c r="B62" s="298"/>
-      <c r="D62" s="282"/>
-      <c r="E62" s="311"/>
+      <c r="A62" s="272"/>
+      <c r="B62" s="264"/>
+      <c r="D62" s="237"/>
+      <c r="E62" s="284"/>
       <c r="G62" s="171"/>
       <c r="H62" s="166"/>
       <c r="I62" s="166"/>
@@ -14646,7 +14646,7 @@
       <c r="BR62" s="166"/>
       <c r="BS62" s="166"/>
       <c r="BT62" s="166"/>
-      <c r="BU62" s="265"/>
+      <c r="BU62" s="281"/>
       <c r="BV62" s="159"/>
       <c r="BW62" s="159"/>
       <c r="BX62" s="159"/>
@@ -14723,10 +14723,10 @@
       <c r="EQ62" s="160"/>
     </row>
     <row r="63" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="321"/>
-      <c r="B63" s="299"/>
-      <c r="D63" s="291"/>
-      <c r="E63" s="312"/>
+      <c r="A63" s="273"/>
+      <c r="B63" s="265"/>
+      <c r="D63" s="238"/>
+      <c r="E63" s="285"/>
       <c r="G63" s="172"/>
       <c r="H63" s="168"/>
       <c r="I63" s="168"/>
@@ -14793,7 +14793,7 @@
       <c r="BR63" s="168"/>
       <c r="BS63" s="168"/>
       <c r="BT63" s="168"/>
-      <c r="BU63" s="266"/>
+      <c r="BU63" s="282"/>
       <c r="BV63" s="123"/>
       <c r="BW63" s="123"/>
       <c r="BX63" s="123"/>
@@ -14870,17 +14870,17 @@
       <c r="EQ63" s="124"/>
     </row>
     <row r="64" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="300" t="s">
+      <c r="A64" s="266" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="304" t="s">
+      <c r="B64" s="232" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="292" t="s">
+      <c r="D64" s="258" t="s">
         <v>309</v>
       </c>
       <c r="E64" s="187"/>
-      <c r="G64" s="272" t="s">
+      <c r="G64" s="275" t="s">
         <v>333</v>
       </c>
       <c r="H64" s="156"/>
@@ -15025,11 +15025,11 @@
       <c r="EQ64" s="16"/>
     </row>
     <row r="65" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="294"/>
-      <c r="B65" s="305"/>
-      <c r="D65" s="293"/>
+      <c r="A65" s="260"/>
+      <c r="B65" s="233"/>
+      <c r="D65" s="259"/>
       <c r="E65" s="188"/>
-      <c r="G65" s="272"/>
+      <c r="G65" s="275"/>
       <c r="H65" s="158"/>
       <c r="I65" s="159"/>
       <c r="J65" s="159"/>
@@ -15172,11 +15172,11 @@
       <c r="EQ65" s="160"/>
     </row>
     <row r="66" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="294"/>
-      <c r="B66" s="305"/>
-      <c r="D66" s="293"/>
+      <c r="A66" s="260"/>
+      <c r="B66" s="233"/>
+      <c r="D66" s="259"/>
       <c r="E66" s="188"/>
-      <c r="G66" s="272"/>
+      <c r="G66" s="275"/>
       <c r="H66" s="158"/>
       <c r="I66" s="159"/>
       <c r="J66" s="159"/>
@@ -15319,11 +15319,11 @@
       <c r="EQ66" s="160"/>
     </row>
     <row r="67" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="294"/>
-      <c r="B67" s="305"/>
-      <c r="D67" s="293"/>
+      <c r="A67" s="260"/>
+      <c r="B67" s="233"/>
+      <c r="D67" s="259"/>
       <c r="E67" s="188"/>
-      <c r="G67" s="272"/>
+      <c r="G67" s="275"/>
       <c r="H67" s="13"/>
       <c r="I67" s="123"/>
       <c r="J67" s="123"/>
@@ -15469,7 +15469,7 @@
       <c r="A68" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="305"/>
+      <c r="B68" s="233"/>
       <c r="D68" s="184" t="s">
         <v>268</v>
       </c>
@@ -15483,7 +15483,7 @@
       <c r="A69" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="305"/>
+      <c r="B69" s="233"/>
       <c r="D69" s="185" t="s">
         <v>268</v>
       </c>
@@ -15497,7 +15497,7 @@
       <c r="A70" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="305"/>
+      <c r="B70" s="233"/>
       <c r="D70" s="185" t="s">
         <v>268</v>
       </c>
@@ -15509,16 +15509,16 @@
     </row>
     <row r="71" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="305"/>
+      <c r="B71" s="233"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
       <c r="G71" s="192"/>
       <c r="EQ71" s="124"/>
     </row>
     <row r="72" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="301"/>
-      <c r="B72" s="305"/>
-      <c r="D72" s="293" t="s">
+      <c r="A72" s="267"/>
+      <c r="B72" s="233"/>
+      <c r="D72" s="259" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="188"/>
@@ -15665,9 +15665,9 @@
       <c r="EQ72" s="16"/>
     </row>
     <row r="73" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="302"/>
-      <c r="B73" s="305"/>
-      <c r="D73" s="293"/>
+      <c r="A73" s="249"/>
+      <c r="B73" s="233"/>
+      <c r="D73" s="259"/>
       <c r="E73" s="188"/>
       <c r="G73" s="191"/>
       <c r="H73" s="159"/>
@@ -15812,9 +15812,9 @@
       <c r="EQ73" s="160"/>
     </row>
     <row r="74" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="302"/>
-      <c r="B74" s="305"/>
-      <c r="D74" s="293"/>
+      <c r="A74" s="249"/>
+      <c r="B74" s="233"/>
+      <c r="D74" s="259"/>
       <c r="E74" s="188"/>
       <c r="G74" s="191"/>
       <c r="H74" s="159"/>
@@ -15959,9 +15959,9 @@
       <c r="EQ74" s="160"/>
     </row>
     <row r="75" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="303"/>
-      <c r="B75" s="306"/>
-      <c r="D75" s="296"/>
+      <c r="A75" s="268"/>
+      <c r="B75" s="234"/>
+      <c r="D75" s="262"/>
       <c r="E75" s="189"/>
       <c r="G75" s="191"/>
       <c r="H75" s="123"/>
@@ -16106,11 +16106,11 @@
       <c r="EQ75" s="124"/>
     </row>
     <row r="76" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="276"/>
-      <c r="B76" s="307" t="s">
+      <c r="A76" s="253"/>
+      <c r="B76" s="245" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="285" t="s">
+      <c r="D76" s="278" t="s">
         <v>331</v>
       </c>
       <c r="E76" s="187"/>
@@ -16257,9 +16257,9 @@
       <c r="EQ76" s="16"/>
     </row>
     <row r="77" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="277"/>
-      <c r="B77" s="308"/>
-      <c r="D77" s="286"/>
+      <c r="A77" s="243"/>
+      <c r="B77" s="246"/>
+      <c r="D77" s="279"/>
       <c r="E77" s="188"/>
       <c r="G77" s="191"/>
       <c r="H77" s="159"/>
@@ -16404,9 +16404,9 @@
       <c r="EQ77" s="160"/>
     </row>
     <row r="78" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="277"/>
-      <c r="B78" s="308"/>
-      <c r="D78" s="286"/>
+      <c r="A78" s="243"/>
+      <c r="B78" s="246"/>
+      <c r="D78" s="279"/>
       <c r="E78" s="188"/>
       <c r="G78" s="191"/>
       <c r="H78" s="159"/>
@@ -16551,9 +16551,9 @@
       <c r="EQ78" s="160"/>
     </row>
     <row r="79" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="277"/>
-      <c r="B79" s="308"/>
-      <c r="D79" s="286"/>
+      <c r="A79" s="243"/>
+      <c r="B79" s="246"/>
+      <c r="D79" s="279"/>
       <c r="E79" s="188"/>
       <c r="G79" s="191"/>
       <c r="H79" s="123"/>
@@ -16701,7 +16701,7 @@
       <c r="A80" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="308"/>
+      <c r="B80" s="246"/>
       <c r="C80" s="126"/>
       <c r="D80" s="178" t="s">
         <v>268</v>
@@ -16855,7 +16855,7 @@
       <c r="A81" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="308"/>
+      <c r="B81" s="246"/>
       <c r="C81" s="126"/>
       <c r="D81" s="179" t="s">
         <v>268</v>
@@ -17009,7 +17009,7 @@
       <c r="A82" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="308"/>
+      <c r="B82" s="246"/>
       <c r="C82" s="126"/>
       <c r="D82" s="179" t="s">
         <v>268</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="83" spans="1:147" s="152" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="308"/>
+      <c r="B83" s="246"/>
       <c r="C83" s="126"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
@@ -17308,9 +17308,9 @@
       <c r="EQ83" s="124"/>
     </row>
     <row r="84" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="279"/>
-      <c r="B84" s="308"/>
-      <c r="D84" s="279"/>
+      <c r="A84" s="242"/>
+      <c r="B84" s="246"/>
+      <c r="D84" s="242"/>
       <c r="E84" s="188"/>
       <c r="G84" s="156"/>
       <c r="H84" s="157"/>
@@ -17373,7 +17373,7 @@
       <c r="BM84" s="157"/>
       <c r="BN84" s="157"/>
       <c r="BO84" s="157"/>
-      <c r="BP84" s="248" t="s">
+      <c r="BP84" s="276" t="s">
         <v>307</v>
       </c>
       <c r="BQ84" s="157"/>
@@ -17457,9 +17457,9 @@
       <c r="EQ84" s="16"/>
     </row>
     <row r="85" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="277"/>
-      <c r="B85" s="308"/>
-      <c r="D85" s="277"/>
+      <c r="A85" s="243"/>
+      <c r="B85" s="246"/>
+      <c r="D85" s="243"/>
       <c r="E85" s="188"/>
       <c r="G85" s="158"/>
       <c r="H85" s="159"/>
@@ -17522,7 +17522,7 @@
       <c r="BM85" s="159"/>
       <c r="BN85" s="159"/>
       <c r="BO85" s="159"/>
-      <c r="BP85" s="278"/>
+      <c r="BP85" s="277"/>
       <c r="BQ85" s="159"/>
       <c r="BR85" s="159"/>
       <c r="BS85" s="159"/>
@@ -17604,9 +17604,9 @@
       <c r="EQ85" s="160"/>
     </row>
     <row r="86" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="277"/>
-      <c r="B86" s="308"/>
-      <c r="D86" s="277"/>
+      <c r="A86" s="243"/>
+      <c r="B86" s="246"/>
+      <c r="D86" s="243"/>
       <c r="E86" s="188"/>
       <c r="G86" s="158"/>
       <c r="H86" s="159"/>
@@ -17669,7 +17669,7 @@
       <c r="BM86" s="159"/>
       <c r="BN86" s="159"/>
       <c r="BO86" s="159"/>
-      <c r="BP86" s="278"/>
+      <c r="BP86" s="277"/>
       <c r="BQ86" s="159"/>
       <c r="BR86" s="159"/>
       <c r="BS86" s="159"/>
@@ -17751,9 +17751,9 @@
       <c r="EQ86" s="160"/>
     </row>
     <row r="87" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="280"/>
-      <c r="B87" s="308"/>
-      <c r="D87" s="280"/>
+      <c r="A87" s="254"/>
+      <c r="B87" s="246"/>
+      <c r="D87" s="254"/>
       <c r="E87" s="188"/>
       <c r="G87" s="13"/>
       <c r="H87" s="123"/>
@@ -17816,7 +17816,7 @@
       <c r="BM87" s="123"/>
       <c r="BN87" s="123"/>
       <c r="BO87" s="123"/>
-      <c r="BP87" s="278"/>
+      <c r="BP87" s="277"/>
       <c r="BQ87" s="123"/>
       <c r="BR87" s="123"/>
       <c r="BS87" s="123"/>
@@ -17898,11 +17898,11 @@
       <c r="EQ87" s="124"/>
     </row>
     <row r="88" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="279" t="s">
+      <c r="A88" s="242" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="308"/>
-      <c r="D88" s="279" t="s">
+      <c r="B88" s="246"/>
+      <c r="D88" s="242" t="s">
         <v>308</v>
       </c>
       <c r="E88" s="188"/>
@@ -17994,7 +17994,7 @@
       <c r="CN88" s="157"/>
       <c r="CO88" s="157"/>
       <c r="CP88" s="157"/>
-      <c r="CQ88" s="230" t="s">
+      <c r="CQ88" s="292" t="s">
         <v>306</v>
       </c>
       <c r="CR88" s="157"/>
@@ -18051,9 +18051,9 @@
       <c r="EQ88" s="16"/>
     </row>
     <row r="89" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="277"/>
-      <c r="B89" s="308"/>
-      <c r="D89" s="277"/>
+      <c r="A89" s="243"/>
+      <c r="B89" s="246"/>
+      <c r="D89" s="243"/>
       <c r="E89" s="188"/>
       <c r="G89" s="158"/>
       <c r="H89" s="159"/>
@@ -18122,13 +18122,13 @@
       <c r="BT89" s="159"/>
       <c r="BU89" s="159"/>
       <c r="BV89" s="159"/>
-      <c r="CQ89" s="231"/>
+      <c r="CQ89" s="293"/>
       <c r="EQ89" s="160"/>
     </row>
     <row r="90" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="277"/>
-      <c r="B90" s="308"/>
-      <c r="D90" s="277"/>
+      <c r="A90" s="243"/>
+      <c r="B90" s="246"/>
+      <c r="D90" s="243"/>
       <c r="E90" s="188"/>
       <c r="G90" s="158"/>
       <c r="H90" s="159"/>
@@ -18197,13 +18197,13 @@
       <c r="BT90" s="159"/>
       <c r="BU90" s="159"/>
       <c r="BV90" s="159"/>
-      <c r="CQ90" s="231"/>
+      <c r="CQ90" s="293"/>
       <c r="EQ90" s="160"/>
     </row>
     <row r="91" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="287"/>
-      <c r="B91" s="309"/>
-      <c r="D91" s="287"/>
+      <c r="A91" s="244"/>
+      <c r="B91" s="247"/>
+      <c r="D91" s="244"/>
       <c r="E91" s="189"/>
       <c r="G91" s="13"/>
       <c r="H91" s="123"/>
@@ -18293,7 +18293,7 @@
       <c r="CN91" s="123"/>
       <c r="CO91" s="123"/>
       <c r="CP91" s="123"/>
-      <c r="CQ91" s="232"/>
+      <c r="CQ91" s="294"/>
       <c r="CR91" s="123"/>
       <c r="CS91" s="123"/>
       <c r="CT91" s="123"/>
@@ -18439,58 +18439,46 @@
     <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="DJ3:DJ7"/>
-    <mergeCell ref="BF3:BF7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="CD3:CD7"/>
-    <mergeCell ref="CE3:CE7"/>
-    <mergeCell ref="CF3:CF7"/>
-    <mergeCell ref="CG3:CG7"/>
-    <mergeCell ref="CH3:CH7"/>
-    <mergeCell ref="CI3:CI7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="CQ88:CQ91"/>
+    <mergeCell ref="DM15:DN15"/>
+    <mergeCell ref="DM16:DN16"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="AG9:EQ9"/>
+    <mergeCell ref="AS11:EA11"/>
+    <mergeCell ref="DM10:EJ10"/>
+    <mergeCell ref="DT3:DT7"/>
+    <mergeCell ref="DU3:DU7"/>
+    <mergeCell ref="BV8:DA8"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="DK3:DK7"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DR3:DR7"/>
+    <mergeCell ref="DS3:DS7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="CR3:CR7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="BV52:BV55"/>
+    <mergeCell ref="CB3:CB7"/>
+    <mergeCell ref="CC3:CC7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BZ3:BZ7"/>
+    <mergeCell ref="CA3:CA7"/>
+    <mergeCell ref="BP24:BP27"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BV3:BV7"/>
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="E3:E51"/>
     <mergeCell ref="G28:G31"/>
@@ -18515,51 +18503,63 @@
     <mergeCell ref="E52:E63"/>
     <mergeCell ref="BR3:BR7"/>
     <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="BV52:BV55"/>
-    <mergeCell ref="CB3:CB7"/>
-    <mergeCell ref="CC3:CC7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BZ3:BZ7"/>
-    <mergeCell ref="CA3:CA7"/>
-    <mergeCell ref="BP24:BP27"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="CQ88:CQ91"/>
-    <mergeCell ref="DM15:DN15"/>
-    <mergeCell ref="DM16:DN16"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="AG9:EQ9"/>
-    <mergeCell ref="AS11:EA11"/>
-    <mergeCell ref="DM10:EJ10"/>
-    <mergeCell ref="DT3:DT7"/>
-    <mergeCell ref="DU3:DU7"/>
-    <mergeCell ref="BV8:DA8"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="DK3:DK7"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DR3:DR7"/>
-    <mergeCell ref="DS3:DS7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="CR3:CR7"/>
-    <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="DJ3:DJ7"/>
+    <mergeCell ref="BF3:BF7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="CD3:CD7"/>
+    <mergeCell ref="CE3:CE7"/>
+    <mergeCell ref="CF3:CF7"/>
+    <mergeCell ref="CG3:CG7"/>
+    <mergeCell ref="CH3:CH7"/>
+    <mergeCell ref="CI3:CI7"/>
     <mergeCell ref="DH3:DH7"/>
     <mergeCell ref="DI3:DI7"/>
     <mergeCell ref="CX3:CX7"/>
     <mergeCell ref="CY3:CY7"/>
     <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="DF3:DF7"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18658,15 +18658,15 @@
       <c r="BQ1" s="218"/>
     </row>
     <row r="2" spans="1:143" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="231" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="313"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="218"/>
-      <c r="D2" s="313" t="s">
+      <c r="D2" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="313"/>
+      <c r="E2" s="231"/>
       <c r="F2" s="190" t="s">
         <v>335</v>
       </c>
@@ -19081,17 +19081,17 @@
       </c>
     </row>
     <row r="3" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="252" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="239" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="332"/>
-      <c r="D3" s="281" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="252" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="273" t="s">
+      <c r="E3" s="239" t="s">
         <v>267</v>
       </c>
       <c r="G3" s="129" t="s">
@@ -19213,178 +19213,178 @@
       <c r="AY3" s="122"/>
       <c r="AZ3" s="85"/>
       <c r="BA3" s="122"/>
-      <c r="BB3" s="326" t="s">
+      <c r="BB3" s="225" t="s">
         <v>373</v>
       </c>
-      <c r="BC3" s="222" t="s">
+      <c r="BC3" s="228" t="s">
         <v>375</v>
       </c>
-      <c r="BD3" s="222" t="s">
+      <c r="BD3" s="228" t="s">
         <v>376</v>
       </c>
-      <c r="BE3" s="222" t="s">
+      <c r="BE3" s="228" t="s">
         <v>377</v>
       </c>
-      <c r="BF3" s="222" t="s">
+      <c r="BF3" s="228" t="s">
         <v>378</v>
       </c>
-      <c r="BG3" s="222" t="s">
+      <c r="BG3" s="228" t="s">
         <v>379</v>
       </c>
-      <c r="BH3" s="222" t="s">
+      <c r="BH3" s="228" t="s">
         <v>380</v>
       </c>
-      <c r="BI3" s="222" t="s">
+      <c r="BI3" s="228" t="s">
         <v>381</v>
       </c>
-      <c r="BJ3" s="222" t="s">
+      <c r="BJ3" s="228" t="s">
         <v>382</v>
       </c>
-      <c r="BK3" s="222" t="s">
+      <c r="BK3" s="228" t="s">
         <v>383</v>
       </c>
-      <c r="BL3" s="222" t="s">
+      <c r="BL3" s="228" t="s">
         <v>384</v>
       </c>
-      <c r="BM3" s="222" t="s">
+      <c r="BM3" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="BN3" s="222" t="s">
+      <c r="BN3" s="228" t="s">
         <v>386</v>
       </c>
-      <c r="BO3" s="222" t="s">
+      <c r="BO3" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="BP3" s="222" t="s">
+      <c r="BP3" s="228" t="s">
         <v>388</v>
       </c>
-      <c r="BQ3" s="222" t="s">
+      <c r="BQ3" s="228" t="s">
         <v>389</v>
       </c>
-      <c r="BR3" s="222" t="s">
+      <c r="BR3" s="228" t="s">
         <v>390</v>
       </c>
-      <c r="BS3" s="222" t="s">
+      <c r="BS3" s="228" t="s">
         <v>391</v>
       </c>
-      <c r="BT3" s="222" t="s">
+      <c r="BT3" s="228" t="s">
         <v>392</v>
       </c>
-      <c r="BU3" s="222" t="s">
+      <c r="BU3" s="228" t="s">
         <v>393</v>
       </c>
-      <c r="BV3" s="222" t="s">
+      <c r="BV3" s="228" t="s">
         <v>394</v>
       </c>
-      <c r="BW3" s="222" t="s">
+      <c r="BW3" s="228" t="s">
         <v>395</v>
       </c>
-      <c r="BX3" s="222" t="s">
+      <c r="BX3" s="228" t="s">
         <v>396</v>
       </c>
-      <c r="BY3" s="234" t="s">
+      <c r="BY3" s="286" t="s">
         <v>397</v>
       </c>
-      <c r="BZ3" s="326" t="s">
+      <c r="BZ3" s="225" t="s">
         <v>374</v>
       </c>
-      <c r="CA3" s="222" t="s">
+      <c r="CA3" s="228" t="s">
         <v>398</v>
       </c>
-      <c r="CB3" s="222" t="s">
+      <c r="CB3" s="228" t="s">
         <v>399</v>
       </c>
-      <c r="CC3" s="222" t="s">
+      <c r="CC3" s="228" t="s">
         <v>400</v>
       </c>
-      <c r="CD3" s="222" t="s">
+      <c r="CD3" s="228" t="s">
         <v>401</v>
       </c>
-      <c r="CE3" s="222" t="s">
+      <c r="CE3" s="228" t="s">
         <v>402</v>
       </c>
-      <c r="CF3" s="222" t="s">
+      <c r="CF3" s="228" t="s">
         <v>403</v>
       </c>
-      <c r="CG3" s="222" t="s">
+      <c r="CG3" s="228" t="s">
         <v>404</v>
       </c>
-      <c r="CH3" s="222" t="s">
+      <c r="CH3" s="228" t="s">
         <v>405</v>
       </c>
-      <c r="CI3" s="222" t="s">
+      <c r="CI3" s="228" t="s">
         <v>406</v>
       </c>
-      <c r="CJ3" s="222" t="s">
+      <c r="CJ3" s="228" t="s">
         <v>407</v>
       </c>
-      <c r="CK3" s="222" t="s">
+      <c r="CK3" s="228" t="s">
         <v>408</v>
       </c>
-      <c r="CL3" s="222" t="s">
+      <c r="CL3" s="228" t="s">
         <v>409</v>
       </c>
-      <c r="CM3" s="222" t="s">
+      <c r="CM3" s="228" t="s">
         <v>410</v>
       </c>
-      <c r="CN3" s="222" t="s">
+      <c r="CN3" s="228" t="s">
         <v>411</v>
       </c>
-      <c r="CO3" s="222" t="s">
+      <c r="CO3" s="228" t="s">
         <v>412</v>
       </c>
-      <c r="CP3" s="222" t="s">
+      <c r="CP3" s="228" t="s">
         <v>413</v>
       </c>
-      <c r="CQ3" s="222" t="s">
+      <c r="CQ3" s="228" t="s">
         <v>414</v>
       </c>
-      <c r="CR3" s="222" t="s">
+      <c r="CR3" s="228" t="s">
         <v>415</v>
       </c>
-      <c r="CS3" s="222" t="s">
+      <c r="CS3" s="228" t="s">
         <v>416</v>
       </c>
-      <c r="CT3" s="222" t="s">
+      <c r="CT3" s="228" t="s">
         <v>417</v>
       </c>
-      <c r="CU3" s="222" t="s">
+      <c r="CU3" s="228" t="s">
         <v>418</v>
       </c>
-      <c r="CV3" s="222" t="s">
+      <c r="CV3" s="228" t="s">
         <v>419</v>
       </c>
-      <c r="CW3" s="234" t="s">
+      <c r="CW3" s="286" t="s">
         <v>420</v>
       </c>
-      <c r="CX3" s="224" t="s">
+      <c r="CX3" s="329" t="s">
         <v>188</v>
       </c>
-      <c r="CY3" s="227" t="s">
+      <c r="CY3" s="332" t="s">
         <v>188</v>
       </c>
-      <c r="CZ3" s="227" t="s">
+      <c r="CZ3" s="332" t="s">
         <v>188</v>
       </c>
-      <c r="DA3" s="227" t="s">
+      <c r="DA3" s="332" t="s">
         <v>189</v>
       </c>
-      <c r="DB3" s="227" t="s">
+      <c r="DB3" s="332" t="s">
         <v>189</v>
       </c>
-      <c r="DC3" s="258" t="s">
+      <c r="DC3" s="317" t="s">
         <v>189</v>
       </c>
-      <c r="DD3" s="339" t="s">
+      <c r="DD3" s="323" t="s">
         <v>433</v>
       </c>
-      <c r="DE3" s="336" t="s">
+      <c r="DE3" s="326" t="s">
         <v>434</v>
       </c>
-      <c r="DF3" s="323" t="s">
+      <c r="DF3" s="222" t="s">
         <v>366</v>
       </c>
-      <c r="DG3" s="261" t="s">
+      <c r="DG3" s="320" t="s">
         <v>114</v>
       </c>
       <c r="DH3" s="137"/>
@@ -19392,19 +19392,19 @@
       <c r="DJ3" s="137"/>
       <c r="DK3" s="14"/>
       <c r="DL3" s="64"/>
-      <c r="DM3" s="246" t="s">
+      <c r="DM3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DN3" s="246" t="s">
+      <c r="DN3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DO3" s="246" t="s">
+      <c r="DO3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DP3" s="246" t="s">
+      <c r="DP3" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="DQ3" s="250" t="s">
+      <c r="DQ3" s="309" t="s">
         <v>116</v>
       </c>
       <c r="DR3" s="140"/>
@@ -19443,11 +19443,11 @@
       </c>
     </row>
     <row r="4" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="282"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="332"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="274"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="240"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -19573,74 +19573,74 @@
       <c r="AY4" s="117"/>
       <c r="AZ4" s="219"/>
       <c r="BA4" s="117"/>
-      <c r="BB4" s="327"/>
-      <c r="BC4" s="223"/>
-      <c r="BD4" s="223"/>
-      <c r="BE4" s="223"/>
-      <c r="BF4" s="223"/>
-      <c r="BG4" s="223"/>
-      <c r="BH4" s="223"/>
-      <c r="BI4" s="223"/>
-      <c r="BJ4" s="223"/>
-      <c r="BK4" s="223"/>
-      <c r="BL4" s="223"/>
-      <c r="BM4" s="223"/>
-      <c r="BN4" s="223"/>
-      <c r="BO4" s="223"/>
-      <c r="BP4" s="223"/>
-      <c r="BQ4" s="223"/>
-      <c r="BR4" s="223"/>
-      <c r="BS4" s="223"/>
-      <c r="BT4" s="223"/>
-      <c r="BU4" s="223"/>
-      <c r="BV4" s="223"/>
-      <c r="BW4" s="223"/>
-      <c r="BX4" s="223"/>
-      <c r="BY4" s="235"/>
-      <c r="BZ4" s="327"/>
-      <c r="CA4" s="223"/>
-      <c r="CB4" s="223"/>
-      <c r="CC4" s="223"/>
-      <c r="CD4" s="223"/>
-      <c r="CE4" s="223"/>
-      <c r="CF4" s="223"/>
-      <c r="CG4" s="223"/>
-      <c r="CH4" s="223"/>
-      <c r="CI4" s="223"/>
-      <c r="CJ4" s="223"/>
-      <c r="CK4" s="223"/>
-      <c r="CL4" s="223"/>
-      <c r="CM4" s="223"/>
-      <c r="CN4" s="223"/>
-      <c r="CO4" s="223"/>
-      <c r="CP4" s="223"/>
-      <c r="CQ4" s="223"/>
-      <c r="CR4" s="223"/>
-      <c r="CS4" s="223"/>
-      <c r="CT4" s="223"/>
-      <c r="CU4" s="223"/>
-      <c r="CV4" s="223"/>
-      <c r="CW4" s="235"/>
-      <c r="CX4" s="225"/>
-      <c r="CY4" s="228"/>
-      <c r="CZ4" s="228"/>
-      <c r="DA4" s="228"/>
-      <c r="DB4" s="228"/>
-      <c r="DC4" s="259"/>
-      <c r="DD4" s="340"/>
-      <c r="DE4" s="337"/>
-      <c r="DF4" s="324"/>
-      <c r="DG4" s="262"/>
+      <c r="BB4" s="226"/>
+      <c r="BC4" s="229"/>
+      <c r="BD4" s="229"/>
+      <c r="BE4" s="229"/>
+      <c r="BF4" s="229"/>
+      <c r="BG4" s="229"/>
+      <c r="BH4" s="229"/>
+      <c r="BI4" s="229"/>
+      <c r="BJ4" s="229"/>
+      <c r="BK4" s="229"/>
+      <c r="BL4" s="229"/>
+      <c r="BM4" s="229"/>
+      <c r="BN4" s="229"/>
+      <c r="BO4" s="229"/>
+      <c r="BP4" s="229"/>
+      <c r="BQ4" s="229"/>
+      <c r="BR4" s="229"/>
+      <c r="BS4" s="229"/>
+      <c r="BT4" s="229"/>
+      <c r="BU4" s="229"/>
+      <c r="BV4" s="229"/>
+      <c r="BW4" s="229"/>
+      <c r="BX4" s="229"/>
+      <c r="BY4" s="287"/>
+      <c r="BZ4" s="226"/>
+      <c r="CA4" s="229"/>
+      <c r="CB4" s="229"/>
+      <c r="CC4" s="229"/>
+      <c r="CD4" s="229"/>
+      <c r="CE4" s="229"/>
+      <c r="CF4" s="229"/>
+      <c r="CG4" s="229"/>
+      <c r="CH4" s="229"/>
+      <c r="CI4" s="229"/>
+      <c r="CJ4" s="229"/>
+      <c r="CK4" s="229"/>
+      <c r="CL4" s="229"/>
+      <c r="CM4" s="229"/>
+      <c r="CN4" s="229"/>
+      <c r="CO4" s="229"/>
+      <c r="CP4" s="229"/>
+      <c r="CQ4" s="229"/>
+      <c r="CR4" s="229"/>
+      <c r="CS4" s="229"/>
+      <c r="CT4" s="229"/>
+      <c r="CU4" s="229"/>
+      <c r="CV4" s="229"/>
+      <c r="CW4" s="287"/>
+      <c r="CX4" s="330"/>
+      <c r="CY4" s="333"/>
+      <c r="CZ4" s="333"/>
+      <c r="DA4" s="333"/>
+      <c r="DB4" s="333"/>
+      <c r="DC4" s="318"/>
+      <c r="DD4" s="324"/>
+      <c r="DE4" s="327"/>
+      <c r="DF4" s="223"/>
+      <c r="DG4" s="321"/>
       <c r="DH4" s="131"/>
       <c r="DI4" s="20"/>
       <c r="DJ4" s="131"/>
       <c r="DK4" s="219"/>
       <c r="DL4" s="20"/>
-      <c r="DM4" s="247"/>
-      <c r="DN4" s="247"/>
-      <c r="DO4" s="247"/>
-      <c r="DP4" s="247"/>
-      <c r="DQ4" s="251"/>
+      <c r="DM4" s="307"/>
+      <c r="DN4" s="307"/>
+      <c r="DO4" s="307"/>
+      <c r="DP4" s="307"/>
+      <c r="DQ4" s="310"/>
       <c r="DR4" s="136"/>
       <c r="DS4" s="118"/>
       <c r="DT4" s="118"/>
@@ -19669,11 +19669,11 @@
       </c>
     </row>
     <row r="5" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="274"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="335"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="240"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -19759,74 +19759,74 @@
       <c r="AY5" s="117"/>
       <c r="AZ5" s="219"/>
       <c r="BA5" s="117"/>
-      <c r="BB5" s="327"/>
-      <c r="BC5" s="223"/>
-      <c r="BD5" s="223"/>
-      <c r="BE5" s="223"/>
-      <c r="BF5" s="223"/>
-      <c r="BG5" s="223"/>
-      <c r="BH5" s="223"/>
-      <c r="BI5" s="223"/>
-      <c r="BJ5" s="223"/>
-      <c r="BK5" s="223"/>
-      <c r="BL5" s="223"/>
-      <c r="BM5" s="223"/>
-      <c r="BN5" s="223"/>
-      <c r="BO5" s="223"/>
-      <c r="BP5" s="223"/>
-      <c r="BQ5" s="223"/>
-      <c r="BR5" s="223"/>
-      <c r="BS5" s="223"/>
-      <c r="BT5" s="223"/>
-      <c r="BU5" s="223"/>
-      <c r="BV5" s="223"/>
-      <c r="BW5" s="223"/>
-      <c r="BX5" s="223"/>
-      <c r="BY5" s="235"/>
-      <c r="BZ5" s="327"/>
-      <c r="CA5" s="223"/>
-      <c r="CB5" s="223"/>
-      <c r="CC5" s="223"/>
-      <c r="CD5" s="223"/>
-      <c r="CE5" s="223"/>
-      <c r="CF5" s="223"/>
-      <c r="CG5" s="223"/>
-      <c r="CH5" s="223"/>
-      <c r="CI5" s="223"/>
-      <c r="CJ5" s="223"/>
-      <c r="CK5" s="223"/>
-      <c r="CL5" s="223"/>
-      <c r="CM5" s="223"/>
-      <c r="CN5" s="223"/>
-      <c r="CO5" s="223"/>
-      <c r="CP5" s="223"/>
-      <c r="CQ5" s="223"/>
-      <c r="CR5" s="223"/>
-      <c r="CS5" s="223"/>
-      <c r="CT5" s="223"/>
-      <c r="CU5" s="223"/>
-      <c r="CV5" s="223"/>
-      <c r="CW5" s="235"/>
-      <c r="CX5" s="225"/>
-      <c r="CY5" s="228"/>
-      <c r="CZ5" s="228"/>
-      <c r="DA5" s="228"/>
-      <c r="DB5" s="228"/>
-      <c r="DC5" s="259"/>
-      <c r="DD5" s="340"/>
-      <c r="DE5" s="337"/>
-      <c r="DF5" s="324"/>
-      <c r="DG5" s="262"/>
+      <c r="BB5" s="226"/>
+      <c r="BC5" s="229"/>
+      <c r="BD5" s="229"/>
+      <c r="BE5" s="229"/>
+      <c r="BF5" s="229"/>
+      <c r="BG5" s="229"/>
+      <c r="BH5" s="229"/>
+      <c r="BI5" s="229"/>
+      <c r="BJ5" s="229"/>
+      <c r="BK5" s="229"/>
+      <c r="BL5" s="229"/>
+      <c r="BM5" s="229"/>
+      <c r="BN5" s="229"/>
+      <c r="BO5" s="229"/>
+      <c r="BP5" s="229"/>
+      <c r="BQ5" s="229"/>
+      <c r="BR5" s="229"/>
+      <c r="BS5" s="229"/>
+      <c r="BT5" s="229"/>
+      <c r="BU5" s="229"/>
+      <c r="BV5" s="229"/>
+      <c r="BW5" s="229"/>
+      <c r="BX5" s="229"/>
+      <c r="BY5" s="287"/>
+      <c r="BZ5" s="226"/>
+      <c r="CA5" s="229"/>
+      <c r="CB5" s="229"/>
+      <c r="CC5" s="229"/>
+      <c r="CD5" s="229"/>
+      <c r="CE5" s="229"/>
+      <c r="CF5" s="229"/>
+      <c r="CG5" s="229"/>
+      <c r="CH5" s="229"/>
+      <c r="CI5" s="229"/>
+      <c r="CJ5" s="229"/>
+      <c r="CK5" s="229"/>
+      <c r="CL5" s="229"/>
+      <c r="CM5" s="229"/>
+      <c r="CN5" s="229"/>
+      <c r="CO5" s="229"/>
+      <c r="CP5" s="229"/>
+      <c r="CQ5" s="229"/>
+      <c r="CR5" s="229"/>
+      <c r="CS5" s="229"/>
+      <c r="CT5" s="229"/>
+      <c r="CU5" s="229"/>
+      <c r="CV5" s="229"/>
+      <c r="CW5" s="287"/>
+      <c r="CX5" s="330"/>
+      <c r="CY5" s="333"/>
+      <c r="CZ5" s="333"/>
+      <c r="DA5" s="333"/>
+      <c r="DB5" s="333"/>
+      <c r="DC5" s="318"/>
+      <c r="DD5" s="324"/>
+      <c r="DE5" s="327"/>
+      <c r="DF5" s="223"/>
+      <c r="DG5" s="321"/>
       <c r="DH5" s="131"/>
       <c r="DI5" s="20"/>
       <c r="DJ5" s="131"/>
       <c r="DK5" s="219"/>
       <c r="DL5" s="20"/>
-      <c r="DM5" s="247"/>
-      <c r="DN5" s="247"/>
-      <c r="DO5" s="247"/>
-      <c r="DP5" s="247"/>
-      <c r="DQ5" s="251"/>
+      <c r="DM5" s="307"/>
+      <c r="DN5" s="307"/>
+      <c r="DO5" s="307"/>
+      <c r="DP5" s="307"/>
+      <c r="DQ5" s="310"/>
       <c r="DR5" s="127" t="s">
         <v>191</v>
       </c>
@@ -19895,11 +19895,11 @@
       </c>
     </row>
     <row r="6" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="274"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="335"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="240"/>
       <c r="G6" s="214" t="s">
         <v>216</v>
       </c>
@@ -19993,74 +19993,74 @@
       <c r="AY6" s="117"/>
       <c r="AZ6" s="219"/>
       <c r="BA6" s="117"/>
-      <c r="BB6" s="327"/>
-      <c r="BC6" s="223"/>
-      <c r="BD6" s="223"/>
-      <c r="BE6" s="223"/>
-      <c r="BF6" s="223"/>
-      <c r="BG6" s="223"/>
-      <c r="BH6" s="223"/>
-      <c r="BI6" s="223"/>
-      <c r="BJ6" s="223"/>
-      <c r="BK6" s="223"/>
-      <c r="BL6" s="223"/>
-      <c r="BM6" s="223"/>
-      <c r="BN6" s="223"/>
-      <c r="BO6" s="223"/>
-      <c r="BP6" s="223"/>
-      <c r="BQ6" s="223"/>
-      <c r="BR6" s="223"/>
-      <c r="BS6" s="223"/>
-      <c r="BT6" s="223"/>
-      <c r="BU6" s="223"/>
-      <c r="BV6" s="223"/>
-      <c r="BW6" s="223"/>
-      <c r="BX6" s="223"/>
-      <c r="BY6" s="235"/>
-      <c r="BZ6" s="327"/>
-      <c r="CA6" s="223"/>
-      <c r="CB6" s="223"/>
-      <c r="CC6" s="223"/>
-      <c r="CD6" s="223"/>
-      <c r="CE6" s="223"/>
-      <c r="CF6" s="223"/>
-      <c r="CG6" s="223"/>
-      <c r="CH6" s="223"/>
-      <c r="CI6" s="223"/>
-      <c r="CJ6" s="223"/>
-      <c r="CK6" s="223"/>
-      <c r="CL6" s="223"/>
-      <c r="CM6" s="223"/>
-      <c r="CN6" s="223"/>
-      <c r="CO6" s="223"/>
-      <c r="CP6" s="223"/>
-      <c r="CQ6" s="223"/>
-      <c r="CR6" s="223"/>
-      <c r="CS6" s="223"/>
-      <c r="CT6" s="223"/>
-      <c r="CU6" s="223"/>
-      <c r="CV6" s="223"/>
-      <c r="CW6" s="235"/>
-      <c r="CX6" s="225"/>
-      <c r="CY6" s="228"/>
-      <c r="CZ6" s="228"/>
-      <c r="DA6" s="228"/>
-      <c r="DB6" s="228"/>
-      <c r="DC6" s="259"/>
-      <c r="DD6" s="340"/>
-      <c r="DE6" s="337"/>
-      <c r="DF6" s="324"/>
-      <c r="DG6" s="262"/>
+      <c r="BB6" s="226"/>
+      <c r="BC6" s="229"/>
+      <c r="BD6" s="229"/>
+      <c r="BE6" s="229"/>
+      <c r="BF6" s="229"/>
+      <c r="BG6" s="229"/>
+      <c r="BH6" s="229"/>
+      <c r="BI6" s="229"/>
+      <c r="BJ6" s="229"/>
+      <c r="BK6" s="229"/>
+      <c r="BL6" s="229"/>
+      <c r="BM6" s="229"/>
+      <c r="BN6" s="229"/>
+      <c r="BO6" s="229"/>
+      <c r="BP6" s="229"/>
+      <c r="BQ6" s="229"/>
+      <c r="BR6" s="229"/>
+      <c r="BS6" s="229"/>
+      <c r="BT6" s="229"/>
+      <c r="BU6" s="229"/>
+      <c r="BV6" s="229"/>
+      <c r="BW6" s="229"/>
+      <c r="BX6" s="229"/>
+      <c r="BY6" s="287"/>
+      <c r="BZ6" s="226"/>
+      <c r="CA6" s="229"/>
+      <c r="CB6" s="229"/>
+      <c r="CC6" s="229"/>
+      <c r="CD6" s="229"/>
+      <c r="CE6" s="229"/>
+      <c r="CF6" s="229"/>
+      <c r="CG6" s="229"/>
+      <c r="CH6" s="229"/>
+      <c r="CI6" s="229"/>
+      <c r="CJ6" s="229"/>
+      <c r="CK6" s="229"/>
+      <c r="CL6" s="229"/>
+      <c r="CM6" s="229"/>
+      <c r="CN6" s="229"/>
+      <c r="CO6" s="229"/>
+      <c r="CP6" s="229"/>
+      <c r="CQ6" s="229"/>
+      <c r="CR6" s="229"/>
+      <c r="CS6" s="229"/>
+      <c r="CT6" s="229"/>
+      <c r="CU6" s="229"/>
+      <c r="CV6" s="229"/>
+      <c r="CW6" s="287"/>
+      <c r="CX6" s="330"/>
+      <c r="CY6" s="333"/>
+      <c r="CZ6" s="333"/>
+      <c r="DA6" s="333"/>
+      <c r="DB6" s="333"/>
+      <c r="DC6" s="318"/>
+      <c r="DD6" s="324"/>
+      <c r="DE6" s="327"/>
+      <c r="DF6" s="223"/>
+      <c r="DG6" s="321"/>
       <c r="DH6" s="131"/>
       <c r="DI6" s="20"/>
       <c r="DJ6" s="131"/>
       <c r="DK6" s="219"/>
       <c r="DL6" s="20"/>
-      <c r="DM6" s="248"/>
-      <c r="DN6" s="248"/>
-      <c r="DO6" s="248"/>
-      <c r="DP6" s="248"/>
-      <c r="DQ6" s="252"/>
+      <c r="DM6" s="276"/>
+      <c r="DN6" s="276"/>
+      <c r="DO6" s="276"/>
+      <c r="DP6" s="276"/>
+      <c r="DQ6" s="311"/>
       <c r="DR6" s="136"/>
       <c r="DS6" s="30"/>
       <c r="DT6" s="30"/>
@@ -20121,11 +20121,11 @@
       </c>
     </row>
     <row r="7" spans="1:143" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="283"/>
-      <c r="B7" s="274"/>
-      <c r="C7" s="332"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="274"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="240"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
       <c r="I7" s="209" t="s">
@@ -20187,64 +20187,64 @@
       <c r="AY7" s="123"/>
       <c r="AZ7" s="119"/>
       <c r="BA7" s="123"/>
-      <c r="BB7" s="328"/>
-      <c r="BC7" s="267"/>
-      <c r="BD7" s="267"/>
-      <c r="BE7" s="267"/>
-      <c r="BF7" s="267"/>
-      <c r="BG7" s="267"/>
-      <c r="BH7" s="267"/>
-      <c r="BI7" s="267"/>
-      <c r="BJ7" s="267"/>
-      <c r="BK7" s="267"/>
-      <c r="BL7" s="267"/>
-      <c r="BM7" s="267"/>
-      <c r="BN7" s="267"/>
-      <c r="BO7" s="267"/>
-      <c r="BP7" s="267"/>
-      <c r="BQ7" s="267"/>
-      <c r="BR7" s="267"/>
-      <c r="BS7" s="267"/>
-      <c r="BT7" s="267"/>
-      <c r="BU7" s="267"/>
-      <c r="BV7" s="267"/>
-      <c r="BW7" s="267"/>
-      <c r="BX7" s="267"/>
-      <c r="BY7" s="268"/>
-      <c r="BZ7" s="328"/>
-      <c r="CA7" s="267"/>
-      <c r="CB7" s="267"/>
-      <c r="CC7" s="267"/>
-      <c r="CD7" s="267"/>
-      <c r="CE7" s="267"/>
-      <c r="CF7" s="267"/>
-      <c r="CG7" s="267"/>
-      <c r="CH7" s="267"/>
-      <c r="CI7" s="267"/>
-      <c r="CJ7" s="267"/>
-      <c r="CK7" s="267"/>
-      <c r="CL7" s="267"/>
-      <c r="CM7" s="267"/>
-      <c r="CN7" s="267"/>
-      <c r="CO7" s="267"/>
-      <c r="CP7" s="267"/>
-      <c r="CQ7" s="267"/>
-      <c r="CR7" s="267"/>
-      <c r="CS7" s="267"/>
-      <c r="CT7" s="267"/>
-      <c r="CU7" s="267"/>
-      <c r="CV7" s="267"/>
-      <c r="CW7" s="268"/>
-      <c r="CX7" s="226"/>
-      <c r="CY7" s="229"/>
-      <c r="CZ7" s="229"/>
-      <c r="DA7" s="229"/>
-      <c r="DB7" s="229"/>
-      <c r="DC7" s="260"/>
-      <c r="DD7" s="341"/>
-      <c r="DE7" s="338"/>
-      <c r="DF7" s="325"/>
-      <c r="DG7" s="263"/>
+      <c r="BB7" s="227"/>
+      <c r="BC7" s="230"/>
+      <c r="BD7" s="230"/>
+      <c r="BE7" s="230"/>
+      <c r="BF7" s="230"/>
+      <c r="BG7" s="230"/>
+      <c r="BH7" s="230"/>
+      <c r="BI7" s="230"/>
+      <c r="BJ7" s="230"/>
+      <c r="BK7" s="230"/>
+      <c r="BL7" s="230"/>
+      <c r="BM7" s="230"/>
+      <c r="BN7" s="230"/>
+      <c r="BO7" s="230"/>
+      <c r="BP7" s="230"/>
+      <c r="BQ7" s="230"/>
+      <c r="BR7" s="230"/>
+      <c r="BS7" s="230"/>
+      <c r="BT7" s="230"/>
+      <c r="BU7" s="230"/>
+      <c r="BV7" s="230"/>
+      <c r="BW7" s="230"/>
+      <c r="BX7" s="230"/>
+      <c r="BY7" s="288"/>
+      <c r="BZ7" s="227"/>
+      <c r="CA7" s="230"/>
+      <c r="CB7" s="230"/>
+      <c r="CC7" s="230"/>
+      <c r="CD7" s="230"/>
+      <c r="CE7" s="230"/>
+      <c r="CF7" s="230"/>
+      <c r="CG7" s="230"/>
+      <c r="CH7" s="230"/>
+      <c r="CI7" s="230"/>
+      <c r="CJ7" s="230"/>
+      <c r="CK7" s="230"/>
+      <c r="CL7" s="230"/>
+      <c r="CM7" s="230"/>
+      <c r="CN7" s="230"/>
+      <c r="CO7" s="230"/>
+      <c r="CP7" s="230"/>
+      <c r="CQ7" s="230"/>
+      <c r="CR7" s="230"/>
+      <c r="CS7" s="230"/>
+      <c r="CT7" s="230"/>
+      <c r="CU7" s="230"/>
+      <c r="CV7" s="230"/>
+      <c r="CW7" s="288"/>
+      <c r="CX7" s="331"/>
+      <c r="CY7" s="334"/>
+      <c r="CZ7" s="334"/>
+      <c r="DA7" s="334"/>
+      <c r="DB7" s="334"/>
+      <c r="DC7" s="319"/>
+      <c r="DD7" s="325"/>
+      <c r="DE7" s="328"/>
+      <c r="DF7" s="224"/>
+      <c r="DG7" s="322"/>
       <c r="DH7" s="141"/>
       <c r="DI7" s="148"/>
       <c r="DJ7" s="209" t="s">
@@ -20256,11 +20256,11 @@
       <c r="DL7" s="212" t="s">
         <v>368</v>
       </c>
-      <c r="DM7" s="249"/>
-      <c r="DN7" s="249"/>
-      <c r="DO7" s="249"/>
-      <c r="DP7" s="249"/>
-      <c r="DQ7" s="253"/>
+      <c r="DM7" s="308"/>
+      <c r="DN7" s="308"/>
+      <c r="DO7" s="308"/>
+      <c r="DP7" s="308"/>
+      <c r="DQ7" s="312"/>
       <c r="DR7" s="209" t="s">
         <v>371</v>
       </c>
@@ -20303,44 +20303,44 @@
       <c r="EM7" s="145"/>
     </row>
     <row r="8" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="274"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="274"/>
-      <c r="BR8" s="330" t="s">
+      <c r="A8" s="236"/>
+      <c r="B8" s="240"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="240"/>
+      <c r="BR8" s="340" t="s">
         <v>226</v>
       </c>
-      <c r="BS8" s="331"/>
-      <c r="BT8" s="331"/>
-      <c r="BU8" s="331"/>
-      <c r="BV8" s="331"/>
-      <c r="BW8" s="331"/>
-      <c r="BX8" s="331"/>
-      <c r="BY8" s="331"/>
-      <c r="BZ8" s="331"/>
-      <c r="CA8" s="331"/>
-      <c r="CB8" s="331"/>
-      <c r="CC8" s="331"/>
-      <c r="CD8" s="331"/>
-      <c r="CE8" s="331"/>
-      <c r="CF8" s="331"/>
-      <c r="CG8" s="331"/>
-      <c r="CH8" s="331"/>
-      <c r="CI8" s="331"/>
-      <c r="CJ8" s="331"/>
-      <c r="CK8" s="331"/>
-      <c r="CL8" s="331"/>
-      <c r="CM8" s="331"/>
-      <c r="CN8" s="331"/>
-      <c r="CO8" s="331"/>
-      <c r="CP8" s="331"/>
-      <c r="CQ8" s="331"/>
-      <c r="CR8" s="331"/>
-      <c r="CS8" s="331"/>
-      <c r="CT8" s="331"/>
-      <c r="CU8" s="331"/>
-      <c r="CV8" s="331"/>
-      <c r="CW8" s="331"/>
+      <c r="BS8" s="341"/>
+      <c r="BT8" s="341"/>
+      <c r="BU8" s="341"/>
+      <c r="BV8" s="341"/>
+      <c r="BW8" s="341"/>
+      <c r="BX8" s="341"/>
+      <c r="BY8" s="341"/>
+      <c r="BZ8" s="341"/>
+      <c r="CA8" s="341"/>
+      <c r="CB8" s="341"/>
+      <c r="CC8" s="341"/>
+      <c r="CD8" s="341"/>
+      <c r="CE8" s="341"/>
+      <c r="CF8" s="341"/>
+      <c r="CG8" s="341"/>
+      <c r="CH8" s="341"/>
+      <c r="CI8" s="341"/>
+      <c r="CJ8" s="341"/>
+      <c r="CK8" s="341"/>
+      <c r="CL8" s="341"/>
+      <c r="CM8" s="341"/>
+      <c r="CN8" s="341"/>
+      <c r="CO8" s="341"/>
+      <c r="CP8" s="341"/>
+      <c r="CQ8" s="341"/>
+      <c r="CR8" s="341"/>
+      <c r="CS8" s="341"/>
+      <c r="CT8" s="341"/>
+      <c r="CU8" s="341"/>
+      <c r="CV8" s="341"/>
+      <c r="CW8" s="341"/>
       <c r="CX8" s="116"/>
       <c r="CY8" s="116"/>
       <c r="CZ8" s="116"/>
@@ -20349,162 +20349,162 @@
       <c r="DC8" s="116"/>
     </row>
     <row r="9" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="282"/>
-      <c r="B9" s="274"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="274"/>
-      <c r="AG9" s="333" t="s">
+      <c r="A9" s="237"/>
+      <c r="B9" s="240"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="240"/>
+      <c r="AG9" s="336" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="334"/>
-      <c r="AI9" s="334"/>
-      <c r="AJ9" s="334"/>
-      <c r="AK9" s="334"/>
-      <c r="AL9" s="334"/>
-      <c r="AM9" s="334"/>
-      <c r="AN9" s="334"/>
-      <c r="AO9" s="334"/>
-      <c r="AP9" s="334"/>
-      <c r="AQ9" s="334"/>
-      <c r="AR9" s="334"/>
-      <c r="AS9" s="334"/>
-      <c r="AT9" s="334"/>
-      <c r="AU9" s="334"/>
-      <c r="AV9" s="334"/>
-      <c r="AW9" s="334"/>
-      <c r="AX9" s="334"/>
-      <c r="AY9" s="334"/>
-      <c r="AZ9" s="334"/>
-      <c r="BA9" s="334"/>
-      <c r="BB9" s="334"/>
-      <c r="BC9" s="334"/>
-      <c r="BD9" s="334"/>
-      <c r="BE9" s="334"/>
-      <c r="BF9" s="334"/>
-      <c r="BG9" s="334"/>
-      <c r="BH9" s="334"/>
-      <c r="BI9" s="334"/>
-      <c r="BJ9" s="334"/>
-      <c r="BK9" s="334"/>
-      <c r="BL9" s="334"/>
-      <c r="BM9" s="334"/>
-      <c r="BN9" s="334"/>
-      <c r="BO9" s="334"/>
-      <c r="BP9" s="334"/>
-      <c r="BQ9" s="334"/>
-      <c r="BR9" s="334"/>
-      <c r="BS9" s="334"/>
-      <c r="BT9" s="334"/>
-      <c r="BU9" s="334"/>
-      <c r="BV9" s="334"/>
-      <c r="BW9" s="334"/>
-      <c r="BX9" s="334"/>
-      <c r="BY9" s="334"/>
-      <c r="BZ9" s="334"/>
-      <c r="CA9" s="334"/>
-      <c r="CB9" s="334"/>
-      <c r="CC9" s="334"/>
-      <c r="CD9" s="334"/>
-      <c r="CE9" s="334"/>
-      <c r="CF9" s="334"/>
-      <c r="CG9" s="334"/>
-      <c r="CH9" s="334"/>
-      <c r="CI9" s="334"/>
-      <c r="CJ9" s="334"/>
-      <c r="CK9" s="334"/>
-      <c r="CL9" s="334"/>
-      <c r="CM9" s="334"/>
-      <c r="CN9" s="334"/>
-      <c r="CO9" s="334"/>
-      <c r="CP9" s="334"/>
-      <c r="CQ9" s="334"/>
-      <c r="CR9" s="334"/>
-      <c r="CS9" s="334"/>
-      <c r="CT9" s="334"/>
-      <c r="CU9" s="334"/>
-      <c r="CV9" s="334"/>
-      <c r="CW9" s="334"/>
-      <c r="CX9" s="334"/>
-      <c r="CY9" s="334"/>
-      <c r="CZ9" s="334"/>
-      <c r="DA9" s="334"/>
-      <c r="DB9" s="334"/>
-      <c r="DC9" s="334"/>
-      <c r="DD9" s="334"/>
-      <c r="DE9" s="334"/>
-      <c r="DF9" s="334"/>
-      <c r="DG9" s="334"/>
-      <c r="DH9" s="334"/>
-      <c r="DI9" s="334"/>
-      <c r="DJ9" s="334"/>
-      <c r="DK9" s="334"/>
-      <c r="DL9" s="334"/>
-      <c r="DM9" s="334"/>
-      <c r="DN9" s="334"/>
-      <c r="DO9" s="334"/>
-      <c r="DP9" s="334"/>
-      <c r="DQ9" s="334"/>
-      <c r="DR9" s="334"/>
-      <c r="DS9" s="334"/>
-      <c r="DT9" s="334"/>
-      <c r="DU9" s="334"/>
-      <c r="DV9" s="334"/>
-      <c r="DW9" s="334"/>
-      <c r="DX9" s="334"/>
-      <c r="DY9" s="334"/>
-      <c r="DZ9" s="334"/>
-      <c r="EA9" s="334"/>
-      <c r="EB9" s="334"/>
-      <c r="EC9" s="334"/>
-      <c r="ED9" s="334"/>
-      <c r="EE9" s="334"/>
-      <c r="EF9" s="334"/>
-      <c r="EG9" s="334"/>
-      <c r="EH9" s="334"/>
-      <c r="EI9" s="334"/>
-      <c r="EJ9" s="334"/>
-      <c r="EK9" s="334"/>
-      <c r="EL9" s="334"/>
-      <c r="EM9" s="335"/>
+      <c r="AH9" s="337"/>
+      <c r="AI9" s="337"/>
+      <c r="AJ9" s="337"/>
+      <c r="AK9" s="337"/>
+      <c r="AL9" s="337"/>
+      <c r="AM9" s="337"/>
+      <c r="AN9" s="337"/>
+      <c r="AO9" s="337"/>
+      <c r="AP9" s="337"/>
+      <c r="AQ9" s="337"/>
+      <c r="AR9" s="337"/>
+      <c r="AS9" s="337"/>
+      <c r="AT9" s="337"/>
+      <c r="AU9" s="337"/>
+      <c r="AV9" s="337"/>
+      <c r="AW9" s="337"/>
+      <c r="AX9" s="337"/>
+      <c r="AY9" s="337"/>
+      <c r="AZ9" s="337"/>
+      <c r="BA9" s="337"/>
+      <c r="BB9" s="337"/>
+      <c r="BC9" s="337"/>
+      <c r="BD9" s="337"/>
+      <c r="BE9" s="337"/>
+      <c r="BF9" s="337"/>
+      <c r="BG9" s="337"/>
+      <c r="BH9" s="337"/>
+      <c r="BI9" s="337"/>
+      <c r="BJ9" s="337"/>
+      <c r="BK9" s="337"/>
+      <c r="BL9" s="337"/>
+      <c r="BM9" s="337"/>
+      <c r="BN9" s="337"/>
+      <c r="BO9" s="337"/>
+      <c r="BP9" s="337"/>
+      <c r="BQ9" s="337"/>
+      <c r="BR9" s="337"/>
+      <c r="BS9" s="337"/>
+      <c r="BT9" s="337"/>
+      <c r="BU9" s="337"/>
+      <c r="BV9" s="337"/>
+      <c r="BW9" s="337"/>
+      <c r="BX9" s="337"/>
+      <c r="BY9" s="337"/>
+      <c r="BZ9" s="337"/>
+      <c r="CA9" s="337"/>
+      <c r="CB9" s="337"/>
+      <c r="CC9" s="337"/>
+      <c r="CD9" s="337"/>
+      <c r="CE9" s="337"/>
+      <c r="CF9" s="337"/>
+      <c r="CG9" s="337"/>
+      <c r="CH9" s="337"/>
+      <c r="CI9" s="337"/>
+      <c r="CJ9" s="337"/>
+      <c r="CK9" s="337"/>
+      <c r="CL9" s="337"/>
+      <c r="CM9" s="337"/>
+      <c r="CN9" s="337"/>
+      <c r="CO9" s="337"/>
+      <c r="CP9" s="337"/>
+      <c r="CQ9" s="337"/>
+      <c r="CR9" s="337"/>
+      <c r="CS9" s="337"/>
+      <c r="CT9" s="337"/>
+      <c r="CU9" s="337"/>
+      <c r="CV9" s="337"/>
+      <c r="CW9" s="337"/>
+      <c r="CX9" s="337"/>
+      <c r="CY9" s="337"/>
+      <c r="CZ9" s="337"/>
+      <c r="DA9" s="337"/>
+      <c r="DB9" s="337"/>
+      <c r="DC9" s="337"/>
+      <c r="DD9" s="337"/>
+      <c r="DE9" s="337"/>
+      <c r="DF9" s="337"/>
+      <c r="DG9" s="337"/>
+      <c r="DH9" s="337"/>
+      <c r="DI9" s="337"/>
+      <c r="DJ9" s="337"/>
+      <c r="DK9" s="337"/>
+      <c r="DL9" s="337"/>
+      <c r="DM9" s="337"/>
+      <c r="DN9" s="337"/>
+      <c r="DO9" s="337"/>
+      <c r="DP9" s="337"/>
+      <c r="DQ9" s="337"/>
+      <c r="DR9" s="337"/>
+      <c r="DS9" s="337"/>
+      <c r="DT9" s="337"/>
+      <c r="DU9" s="337"/>
+      <c r="DV9" s="337"/>
+      <c r="DW9" s="337"/>
+      <c r="DX9" s="337"/>
+      <c r="DY9" s="337"/>
+      <c r="DZ9" s="337"/>
+      <c r="EA9" s="337"/>
+      <c r="EB9" s="337"/>
+      <c r="EC9" s="337"/>
+      <c r="ED9" s="337"/>
+      <c r="EE9" s="337"/>
+      <c r="EF9" s="337"/>
+      <c r="EG9" s="337"/>
+      <c r="EH9" s="337"/>
+      <c r="EI9" s="337"/>
+      <c r="EJ9" s="337"/>
+      <c r="EK9" s="337"/>
+      <c r="EL9" s="337"/>
+      <c r="EM9" s="338"/>
     </row>
     <row r="10" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="282"/>
-      <c r="B10" s="274"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="274"/>
+      <c r="A10" s="237"/>
+      <c r="B10" s="240"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="240"/>
       <c r="BB10" s="159"/>
-      <c r="DI10" s="329" t="s">
+      <c r="DI10" s="339" t="s">
         <v>230</v>
       </c>
-      <c r="DJ10" s="329"/>
-      <c r="DK10" s="329"/>
-      <c r="DL10" s="329"/>
-      <c r="DM10" s="329"/>
-      <c r="DN10" s="329"/>
-      <c r="DO10" s="329"/>
-      <c r="DP10" s="329"/>
-      <c r="DQ10" s="329"/>
-      <c r="DR10" s="329"/>
-      <c r="DS10" s="329"/>
-      <c r="DT10" s="329"/>
-      <c r="DU10" s="329"/>
-      <c r="DV10" s="329"/>
-      <c r="DW10" s="329"/>
-      <c r="DX10" s="329"/>
-      <c r="DY10" s="329"/>
-      <c r="DZ10" s="329"/>
-      <c r="EA10" s="329"/>
-      <c r="EB10" s="329"/>
-      <c r="EC10" s="329"/>
-      <c r="ED10" s="329"/>
-      <c r="EE10" s="329"/>
-      <c r="EF10" s="329"/>
+      <c r="DJ10" s="339"/>
+      <c r="DK10" s="339"/>
+      <c r="DL10" s="339"/>
+      <c r="DM10" s="339"/>
+      <c r="DN10" s="339"/>
+      <c r="DO10" s="339"/>
+      <c r="DP10" s="339"/>
+      <c r="DQ10" s="339"/>
+      <c r="DR10" s="339"/>
+      <c r="DS10" s="339"/>
+      <c r="DT10" s="339"/>
+      <c r="DU10" s="339"/>
+      <c r="DV10" s="339"/>
+      <c r="DW10" s="339"/>
+      <c r="DX10" s="339"/>
+      <c r="DY10" s="339"/>
+      <c r="DZ10" s="339"/>
+      <c r="EA10" s="339"/>
+      <c r="EB10" s="339"/>
+      <c r="EC10" s="339"/>
+      <c r="ED10" s="339"/>
+      <c r="EE10" s="339"/>
+      <c r="EF10" s="339"/>
     </row>
     <row r="11" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="283"/>
-      <c r="B11" s="274"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="274"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="240"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="240"/>
       <c r="I11" s="114" t="s">
         <v>261</v>
       </c>
@@ -20516,11 +20516,11 @@
       <c r="A12" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="274"/>
+      <c r="B12" s="240"/>
       <c r="D12" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="274"/>
+      <c r="E12" s="240"/>
       <c r="I12" s="154" t="s">
         <v>260</v>
       </c>
@@ -20532,11 +20532,11 @@
       <c r="A13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="274"/>
+      <c r="B13" s="240"/>
       <c r="D13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="274"/>
+      <c r="E13" s="240"/>
       <c r="I13" s="208" t="s">
         <v>370</v>
       </c>
@@ -20548,11 +20548,11 @@
       <c r="A14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="274"/>
+      <c r="B14" s="240"/>
       <c r="D14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="274"/>
+      <c r="E14" s="240"/>
       <c r="I14" s="112" t="s">
         <v>183</v>
       </c>
@@ -20562,9 +20562,9 @@
     </row>
     <row r="15" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="274"/>
+      <c r="B15" s="240"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="274"/>
+      <c r="E15" s="240"/>
       <c r="I15" s="113" t="s">
         <v>184</v>
       </c>
@@ -20573,10 +20573,10 @@
       </c>
     </row>
     <row r="16" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="284"/>
-      <c r="B16" s="274"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="274"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="240"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="240"/>
       <c r="I16" s="115" t="s">
         <v>259</v>
       </c>
@@ -20585,10 +20585,10 @@
       </c>
     </row>
     <row r="17" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="282"/>
-      <c r="B17" s="274"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="274"/>
+      <c r="A17" s="237"/>
+      <c r="B17" s="240"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="240"/>
       <c r="I17" s="110" t="s">
         <v>421</v>
       </c>
@@ -20597,10 +20597,10 @@
       </c>
     </row>
     <row r="18" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="282"/>
-      <c r="B18" s="274"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="274"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="240"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="240"/>
       <c r="I18" s="221" t="s">
         <v>436</v>
       </c>
@@ -20609,10 +20609,10 @@
       </c>
     </row>
     <row r="19" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="283"/>
-      <c r="B19" s="274"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="274"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="240"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="240"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -20621,10 +20621,10 @@
       </c>
     </row>
     <row r="20" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="282"/>
-      <c r="B20" s="274"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="274"/>
+      <c r="A20" s="237"/>
+      <c r="B20" s="240"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="240"/>
       <c r="I20" s="204" t="s">
         <v>114</v>
       </c>
@@ -20633,10 +20633,10 @@
       </c>
     </row>
     <row r="21" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="282"/>
-      <c r="B21" s="274"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="274"/>
+      <c r="A21" s="237"/>
+      <c r="B21" s="240"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="240"/>
       <c r="I21" s="217" t="s">
         <v>116</v>
       </c>
@@ -20645,354 +20645,354 @@
       </c>
     </row>
     <row r="22" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="282"/>
-      <c r="B22" s="274"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="274"/>
+      <c r="A22" s="237"/>
+      <c r="B22" s="240"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="240"/>
     </row>
     <row r="23" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="283"/>
-      <c r="B23" s="274"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="274"/>
+      <c r="A23" s="251"/>
+      <c r="B23" s="240"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="240"/>
     </row>
     <row r="24" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="284" t="s">
+      <c r="A24" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="274"/>
-      <c r="C24" s="332"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="274"/>
-      <c r="BL24" s="269" t="s">
+      <c r="B24" s="240"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="240"/>
+      <c r="BL24" s="289" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="282"/>
-      <c r="B25" s="274"/>
-      <c r="C25" s="332"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="274"/>
-      <c r="BL25" s="270"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="240"/>
+      <c r="C25" s="335"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="240"/>
+      <c r="BL25" s="290"/>
     </row>
     <row r="26" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="282"/>
-      <c r="B26" s="274"/>
-      <c r="C26" s="332"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="274"/>
-      <c r="BL26" s="270"/>
+      <c r="A26" s="237"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="240"/>
+      <c r="BL26" s="290"/>
     </row>
     <row r="27" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="291"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="332"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="274"/>
-      <c r="BL27" s="271"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="335"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="240"/>
+      <c r="BL27" s="291"/>
     </row>
     <row r="28" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="276" t="s">
+      <c r="A28" s="253" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="307" t="s">
+      <c r="B28" s="245" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="284"/>
-      <c r="E28" s="274"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="240"/>
     </row>
     <row r="29" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="277"/>
-      <c r="B29" s="308"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="274"/>
+      <c r="A29" s="243"/>
+      <c r="B29" s="246"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="240"/>
     </row>
     <row r="30" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="277"/>
-      <c r="B30" s="308"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="274"/>
+      <c r="A30" s="243"/>
+      <c r="B30" s="246"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="240"/>
     </row>
     <row r="31" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="280"/>
-      <c r="B31" s="308"/>
-      <c r="D31" s="283"/>
-      <c r="E31" s="274"/>
+      <c r="A31" s="254"/>
+      <c r="B31" s="246"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="240"/>
     </row>
     <row r="32" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="308"/>
+      <c r="B32" s="246"/>
       <c r="D32" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="274"/>
+      <c r="E32" s="240"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="308"/>
+      <c r="B33" s="246"/>
       <c r="D33" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="274"/>
+      <c r="E33" s="240"/>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="308"/>
+      <c r="B34" s="246"/>
       <c r="D34" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="274"/>
+      <c r="E34" s="240"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="308"/>
+      <c r="B35" s="246"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="274"/>
+      <c r="E35" s="240"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="279"/>
-      <c r="B36" s="308"/>
+      <c r="A36" s="242"/>
+      <c r="B36" s="246"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="274"/>
+      <c r="E36" s="240"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="277"/>
-      <c r="B37" s="308"/>
+      <c r="A37" s="243"/>
+      <c r="B37" s="246"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="274"/>
+      <c r="E37" s="240"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="277"/>
-      <c r="B38" s="308"/>
+      <c r="A38" s="243"/>
+      <c r="B38" s="246"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="274"/>
+      <c r="E38" s="240"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="287"/>
-      <c r="B39" s="309"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="247"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="274"/>
+      <c r="E39" s="240"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="315"/>
-      <c r="B40" s="304" t="s">
+      <c r="A40" s="248"/>
+      <c r="B40" s="232" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="288"/>
-      <c r="E40" s="274"/>
+      <c r="D40" s="255"/>
+      <c r="E40" s="240"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="302"/>
-      <c r="B41" s="305"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="274"/>
+      <c r="A41" s="249"/>
+      <c r="B41" s="233"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="240"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="302"/>
-      <c r="B42" s="305"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="274"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="233"/>
+      <c r="D42" s="256"/>
+      <c r="E42" s="240"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="316"/>
-      <c r="B43" s="305"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="274"/>
+      <c r="A43" s="250"/>
+      <c r="B43" s="233"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="240"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="305"/>
+      <c r="B44" s="233"/>
       <c r="D44" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="274"/>
+      <c r="E44" s="240"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="305"/>
+      <c r="B45" s="233"/>
       <c r="D45" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="274"/>
+      <c r="E45" s="240"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="305"/>
+      <c r="B46" s="233"/>
       <c r="D46" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="274"/>
+      <c r="E46" s="240"/>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="305"/>
+      <c r="B47" s="233"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="274"/>
+      <c r="E47" s="240"/>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="294" t="s">
+      <c r="A48" s="260" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="305"/>
-      <c r="D48" s="284" t="s">
+      <c r="B48" s="233"/>
+      <c r="D48" s="236" t="s">
         <v>334</v>
       </c>
-      <c r="E48" s="274"/>
+      <c r="E48" s="240"/>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="294"/>
-      <c r="B49" s="305"/>
-      <c r="D49" s="282"/>
-      <c r="E49" s="274"/>
+      <c r="A49" s="260"/>
+      <c r="B49" s="233"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="240"/>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="294"/>
-      <c r="B50" s="305"/>
-      <c r="D50" s="282"/>
-      <c r="E50" s="274"/>
+      <c r="A50" s="260"/>
+      <c r="B50" s="233"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="240"/>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
-      <c r="B51" s="306"/>
-      <c r="D51" s="283"/>
-      <c r="E51" s="275"/>
+      <c r="A51" s="261"/>
+      <c r="B51" s="234"/>
+      <c r="D51" s="251"/>
+      <c r="E51" s="241"/>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="317" t="s">
+      <c r="A52" s="269" t="s">
         <v>328</v>
       </c>
-      <c r="B52" s="297" t="s">
+      <c r="B52" s="263" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="282" t="s">
+      <c r="D52" s="237" t="s">
         <v>328</v>
       </c>
-      <c r="E52" s="310" t="s">
+      <c r="E52" s="283" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="318"/>
-      <c r="B53" s="298"/>
-      <c r="D53" s="282"/>
-      <c r="E53" s="311"/>
+      <c r="A53" s="270"/>
+      <c r="B53" s="264"/>
+      <c r="D53" s="237"/>
+      <c r="E53" s="284"/>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="318"/>
-      <c r="B54" s="298"/>
-      <c r="D54" s="282"/>
-      <c r="E54" s="311"/>
+      <c r="A54" s="270"/>
+      <c r="B54" s="264"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="284"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="318"/>
-      <c r="B55" s="298"/>
-      <c r="D55" s="283"/>
-      <c r="E55" s="311"/>
+      <c r="A55" s="270"/>
+      <c r="B55" s="264"/>
+      <c r="D55" s="251"/>
+      <c r="E55" s="284"/>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="319" t="s">
+      <c r="A56" s="271" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="298"/>
-      <c r="D56" s="284" t="s">
+      <c r="B56" s="264"/>
+      <c r="D56" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="311"/>
+      <c r="E56" s="284"/>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="320"/>
-      <c r="B57" s="298"/>
-      <c r="D57" s="282"/>
-      <c r="E57" s="311"/>
+      <c r="A57" s="272"/>
+      <c r="B57" s="264"/>
+      <c r="D57" s="237"/>
+      <c r="E57" s="284"/>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="320"/>
-      <c r="B58" s="298"/>
-      <c r="D58" s="282"/>
-      <c r="E58" s="311"/>
+      <c r="A58" s="272"/>
+      <c r="B58" s="264"/>
+      <c r="D58" s="237"/>
+      <c r="E58" s="284"/>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="322"/>
-      <c r="B59" s="298"/>
-      <c r="D59" s="283"/>
-      <c r="E59" s="311"/>
+      <c r="A59" s="274"/>
+      <c r="B59" s="264"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="284"/>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="319" t="s">
+      <c r="A60" s="271" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="298"/>
-      <c r="D60" s="284" t="s">
+      <c r="B60" s="264"/>
+      <c r="D60" s="236" t="s">
         <v>310</v>
       </c>
-      <c r="E60" s="311"/>
+      <c r="E60" s="284"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="320"/>
-      <c r="B61" s="298"/>
-      <c r="D61" s="282"/>
-      <c r="E61" s="311"/>
+      <c r="A61" s="272"/>
+      <c r="B61" s="264"/>
+      <c r="D61" s="237"/>
+      <c r="E61" s="284"/>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="320"/>
-      <c r="B62" s="298"/>
-      <c r="D62" s="282"/>
-      <c r="E62" s="311"/>
+      <c r="A62" s="272"/>
+      <c r="B62" s="264"/>
+      <c r="D62" s="237"/>
+      <c r="E62" s="284"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="321"/>
-      <c r="B63" s="299"/>
-      <c r="D63" s="291"/>
-      <c r="E63" s="312"/>
+      <c r="A63" s="273"/>
+      <c r="B63" s="265"/>
+      <c r="D63" s="238"/>
+      <c r="E63" s="285"/>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="300" t="s">
+      <c r="A64" s="266" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="304" t="s">
+      <c r="B64" s="232" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="292" t="s">
+      <c r="D64" s="258" t="s">
         <v>309</v>
       </c>
       <c r="E64" s="187"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="294"/>
-      <c r="B65" s="305"/>
-      <c r="D65" s="293"/>
+      <c r="A65" s="260"/>
+      <c r="B65" s="233"/>
+      <c r="D65" s="259"/>
       <c r="E65" s="188"/>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="294"/>
-      <c r="B66" s="305"/>
-      <c r="D66" s="293"/>
+      <c r="A66" s="260"/>
+      <c r="B66" s="233"/>
+      <c r="D66" s="259"/>
       <c r="E66" s="188"/>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="294"/>
-      <c r="B67" s="305"/>
-      <c r="D67" s="293"/>
+      <c r="A67" s="260"/>
+      <c r="B67" s="233"/>
+      <c r="D67" s="259"/>
       <c r="E67" s="188"/>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="305"/>
+      <c r="B68" s="233"/>
       <c r="D68" s="184" t="s">
         <v>268</v>
       </c>
@@ -21002,7 +21002,7 @@
       <c r="A69" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="305"/>
+      <c r="B69" s="233"/>
       <c r="D69" s="185" t="s">
         <v>268</v>
       </c>
@@ -21012,7 +21012,7 @@
       <c r="A70" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="305"/>
+      <c r="B70" s="233"/>
       <c r="D70" s="185" t="s">
         <v>268</v>
       </c>
@@ -21020,69 +21020,69 @@
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="305"/>
+      <c r="B71" s="233"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="301"/>
-      <c r="B72" s="305"/>
-      <c r="D72" s="293" t="s">
+      <c r="A72" s="267"/>
+      <c r="B72" s="233"/>
+      <c r="D72" s="259" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="188"/>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="302"/>
-      <c r="B73" s="305"/>
-      <c r="D73" s="293"/>
+      <c r="A73" s="249"/>
+      <c r="B73" s="233"/>
+      <c r="D73" s="259"/>
       <c r="E73" s="188"/>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="302"/>
-      <c r="B74" s="305"/>
-      <c r="D74" s="293"/>
+      <c r="A74" s="249"/>
+      <c r="B74" s="233"/>
+      <c r="D74" s="259"/>
       <c r="E74" s="188"/>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="303"/>
-      <c r="B75" s="306"/>
-      <c r="D75" s="296"/>
+      <c r="A75" s="268"/>
+      <c r="B75" s="234"/>
+      <c r="D75" s="262"/>
       <c r="E75" s="189"/>
     </row>
     <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="276"/>
-      <c r="B76" s="307" t="s">
+      <c r="A76" s="253"/>
+      <c r="B76" s="245" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="285" t="s">
+      <c r="D76" s="278" t="s">
         <v>331</v>
       </c>
       <c r="E76" s="187"/>
     </row>
     <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="277"/>
-      <c r="B77" s="308"/>
-      <c r="D77" s="286"/>
+      <c r="A77" s="243"/>
+      <c r="B77" s="246"/>
+      <c r="D77" s="279"/>
       <c r="E77" s="188"/>
     </row>
     <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="277"/>
-      <c r="B78" s="308"/>
-      <c r="D78" s="286"/>
+      <c r="A78" s="243"/>
+      <c r="B78" s="246"/>
+      <c r="D78" s="279"/>
       <c r="E78" s="188"/>
     </row>
     <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="277"/>
-      <c r="B79" s="308"/>
-      <c r="D79" s="286"/>
+      <c r="A79" s="243"/>
+      <c r="B79" s="246"/>
+      <c r="D79" s="279"/>
       <c r="E79" s="188"/>
     </row>
     <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="308"/>
+      <c r="B80" s="246"/>
       <c r="D80" s="178" t="s">
         <v>268</v>
       </c>
@@ -21092,7 +21092,7 @@
       <c r="A81" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="308"/>
+      <c r="B81" s="246"/>
       <c r="D81" s="179" t="s">
         <v>268</v>
       </c>
@@ -21102,7 +21102,7 @@
       <c r="A82" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="308"/>
+      <c r="B82" s="246"/>
       <c r="D82" s="179" t="s">
         <v>268</v>
       </c>
@@ -21110,60 +21110,60 @@
     </row>
     <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="308"/>
+      <c r="B83" s="246"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
     </row>
     <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="279"/>
-      <c r="B84" s="308"/>
-      <c r="D84" s="279"/>
+      <c r="A84" s="242"/>
+      <c r="B84" s="246"/>
+      <c r="D84" s="242"/>
       <c r="E84" s="188"/>
     </row>
     <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="277"/>
-      <c r="B85" s="308"/>
-      <c r="D85" s="277"/>
+      <c r="A85" s="243"/>
+      <c r="B85" s="246"/>
+      <c r="D85" s="243"/>
       <c r="E85" s="188"/>
     </row>
     <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="277"/>
-      <c r="B86" s="308"/>
-      <c r="D86" s="277"/>
+      <c r="A86" s="243"/>
+      <c r="B86" s="246"/>
+      <c r="D86" s="243"/>
       <c r="E86" s="188"/>
     </row>
     <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="280"/>
-      <c r="B87" s="308"/>
-      <c r="D87" s="280"/>
+      <c r="A87" s="254"/>
+      <c r="B87" s="246"/>
+      <c r="D87" s="254"/>
       <c r="E87" s="188"/>
     </row>
     <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="279" t="s">
+      <c r="A88" s="242" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="308"/>
-      <c r="D88" s="279" t="s">
+      <c r="B88" s="246"/>
+      <c r="D88" s="242" t="s">
         <v>308</v>
       </c>
       <c r="E88" s="188"/>
     </row>
     <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="277"/>
-      <c r="B89" s="308"/>
-      <c r="D89" s="277"/>
+      <c r="A89" s="243"/>
+      <c r="B89" s="246"/>
+      <c r="D89" s="243"/>
       <c r="E89" s="188"/>
     </row>
     <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="277"/>
-      <c r="B90" s="308"/>
-      <c r="D90" s="277"/>
+      <c r="A90" s="243"/>
+      <c r="B90" s="246"/>
+      <c r="D90" s="243"/>
       <c r="E90" s="188"/>
     </row>
     <row r="91" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="287"/>
-      <c r="B91" s="309"/>
-      <c r="D91" s="287"/>
+      <c r="A91" s="244"/>
+      <c r="B91" s="247"/>
+      <c r="D91" s="244"/>
       <c r="E91" s="189"/>
     </row>
     <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21254,6 +21254,94 @@
     <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="E3:E51"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="BV3:BV7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BB3:BB7"/>
+    <mergeCell ref="BC3:BC7"/>
+    <mergeCell ref="BD3:BD7"/>
+    <mergeCell ref="BE3:BE7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
+    <mergeCell ref="DI10:EF10"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="BR8:CW8"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DN3:DN7"/>
+    <mergeCell ref="DO3:DO7"/>
+    <mergeCell ref="DP3:DP7"/>
     <mergeCell ref="CF3:CF7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B27"/>
@@ -21278,94 +21366,6 @@
     <mergeCell ref="CJ3:CJ7"/>
     <mergeCell ref="CK3:CK7"/>
     <mergeCell ref="CL3:CL7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="DM3:DM7"/>
-    <mergeCell ref="DN3:DN7"/>
-    <mergeCell ref="DO3:DO7"/>
-    <mergeCell ref="DP3:DP7"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DF3:DF7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="DI10:EF10"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="BR8:CW8"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BB3:BB7"/>
-    <mergeCell ref="BC3:BC7"/>
-    <mergeCell ref="BD3:BD7"/>
-    <mergeCell ref="BE3:BE7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="E3:E51"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E52:E63"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="D64:D67"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" tabRatio="301" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" tabRatio="301" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="507">
   <si>
     <t>T0</t>
   </si>
@@ -1548,6 +1548,18 @@
   </si>
   <si>
     <t>RCH359</t>
+  </si>
+  <si>
+    <t>RCTA</t>
+  </si>
+  <si>
+    <t>RCTB</t>
+  </si>
+  <si>
+    <t>RCTA,RCTB</t>
+  </si>
+  <si>
+    <t>Rotation coeficient table line data</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3075,9 +3087,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3123,38 +3132,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3162,10 +3177,223 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3177,36 +3405,6 @@
     <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3216,265 +3414,88 @@
     <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3489,13 +3510,25 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7858,8 +7891,8 @@
   </sheetPr>
   <dimension ref="A1:EQ181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DF33" sqref="DF33"/>
+    <sheetView topLeftCell="DK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7878,14 +7911,14 @@
       <c r="B1" s="153"/>
     </row>
     <row r="2" spans="1:147" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="316" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="D2" s="231" t="s">
+      <c r="B2" s="316"/>
+      <c r="D2" s="316" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="231"/>
+      <c r="E2" s="316"/>
       <c r="F2" s="190" t="s">
         <v>335</v>
       </c>
@@ -8312,17 +8345,17 @@
       </c>
     </row>
     <row r="3" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="278" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="270" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="252" t="s">
+      <c r="C3" s="317"/>
+      <c r="D3" s="278" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="239" t="s">
+      <c r="E3" s="270" t="s">
         <v>267</v>
       </c>
       <c r="G3" s="129" t="s">
@@ -8448,198 +8481,202 @@
       <c r="BC3" s="122"/>
       <c r="BD3" s="85"/>
       <c r="BE3" s="122"/>
-      <c r="BF3" s="225" t="s">
+      <c r="BF3" s="323" t="s">
         <v>373</v>
       </c>
-      <c r="BG3" s="228" t="s">
+      <c r="BG3" s="229" t="s">
         <v>375</v>
       </c>
-      <c r="BH3" s="228" t="s">
+      <c r="BH3" s="229" t="s">
         <v>376</v>
       </c>
-      <c r="BI3" s="228" t="s">
+      <c r="BI3" s="229" t="s">
         <v>377</v>
       </c>
-      <c r="BJ3" s="228" t="s">
+      <c r="BJ3" s="229" t="s">
         <v>378</v>
       </c>
-      <c r="BK3" s="228" t="s">
+      <c r="BK3" s="229" t="s">
         <v>379</v>
       </c>
-      <c r="BL3" s="228" t="s">
+      <c r="BL3" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="BM3" s="228" t="s">
+      <c r="BM3" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="BN3" s="228" t="s">
+      <c r="BN3" s="229" t="s">
         <v>382</v>
       </c>
-      <c r="BO3" s="228" t="s">
+      <c r="BO3" s="229" t="s">
         <v>383</v>
       </c>
-      <c r="BP3" s="228" t="s">
+      <c r="BP3" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="BQ3" s="228" t="s">
+      <c r="BQ3" s="229" t="s">
         <v>385</v>
       </c>
-      <c r="BR3" s="228" t="s">
+      <c r="BR3" s="229" t="s">
         <v>386</v>
       </c>
-      <c r="BS3" s="228" t="s">
+      <c r="BS3" s="229" t="s">
         <v>387</v>
       </c>
-      <c r="BT3" s="228" t="s">
+      <c r="BT3" s="229" t="s">
         <v>388</v>
       </c>
-      <c r="BU3" s="228" t="s">
+      <c r="BU3" s="229" t="s">
         <v>389</v>
       </c>
-      <c r="BV3" s="228" t="s">
+      <c r="BV3" s="229" t="s">
         <v>390</v>
       </c>
-      <c r="BW3" s="228" t="s">
+      <c r="BW3" s="229" t="s">
         <v>391</v>
       </c>
-      <c r="BX3" s="228" t="s">
+      <c r="BX3" s="229" t="s">
         <v>392</v>
       </c>
-      <c r="BY3" s="228" t="s">
+      <c r="BY3" s="229" t="s">
         <v>393</v>
       </c>
-      <c r="BZ3" s="228" t="s">
+      <c r="BZ3" s="229" t="s">
         <v>394</v>
       </c>
-      <c r="CA3" s="228" t="s">
+      <c r="CA3" s="229" t="s">
         <v>395</v>
       </c>
-      <c r="CB3" s="228" t="s">
+      <c r="CB3" s="229" t="s">
         <v>396</v>
       </c>
-      <c r="CC3" s="286" t="s">
+      <c r="CC3" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="CD3" s="225" t="s">
+      <c r="CD3" s="323" t="s">
         <v>374</v>
       </c>
-      <c r="CE3" s="228" t="s">
+      <c r="CE3" s="229" t="s">
         <v>398</v>
       </c>
-      <c r="CF3" s="228" t="s">
+      <c r="CF3" s="229" t="s">
         <v>399</v>
       </c>
-      <c r="CG3" s="228" t="s">
+      <c r="CG3" s="229" t="s">
         <v>400</v>
       </c>
-      <c r="CH3" s="228" t="s">
+      <c r="CH3" s="229" t="s">
         <v>401</v>
       </c>
-      <c r="CI3" s="228" t="s">
+      <c r="CI3" s="229" t="s">
         <v>402</v>
       </c>
-      <c r="CJ3" s="228" t="s">
+      <c r="CJ3" s="229" t="s">
         <v>403</v>
       </c>
-      <c r="CK3" s="228" t="s">
+      <c r="CK3" s="229" t="s">
         <v>404</v>
       </c>
-      <c r="CL3" s="228" t="s">
+      <c r="CL3" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="CM3" s="228" t="s">
+      <c r="CM3" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="CN3" s="228" t="s">
+      <c r="CN3" s="229" t="s">
         <v>407</v>
       </c>
-      <c r="CO3" s="228" t="s">
+      <c r="CO3" s="229" t="s">
         <v>408</v>
       </c>
-      <c r="CP3" s="228" t="s">
+      <c r="CP3" s="229" t="s">
         <v>409</v>
       </c>
-      <c r="CQ3" s="228" t="s">
+      <c r="CQ3" s="229" t="s">
         <v>410</v>
       </c>
-      <c r="CR3" s="228" t="s">
+      <c r="CR3" s="229" t="s">
         <v>411</v>
       </c>
-      <c r="CS3" s="228" t="s">
+      <c r="CS3" s="229" t="s">
         <v>412</v>
       </c>
-      <c r="CT3" s="228" t="s">
+      <c r="CT3" s="229" t="s">
         <v>413</v>
       </c>
-      <c r="CU3" s="228" t="s">
+      <c r="CU3" s="229" t="s">
         <v>414</v>
       </c>
-      <c r="CV3" s="228" t="s">
+      <c r="CV3" s="229" t="s">
         <v>415</v>
       </c>
-      <c r="CW3" s="228" t="s">
+      <c r="CW3" s="229" t="s">
         <v>416</v>
       </c>
-      <c r="CX3" s="228" t="s">
+      <c r="CX3" s="229" t="s">
         <v>417</v>
       </c>
-      <c r="CY3" s="228" t="s">
+      <c r="CY3" s="229" t="s">
         <v>418</v>
       </c>
-      <c r="CZ3" s="228" t="s">
+      <c r="CZ3" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="DA3" s="286" t="s">
+      <c r="DA3" s="231" t="s">
         <v>420</v>
       </c>
-      <c r="DB3" s="329" t="s">
+      <c r="DB3" s="332" t="s">
         <v>188</v>
       </c>
-      <c r="DC3" s="332" t="s">
+      <c r="DC3" s="222" t="s">
         <v>188</v>
       </c>
-      <c r="DD3" s="332" t="s">
+      <c r="DD3" s="222" t="s">
         <v>188</v>
       </c>
-      <c r="DE3" s="332" t="s">
+      <c r="DE3" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="DF3" s="332" t="s">
+      <c r="DF3" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="DG3" s="317" t="s">
+      <c r="DG3" s="255" t="s">
         <v>189</v>
       </c>
-      <c r="DH3" s="323" t="s">
+      <c r="DH3" s="326" t="s">
         <v>433</v>
       </c>
-      <c r="DI3" s="326" t="s">
+      <c r="DI3" s="329" t="s">
         <v>434</v>
       </c>
-      <c r="DJ3" s="222" t="s">
+      <c r="DJ3" s="320" t="s">
         <v>366</v>
       </c>
-      <c r="DK3" s="320" t="s">
+      <c r="DK3" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="DL3" s="137"/>
-      <c r="DM3" s="64"/>
-      <c r="DN3" s="206"/>
+      <c r="DL3" s="342" t="s">
+        <v>503</v>
+      </c>
+      <c r="DM3" s="343" t="s">
+        <v>504</v>
+      </c>
+      <c r="DN3" s="205"/>
       <c r="DO3" s="14"/>
       <c r="DP3" s="64"/>
-      <c r="DQ3" s="306" t="s">
+      <c r="DQ3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DR3" s="306" t="s">
+      <c r="DR3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DS3" s="306" t="s">
+      <c r="DS3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DT3" s="306" t="s">
+      <c r="DT3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DU3" s="309" t="s">
+      <c r="DU3" s="247" t="s">
         <v>116</v>
       </c>
       <c r="DV3" s="161"/>
@@ -8678,11 +8715,11 @@
       </c>
     </row>
     <row r="4" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="237"/>
-      <c r="B4" s="240"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="240"/>
+      <c r="A4" s="279"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="271"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -8812,74 +8849,74 @@
       <c r="BC4" s="117"/>
       <c r="BD4" s="118"/>
       <c r="BE4" s="117"/>
-      <c r="BF4" s="226"/>
-      <c r="BG4" s="229"/>
-      <c r="BH4" s="229"/>
-      <c r="BI4" s="229"/>
-      <c r="BJ4" s="229"/>
-      <c r="BK4" s="229"/>
-      <c r="BL4" s="229"/>
-      <c r="BM4" s="229"/>
-      <c r="BN4" s="229"/>
-      <c r="BO4" s="229"/>
-      <c r="BP4" s="229"/>
-      <c r="BQ4" s="229"/>
-      <c r="BR4" s="229"/>
-      <c r="BS4" s="229"/>
-      <c r="BT4" s="229"/>
-      <c r="BU4" s="229"/>
-      <c r="BV4" s="229"/>
-      <c r="BW4" s="229"/>
-      <c r="BX4" s="229"/>
-      <c r="BY4" s="229"/>
-      <c r="BZ4" s="229"/>
-      <c r="CA4" s="229"/>
-      <c r="CB4" s="229"/>
-      <c r="CC4" s="287"/>
-      <c r="CD4" s="226"/>
-      <c r="CE4" s="229"/>
-      <c r="CF4" s="229"/>
-      <c r="CG4" s="229"/>
-      <c r="CH4" s="229"/>
-      <c r="CI4" s="229"/>
-      <c r="CJ4" s="229"/>
-      <c r="CK4" s="229"/>
-      <c r="CL4" s="229"/>
-      <c r="CM4" s="229"/>
-      <c r="CN4" s="229"/>
-      <c r="CO4" s="229"/>
-      <c r="CP4" s="229"/>
-      <c r="CQ4" s="229"/>
-      <c r="CR4" s="229"/>
-      <c r="CS4" s="229"/>
-      <c r="CT4" s="229"/>
-      <c r="CU4" s="229"/>
-      <c r="CV4" s="229"/>
-      <c r="CW4" s="229"/>
-      <c r="CX4" s="229"/>
-      <c r="CY4" s="229"/>
-      <c r="CZ4" s="229"/>
-      <c r="DA4" s="287"/>
-      <c r="DB4" s="330"/>
-      <c r="DC4" s="333"/>
-      <c r="DD4" s="333"/>
-      <c r="DE4" s="333"/>
-      <c r="DF4" s="333"/>
-      <c r="DG4" s="318"/>
-      <c r="DH4" s="324"/>
-      <c r="DI4" s="327"/>
-      <c r="DJ4" s="223"/>
-      <c r="DK4" s="321"/>
-      <c r="DL4" s="131"/>
-      <c r="DM4" s="20"/>
-      <c r="DN4" s="207"/>
-      <c r="DO4" s="202"/>
+      <c r="BF4" s="324"/>
+      <c r="BG4" s="230"/>
+      <c r="BH4" s="230"/>
+      <c r="BI4" s="230"/>
+      <c r="BJ4" s="230"/>
+      <c r="BK4" s="230"/>
+      <c r="BL4" s="230"/>
+      <c r="BM4" s="230"/>
+      <c r="BN4" s="230"/>
+      <c r="BO4" s="230"/>
+      <c r="BP4" s="230"/>
+      <c r="BQ4" s="230"/>
+      <c r="BR4" s="230"/>
+      <c r="BS4" s="230"/>
+      <c r="BT4" s="230"/>
+      <c r="BU4" s="230"/>
+      <c r="BV4" s="230"/>
+      <c r="BW4" s="230"/>
+      <c r="BX4" s="230"/>
+      <c r="BY4" s="230"/>
+      <c r="BZ4" s="230"/>
+      <c r="CA4" s="230"/>
+      <c r="CB4" s="230"/>
+      <c r="CC4" s="232"/>
+      <c r="CD4" s="324"/>
+      <c r="CE4" s="230"/>
+      <c r="CF4" s="230"/>
+      <c r="CG4" s="230"/>
+      <c r="CH4" s="230"/>
+      <c r="CI4" s="230"/>
+      <c r="CJ4" s="230"/>
+      <c r="CK4" s="230"/>
+      <c r="CL4" s="230"/>
+      <c r="CM4" s="230"/>
+      <c r="CN4" s="230"/>
+      <c r="CO4" s="230"/>
+      <c r="CP4" s="230"/>
+      <c r="CQ4" s="230"/>
+      <c r="CR4" s="230"/>
+      <c r="CS4" s="230"/>
+      <c r="CT4" s="230"/>
+      <c r="CU4" s="230"/>
+      <c r="CV4" s="230"/>
+      <c r="CW4" s="230"/>
+      <c r="CX4" s="230"/>
+      <c r="CY4" s="230"/>
+      <c r="CZ4" s="230"/>
+      <c r="DA4" s="232"/>
+      <c r="DB4" s="333"/>
+      <c r="DC4" s="223"/>
+      <c r="DD4" s="223"/>
+      <c r="DE4" s="223"/>
+      <c r="DF4" s="223"/>
+      <c r="DG4" s="256"/>
+      <c r="DH4" s="327"/>
+      <c r="DI4" s="330"/>
+      <c r="DJ4" s="321"/>
+      <c r="DK4" s="259"/>
+      <c r="DL4" s="344"/>
+      <c r="DM4" s="345"/>
+      <c r="DN4" s="206"/>
+      <c r="DO4" s="201"/>
       <c r="DP4" s="20"/>
-      <c r="DQ4" s="307"/>
-      <c r="DR4" s="307"/>
-      <c r="DS4" s="307"/>
-      <c r="DT4" s="307"/>
-      <c r="DU4" s="310"/>
+      <c r="DQ4" s="244"/>
+      <c r="DR4" s="244"/>
+      <c r="DS4" s="244"/>
+      <c r="DT4" s="244"/>
+      <c r="DU4" s="248"/>
       <c r="DV4" s="143"/>
       <c r="DW4" s="155"/>
       <c r="DX4" s="155"/>
@@ -8908,11 +8945,11 @@
       </c>
     </row>
     <row r="5" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="240"/>
+      <c r="A5" s="279"/>
+      <c r="B5" s="271"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="271"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -9002,74 +9039,74 @@
       <c r="BC5" s="117"/>
       <c r="BD5" s="118"/>
       <c r="BE5" s="117"/>
-      <c r="BF5" s="226"/>
-      <c r="BG5" s="229"/>
-      <c r="BH5" s="229"/>
-      <c r="BI5" s="229"/>
-      <c r="BJ5" s="229"/>
-      <c r="BK5" s="229"/>
-      <c r="BL5" s="229"/>
-      <c r="BM5" s="229"/>
-      <c r="BN5" s="229"/>
-      <c r="BO5" s="229"/>
-      <c r="BP5" s="229"/>
-      <c r="BQ5" s="229"/>
-      <c r="BR5" s="229"/>
-      <c r="BS5" s="229"/>
-      <c r="BT5" s="229"/>
-      <c r="BU5" s="229"/>
-      <c r="BV5" s="229"/>
-      <c r="BW5" s="229"/>
-      <c r="BX5" s="229"/>
-      <c r="BY5" s="229"/>
-      <c r="BZ5" s="229"/>
-      <c r="CA5" s="229"/>
-      <c r="CB5" s="229"/>
-      <c r="CC5" s="287"/>
-      <c r="CD5" s="226"/>
-      <c r="CE5" s="229"/>
-      <c r="CF5" s="229"/>
-      <c r="CG5" s="229"/>
-      <c r="CH5" s="229"/>
-      <c r="CI5" s="229"/>
-      <c r="CJ5" s="229"/>
-      <c r="CK5" s="229"/>
-      <c r="CL5" s="229"/>
-      <c r="CM5" s="229"/>
-      <c r="CN5" s="229"/>
-      <c r="CO5" s="229"/>
-      <c r="CP5" s="229"/>
-      <c r="CQ5" s="229"/>
-      <c r="CR5" s="229"/>
-      <c r="CS5" s="229"/>
-      <c r="CT5" s="229"/>
-      <c r="CU5" s="229"/>
-      <c r="CV5" s="229"/>
-      <c r="CW5" s="229"/>
-      <c r="CX5" s="229"/>
-      <c r="CY5" s="229"/>
-      <c r="CZ5" s="229"/>
-      <c r="DA5" s="287"/>
-      <c r="DB5" s="330"/>
-      <c r="DC5" s="333"/>
-      <c r="DD5" s="333"/>
-      <c r="DE5" s="333"/>
-      <c r="DF5" s="333"/>
-      <c r="DG5" s="318"/>
-      <c r="DH5" s="324"/>
-      <c r="DI5" s="327"/>
-      <c r="DJ5" s="223"/>
-      <c r="DK5" s="321"/>
-      <c r="DL5" s="131"/>
-      <c r="DM5" s="20"/>
+      <c r="BF5" s="324"/>
+      <c r="BG5" s="230"/>
+      <c r="BH5" s="230"/>
+      <c r="BI5" s="230"/>
+      <c r="BJ5" s="230"/>
+      <c r="BK5" s="230"/>
+      <c r="BL5" s="230"/>
+      <c r="BM5" s="230"/>
+      <c r="BN5" s="230"/>
+      <c r="BO5" s="230"/>
+      <c r="BP5" s="230"/>
+      <c r="BQ5" s="230"/>
+      <c r="BR5" s="230"/>
+      <c r="BS5" s="230"/>
+      <c r="BT5" s="230"/>
+      <c r="BU5" s="230"/>
+      <c r="BV5" s="230"/>
+      <c r="BW5" s="230"/>
+      <c r="BX5" s="230"/>
+      <c r="BY5" s="230"/>
+      <c r="BZ5" s="230"/>
+      <c r="CA5" s="230"/>
+      <c r="CB5" s="230"/>
+      <c r="CC5" s="232"/>
+      <c r="CD5" s="324"/>
+      <c r="CE5" s="230"/>
+      <c r="CF5" s="230"/>
+      <c r="CG5" s="230"/>
+      <c r="CH5" s="230"/>
+      <c r="CI5" s="230"/>
+      <c r="CJ5" s="230"/>
+      <c r="CK5" s="230"/>
+      <c r="CL5" s="230"/>
+      <c r="CM5" s="230"/>
+      <c r="CN5" s="230"/>
+      <c r="CO5" s="230"/>
+      <c r="CP5" s="230"/>
+      <c r="CQ5" s="230"/>
+      <c r="CR5" s="230"/>
+      <c r="CS5" s="230"/>
+      <c r="CT5" s="230"/>
+      <c r="CU5" s="230"/>
+      <c r="CV5" s="230"/>
+      <c r="CW5" s="230"/>
+      <c r="CX5" s="230"/>
+      <c r="CY5" s="230"/>
+      <c r="CZ5" s="230"/>
+      <c r="DA5" s="232"/>
+      <c r="DB5" s="333"/>
+      <c r="DC5" s="223"/>
+      <c r="DD5" s="223"/>
+      <c r="DE5" s="223"/>
+      <c r="DF5" s="223"/>
+      <c r="DG5" s="256"/>
+      <c r="DH5" s="327"/>
+      <c r="DI5" s="330"/>
+      <c r="DJ5" s="321"/>
+      <c r="DK5" s="259"/>
+      <c r="DL5" s="344"/>
+      <c r="DM5" s="345"/>
       <c r="DN5" s="143"/>
       <c r="DO5" s="30"/>
-      <c r="DP5" s="211"/>
-      <c r="DQ5" s="307"/>
-      <c r="DR5" s="307"/>
-      <c r="DS5" s="307"/>
-      <c r="DT5" s="307"/>
-      <c r="DU5" s="310"/>
+      <c r="DP5" s="210"/>
+      <c r="DQ5" s="244"/>
+      <c r="DR5" s="244"/>
+      <c r="DS5" s="244"/>
+      <c r="DT5" s="244"/>
+      <c r="DU5" s="248"/>
       <c r="DV5" s="133" t="s">
         <v>191</v>
       </c>
@@ -9138,79 +9175,79 @@
       </c>
     </row>
     <row r="6" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
-      <c r="B6" s="240"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="240"/>
-      <c r="G6" s="214" t="s">
+      <c r="A6" s="279"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="317"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="271"/>
+      <c r="G6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="215" t="s">
+      <c r="H6" s="214" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="216" t="s">
+      <c r="I6" s="215" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="214" t="s">
+      <c r="J6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="214" t="s">
+      <c r="K6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="L6" s="214" t="s">
+      <c r="L6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="214" t="s">
+      <c r="M6" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="N6" s="214" t="s">
+      <c r="N6" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="214" t="s">
+      <c r="O6" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="215" t="s">
+      <c r="P6" s="214" t="s">
         <v>217</v>
       </c>
-      <c r="Q6" s="216" t="s">
+      <c r="Q6" s="215" t="s">
         <v>217</v>
       </c>
       <c r="R6" s="138"/>
-      <c r="S6" s="216" t="s">
+      <c r="S6" s="215" t="s">
         <v>218</v>
       </c>
-      <c r="T6" s="214" t="s">
+      <c r="T6" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="U6" s="214" t="s">
+      <c r="U6" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="V6" s="214" t="s">
+      <c r="V6" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="W6" s="214" t="s">
+      <c r="W6" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="X6" s="214" t="s">
+      <c r="X6" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="Y6" s="214" t="s">
+      <c r="Y6" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="Z6" s="215" t="s">
+      <c r="Z6" s="214" t="s">
         <v>219</v>
       </c>
-      <c r="AA6" s="216" t="s">
+      <c r="AA6" s="215" t="s">
         <v>219</v>
       </c>
-      <c r="AB6" s="214" t="s">
+      <c r="AB6" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="AC6" s="214" t="s">
+      <c r="AC6" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="AD6" s="214" t="s">
+      <c r="AD6" s="213" t="s">
         <v>219</v>
       </c>
       <c r="AE6" s="30"/>
@@ -9218,170 +9255,170 @@
       <c r="AG6" s="30"/>
       <c r="AH6" s="144"/>
       <c r="AI6" s="131"/>
-      <c r="AJ6" s="203"/>
-      <c r="AK6" s="203"/>
-      <c r="AL6" s="203"/>
-      <c r="AM6" s="203"/>
-      <c r="AN6" s="203"/>
-      <c r="AO6" s="203"/>
+      <c r="AJ6" s="202"/>
+      <c r="AK6" s="202"/>
+      <c r="AL6" s="202"/>
+      <c r="AM6" s="202"/>
+      <c r="AN6" s="202"/>
+      <c r="AO6" s="202"/>
       <c r="AP6" s="138"/>
       <c r="AQ6" s="131"/>
-      <c r="AR6" s="203"/>
-      <c r="AS6" s="203"/>
-      <c r="AT6" s="203"/>
-      <c r="AU6" s="203"/>
-      <c r="AV6" s="203"/>
+      <c r="AR6" s="202"/>
+      <c r="AS6" s="202"/>
+      <c r="AT6" s="202"/>
+      <c r="AU6" s="202"/>
+      <c r="AV6" s="202"/>
       <c r="AW6" s="20"/>
       <c r="AX6" s="138"/>
       <c r="AY6" s="117"/>
-      <c r="AZ6" s="203"/>
+      <c r="AZ6" s="202"/>
       <c r="BA6" s="117"/>
-      <c r="BB6" s="203"/>
+      <c r="BB6" s="202"/>
       <c r="BC6" s="117"/>
-      <c r="BD6" s="203"/>
+      <c r="BD6" s="202"/>
       <c r="BE6" s="117"/>
-      <c r="BF6" s="226"/>
-      <c r="BG6" s="229"/>
-      <c r="BH6" s="229"/>
-      <c r="BI6" s="229"/>
-      <c r="BJ6" s="229"/>
-      <c r="BK6" s="229"/>
-      <c r="BL6" s="229"/>
-      <c r="BM6" s="229"/>
-      <c r="BN6" s="229"/>
-      <c r="BO6" s="229"/>
-      <c r="BP6" s="229"/>
-      <c r="BQ6" s="229"/>
-      <c r="BR6" s="229"/>
-      <c r="BS6" s="229"/>
-      <c r="BT6" s="229"/>
-      <c r="BU6" s="229"/>
-      <c r="BV6" s="229"/>
-      <c r="BW6" s="229"/>
-      <c r="BX6" s="229"/>
-      <c r="BY6" s="229"/>
-      <c r="BZ6" s="229"/>
-      <c r="CA6" s="229"/>
-      <c r="CB6" s="229"/>
-      <c r="CC6" s="287"/>
-      <c r="CD6" s="226"/>
-      <c r="CE6" s="229"/>
-      <c r="CF6" s="229"/>
-      <c r="CG6" s="229"/>
-      <c r="CH6" s="229"/>
-      <c r="CI6" s="229"/>
-      <c r="CJ6" s="229"/>
-      <c r="CK6" s="229"/>
-      <c r="CL6" s="229"/>
-      <c r="CM6" s="229"/>
-      <c r="CN6" s="229"/>
-      <c r="CO6" s="229"/>
-      <c r="CP6" s="229"/>
-      <c r="CQ6" s="229"/>
-      <c r="CR6" s="229"/>
-      <c r="CS6" s="229"/>
-      <c r="CT6" s="229"/>
-      <c r="CU6" s="229"/>
-      <c r="CV6" s="229"/>
-      <c r="CW6" s="229"/>
-      <c r="CX6" s="229"/>
-      <c r="CY6" s="229"/>
-      <c r="CZ6" s="229"/>
-      <c r="DA6" s="287"/>
-      <c r="DB6" s="330"/>
-      <c r="DC6" s="333"/>
-      <c r="DD6" s="333"/>
-      <c r="DE6" s="333"/>
-      <c r="DF6" s="333"/>
-      <c r="DG6" s="318"/>
-      <c r="DH6" s="324"/>
-      <c r="DI6" s="327"/>
-      <c r="DJ6" s="223"/>
-      <c r="DK6" s="321"/>
-      <c r="DL6" s="131"/>
-      <c r="DM6" s="20"/>
+      <c r="BF6" s="324"/>
+      <c r="BG6" s="230"/>
+      <c r="BH6" s="230"/>
+      <c r="BI6" s="230"/>
+      <c r="BJ6" s="230"/>
+      <c r="BK6" s="230"/>
+      <c r="BL6" s="230"/>
+      <c r="BM6" s="230"/>
+      <c r="BN6" s="230"/>
+      <c r="BO6" s="230"/>
+      <c r="BP6" s="230"/>
+      <c r="BQ6" s="230"/>
+      <c r="BR6" s="230"/>
+      <c r="BS6" s="230"/>
+      <c r="BT6" s="230"/>
+      <c r="BU6" s="230"/>
+      <c r="BV6" s="230"/>
+      <c r="BW6" s="230"/>
+      <c r="BX6" s="230"/>
+      <c r="BY6" s="230"/>
+      <c r="BZ6" s="230"/>
+      <c r="CA6" s="230"/>
+      <c r="CB6" s="230"/>
+      <c r="CC6" s="232"/>
+      <c r="CD6" s="324"/>
+      <c r="CE6" s="230"/>
+      <c r="CF6" s="230"/>
+      <c r="CG6" s="230"/>
+      <c r="CH6" s="230"/>
+      <c r="CI6" s="230"/>
+      <c r="CJ6" s="230"/>
+      <c r="CK6" s="230"/>
+      <c r="CL6" s="230"/>
+      <c r="CM6" s="230"/>
+      <c r="CN6" s="230"/>
+      <c r="CO6" s="230"/>
+      <c r="CP6" s="230"/>
+      <c r="CQ6" s="230"/>
+      <c r="CR6" s="230"/>
+      <c r="CS6" s="230"/>
+      <c r="CT6" s="230"/>
+      <c r="CU6" s="230"/>
+      <c r="CV6" s="230"/>
+      <c r="CW6" s="230"/>
+      <c r="CX6" s="230"/>
+      <c r="CY6" s="230"/>
+      <c r="CZ6" s="230"/>
+      <c r="DA6" s="232"/>
+      <c r="DB6" s="333"/>
+      <c r="DC6" s="223"/>
+      <c r="DD6" s="223"/>
+      <c r="DE6" s="223"/>
+      <c r="DF6" s="223"/>
+      <c r="DG6" s="256"/>
+      <c r="DH6" s="327"/>
+      <c r="DI6" s="330"/>
+      <c r="DJ6" s="321"/>
+      <c r="DK6" s="259"/>
+      <c r="DL6" s="344"/>
+      <c r="DM6" s="345"/>
       <c r="DN6" s="143"/>
       <c r="DO6" s="30"/>
-      <c r="DP6" s="211"/>
-      <c r="DQ6" s="276"/>
-      <c r="DR6" s="276"/>
-      <c r="DS6" s="276"/>
-      <c r="DT6" s="276"/>
-      <c r="DU6" s="311"/>
+      <c r="DP6" s="210"/>
+      <c r="DQ6" s="245"/>
+      <c r="DR6" s="245"/>
+      <c r="DS6" s="245"/>
+      <c r="DT6" s="245"/>
+      <c r="DU6" s="249"/>
       <c r="DV6" s="143"/>
       <c r="DW6" s="30"/>
-      <c r="DX6" s="211"/>
+      <c r="DX6" s="210"/>
       <c r="DY6" s="30"/>
-      <c r="DZ6" s="214" t="s">
+      <c r="DZ6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EA6" s="214" t="s">
+      <c r="EA6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EB6" s="214" t="s">
+      <c r="EB6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EC6" s="215" t="s">
+      <c r="EC6" s="214" t="s">
         <v>214</v>
       </c>
-      <c r="ED6" s="216" t="s">
+      <c r="ED6" s="215" t="s">
         <v>214</v>
       </c>
-      <c r="EE6" s="214" t="s">
+      <c r="EE6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EF6" s="214" t="s">
+      <c r="EF6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EG6" s="214" t="s">
+      <c r="EG6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EH6" s="214" t="s">
+      <c r="EH6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EI6" s="214" t="s">
+      <c r="EI6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EJ6" s="214" t="s">
+      <c r="EJ6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EK6" s="215" t="s">
+      <c r="EK6" s="214" t="s">
         <v>215</v>
       </c>
-      <c r="EL6" s="216" t="s">
+      <c r="EL6" s="215" t="s">
         <v>215</v>
       </c>
-      <c r="EM6" s="214" t="s">
+      <c r="EM6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EN6" s="214" t="s">
+      <c r="EN6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EO6" s="214" t="s">
+      <c r="EO6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EP6" s="214" t="s">
+      <c r="EP6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="EQ6" s="214" t="s">
+      <c r="EQ6" s="213" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="251"/>
-      <c r="B7" s="240"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="240"/>
+      <c r="A7" s="280"/>
+      <c r="B7" s="271"/>
+      <c r="C7" s="317"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="271"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
-      <c r="I7" s="209" t="s">
+      <c r="I7" s="208" t="s">
         <v>423</v>
       </c>
-      <c r="J7" s="210" t="s">
+      <c r="J7" s="209" t="s">
         <v>423</v>
       </c>
-      <c r="K7" s="210" t="s">
+      <c r="K7" s="209" t="s">
         <v>423</v>
       </c>
       <c r="L7" s="145"/>
@@ -9389,17 +9426,17 @@
       <c r="N7" s="145"/>
       <c r="O7" s="145"/>
       <c r="P7" s="146"/>
-      <c r="Q7" s="213"/>
+      <c r="Q7" s="212"/>
       <c r="R7" s="138" t="s">
         <v>150</v>
       </c>
-      <c r="S7" s="209" t="s">
+      <c r="S7" s="208" t="s">
         <v>424</v>
       </c>
-      <c r="T7" s="210" t="s">
+      <c r="T7" s="209" t="s">
         <v>424</v>
       </c>
-      <c r="U7" s="210" t="s">
+      <c r="U7" s="209" t="s">
         <v>424</v>
       </c>
       <c r="V7" s="145"/>
@@ -9438,87 +9475,87 @@
       <c r="BC7" s="123"/>
       <c r="BD7" s="119"/>
       <c r="BE7" s="123"/>
-      <c r="BF7" s="227"/>
-      <c r="BG7" s="230"/>
-      <c r="BH7" s="230"/>
-      <c r="BI7" s="230"/>
-      <c r="BJ7" s="230"/>
-      <c r="BK7" s="230"/>
-      <c r="BL7" s="230"/>
-      <c r="BM7" s="230"/>
-      <c r="BN7" s="230"/>
-      <c r="BO7" s="230"/>
-      <c r="BP7" s="230"/>
-      <c r="BQ7" s="230"/>
-      <c r="BR7" s="230"/>
-      <c r="BS7" s="230"/>
-      <c r="BT7" s="230"/>
-      <c r="BU7" s="230"/>
-      <c r="BV7" s="230"/>
-      <c r="BW7" s="230"/>
-      <c r="BX7" s="230"/>
-      <c r="BY7" s="230"/>
-      <c r="BZ7" s="230"/>
-      <c r="CA7" s="230"/>
-      <c r="CB7" s="230"/>
-      <c r="CC7" s="288"/>
-      <c r="CD7" s="226"/>
-      <c r="CE7" s="229"/>
-      <c r="CF7" s="229"/>
-      <c r="CG7" s="229"/>
-      <c r="CH7" s="229"/>
-      <c r="CI7" s="229"/>
-      <c r="CJ7" s="229"/>
-      <c r="CK7" s="229"/>
-      <c r="CL7" s="229"/>
-      <c r="CM7" s="229"/>
-      <c r="CN7" s="229"/>
-      <c r="CO7" s="229"/>
-      <c r="CP7" s="229"/>
-      <c r="CQ7" s="229"/>
-      <c r="CR7" s="229"/>
-      <c r="CS7" s="229"/>
-      <c r="CT7" s="229"/>
-      <c r="CU7" s="229"/>
-      <c r="CV7" s="229"/>
-      <c r="CW7" s="229"/>
-      <c r="CX7" s="229"/>
-      <c r="CY7" s="229"/>
-      <c r="CZ7" s="229"/>
-      <c r="DA7" s="287"/>
-      <c r="DB7" s="331"/>
-      <c r="DC7" s="334"/>
-      <c r="DD7" s="334"/>
-      <c r="DE7" s="334"/>
-      <c r="DF7" s="334"/>
-      <c r="DG7" s="319"/>
-      <c r="DH7" s="325"/>
-      <c r="DI7" s="328"/>
-      <c r="DJ7" s="224"/>
-      <c r="DK7" s="322"/>
-      <c r="DL7" s="141"/>
-      <c r="DM7" s="148"/>
-      <c r="DN7" s="209" t="s">
+      <c r="BF7" s="325"/>
+      <c r="BG7" s="264"/>
+      <c r="BH7" s="264"/>
+      <c r="BI7" s="264"/>
+      <c r="BJ7" s="264"/>
+      <c r="BK7" s="264"/>
+      <c r="BL7" s="264"/>
+      <c r="BM7" s="264"/>
+      <c r="BN7" s="264"/>
+      <c r="BO7" s="264"/>
+      <c r="BP7" s="264"/>
+      <c r="BQ7" s="264"/>
+      <c r="BR7" s="264"/>
+      <c r="BS7" s="264"/>
+      <c r="BT7" s="264"/>
+      <c r="BU7" s="264"/>
+      <c r="BV7" s="264"/>
+      <c r="BW7" s="264"/>
+      <c r="BX7" s="264"/>
+      <c r="BY7" s="264"/>
+      <c r="BZ7" s="264"/>
+      <c r="CA7" s="264"/>
+      <c r="CB7" s="264"/>
+      <c r="CC7" s="265"/>
+      <c r="CD7" s="324"/>
+      <c r="CE7" s="230"/>
+      <c r="CF7" s="230"/>
+      <c r="CG7" s="230"/>
+      <c r="CH7" s="230"/>
+      <c r="CI7" s="230"/>
+      <c r="CJ7" s="230"/>
+      <c r="CK7" s="230"/>
+      <c r="CL7" s="230"/>
+      <c r="CM7" s="230"/>
+      <c r="CN7" s="230"/>
+      <c r="CO7" s="230"/>
+      <c r="CP7" s="230"/>
+      <c r="CQ7" s="230"/>
+      <c r="CR7" s="230"/>
+      <c r="CS7" s="230"/>
+      <c r="CT7" s="230"/>
+      <c r="CU7" s="230"/>
+      <c r="CV7" s="230"/>
+      <c r="CW7" s="230"/>
+      <c r="CX7" s="230"/>
+      <c r="CY7" s="230"/>
+      <c r="CZ7" s="230"/>
+      <c r="DA7" s="232"/>
+      <c r="DB7" s="334"/>
+      <c r="DC7" s="224"/>
+      <c r="DD7" s="224"/>
+      <c r="DE7" s="224"/>
+      <c r="DF7" s="224"/>
+      <c r="DG7" s="257"/>
+      <c r="DH7" s="328"/>
+      <c r="DI7" s="331"/>
+      <c r="DJ7" s="322"/>
+      <c r="DK7" s="260"/>
+      <c r="DL7" s="346"/>
+      <c r="DM7" s="347"/>
+      <c r="DN7" s="208" t="s">
         <v>368</v>
       </c>
-      <c r="DO7" s="210" t="s">
+      <c r="DO7" s="209" t="s">
         <v>368</v>
       </c>
-      <c r="DP7" s="212" t="s">
+      <c r="DP7" s="211" t="s">
         <v>368</v>
       </c>
-      <c r="DQ7" s="308"/>
-      <c r="DR7" s="308"/>
-      <c r="DS7" s="308"/>
-      <c r="DT7" s="308"/>
-      <c r="DU7" s="312"/>
-      <c r="DV7" s="209" t="s">
+      <c r="DQ7" s="246"/>
+      <c r="DR7" s="246"/>
+      <c r="DS7" s="246"/>
+      <c r="DT7" s="246"/>
+      <c r="DU7" s="250"/>
+      <c r="DV7" s="208" t="s">
         <v>371</v>
       </c>
-      <c r="DW7" s="210" t="s">
+      <c r="DW7" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="DX7" s="212" t="s">
+      <c r="DX7" s="211" t="s">
         <v>371</v>
       </c>
       <c r="DY7" s="139"/>
@@ -9526,13 +9563,13 @@
       <c r="EA7" s="145"/>
       <c r="EB7" s="145"/>
       <c r="EC7" s="146"/>
-      <c r="ED7" s="209" t="s">
+      <c r="ED7" s="208" t="s">
         <v>425</v>
       </c>
-      <c r="EE7" s="210" t="s">
+      <c r="EE7" s="209" t="s">
         <v>425</v>
       </c>
-      <c r="EF7" s="212" t="s">
+      <c r="EF7" s="211" t="s">
         <v>425</v>
       </c>
       <c r="EG7" s="145"/>
@@ -9540,13 +9577,13 @@
       <c r="EI7" s="145"/>
       <c r="EJ7" s="145"/>
       <c r="EK7" s="146"/>
-      <c r="EL7" s="209" t="s">
+      <c r="EL7" s="208" t="s">
         <v>426</v>
       </c>
-      <c r="EM7" s="210" t="s">
+      <c r="EM7" s="209" t="s">
         <v>426</v>
       </c>
-      <c r="EN7" s="212" t="s">
+      <c r="EN7" s="211" t="s">
         <v>426</v>
       </c>
       <c r="EO7" s="145"/>
@@ -9554,173 +9591,179 @@
       <c r="EQ7" s="145"/>
     </row>
     <row r="8" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
-      <c r="B8" s="240"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="240"/>
-      <c r="BV8" s="313" t="s">
+      <c r="A8" s="281"/>
+      <c r="B8" s="271"/>
+      <c r="D8" s="281"/>
+      <c r="E8" s="271"/>
+      <c r="BV8" s="251" t="s">
         <v>226</v>
       </c>
-      <c r="BW8" s="314"/>
-      <c r="BX8" s="314"/>
-      <c r="BY8" s="314"/>
-      <c r="BZ8" s="314"/>
-      <c r="CA8" s="314"/>
-      <c r="CB8" s="314"/>
-      <c r="CC8" s="314"/>
-      <c r="CD8" s="315"/>
-      <c r="CE8" s="315"/>
-      <c r="CF8" s="315"/>
-      <c r="CG8" s="315"/>
-      <c r="CH8" s="315"/>
-      <c r="CI8" s="315"/>
-      <c r="CJ8" s="315"/>
-      <c r="CK8" s="315"/>
-      <c r="CL8" s="315"/>
-      <c r="CM8" s="315"/>
-      <c r="CN8" s="315"/>
-      <c r="CO8" s="315"/>
-      <c r="CP8" s="315"/>
-      <c r="CQ8" s="315"/>
-      <c r="CR8" s="315"/>
-      <c r="CS8" s="315"/>
-      <c r="CT8" s="315"/>
-      <c r="CU8" s="315"/>
-      <c r="CV8" s="315"/>
-      <c r="CW8" s="315"/>
-      <c r="CX8" s="315"/>
-      <c r="CY8" s="315"/>
-      <c r="CZ8" s="315"/>
-      <c r="DA8" s="316"/>
+      <c r="BW8" s="252"/>
+      <c r="BX8" s="252"/>
+      <c r="BY8" s="252"/>
+      <c r="BZ8" s="252"/>
+      <c r="CA8" s="252"/>
+      <c r="CB8" s="252"/>
+      <c r="CC8" s="252"/>
+      <c r="CD8" s="253"/>
+      <c r="CE8" s="253"/>
+      <c r="CF8" s="253"/>
+      <c r="CG8" s="253"/>
+      <c r="CH8" s="253"/>
+      <c r="CI8" s="253"/>
+      <c r="CJ8" s="253"/>
+      <c r="CK8" s="253"/>
+      <c r="CL8" s="253"/>
+      <c r="CM8" s="253"/>
+      <c r="CN8" s="253"/>
+      <c r="CO8" s="253"/>
+      <c r="CP8" s="253"/>
+      <c r="CQ8" s="253"/>
+      <c r="CR8" s="253"/>
+      <c r="CS8" s="253"/>
+      <c r="CT8" s="253"/>
+      <c r="CU8" s="253"/>
+      <c r="CV8" s="253"/>
+      <c r="CW8" s="253"/>
+      <c r="CX8" s="253"/>
+      <c r="CY8" s="253"/>
+      <c r="CZ8" s="253"/>
+      <c r="DA8" s="254"/>
     </row>
     <row r="9" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
-      <c r="B9" s="240"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="240"/>
-      <c r="AG9" s="296" t="s">
+      <c r="A9" s="279"/>
+      <c r="B9" s="271"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="271"/>
+      <c r="AG9" s="233" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="297"/>
-      <c r="AI9" s="297"/>
-      <c r="AJ9" s="297"/>
-      <c r="AK9" s="297"/>
-      <c r="AL9" s="297"/>
-      <c r="AM9" s="297"/>
-      <c r="AN9" s="297"/>
-      <c r="AO9" s="297"/>
-      <c r="AP9" s="297"/>
-      <c r="AQ9" s="297"/>
-      <c r="AR9" s="297"/>
-      <c r="AS9" s="297"/>
-      <c r="AT9" s="297"/>
-      <c r="AU9" s="297"/>
-      <c r="AV9" s="297"/>
-      <c r="AW9" s="297"/>
-      <c r="AX9" s="297"/>
-      <c r="AY9" s="297"/>
-      <c r="AZ9" s="297"/>
-      <c r="BA9" s="297"/>
-      <c r="BB9" s="297"/>
-      <c r="BC9" s="297"/>
-      <c r="BD9" s="297"/>
-      <c r="BE9" s="297"/>
-      <c r="BF9" s="297"/>
-      <c r="BG9" s="297"/>
-      <c r="BH9" s="297"/>
-      <c r="BI9" s="297"/>
-      <c r="BJ9" s="297"/>
-      <c r="BK9" s="297"/>
-      <c r="BL9" s="297"/>
-      <c r="BM9" s="297"/>
-      <c r="BN9" s="297"/>
-      <c r="BO9" s="297"/>
-      <c r="BP9" s="297"/>
-      <c r="BQ9" s="297"/>
-      <c r="BR9" s="297"/>
-      <c r="BS9" s="297"/>
-      <c r="BT9" s="297"/>
-      <c r="BU9" s="297"/>
-      <c r="BV9" s="297"/>
-      <c r="BW9" s="297"/>
-      <c r="BX9" s="297"/>
-      <c r="BY9" s="297"/>
-      <c r="BZ9" s="297"/>
-      <c r="CA9" s="297"/>
-      <c r="CB9" s="297"/>
-      <c r="CC9" s="297"/>
-      <c r="CD9" s="297"/>
-      <c r="CE9" s="297"/>
-      <c r="CF9" s="297"/>
-      <c r="CG9" s="297"/>
-      <c r="CH9" s="297"/>
-      <c r="CI9" s="297"/>
-      <c r="CJ9" s="297"/>
-      <c r="CK9" s="297"/>
-      <c r="CL9" s="297"/>
-      <c r="CM9" s="297"/>
-      <c r="CN9" s="297"/>
-      <c r="CO9" s="297"/>
-      <c r="CP9" s="297"/>
-      <c r="CQ9" s="297"/>
-      <c r="CR9" s="297"/>
-      <c r="CS9" s="297"/>
-      <c r="CT9" s="297"/>
-      <c r="CU9" s="297"/>
-      <c r="CV9" s="297"/>
-      <c r="CW9" s="297"/>
-      <c r="CX9" s="297"/>
-      <c r="CY9" s="297"/>
-      <c r="CZ9" s="297"/>
-      <c r="DA9" s="297"/>
-      <c r="DB9" s="297"/>
-      <c r="DC9" s="297"/>
-      <c r="DD9" s="297"/>
-      <c r="DE9" s="297"/>
-      <c r="DF9" s="297"/>
-      <c r="DG9" s="297"/>
-      <c r="DH9" s="297"/>
-      <c r="DI9" s="297"/>
-      <c r="DJ9" s="297"/>
-      <c r="DK9" s="297"/>
-      <c r="DL9" s="297"/>
-      <c r="DM9" s="297"/>
-      <c r="DN9" s="297"/>
-      <c r="DO9" s="297"/>
-      <c r="DP9" s="297"/>
-      <c r="DQ9" s="297"/>
-      <c r="DR9" s="297"/>
-      <c r="DS9" s="297"/>
-      <c r="DT9" s="297"/>
-      <c r="DU9" s="297"/>
-      <c r="DV9" s="297"/>
-      <c r="DW9" s="297"/>
-      <c r="DX9" s="297"/>
-      <c r="DY9" s="297"/>
-      <c r="DZ9" s="297"/>
-      <c r="EA9" s="297"/>
-      <c r="EB9" s="297"/>
-      <c r="EC9" s="297"/>
-      <c r="ED9" s="297"/>
-      <c r="EE9" s="297"/>
-      <c r="EF9" s="297"/>
-      <c r="EG9" s="297"/>
-      <c r="EH9" s="297"/>
-      <c r="EI9" s="297"/>
-      <c r="EJ9" s="297"/>
-      <c r="EK9" s="297"/>
-      <c r="EL9" s="297"/>
-      <c r="EM9" s="297"/>
-      <c r="EN9" s="297"/>
-      <c r="EO9" s="297"/>
-      <c r="EP9" s="297"/>
-      <c r="EQ9" s="298"/>
+      <c r="AH9" s="234"/>
+      <c r="AI9" s="234"/>
+      <c r="AJ9" s="234"/>
+      <c r="AK9" s="234"/>
+      <c r="AL9" s="234"/>
+      <c r="AM9" s="234"/>
+      <c r="AN9" s="234"/>
+      <c r="AO9" s="234"/>
+      <c r="AP9" s="234"/>
+      <c r="AQ9" s="234"/>
+      <c r="AR9" s="234"/>
+      <c r="AS9" s="234"/>
+      <c r="AT9" s="234"/>
+      <c r="AU9" s="234"/>
+      <c r="AV9" s="234"/>
+      <c r="AW9" s="234"/>
+      <c r="AX9" s="234"/>
+      <c r="AY9" s="234"/>
+      <c r="AZ9" s="234"/>
+      <c r="BA9" s="234"/>
+      <c r="BB9" s="234"/>
+      <c r="BC9" s="234"/>
+      <c r="BD9" s="234"/>
+      <c r="BE9" s="234"/>
+      <c r="BF9" s="234"/>
+      <c r="BG9" s="234"/>
+      <c r="BH9" s="234"/>
+      <c r="BI9" s="234"/>
+      <c r="BJ9" s="234"/>
+      <c r="BK9" s="234"/>
+      <c r="BL9" s="234"/>
+      <c r="BM9" s="234"/>
+      <c r="BN9" s="234"/>
+      <c r="BO9" s="234"/>
+      <c r="BP9" s="234"/>
+      <c r="BQ9" s="234"/>
+      <c r="BR9" s="234"/>
+      <c r="BS9" s="234"/>
+      <c r="BT9" s="234"/>
+      <c r="BU9" s="234"/>
+      <c r="BV9" s="234"/>
+      <c r="BW9" s="234"/>
+      <c r="BX9" s="234"/>
+      <c r="BY9" s="234"/>
+      <c r="BZ9" s="234"/>
+      <c r="CA9" s="234"/>
+      <c r="CB9" s="234"/>
+      <c r="CC9" s="234"/>
+      <c r="CD9" s="234"/>
+      <c r="CE9" s="234"/>
+      <c r="CF9" s="234"/>
+      <c r="CG9" s="234"/>
+      <c r="CH9" s="234"/>
+      <c r="CI9" s="234"/>
+      <c r="CJ9" s="234"/>
+      <c r="CK9" s="234"/>
+      <c r="CL9" s="234"/>
+      <c r="CM9" s="234"/>
+      <c r="CN9" s="234"/>
+      <c r="CO9" s="234"/>
+      <c r="CP9" s="234"/>
+      <c r="CQ9" s="234"/>
+      <c r="CR9" s="234"/>
+      <c r="CS9" s="234"/>
+      <c r="CT9" s="234"/>
+      <c r="CU9" s="234"/>
+      <c r="CV9" s="234"/>
+      <c r="CW9" s="234"/>
+      <c r="CX9" s="234"/>
+      <c r="CY9" s="234"/>
+      <c r="CZ9" s="234"/>
+      <c r="DA9" s="234"/>
+      <c r="DB9" s="234"/>
+      <c r="DC9" s="234"/>
+      <c r="DD9" s="234"/>
+      <c r="DE9" s="234"/>
+      <c r="DF9" s="234"/>
+      <c r="DG9" s="234"/>
+      <c r="DH9" s="234"/>
+      <c r="DI9" s="234"/>
+      <c r="DJ9" s="234"/>
+      <c r="DK9" s="234"/>
+      <c r="DL9" s="234"/>
+      <c r="DM9" s="234"/>
+      <c r="DN9" s="234"/>
+      <c r="DO9" s="234"/>
+      <c r="DP9" s="234"/>
+      <c r="DQ9" s="234"/>
+      <c r="DR9" s="234"/>
+      <c r="DS9" s="234"/>
+      <c r="DT9" s="234"/>
+      <c r="DU9" s="234"/>
+      <c r="DV9" s="234"/>
+      <c r="DW9" s="234"/>
+      <c r="DX9" s="234"/>
+      <c r="DY9" s="234"/>
+      <c r="DZ9" s="234"/>
+      <c r="EA9" s="234"/>
+      <c r="EB9" s="234"/>
+      <c r="EC9" s="234"/>
+      <c r="ED9" s="234"/>
+      <c r="EE9" s="234"/>
+      <c r="EF9" s="234"/>
+      <c r="EG9" s="234"/>
+      <c r="EH9" s="234"/>
+      <c r="EI9" s="234"/>
+      <c r="EJ9" s="234"/>
+      <c r="EK9" s="234"/>
+      <c r="EL9" s="234"/>
+      <c r="EM9" s="234"/>
+      <c r="EN9" s="234"/>
+      <c r="EO9" s="234"/>
+      <c r="EP9" s="234"/>
+      <c r="EQ9" s="235"/>
     </row>
     <row r="10" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
-      <c r="B10" s="240"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="240"/>
+      <c r="A10" s="279"/>
+      <c r="B10" s="271"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="271"/>
+      <c r="I10" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" s="109" t="s">
+        <v>228</v>
+      </c>
       <c r="AT10" s="33"/>
       <c r="AU10" s="33"/>
       <c r="AV10" s="33"/>
@@ -9749,219 +9792,220 @@
       <c r="BS10" s="33"/>
       <c r="BT10" s="33"/>
       <c r="BU10" s="33"/>
-      <c r="DM10" s="303" t="s">
+      <c r="DM10" s="240" t="s">
         <v>230</v>
       </c>
-      <c r="DN10" s="304"/>
-      <c r="DO10" s="304"/>
-      <c r="DP10" s="304"/>
-      <c r="DQ10" s="304"/>
-      <c r="DR10" s="304"/>
-      <c r="DS10" s="304"/>
-      <c r="DT10" s="304"/>
-      <c r="DU10" s="304"/>
-      <c r="DV10" s="304"/>
-      <c r="DW10" s="304"/>
-      <c r="DX10" s="304"/>
-      <c r="DY10" s="304"/>
-      <c r="DZ10" s="304"/>
-      <c r="EA10" s="304"/>
-      <c r="EB10" s="304"/>
-      <c r="EC10" s="304"/>
-      <c r="ED10" s="304"/>
-      <c r="EE10" s="304"/>
-      <c r="EF10" s="304"/>
-      <c r="EG10" s="304"/>
-      <c r="EH10" s="304"/>
-      <c r="EI10" s="304"/>
-      <c r="EJ10" s="305"/>
+      <c r="DN10" s="241"/>
+      <c r="DO10" s="241"/>
+      <c r="DP10" s="241"/>
+      <c r="DQ10" s="241"/>
+      <c r="DR10" s="241"/>
+      <c r="DS10" s="241"/>
+      <c r="DT10" s="241"/>
+      <c r="DU10" s="241"/>
+      <c r="DV10" s="241"/>
+      <c r="DW10" s="241"/>
+      <c r="DX10" s="241"/>
+      <c r="DY10" s="241"/>
+      <c r="DZ10" s="241"/>
+      <c r="EA10" s="241"/>
+      <c r="EB10" s="241"/>
+      <c r="EC10" s="241"/>
+      <c r="ED10" s="241"/>
+      <c r="EE10" s="241"/>
+      <c r="EF10" s="241"/>
+      <c r="EG10" s="241"/>
+      <c r="EH10" s="241"/>
+      <c r="EI10" s="241"/>
+      <c r="EJ10" s="242"/>
     </row>
     <row r="11" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="251"/>
-      <c r="B11" s="240"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="240"/>
-      <c r="I11" s="114" t="s">
-        <v>261</v>
+      <c r="A11" s="280"/>
+      <c r="B11" s="271"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="271"/>
+      <c r="I11" s="154" t="s">
+        <v>260</v>
       </c>
       <c r="J11" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS11" s="299" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS11" s="236" t="s">
         <v>314</v>
       </c>
-      <c r="AT11" s="300"/>
-      <c r="AU11" s="300"/>
-      <c r="AV11" s="300"/>
-      <c r="AW11" s="300"/>
-      <c r="AX11" s="300"/>
-      <c r="AY11" s="300"/>
-      <c r="AZ11" s="300"/>
-      <c r="BA11" s="300"/>
-      <c r="BB11" s="300"/>
-      <c r="BC11" s="300"/>
-      <c r="BD11" s="300"/>
-      <c r="BE11" s="300"/>
-      <c r="BF11" s="300"/>
-      <c r="BG11" s="300"/>
-      <c r="BH11" s="300"/>
-      <c r="BI11" s="300"/>
-      <c r="BJ11" s="300"/>
-      <c r="BK11" s="300"/>
-      <c r="BL11" s="300"/>
-      <c r="BM11" s="300"/>
-      <c r="BN11" s="300"/>
-      <c r="BO11" s="300"/>
-      <c r="BP11" s="300"/>
-      <c r="BQ11" s="300"/>
-      <c r="BR11" s="300"/>
-      <c r="BS11" s="300"/>
-      <c r="BT11" s="300"/>
-      <c r="BU11" s="300"/>
-      <c r="BV11" s="300"/>
-      <c r="BW11" s="300"/>
-      <c r="BX11" s="300"/>
-      <c r="BY11" s="300"/>
-      <c r="BZ11" s="300"/>
-      <c r="CA11" s="300"/>
-      <c r="CB11" s="300"/>
-      <c r="CC11" s="300"/>
-      <c r="CD11" s="300"/>
-      <c r="CE11" s="300"/>
-      <c r="CF11" s="300"/>
-      <c r="CG11" s="300"/>
-      <c r="CH11" s="300"/>
-      <c r="CI11" s="300"/>
-      <c r="CJ11" s="300"/>
-      <c r="CK11" s="300"/>
-      <c r="CL11" s="300"/>
-      <c r="CM11" s="300"/>
-      <c r="CN11" s="300"/>
-      <c r="CO11" s="300"/>
-      <c r="CP11" s="300"/>
-      <c r="CQ11" s="300"/>
-      <c r="CR11" s="300"/>
-      <c r="CS11" s="300"/>
-      <c r="CT11" s="300"/>
-      <c r="CU11" s="300"/>
-      <c r="CV11" s="300"/>
-      <c r="CW11" s="300"/>
-      <c r="CX11" s="300"/>
-      <c r="CY11" s="300"/>
-      <c r="CZ11" s="300"/>
-      <c r="DA11" s="300"/>
-      <c r="DB11" s="300"/>
-      <c r="DC11" s="300"/>
-      <c r="DD11" s="300"/>
-      <c r="DE11" s="300"/>
-      <c r="DF11" s="300"/>
-      <c r="DG11" s="300"/>
-      <c r="DH11" s="300"/>
-      <c r="DI11" s="300"/>
-      <c r="DJ11" s="300"/>
-      <c r="DK11" s="300"/>
-      <c r="DL11" s="300"/>
-      <c r="DM11" s="301"/>
-      <c r="DN11" s="301"/>
-      <c r="DO11" s="301"/>
-      <c r="DP11" s="301"/>
-      <c r="DQ11" s="301"/>
-      <c r="DR11" s="301"/>
-      <c r="DS11" s="301"/>
-      <c r="DT11" s="301"/>
-      <c r="DU11" s="301"/>
-      <c r="DV11" s="301"/>
-      <c r="DW11" s="301"/>
-      <c r="DX11" s="301"/>
-      <c r="DY11" s="301"/>
-      <c r="DZ11" s="301"/>
-      <c r="EA11" s="302"/>
+      <c r="AT11" s="237"/>
+      <c r="AU11" s="237"/>
+      <c r="AV11" s="237"/>
+      <c r="AW11" s="237"/>
+      <c r="AX11" s="237"/>
+      <c r="AY11" s="237"/>
+      <c r="AZ11" s="237"/>
+      <c r="BA11" s="237"/>
+      <c r="BB11" s="237"/>
+      <c r="BC11" s="237"/>
+      <c r="BD11" s="237"/>
+      <c r="BE11" s="237"/>
+      <c r="BF11" s="237"/>
+      <c r="BG11" s="237"/>
+      <c r="BH11" s="237"/>
+      <c r="BI11" s="237"/>
+      <c r="BJ11" s="237"/>
+      <c r="BK11" s="237"/>
+      <c r="BL11" s="237"/>
+      <c r="BM11" s="237"/>
+      <c r="BN11" s="237"/>
+      <c r="BO11" s="237"/>
+      <c r="BP11" s="237"/>
+      <c r="BQ11" s="237"/>
+      <c r="BR11" s="237"/>
+      <c r="BS11" s="237"/>
+      <c r="BT11" s="237"/>
+      <c r="BU11" s="237"/>
+      <c r="BV11" s="237"/>
+      <c r="BW11" s="237"/>
+      <c r="BX11" s="237"/>
+      <c r="BY11" s="237"/>
+      <c r="BZ11" s="237"/>
+      <c r="CA11" s="237"/>
+      <c r="CB11" s="237"/>
+      <c r="CC11" s="237"/>
+      <c r="CD11" s="237"/>
+      <c r="CE11" s="237"/>
+      <c r="CF11" s="237"/>
+      <c r="CG11" s="237"/>
+      <c r="CH11" s="237"/>
+      <c r="CI11" s="237"/>
+      <c r="CJ11" s="237"/>
+      <c r="CK11" s="237"/>
+      <c r="CL11" s="237"/>
+      <c r="CM11" s="237"/>
+      <c r="CN11" s="237"/>
+      <c r="CO11" s="237"/>
+      <c r="CP11" s="237"/>
+      <c r="CQ11" s="237"/>
+      <c r="CR11" s="237"/>
+      <c r="CS11" s="237"/>
+      <c r="CT11" s="237"/>
+      <c r="CU11" s="237"/>
+      <c r="CV11" s="237"/>
+      <c r="CW11" s="237"/>
+      <c r="CX11" s="237"/>
+      <c r="CY11" s="237"/>
+      <c r="CZ11" s="237"/>
+      <c r="DA11" s="237"/>
+      <c r="DB11" s="237"/>
+      <c r="DC11" s="237"/>
+      <c r="DD11" s="237"/>
+      <c r="DE11" s="237"/>
+      <c r="DF11" s="237"/>
+      <c r="DG11" s="237"/>
+      <c r="DH11" s="237"/>
+      <c r="DI11" s="237"/>
+      <c r="DJ11" s="237"/>
+      <c r="DK11" s="237"/>
+      <c r="DL11" s="237"/>
+      <c r="DM11" s="238"/>
+      <c r="DN11" s="238"/>
+      <c r="DO11" s="238"/>
+      <c r="DP11" s="238"/>
+      <c r="DQ11" s="238"/>
+      <c r="DR11" s="238"/>
+      <c r="DS11" s="238"/>
+      <c r="DT11" s="238"/>
+      <c r="DU11" s="238"/>
+      <c r="DV11" s="238"/>
+      <c r="DW11" s="238"/>
+      <c r="DX11" s="238"/>
+      <c r="DY11" s="238"/>
+      <c r="DZ11" s="238"/>
+      <c r="EA11" s="239"/>
     </row>
     <row r="12" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="240"/>
+      <c r="B12" s="271"/>
       <c r="D12" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="240"/>
-      <c r="I12" s="154" t="s">
-        <v>260</v>
+      <c r="E12" s="271"/>
+      <c r="I12" s="207" t="s">
+        <v>370</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="240"/>
+      <c r="B13" s="271"/>
       <c r="D13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="240"/>
-      <c r="I13" s="208" t="s">
-        <v>370</v>
+      <c r="E13" s="271"/>
+      <c r="I13" s="112" t="s">
+        <v>183</v>
       </c>
       <c r="J13" s="109" t="s">
-        <v>369</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="240"/>
+      <c r="B14" s="271"/>
       <c r="D14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="240"/>
-      <c r="I14" s="112" t="s">
-        <v>183</v>
+      <c r="E14" s="271"/>
+      <c r="I14" s="113" t="s">
+        <v>184</v>
       </c>
       <c r="J14" s="109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="240"/>
+      <c r="B15" s="271"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="240"/>
-      <c r="I15" s="113" t="s">
-        <v>184</v>
+      <c r="E15" s="271"/>
+      <c r="I15" s="348" t="s">
+        <v>505</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="DM15" s="295" t="s">
+        <v>506</v>
+      </c>
+      <c r="N15" s="221"/>
+      <c r="DM15" s="228" t="s">
         <v>327</v>
       </c>
-      <c r="DN15" s="295"/>
+      <c r="DN15" s="228"/>
     </row>
     <row r="16" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="240"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="240"/>
+      <c r="A16" s="281"/>
+      <c r="B16" s="271"/>
+      <c r="D16" s="281"/>
+      <c r="E16" s="271"/>
       <c r="I16" s="115" t="s">
         <v>259</v>
       </c>
       <c r="J16" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="DM16" s="295" t="s">
+      <c r="DM16" s="228" t="s">
         <v>326</v>
       </c>
-      <c r="DN16" s="295"/>
+      <c r="DN16" s="228"/>
     </row>
     <row r="17" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="237"/>
-      <c r="B17" s="240"/>
-      <c r="D17" s="237"/>
-      <c r="E17" s="240"/>
+      <c r="A17" s="279"/>
+      <c r="B17" s="271"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="271"/>
       <c r="I17" s="110" t="s">
         <v>421</v>
       </c>
@@ -9970,11 +10014,11 @@
       </c>
     </row>
     <row r="18" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="237"/>
-      <c r="B18" s="240"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="240"/>
-      <c r="I18" s="221" t="s">
+      <c r="A18" s="279"/>
+      <c r="B18" s="271"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="271"/>
+      <c r="I18" s="219" t="s">
         <v>436</v>
       </c>
       <c r="J18" s="109" t="s">
@@ -9982,10 +10026,10 @@
       </c>
     </row>
     <row r="19" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
-      <c r="B19" s="240"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="240"/>
+      <c r="A19" s="280"/>
+      <c r="B19" s="271"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="271"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -9994,23 +10038,23 @@
       </c>
     </row>
     <row r="20" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="237"/>
-      <c r="B20" s="240"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="240"/>
-      <c r="I20" s="204" t="s">
+      <c r="A20" s="279"/>
+      <c r="B20" s="271"/>
+      <c r="D20" s="281"/>
+      <c r="E20" s="271"/>
+      <c r="I20" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="205" t="s">
+      <c r="J20" s="204" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="237"/>
-      <c r="B21" s="240"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="240"/>
-      <c r="I21" s="201" t="s">
+      <c r="A21" s="279"/>
+      <c r="B21" s="271"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="271"/>
+      <c r="I21" s="220" t="s">
         <v>116</v>
       </c>
       <c r="J21" s="109" t="s">
@@ -10018,25 +10062,25 @@
       </c>
     </row>
     <row r="22" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="237"/>
-      <c r="B22" s="240"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="240"/>
+      <c r="A22" s="279"/>
+      <c r="B22" s="271"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="271"/>
     </row>
     <row r="23" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
-      <c r="B23" s="240"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="240"/>
+      <c r="A23" s="280"/>
+      <c r="B23" s="271"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="271"/>
     </row>
     <row r="24" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="281" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="235"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="240"/>
+      <c r="B24" s="271"/>
+      <c r="C24" s="317"/>
+      <c r="D24" s="281"/>
+      <c r="E24" s="271"/>
       <c r="G24" s="156"/>
       <c r="H24" s="157"/>
       <c r="I24" s="157"/>
@@ -10098,7 +10142,7 @@
       <c r="BM24" s="157"/>
       <c r="BN24" s="157"/>
       <c r="BO24" s="157"/>
-      <c r="BP24" s="289" t="s">
+      <c r="BP24" s="266" t="s">
         <v>313</v>
       </c>
       <c r="BQ24" s="157"/>
@@ -10182,11 +10226,11 @@
       <c r="EQ24" s="16"/>
     </row>
     <row r="25" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="237"/>
-      <c r="B25" s="240"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="240"/>
+      <c r="A25" s="279"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="317"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="271"/>
       <c r="G25" s="158"/>
       <c r="H25" s="159"/>
       <c r="I25" s="159"/>
@@ -10248,7 +10292,7 @@
       <c r="BM25" s="159"/>
       <c r="BN25" s="159"/>
       <c r="BO25" s="159"/>
-      <c r="BP25" s="290"/>
+      <c r="BP25" s="267"/>
       <c r="BQ25" s="159"/>
       <c r="BR25" s="159"/>
       <c r="BS25" s="159"/>
@@ -10330,11 +10374,11 @@
       <c r="EQ25" s="160"/>
     </row>
     <row r="26" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="237"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="240"/>
+      <c r="A26" s="279"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="271"/>
       <c r="G26" s="158"/>
       <c r="H26" s="159"/>
       <c r="I26" s="159"/>
@@ -10396,7 +10440,7 @@
       <c r="BM26" s="159"/>
       <c r="BN26" s="159"/>
       <c r="BO26" s="159"/>
-      <c r="BP26" s="290"/>
+      <c r="BP26" s="267"/>
       <c r="BQ26" s="159"/>
       <c r="BR26" s="159"/>
       <c r="BS26" s="159"/>
@@ -10478,11 +10522,11 @@
       <c r="EQ26" s="160"/>
     </row>
     <row r="27" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="240"/>
+      <c r="A27" s="291"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="271"/>
       <c r="G27" s="13"/>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -10544,7 +10588,7 @@
       <c r="BM27" s="123"/>
       <c r="BN27" s="123"/>
       <c r="BO27" s="123"/>
-      <c r="BP27" s="291"/>
+      <c r="BP27" s="268"/>
       <c r="BQ27" s="123"/>
       <c r="BR27" s="123"/>
       <c r="BS27" s="123"/>
@@ -10626,15 +10670,15 @@
       <c r="EQ27" s="124"/>
     </row>
     <row r="28" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="253" t="s">
+      <c r="A28" s="273" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="245" t="s">
+      <c r="B28" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="236"/>
-      <c r="E28" s="240"/>
-      <c r="G28" s="275" t="s">
+      <c r="D28" s="281"/>
+      <c r="E28" s="271"/>
+      <c r="G28" s="269" t="s">
         <v>332</v>
       </c>
       <c r="H28" s="156"/>
@@ -10779,11 +10823,11 @@
       <c r="EQ28" s="16"/>
     </row>
     <row r="29" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="243"/>
-      <c r="B29" s="246"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="240"/>
-      <c r="G29" s="275"/>
+      <c r="A29" s="274"/>
+      <c r="B29" s="308"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="271"/>
+      <c r="G29" s="269"/>
       <c r="H29" s="158"/>
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
@@ -10926,11 +10970,11 @@
       <c r="EQ29" s="160"/>
     </row>
     <row r="30" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="243"/>
-      <c r="B30" s="246"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="240"/>
-      <c r="G30" s="275"/>
+      <c r="A30" s="274"/>
+      <c r="B30" s="308"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="271"/>
+      <c r="G30" s="269"/>
       <c r="H30" s="158"/>
       <c r="I30" s="159"/>
       <c r="J30" s="159"/>
@@ -11073,11 +11117,11 @@
       <c r="EQ30" s="160"/>
     </row>
     <row r="31" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="254"/>
-      <c r="B31" s="246"/>
-      <c r="D31" s="251"/>
-      <c r="E31" s="240"/>
-      <c r="G31" s="275"/>
+      <c r="A31" s="277"/>
+      <c r="B31" s="308"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="271"/>
+      <c r="G31" s="269"/>
       <c r="H31" s="13"/>
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
@@ -11223,11 +11267,11 @@
       <c r="A32" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="246"/>
+      <c r="B32" s="308"/>
       <c r="D32" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="240"/>
+      <c r="E32" s="271"/>
       <c r="G32" s="193" t="s">
         <v>268</v>
       </c>
@@ -11376,11 +11420,11 @@
       <c r="A33" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="246"/>
+      <c r="B33" s="308"/>
       <c r="D33" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="240"/>
+      <c r="E33" s="271"/>
       <c r="G33" s="192" t="s">
         <v>268</v>
       </c>
@@ -11529,11 +11573,11 @@
       <c r="A34" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="246"/>
+      <c r="B34" s="308"/>
       <c r="D34" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="240"/>
+      <c r="E34" s="271"/>
       <c r="G34" s="192" t="s">
         <v>268</v>
       </c>
@@ -11680,9 +11724,9 @@
     </row>
     <row r="35" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="246"/>
+      <c r="B35" s="308"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="240"/>
+      <c r="E35" s="271"/>
       <c r="G35" s="192"/>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
@@ -11826,10 +11870,10 @@
       <c r="EQ35" s="124"/>
     </row>
     <row r="36" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="242"/>
-      <c r="B36" s="246"/>
+      <c r="A36" s="276"/>
+      <c r="B36" s="308"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="240"/>
+      <c r="E36" s="271"/>
       <c r="G36" s="87"/>
       <c r="H36" s="157"/>
       <c r="I36" s="157"/>
@@ -11973,10 +12017,10 @@
       <c r="EQ36" s="16"/>
     </row>
     <row r="37" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="243"/>
-      <c r="B37" s="246"/>
+      <c r="A37" s="274"/>
+      <c r="B37" s="308"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="240"/>
+      <c r="E37" s="271"/>
       <c r="G37" s="191"/>
       <c r="H37" s="159"/>
       <c r="I37" s="159"/>
@@ -12120,10 +12164,10 @@
       <c r="EQ37" s="160"/>
     </row>
     <row r="38" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="243"/>
-      <c r="B38" s="246"/>
+      <c r="A38" s="274"/>
+      <c r="B38" s="308"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="240"/>
+      <c r="E38" s="271"/>
       <c r="G38" s="191"/>
       <c r="H38" s="159"/>
       <c r="I38" s="159"/>
@@ -12267,10 +12311,10 @@
       <c r="EQ38" s="160"/>
     </row>
     <row r="39" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="244"/>
-      <c r="B39" s="247"/>
+      <c r="A39" s="287"/>
+      <c r="B39" s="309"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="240"/>
+      <c r="E39" s="271"/>
       <c r="G39" s="191"/>
       <c r="H39" s="123"/>
       <c r="I39" s="123"/>
@@ -12414,36 +12458,36 @@
       <c r="EQ39" s="124"/>
     </row>
     <row r="40" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="248"/>
-      <c r="B40" s="232" t="s">
+      <c r="A40" s="318"/>
+      <c r="B40" s="304" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="255"/>
-      <c r="E40" s="240"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="271"/>
       <c r="G40" s="87"/>
       <c r="EQ40" s="16"/>
     </row>
     <row r="41" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="249"/>
-      <c r="B41" s="233"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="240"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="305"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="271"/>
       <c r="G41" s="191"/>
       <c r="EQ41" s="160"/>
     </row>
     <row r="42" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="249"/>
-      <c r="B42" s="233"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="240"/>
+      <c r="A42" s="302"/>
+      <c r="B42" s="305"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="271"/>
       <c r="G42" s="191"/>
       <c r="EQ42" s="160"/>
     </row>
     <row r="43" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="250"/>
-      <c r="B43" s="233"/>
-      <c r="D43" s="257"/>
-      <c r="E43" s="240"/>
+      <c r="A43" s="319"/>
+      <c r="B43" s="305"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="271"/>
       <c r="G43" s="191"/>
       <c r="EQ43" s="160"/>
     </row>
@@ -12451,11 +12495,11 @@
       <c r="A44" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="233"/>
+      <c r="B44" s="305"/>
       <c r="D44" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="240"/>
+      <c r="E44" s="271"/>
       <c r="G44" s="193" t="s">
         <v>268</v>
       </c>
@@ -12604,11 +12648,11 @@
       <c r="A45" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="233"/>
+      <c r="B45" s="305"/>
       <c r="D45" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="240"/>
+      <c r="E45" s="271"/>
       <c r="G45" s="192" t="s">
         <v>268</v>
       </c>
@@ -12757,11 +12801,11 @@
       <c r="A46" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="233"/>
+      <c r="B46" s="305"/>
       <c r="D46" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="240"/>
+      <c r="E46" s="271"/>
       <c r="G46" s="192" t="s">
         <v>268</v>
       </c>
@@ -12908,9 +12952,9 @@
     </row>
     <row r="47" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="233"/>
+      <c r="B47" s="305"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="240"/>
+      <c r="E47" s="271"/>
       <c r="G47" s="192"/>
       <c r="H47" s="123"/>
       <c r="I47" s="123"/>
@@ -13054,52 +13098,52 @@
       <c r="EQ47" s="124"/>
     </row>
     <row r="48" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260" t="s">
+      <c r="A48" s="294" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="233"/>
-      <c r="D48" s="236" t="s">
+      <c r="B48" s="305"/>
+      <c r="D48" s="281" t="s">
         <v>334</v>
       </c>
-      <c r="E48" s="240"/>
+      <c r="E48" s="271"/>
       <c r="G48" s="87"/>
       <c r="EQ48" s="160"/>
     </row>
     <row r="49" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="260"/>
-      <c r="B49" s="233"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="240"/>
+      <c r="A49" s="294"/>
+      <c r="B49" s="305"/>
+      <c r="D49" s="279"/>
+      <c r="E49" s="271"/>
       <c r="G49" s="158"/>
       <c r="EQ49" s="160"/>
     </row>
     <row r="50" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="260"/>
-      <c r="B50" s="233"/>
-      <c r="D50" s="237"/>
-      <c r="E50" s="240"/>
+      <c r="A50" s="294"/>
+      <c r="B50" s="305"/>
+      <c r="D50" s="279"/>
+      <c r="E50" s="271"/>
       <c r="G50" s="158"/>
       <c r="EQ50" s="160"/>
     </row>
     <row r="51" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="261"/>
-      <c r="B51" s="234"/>
-      <c r="D51" s="251"/>
-      <c r="E51" s="241"/>
+      <c r="A51" s="295"/>
+      <c r="B51" s="306"/>
+      <c r="D51" s="280"/>
+      <c r="E51" s="272"/>
       <c r="G51" s="13"/>
       <c r="EQ51" s="160"/>
     </row>
     <row r="52" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="269" t="s">
+      <c r="A52" s="310" t="s">
         <v>328</v>
       </c>
-      <c r="B52" s="263" t="s">
+      <c r="B52" s="297" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="237" t="s">
+      <c r="D52" s="279" t="s">
         <v>328</v>
       </c>
-      <c r="E52" s="283" t="s">
+      <c r="E52" s="284" t="s">
         <v>269</v>
       </c>
       <c r="G52" s="156"/>
@@ -13169,7 +13213,7 @@
       <c r="BS52" s="157"/>
       <c r="BT52" s="157"/>
       <c r="BU52" s="157"/>
-      <c r="BV52" s="280"/>
+      <c r="BV52" s="261"/>
       <c r="BW52" s="164"/>
       <c r="BX52" s="164"/>
       <c r="BY52" s="164"/>
@@ -13245,10 +13289,10 @@
       <c r="EQ52" s="165"/>
     </row>
     <row r="53" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="270"/>
-      <c r="B53" s="264"/>
-      <c r="D53" s="237"/>
-      <c r="E53" s="284"/>
+      <c r="A53" s="311"/>
+      <c r="B53" s="298"/>
+      <c r="D53" s="279"/>
+      <c r="E53" s="285"/>
       <c r="G53" s="158"/>
       <c r="H53" s="159"/>
       <c r="I53" s="159"/>
@@ -13316,7 +13360,7 @@
       <c r="BS53" s="159"/>
       <c r="BT53" s="159"/>
       <c r="BU53" s="159"/>
-      <c r="BV53" s="281"/>
+      <c r="BV53" s="262"/>
       <c r="BW53" s="166"/>
       <c r="BX53" s="166"/>
       <c r="BY53" s="166"/>
@@ -13392,10 +13436,10 @@
       <c r="EQ53" s="167"/>
     </row>
     <row r="54" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="270"/>
-      <c r="B54" s="264"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="284"/>
+      <c r="A54" s="311"/>
+      <c r="B54" s="298"/>
+      <c r="D54" s="279"/>
+      <c r="E54" s="285"/>
       <c r="G54" s="158"/>
       <c r="H54" s="159"/>
       <c r="I54" s="159"/>
@@ -13463,7 +13507,7 @@
       <c r="BS54" s="159"/>
       <c r="BT54" s="159"/>
       <c r="BU54" s="159"/>
-      <c r="BV54" s="281"/>
+      <c r="BV54" s="262"/>
       <c r="BW54" s="166"/>
       <c r="BX54" s="166"/>
       <c r="BY54" s="166"/>
@@ -13539,10 +13583,10 @@
       <c r="EQ54" s="167"/>
     </row>
     <row r="55" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="270"/>
-      <c r="B55" s="264"/>
-      <c r="D55" s="251"/>
-      <c r="E55" s="284"/>
+      <c r="A55" s="311"/>
+      <c r="B55" s="298"/>
+      <c r="D55" s="280"/>
+      <c r="E55" s="285"/>
       <c r="G55" s="13"/>
       <c r="H55" s="123"/>
       <c r="I55" s="123"/>
@@ -13610,7 +13654,7 @@
       <c r="BS55" s="123"/>
       <c r="BT55" s="123"/>
       <c r="BU55" s="123"/>
-      <c r="BV55" s="282"/>
+      <c r="BV55" s="263"/>
       <c r="BW55" s="168"/>
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
@@ -13686,14 +13730,14 @@
       <c r="EQ55" s="169"/>
     </row>
     <row r="56" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="271" t="s">
+      <c r="A56" s="312" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="264"/>
-      <c r="D56" s="236" t="s">
+      <c r="B56" s="298"/>
+      <c r="D56" s="281" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="284"/>
+      <c r="E56" s="285"/>
       <c r="G56" s="170"/>
       <c r="H56" s="164"/>
       <c r="I56" s="164"/>
@@ -13837,10 +13881,10 @@
       <c r="EQ56" s="165"/>
     </row>
     <row r="57" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="272"/>
-      <c r="B57" s="264"/>
-      <c r="D57" s="237"/>
-      <c r="E57" s="284"/>
+      <c r="A57" s="313"/>
+      <c r="B57" s="298"/>
+      <c r="D57" s="279"/>
+      <c r="E57" s="285"/>
       <c r="G57" s="171"/>
       <c r="H57" s="166"/>
       <c r="I57" s="166"/>
@@ -13984,10 +14028,10 @@
       <c r="EQ57" s="167"/>
     </row>
     <row r="58" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="272"/>
-      <c r="B58" s="264"/>
-      <c r="D58" s="237"/>
-      <c r="E58" s="284"/>
+      <c r="A58" s="313"/>
+      <c r="B58" s="298"/>
+      <c r="D58" s="279"/>
+      <c r="E58" s="285"/>
       <c r="G58" s="171"/>
       <c r="H58" s="166"/>
       <c r="I58" s="166"/>
@@ -14131,10 +14175,10 @@
       <c r="EQ58" s="167"/>
     </row>
     <row r="59" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="274"/>
-      <c r="B59" s="264"/>
-      <c r="D59" s="251"/>
-      <c r="E59" s="284"/>
+      <c r="A59" s="315"/>
+      <c r="B59" s="298"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="285"/>
       <c r="G59" s="172"/>
       <c r="H59" s="168"/>
       <c r="I59" s="168"/>
@@ -14278,14 +14322,14 @@
       <c r="EQ59" s="169"/>
     </row>
     <row r="60" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="271" t="s">
+      <c r="A60" s="312" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="264"/>
-      <c r="D60" s="236" t="s">
+      <c r="B60" s="298"/>
+      <c r="D60" s="281" t="s">
         <v>310</v>
       </c>
-      <c r="E60" s="284"/>
+      <c r="E60" s="285"/>
       <c r="G60" s="170"/>
       <c r="H60" s="164"/>
       <c r="I60" s="164"/>
@@ -14352,7 +14396,7 @@
       <c r="BR60" s="164"/>
       <c r="BS60" s="164"/>
       <c r="BT60" s="164"/>
-      <c r="BU60" s="280"/>
+      <c r="BU60" s="261"/>
       <c r="BV60" s="157"/>
       <c r="BW60" s="157"/>
       <c r="BX60" s="157"/>
@@ -14429,10 +14473,10 @@
       <c r="EQ60" s="16"/>
     </row>
     <row r="61" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="272"/>
-      <c r="B61" s="264"/>
-      <c r="D61" s="237"/>
-      <c r="E61" s="284"/>
+      <c r="A61" s="313"/>
+      <c r="B61" s="298"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="285"/>
       <c r="G61" s="171"/>
       <c r="H61" s="166"/>
       <c r="I61" s="166"/>
@@ -14499,7 +14543,7 @@
       <c r="BR61" s="166"/>
       <c r="BS61" s="166"/>
       <c r="BT61" s="166"/>
-      <c r="BU61" s="281"/>
+      <c r="BU61" s="262"/>
       <c r="BV61" s="159"/>
       <c r="BW61" s="159"/>
       <c r="BX61" s="159"/>
@@ -14576,10 +14620,10 @@
       <c r="EQ61" s="160"/>
     </row>
     <row r="62" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="272"/>
-      <c r="B62" s="264"/>
-      <c r="D62" s="237"/>
-      <c r="E62" s="284"/>
+      <c r="A62" s="313"/>
+      <c r="B62" s="298"/>
+      <c r="D62" s="279"/>
+      <c r="E62" s="285"/>
       <c r="G62" s="171"/>
       <c r="H62" s="166"/>
       <c r="I62" s="166"/>
@@ -14646,7 +14690,7 @@
       <c r="BR62" s="166"/>
       <c r="BS62" s="166"/>
       <c r="BT62" s="166"/>
-      <c r="BU62" s="281"/>
+      <c r="BU62" s="262"/>
       <c r="BV62" s="159"/>
       <c r="BW62" s="159"/>
       <c r="BX62" s="159"/>
@@ -14723,10 +14767,10 @@
       <c r="EQ62" s="160"/>
     </row>
     <row r="63" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="273"/>
-      <c r="B63" s="265"/>
-      <c r="D63" s="238"/>
-      <c r="E63" s="285"/>
+      <c r="A63" s="314"/>
+      <c r="B63" s="299"/>
+      <c r="D63" s="291"/>
+      <c r="E63" s="286"/>
       <c r="G63" s="172"/>
       <c r="H63" s="168"/>
       <c r="I63" s="168"/>
@@ -14793,7 +14837,7 @@
       <c r="BR63" s="168"/>
       <c r="BS63" s="168"/>
       <c r="BT63" s="168"/>
-      <c r="BU63" s="282"/>
+      <c r="BU63" s="263"/>
       <c r="BV63" s="123"/>
       <c r="BW63" s="123"/>
       <c r="BX63" s="123"/>
@@ -14870,17 +14914,17 @@
       <c r="EQ63" s="124"/>
     </row>
     <row r="64" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="266" t="s">
+      <c r="A64" s="300" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="232" t="s">
+      <c r="B64" s="304" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="258" t="s">
+      <c r="D64" s="292" t="s">
         <v>309</v>
       </c>
       <c r="E64" s="187"/>
-      <c r="G64" s="275" t="s">
+      <c r="G64" s="269" t="s">
         <v>333</v>
       </c>
       <c r="H64" s="156"/>
@@ -15025,11 +15069,11 @@
       <c r="EQ64" s="16"/>
     </row>
     <row r="65" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="260"/>
-      <c r="B65" s="233"/>
-      <c r="D65" s="259"/>
+      <c r="A65" s="294"/>
+      <c r="B65" s="305"/>
+      <c r="D65" s="293"/>
       <c r="E65" s="188"/>
-      <c r="G65" s="275"/>
+      <c r="G65" s="269"/>
       <c r="H65" s="158"/>
       <c r="I65" s="159"/>
       <c r="J65" s="159"/>
@@ -15172,11 +15216,11 @@
       <c r="EQ65" s="160"/>
     </row>
     <row r="66" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="260"/>
-      <c r="B66" s="233"/>
-      <c r="D66" s="259"/>
+      <c r="A66" s="294"/>
+      <c r="B66" s="305"/>
+      <c r="D66" s="293"/>
       <c r="E66" s="188"/>
-      <c r="G66" s="275"/>
+      <c r="G66" s="269"/>
       <c r="H66" s="158"/>
       <c r="I66" s="159"/>
       <c r="J66" s="159"/>
@@ -15319,11 +15363,11 @@
       <c r="EQ66" s="160"/>
     </row>
     <row r="67" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="260"/>
-      <c r="B67" s="233"/>
-      <c r="D67" s="259"/>
+      <c r="A67" s="294"/>
+      <c r="B67" s="305"/>
+      <c r="D67" s="293"/>
       <c r="E67" s="188"/>
-      <c r="G67" s="275"/>
+      <c r="G67" s="269"/>
       <c r="H67" s="13"/>
       <c r="I67" s="123"/>
       <c r="J67" s="123"/>
@@ -15469,7 +15513,7 @@
       <c r="A68" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="233"/>
+      <c r="B68" s="305"/>
       <c r="D68" s="184" t="s">
         <v>268</v>
       </c>
@@ -15483,7 +15527,7 @@
       <c r="A69" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="233"/>
+      <c r="B69" s="305"/>
       <c r="D69" s="185" t="s">
         <v>268</v>
       </c>
@@ -15497,7 +15541,7 @@
       <c r="A70" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="233"/>
+      <c r="B70" s="305"/>
       <c r="D70" s="185" t="s">
         <v>268</v>
       </c>
@@ -15509,16 +15553,16 @@
     </row>
     <row r="71" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="233"/>
+      <c r="B71" s="305"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
       <c r="G71" s="192"/>
       <c r="EQ71" s="124"/>
     </row>
     <row r="72" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="267"/>
-      <c r="B72" s="233"/>
-      <c r="D72" s="259" t="s">
+      <c r="A72" s="301"/>
+      <c r="B72" s="305"/>
+      <c r="D72" s="293" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="188"/>
@@ -15665,9 +15709,9 @@
       <c r="EQ72" s="16"/>
     </row>
     <row r="73" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="249"/>
-      <c r="B73" s="233"/>
-      <c r="D73" s="259"/>
+      <c r="A73" s="302"/>
+      <c r="B73" s="305"/>
+      <c r="D73" s="293"/>
       <c r="E73" s="188"/>
       <c r="G73" s="191"/>
       <c r="H73" s="159"/>
@@ -15812,9 +15856,9 @@
       <c r="EQ73" s="160"/>
     </row>
     <row r="74" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="249"/>
-      <c r="B74" s="233"/>
-      <c r="D74" s="259"/>
+      <c r="A74" s="302"/>
+      <c r="B74" s="305"/>
+      <c r="D74" s="293"/>
       <c r="E74" s="188"/>
       <c r="G74" s="191"/>
       <c r="H74" s="159"/>
@@ -15959,9 +16003,9 @@
       <c r="EQ74" s="160"/>
     </row>
     <row r="75" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="268"/>
-      <c r="B75" s="234"/>
-      <c r="D75" s="262"/>
+      <c r="A75" s="303"/>
+      <c r="B75" s="306"/>
+      <c r="D75" s="296"/>
       <c r="E75" s="189"/>
       <c r="G75" s="191"/>
       <c r="H75" s="123"/>
@@ -16106,11 +16150,11 @@
       <c r="EQ75" s="124"/>
     </row>
     <row r="76" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="253"/>
-      <c r="B76" s="245" t="s">
+      <c r="A76" s="273"/>
+      <c r="B76" s="307" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="278" t="s">
+      <c r="D76" s="282" t="s">
         <v>331</v>
       </c>
       <c r="E76" s="187"/>
@@ -16257,9 +16301,9 @@
       <c r="EQ76" s="16"/>
     </row>
     <row r="77" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="243"/>
-      <c r="B77" s="246"/>
-      <c r="D77" s="279"/>
+      <c r="A77" s="274"/>
+      <c r="B77" s="308"/>
+      <c r="D77" s="283"/>
       <c r="E77" s="188"/>
       <c r="G77" s="191"/>
       <c r="H77" s="159"/>
@@ -16404,9 +16448,9 @@
       <c r="EQ77" s="160"/>
     </row>
     <row r="78" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="243"/>
-      <c r="B78" s="246"/>
-      <c r="D78" s="279"/>
+      <c r="A78" s="274"/>
+      <c r="B78" s="308"/>
+      <c r="D78" s="283"/>
       <c r="E78" s="188"/>
       <c r="G78" s="191"/>
       <c r="H78" s="159"/>
@@ -16551,9 +16595,9 @@
       <c r="EQ78" s="160"/>
     </row>
     <row r="79" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="243"/>
-      <c r="B79" s="246"/>
-      <c r="D79" s="279"/>
+      <c r="A79" s="274"/>
+      <c r="B79" s="308"/>
+      <c r="D79" s="283"/>
       <c r="E79" s="188"/>
       <c r="G79" s="191"/>
       <c r="H79" s="123"/>
@@ -16701,7 +16745,7 @@
       <c r="A80" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="246"/>
+      <c r="B80" s="308"/>
       <c r="C80" s="126"/>
       <c r="D80" s="178" t="s">
         <v>268</v>
@@ -16855,7 +16899,7 @@
       <c r="A81" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="246"/>
+      <c r="B81" s="308"/>
       <c r="C81" s="126"/>
       <c r="D81" s="179" t="s">
         <v>268</v>
@@ -17009,7 +17053,7 @@
       <c r="A82" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="246"/>
+      <c r="B82" s="308"/>
       <c r="C82" s="126"/>
       <c r="D82" s="179" t="s">
         <v>268</v>
@@ -17161,7 +17205,7 @@
     </row>
     <row r="83" spans="1:147" s="152" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="246"/>
+      <c r="B83" s="308"/>
       <c r="C83" s="126"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
@@ -17308,9 +17352,9 @@
       <c r="EQ83" s="124"/>
     </row>
     <row r="84" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="242"/>
-      <c r="B84" s="246"/>
-      <c r="D84" s="242"/>
+      <c r="A84" s="276"/>
+      <c r="B84" s="308"/>
+      <c r="D84" s="276"/>
       <c r="E84" s="188"/>
       <c r="G84" s="156"/>
       <c r="H84" s="157"/>
@@ -17373,7 +17417,7 @@
       <c r="BM84" s="157"/>
       <c r="BN84" s="157"/>
       <c r="BO84" s="157"/>
-      <c r="BP84" s="276" t="s">
+      <c r="BP84" s="245" t="s">
         <v>307</v>
       </c>
       <c r="BQ84" s="157"/>
@@ -17457,9 +17501,9 @@
       <c r="EQ84" s="16"/>
     </row>
     <row r="85" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="243"/>
-      <c r="B85" s="246"/>
-      <c r="D85" s="243"/>
+      <c r="A85" s="274"/>
+      <c r="B85" s="308"/>
+      <c r="D85" s="274"/>
       <c r="E85" s="188"/>
       <c r="G85" s="158"/>
       <c r="H85" s="159"/>
@@ -17522,7 +17566,7 @@
       <c r="BM85" s="159"/>
       <c r="BN85" s="159"/>
       <c r="BO85" s="159"/>
-      <c r="BP85" s="277"/>
+      <c r="BP85" s="275"/>
       <c r="BQ85" s="159"/>
       <c r="BR85" s="159"/>
       <c r="BS85" s="159"/>
@@ -17604,9 +17648,9 @@
       <c r="EQ85" s="160"/>
     </row>
     <row r="86" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="243"/>
-      <c r="B86" s="246"/>
-      <c r="D86" s="243"/>
+      <c r="A86" s="274"/>
+      <c r="B86" s="308"/>
+      <c r="D86" s="274"/>
       <c r="E86" s="188"/>
       <c r="G86" s="158"/>
       <c r="H86" s="159"/>
@@ -17669,7 +17713,7 @@
       <c r="BM86" s="159"/>
       <c r="BN86" s="159"/>
       <c r="BO86" s="159"/>
-      <c r="BP86" s="277"/>
+      <c r="BP86" s="275"/>
       <c r="BQ86" s="159"/>
       <c r="BR86" s="159"/>
       <c r="BS86" s="159"/>
@@ -17751,9 +17795,9 @@
       <c r="EQ86" s="160"/>
     </row>
     <row r="87" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="254"/>
-      <c r="B87" s="246"/>
-      <c r="D87" s="254"/>
+      <c r="A87" s="277"/>
+      <c r="B87" s="308"/>
+      <c r="D87" s="277"/>
       <c r="E87" s="188"/>
       <c r="G87" s="13"/>
       <c r="H87" s="123"/>
@@ -17816,7 +17860,7 @@
       <c r="BM87" s="123"/>
       <c r="BN87" s="123"/>
       <c r="BO87" s="123"/>
-      <c r="BP87" s="277"/>
+      <c r="BP87" s="275"/>
       <c r="BQ87" s="123"/>
       <c r="BR87" s="123"/>
       <c r="BS87" s="123"/>
@@ -17898,11 +17942,11 @@
       <c r="EQ87" s="124"/>
     </row>
     <row r="88" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="242" t="s">
+      <c r="A88" s="276" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="246"/>
-      <c r="D88" s="242" t="s">
+      <c r="B88" s="308"/>
+      <c r="D88" s="276" t="s">
         <v>308</v>
       </c>
       <c r="E88" s="188"/>
@@ -17994,7 +18038,7 @@
       <c r="CN88" s="157"/>
       <c r="CO88" s="157"/>
       <c r="CP88" s="157"/>
-      <c r="CQ88" s="292" t="s">
+      <c r="CQ88" s="225" t="s">
         <v>306</v>
       </c>
       <c r="CR88" s="157"/>
@@ -18051,9 +18095,9 @@
       <c r="EQ88" s="16"/>
     </row>
     <row r="89" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="243"/>
-      <c r="B89" s="246"/>
-      <c r="D89" s="243"/>
+      <c r="A89" s="274"/>
+      <c r="B89" s="308"/>
+      <c r="D89" s="274"/>
       <c r="E89" s="188"/>
       <c r="G89" s="158"/>
       <c r="H89" s="159"/>
@@ -18122,13 +18166,13 @@
       <c r="BT89" s="159"/>
       <c r="BU89" s="159"/>
       <c r="BV89" s="159"/>
-      <c r="CQ89" s="293"/>
+      <c r="CQ89" s="226"/>
       <c r="EQ89" s="160"/>
     </row>
     <row r="90" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="243"/>
-      <c r="B90" s="246"/>
-      <c r="D90" s="243"/>
+      <c r="A90" s="274"/>
+      <c r="B90" s="308"/>
+      <c r="D90" s="274"/>
       <c r="E90" s="188"/>
       <c r="G90" s="158"/>
       <c r="H90" s="159"/>
@@ -18197,13 +18241,13 @@
       <c r="BT90" s="159"/>
       <c r="BU90" s="159"/>
       <c r="BV90" s="159"/>
-      <c r="CQ90" s="293"/>
+      <c r="CQ90" s="226"/>
       <c r="EQ90" s="160"/>
     </row>
     <row r="91" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="244"/>
-      <c r="B91" s="247"/>
-      <c r="D91" s="244"/>
+      <c r="A91" s="287"/>
+      <c r="B91" s="309"/>
+      <c r="D91" s="287"/>
       <c r="E91" s="189"/>
       <c r="G91" s="13"/>
       <c r="H91" s="123"/>
@@ -18293,7 +18337,7 @@
       <c r="CN91" s="123"/>
       <c r="CO91" s="123"/>
       <c r="CP91" s="123"/>
-      <c r="CQ91" s="294"/>
+      <c r="CQ91" s="227"/>
       <c r="CR91" s="123"/>
       <c r="CS91" s="123"/>
       <c r="CT91" s="123"/>
@@ -18438,7 +18482,106 @@
     <row r="180" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="123">
+    <mergeCell ref="DL3:DL7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DJ3:DJ7"/>
+    <mergeCell ref="BF3:BF7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="CD3:CD7"/>
+    <mergeCell ref="CE3:CE7"/>
+    <mergeCell ref="CF3:CF7"/>
+    <mergeCell ref="CG3:CG7"/>
+    <mergeCell ref="CH3:CH7"/>
+    <mergeCell ref="CI3:CI7"/>
+    <mergeCell ref="DH3:DH7"/>
+    <mergeCell ref="DI3:DI7"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="BP24:BP27"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BV3:BV7"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="E3:E51"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="BP84:BP87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="BU60:BU63"/>
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="BV52:BV55"/>
+    <mergeCell ref="CB3:CB7"/>
+    <mergeCell ref="CC3:CC7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BZ3:BZ7"/>
+    <mergeCell ref="CA3:CA7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CJ3:CJ7"/>
+    <mergeCell ref="CK3:CK7"/>
+    <mergeCell ref="CL3:CL7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
     <mergeCell ref="DC3:DC7"/>
     <mergeCell ref="DD3:DD7"/>
     <mergeCell ref="DE3:DE7"/>
@@ -18463,103 +18606,6 @@
     <mergeCell ref="CQ3:CQ7"/>
     <mergeCell ref="CR3:CR7"/>
     <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="BV52:BV55"/>
-    <mergeCell ref="CB3:CB7"/>
-    <mergeCell ref="CC3:CC7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BZ3:BZ7"/>
-    <mergeCell ref="CA3:CA7"/>
-    <mergeCell ref="BP24:BP27"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="E3:E51"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="BP84:BP87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="BU60:BU63"/>
-    <mergeCell ref="CJ3:CJ7"/>
-    <mergeCell ref="CK3:CK7"/>
-    <mergeCell ref="CL3:CL7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="E52:E63"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="DJ3:DJ7"/>
-    <mergeCell ref="BF3:BF7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="CD3:CD7"/>
-    <mergeCell ref="CE3:CE7"/>
-    <mergeCell ref="CF3:CF7"/>
-    <mergeCell ref="CG3:CG7"/>
-    <mergeCell ref="CH3:CH7"/>
-    <mergeCell ref="CI3:CI7"/>
-    <mergeCell ref="DH3:DH7"/>
-    <mergeCell ref="DI3:DI7"/>
-    <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="DB3:DB7"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18573,8 +18619,8 @@
   </sheetPr>
   <dimension ref="A1:EM177"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DD16" sqref="DD16"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18585,7 +18631,7 @@
     <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="69" width="9.7109375" style="220" customWidth="1"/>
+    <col min="7" max="69" width="9.7109375" style="218" customWidth="1"/>
     <col min="70" max="143" width="9.7109375" style="1" customWidth="1"/>
     <col min="144" max="16384" width="7.42578125" style="1"/>
   </cols>
@@ -18593,80 +18639,80 @@
     <row r="1" spans="1:143" s="126" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="153"/>
       <c r="B1" s="153"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="218"/>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="218"/>
-      <c r="AF1" s="218"/>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="218"/>
-      <c r="AJ1" s="218"/>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="218"/>
-      <c r="AN1" s="218"/>
-      <c r="AO1" s="218"/>
-      <c r="AP1" s="218"/>
-      <c r="AQ1" s="218"/>
-      <c r="AR1" s="218"/>
-      <c r="AS1" s="218"/>
-      <c r="AT1" s="218"/>
-      <c r="AU1" s="218"/>
-      <c r="AV1" s="218"/>
-      <c r="AW1" s="218"/>
-      <c r="AX1" s="218"/>
-      <c r="AY1" s="218"/>
-      <c r="AZ1" s="218"/>
-      <c r="BA1" s="218"/>
-      <c r="BB1" s="218"/>
-      <c r="BC1" s="218"/>
-      <c r="BD1" s="218"/>
-      <c r="BE1" s="218"/>
-      <c r="BF1" s="218"/>
-      <c r="BG1" s="218"/>
-      <c r="BH1" s="218"/>
-      <c r="BI1" s="218"/>
-      <c r="BJ1" s="218"/>
-      <c r="BK1" s="218"/>
-      <c r="BL1" s="218"/>
-      <c r="BM1" s="218"/>
-      <c r="BN1" s="218"/>
-      <c r="BO1" s="218"/>
-      <c r="BP1" s="218"/>
-      <c r="BQ1" s="218"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="216"/>
+      <c r="AN1" s="216"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="216"/>
+      <c r="AR1" s="216"/>
+      <c r="AS1" s="216"/>
+      <c r="AT1" s="216"/>
+      <c r="AU1" s="216"/>
+      <c r="AV1" s="216"/>
+      <c r="AW1" s="216"/>
+      <c r="AX1" s="216"/>
+      <c r="AY1" s="216"/>
+      <c r="AZ1" s="216"/>
+      <c r="BA1" s="216"/>
+      <c r="BB1" s="216"/>
+      <c r="BC1" s="216"/>
+      <c r="BD1" s="216"/>
+      <c r="BE1" s="216"/>
+      <c r="BF1" s="216"/>
+      <c r="BG1" s="216"/>
+      <c r="BH1" s="216"/>
+      <c r="BI1" s="216"/>
+      <c r="BJ1" s="216"/>
+      <c r="BK1" s="216"/>
+      <c r="BL1" s="216"/>
+      <c r="BM1" s="216"/>
+      <c r="BN1" s="216"/>
+      <c r="BO1" s="216"/>
+      <c r="BP1" s="216"/>
+      <c r="BQ1" s="216"/>
     </row>
     <row r="2" spans="1:143" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="316" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="231" t="s">
+      <c r="B2" s="316"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="316" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="231"/>
+      <c r="E2" s="316"/>
       <c r="F2" s="190" t="s">
         <v>335</v>
       </c>
@@ -19081,17 +19127,17 @@
       </c>
     </row>
     <row r="3" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="278" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="270" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="252" t="s">
+      <c r="C3" s="338"/>
+      <c r="D3" s="278" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="239" t="s">
+      <c r="E3" s="270" t="s">
         <v>267</v>
       </c>
       <c r="G3" s="129" t="s">
@@ -19213,198 +19259,202 @@
       <c r="AY3" s="122"/>
       <c r="AZ3" s="85"/>
       <c r="BA3" s="122"/>
-      <c r="BB3" s="225" t="s">
+      <c r="BB3" s="323" t="s">
         <v>373</v>
       </c>
-      <c r="BC3" s="228" t="s">
+      <c r="BC3" s="229" t="s">
         <v>375</v>
       </c>
-      <c r="BD3" s="228" t="s">
+      <c r="BD3" s="229" t="s">
         <v>376</v>
       </c>
-      <c r="BE3" s="228" t="s">
+      <c r="BE3" s="229" t="s">
         <v>377</v>
       </c>
-      <c r="BF3" s="228" t="s">
+      <c r="BF3" s="229" t="s">
         <v>378</v>
       </c>
-      <c r="BG3" s="228" t="s">
+      <c r="BG3" s="229" t="s">
         <v>379</v>
       </c>
-      <c r="BH3" s="228" t="s">
+      <c r="BH3" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="BI3" s="228" t="s">
+      <c r="BI3" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="BJ3" s="228" t="s">
+      <c r="BJ3" s="229" t="s">
         <v>382</v>
       </c>
-      <c r="BK3" s="228" t="s">
+      <c r="BK3" s="229" t="s">
         <v>383</v>
       </c>
-      <c r="BL3" s="228" t="s">
+      <c r="BL3" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="BM3" s="228" t="s">
+      <c r="BM3" s="229" t="s">
         <v>385</v>
       </c>
-      <c r="BN3" s="228" t="s">
+      <c r="BN3" s="229" t="s">
         <v>386</v>
       </c>
-      <c r="BO3" s="228" t="s">
+      <c r="BO3" s="229" t="s">
         <v>387</v>
       </c>
-      <c r="BP3" s="228" t="s">
+      <c r="BP3" s="229" t="s">
         <v>388</v>
       </c>
-      <c r="BQ3" s="228" t="s">
+      <c r="BQ3" s="229" t="s">
         <v>389</v>
       </c>
-      <c r="BR3" s="228" t="s">
+      <c r="BR3" s="229" t="s">
         <v>390</v>
       </c>
-      <c r="BS3" s="228" t="s">
+      <c r="BS3" s="229" t="s">
         <v>391</v>
       </c>
-      <c r="BT3" s="228" t="s">
+      <c r="BT3" s="229" t="s">
         <v>392</v>
       </c>
-      <c r="BU3" s="228" t="s">
+      <c r="BU3" s="229" t="s">
         <v>393</v>
       </c>
-      <c r="BV3" s="228" t="s">
+      <c r="BV3" s="229" t="s">
         <v>394</v>
       </c>
-      <c r="BW3" s="228" t="s">
+      <c r="BW3" s="229" t="s">
         <v>395</v>
       </c>
-      <c r="BX3" s="228" t="s">
+      <c r="BX3" s="229" t="s">
         <v>396</v>
       </c>
-      <c r="BY3" s="286" t="s">
+      <c r="BY3" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="BZ3" s="225" t="s">
+      <c r="BZ3" s="323" t="s">
         <v>374</v>
       </c>
-      <c r="CA3" s="228" t="s">
+      <c r="CA3" s="229" t="s">
         <v>398</v>
       </c>
-      <c r="CB3" s="228" t="s">
+      <c r="CB3" s="229" t="s">
         <v>399</v>
       </c>
-      <c r="CC3" s="228" t="s">
+      <c r="CC3" s="229" t="s">
         <v>400</v>
       </c>
-      <c r="CD3" s="228" t="s">
+      <c r="CD3" s="229" t="s">
         <v>401</v>
       </c>
-      <c r="CE3" s="228" t="s">
+      <c r="CE3" s="229" t="s">
         <v>402</v>
       </c>
-      <c r="CF3" s="228" t="s">
+      <c r="CF3" s="229" t="s">
         <v>403</v>
       </c>
-      <c r="CG3" s="228" t="s">
+      <c r="CG3" s="229" t="s">
         <v>404</v>
       </c>
-      <c r="CH3" s="228" t="s">
+      <c r="CH3" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="CI3" s="228" t="s">
+      <c r="CI3" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="CJ3" s="228" t="s">
+      <c r="CJ3" s="229" t="s">
         <v>407</v>
       </c>
-      <c r="CK3" s="228" t="s">
+      <c r="CK3" s="229" t="s">
         <v>408</v>
       </c>
-      <c r="CL3" s="228" t="s">
+      <c r="CL3" s="229" t="s">
         <v>409</v>
       </c>
-      <c r="CM3" s="228" t="s">
+      <c r="CM3" s="229" t="s">
         <v>410</v>
       </c>
-      <c r="CN3" s="228" t="s">
+      <c r="CN3" s="229" t="s">
         <v>411</v>
       </c>
-      <c r="CO3" s="228" t="s">
+      <c r="CO3" s="229" t="s">
         <v>412</v>
       </c>
-      <c r="CP3" s="228" t="s">
+      <c r="CP3" s="229" t="s">
         <v>413</v>
       </c>
-      <c r="CQ3" s="228" t="s">
+      <c r="CQ3" s="229" t="s">
         <v>414</v>
       </c>
-      <c r="CR3" s="228" t="s">
+      <c r="CR3" s="229" t="s">
         <v>415</v>
       </c>
-      <c r="CS3" s="228" t="s">
+      <c r="CS3" s="229" t="s">
         <v>416</v>
       </c>
-      <c r="CT3" s="228" t="s">
+      <c r="CT3" s="229" t="s">
         <v>417</v>
       </c>
-      <c r="CU3" s="228" t="s">
+      <c r="CU3" s="229" t="s">
         <v>418</v>
       </c>
-      <c r="CV3" s="228" t="s">
+      <c r="CV3" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="CW3" s="286" t="s">
+      <c r="CW3" s="231" t="s">
         <v>420</v>
       </c>
-      <c r="CX3" s="329" t="s">
+      <c r="CX3" s="332" t="s">
         <v>188</v>
       </c>
-      <c r="CY3" s="332" t="s">
+      <c r="CY3" s="222" t="s">
         <v>188</v>
       </c>
-      <c r="CZ3" s="332" t="s">
+      <c r="CZ3" s="222" t="s">
         <v>188</v>
       </c>
-      <c r="DA3" s="332" t="s">
+      <c r="DA3" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="DB3" s="332" t="s">
+      <c r="DB3" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="DC3" s="317" t="s">
+      <c r="DC3" s="255" t="s">
         <v>189</v>
       </c>
-      <c r="DD3" s="323" t="s">
+      <c r="DD3" s="326" t="s">
         <v>433</v>
       </c>
-      <c r="DE3" s="326" t="s">
+      <c r="DE3" s="329" t="s">
         <v>434</v>
       </c>
-      <c r="DF3" s="222" t="s">
+      <c r="DF3" s="320" t="s">
         <v>366</v>
       </c>
-      <c r="DG3" s="320" t="s">
+      <c r="DG3" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="DH3" s="137"/>
-      <c r="DI3" s="64"/>
+      <c r="DH3" s="342" t="s">
+        <v>503</v>
+      </c>
+      <c r="DI3" s="343" t="s">
+        <v>504</v>
+      </c>
       <c r="DJ3" s="137"/>
       <c r="DK3" s="14"/>
       <c r="DL3" s="64"/>
-      <c r="DM3" s="306" t="s">
+      <c r="DM3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DN3" s="306" t="s">
+      <c r="DN3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DO3" s="306" t="s">
+      <c r="DO3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DP3" s="306" t="s">
+      <c r="DP3" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="DQ3" s="309" t="s">
+      <c r="DQ3" s="247" t="s">
         <v>116</v>
       </c>
       <c r="DR3" s="140"/>
@@ -19443,11 +19493,11 @@
       </c>
     </row>
     <row r="4" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="237"/>
-      <c r="B4" s="240"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="240"/>
+      <c r="A4" s="279"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="271"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -19566,81 +19616,81 @@
       <c r="AT4" s="121" t="s">
         <v>502</v>
       </c>
-      <c r="AU4" s="219"/>
-      <c r="AV4" s="219"/>
+      <c r="AU4" s="217"/>
+      <c r="AV4" s="217"/>
       <c r="AW4" s="20"/>
       <c r="AX4" s="138"/>
       <c r="AY4" s="117"/>
-      <c r="AZ4" s="219"/>
+      <c r="AZ4" s="217"/>
       <c r="BA4" s="117"/>
-      <c r="BB4" s="226"/>
-      <c r="BC4" s="229"/>
-      <c r="BD4" s="229"/>
-      <c r="BE4" s="229"/>
-      <c r="BF4" s="229"/>
-      <c r="BG4" s="229"/>
-      <c r="BH4" s="229"/>
-      <c r="BI4" s="229"/>
-      <c r="BJ4" s="229"/>
-      <c r="BK4" s="229"/>
-      <c r="BL4" s="229"/>
-      <c r="BM4" s="229"/>
-      <c r="BN4" s="229"/>
-      <c r="BO4" s="229"/>
-      <c r="BP4" s="229"/>
-      <c r="BQ4" s="229"/>
-      <c r="BR4" s="229"/>
-      <c r="BS4" s="229"/>
-      <c r="BT4" s="229"/>
-      <c r="BU4" s="229"/>
-      <c r="BV4" s="229"/>
-      <c r="BW4" s="229"/>
-      <c r="BX4" s="229"/>
-      <c r="BY4" s="287"/>
-      <c r="BZ4" s="226"/>
-      <c r="CA4" s="229"/>
-      <c r="CB4" s="229"/>
-      <c r="CC4" s="229"/>
-      <c r="CD4" s="229"/>
-      <c r="CE4" s="229"/>
-      <c r="CF4" s="229"/>
-      <c r="CG4" s="229"/>
-      <c r="CH4" s="229"/>
-      <c r="CI4" s="229"/>
-      <c r="CJ4" s="229"/>
-      <c r="CK4" s="229"/>
-      <c r="CL4" s="229"/>
-      <c r="CM4" s="229"/>
-      <c r="CN4" s="229"/>
-      <c r="CO4" s="229"/>
-      <c r="CP4" s="229"/>
-      <c r="CQ4" s="229"/>
-      <c r="CR4" s="229"/>
-      <c r="CS4" s="229"/>
-      <c r="CT4" s="229"/>
-      <c r="CU4" s="229"/>
-      <c r="CV4" s="229"/>
-      <c r="CW4" s="287"/>
-      <c r="CX4" s="330"/>
-      <c r="CY4" s="333"/>
-      <c r="CZ4" s="333"/>
-      <c r="DA4" s="333"/>
-      <c r="DB4" s="333"/>
-      <c r="DC4" s="318"/>
-      <c r="DD4" s="324"/>
-      <c r="DE4" s="327"/>
-      <c r="DF4" s="223"/>
-      <c r="DG4" s="321"/>
-      <c r="DH4" s="131"/>
-      <c r="DI4" s="20"/>
+      <c r="BB4" s="324"/>
+      <c r="BC4" s="230"/>
+      <c r="BD4" s="230"/>
+      <c r="BE4" s="230"/>
+      <c r="BF4" s="230"/>
+      <c r="BG4" s="230"/>
+      <c r="BH4" s="230"/>
+      <c r="BI4" s="230"/>
+      <c r="BJ4" s="230"/>
+      <c r="BK4" s="230"/>
+      <c r="BL4" s="230"/>
+      <c r="BM4" s="230"/>
+      <c r="BN4" s="230"/>
+      <c r="BO4" s="230"/>
+      <c r="BP4" s="230"/>
+      <c r="BQ4" s="230"/>
+      <c r="BR4" s="230"/>
+      <c r="BS4" s="230"/>
+      <c r="BT4" s="230"/>
+      <c r="BU4" s="230"/>
+      <c r="BV4" s="230"/>
+      <c r="BW4" s="230"/>
+      <c r="BX4" s="230"/>
+      <c r="BY4" s="232"/>
+      <c r="BZ4" s="324"/>
+      <c r="CA4" s="230"/>
+      <c r="CB4" s="230"/>
+      <c r="CC4" s="230"/>
+      <c r="CD4" s="230"/>
+      <c r="CE4" s="230"/>
+      <c r="CF4" s="230"/>
+      <c r="CG4" s="230"/>
+      <c r="CH4" s="230"/>
+      <c r="CI4" s="230"/>
+      <c r="CJ4" s="230"/>
+      <c r="CK4" s="230"/>
+      <c r="CL4" s="230"/>
+      <c r="CM4" s="230"/>
+      <c r="CN4" s="230"/>
+      <c r="CO4" s="230"/>
+      <c r="CP4" s="230"/>
+      <c r="CQ4" s="230"/>
+      <c r="CR4" s="230"/>
+      <c r="CS4" s="230"/>
+      <c r="CT4" s="230"/>
+      <c r="CU4" s="230"/>
+      <c r="CV4" s="230"/>
+      <c r="CW4" s="232"/>
+      <c r="CX4" s="333"/>
+      <c r="CY4" s="223"/>
+      <c r="CZ4" s="223"/>
+      <c r="DA4" s="223"/>
+      <c r="DB4" s="223"/>
+      <c r="DC4" s="256"/>
+      <c r="DD4" s="327"/>
+      <c r="DE4" s="330"/>
+      <c r="DF4" s="321"/>
+      <c r="DG4" s="259"/>
+      <c r="DH4" s="344"/>
+      <c r="DI4" s="345"/>
       <c r="DJ4" s="131"/>
-      <c r="DK4" s="219"/>
+      <c r="DK4" s="217"/>
       <c r="DL4" s="20"/>
-      <c r="DM4" s="307"/>
-      <c r="DN4" s="307"/>
-      <c r="DO4" s="307"/>
-      <c r="DP4" s="307"/>
-      <c r="DQ4" s="310"/>
+      <c r="DM4" s="244"/>
+      <c r="DN4" s="244"/>
+      <c r="DO4" s="244"/>
+      <c r="DP4" s="244"/>
+      <c r="DQ4" s="248"/>
       <c r="DR4" s="136"/>
       <c r="DS4" s="118"/>
       <c r="DT4" s="118"/>
@@ -19669,11 +19719,11 @@
       </c>
     </row>
     <row r="5" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="335"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="240"/>
+      <c r="A5" s="279"/>
+      <c r="B5" s="271"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="271"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -19741,92 +19791,92 @@
       <c r="AG5" s="30"/>
       <c r="AH5" s="144"/>
       <c r="AI5" s="131"/>
-      <c r="AJ5" s="219"/>
-      <c r="AK5" s="219"/>
-      <c r="AL5" s="219"/>
-      <c r="AM5" s="219"/>
-      <c r="AN5" s="219"/>
-      <c r="AO5" s="219"/>
+      <c r="AJ5" s="217"/>
+      <c r="AK5" s="217"/>
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="217"/>
+      <c r="AN5" s="217"/>
+      <c r="AO5" s="217"/>
       <c r="AP5" s="138"/>
       <c r="AQ5" s="131"/>
-      <c r="AR5" s="219"/>
-      <c r="AS5" s="219"/>
-      <c r="AT5" s="219"/>
-      <c r="AU5" s="219"/>
-      <c r="AV5" s="219"/>
+      <c r="AR5" s="217"/>
+      <c r="AS5" s="217"/>
+      <c r="AT5" s="217"/>
+      <c r="AU5" s="217"/>
+      <c r="AV5" s="217"/>
       <c r="AW5" s="20"/>
       <c r="AX5" s="138"/>
       <c r="AY5" s="117"/>
-      <c r="AZ5" s="219"/>
+      <c r="AZ5" s="217"/>
       <c r="BA5" s="117"/>
-      <c r="BB5" s="226"/>
-      <c r="BC5" s="229"/>
-      <c r="BD5" s="229"/>
-      <c r="BE5" s="229"/>
-      <c r="BF5" s="229"/>
-      <c r="BG5" s="229"/>
-      <c r="BH5" s="229"/>
-      <c r="BI5" s="229"/>
-      <c r="BJ5" s="229"/>
-      <c r="BK5" s="229"/>
-      <c r="BL5" s="229"/>
-      <c r="BM5" s="229"/>
-      <c r="BN5" s="229"/>
-      <c r="BO5" s="229"/>
-      <c r="BP5" s="229"/>
-      <c r="BQ5" s="229"/>
-      <c r="BR5" s="229"/>
-      <c r="BS5" s="229"/>
-      <c r="BT5" s="229"/>
-      <c r="BU5" s="229"/>
-      <c r="BV5" s="229"/>
-      <c r="BW5" s="229"/>
-      <c r="BX5" s="229"/>
-      <c r="BY5" s="287"/>
-      <c r="BZ5" s="226"/>
-      <c r="CA5" s="229"/>
-      <c r="CB5" s="229"/>
-      <c r="CC5" s="229"/>
-      <c r="CD5" s="229"/>
-      <c r="CE5" s="229"/>
-      <c r="CF5" s="229"/>
-      <c r="CG5" s="229"/>
-      <c r="CH5" s="229"/>
-      <c r="CI5" s="229"/>
-      <c r="CJ5" s="229"/>
-      <c r="CK5" s="229"/>
-      <c r="CL5" s="229"/>
-      <c r="CM5" s="229"/>
-      <c r="CN5" s="229"/>
-      <c r="CO5" s="229"/>
-      <c r="CP5" s="229"/>
-      <c r="CQ5" s="229"/>
-      <c r="CR5" s="229"/>
-      <c r="CS5" s="229"/>
-      <c r="CT5" s="229"/>
-      <c r="CU5" s="229"/>
-      <c r="CV5" s="229"/>
-      <c r="CW5" s="287"/>
-      <c r="CX5" s="330"/>
-      <c r="CY5" s="333"/>
-      <c r="CZ5" s="333"/>
-      <c r="DA5" s="333"/>
-      <c r="DB5" s="333"/>
-      <c r="DC5" s="318"/>
-      <c r="DD5" s="324"/>
-      <c r="DE5" s="327"/>
-      <c r="DF5" s="223"/>
-      <c r="DG5" s="321"/>
-      <c r="DH5" s="131"/>
-      <c r="DI5" s="20"/>
+      <c r="BB5" s="324"/>
+      <c r="BC5" s="230"/>
+      <c r="BD5" s="230"/>
+      <c r="BE5" s="230"/>
+      <c r="BF5" s="230"/>
+      <c r="BG5" s="230"/>
+      <c r="BH5" s="230"/>
+      <c r="BI5" s="230"/>
+      <c r="BJ5" s="230"/>
+      <c r="BK5" s="230"/>
+      <c r="BL5" s="230"/>
+      <c r="BM5" s="230"/>
+      <c r="BN5" s="230"/>
+      <c r="BO5" s="230"/>
+      <c r="BP5" s="230"/>
+      <c r="BQ5" s="230"/>
+      <c r="BR5" s="230"/>
+      <c r="BS5" s="230"/>
+      <c r="BT5" s="230"/>
+      <c r="BU5" s="230"/>
+      <c r="BV5" s="230"/>
+      <c r="BW5" s="230"/>
+      <c r="BX5" s="230"/>
+      <c r="BY5" s="232"/>
+      <c r="BZ5" s="324"/>
+      <c r="CA5" s="230"/>
+      <c r="CB5" s="230"/>
+      <c r="CC5" s="230"/>
+      <c r="CD5" s="230"/>
+      <c r="CE5" s="230"/>
+      <c r="CF5" s="230"/>
+      <c r="CG5" s="230"/>
+      <c r="CH5" s="230"/>
+      <c r="CI5" s="230"/>
+      <c r="CJ5" s="230"/>
+      <c r="CK5" s="230"/>
+      <c r="CL5" s="230"/>
+      <c r="CM5" s="230"/>
+      <c r="CN5" s="230"/>
+      <c r="CO5" s="230"/>
+      <c r="CP5" s="230"/>
+      <c r="CQ5" s="230"/>
+      <c r="CR5" s="230"/>
+      <c r="CS5" s="230"/>
+      <c r="CT5" s="230"/>
+      <c r="CU5" s="230"/>
+      <c r="CV5" s="230"/>
+      <c r="CW5" s="232"/>
+      <c r="CX5" s="333"/>
+      <c r="CY5" s="223"/>
+      <c r="CZ5" s="223"/>
+      <c r="DA5" s="223"/>
+      <c r="DB5" s="223"/>
+      <c r="DC5" s="256"/>
+      <c r="DD5" s="327"/>
+      <c r="DE5" s="330"/>
+      <c r="DF5" s="321"/>
+      <c r="DG5" s="259"/>
+      <c r="DH5" s="344"/>
+      <c r="DI5" s="345"/>
       <c r="DJ5" s="131"/>
-      <c r="DK5" s="219"/>
+      <c r="DK5" s="217"/>
       <c r="DL5" s="20"/>
-      <c r="DM5" s="307"/>
-      <c r="DN5" s="307"/>
-      <c r="DO5" s="307"/>
-      <c r="DP5" s="307"/>
-      <c r="DQ5" s="310"/>
+      <c r="DM5" s="244"/>
+      <c r="DN5" s="244"/>
+      <c r="DO5" s="244"/>
+      <c r="DP5" s="244"/>
+      <c r="DQ5" s="248"/>
       <c r="DR5" s="127" t="s">
         <v>191</v>
       </c>
@@ -19895,79 +19945,79 @@
       </c>
     </row>
     <row r="6" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
-      <c r="B6" s="240"/>
-      <c r="C6" s="335"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="240"/>
-      <c r="G6" s="214" t="s">
+      <c r="A6" s="279"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="271"/>
+      <c r="G6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="215" t="s">
+      <c r="H6" s="214" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="216" t="s">
+      <c r="I6" s="215" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="214" t="s">
+      <c r="J6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="214" t="s">
+      <c r="K6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="L6" s="214" t="s">
+      <c r="L6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="214" t="s">
+      <c r="M6" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="N6" s="214" t="s">
+      <c r="N6" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="214" t="s">
+      <c r="O6" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="215" t="s">
+      <c r="P6" s="214" t="s">
         <v>217</v>
       </c>
-      <c r="Q6" s="216" t="s">
+      <c r="Q6" s="215" t="s">
         <v>217</v>
       </c>
       <c r="R6" s="138"/>
-      <c r="S6" s="216" t="s">
+      <c r="S6" s="215" t="s">
         <v>449</v>
       </c>
-      <c r="T6" s="214" t="s">
+      <c r="T6" s="213" t="s">
         <v>449</v>
       </c>
-      <c r="U6" s="214" t="s">
+      <c r="U6" s="213" t="s">
         <v>449</v>
       </c>
-      <c r="V6" s="214" t="s">
+      <c r="V6" s="213" t="s">
         <v>449</v>
       </c>
-      <c r="W6" s="214" t="s">
+      <c r="W6" s="213" t="s">
         <v>448</v>
       </c>
-      <c r="X6" s="214" t="s">
+      <c r="X6" s="213" t="s">
         <v>448</v>
       </c>
-      <c r="Y6" s="214" t="s">
+      <c r="Y6" s="213" t="s">
         <v>448</v>
       </c>
-      <c r="Z6" s="215" t="s">
+      <c r="Z6" s="214" t="s">
         <v>448</v>
       </c>
-      <c r="AA6" s="216" t="s">
+      <c r="AA6" s="215" t="s">
         <v>448</v>
       </c>
-      <c r="AB6" s="214" t="s">
+      <c r="AB6" s="213" t="s">
         <v>448</v>
       </c>
-      <c r="AC6" s="214" t="s">
+      <c r="AC6" s="213" t="s">
         <v>448</v>
       </c>
-      <c r="AD6" s="214" t="s">
+      <c r="AD6" s="213" t="s">
         <v>448</v>
       </c>
       <c r="AE6" s="30"/>
@@ -19975,166 +20025,166 @@
       <c r="AG6" s="30"/>
       <c r="AH6" s="144"/>
       <c r="AI6" s="131"/>
-      <c r="AJ6" s="219"/>
-      <c r="AK6" s="219"/>
-      <c r="AL6" s="219"/>
-      <c r="AM6" s="219"/>
-      <c r="AN6" s="219"/>
-      <c r="AO6" s="219"/>
+      <c r="AJ6" s="217"/>
+      <c r="AK6" s="217"/>
+      <c r="AL6" s="217"/>
+      <c r="AM6" s="217"/>
+      <c r="AN6" s="217"/>
+      <c r="AO6" s="217"/>
       <c r="AP6" s="138"/>
       <c r="AQ6" s="131"/>
-      <c r="AR6" s="219"/>
-      <c r="AS6" s="219"/>
-      <c r="AT6" s="219"/>
-      <c r="AU6" s="219"/>
-      <c r="AV6" s="219"/>
+      <c r="AR6" s="217"/>
+      <c r="AS6" s="217"/>
+      <c r="AT6" s="217"/>
+      <c r="AU6" s="217"/>
+      <c r="AV6" s="217"/>
       <c r="AW6" s="20"/>
       <c r="AX6" s="138"/>
       <c r="AY6" s="117"/>
-      <c r="AZ6" s="219"/>
+      <c r="AZ6" s="217"/>
       <c r="BA6" s="117"/>
-      <c r="BB6" s="226"/>
-      <c r="BC6" s="229"/>
-      <c r="BD6" s="229"/>
-      <c r="BE6" s="229"/>
-      <c r="BF6" s="229"/>
-      <c r="BG6" s="229"/>
-      <c r="BH6" s="229"/>
-      <c r="BI6" s="229"/>
-      <c r="BJ6" s="229"/>
-      <c r="BK6" s="229"/>
-      <c r="BL6" s="229"/>
-      <c r="BM6" s="229"/>
-      <c r="BN6" s="229"/>
-      <c r="BO6" s="229"/>
-      <c r="BP6" s="229"/>
-      <c r="BQ6" s="229"/>
-      <c r="BR6" s="229"/>
-      <c r="BS6" s="229"/>
-      <c r="BT6" s="229"/>
-      <c r="BU6" s="229"/>
-      <c r="BV6" s="229"/>
-      <c r="BW6" s="229"/>
-      <c r="BX6" s="229"/>
-      <c r="BY6" s="287"/>
-      <c r="BZ6" s="226"/>
-      <c r="CA6" s="229"/>
-      <c r="CB6" s="229"/>
-      <c r="CC6" s="229"/>
-      <c r="CD6" s="229"/>
-      <c r="CE6" s="229"/>
-      <c r="CF6" s="229"/>
-      <c r="CG6" s="229"/>
-      <c r="CH6" s="229"/>
-      <c r="CI6" s="229"/>
-      <c r="CJ6" s="229"/>
-      <c r="CK6" s="229"/>
-      <c r="CL6" s="229"/>
-      <c r="CM6" s="229"/>
-      <c r="CN6" s="229"/>
-      <c r="CO6" s="229"/>
-      <c r="CP6" s="229"/>
-      <c r="CQ6" s="229"/>
-      <c r="CR6" s="229"/>
-      <c r="CS6" s="229"/>
-      <c r="CT6" s="229"/>
-      <c r="CU6" s="229"/>
-      <c r="CV6" s="229"/>
-      <c r="CW6" s="287"/>
-      <c r="CX6" s="330"/>
-      <c r="CY6" s="333"/>
-      <c r="CZ6" s="333"/>
-      <c r="DA6" s="333"/>
-      <c r="DB6" s="333"/>
-      <c r="DC6" s="318"/>
-      <c r="DD6" s="324"/>
-      <c r="DE6" s="327"/>
-      <c r="DF6" s="223"/>
-      <c r="DG6" s="321"/>
-      <c r="DH6" s="131"/>
-      <c r="DI6" s="20"/>
+      <c r="BB6" s="324"/>
+      <c r="BC6" s="230"/>
+      <c r="BD6" s="230"/>
+      <c r="BE6" s="230"/>
+      <c r="BF6" s="230"/>
+      <c r="BG6" s="230"/>
+      <c r="BH6" s="230"/>
+      <c r="BI6" s="230"/>
+      <c r="BJ6" s="230"/>
+      <c r="BK6" s="230"/>
+      <c r="BL6" s="230"/>
+      <c r="BM6" s="230"/>
+      <c r="BN6" s="230"/>
+      <c r="BO6" s="230"/>
+      <c r="BP6" s="230"/>
+      <c r="BQ6" s="230"/>
+      <c r="BR6" s="230"/>
+      <c r="BS6" s="230"/>
+      <c r="BT6" s="230"/>
+      <c r="BU6" s="230"/>
+      <c r="BV6" s="230"/>
+      <c r="BW6" s="230"/>
+      <c r="BX6" s="230"/>
+      <c r="BY6" s="232"/>
+      <c r="BZ6" s="324"/>
+      <c r="CA6" s="230"/>
+      <c r="CB6" s="230"/>
+      <c r="CC6" s="230"/>
+      <c r="CD6" s="230"/>
+      <c r="CE6" s="230"/>
+      <c r="CF6" s="230"/>
+      <c r="CG6" s="230"/>
+      <c r="CH6" s="230"/>
+      <c r="CI6" s="230"/>
+      <c r="CJ6" s="230"/>
+      <c r="CK6" s="230"/>
+      <c r="CL6" s="230"/>
+      <c r="CM6" s="230"/>
+      <c r="CN6" s="230"/>
+      <c r="CO6" s="230"/>
+      <c r="CP6" s="230"/>
+      <c r="CQ6" s="230"/>
+      <c r="CR6" s="230"/>
+      <c r="CS6" s="230"/>
+      <c r="CT6" s="230"/>
+      <c r="CU6" s="230"/>
+      <c r="CV6" s="230"/>
+      <c r="CW6" s="232"/>
+      <c r="CX6" s="333"/>
+      <c r="CY6" s="223"/>
+      <c r="CZ6" s="223"/>
+      <c r="DA6" s="223"/>
+      <c r="DB6" s="223"/>
+      <c r="DC6" s="256"/>
+      <c r="DD6" s="327"/>
+      <c r="DE6" s="330"/>
+      <c r="DF6" s="321"/>
+      <c r="DG6" s="259"/>
+      <c r="DH6" s="344"/>
+      <c r="DI6" s="345"/>
       <c r="DJ6" s="131"/>
-      <c r="DK6" s="219"/>
+      <c r="DK6" s="217"/>
       <c r="DL6" s="20"/>
-      <c r="DM6" s="276"/>
-      <c r="DN6" s="276"/>
-      <c r="DO6" s="276"/>
-      <c r="DP6" s="276"/>
-      <c r="DQ6" s="311"/>
+      <c r="DM6" s="245"/>
+      <c r="DN6" s="245"/>
+      <c r="DO6" s="245"/>
+      <c r="DP6" s="245"/>
+      <c r="DQ6" s="249"/>
       <c r="DR6" s="136"/>
       <c r="DS6" s="30"/>
       <c r="DT6" s="30"/>
       <c r="DU6" s="30"/>
-      <c r="DV6" s="214" t="s">
+      <c r="DV6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="DW6" s="214" t="s">
+      <c r="DW6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="DX6" s="214" t="s">
+      <c r="DX6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="DY6" s="215" t="s">
+      <c r="DY6" s="214" t="s">
         <v>214</v>
       </c>
-      <c r="DZ6" s="216" t="s">
+      <c r="DZ6" s="215" t="s">
         <v>214</v>
       </c>
-      <c r="EA6" s="214" t="s">
+      <c r="EA6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EB6" s="214" t="s">
+      <c r="EB6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="EC6" s="214" t="s">
+      <c r="EC6" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="ED6" s="214" t="s">
+      <c r="ED6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EE6" s="214" t="s">
+      <c r="EE6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EF6" s="214" t="s">
+      <c r="EF6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EG6" s="215" t="s">
+      <c r="EG6" s="214" t="s">
         <v>215</v>
       </c>
-      <c r="EH6" s="216" t="s">
+      <c r="EH6" s="215" t="s">
         <v>215</v>
       </c>
-      <c r="EI6" s="214" t="s">
+      <c r="EI6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EJ6" s="214" t="s">
+      <c r="EJ6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EK6" s="214" t="s">
+      <c r="EK6" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="EL6" s="214" t="s">
+      <c r="EL6" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="EM6" s="214" t="s">
+      <c r="EM6" s="213" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:143" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="251"/>
-      <c r="B7" s="240"/>
-      <c r="C7" s="335"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="240"/>
+      <c r="A7" s="280"/>
+      <c r="B7" s="271"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="271"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
-      <c r="I7" s="209" t="s">
+      <c r="I7" s="208" t="s">
         <v>423</v>
       </c>
-      <c r="J7" s="210" t="s">
+      <c r="J7" s="209" t="s">
         <v>423</v>
       </c>
-      <c r="K7" s="210" t="s">
+      <c r="K7" s="209" t="s">
         <v>423</v>
       </c>
       <c r="L7" s="145"/>
@@ -20142,17 +20192,17 @@
       <c r="N7" s="145"/>
       <c r="O7" s="145"/>
       <c r="P7" s="146"/>
-      <c r="Q7" s="213"/>
+      <c r="Q7" s="212"/>
       <c r="R7" s="138" t="s">
         <v>150</v>
       </c>
-      <c r="S7" s="209" t="s">
+      <c r="S7" s="208" t="s">
         <v>450</v>
       </c>
-      <c r="T7" s="210" t="s">
+      <c r="T7" s="209" t="s">
         <v>450</v>
       </c>
-      <c r="U7" s="210" t="s">
+      <c r="U7" s="209" t="s">
         <v>450</v>
       </c>
       <c r="V7" s="145"/>
@@ -20187,87 +20237,87 @@
       <c r="AY7" s="123"/>
       <c r="AZ7" s="119"/>
       <c r="BA7" s="123"/>
-      <c r="BB7" s="227"/>
-      <c r="BC7" s="230"/>
-      <c r="BD7" s="230"/>
-      <c r="BE7" s="230"/>
-      <c r="BF7" s="230"/>
-      <c r="BG7" s="230"/>
-      <c r="BH7" s="230"/>
-      <c r="BI7" s="230"/>
-      <c r="BJ7" s="230"/>
-      <c r="BK7" s="230"/>
-      <c r="BL7" s="230"/>
-      <c r="BM7" s="230"/>
-      <c r="BN7" s="230"/>
-      <c r="BO7" s="230"/>
-      <c r="BP7" s="230"/>
-      <c r="BQ7" s="230"/>
-      <c r="BR7" s="230"/>
-      <c r="BS7" s="230"/>
-      <c r="BT7" s="230"/>
-      <c r="BU7" s="230"/>
-      <c r="BV7" s="230"/>
-      <c r="BW7" s="230"/>
-      <c r="BX7" s="230"/>
-      <c r="BY7" s="288"/>
-      <c r="BZ7" s="227"/>
-      <c r="CA7" s="230"/>
-      <c r="CB7" s="230"/>
-      <c r="CC7" s="230"/>
-      <c r="CD7" s="230"/>
-      <c r="CE7" s="230"/>
-      <c r="CF7" s="230"/>
-      <c r="CG7" s="230"/>
-      <c r="CH7" s="230"/>
-      <c r="CI7" s="230"/>
-      <c r="CJ7" s="230"/>
-      <c r="CK7" s="230"/>
-      <c r="CL7" s="230"/>
-      <c r="CM7" s="230"/>
-      <c r="CN7" s="230"/>
-      <c r="CO7" s="230"/>
-      <c r="CP7" s="230"/>
-      <c r="CQ7" s="230"/>
-      <c r="CR7" s="230"/>
-      <c r="CS7" s="230"/>
-      <c r="CT7" s="230"/>
-      <c r="CU7" s="230"/>
-      <c r="CV7" s="230"/>
-      <c r="CW7" s="288"/>
-      <c r="CX7" s="331"/>
-      <c r="CY7" s="334"/>
-      <c r="CZ7" s="334"/>
-      <c r="DA7" s="334"/>
-      <c r="DB7" s="334"/>
-      <c r="DC7" s="319"/>
-      <c r="DD7" s="325"/>
-      <c r="DE7" s="328"/>
-      <c r="DF7" s="224"/>
-      <c r="DG7" s="322"/>
-      <c r="DH7" s="141"/>
-      <c r="DI7" s="148"/>
-      <c r="DJ7" s="209" t="s">
+      <c r="BB7" s="325"/>
+      <c r="BC7" s="264"/>
+      <c r="BD7" s="264"/>
+      <c r="BE7" s="264"/>
+      <c r="BF7" s="264"/>
+      <c r="BG7" s="264"/>
+      <c r="BH7" s="264"/>
+      <c r="BI7" s="264"/>
+      <c r="BJ7" s="264"/>
+      <c r="BK7" s="264"/>
+      <c r="BL7" s="264"/>
+      <c r="BM7" s="264"/>
+      <c r="BN7" s="264"/>
+      <c r="BO7" s="264"/>
+      <c r="BP7" s="264"/>
+      <c r="BQ7" s="264"/>
+      <c r="BR7" s="264"/>
+      <c r="BS7" s="264"/>
+      <c r="BT7" s="264"/>
+      <c r="BU7" s="264"/>
+      <c r="BV7" s="264"/>
+      <c r="BW7" s="264"/>
+      <c r="BX7" s="264"/>
+      <c r="BY7" s="265"/>
+      <c r="BZ7" s="325"/>
+      <c r="CA7" s="264"/>
+      <c r="CB7" s="264"/>
+      <c r="CC7" s="264"/>
+      <c r="CD7" s="264"/>
+      <c r="CE7" s="264"/>
+      <c r="CF7" s="264"/>
+      <c r="CG7" s="264"/>
+      <c r="CH7" s="264"/>
+      <c r="CI7" s="264"/>
+      <c r="CJ7" s="264"/>
+      <c r="CK7" s="264"/>
+      <c r="CL7" s="264"/>
+      <c r="CM7" s="264"/>
+      <c r="CN7" s="264"/>
+      <c r="CO7" s="264"/>
+      <c r="CP7" s="264"/>
+      <c r="CQ7" s="264"/>
+      <c r="CR7" s="264"/>
+      <c r="CS7" s="264"/>
+      <c r="CT7" s="264"/>
+      <c r="CU7" s="264"/>
+      <c r="CV7" s="264"/>
+      <c r="CW7" s="265"/>
+      <c r="CX7" s="334"/>
+      <c r="CY7" s="224"/>
+      <c r="CZ7" s="224"/>
+      <c r="DA7" s="224"/>
+      <c r="DB7" s="224"/>
+      <c r="DC7" s="257"/>
+      <c r="DD7" s="328"/>
+      <c r="DE7" s="331"/>
+      <c r="DF7" s="322"/>
+      <c r="DG7" s="260"/>
+      <c r="DH7" s="346"/>
+      <c r="DI7" s="347"/>
+      <c r="DJ7" s="208" t="s">
         <v>368</v>
       </c>
-      <c r="DK7" s="210" t="s">
+      <c r="DK7" s="209" t="s">
         <v>368</v>
       </c>
-      <c r="DL7" s="212" t="s">
+      <c r="DL7" s="211" t="s">
         <v>368</v>
       </c>
-      <c r="DM7" s="308"/>
-      <c r="DN7" s="308"/>
-      <c r="DO7" s="308"/>
-      <c r="DP7" s="308"/>
-      <c r="DQ7" s="312"/>
-      <c r="DR7" s="209" t="s">
+      <c r="DM7" s="246"/>
+      <c r="DN7" s="246"/>
+      <c r="DO7" s="246"/>
+      <c r="DP7" s="246"/>
+      <c r="DQ7" s="250"/>
+      <c r="DR7" s="208" t="s">
         <v>371</v>
       </c>
-      <c r="DS7" s="210" t="s">
+      <c r="DS7" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="DT7" s="212" t="s">
+      <c r="DT7" s="211" t="s">
         <v>371</v>
       </c>
       <c r="DU7" s="139"/>
@@ -20275,13 +20325,13 @@
       <c r="DW7" s="145"/>
       <c r="DX7" s="145"/>
       <c r="DY7" s="146"/>
-      <c r="DZ7" s="209" t="s">
+      <c r="DZ7" s="208" t="s">
         <v>425</v>
       </c>
-      <c r="EA7" s="210" t="s">
+      <c r="EA7" s="209" t="s">
         <v>425</v>
       </c>
-      <c r="EB7" s="212" t="s">
+      <c r="EB7" s="211" t="s">
         <v>425</v>
       </c>
       <c r="EC7" s="145"/>
@@ -20289,13 +20339,13 @@
       <c r="EE7" s="145"/>
       <c r="EF7" s="145"/>
       <c r="EG7" s="146"/>
-      <c r="EH7" s="209" t="s">
+      <c r="EH7" s="208" t="s">
         <v>426</v>
       </c>
-      <c r="EI7" s="210" t="s">
+      <c r="EI7" s="209" t="s">
         <v>426</v>
       </c>
-      <c r="EJ7" s="212" t="s">
+      <c r="EJ7" s="211" t="s">
         <v>426</v>
       </c>
       <c r="EK7" s="145"/>
@@ -20303,44 +20353,44 @@
       <c r="EM7" s="145"/>
     </row>
     <row r="8" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="236"/>
-      <c r="B8" s="240"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="240"/>
-      <c r="BR8" s="340" t="s">
+      <c r="A8" s="281"/>
+      <c r="B8" s="271"/>
+      <c r="D8" s="281"/>
+      <c r="E8" s="271"/>
+      <c r="BR8" s="336" t="s">
         <v>226</v>
       </c>
-      <c r="BS8" s="341"/>
-      <c r="BT8" s="341"/>
-      <c r="BU8" s="341"/>
-      <c r="BV8" s="341"/>
-      <c r="BW8" s="341"/>
-      <c r="BX8" s="341"/>
-      <c r="BY8" s="341"/>
-      <c r="BZ8" s="341"/>
-      <c r="CA8" s="341"/>
-      <c r="CB8" s="341"/>
-      <c r="CC8" s="341"/>
-      <c r="CD8" s="341"/>
-      <c r="CE8" s="341"/>
-      <c r="CF8" s="341"/>
-      <c r="CG8" s="341"/>
-      <c r="CH8" s="341"/>
-      <c r="CI8" s="341"/>
-      <c r="CJ8" s="341"/>
-      <c r="CK8" s="341"/>
-      <c r="CL8" s="341"/>
-      <c r="CM8" s="341"/>
-      <c r="CN8" s="341"/>
-      <c r="CO8" s="341"/>
-      <c r="CP8" s="341"/>
-      <c r="CQ8" s="341"/>
-      <c r="CR8" s="341"/>
-      <c r="CS8" s="341"/>
-      <c r="CT8" s="341"/>
-      <c r="CU8" s="341"/>
-      <c r="CV8" s="341"/>
-      <c r="CW8" s="341"/>
+      <c r="BS8" s="337"/>
+      <c r="BT8" s="337"/>
+      <c r="BU8" s="337"/>
+      <c r="BV8" s="337"/>
+      <c r="BW8" s="337"/>
+      <c r="BX8" s="337"/>
+      <c r="BY8" s="337"/>
+      <c r="BZ8" s="337"/>
+      <c r="CA8" s="337"/>
+      <c r="CB8" s="337"/>
+      <c r="CC8" s="337"/>
+      <c r="CD8" s="337"/>
+      <c r="CE8" s="337"/>
+      <c r="CF8" s="337"/>
+      <c r="CG8" s="337"/>
+      <c r="CH8" s="337"/>
+      <c r="CI8" s="337"/>
+      <c r="CJ8" s="337"/>
+      <c r="CK8" s="337"/>
+      <c r="CL8" s="337"/>
+      <c r="CM8" s="337"/>
+      <c r="CN8" s="337"/>
+      <c r="CO8" s="337"/>
+      <c r="CP8" s="337"/>
+      <c r="CQ8" s="337"/>
+      <c r="CR8" s="337"/>
+      <c r="CS8" s="337"/>
+      <c r="CT8" s="337"/>
+      <c r="CU8" s="337"/>
+      <c r="CV8" s="337"/>
+      <c r="CW8" s="337"/>
       <c r="CX8" s="116"/>
       <c r="CY8" s="116"/>
       <c r="CZ8" s="116"/>
@@ -20349,234 +20399,240 @@
       <c r="DC8" s="116"/>
     </row>
     <row r="9" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="237"/>
-      <c r="B9" s="240"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="240"/>
-      <c r="AG9" s="336" t="s">
+      <c r="A9" s="279"/>
+      <c r="B9" s="271"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="271"/>
+      <c r="AG9" s="339" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="337"/>
-      <c r="AI9" s="337"/>
-      <c r="AJ9" s="337"/>
-      <c r="AK9" s="337"/>
-      <c r="AL9" s="337"/>
-      <c r="AM9" s="337"/>
-      <c r="AN9" s="337"/>
-      <c r="AO9" s="337"/>
-      <c r="AP9" s="337"/>
-      <c r="AQ9" s="337"/>
-      <c r="AR9" s="337"/>
-      <c r="AS9" s="337"/>
-      <c r="AT9" s="337"/>
-      <c r="AU9" s="337"/>
-      <c r="AV9" s="337"/>
-      <c r="AW9" s="337"/>
-      <c r="AX9" s="337"/>
-      <c r="AY9" s="337"/>
-      <c r="AZ9" s="337"/>
-      <c r="BA9" s="337"/>
-      <c r="BB9" s="337"/>
-      <c r="BC9" s="337"/>
-      <c r="BD9" s="337"/>
-      <c r="BE9" s="337"/>
-      <c r="BF9" s="337"/>
-      <c r="BG9" s="337"/>
-      <c r="BH9" s="337"/>
-      <c r="BI9" s="337"/>
-      <c r="BJ9" s="337"/>
-      <c r="BK9" s="337"/>
-      <c r="BL9" s="337"/>
-      <c r="BM9" s="337"/>
-      <c r="BN9" s="337"/>
-      <c r="BO9" s="337"/>
-      <c r="BP9" s="337"/>
-      <c r="BQ9" s="337"/>
-      <c r="BR9" s="337"/>
-      <c r="BS9" s="337"/>
-      <c r="BT9" s="337"/>
-      <c r="BU9" s="337"/>
-      <c r="BV9" s="337"/>
-      <c r="BW9" s="337"/>
-      <c r="BX9" s="337"/>
-      <c r="BY9" s="337"/>
-      <c r="BZ9" s="337"/>
-      <c r="CA9" s="337"/>
-      <c r="CB9" s="337"/>
-      <c r="CC9" s="337"/>
-      <c r="CD9" s="337"/>
-      <c r="CE9" s="337"/>
-      <c r="CF9" s="337"/>
-      <c r="CG9" s="337"/>
-      <c r="CH9" s="337"/>
-      <c r="CI9" s="337"/>
-      <c r="CJ9" s="337"/>
-      <c r="CK9" s="337"/>
-      <c r="CL9" s="337"/>
-      <c r="CM9" s="337"/>
-      <c r="CN9" s="337"/>
-      <c r="CO9" s="337"/>
-      <c r="CP9" s="337"/>
-      <c r="CQ9" s="337"/>
-      <c r="CR9" s="337"/>
-      <c r="CS9" s="337"/>
-      <c r="CT9" s="337"/>
-      <c r="CU9" s="337"/>
-      <c r="CV9" s="337"/>
-      <c r="CW9" s="337"/>
-      <c r="CX9" s="337"/>
-      <c r="CY9" s="337"/>
-      <c r="CZ9" s="337"/>
-      <c r="DA9" s="337"/>
-      <c r="DB9" s="337"/>
-      <c r="DC9" s="337"/>
-      <c r="DD9" s="337"/>
-      <c r="DE9" s="337"/>
-      <c r="DF9" s="337"/>
-      <c r="DG9" s="337"/>
-      <c r="DH9" s="337"/>
-      <c r="DI9" s="337"/>
-      <c r="DJ9" s="337"/>
-      <c r="DK9" s="337"/>
-      <c r="DL9" s="337"/>
-      <c r="DM9" s="337"/>
-      <c r="DN9" s="337"/>
-      <c r="DO9" s="337"/>
-      <c r="DP9" s="337"/>
-      <c r="DQ9" s="337"/>
-      <c r="DR9" s="337"/>
-      <c r="DS9" s="337"/>
-      <c r="DT9" s="337"/>
-      <c r="DU9" s="337"/>
-      <c r="DV9" s="337"/>
-      <c r="DW9" s="337"/>
-      <c r="DX9" s="337"/>
-      <c r="DY9" s="337"/>
-      <c r="DZ9" s="337"/>
-      <c r="EA9" s="337"/>
-      <c r="EB9" s="337"/>
-      <c r="EC9" s="337"/>
-      <c r="ED9" s="337"/>
-      <c r="EE9" s="337"/>
-      <c r="EF9" s="337"/>
-      <c r="EG9" s="337"/>
-      <c r="EH9" s="337"/>
-      <c r="EI9" s="337"/>
-      <c r="EJ9" s="337"/>
-      <c r="EK9" s="337"/>
-      <c r="EL9" s="337"/>
-      <c r="EM9" s="338"/>
+      <c r="AH9" s="340"/>
+      <c r="AI9" s="340"/>
+      <c r="AJ9" s="340"/>
+      <c r="AK9" s="340"/>
+      <c r="AL9" s="340"/>
+      <c r="AM9" s="340"/>
+      <c r="AN9" s="340"/>
+      <c r="AO9" s="340"/>
+      <c r="AP9" s="340"/>
+      <c r="AQ9" s="340"/>
+      <c r="AR9" s="340"/>
+      <c r="AS9" s="340"/>
+      <c r="AT9" s="340"/>
+      <c r="AU9" s="340"/>
+      <c r="AV9" s="340"/>
+      <c r="AW9" s="340"/>
+      <c r="AX9" s="340"/>
+      <c r="AY9" s="340"/>
+      <c r="AZ9" s="340"/>
+      <c r="BA9" s="340"/>
+      <c r="BB9" s="340"/>
+      <c r="BC9" s="340"/>
+      <c r="BD9" s="340"/>
+      <c r="BE9" s="340"/>
+      <c r="BF9" s="340"/>
+      <c r="BG9" s="340"/>
+      <c r="BH9" s="340"/>
+      <c r="BI9" s="340"/>
+      <c r="BJ9" s="340"/>
+      <c r="BK9" s="340"/>
+      <c r="BL9" s="340"/>
+      <c r="BM9" s="340"/>
+      <c r="BN9" s="340"/>
+      <c r="BO9" s="340"/>
+      <c r="BP9" s="340"/>
+      <c r="BQ9" s="340"/>
+      <c r="BR9" s="340"/>
+      <c r="BS9" s="340"/>
+      <c r="BT9" s="340"/>
+      <c r="BU9" s="340"/>
+      <c r="BV9" s="340"/>
+      <c r="BW9" s="340"/>
+      <c r="BX9" s="340"/>
+      <c r="BY9" s="340"/>
+      <c r="BZ9" s="340"/>
+      <c r="CA9" s="340"/>
+      <c r="CB9" s="340"/>
+      <c r="CC9" s="340"/>
+      <c r="CD9" s="340"/>
+      <c r="CE9" s="340"/>
+      <c r="CF9" s="340"/>
+      <c r="CG9" s="340"/>
+      <c r="CH9" s="340"/>
+      <c r="CI9" s="340"/>
+      <c r="CJ9" s="340"/>
+      <c r="CK9" s="340"/>
+      <c r="CL9" s="340"/>
+      <c r="CM9" s="340"/>
+      <c r="CN9" s="340"/>
+      <c r="CO9" s="340"/>
+      <c r="CP9" s="340"/>
+      <c r="CQ9" s="340"/>
+      <c r="CR9" s="340"/>
+      <c r="CS9" s="340"/>
+      <c r="CT9" s="340"/>
+      <c r="CU9" s="340"/>
+      <c r="CV9" s="340"/>
+      <c r="CW9" s="340"/>
+      <c r="CX9" s="340"/>
+      <c r="CY9" s="340"/>
+      <c r="CZ9" s="340"/>
+      <c r="DA9" s="340"/>
+      <c r="DB9" s="340"/>
+      <c r="DC9" s="340"/>
+      <c r="DD9" s="340"/>
+      <c r="DE9" s="340"/>
+      <c r="DF9" s="340"/>
+      <c r="DG9" s="340"/>
+      <c r="DH9" s="340"/>
+      <c r="DI9" s="340"/>
+      <c r="DJ9" s="340"/>
+      <c r="DK9" s="340"/>
+      <c r="DL9" s="340"/>
+      <c r="DM9" s="340"/>
+      <c r="DN9" s="340"/>
+      <c r="DO9" s="340"/>
+      <c r="DP9" s="340"/>
+      <c r="DQ9" s="340"/>
+      <c r="DR9" s="340"/>
+      <c r="DS9" s="340"/>
+      <c r="DT9" s="340"/>
+      <c r="DU9" s="340"/>
+      <c r="DV9" s="340"/>
+      <c r="DW9" s="340"/>
+      <c r="DX9" s="340"/>
+      <c r="DY9" s="340"/>
+      <c r="DZ9" s="340"/>
+      <c r="EA9" s="340"/>
+      <c r="EB9" s="340"/>
+      <c r="EC9" s="340"/>
+      <c r="ED9" s="340"/>
+      <c r="EE9" s="340"/>
+      <c r="EF9" s="340"/>
+      <c r="EG9" s="340"/>
+      <c r="EH9" s="340"/>
+      <c r="EI9" s="340"/>
+      <c r="EJ9" s="340"/>
+      <c r="EK9" s="340"/>
+      <c r="EL9" s="340"/>
+      <c r="EM9" s="341"/>
     </row>
     <row r="10" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="237"/>
-      <c r="B10" s="240"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="240"/>
+      <c r="A10" s="279"/>
+      <c r="B10" s="271"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="271"/>
+      <c r="I10" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" s="109" t="s">
+        <v>228</v>
+      </c>
       <c r="BB10" s="159"/>
-      <c r="DI10" s="339" t="s">
+      <c r="DI10" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="DJ10" s="339"/>
-      <c r="DK10" s="339"/>
-      <c r="DL10" s="339"/>
-      <c r="DM10" s="339"/>
-      <c r="DN10" s="339"/>
-      <c r="DO10" s="339"/>
-      <c r="DP10" s="339"/>
-      <c r="DQ10" s="339"/>
-      <c r="DR10" s="339"/>
-      <c r="DS10" s="339"/>
-      <c r="DT10" s="339"/>
-      <c r="DU10" s="339"/>
-      <c r="DV10" s="339"/>
-      <c r="DW10" s="339"/>
-      <c r="DX10" s="339"/>
-      <c r="DY10" s="339"/>
-      <c r="DZ10" s="339"/>
-      <c r="EA10" s="339"/>
-      <c r="EB10" s="339"/>
-      <c r="EC10" s="339"/>
-      <c r="ED10" s="339"/>
-      <c r="EE10" s="339"/>
-      <c r="EF10" s="339"/>
+      <c r="DJ10" s="335"/>
+      <c r="DK10" s="335"/>
+      <c r="DL10" s="335"/>
+      <c r="DM10" s="335"/>
+      <c r="DN10" s="335"/>
+      <c r="DO10" s="335"/>
+      <c r="DP10" s="335"/>
+      <c r="DQ10" s="335"/>
+      <c r="DR10" s="335"/>
+      <c r="DS10" s="335"/>
+      <c r="DT10" s="335"/>
+      <c r="DU10" s="335"/>
+      <c r="DV10" s="335"/>
+      <c r="DW10" s="335"/>
+      <c r="DX10" s="335"/>
+      <c r="DY10" s="335"/>
+      <c r="DZ10" s="335"/>
+      <c r="EA10" s="335"/>
+      <c r="EB10" s="335"/>
+      <c r="EC10" s="335"/>
+      <c r="ED10" s="335"/>
+      <c r="EE10" s="335"/>
+      <c r="EF10" s="335"/>
     </row>
     <row r="11" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="251"/>
-      <c r="B11" s="240"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="240"/>
-      <c r="I11" s="114" t="s">
-        <v>261</v>
+      <c r="A11" s="280"/>
+      <c r="B11" s="271"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="271"/>
+      <c r="I11" s="154" t="s">
+        <v>260</v>
       </c>
       <c r="J11" s="109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="240"/>
+      <c r="B12" s="271"/>
       <c r="D12" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="240"/>
-      <c r="I12" s="154" t="s">
-        <v>260</v>
+      <c r="E12" s="271"/>
+      <c r="I12" s="207" t="s">
+        <v>370</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="240"/>
+      <c r="B13" s="271"/>
       <c r="D13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="240"/>
-      <c r="I13" s="208" t="s">
-        <v>370</v>
+      <c r="E13" s="271"/>
+      <c r="I13" s="112" t="s">
+        <v>183</v>
       </c>
       <c r="J13" s="109" t="s">
-        <v>369</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="240"/>
+      <c r="B14" s="271"/>
       <c r="D14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="240"/>
-      <c r="I14" s="112" t="s">
-        <v>183</v>
+      <c r="E14" s="271"/>
+      <c r="I14" s="113" t="s">
+        <v>184</v>
       </c>
       <c r="J14" s="109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="240"/>
+      <c r="B15" s="271"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="240"/>
-      <c r="I15" s="113" t="s">
-        <v>184</v>
+      <c r="E15" s="271"/>
+      <c r="I15" s="348" t="s">
+        <v>505</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>186</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="240"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="240"/>
+      <c r="A16" s="281"/>
+      <c r="B16" s="271"/>
+      <c r="D16" s="281"/>
+      <c r="E16" s="271"/>
       <c r="I16" s="115" t="s">
         <v>259</v>
       </c>
@@ -20585,10 +20641,10 @@
       </c>
     </row>
     <row r="17" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="237"/>
-      <c r="B17" s="240"/>
-      <c r="D17" s="237"/>
-      <c r="E17" s="240"/>
+      <c r="A17" s="279"/>
+      <c r="B17" s="271"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="271"/>
       <c r="I17" s="110" t="s">
         <v>421</v>
       </c>
@@ -20597,11 +20653,11 @@
       </c>
     </row>
     <row r="18" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="237"/>
-      <c r="B18" s="240"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="240"/>
-      <c r="I18" s="221" t="s">
+      <c r="A18" s="279"/>
+      <c r="B18" s="271"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="271"/>
+      <c r="I18" s="219" t="s">
         <v>436</v>
       </c>
       <c r="J18" s="109" t="s">
@@ -20609,10 +20665,10 @@
       </c>
     </row>
     <row r="19" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
-      <c r="B19" s="240"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="240"/>
+      <c r="A19" s="280"/>
+      <c r="B19" s="271"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="271"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -20621,23 +20677,23 @@
       </c>
     </row>
     <row r="20" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="237"/>
-      <c r="B20" s="240"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="240"/>
-      <c r="I20" s="204" t="s">
+      <c r="A20" s="279"/>
+      <c r="B20" s="271"/>
+      <c r="D20" s="281"/>
+      <c r="E20" s="271"/>
+      <c r="I20" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="205" t="s">
+      <c r="J20" s="204" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="237"/>
-      <c r="B21" s="240"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="240"/>
-      <c r="I21" s="217" t="s">
+      <c r="A21" s="279"/>
+      <c r="B21" s="271"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="271"/>
+      <c r="I21" s="220" t="s">
         <v>116</v>
       </c>
       <c r="J21" s="109" t="s">
@@ -20645,354 +20701,354 @@
       </c>
     </row>
     <row r="22" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="237"/>
-      <c r="B22" s="240"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="240"/>
+      <c r="A22" s="279"/>
+      <c r="B22" s="271"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="271"/>
     </row>
     <row r="23" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
-      <c r="B23" s="240"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="240"/>
+      <c r="A23" s="280"/>
+      <c r="B23" s="271"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="271"/>
     </row>
     <row r="24" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="281" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="240"/>
-      <c r="BL24" s="289" t="s">
+      <c r="B24" s="271"/>
+      <c r="C24" s="338"/>
+      <c r="D24" s="281"/>
+      <c r="E24" s="271"/>
+      <c r="BL24" s="266" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="237"/>
-      <c r="B25" s="240"/>
-      <c r="C25" s="335"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="240"/>
-      <c r="BL25" s="290"/>
+      <c r="A25" s="279"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="338"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="271"/>
+      <c r="BL25" s="267"/>
     </row>
     <row r="26" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="237"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="335"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="240"/>
-      <c r="BL26" s="290"/>
+      <c r="A26" s="279"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="338"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="271"/>
+      <c r="BL26" s="267"/>
     </row>
     <row r="27" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="335"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="240"/>
-      <c r="BL27" s="291"/>
+      <c r="A27" s="291"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="338"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="271"/>
+      <c r="BL27" s="268"/>
     </row>
     <row r="28" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="253" t="s">
+      <c r="A28" s="273" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="245" t="s">
+      <c r="B28" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="236"/>
-      <c r="E28" s="240"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="271"/>
     </row>
     <row r="29" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="243"/>
-      <c r="B29" s="246"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="240"/>
+      <c r="A29" s="274"/>
+      <c r="B29" s="308"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="271"/>
     </row>
     <row r="30" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="243"/>
-      <c r="B30" s="246"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="240"/>
+      <c r="A30" s="274"/>
+      <c r="B30" s="308"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="271"/>
     </row>
     <row r="31" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="254"/>
-      <c r="B31" s="246"/>
-      <c r="D31" s="251"/>
-      <c r="E31" s="240"/>
+      <c r="A31" s="277"/>
+      <c r="B31" s="308"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="271"/>
     </row>
     <row r="32" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="246"/>
+      <c r="B32" s="308"/>
       <c r="D32" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="240"/>
+      <c r="E32" s="271"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="246"/>
+      <c r="B33" s="308"/>
       <c r="D33" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="240"/>
+      <c r="E33" s="271"/>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="246"/>
+      <c r="B34" s="308"/>
       <c r="D34" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="240"/>
+      <c r="E34" s="271"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="246"/>
+      <c r="B35" s="308"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="240"/>
+      <c r="E35" s="271"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="242"/>
-      <c r="B36" s="246"/>
+      <c r="A36" s="276"/>
+      <c r="B36" s="308"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="240"/>
+      <c r="E36" s="271"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="243"/>
-      <c r="B37" s="246"/>
+      <c r="A37" s="274"/>
+      <c r="B37" s="308"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="240"/>
+      <c r="E37" s="271"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="243"/>
-      <c r="B38" s="246"/>
+      <c r="A38" s="274"/>
+      <c r="B38" s="308"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="240"/>
+      <c r="E38" s="271"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="244"/>
-      <c r="B39" s="247"/>
+      <c r="A39" s="287"/>
+      <c r="B39" s="309"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="240"/>
+      <c r="E39" s="271"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="248"/>
-      <c r="B40" s="232" t="s">
+      <c r="A40" s="318"/>
+      <c r="B40" s="304" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="255"/>
-      <c r="E40" s="240"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="271"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="249"/>
-      <c r="B41" s="233"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="240"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="305"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="271"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="249"/>
-      <c r="B42" s="233"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="240"/>
+      <c r="A42" s="302"/>
+      <c r="B42" s="305"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="271"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="250"/>
-      <c r="B43" s="233"/>
-      <c r="D43" s="257"/>
-      <c r="E43" s="240"/>
+      <c r="A43" s="319"/>
+      <c r="B43" s="305"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="271"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="233"/>
+      <c r="B44" s="305"/>
       <c r="D44" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="240"/>
+      <c r="E44" s="271"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="233"/>
+      <c r="B45" s="305"/>
       <c r="D45" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="240"/>
+      <c r="E45" s="271"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="233"/>
+      <c r="B46" s="305"/>
       <c r="D46" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="240"/>
+      <c r="E46" s="271"/>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="233"/>
+      <c r="B47" s="305"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="240"/>
+      <c r="E47" s="271"/>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260" t="s">
+      <c r="A48" s="294" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="233"/>
-      <c r="D48" s="236" t="s">
+      <c r="B48" s="305"/>
+      <c r="D48" s="281" t="s">
         <v>334</v>
       </c>
-      <c r="E48" s="240"/>
+      <c r="E48" s="271"/>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="260"/>
-      <c r="B49" s="233"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="240"/>
+      <c r="A49" s="294"/>
+      <c r="B49" s="305"/>
+      <c r="D49" s="279"/>
+      <c r="E49" s="271"/>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="260"/>
-      <c r="B50" s="233"/>
-      <c r="D50" s="237"/>
-      <c r="E50" s="240"/>
+      <c r="A50" s="294"/>
+      <c r="B50" s="305"/>
+      <c r="D50" s="279"/>
+      <c r="E50" s="271"/>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="261"/>
-      <c r="B51" s="234"/>
-      <c r="D51" s="251"/>
-      <c r="E51" s="241"/>
+      <c r="A51" s="295"/>
+      <c r="B51" s="306"/>
+      <c r="D51" s="280"/>
+      <c r="E51" s="272"/>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="269" t="s">
+      <c r="A52" s="310" t="s">
         <v>328</v>
       </c>
-      <c r="B52" s="263" t="s">
+      <c r="B52" s="297" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="237" t="s">
+      <c r="D52" s="279" t="s">
         <v>328</v>
       </c>
-      <c r="E52" s="283" t="s">
+      <c r="E52" s="284" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="270"/>
-      <c r="B53" s="264"/>
-      <c r="D53" s="237"/>
-      <c r="E53" s="284"/>
+      <c r="A53" s="311"/>
+      <c r="B53" s="298"/>
+      <c r="D53" s="279"/>
+      <c r="E53" s="285"/>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="270"/>
-      <c r="B54" s="264"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="284"/>
+      <c r="A54" s="311"/>
+      <c r="B54" s="298"/>
+      <c r="D54" s="279"/>
+      <c r="E54" s="285"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="270"/>
-      <c r="B55" s="264"/>
-      <c r="D55" s="251"/>
-      <c r="E55" s="284"/>
+      <c r="A55" s="311"/>
+      <c r="B55" s="298"/>
+      <c r="D55" s="280"/>
+      <c r="E55" s="285"/>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="271" t="s">
+      <c r="A56" s="312" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="264"/>
-      <c r="D56" s="236" t="s">
+      <c r="B56" s="298"/>
+      <c r="D56" s="281" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="284"/>
+      <c r="E56" s="285"/>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="272"/>
-      <c r="B57" s="264"/>
-      <c r="D57" s="237"/>
-      <c r="E57" s="284"/>
+      <c r="A57" s="313"/>
+      <c r="B57" s="298"/>
+      <c r="D57" s="279"/>
+      <c r="E57" s="285"/>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="272"/>
-      <c r="B58" s="264"/>
-      <c r="D58" s="237"/>
-      <c r="E58" s="284"/>
+      <c r="A58" s="313"/>
+      <c r="B58" s="298"/>
+      <c r="D58" s="279"/>
+      <c r="E58" s="285"/>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="274"/>
-      <c r="B59" s="264"/>
-      <c r="D59" s="251"/>
-      <c r="E59" s="284"/>
+      <c r="A59" s="315"/>
+      <c r="B59" s="298"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="285"/>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="271" t="s">
+      <c r="A60" s="312" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="264"/>
-      <c r="D60" s="236" t="s">
+      <c r="B60" s="298"/>
+      <c r="D60" s="281" t="s">
         <v>310</v>
       </c>
-      <c r="E60" s="284"/>
+      <c r="E60" s="285"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="272"/>
-      <c r="B61" s="264"/>
-      <c r="D61" s="237"/>
-      <c r="E61" s="284"/>
+      <c r="A61" s="313"/>
+      <c r="B61" s="298"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="285"/>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="272"/>
-      <c r="B62" s="264"/>
-      <c r="D62" s="237"/>
-      <c r="E62" s="284"/>
+      <c r="A62" s="313"/>
+      <c r="B62" s="298"/>
+      <c r="D62" s="279"/>
+      <c r="E62" s="285"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="273"/>
-      <c r="B63" s="265"/>
-      <c r="D63" s="238"/>
-      <c r="E63" s="285"/>
+      <c r="A63" s="314"/>
+      <c r="B63" s="299"/>
+      <c r="D63" s="291"/>
+      <c r="E63" s="286"/>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="266" t="s">
+      <c r="A64" s="300" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="232" t="s">
+      <c r="B64" s="304" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="258" t="s">
+      <c r="D64" s="292" t="s">
         <v>309</v>
       </c>
       <c r="E64" s="187"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="260"/>
-      <c r="B65" s="233"/>
-      <c r="D65" s="259"/>
+      <c r="A65" s="294"/>
+      <c r="B65" s="305"/>
+      <c r="D65" s="293"/>
       <c r="E65" s="188"/>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="260"/>
-      <c r="B66" s="233"/>
-      <c r="D66" s="259"/>
+      <c r="A66" s="294"/>
+      <c r="B66" s="305"/>
+      <c r="D66" s="293"/>
       <c r="E66" s="188"/>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="260"/>
-      <c r="B67" s="233"/>
-      <c r="D67" s="259"/>
+      <c r="A67" s="294"/>
+      <c r="B67" s="305"/>
+      <c r="D67" s="293"/>
       <c r="E67" s="188"/>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="233"/>
+      <c r="B68" s="305"/>
       <c r="D68" s="184" t="s">
         <v>268</v>
       </c>
@@ -21002,7 +21058,7 @@
       <c r="A69" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="233"/>
+      <c r="B69" s="305"/>
       <c r="D69" s="185" t="s">
         <v>268</v>
       </c>
@@ -21012,7 +21068,7 @@
       <c r="A70" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="233"/>
+      <c r="B70" s="305"/>
       <c r="D70" s="185" t="s">
         <v>268</v>
       </c>
@@ -21020,69 +21076,69 @@
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="233"/>
+      <c r="B71" s="305"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="267"/>
-      <c r="B72" s="233"/>
-      <c r="D72" s="259" t="s">
+      <c r="A72" s="301"/>
+      <c r="B72" s="305"/>
+      <c r="D72" s="293" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="188"/>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="249"/>
-      <c r="B73" s="233"/>
-      <c r="D73" s="259"/>
+      <c r="A73" s="302"/>
+      <c r="B73" s="305"/>
+      <c r="D73" s="293"/>
       <c r="E73" s="188"/>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="249"/>
-      <c r="B74" s="233"/>
-      <c r="D74" s="259"/>
+      <c r="A74" s="302"/>
+      <c r="B74" s="305"/>
+      <c r="D74" s="293"/>
       <c r="E74" s="188"/>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="268"/>
-      <c r="B75" s="234"/>
-      <c r="D75" s="262"/>
+      <c r="A75" s="303"/>
+      <c r="B75" s="306"/>
+      <c r="D75" s="296"/>
       <c r="E75" s="189"/>
     </row>
     <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="253"/>
-      <c r="B76" s="245" t="s">
+      <c r="A76" s="273"/>
+      <c r="B76" s="307" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="278" t="s">
+      <c r="D76" s="282" t="s">
         <v>331</v>
       </c>
       <c r="E76" s="187"/>
     </row>
     <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="243"/>
-      <c r="B77" s="246"/>
-      <c r="D77" s="279"/>
+      <c r="A77" s="274"/>
+      <c r="B77" s="308"/>
+      <c r="D77" s="283"/>
       <c r="E77" s="188"/>
     </row>
     <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="243"/>
-      <c r="B78" s="246"/>
-      <c r="D78" s="279"/>
+      <c r="A78" s="274"/>
+      <c r="B78" s="308"/>
+      <c r="D78" s="283"/>
       <c r="E78" s="188"/>
     </row>
     <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="243"/>
-      <c r="B79" s="246"/>
-      <c r="D79" s="279"/>
+      <c r="A79" s="274"/>
+      <c r="B79" s="308"/>
+      <c r="D79" s="283"/>
       <c r="E79" s="188"/>
     </row>
     <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="246"/>
+      <c r="B80" s="308"/>
       <c r="D80" s="178" t="s">
         <v>268</v>
       </c>
@@ -21092,7 +21148,7 @@
       <c r="A81" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="246"/>
+      <c r="B81" s="308"/>
       <c r="D81" s="179" t="s">
         <v>268</v>
       </c>
@@ -21102,7 +21158,7 @@
       <c r="A82" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="246"/>
+      <c r="B82" s="308"/>
       <c r="D82" s="179" t="s">
         <v>268</v>
       </c>
@@ -21110,60 +21166,60 @@
     </row>
     <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="246"/>
+      <c r="B83" s="308"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
     </row>
     <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="242"/>
-      <c r="B84" s="246"/>
-      <c r="D84" s="242"/>
+      <c r="A84" s="276"/>
+      <c r="B84" s="308"/>
+      <c r="D84" s="276"/>
       <c r="E84" s="188"/>
     </row>
     <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="243"/>
-      <c r="B85" s="246"/>
-      <c r="D85" s="243"/>
+      <c r="A85" s="274"/>
+      <c r="B85" s="308"/>
+      <c r="D85" s="274"/>
       <c r="E85" s="188"/>
     </row>
     <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="243"/>
-      <c r="B86" s="246"/>
-      <c r="D86" s="243"/>
+      <c r="A86" s="274"/>
+      <c r="B86" s="308"/>
+      <c r="D86" s="274"/>
       <c r="E86" s="188"/>
     </row>
     <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="254"/>
-      <c r="B87" s="246"/>
-      <c r="D87" s="254"/>
+      <c r="A87" s="277"/>
+      <c r="B87" s="308"/>
+      <c r="D87" s="277"/>
       <c r="E87" s="188"/>
     </row>
     <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="242" t="s">
+      <c r="A88" s="276" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="246"/>
-      <c r="D88" s="242" t="s">
+      <c r="B88" s="308"/>
+      <c r="D88" s="276" t="s">
         <v>308</v>
       </c>
       <c r="E88" s="188"/>
     </row>
     <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="243"/>
-      <c r="B89" s="246"/>
-      <c r="D89" s="243"/>
+      <c r="A89" s="274"/>
+      <c r="B89" s="308"/>
+      <c r="D89" s="274"/>
       <c r="E89" s="188"/>
     </row>
     <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="243"/>
-      <c r="B90" s="246"/>
-      <c r="D90" s="243"/>
+      <c r="A90" s="274"/>
+      <c r="B90" s="308"/>
+      <c r="D90" s="274"/>
       <c r="E90" s="188"/>
     </row>
     <row r="91" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="244"/>
-      <c r="B91" s="247"/>
-      <c r="D91" s="244"/>
+      <c r="A91" s="287"/>
+      <c r="B91" s="309"/>
+      <c r="D91" s="287"/>
       <c r="E91" s="189"/>
     </row>
     <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21253,7 +21309,97 @@
     <row r="176" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="114">
+    <mergeCell ref="CF3:CF7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="BZ3:BZ7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="CA3:CA7"/>
+    <mergeCell ref="CB3:CB7"/>
+    <mergeCell ref="CC3:CC7"/>
+    <mergeCell ref="CD3:CD7"/>
+    <mergeCell ref="CE3:CE7"/>
+    <mergeCell ref="BF3:BF7"/>
+    <mergeCell ref="AG9:EM9"/>
+    <mergeCell ref="BL24:BL27"/>
+    <mergeCell ref="CR3:CR7"/>
+    <mergeCell ref="CG3:CG7"/>
+    <mergeCell ref="CH3:CH7"/>
+    <mergeCell ref="CI3:CI7"/>
+    <mergeCell ref="CJ3:CJ7"/>
+    <mergeCell ref="CK3:CK7"/>
+    <mergeCell ref="CL3:CL7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DN3:DN7"/>
+    <mergeCell ref="DO3:DO7"/>
+    <mergeCell ref="DP3:DP7"/>
+    <mergeCell ref="DH3:DH7"/>
+    <mergeCell ref="DI3:DI7"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="DI10:EF10"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="BR8:CW8"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BB3:BB7"/>
+    <mergeCell ref="BC3:BC7"/>
+    <mergeCell ref="BD3:BD7"/>
+    <mergeCell ref="BE3:BE7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B76:B91"/>
@@ -21278,94 +21424,6 @@
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="B64:B75"/>
     <mergeCell ref="D64:D67"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BB3:BB7"/>
-    <mergeCell ref="BC3:BC7"/>
-    <mergeCell ref="BD3:BD7"/>
-    <mergeCell ref="BE3:BE7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="DI10:EF10"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="BR8:CW8"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DF3:DF7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="DM3:DM7"/>
-    <mergeCell ref="DN3:DN7"/>
-    <mergeCell ref="DO3:DO7"/>
-    <mergeCell ref="DP3:DP7"/>
-    <mergeCell ref="CF3:CF7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="BZ3:BZ7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="CA3:CA7"/>
-    <mergeCell ref="CB3:CB7"/>
-    <mergeCell ref="CC3:CC7"/>
-    <mergeCell ref="CD3:CD7"/>
-    <mergeCell ref="CE3:CE7"/>
-    <mergeCell ref="BF3:BF7"/>
-    <mergeCell ref="AG9:EM9"/>
-    <mergeCell ref="BL24:BL27"/>
-    <mergeCell ref="CR3:CR7"/>
-    <mergeCell ref="CG3:CG7"/>
-    <mergeCell ref="CH3:CH7"/>
-    <mergeCell ref="CI3:CI7"/>
-    <mergeCell ref="CJ3:CJ7"/>
-    <mergeCell ref="CK3:CK7"/>
-    <mergeCell ref="CL3:CL7"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" tabRatio="301" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11835" tabRatio="301" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -3150,6 +3150,264 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3171,18 +3429,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3219,9 +3465,6 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3265,237 +3508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3510,25 +3522,13 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7891,7 +7891,7 @@
   </sheetPr>
   <dimension ref="A1:EQ181"/>
   <sheetViews>
-    <sheetView topLeftCell="DK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -7911,14 +7911,14 @@
       <c r="B1" s="153"/>
     </row>
     <row r="2" spans="1:147" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="D2" s="316" t="s">
+      <c r="B2" s="247"/>
+      <c r="D2" s="247" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="316"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="190" t="s">
         <v>335</v>
       </c>
@@ -8345,17 +8345,17 @@
       </c>
     </row>
     <row r="3" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="268" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="255" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="278" t="s">
+      <c r="C3" s="251"/>
+      <c r="D3" s="268" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="255" t="s">
         <v>267</v>
       </c>
       <c r="G3" s="129" t="s">
@@ -8481,202 +8481,202 @@
       <c r="BC3" s="122"/>
       <c r="BD3" s="85"/>
       <c r="BE3" s="122"/>
-      <c r="BF3" s="323" t="s">
+      <c r="BF3" s="232" t="s">
         <v>373</v>
       </c>
-      <c r="BG3" s="229" t="s">
+      <c r="BG3" s="235" t="s">
         <v>375</v>
       </c>
-      <c r="BH3" s="229" t="s">
+      <c r="BH3" s="235" t="s">
         <v>376</v>
       </c>
-      <c r="BI3" s="229" t="s">
+      <c r="BI3" s="235" t="s">
         <v>377</v>
       </c>
-      <c r="BJ3" s="229" t="s">
+      <c r="BJ3" s="235" t="s">
         <v>378</v>
       </c>
-      <c r="BK3" s="229" t="s">
+      <c r="BK3" s="235" t="s">
         <v>379</v>
       </c>
-      <c r="BL3" s="229" t="s">
+      <c r="BL3" s="235" t="s">
         <v>380</v>
       </c>
-      <c r="BM3" s="229" t="s">
+      <c r="BM3" s="235" t="s">
         <v>381</v>
       </c>
-      <c r="BN3" s="229" t="s">
+      <c r="BN3" s="235" t="s">
         <v>382</v>
       </c>
-      <c r="BO3" s="229" t="s">
+      <c r="BO3" s="235" t="s">
         <v>383</v>
       </c>
-      <c r="BP3" s="229" t="s">
+      <c r="BP3" s="235" t="s">
         <v>384</v>
       </c>
-      <c r="BQ3" s="229" t="s">
+      <c r="BQ3" s="235" t="s">
         <v>385</v>
       </c>
-      <c r="BR3" s="229" t="s">
+      <c r="BR3" s="235" t="s">
         <v>386</v>
       </c>
-      <c r="BS3" s="229" t="s">
+      <c r="BS3" s="235" t="s">
         <v>387</v>
       </c>
-      <c r="BT3" s="229" t="s">
+      <c r="BT3" s="235" t="s">
         <v>388</v>
       </c>
-      <c r="BU3" s="229" t="s">
+      <c r="BU3" s="235" t="s">
         <v>389</v>
       </c>
-      <c r="BV3" s="229" t="s">
+      <c r="BV3" s="235" t="s">
         <v>390</v>
       </c>
-      <c r="BW3" s="229" t="s">
+      <c r="BW3" s="235" t="s">
         <v>391</v>
       </c>
-      <c r="BX3" s="229" t="s">
+      <c r="BX3" s="235" t="s">
         <v>392</v>
       </c>
-      <c r="BY3" s="229" t="s">
+      <c r="BY3" s="235" t="s">
         <v>393</v>
       </c>
-      <c r="BZ3" s="229" t="s">
+      <c r="BZ3" s="235" t="s">
         <v>394</v>
       </c>
-      <c r="CA3" s="229" t="s">
+      <c r="CA3" s="235" t="s">
         <v>395</v>
       </c>
-      <c r="CB3" s="229" t="s">
+      <c r="CB3" s="235" t="s">
         <v>396</v>
       </c>
-      <c r="CC3" s="231" t="s">
+      <c r="CC3" s="305" t="s">
         <v>397</v>
       </c>
-      <c r="CD3" s="323" t="s">
+      <c r="CD3" s="232" t="s">
         <v>374</v>
       </c>
-      <c r="CE3" s="229" t="s">
+      <c r="CE3" s="235" t="s">
         <v>398</v>
       </c>
-      <c r="CF3" s="229" t="s">
+      <c r="CF3" s="235" t="s">
         <v>399</v>
       </c>
-      <c r="CG3" s="229" t="s">
+      <c r="CG3" s="235" t="s">
         <v>400</v>
       </c>
-      <c r="CH3" s="229" t="s">
+      <c r="CH3" s="235" t="s">
         <v>401</v>
       </c>
-      <c r="CI3" s="229" t="s">
+      <c r="CI3" s="235" t="s">
         <v>402</v>
       </c>
-      <c r="CJ3" s="229" t="s">
+      <c r="CJ3" s="235" t="s">
         <v>403</v>
       </c>
-      <c r="CK3" s="229" t="s">
+      <c r="CK3" s="235" t="s">
         <v>404</v>
       </c>
-      <c r="CL3" s="229" t="s">
+      <c r="CL3" s="235" t="s">
         <v>405</v>
       </c>
-      <c r="CM3" s="229" t="s">
+      <c r="CM3" s="235" t="s">
         <v>406</v>
       </c>
-      <c r="CN3" s="229" t="s">
+      <c r="CN3" s="235" t="s">
         <v>407</v>
       </c>
-      <c r="CO3" s="229" t="s">
+      <c r="CO3" s="235" t="s">
         <v>408</v>
       </c>
-      <c r="CP3" s="229" t="s">
+      <c r="CP3" s="235" t="s">
         <v>409</v>
       </c>
-      <c r="CQ3" s="229" t="s">
+      <c r="CQ3" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="CR3" s="229" t="s">
+      <c r="CR3" s="235" t="s">
         <v>411</v>
       </c>
-      <c r="CS3" s="229" t="s">
+      <c r="CS3" s="235" t="s">
         <v>412</v>
       </c>
-      <c r="CT3" s="229" t="s">
+      <c r="CT3" s="235" t="s">
         <v>413</v>
       </c>
-      <c r="CU3" s="229" t="s">
+      <c r="CU3" s="235" t="s">
         <v>414</v>
       </c>
-      <c r="CV3" s="229" t="s">
+      <c r="CV3" s="235" t="s">
         <v>415</v>
       </c>
-      <c r="CW3" s="229" t="s">
+      <c r="CW3" s="235" t="s">
         <v>416</v>
       </c>
-      <c r="CX3" s="229" t="s">
+      <c r="CX3" s="235" t="s">
         <v>417</v>
       </c>
-      <c r="CY3" s="229" t="s">
+      <c r="CY3" s="235" t="s">
         <v>418</v>
       </c>
-      <c r="CZ3" s="229" t="s">
+      <c r="CZ3" s="235" t="s">
         <v>419</v>
       </c>
-      <c r="DA3" s="231" t="s">
+      <c r="DA3" s="305" t="s">
         <v>420</v>
       </c>
-      <c r="DB3" s="332" t="s">
+      <c r="DB3" s="244" t="s">
         <v>188</v>
       </c>
-      <c r="DC3" s="222" t="s">
+      <c r="DC3" s="308" t="s">
         <v>188</v>
       </c>
-      <c r="DD3" s="222" t="s">
+      <c r="DD3" s="308" t="s">
         <v>188</v>
       </c>
-      <c r="DE3" s="222" t="s">
+      <c r="DE3" s="308" t="s">
         <v>189</v>
       </c>
-      <c r="DF3" s="222" t="s">
+      <c r="DF3" s="308" t="s">
         <v>189</v>
       </c>
-      <c r="DG3" s="255" t="s">
+      <c r="DG3" s="336" t="s">
         <v>189</v>
       </c>
-      <c r="DH3" s="326" t="s">
+      <c r="DH3" s="238" t="s">
         <v>433</v>
       </c>
-      <c r="DI3" s="329" t="s">
+      <c r="DI3" s="241" t="s">
         <v>434</v>
       </c>
-      <c r="DJ3" s="320" t="s">
+      <c r="DJ3" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="DK3" s="258" t="s">
+      <c r="DK3" s="339" t="s">
         <v>114</v>
       </c>
-      <c r="DL3" s="342" t="s">
+      <c r="DL3" s="223" t="s">
         <v>503</v>
       </c>
-      <c r="DM3" s="343" t="s">
+      <c r="DM3" s="226" t="s">
         <v>504</v>
       </c>
       <c r="DN3" s="205"/>
       <c r="DO3" s="14"/>
       <c r="DP3" s="64"/>
-      <c r="DQ3" s="243" t="s">
+      <c r="DQ3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DR3" s="243" t="s">
+      <c r="DR3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DS3" s="243" t="s">
+      <c r="DS3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DT3" s="243" t="s">
+      <c r="DT3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DU3" s="247" t="s">
+      <c r="DU3" s="328" t="s">
         <v>116</v>
       </c>
       <c r="DV3" s="161"/>
@@ -8715,11 +8715,11 @@
       </c>
     </row>
     <row r="4" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="279"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="271"/>
+      <c r="A4" s="253"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="256"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -8849,74 +8849,74 @@
       <c r="BC4" s="117"/>
       <c r="BD4" s="118"/>
       <c r="BE4" s="117"/>
-      <c r="BF4" s="324"/>
-      <c r="BG4" s="230"/>
-      <c r="BH4" s="230"/>
-      <c r="BI4" s="230"/>
-      <c r="BJ4" s="230"/>
-      <c r="BK4" s="230"/>
-      <c r="BL4" s="230"/>
-      <c r="BM4" s="230"/>
-      <c r="BN4" s="230"/>
-      <c r="BO4" s="230"/>
-      <c r="BP4" s="230"/>
-      <c r="BQ4" s="230"/>
-      <c r="BR4" s="230"/>
-      <c r="BS4" s="230"/>
-      <c r="BT4" s="230"/>
-      <c r="BU4" s="230"/>
-      <c r="BV4" s="230"/>
-      <c r="BW4" s="230"/>
-      <c r="BX4" s="230"/>
-      <c r="BY4" s="230"/>
-      <c r="BZ4" s="230"/>
-      <c r="CA4" s="230"/>
-      <c r="CB4" s="230"/>
-      <c r="CC4" s="232"/>
-      <c r="CD4" s="324"/>
-      <c r="CE4" s="230"/>
-      <c r="CF4" s="230"/>
-      <c r="CG4" s="230"/>
-      <c r="CH4" s="230"/>
-      <c r="CI4" s="230"/>
-      <c r="CJ4" s="230"/>
-      <c r="CK4" s="230"/>
-      <c r="CL4" s="230"/>
-      <c r="CM4" s="230"/>
-      <c r="CN4" s="230"/>
-      <c r="CO4" s="230"/>
-      <c r="CP4" s="230"/>
-      <c r="CQ4" s="230"/>
-      <c r="CR4" s="230"/>
-      <c r="CS4" s="230"/>
-      <c r="CT4" s="230"/>
-      <c r="CU4" s="230"/>
-      <c r="CV4" s="230"/>
-      <c r="CW4" s="230"/>
-      <c r="CX4" s="230"/>
-      <c r="CY4" s="230"/>
-      <c r="CZ4" s="230"/>
-      <c r="DA4" s="232"/>
-      <c r="DB4" s="333"/>
-      <c r="DC4" s="223"/>
-      <c r="DD4" s="223"/>
-      <c r="DE4" s="223"/>
-      <c r="DF4" s="223"/>
-      <c r="DG4" s="256"/>
-      <c r="DH4" s="327"/>
-      <c r="DI4" s="330"/>
-      <c r="DJ4" s="321"/>
-      <c r="DK4" s="259"/>
-      <c r="DL4" s="344"/>
-      <c r="DM4" s="345"/>
+      <c r="BF4" s="233"/>
+      <c r="BG4" s="236"/>
+      <c r="BH4" s="236"/>
+      <c r="BI4" s="236"/>
+      <c r="BJ4" s="236"/>
+      <c r="BK4" s="236"/>
+      <c r="BL4" s="236"/>
+      <c r="BM4" s="236"/>
+      <c r="BN4" s="236"/>
+      <c r="BO4" s="236"/>
+      <c r="BP4" s="236"/>
+      <c r="BQ4" s="236"/>
+      <c r="BR4" s="236"/>
+      <c r="BS4" s="236"/>
+      <c r="BT4" s="236"/>
+      <c r="BU4" s="236"/>
+      <c r="BV4" s="236"/>
+      <c r="BW4" s="236"/>
+      <c r="BX4" s="236"/>
+      <c r="BY4" s="236"/>
+      <c r="BZ4" s="236"/>
+      <c r="CA4" s="236"/>
+      <c r="CB4" s="236"/>
+      <c r="CC4" s="306"/>
+      <c r="CD4" s="233"/>
+      <c r="CE4" s="236"/>
+      <c r="CF4" s="236"/>
+      <c r="CG4" s="236"/>
+      <c r="CH4" s="236"/>
+      <c r="CI4" s="236"/>
+      <c r="CJ4" s="236"/>
+      <c r="CK4" s="236"/>
+      <c r="CL4" s="236"/>
+      <c r="CM4" s="236"/>
+      <c r="CN4" s="236"/>
+      <c r="CO4" s="236"/>
+      <c r="CP4" s="236"/>
+      <c r="CQ4" s="236"/>
+      <c r="CR4" s="236"/>
+      <c r="CS4" s="236"/>
+      <c r="CT4" s="236"/>
+      <c r="CU4" s="236"/>
+      <c r="CV4" s="236"/>
+      <c r="CW4" s="236"/>
+      <c r="CX4" s="236"/>
+      <c r="CY4" s="236"/>
+      <c r="CZ4" s="236"/>
+      <c r="DA4" s="306"/>
+      <c r="DB4" s="245"/>
+      <c r="DC4" s="309"/>
+      <c r="DD4" s="309"/>
+      <c r="DE4" s="309"/>
+      <c r="DF4" s="309"/>
+      <c r="DG4" s="337"/>
+      <c r="DH4" s="239"/>
+      <c r="DI4" s="242"/>
+      <c r="DJ4" s="230"/>
+      <c r="DK4" s="340"/>
+      <c r="DL4" s="224"/>
+      <c r="DM4" s="227"/>
       <c r="DN4" s="206"/>
       <c r="DO4" s="201"/>
       <c r="DP4" s="20"/>
-      <c r="DQ4" s="244"/>
-      <c r="DR4" s="244"/>
-      <c r="DS4" s="244"/>
-      <c r="DT4" s="244"/>
-      <c r="DU4" s="248"/>
+      <c r="DQ4" s="326"/>
+      <c r="DR4" s="326"/>
+      <c r="DS4" s="326"/>
+      <c r="DT4" s="326"/>
+      <c r="DU4" s="329"/>
       <c r="DV4" s="143"/>
       <c r="DW4" s="155"/>
       <c r="DX4" s="155"/>
@@ -8945,11 +8945,11 @@
       </c>
     </row>
     <row r="5" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="279"/>
-      <c r="B5" s="271"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="271"/>
+      <c r="A5" s="253"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="256"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -9039,74 +9039,74 @@
       <c r="BC5" s="117"/>
       <c r="BD5" s="118"/>
       <c r="BE5" s="117"/>
-      <c r="BF5" s="324"/>
-      <c r="BG5" s="230"/>
-      <c r="BH5" s="230"/>
-      <c r="BI5" s="230"/>
-      <c r="BJ5" s="230"/>
-      <c r="BK5" s="230"/>
-      <c r="BL5" s="230"/>
-      <c r="BM5" s="230"/>
-      <c r="BN5" s="230"/>
-      <c r="BO5" s="230"/>
-      <c r="BP5" s="230"/>
-      <c r="BQ5" s="230"/>
-      <c r="BR5" s="230"/>
-      <c r="BS5" s="230"/>
-      <c r="BT5" s="230"/>
-      <c r="BU5" s="230"/>
-      <c r="BV5" s="230"/>
-      <c r="BW5" s="230"/>
-      <c r="BX5" s="230"/>
-      <c r="BY5" s="230"/>
-      <c r="BZ5" s="230"/>
-      <c r="CA5" s="230"/>
-      <c r="CB5" s="230"/>
-      <c r="CC5" s="232"/>
-      <c r="CD5" s="324"/>
-      <c r="CE5" s="230"/>
-      <c r="CF5" s="230"/>
-      <c r="CG5" s="230"/>
-      <c r="CH5" s="230"/>
-      <c r="CI5" s="230"/>
-      <c r="CJ5" s="230"/>
-      <c r="CK5" s="230"/>
-      <c r="CL5" s="230"/>
-      <c r="CM5" s="230"/>
-      <c r="CN5" s="230"/>
-      <c r="CO5" s="230"/>
-      <c r="CP5" s="230"/>
-      <c r="CQ5" s="230"/>
-      <c r="CR5" s="230"/>
-      <c r="CS5" s="230"/>
-      <c r="CT5" s="230"/>
-      <c r="CU5" s="230"/>
-      <c r="CV5" s="230"/>
-      <c r="CW5" s="230"/>
-      <c r="CX5" s="230"/>
-      <c r="CY5" s="230"/>
-      <c r="CZ5" s="230"/>
-      <c r="DA5" s="232"/>
-      <c r="DB5" s="333"/>
-      <c r="DC5" s="223"/>
-      <c r="DD5" s="223"/>
-      <c r="DE5" s="223"/>
-      <c r="DF5" s="223"/>
-      <c r="DG5" s="256"/>
-      <c r="DH5" s="327"/>
-      <c r="DI5" s="330"/>
-      <c r="DJ5" s="321"/>
-      <c r="DK5" s="259"/>
-      <c r="DL5" s="344"/>
-      <c r="DM5" s="345"/>
+      <c r="BF5" s="233"/>
+      <c r="BG5" s="236"/>
+      <c r="BH5" s="236"/>
+      <c r="BI5" s="236"/>
+      <c r="BJ5" s="236"/>
+      <c r="BK5" s="236"/>
+      <c r="BL5" s="236"/>
+      <c r="BM5" s="236"/>
+      <c r="BN5" s="236"/>
+      <c r="BO5" s="236"/>
+      <c r="BP5" s="236"/>
+      <c r="BQ5" s="236"/>
+      <c r="BR5" s="236"/>
+      <c r="BS5" s="236"/>
+      <c r="BT5" s="236"/>
+      <c r="BU5" s="236"/>
+      <c r="BV5" s="236"/>
+      <c r="BW5" s="236"/>
+      <c r="BX5" s="236"/>
+      <c r="BY5" s="236"/>
+      <c r="BZ5" s="236"/>
+      <c r="CA5" s="236"/>
+      <c r="CB5" s="236"/>
+      <c r="CC5" s="306"/>
+      <c r="CD5" s="233"/>
+      <c r="CE5" s="236"/>
+      <c r="CF5" s="236"/>
+      <c r="CG5" s="236"/>
+      <c r="CH5" s="236"/>
+      <c r="CI5" s="236"/>
+      <c r="CJ5" s="236"/>
+      <c r="CK5" s="236"/>
+      <c r="CL5" s="236"/>
+      <c r="CM5" s="236"/>
+      <c r="CN5" s="236"/>
+      <c r="CO5" s="236"/>
+      <c r="CP5" s="236"/>
+      <c r="CQ5" s="236"/>
+      <c r="CR5" s="236"/>
+      <c r="CS5" s="236"/>
+      <c r="CT5" s="236"/>
+      <c r="CU5" s="236"/>
+      <c r="CV5" s="236"/>
+      <c r="CW5" s="236"/>
+      <c r="CX5" s="236"/>
+      <c r="CY5" s="236"/>
+      <c r="CZ5" s="236"/>
+      <c r="DA5" s="306"/>
+      <c r="DB5" s="245"/>
+      <c r="DC5" s="309"/>
+      <c r="DD5" s="309"/>
+      <c r="DE5" s="309"/>
+      <c r="DF5" s="309"/>
+      <c r="DG5" s="337"/>
+      <c r="DH5" s="239"/>
+      <c r="DI5" s="242"/>
+      <c r="DJ5" s="230"/>
+      <c r="DK5" s="340"/>
+      <c r="DL5" s="224"/>
+      <c r="DM5" s="227"/>
       <c r="DN5" s="143"/>
       <c r="DO5" s="30"/>
       <c r="DP5" s="210"/>
-      <c r="DQ5" s="244"/>
-      <c r="DR5" s="244"/>
-      <c r="DS5" s="244"/>
-      <c r="DT5" s="244"/>
-      <c r="DU5" s="248"/>
+      <c r="DQ5" s="326"/>
+      <c r="DR5" s="326"/>
+      <c r="DS5" s="326"/>
+      <c r="DT5" s="326"/>
+      <c r="DU5" s="329"/>
       <c r="DV5" s="133" t="s">
         <v>191</v>
       </c>
@@ -9175,11 +9175,11 @@
       </c>
     </row>
     <row r="6" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="279"/>
-      <c r="B6" s="271"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="271"/>
+      <c r="A6" s="253"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="256"/>
       <c r="G6" s="213" t="s">
         <v>216</v>
       </c>
@@ -9277,74 +9277,74 @@
       <c r="BC6" s="117"/>
       <c r="BD6" s="202"/>
       <c r="BE6" s="117"/>
-      <c r="BF6" s="324"/>
-      <c r="BG6" s="230"/>
-      <c r="BH6" s="230"/>
-      <c r="BI6" s="230"/>
-      <c r="BJ6" s="230"/>
-      <c r="BK6" s="230"/>
-      <c r="BL6" s="230"/>
-      <c r="BM6" s="230"/>
-      <c r="BN6" s="230"/>
-      <c r="BO6" s="230"/>
-      <c r="BP6" s="230"/>
-      <c r="BQ6" s="230"/>
-      <c r="BR6" s="230"/>
-      <c r="BS6" s="230"/>
-      <c r="BT6" s="230"/>
-      <c r="BU6" s="230"/>
-      <c r="BV6" s="230"/>
-      <c r="BW6" s="230"/>
-      <c r="BX6" s="230"/>
-      <c r="BY6" s="230"/>
-      <c r="BZ6" s="230"/>
-      <c r="CA6" s="230"/>
-      <c r="CB6" s="230"/>
-      <c r="CC6" s="232"/>
-      <c r="CD6" s="324"/>
-      <c r="CE6" s="230"/>
-      <c r="CF6" s="230"/>
-      <c r="CG6" s="230"/>
-      <c r="CH6" s="230"/>
-      <c r="CI6" s="230"/>
-      <c r="CJ6" s="230"/>
-      <c r="CK6" s="230"/>
-      <c r="CL6" s="230"/>
-      <c r="CM6" s="230"/>
-      <c r="CN6" s="230"/>
-      <c r="CO6" s="230"/>
-      <c r="CP6" s="230"/>
-      <c r="CQ6" s="230"/>
-      <c r="CR6" s="230"/>
-      <c r="CS6" s="230"/>
-      <c r="CT6" s="230"/>
-      <c r="CU6" s="230"/>
-      <c r="CV6" s="230"/>
-      <c r="CW6" s="230"/>
-      <c r="CX6" s="230"/>
-      <c r="CY6" s="230"/>
-      <c r="CZ6" s="230"/>
-      <c r="DA6" s="232"/>
-      <c r="DB6" s="333"/>
-      <c r="DC6" s="223"/>
-      <c r="DD6" s="223"/>
-      <c r="DE6" s="223"/>
-      <c r="DF6" s="223"/>
-      <c r="DG6" s="256"/>
-      <c r="DH6" s="327"/>
-      <c r="DI6" s="330"/>
-      <c r="DJ6" s="321"/>
-      <c r="DK6" s="259"/>
-      <c r="DL6" s="344"/>
-      <c r="DM6" s="345"/>
+      <c r="BF6" s="233"/>
+      <c r="BG6" s="236"/>
+      <c r="BH6" s="236"/>
+      <c r="BI6" s="236"/>
+      <c r="BJ6" s="236"/>
+      <c r="BK6" s="236"/>
+      <c r="BL6" s="236"/>
+      <c r="BM6" s="236"/>
+      <c r="BN6" s="236"/>
+      <c r="BO6" s="236"/>
+      <c r="BP6" s="236"/>
+      <c r="BQ6" s="236"/>
+      <c r="BR6" s="236"/>
+      <c r="BS6" s="236"/>
+      <c r="BT6" s="236"/>
+      <c r="BU6" s="236"/>
+      <c r="BV6" s="236"/>
+      <c r="BW6" s="236"/>
+      <c r="BX6" s="236"/>
+      <c r="BY6" s="236"/>
+      <c r="BZ6" s="236"/>
+      <c r="CA6" s="236"/>
+      <c r="CB6" s="236"/>
+      <c r="CC6" s="306"/>
+      <c r="CD6" s="233"/>
+      <c r="CE6" s="236"/>
+      <c r="CF6" s="236"/>
+      <c r="CG6" s="236"/>
+      <c r="CH6" s="236"/>
+      <c r="CI6" s="236"/>
+      <c r="CJ6" s="236"/>
+      <c r="CK6" s="236"/>
+      <c r="CL6" s="236"/>
+      <c r="CM6" s="236"/>
+      <c r="CN6" s="236"/>
+      <c r="CO6" s="236"/>
+      <c r="CP6" s="236"/>
+      <c r="CQ6" s="236"/>
+      <c r="CR6" s="236"/>
+      <c r="CS6" s="236"/>
+      <c r="CT6" s="236"/>
+      <c r="CU6" s="236"/>
+      <c r="CV6" s="236"/>
+      <c r="CW6" s="236"/>
+      <c r="CX6" s="236"/>
+      <c r="CY6" s="236"/>
+      <c r="CZ6" s="236"/>
+      <c r="DA6" s="306"/>
+      <c r="DB6" s="245"/>
+      <c r="DC6" s="309"/>
+      <c r="DD6" s="309"/>
+      <c r="DE6" s="309"/>
+      <c r="DF6" s="309"/>
+      <c r="DG6" s="337"/>
+      <c r="DH6" s="239"/>
+      <c r="DI6" s="242"/>
+      <c r="DJ6" s="230"/>
+      <c r="DK6" s="340"/>
+      <c r="DL6" s="224"/>
+      <c r="DM6" s="227"/>
       <c r="DN6" s="143"/>
       <c r="DO6" s="30"/>
       <c r="DP6" s="210"/>
-      <c r="DQ6" s="245"/>
-      <c r="DR6" s="245"/>
-      <c r="DS6" s="245"/>
-      <c r="DT6" s="245"/>
-      <c r="DU6" s="249"/>
+      <c r="DQ6" s="295"/>
+      <c r="DR6" s="295"/>
+      <c r="DS6" s="295"/>
+      <c r="DT6" s="295"/>
+      <c r="DU6" s="330"/>
       <c r="DV6" s="143"/>
       <c r="DW6" s="30"/>
       <c r="DX6" s="210"/>
@@ -9405,11 +9405,11 @@
       </c>
     </row>
     <row r="7" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="280"/>
-      <c r="B7" s="271"/>
-      <c r="C7" s="317"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="271"/>
+      <c r="A7" s="267"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="256"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
       <c r="I7" s="208" t="s">
@@ -9475,66 +9475,66 @@
       <c r="BC7" s="123"/>
       <c r="BD7" s="119"/>
       <c r="BE7" s="123"/>
-      <c r="BF7" s="325"/>
-      <c r="BG7" s="264"/>
-      <c r="BH7" s="264"/>
-      <c r="BI7" s="264"/>
-      <c r="BJ7" s="264"/>
-      <c r="BK7" s="264"/>
-      <c r="BL7" s="264"/>
-      <c r="BM7" s="264"/>
-      <c r="BN7" s="264"/>
-      <c r="BO7" s="264"/>
-      <c r="BP7" s="264"/>
-      <c r="BQ7" s="264"/>
-      <c r="BR7" s="264"/>
-      <c r="BS7" s="264"/>
-      <c r="BT7" s="264"/>
-      <c r="BU7" s="264"/>
-      <c r="BV7" s="264"/>
-      <c r="BW7" s="264"/>
-      <c r="BX7" s="264"/>
-      <c r="BY7" s="264"/>
-      <c r="BZ7" s="264"/>
-      <c r="CA7" s="264"/>
-      <c r="CB7" s="264"/>
-      <c r="CC7" s="265"/>
-      <c r="CD7" s="324"/>
-      <c r="CE7" s="230"/>
-      <c r="CF7" s="230"/>
-      <c r="CG7" s="230"/>
-      <c r="CH7" s="230"/>
-      <c r="CI7" s="230"/>
-      <c r="CJ7" s="230"/>
-      <c r="CK7" s="230"/>
-      <c r="CL7" s="230"/>
-      <c r="CM7" s="230"/>
-      <c r="CN7" s="230"/>
-      <c r="CO7" s="230"/>
-      <c r="CP7" s="230"/>
-      <c r="CQ7" s="230"/>
-      <c r="CR7" s="230"/>
-      <c r="CS7" s="230"/>
-      <c r="CT7" s="230"/>
-      <c r="CU7" s="230"/>
-      <c r="CV7" s="230"/>
-      <c r="CW7" s="230"/>
-      <c r="CX7" s="230"/>
-      <c r="CY7" s="230"/>
-      <c r="CZ7" s="230"/>
-      <c r="DA7" s="232"/>
-      <c r="DB7" s="334"/>
-      <c r="DC7" s="224"/>
-      <c r="DD7" s="224"/>
-      <c r="DE7" s="224"/>
-      <c r="DF7" s="224"/>
-      <c r="DG7" s="257"/>
-      <c r="DH7" s="328"/>
-      <c r="DI7" s="331"/>
-      <c r="DJ7" s="322"/>
-      <c r="DK7" s="260"/>
-      <c r="DL7" s="346"/>
-      <c r="DM7" s="347"/>
+      <c r="BF7" s="234"/>
+      <c r="BG7" s="237"/>
+      <c r="BH7" s="237"/>
+      <c r="BI7" s="237"/>
+      <c r="BJ7" s="237"/>
+      <c r="BK7" s="237"/>
+      <c r="BL7" s="237"/>
+      <c r="BM7" s="237"/>
+      <c r="BN7" s="237"/>
+      <c r="BO7" s="237"/>
+      <c r="BP7" s="237"/>
+      <c r="BQ7" s="237"/>
+      <c r="BR7" s="237"/>
+      <c r="BS7" s="237"/>
+      <c r="BT7" s="237"/>
+      <c r="BU7" s="237"/>
+      <c r="BV7" s="237"/>
+      <c r="BW7" s="237"/>
+      <c r="BX7" s="237"/>
+      <c r="BY7" s="237"/>
+      <c r="BZ7" s="237"/>
+      <c r="CA7" s="237"/>
+      <c r="CB7" s="237"/>
+      <c r="CC7" s="307"/>
+      <c r="CD7" s="233"/>
+      <c r="CE7" s="236"/>
+      <c r="CF7" s="236"/>
+      <c r="CG7" s="236"/>
+      <c r="CH7" s="236"/>
+      <c r="CI7" s="236"/>
+      <c r="CJ7" s="236"/>
+      <c r="CK7" s="236"/>
+      <c r="CL7" s="236"/>
+      <c r="CM7" s="236"/>
+      <c r="CN7" s="236"/>
+      <c r="CO7" s="236"/>
+      <c r="CP7" s="236"/>
+      <c r="CQ7" s="236"/>
+      <c r="CR7" s="236"/>
+      <c r="CS7" s="236"/>
+      <c r="CT7" s="236"/>
+      <c r="CU7" s="236"/>
+      <c r="CV7" s="236"/>
+      <c r="CW7" s="236"/>
+      <c r="CX7" s="236"/>
+      <c r="CY7" s="236"/>
+      <c r="CZ7" s="236"/>
+      <c r="DA7" s="306"/>
+      <c r="DB7" s="246"/>
+      <c r="DC7" s="310"/>
+      <c r="DD7" s="310"/>
+      <c r="DE7" s="310"/>
+      <c r="DF7" s="310"/>
+      <c r="DG7" s="338"/>
+      <c r="DH7" s="240"/>
+      <c r="DI7" s="243"/>
+      <c r="DJ7" s="231"/>
+      <c r="DK7" s="341"/>
+      <c r="DL7" s="225"/>
+      <c r="DM7" s="228"/>
       <c r="DN7" s="208" t="s">
         <v>368</v>
       </c>
@@ -9544,11 +9544,11 @@
       <c r="DP7" s="211" t="s">
         <v>368</v>
       </c>
-      <c r="DQ7" s="246"/>
-      <c r="DR7" s="246"/>
-      <c r="DS7" s="246"/>
-      <c r="DT7" s="246"/>
-      <c r="DU7" s="250"/>
+      <c r="DQ7" s="327"/>
+      <c r="DR7" s="327"/>
+      <c r="DS7" s="327"/>
+      <c r="DT7" s="327"/>
+      <c r="DU7" s="331"/>
       <c r="DV7" s="208" t="s">
         <v>371</v>
       </c>
@@ -9591,173 +9591,173 @@
       <c r="EQ7" s="145"/>
     </row>
     <row r="8" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="281"/>
-      <c r="B8" s="271"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="271"/>
-      <c r="BV8" s="251" t="s">
+      <c r="A8" s="252"/>
+      <c r="B8" s="256"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="256"/>
+      <c r="BV8" s="332" t="s">
         <v>226</v>
       </c>
-      <c r="BW8" s="252"/>
-      <c r="BX8" s="252"/>
-      <c r="BY8" s="252"/>
-      <c r="BZ8" s="252"/>
-      <c r="CA8" s="252"/>
-      <c r="CB8" s="252"/>
-      <c r="CC8" s="252"/>
-      <c r="CD8" s="253"/>
-      <c r="CE8" s="253"/>
-      <c r="CF8" s="253"/>
-      <c r="CG8" s="253"/>
-      <c r="CH8" s="253"/>
-      <c r="CI8" s="253"/>
-      <c r="CJ8" s="253"/>
-      <c r="CK8" s="253"/>
-      <c r="CL8" s="253"/>
-      <c r="CM8" s="253"/>
-      <c r="CN8" s="253"/>
-      <c r="CO8" s="253"/>
-      <c r="CP8" s="253"/>
-      <c r="CQ8" s="253"/>
-      <c r="CR8" s="253"/>
-      <c r="CS8" s="253"/>
-      <c r="CT8" s="253"/>
-      <c r="CU8" s="253"/>
-      <c r="CV8" s="253"/>
-      <c r="CW8" s="253"/>
-      <c r="CX8" s="253"/>
-      <c r="CY8" s="253"/>
-      <c r="CZ8" s="253"/>
-      <c r="DA8" s="254"/>
+      <c r="BW8" s="333"/>
+      <c r="BX8" s="333"/>
+      <c r="BY8" s="333"/>
+      <c r="BZ8" s="333"/>
+      <c r="CA8" s="333"/>
+      <c r="CB8" s="333"/>
+      <c r="CC8" s="333"/>
+      <c r="CD8" s="334"/>
+      <c r="CE8" s="334"/>
+      <c r="CF8" s="334"/>
+      <c r="CG8" s="334"/>
+      <c r="CH8" s="334"/>
+      <c r="CI8" s="334"/>
+      <c r="CJ8" s="334"/>
+      <c r="CK8" s="334"/>
+      <c r="CL8" s="334"/>
+      <c r="CM8" s="334"/>
+      <c r="CN8" s="334"/>
+      <c r="CO8" s="334"/>
+      <c r="CP8" s="334"/>
+      <c r="CQ8" s="334"/>
+      <c r="CR8" s="334"/>
+      <c r="CS8" s="334"/>
+      <c r="CT8" s="334"/>
+      <c r="CU8" s="334"/>
+      <c r="CV8" s="334"/>
+      <c r="CW8" s="334"/>
+      <c r="CX8" s="334"/>
+      <c r="CY8" s="334"/>
+      <c r="CZ8" s="334"/>
+      <c r="DA8" s="335"/>
     </row>
     <row r="9" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="279"/>
-      <c r="B9" s="271"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="271"/>
-      <c r="AG9" s="233" t="s">
+      <c r="A9" s="253"/>
+      <c r="B9" s="256"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="256"/>
+      <c r="AG9" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="234"/>
-      <c r="AI9" s="234"/>
-      <c r="AJ9" s="234"/>
-      <c r="AK9" s="234"/>
-      <c r="AL9" s="234"/>
-      <c r="AM9" s="234"/>
-      <c r="AN9" s="234"/>
-      <c r="AO9" s="234"/>
-      <c r="AP9" s="234"/>
-      <c r="AQ9" s="234"/>
-      <c r="AR9" s="234"/>
-      <c r="AS9" s="234"/>
-      <c r="AT9" s="234"/>
-      <c r="AU9" s="234"/>
-      <c r="AV9" s="234"/>
-      <c r="AW9" s="234"/>
-      <c r="AX9" s="234"/>
-      <c r="AY9" s="234"/>
-      <c r="AZ9" s="234"/>
-      <c r="BA9" s="234"/>
-      <c r="BB9" s="234"/>
-      <c r="BC9" s="234"/>
-      <c r="BD9" s="234"/>
-      <c r="BE9" s="234"/>
-      <c r="BF9" s="234"/>
-      <c r="BG9" s="234"/>
-      <c r="BH9" s="234"/>
-      <c r="BI9" s="234"/>
-      <c r="BJ9" s="234"/>
-      <c r="BK9" s="234"/>
-      <c r="BL9" s="234"/>
-      <c r="BM9" s="234"/>
-      <c r="BN9" s="234"/>
-      <c r="BO9" s="234"/>
-      <c r="BP9" s="234"/>
-      <c r="BQ9" s="234"/>
-      <c r="BR9" s="234"/>
-      <c r="BS9" s="234"/>
-      <c r="BT9" s="234"/>
-      <c r="BU9" s="234"/>
-      <c r="BV9" s="234"/>
-      <c r="BW9" s="234"/>
-      <c r="BX9" s="234"/>
-      <c r="BY9" s="234"/>
-      <c r="BZ9" s="234"/>
-      <c r="CA9" s="234"/>
-      <c r="CB9" s="234"/>
-      <c r="CC9" s="234"/>
-      <c r="CD9" s="234"/>
-      <c r="CE9" s="234"/>
-      <c r="CF9" s="234"/>
-      <c r="CG9" s="234"/>
-      <c r="CH9" s="234"/>
-      <c r="CI9" s="234"/>
-      <c r="CJ9" s="234"/>
-      <c r="CK9" s="234"/>
-      <c r="CL9" s="234"/>
-      <c r="CM9" s="234"/>
-      <c r="CN9" s="234"/>
-      <c r="CO9" s="234"/>
-      <c r="CP9" s="234"/>
-      <c r="CQ9" s="234"/>
-      <c r="CR9" s="234"/>
-      <c r="CS9" s="234"/>
-      <c r="CT9" s="234"/>
-      <c r="CU9" s="234"/>
-      <c r="CV9" s="234"/>
-      <c r="CW9" s="234"/>
-      <c r="CX9" s="234"/>
-      <c r="CY9" s="234"/>
-      <c r="CZ9" s="234"/>
-      <c r="DA9" s="234"/>
-      <c r="DB9" s="234"/>
-      <c r="DC9" s="234"/>
-      <c r="DD9" s="234"/>
-      <c r="DE9" s="234"/>
-      <c r="DF9" s="234"/>
-      <c r="DG9" s="234"/>
-      <c r="DH9" s="234"/>
-      <c r="DI9" s="234"/>
-      <c r="DJ9" s="234"/>
-      <c r="DK9" s="234"/>
-      <c r="DL9" s="234"/>
-      <c r="DM9" s="234"/>
-      <c r="DN9" s="234"/>
-      <c r="DO9" s="234"/>
-      <c r="DP9" s="234"/>
-      <c r="DQ9" s="234"/>
-      <c r="DR9" s="234"/>
-      <c r="DS9" s="234"/>
-      <c r="DT9" s="234"/>
-      <c r="DU9" s="234"/>
-      <c r="DV9" s="234"/>
-      <c r="DW9" s="234"/>
-      <c r="DX9" s="234"/>
-      <c r="DY9" s="234"/>
-      <c r="DZ9" s="234"/>
-      <c r="EA9" s="234"/>
-      <c r="EB9" s="234"/>
-      <c r="EC9" s="234"/>
-      <c r="ED9" s="234"/>
-      <c r="EE9" s="234"/>
-      <c r="EF9" s="234"/>
-      <c r="EG9" s="234"/>
-      <c r="EH9" s="234"/>
-      <c r="EI9" s="234"/>
-      <c r="EJ9" s="234"/>
-      <c r="EK9" s="234"/>
-      <c r="EL9" s="234"/>
-      <c r="EM9" s="234"/>
-      <c r="EN9" s="234"/>
-      <c r="EO9" s="234"/>
-      <c r="EP9" s="234"/>
-      <c r="EQ9" s="235"/>
+      <c r="AH9" s="316"/>
+      <c r="AI9" s="316"/>
+      <c r="AJ9" s="316"/>
+      <c r="AK9" s="316"/>
+      <c r="AL9" s="316"/>
+      <c r="AM9" s="316"/>
+      <c r="AN9" s="316"/>
+      <c r="AO9" s="316"/>
+      <c r="AP9" s="316"/>
+      <c r="AQ9" s="316"/>
+      <c r="AR9" s="316"/>
+      <c r="AS9" s="316"/>
+      <c r="AT9" s="316"/>
+      <c r="AU9" s="316"/>
+      <c r="AV9" s="316"/>
+      <c r="AW9" s="316"/>
+      <c r="AX9" s="316"/>
+      <c r="AY9" s="316"/>
+      <c r="AZ9" s="316"/>
+      <c r="BA9" s="316"/>
+      <c r="BB9" s="316"/>
+      <c r="BC9" s="316"/>
+      <c r="BD9" s="316"/>
+      <c r="BE9" s="316"/>
+      <c r="BF9" s="316"/>
+      <c r="BG9" s="316"/>
+      <c r="BH9" s="316"/>
+      <c r="BI9" s="316"/>
+      <c r="BJ9" s="316"/>
+      <c r="BK9" s="316"/>
+      <c r="BL9" s="316"/>
+      <c r="BM9" s="316"/>
+      <c r="BN9" s="316"/>
+      <c r="BO9" s="316"/>
+      <c r="BP9" s="316"/>
+      <c r="BQ9" s="316"/>
+      <c r="BR9" s="316"/>
+      <c r="BS9" s="316"/>
+      <c r="BT9" s="316"/>
+      <c r="BU9" s="316"/>
+      <c r="BV9" s="316"/>
+      <c r="BW9" s="316"/>
+      <c r="BX9" s="316"/>
+      <c r="BY9" s="316"/>
+      <c r="BZ9" s="316"/>
+      <c r="CA9" s="316"/>
+      <c r="CB9" s="316"/>
+      <c r="CC9" s="316"/>
+      <c r="CD9" s="316"/>
+      <c r="CE9" s="316"/>
+      <c r="CF9" s="316"/>
+      <c r="CG9" s="316"/>
+      <c r="CH9" s="316"/>
+      <c r="CI9" s="316"/>
+      <c r="CJ9" s="316"/>
+      <c r="CK9" s="316"/>
+      <c r="CL9" s="316"/>
+      <c r="CM9" s="316"/>
+      <c r="CN9" s="316"/>
+      <c r="CO9" s="316"/>
+      <c r="CP9" s="316"/>
+      <c r="CQ9" s="316"/>
+      <c r="CR9" s="316"/>
+      <c r="CS9" s="316"/>
+      <c r="CT9" s="316"/>
+      <c r="CU9" s="316"/>
+      <c r="CV9" s="316"/>
+      <c r="CW9" s="316"/>
+      <c r="CX9" s="316"/>
+      <c r="CY9" s="316"/>
+      <c r="CZ9" s="316"/>
+      <c r="DA9" s="316"/>
+      <c r="DB9" s="316"/>
+      <c r="DC9" s="316"/>
+      <c r="DD9" s="316"/>
+      <c r="DE9" s="316"/>
+      <c r="DF9" s="316"/>
+      <c r="DG9" s="316"/>
+      <c r="DH9" s="316"/>
+      <c r="DI9" s="316"/>
+      <c r="DJ9" s="316"/>
+      <c r="DK9" s="316"/>
+      <c r="DL9" s="316"/>
+      <c r="DM9" s="316"/>
+      <c r="DN9" s="316"/>
+      <c r="DO9" s="316"/>
+      <c r="DP9" s="316"/>
+      <c r="DQ9" s="316"/>
+      <c r="DR9" s="316"/>
+      <c r="DS9" s="316"/>
+      <c r="DT9" s="316"/>
+      <c r="DU9" s="316"/>
+      <c r="DV9" s="316"/>
+      <c r="DW9" s="316"/>
+      <c r="DX9" s="316"/>
+      <c r="DY9" s="316"/>
+      <c r="DZ9" s="316"/>
+      <c r="EA9" s="316"/>
+      <c r="EB9" s="316"/>
+      <c r="EC9" s="316"/>
+      <c r="ED9" s="316"/>
+      <c r="EE9" s="316"/>
+      <c r="EF9" s="316"/>
+      <c r="EG9" s="316"/>
+      <c r="EH9" s="316"/>
+      <c r="EI9" s="316"/>
+      <c r="EJ9" s="316"/>
+      <c r="EK9" s="316"/>
+      <c r="EL9" s="316"/>
+      <c r="EM9" s="316"/>
+      <c r="EN9" s="316"/>
+      <c r="EO9" s="316"/>
+      <c r="EP9" s="316"/>
+      <c r="EQ9" s="317"/>
     </row>
     <row r="10" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="279"/>
-      <c r="B10" s="271"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="271"/>
+      <c r="A10" s="253"/>
+      <c r="B10" s="256"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="256"/>
       <c r="I10" s="114" t="s">
         <v>261</v>
       </c>
@@ -9792,143 +9792,143 @@
       <c r="BS10" s="33"/>
       <c r="BT10" s="33"/>
       <c r="BU10" s="33"/>
-      <c r="DM10" s="240" t="s">
+      <c r="DM10" s="322" t="s">
         <v>230</v>
       </c>
-      <c r="DN10" s="241"/>
-      <c r="DO10" s="241"/>
-      <c r="DP10" s="241"/>
-      <c r="DQ10" s="241"/>
-      <c r="DR10" s="241"/>
-      <c r="DS10" s="241"/>
-      <c r="DT10" s="241"/>
-      <c r="DU10" s="241"/>
-      <c r="DV10" s="241"/>
-      <c r="DW10" s="241"/>
-      <c r="DX10" s="241"/>
-      <c r="DY10" s="241"/>
-      <c r="DZ10" s="241"/>
-      <c r="EA10" s="241"/>
-      <c r="EB10" s="241"/>
-      <c r="EC10" s="241"/>
-      <c r="ED10" s="241"/>
-      <c r="EE10" s="241"/>
-      <c r="EF10" s="241"/>
-      <c r="EG10" s="241"/>
-      <c r="EH10" s="241"/>
-      <c r="EI10" s="241"/>
-      <c r="EJ10" s="242"/>
+      <c r="DN10" s="323"/>
+      <c r="DO10" s="323"/>
+      <c r="DP10" s="323"/>
+      <c r="DQ10" s="323"/>
+      <c r="DR10" s="323"/>
+      <c r="DS10" s="323"/>
+      <c r="DT10" s="323"/>
+      <c r="DU10" s="323"/>
+      <c r="DV10" s="323"/>
+      <c r="DW10" s="323"/>
+      <c r="DX10" s="323"/>
+      <c r="DY10" s="323"/>
+      <c r="DZ10" s="323"/>
+      <c r="EA10" s="323"/>
+      <c r="EB10" s="323"/>
+      <c r="EC10" s="323"/>
+      <c r="ED10" s="323"/>
+      <c r="EE10" s="323"/>
+      <c r="EF10" s="323"/>
+      <c r="EG10" s="323"/>
+      <c r="EH10" s="323"/>
+      <c r="EI10" s="323"/>
+      <c r="EJ10" s="324"/>
     </row>
     <row r="11" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="280"/>
-      <c r="B11" s="271"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="271"/>
+      <c r="A11" s="267"/>
+      <c r="B11" s="256"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="256"/>
       <c r="I11" s="154" t="s">
         <v>260</v>
       </c>
       <c r="J11" s="109" t="s">
         <v>229</v>
       </c>
-      <c r="AS11" s="236" t="s">
+      <c r="AS11" s="318" t="s">
         <v>314</v>
       </c>
-      <c r="AT11" s="237"/>
-      <c r="AU11" s="237"/>
-      <c r="AV11" s="237"/>
-      <c r="AW11" s="237"/>
-      <c r="AX11" s="237"/>
-      <c r="AY11" s="237"/>
-      <c r="AZ11" s="237"/>
-      <c r="BA11" s="237"/>
-      <c r="BB11" s="237"/>
-      <c r="BC11" s="237"/>
-      <c r="BD11" s="237"/>
-      <c r="BE11" s="237"/>
-      <c r="BF11" s="237"/>
-      <c r="BG11" s="237"/>
-      <c r="BH11" s="237"/>
-      <c r="BI11" s="237"/>
-      <c r="BJ11" s="237"/>
-      <c r="BK11" s="237"/>
-      <c r="BL11" s="237"/>
-      <c r="BM11" s="237"/>
-      <c r="BN11" s="237"/>
-      <c r="BO11" s="237"/>
-      <c r="BP11" s="237"/>
-      <c r="BQ11" s="237"/>
-      <c r="BR11" s="237"/>
-      <c r="BS11" s="237"/>
-      <c r="BT11" s="237"/>
-      <c r="BU11" s="237"/>
-      <c r="BV11" s="237"/>
-      <c r="BW11" s="237"/>
-      <c r="BX11" s="237"/>
-      <c r="BY11" s="237"/>
-      <c r="BZ11" s="237"/>
-      <c r="CA11" s="237"/>
-      <c r="CB11" s="237"/>
-      <c r="CC11" s="237"/>
-      <c r="CD11" s="237"/>
-      <c r="CE11" s="237"/>
-      <c r="CF11" s="237"/>
-      <c r="CG11" s="237"/>
-      <c r="CH11" s="237"/>
-      <c r="CI11" s="237"/>
-      <c r="CJ11" s="237"/>
-      <c r="CK11" s="237"/>
-      <c r="CL11" s="237"/>
-      <c r="CM11" s="237"/>
-      <c r="CN11" s="237"/>
-      <c r="CO11" s="237"/>
-      <c r="CP11" s="237"/>
-      <c r="CQ11" s="237"/>
-      <c r="CR11" s="237"/>
-      <c r="CS11" s="237"/>
-      <c r="CT11" s="237"/>
-      <c r="CU11" s="237"/>
-      <c r="CV11" s="237"/>
-      <c r="CW11" s="237"/>
-      <c r="CX11" s="237"/>
-      <c r="CY11" s="237"/>
-      <c r="CZ11" s="237"/>
-      <c r="DA11" s="237"/>
-      <c r="DB11" s="237"/>
-      <c r="DC11" s="237"/>
-      <c r="DD11" s="237"/>
-      <c r="DE11" s="237"/>
-      <c r="DF11" s="237"/>
-      <c r="DG11" s="237"/>
-      <c r="DH11" s="237"/>
-      <c r="DI11" s="237"/>
-      <c r="DJ11" s="237"/>
-      <c r="DK11" s="237"/>
-      <c r="DL11" s="237"/>
-      <c r="DM11" s="238"/>
-      <c r="DN11" s="238"/>
-      <c r="DO11" s="238"/>
-      <c r="DP11" s="238"/>
-      <c r="DQ11" s="238"/>
-      <c r="DR11" s="238"/>
-      <c r="DS11" s="238"/>
-      <c r="DT11" s="238"/>
-      <c r="DU11" s="238"/>
-      <c r="DV11" s="238"/>
-      <c r="DW11" s="238"/>
-      <c r="DX11" s="238"/>
-      <c r="DY11" s="238"/>
-      <c r="DZ11" s="238"/>
-      <c r="EA11" s="239"/>
+      <c r="AT11" s="319"/>
+      <c r="AU11" s="319"/>
+      <c r="AV11" s="319"/>
+      <c r="AW11" s="319"/>
+      <c r="AX11" s="319"/>
+      <c r="AY11" s="319"/>
+      <c r="AZ11" s="319"/>
+      <c r="BA11" s="319"/>
+      <c r="BB11" s="319"/>
+      <c r="BC11" s="319"/>
+      <c r="BD11" s="319"/>
+      <c r="BE11" s="319"/>
+      <c r="BF11" s="319"/>
+      <c r="BG11" s="319"/>
+      <c r="BH11" s="319"/>
+      <c r="BI11" s="319"/>
+      <c r="BJ11" s="319"/>
+      <c r="BK11" s="319"/>
+      <c r="BL11" s="319"/>
+      <c r="BM11" s="319"/>
+      <c r="BN11" s="319"/>
+      <c r="BO11" s="319"/>
+      <c r="BP11" s="319"/>
+      <c r="BQ11" s="319"/>
+      <c r="BR11" s="319"/>
+      <c r="BS11" s="319"/>
+      <c r="BT11" s="319"/>
+      <c r="BU11" s="319"/>
+      <c r="BV11" s="319"/>
+      <c r="BW11" s="319"/>
+      <c r="BX11" s="319"/>
+      <c r="BY11" s="319"/>
+      <c r="BZ11" s="319"/>
+      <c r="CA11" s="319"/>
+      <c r="CB11" s="319"/>
+      <c r="CC11" s="319"/>
+      <c r="CD11" s="319"/>
+      <c r="CE11" s="319"/>
+      <c r="CF11" s="319"/>
+      <c r="CG11" s="319"/>
+      <c r="CH11" s="319"/>
+      <c r="CI11" s="319"/>
+      <c r="CJ11" s="319"/>
+      <c r="CK11" s="319"/>
+      <c r="CL11" s="319"/>
+      <c r="CM11" s="319"/>
+      <c r="CN11" s="319"/>
+      <c r="CO11" s="319"/>
+      <c r="CP11" s="319"/>
+      <c r="CQ11" s="319"/>
+      <c r="CR11" s="319"/>
+      <c r="CS11" s="319"/>
+      <c r="CT11" s="319"/>
+      <c r="CU11" s="319"/>
+      <c r="CV11" s="319"/>
+      <c r="CW11" s="319"/>
+      <c r="CX11" s="319"/>
+      <c r="CY11" s="319"/>
+      <c r="CZ11" s="319"/>
+      <c r="DA11" s="319"/>
+      <c r="DB11" s="319"/>
+      <c r="DC11" s="319"/>
+      <c r="DD11" s="319"/>
+      <c r="DE11" s="319"/>
+      <c r="DF11" s="319"/>
+      <c r="DG11" s="319"/>
+      <c r="DH11" s="319"/>
+      <c r="DI11" s="319"/>
+      <c r="DJ11" s="319"/>
+      <c r="DK11" s="319"/>
+      <c r="DL11" s="319"/>
+      <c r="DM11" s="320"/>
+      <c r="DN11" s="320"/>
+      <c r="DO11" s="320"/>
+      <c r="DP11" s="320"/>
+      <c r="DQ11" s="320"/>
+      <c r="DR11" s="320"/>
+      <c r="DS11" s="320"/>
+      <c r="DT11" s="320"/>
+      <c r="DU11" s="320"/>
+      <c r="DV11" s="320"/>
+      <c r="DW11" s="320"/>
+      <c r="DX11" s="320"/>
+      <c r="DY11" s="320"/>
+      <c r="DZ11" s="320"/>
+      <c r="EA11" s="321"/>
     </row>
     <row r="12" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="271"/>
+      <c r="B12" s="256"/>
       <c r="D12" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="271"/>
+      <c r="E12" s="256"/>
       <c r="I12" s="207" t="s">
         <v>370</v>
       </c>
@@ -9940,11 +9940,11 @@
       <c r="A13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="271"/>
+      <c r="B13" s="256"/>
       <c r="D13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="271"/>
+      <c r="E13" s="256"/>
       <c r="I13" s="112" t="s">
         <v>183</v>
       </c>
@@ -9956,11 +9956,11 @@
       <c r="A14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="271"/>
+      <c r="B14" s="256"/>
       <c r="D14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="271"/>
+      <c r="E14" s="256"/>
       <c r="I14" s="113" t="s">
         <v>184</v>
       </c>
@@ -9970,42 +9970,42 @@
     </row>
     <row r="15" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="271"/>
+      <c r="B15" s="256"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="271"/>
-      <c r="I15" s="348" t="s">
+      <c r="E15" s="256"/>
+      <c r="I15" s="222" t="s">
         <v>505</v>
       </c>
       <c r="J15" s="109" t="s">
         <v>506</v>
       </c>
       <c r="N15" s="221"/>
-      <c r="DM15" s="228" t="s">
+      <c r="DM15" s="314" t="s">
         <v>327</v>
       </c>
-      <c r="DN15" s="228"/>
+      <c r="DN15" s="314"/>
     </row>
     <row r="16" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="281"/>
-      <c r="B16" s="271"/>
-      <c r="D16" s="281"/>
-      <c r="E16" s="271"/>
+      <c r="A16" s="252"/>
+      <c r="B16" s="256"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="256"/>
       <c r="I16" s="115" t="s">
         <v>259</v>
       </c>
       <c r="J16" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="DM16" s="228" t="s">
+      <c r="DM16" s="314" t="s">
         <v>326</v>
       </c>
-      <c r="DN16" s="228"/>
+      <c r="DN16" s="314"/>
     </row>
     <row r="17" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="279"/>
-      <c r="B17" s="271"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="271"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="256"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="256"/>
       <c r="I17" s="110" t="s">
         <v>421</v>
       </c>
@@ -10014,10 +10014,10 @@
       </c>
     </row>
     <row r="18" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="279"/>
-      <c r="B18" s="271"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="271"/>
+      <c r="A18" s="253"/>
+      <c r="B18" s="256"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="256"/>
       <c r="I18" s="219" t="s">
         <v>436</v>
       </c>
@@ -10026,10 +10026,10 @@
       </c>
     </row>
     <row r="19" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="280"/>
-      <c r="B19" s="271"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="271"/>
+      <c r="A19" s="267"/>
+      <c r="B19" s="256"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="256"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -10038,10 +10038,10 @@
       </c>
     </row>
     <row r="20" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="279"/>
-      <c r="B20" s="271"/>
-      <c r="D20" s="281"/>
-      <c r="E20" s="271"/>
+      <c r="A20" s="253"/>
+      <c r="B20" s="256"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="256"/>
       <c r="I20" s="203" t="s">
         <v>114</v>
       </c>
@@ -10050,10 +10050,10 @@
       </c>
     </row>
     <row r="21" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="279"/>
-      <c r="B21" s="271"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="271"/>
+      <c r="A21" s="253"/>
+      <c r="B21" s="256"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="256"/>
       <c r="I21" s="220" t="s">
         <v>116</v>
       </c>
@@ -10062,25 +10062,25 @@
       </c>
     </row>
     <row r="22" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="279"/>
-      <c r="B22" s="271"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="271"/>
+      <c r="A22" s="253"/>
+      <c r="B22" s="256"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="256"/>
     </row>
     <row r="23" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="280"/>
-      <c r="B23" s="271"/>
-      <c r="D23" s="280"/>
-      <c r="E23" s="271"/>
+      <c r="A23" s="267"/>
+      <c r="B23" s="256"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="256"/>
     </row>
     <row r="24" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="281" t="s">
+      <c r="A24" s="252" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="271"/>
-      <c r="C24" s="317"/>
-      <c r="D24" s="281"/>
-      <c r="E24" s="271"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="256"/>
       <c r="G24" s="156"/>
       <c r="H24" s="157"/>
       <c r="I24" s="157"/>
@@ -10142,7 +10142,7 @@
       <c r="BM24" s="157"/>
       <c r="BN24" s="157"/>
       <c r="BO24" s="157"/>
-      <c r="BP24" s="266" t="s">
+      <c r="BP24" s="291" t="s">
         <v>313</v>
       </c>
       <c r="BQ24" s="157"/>
@@ -10226,11 +10226,11 @@
       <c r="EQ24" s="16"/>
     </row>
     <row r="25" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="279"/>
-      <c r="B25" s="271"/>
-      <c r="C25" s="317"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="271"/>
+      <c r="A25" s="253"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="256"/>
       <c r="G25" s="158"/>
       <c r="H25" s="159"/>
       <c r="I25" s="159"/>
@@ -10292,7 +10292,7 @@
       <c r="BM25" s="159"/>
       <c r="BN25" s="159"/>
       <c r="BO25" s="159"/>
-      <c r="BP25" s="267"/>
+      <c r="BP25" s="292"/>
       <c r="BQ25" s="159"/>
       <c r="BR25" s="159"/>
       <c r="BS25" s="159"/>
@@ -10374,11 +10374,11 @@
       <c r="EQ25" s="160"/>
     </row>
     <row r="26" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="279"/>
-      <c r="B26" s="271"/>
-      <c r="C26" s="317"/>
-      <c r="D26" s="279"/>
-      <c r="E26" s="271"/>
+      <c r="A26" s="253"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="256"/>
       <c r="G26" s="158"/>
       <c r="H26" s="159"/>
       <c r="I26" s="159"/>
@@ -10440,7 +10440,7 @@
       <c r="BM26" s="159"/>
       <c r="BN26" s="159"/>
       <c r="BO26" s="159"/>
-      <c r="BP26" s="267"/>
+      <c r="BP26" s="292"/>
       <c r="BQ26" s="159"/>
       <c r="BR26" s="159"/>
       <c r="BS26" s="159"/>
@@ -10522,11 +10522,11 @@
       <c r="EQ26" s="160"/>
     </row>
     <row r="27" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="291"/>
-      <c r="B27" s="272"/>
-      <c r="C27" s="317"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="271"/>
+      <c r="A27" s="254"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="256"/>
       <c r="G27" s="13"/>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -10588,7 +10588,7 @@
       <c r="BM27" s="123"/>
       <c r="BN27" s="123"/>
       <c r="BO27" s="123"/>
-      <c r="BP27" s="268"/>
+      <c r="BP27" s="293"/>
       <c r="BQ27" s="123"/>
       <c r="BR27" s="123"/>
       <c r="BS27" s="123"/>
@@ -10670,15 +10670,15 @@
       <c r="EQ27" s="124"/>
     </row>
     <row r="28" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="273" t="s">
+      <c r="A28" s="269" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="307" t="s">
+      <c r="B28" s="261" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="271"/>
-      <c r="G28" s="269" t="s">
+      <c r="D28" s="252"/>
+      <c r="E28" s="256"/>
+      <c r="G28" s="294" t="s">
         <v>332</v>
       </c>
       <c r="H28" s="156"/>
@@ -10823,11 +10823,11 @@
       <c r="EQ28" s="16"/>
     </row>
     <row r="29" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="274"/>
-      <c r="B29" s="308"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="271"/>
-      <c r="G29" s="269"/>
+      <c r="A29" s="259"/>
+      <c r="B29" s="262"/>
+      <c r="D29" s="253"/>
+      <c r="E29" s="256"/>
+      <c r="G29" s="294"/>
       <c r="H29" s="158"/>
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
@@ -10970,11 +10970,11 @@
       <c r="EQ29" s="160"/>
     </row>
     <row r="30" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="274"/>
-      <c r="B30" s="308"/>
-      <c r="D30" s="279"/>
-      <c r="E30" s="271"/>
-      <c r="G30" s="269"/>
+      <c r="A30" s="259"/>
+      <c r="B30" s="262"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="256"/>
+      <c r="G30" s="294"/>
       <c r="H30" s="158"/>
       <c r="I30" s="159"/>
       <c r="J30" s="159"/>
@@ -11117,11 +11117,11 @@
       <c r="EQ30" s="160"/>
     </row>
     <row r="31" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277"/>
-      <c r="B31" s="308"/>
-      <c r="D31" s="280"/>
-      <c r="E31" s="271"/>
-      <c r="G31" s="269"/>
+      <c r="A31" s="270"/>
+      <c r="B31" s="262"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="256"/>
+      <c r="G31" s="294"/>
       <c r="H31" s="13"/>
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
@@ -11267,11 +11267,11 @@
       <c r="A32" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="308"/>
+      <c r="B32" s="262"/>
       <c r="D32" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="271"/>
+      <c r="E32" s="256"/>
       <c r="G32" s="193" t="s">
         <v>268</v>
       </c>
@@ -11420,11 +11420,11 @@
       <c r="A33" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="308"/>
+      <c r="B33" s="262"/>
       <c r="D33" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="256"/>
       <c r="G33" s="192" t="s">
         <v>268</v>
       </c>
@@ -11573,11 +11573,11 @@
       <c r="A34" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="308"/>
+      <c r="B34" s="262"/>
       <c r="D34" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="256"/>
       <c r="G34" s="192" t="s">
         <v>268</v>
       </c>
@@ -11724,9 +11724,9 @@
     </row>
     <row r="35" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="308"/>
+      <c r="B35" s="262"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="271"/>
+      <c r="E35" s="256"/>
       <c r="G35" s="192"/>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
@@ -11870,10 +11870,10 @@
       <c r="EQ35" s="124"/>
     </row>
     <row r="36" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="276"/>
-      <c r="B36" s="308"/>
+      <c r="A36" s="258"/>
+      <c r="B36" s="262"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="271"/>
+      <c r="E36" s="256"/>
       <c r="G36" s="87"/>
       <c r="H36" s="157"/>
       <c r="I36" s="157"/>
@@ -12017,10 +12017,10 @@
       <c r="EQ36" s="16"/>
     </row>
     <row r="37" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="274"/>
-      <c r="B37" s="308"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="262"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="271"/>
+      <c r="E37" s="256"/>
       <c r="G37" s="191"/>
       <c r="H37" s="159"/>
       <c r="I37" s="159"/>
@@ -12164,10 +12164,10 @@
       <c r="EQ37" s="160"/>
     </row>
     <row r="38" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="274"/>
-      <c r="B38" s="308"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="262"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="271"/>
+      <c r="E38" s="256"/>
       <c r="G38" s="191"/>
       <c r="H38" s="159"/>
       <c r="I38" s="159"/>
@@ -12311,10 +12311,10 @@
       <c r="EQ38" s="160"/>
     </row>
     <row r="39" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="287"/>
-      <c r="B39" s="309"/>
+      <c r="A39" s="260"/>
+      <c r="B39" s="263"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="271"/>
+      <c r="E39" s="256"/>
       <c r="G39" s="191"/>
       <c r="H39" s="123"/>
       <c r="I39" s="123"/>
@@ -12458,36 +12458,36 @@
       <c r="EQ39" s="124"/>
     </row>
     <row r="40" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="318"/>
-      <c r="B40" s="304" t="s">
+      <c r="A40" s="264"/>
+      <c r="B40" s="248" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="288"/>
-      <c r="E40" s="271"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="256"/>
       <c r="G40" s="87"/>
       <c r="EQ40" s="16"/>
     </row>
     <row r="41" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="302"/>
-      <c r="B41" s="305"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="271"/>
+      <c r="A41" s="265"/>
+      <c r="B41" s="249"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="256"/>
       <c r="G41" s="191"/>
       <c r="EQ41" s="160"/>
     </row>
     <row r="42" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="302"/>
-      <c r="B42" s="305"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="271"/>
+      <c r="A42" s="265"/>
+      <c r="B42" s="249"/>
+      <c r="D42" s="272"/>
+      <c r="E42" s="256"/>
       <c r="G42" s="191"/>
       <c r="EQ42" s="160"/>
     </row>
     <row r="43" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="319"/>
-      <c r="B43" s="305"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="271"/>
+      <c r="A43" s="266"/>
+      <c r="B43" s="249"/>
+      <c r="D43" s="273"/>
+      <c r="E43" s="256"/>
       <c r="G43" s="191"/>
       <c r="EQ43" s="160"/>
     </row>
@@ -12495,11 +12495,11 @@
       <c r="A44" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="305"/>
+      <c r="B44" s="249"/>
       <c r="D44" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="271"/>
+      <c r="E44" s="256"/>
       <c r="G44" s="193" t="s">
         <v>268</v>
       </c>
@@ -12648,11 +12648,11 @@
       <c r="A45" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="305"/>
+      <c r="B45" s="249"/>
       <c r="D45" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="271"/>
+      <c r="E45" s="256"/>
       <c r="G45" s="192" t="s">
         <v>268</v>
       </c>
@@ -12801,11 +12801,11 @@
       <c r="A46" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="305"/>
+      <c r="B46" s="249"/>
       <c r="D46" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="271"/>
+      <c r="E46" s="256"/>
       <c r="G46" s="192" t="s">
         <v>268</v>
       </c>
@@ -12952,9 +12952,9 @@
     </row>
     <row r="47" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="305"/>
+      <c r="B47" s="249"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="271"/>
+      <c r="E47" s="256"/>
       <c r="G47" s="192"/>
       <c r="H47" s="123"/>
       <c r="I47" s="123"/>
@@ -13098,52 +13098,52 @@
       <c r="EQ47" s="124"/>
     </row>
     <row r="48" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="294" t="s">
+      <c r="A48" s="276" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="305"/>
-      <c r="D48" s="281" t="s">
+      <c r="B48" s="249"/>
+      <c r="D48" s="252" t="s">
         <v>334</v>
       </c>
-      <c r="E48" s="271"/>
+      <c r="E48" s="256"/>
       <c r="G48" s="87"/>
       <c r="EQ48" s="160"/>
     </row>
     <row r="49" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="294"/>
-      <c r="B49" s="305"/>
-      <c r="D49" s="279"/>
-      <c r="E49" s="271"/>
+      <c r="A49" s="276"/>
+      <c r="B49" s="249"/>
+      <c r="D49" s="253"/>
+      <c r="E49" s="256"/>
       <c r="G49" s="158"/>
       <c r="EQ49" s="160"/>
     </row>
     <row r="50" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="294"/>
-      <c r="B50" s="305"/>
-      <c r="D50" s="279"/>
-      <c r="E50" s="271"/>
+      <c r="A50" s="276"/>
+      <c r="B50" s="249"/>
+      <c r="D50" s="253"/>
+      <c r="E50" s="256"/>
       <c r="G50" s="158"/>
       <c r="EQ50" s="160"/>
     </row>
     <row r="51" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
-      <c r="B51" s="306"/>
-      <c r="D51" s="280"/>
-      <c r="E51" s="272"/>
+      <c r="A51" s="277"/>
+      <c r="B51" s="250"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="257"/>
       <c r="G51" s="13"/>
       <c r="EQ51" s="160"/>
     </row>
     <row r="52" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="310" t="s">
+      <c r="A52" s="285" t="s">
         <v>328</v>
       </c>
-      <c r="B52" s="297" t="s">
+      <c r="B52" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="279" t="s">
+      <c r="D52" s="253" t="s">
         <v>328</v>
       </c>
-      <c r="E52" s="284" t="s">
+      <c r="E52" s="302" t="s">
         <v>269</v>
       </c>
       <c r="G52" s="156"/>
@@ -13213,7 +13213,7 @@
       <c r="BS52" s="157"/>
       <c r="BT52" s="157"/>
       <c r="BU52" s="157"/>
-      <c r="BV52" s="261"/>
+      <c r="BV52" s="299"/>
       <c r="BW52" s="164"/>
       <c r="BX52" s="164"/>
       <c r="BY52" s="164"/>
@@ -13289,10 +13289,10 @@
       <c r="EQ52" s="165"/>
     </row>
     <row r="53" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="311"/>
-      <c r="B53" s="298"/>
-      <c r="D53" s="279"/>
-      <c r="E53" s="285"/>
+      <c r="A53" s="286"/>
+      <c r="B53" s="280"/>
+      <c r="D53" s="253"/>
+      <c r="E53" s="303"/>
       <c r="G53" s="158"/>
       <c r="H53" s="159"/>
       <c r="I53" s="159"/>
@@ -13360,7 +13360,7 @@
       <c r="BS53" s="159"/>
       <c r="BT53" s="159"/>
       <c r="BU53" s="159"/>
-      <c r="BV53" s="262"/>
+      <c r="BV53" s="300"/>
       <c r="BW53" s="166"/>
       <c r="BX53" s="166"/>
       <c r="BY53" s="166"/>
@@ -13436,10 +13436,10 @@
       <c r="EQ53" s="167"/>
     </row>
     <row r="54" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="311"/>
-      <c r="B54" s="298"/>
-      <c r="D54" s="279"/>
-      <c r="E54" s="285"/>
+      <c r="A54" s="286"/>
+      <c r="B54" s="280"/>
+      <c r="D54" s="253"/>
+      <c r="E54" s="303"/>
       <c r="G54" s="158"/>
       <c r="H54" s="159"/>
       <c r="I54" s="159"/>
@@ -13507,7 +13507,7 @@
       <c r="BS54" s="159"/>
       <c r="BT54" s="159"/>
       <c r="BU54" s="159"/>
-      <c r="BV54" s="262"/>
+      <c r="BV54" s="300"/>
       <c r="BW54" s="166"/>
       <c r="BX54" s="166"/>
       <c r="BY54" s="166"/>
@@ -13583,10 +13583,10 @@
       <c r="EQ54" s="167"/>
     </row>
     <row r="55" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="311"/>
-      <c r="B55" s="298"/>
-      <c r="D55" s="280"/>
-      <c r="E55" s="285"/>
+      <c r="A55" s="286"/>
+      <c r="B55" s="280"/>
+      <c r="D55" s="267"/>
+      <c r="E55" s="303"/>
       <c r="G55" s="13"/>
       <c r="H55" s="123"/>
       <c r="I55" s="123"/>
@@ -13654,7 +13654,7 @@
       <c r="BS55" s="123"/>
       <c r="BT55" s="123"/>
       <c r="BU55" s="123"/>
-      <c r="BV55" s="263"/>
+      <c r="BV55" s="301"/>
       <c r="BW55" s="168"/>
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
@@ -13730,14 +13730,14 @@
       <c r="EQ55" s="169"/>
     </row>
     <row r="56" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="312" t="s">
+      <c r="A56" s="287" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="298"/>
-      <c r="D56" s="281" t="s">
+      <c r="B56" s="280"/>
+      <c r="D56" s="252" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="285"/>
+      <c r="E56" s="303"/>
       <c r="G56" s="170"/>
       <c r="H56" s="164"/>
       <c r="I56" s="164"/>
@@ -13881,10 +13881,10 @@
       <c r="EQ56" s="165"/>
     </row>
     <row r="57" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="313"/>
-      <c r="B57" s="298"/>
-      <c r="D57" s="279"/>
-      <c r="E57" s="285"/>
+      <c r="A57" s="288"/>
+      <c r="B57" s="280"/>
+      <c r="D57" s="253"/>
+      <c r="E57" s="303"/>
       <c r="G57" s="171"/>
       <c r="H57" s="166"/>
       <c r="I57" s="166"/>
@@ -14028,10 +14028,10 @@
       <c r="EQ57" s="167"/>
     </row>
     <row r="58" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="313"/>
-      <c r="B58" s="298"/>
-      <c r="D58" s="279"/>
-      <c r="E58" s="285"/>
+      <c r="A58" s="288"/>
+      <c r="B58" s="280"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="303"/>
       <c r="G58" s="171"/>
       <c r="H58" s="166"/>
       <c r="I58" s="166"/>
@@ -14175,10 +14175,10 @@
       <c r="EQ58" s="167"/>
     </row>
     <row r="59" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="315"/>
-      <c r="B59" s="298"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="285"/>
+      <c r="A59" s="290"/>
+      <c r="B59" s="280"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="303"/>
       <c r="G59" s="172"/>
       <c r="H59" s="168"/>
       <c r="I59" s="168"/>
@@ -14322,14 +14322,14 @@
       <c r="EQ59" s="169"/>
     </row>
     <row r="60" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="312" t="s">
+      <c r="A60" s="287" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="298"/>
-      <c r="D60" s="281" t="s">
+      <c r="B60" s="280"/>
+      <c r="D60" s="252" t="s">
         <v>310</v>
       </c>
-      <c r="E60" s="285"/>
+      <c r="E60" s="303"/>
       <c r="G60" s="170"/>
       <c r="H60" s="164"/>
       <c r="I60" s="164"/>
@@ -14396,7 +14396,7 @@
       <c r="BR60" s="164"/>
       <c r="BS60" s="164"/>
       <c r="BT60" s="164"/>
-      <c r="BU60" s="261"/>
+      <c r="BU60" s="299"/>
       <c r="BV60" s="157"/>
       <c r="BW60" s="157"/>
       <c r="BX60" s="157"/>
@@ -14473,10 +14473,10 @@
       <c r="EQ60" s="16"/>
     </row>
     <row r="61" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="313"/>
-      <c r="B61" s="298"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="285"/>
+      <c r="A61" s="288"/>
+      <c r="B61" s="280"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="303"/>
       <c r="G61" s="171"/>
       <c r="H61" s="166"/>
       <c r="I61" s="166"/>
@@ -14543,7 +14543,7 @@
       <c r="BR61" s="166"/>
       <c r="BS61" s="166"/>
       <c r="BT61" s="166"/>
-      <c r="BU61" s="262"/>
+      <c r="BU61" s="300"/>
       <c r="BV61" s="159"/>
       <c r="BW61" s="159"/>
       <c r="BX61" s="159"/>
@@ -14620,10 +14620,10 @@
       <c r="EQ61" s="160"/>
     </row>
     <row r="62" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="313"/>
-      <c r="B62" s="298"/>
-      <c r="D62" s="279"/>
-      <c r="E62" s="285"/>
+      <c r="A62" s="288"/>
+      <c r="B62" s="280"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="303"/>
       <c r="G62" s="171"/>
       <c r="H62" s="166"/>
       <c r="I62" s="166"/>
@@ -14690,7 +14690,7 @@
       <c r="BR62" s="166"/>
       <c r="BS62" s="166"/>
       <c r="BT62" s="166"/>
-      <c r="BU62" s="262"/>
+      <c r="BU62" s="300"/>
       <c r="BV62" s="159"/>
       <c r="BW62" s="159"/>
       <c r="BX62" s="159"/>
@@ -14767,10 +14767,10 @@
       <c r="EQ62" s="160"/>
     </row>
     <row r="63" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="314"/>
-      <c r="B63" s="299"/>
-      <c r="D63" s="291"/>
-      <c r="E63" s="286"/>
+      <c r="A63" s="289"/>
+      <c r="B63" s="281"/>
+      <c r="D63" s="254"/>
+      <c r="E63" s="304"/>
       <c r="G63" s="172"/>
       <c r="H63" s="168"/>
       <c r="I63" s="168"/>
@@ -14837,7 +14837,7 @@
       <c r="BR63" s="168"/>
       <c r="BS63" s="168"/>
       <c r="BT63" s="168"/>
-      <c r="BU63" s="263"/>
+      <c r="BU63" s="301"/>
       <c r="BV63" s="123"/>
       <c r="BW63" s="123"/>
       <c r="BX63" s="123"/>
@@ -14914,17 +14914,17 @@
       <c r="EQ63" s="124"/>
     </row>
     <row r="64" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="300" t="s">
+      <c r="A64" s="282" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="304" t="s">
+      <c r="B64" s="248" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="292" t="s">
+      <c r="D64" s="274" t="s">
         <v>309</v>
       </c>
       <c r="E64" s="187"/>
-      <c r="G64" s="269" t="s">
+      <c r="G64" s="294" t="s">
         <v>333</v>
       </c>
       <c r="H64" s="156"/>
@@ -15069,11 +15069,11 @@
       <c r="EQ64" s="16"/>
     </row>
     <row r="65" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="294"/>
-      <c r="B65" s="305"/>
-      <c r="D65" s="293"/>
+      <c r="A65" s="276"/>
+      <c r="B65" s="249"/>
+      <c r="D65" s="275"/>
       <c r="E65" s="188"/>
-      <c r="G65" s="269"/>
+      <c r="G65" s="294"/>
       <c r="H65" s="158"/>
       <c r="I65" s="159"/>
       <c r="J65" s="159"/>
@@ -15216,11 +15216,11 @@
       <c r="EQ65" s="160"/>
     </row>
     <row r="66" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="294"/>
-      <c r="B66" s="305"/>
-      <c r="D66" s="293"/>
+      <c r="A66" s="276"/>
+      <c r="B66" s="249"/>
+      <c r="D66" s="275"/>
       <c r="E66" s="188"/>
-      <c r="G66" s="269"/>
+      <c r="G66" s="294"/>
       <c r="H66" s="158"/>
       <c r="I66" s="159"/>
       <c r="J66" s="159"/>
@@ -15363,11 +15363,11 @@
       <c r="EQ66" s="160"/>
     </row>
     <row r="67" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="294"/>
-      <c r="B67" s="305"/>
-      <c r="D67" s="293"/>
+      <c r="A67" s="276"/>
+      <c r="B67" s="249"/>
+      <c r="D67" s="275"/>
       <c r="E67" s="188"/>
-      <c r="G67" s="269"/>
+      <c r="G67" s="294"/>
       <c r="H67" s="13"/>
       <c r="I67" s="123"/>
       <c r="J67" s="123"/>
@@ -15513,7 +15513,7 @@
       <c r="A68" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="305"/>
+      <c r="B68" s="249"/>
       <c r="D68" s="184" t="s">
         <v>268</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="A69" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="305"/>
+      <c r="B69" s="249"/>
       <c r="D69" s="185" t="s">
         <v>268</v>
       </c>
@@ -15541,7 +15541,7 @@
       <c r="A70" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="305"/>
+      <c r="B70" s="249"/>
       <c r="D70" s="185" t="s">
         <v>268</v>
       </c>
@@ -15553,16 +15553,16 @@
     </row>
     <row r="71" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="305"/>
+      <c r="B71" s="249"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
       <c r="G71" s="192"/>
       <c r="EQ71" s="124"/>
     </row>
     <row r="72" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="301"/>
-      <c r="B72" s="305"/>
-      <c r="D72" s="293" t="s">
+      <c r="A72" s="283"/>
+      <c r="B72" s="249"/>
+      <c r="D72" s="275" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="188"/>
@@ -15709,9 +15709,9 @@
       <c r="EQ72" s="16"/>
     </row>
     <row r="73" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="302"/>
-      <c r="B73" s="305"/>
-      <c r="D73" s="293"/>
+      <c r="A73" s="265"/>
+      <c r="B73" s="249"/>
+      <c r="D73" s="275"/>
       <c r="E73" s="188"/>
       <c r="G73" s="191"/>
       <c r="H73" s="159"/>
@@ -15856,9 +15856,9 @@
       <c r="EQ73" s="160"/>
     </row>
     <row r="74" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="302"/>
-      <c r="B74" s="305"/>
-      <c r="D74" s="293"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="249"/>
+      <c r="D74" s="275"/>
       <c r="E74" s="188"/>
       <c r="G74" s="191"/>
       <c r="H74" s="159"/>
@@ -16003,9 +16003,9 @@
       <c r="EQ74" s="160"/>
     </row>
     <row r="75" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="303"/>
-      <c r="B75" s="306"/>
-      <c r="D75" s="296"/>
+      <c r="A75" s="284"/>
+      <c r="B75" s="250"/>
+      <c r="D75" s="278"/>
       <c r="E75" s="189"/>
       <c r="G75" s="191"/>
       <c r="H75" s="123"/>
@@ -16150,11 +16150,11 @@
       <c r="EQ75" s="124"/>
     </row>
     <row r="76" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="273"/>
-      <c r="B76" s="307" t="s">
+      <c r="A76" s="269"/>
+      <c r="B76" s="261" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="282" t="s">
+      <c r="D76" s="297" t="s">
         <v>331</v>
       </c>
       <c r="E76" s="187"/>
@@ -16301,9 +16301,9 @@
       <c r="EQ76" s="16"/>
     </row>
     <row r="77" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="274"/>
-      <c r="B77" s="308"/>
-      <c r="D77" s="283"/>
+      <c r="A77" s="259"/>
+      <c r="B77" s="262"/>
+      <c r="D77" s="298"/>
       <c r="E77" s="188"/>
       <c r="G77" s="191"/>
       <c r="H77" s="159"/>
@@ -16448,9 +16448,9 @@
       <c r="EQ77" s="160"/>
     </row>
     <row r="78" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="274"/>
-      <c r="B78" s="308"/>
-      <c r="D78" s="283"/>
+      <c r="A78" s="259"/>
+      <c r="B78" s="262"/>
+      <c r="D78" s="298"/>
       <c r="E78" s="188"/>
       <c r="G78" s="191"/>
       <c r="H78" s="159"/>
@@ -16595,9 +16595,9 @@
       <c r="EQ78" s="160"/>
     </row>
     <row r="79" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="274"/>
-      <c r="B79" s="308"/>
-      <c r="D79" s="283"/>
+      <c r="A79" s="259"/>
+      <c r="B79" s="262"/>
+      <c r="D79" s="298"/>
       <c r="E79" s="188"/>
       <c r="G79" s="191"/>
       <c r="H79" s="123"/>
@@ -16745,7 +16745,7 @@
       <c r="A80" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="308"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="126"/>
       <c r="D80" s="178" t="s">
         <v>268</v>
@@ -16899,7 +16899,7 @@
       <c r="A81" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="308"/>
+      <c r="B81" s="262"/>
       <c r="C81" s="126"/>
       <c r="D81" s="179" t="s">
         <v>268</v>
@@ -17053,7 +17053,7 @@
       <c r="A82" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="308"/>
+      <c r="B82" s="262"/>
       <c r="C82" s="126"/>
       <c r="D82" s="179" t="s">
         <v>268</v>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="83" spans="1:147" s="152" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="308"/>
+      <c r="B83" s="262"/>
       <c r="C83" s="126"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
@@ -17352,9 +17352,9 @@
       <c r="EQ83" s="124"/>
     </row>
     <row r="84" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="276"/>
-      <c r="B84" s="308"/>
-      <c r="D84" s="276"/>
+      <c r="A84" s="258"/>
+      <c r="B84" s="262"/>
+      <c r="D84" s="258"/>
       <c r="E84" s="188"/>
       <c r="G84" s="156"/>
       <c r="H84" s="157"/>
@@ -17417,7 +17417,7 @@
       <c r="BM84" s="157"/>
       <c r="BN84" s="157"/>
       <c r="BO84" s="157"/>
-      <c r="BP84" s="245" t="s">
+      <c r="BP84" s="295" t="s">
         <v>307</v>
       </c>
       <c r="BQ84" s="157"/>
@@ -17501,9 +17501,9 @@
       <c r="EQ84" s="16"/>
     </row>
     <row r="85" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="274"/>
-      <c r="B85" s="308"/>
-      <c r="D85" s="274"/>
+      <c r="A85" s="259"/>
+      <c r="B85" s="262"/>
+      <c r="D85" s="259"/>
       <c r="E85" s="188"/>
       <c r="G85" s="158"/>
       <c r="H85" s="159"/>
@@ -17566,7 +17566,7 @@
       <c r="BM85" s="159"/>
       <c r="BN85" s="159"/>
       <c r="BO85" s="159"/>
-      <c r="BP85" s="275"/>
+      <c r="BP85" s="296"/>
       <c r="BQ85" s="159"/>
       <c r="BR85" s="159"/>
       <c r="BS85" s="159"/>
@@ -17648,9 +17648,9 @@
       <c r="EQ85" s="160"/>
     </row>
     <row r="86" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="274"/>
-      <c r="B86" s="308"/>
-      <c r="D86" s="274"/>
+      <c r="A86" s="259"/>
+      <c r="B86" s="262"/>
+      <c r="D86" s="259"/>
       <c r="E86" s="188"/>
       <c r="G86" s="158"/>
       <c r="H86" s="159"/>
@@ -17713,7 +17713,7 @@
       <c r="BM86" s="159"/>
       <c r="BN86" s="159"/>
       <c r="BO86" s="159"/>
-      <c r="BP86" s="275"/>
+      <c r="BP86" s="296"/>
       <c r="BQ86" s="159"/>
       <c r="BR86" s="159"/>
       <c r="BS86" s="159"/>
@@ -17795,9 +17795,9 @@
       <c r="EQ86" s="160"/>
     </row>
     <row r="87" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="277"/>
-      <c r="B87" s="308"/>
-      <c r="D87" s="277"/>
+      <c r="A87" s="270"/>
+      <c r="B87" s="262"/>
+      <c r="D87" s="270"/>
       <c r="E87" s="188"/>
       <c r="G87" s="13"/>
       <c r="H87" s="123"/>
@@ -17860,7 +17860,7 @@
       <c r="BM87" s="123"/>
       <c r="BN87" s="123"/>
       <c r="BO87" s="123"/>
-      <c r="BP87" s="275"/>
+      <c r="BP87" s="296"/>
       <c r="BQ87" s="123"/>
       <c r="BR87" s="123"/>
       <c r="BS87" s="123"/>
@@ -17942,11 +17942,11 @@
       <c r="EQ87" s="124"/>
     </row>
     <row r="88" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="276" t="s">
+      <c r="A88" s="258" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="308"/>
-      <c r="D88" s="276" t="s">
+      <c r="B88" s="262"/>
+      <c r="D88" s="258" t="s">
         <v>308</v>
       </c>
       <c r="E88" s="188"/>
@@ -18038,7 +18038,7 @@
       <c r="CN88" s="157"/>
       <c r="CO88" s="157"/>
       <c r="CP88" s="157"/>
-      <c r="CQ88" s="225" t="s">
+      <c r="CQ88" s="311" t="s">
         <v>306</v>
       </c>
       <c r="CR88" s="157"/>
@@ -18095,9 +18095,9 @@
       <c r="EQ88" s="16"/>
     </row>
     <row r="89" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="274"/>
-      <c r="B89" s="308"/>
-      <c r="D89" s="274"/>
+      <c r="A89" s="259"/>
+      <c r="B89" s="262"/>
+      <c r="D89" s="259"/>
       <c r="E89" s="188"/>
       <c r="G89" s="158"/>
       <c r="H89" s="159"/>
@@ -18166,13 +18166,13 @@
       <c r="BT89" s="159"/>
       <c r="BU89" s="159"/>
       <c r="BV89" s="159"/>
-      <c r="CQ89" s="226"/>
+      <c r="CQ89" s="312"/>
       <c r="EQ89" s="160"/>
     </row>
     <row r="90" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="274"/>
-      <c r="B90" s="308"/>
-      <c r="D90" s="274"/>
+      <c r="A90" s="259"/>
+      <c r="B90" s="262"/>
+      <c r="D90" s="259"/>
       <c r="E90" s="188"/>
       <c r="G90" s="158"/>
       <c r="H90" s="159"/>
@@ -18241,13 +18241,13 @@
       <c r="BT90" s="159"/>
       <c r="BU90" s="159"/>
       <c r="BV90" s="159"/>
-      <c r="CQ90" s="226"/>
+      <c r="CQ90" s="312"/>
       <c r="EQ90" s="160"/>
     </row>
     <row r="91" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="287"/>
-      <c r="B91" s="309"/>
-      <c r="D91" s="287"/>
+      <c r="A91" s="260"/>
+      <c r="B91" s="263"/>
+      <c r="D91" s="260"/>
       <c r="E91" s="189"/>
       <c r="G91" s="13"/>
       <c r="H91" s="123"/>
@@ -18337,7 +18337,7 @@
       <c r="CN91" s="123"/>
       <c r="CO91" s="123"/>
       <c r="CP91" s="123"/>
-      <c r="CQ91" s="227"/>
+      <c r="CQ91" s="313"/>
       <c r="CR91" s="123"/>
       <c r="CS91" s="123"/>
       <c r="CT91" s="123"/>
@@ -18483,6 +18483,105 @@
     <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="CQ88:CQ91"/>
+    <mergeCell ref="DM15:DN15"/>
+    <mergeCell ref="DM16:DN16"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="AG9:EQ9"/>
+    <mergeCell ref="AS11:EA11"/>
+    <mergeCell ref="DM10:EJ10"/>
+    <mergeCell ref="DT3:DT7"/>
+    <mergeCell ref="DU3:DU7"/>
+    <mergeCell ref="BV8:DA8"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="DK3:DK7"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DR3:DR7"/>
+    <mergeCell ref="DS3:DS7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="CR3:CR7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="BU60:BU63"/>
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="BV52:BV55"/>
+    <mergeCell ref="CB3:CB7"/>
+    <mergeCell ref="CC3:CC7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BZ3:BZ7"/>
+    <mergeCell ref="CA3:CA7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CJ3:CJ7"/>
+    <mergeCell ref="CK3:CK7"/>
+    <mergeCell ref="CL3:CL7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="E3:E51"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="BP84:BP87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="BP24:BP27"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BV3:BV7"/>
     <mergeCell ref="DL3:DL7"/>
     <mergeCell ref="DM3:DM7"/>
     <mergeCell ref="DJ3:DJ7"/>
@@ -18507,105 +18606,6 @@
     <mergeCell ref="DH3:DH7"/>
     <mergeCell ref="DI3:DI7"/>
     <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="BP24:BP27"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="E3:E51"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="BP84:BP87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="BU60:BU63"/>
-    <mergeCell ref="E52:E63"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="BV52:BV55"/>
-    <mergeCell ref="CB3:CB7"/>
-    <mergeCell ref="CC3:CC7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BZ3:BZ7"/>
-    <mergeCell ref="CA3:CA7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CJ3:CJ7"/>
-    <mergeCell ref="CK3:CK7"/>
-    <mergeCell ref="CL3:CL7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="DF3:DF7"/>
-    <mergeCell ref="CQ88:CQ91"/>
-    <mergeCell ref="DM15:DN15"/>
-    <mergeCell ref="DM16:DN16"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="AG9:EQ9"/>
-    <mergeCell ref="AS11:EA11"/>
-    <mergeCell ref="DM10:EJ10"/>
-    <mergeCell ref="DT3:DT7"/>
-    <mergeCell ref="DU3:DU7"/>
-    <mergeCell ref="BV8:DA8"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="DK3:DK7"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DR3:DR7"/>
-    <mergeCell ref="DS3:DS7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="CR3:CR7"/>
-    <mergeCell ref="CS3:CS7"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18619,7 +18619,7 @@
   </sheetPr>
   <dimension ref="A1:EM177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="CM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -18704,15 +18704,15 @@
       <c r="BQ1" s="216"/>
     </row>
     <row r="2" spans="1:143" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="316"/>
+      <c r="B2" s="247"/>
       <c r="C2" s="216"/>
-      <c r="D2" s="316" t="s">
+      <c r="D2" s="247" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="316"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="190" t="s">
         <v>335</v>
       </c>
@@ -19127,17 +19127,17 @@
       </c>
     </row>
     <row r="3" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="268" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="255" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="338"/>
-      <c r="D3" s="278" t="s">
+      <c r="C3" s="342"/>
+      <c r="D3" s="268" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="255" t="s">
         <v>267</v>
       </c>
       <c r="G3" s="129" t="s">
@@ -19259,202 +19259,202 @@
       <c r="AY3" s="122"/>
       <c r="AZ3" s="85"/>
       <c r="BA3" s="122"/>
-      <c r="BB3" s="323" t="s">
+      <c r="BB3" s="232" t="s">
         <v>373</v>
       </c>
-      <c r="BC3" s="229" t="s">
+      <c r="BC3" s="235" t="s">
         <v>375</v>
       </c>
-      <c r="BD3" s="229" t="s">
+      <c r="BD3" s="235" t="s">
         <v>376</v>
       </c>
-      <c r="BE3" s="229" t="s">
+      <c r="BE3" s="235" t="s">
         <v>377</v>
       </c>
-      <c r="BF3" s="229" t="s">
+      <c r="BF3" s="235" t="s">
         <v>378</v>
       </c>
-      <c r="BG3" s="229" t="s">
+      <c r="BG3" s="235" t="s">
         <v>379</v>
       </c>
-      <c r="BH3" s="229" t="s">
+      <c r="BH3" s="235" t="s">
         <v>380</v>
       </c>
-      <c r="BI3" s="229" t="s">
+      <c r="BI3" s="235" t="s">
         <v>381</v>
       </c>
-      <c r="BJ3" s="229" t="s">
+      <c r="BJ3" s="235" t="s">
         <v>382</v>
       </c>
-      <c r="BK3" s="229" t="s">
+      <c r="BK3" s="235" t="s">
         <v>383</v>
       </c>
-      <c r="BL3" s="229" t="s">
+      <c r="BL3" s="235" t="s">
         <v>384</v>
       </c>
-      <c r="BM3" s="229" t="s">
+      <c r="BM3" s="235" t="s">
         <v>385</v>
       </c>
-      <c r="BN3" s="229" t="s">
+      <c r="BN3" s="235" t="s">
         <v>386</v>
       </c>
-      <c r="BO3" s="229" t="s">
+      <c r="BO3" s="235" t="s">
         <v>387</v>
       </c>
-      <c r="BP3" s="229" t="s">
+      <c r="BP3" s="235" t="s">
         <v>388</v>
       </c>
-      <c r="BQ3" s="229" t="s">
+      <c r="BQ3" s="235" t="s">
         <v>389</v>
       </c>
-      <c r="BR3" s="229" t="s">
+      <c r="BR3" s="235" t="s">
         <v>390</v>
       </c>
-      <c r="BS3" s="229" t="s">
+      <c r="BS3" s="235" t="s">
         <v>391</v>
       </c>
-      <c r="BT3" s="229" t="s">
+      <c r="BT3" s="235" t="s">
         <v>392</v>
       </c>
-      <c r="BU3" s="229" t="s">
+      <c r="BU3" s="235" t="s">
         <v>393</v>
       </c>
-      <c r="BV3" s="229" t="s">
+      <c r="BV3" s="235" t="s">
         <v>394</v>
       </c>
-      <c r="BW3" s="229" t="s">
+      <c r="BW3" s="235" t="s">
         <v>395</v>
       </c>
-      <c r="BX3" s="229" t="s">
+      <c r="BX3" s="235" t="s">
         <v>396</v>
       </c>
-      <c r="BY3" s="231" t="s">
+      <c r="BY3" s="305" t="s">
         <v>397</v>
       </c>
-      <c r="BZ3" s="323" t="s">
+      <c r="BZ3" s="232" t="s">
         <v>374</v>
       </c>
-      <c r="CA3" s="229" t="s">
+      <c r="CA3" s="235" t="s">
         <v>398</v>
       </c>
-      <c r="CB3" s="229" t="s">
+      <c r="CB3" s="235" t="s">
         <v>399</v>
       </c>
-      <c r="CC3" s="229" t="s">
+      <c r="CC3" s="235" t="s">
         <v>400</v>
       </c>
-      <c r="CD3" s="229" t="s">
+      <c r="CD3" s="235" t="s">
         <v>401</v>
       </c>
-      <c r="CE3" s="229" t="s">
+      <c r="CE3" s="235" t="s">
         <v>402</v>
       </c>
-      <c r="CF3" s="229" t="s">
+      <c r="CF3" s="235" t="s">
         <v>403</v>
       </c>
-      <c r="CG3" s="229" t="s">
+      <c r="CG3" s="235" t="s">
         <v>404</v>
       </c>
-      <c r="CH3" s="229" t="s">
+      <c r="CH3" s="235" t="s">
         <v>405</v>
       </c>
-      <c r="CI3" s="229" t="s">
+      <c r="CI3" s="235" t="s">
         <v>406</v>
       </c>
-      <c r="CJ3" s="229" t="s">
+      <c r="CJ3" s="235" t="s">
         <v>407</v>
       </c>
-      <c r="CK3" s="229" t="s">
+      <c r="CK3" s="235" t="s">
         <v>408</v>
       </c>
-      <c r="CL3" s="229" t="s">
+      <c r="CL3" s="235" t="s">
         <v>409</v>
       </c>
-      <c r="CM3" s="229" t="s">
+      <c r="CM3" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="CN3" s="229" t="s">
+      <c r="CN3" s="235" t="s">
         <v>411</v>
       </c>
-      <c r="CO3" s="229" t="s">
+      <c r="CO3" s="235" t="s">
         <v>412</v>
       </c>
-      <c r="CP3" s="229" t="s">
+      <c r="CP3" s="235" t="s">
         <v>413</v>
       </c>
-      <c r="CQ3" s="229" t="s">
+      <c r="CQ3" s="235" t="s">
         <v>414</v>
       </c>
-      <c r="CR3" s="229" t="s">
+      <c r="CR3" s="235" t="s">
         <v>415</v>
       </c>
-      <c r="CS3" s="229" t="s">
+      <c r="CS3" s="235" t="s">
         <v>416</v>
       </c>
-      <c r="CT3" s="229" t="s">
+      <c r="CT3" s="235" t="s">
         <v>417</v>
       </c>
-      <c r="CU3" s="229" t="s">
+      <c r="CU3" s="235" t="s">
         <v>418</v>
       </c>
-      <c r="CV3" s="229" t="s">
+      <c r="CV3" s="235" t="s">
         <v>419</v>
       </c>
-      <c r="CW3" s="231" t="s">
+      <c r="CW3" s="305" t="s">
         <v>420</v>
       </c>
-      <c r="CX3" s="332" t="s">
+      <c r="CX3" s="244" t="s">
         <v>188</v>
       </c>
-      <c r="CY3" s="222" t="s">
+      <c r="CY3" s="308" t="s">
         <v>188</v>
       </c>
-      <c r="CZ3" s="222" t="s">
+      <c r="CZ3" s="308" t="s">
         <v>188</v>
       </c>
-      <c r="DA3" s="222" t="s">
+      <c r="DA3" s="308" t="s">
         <v>189</v>
       </c>
-      <c r="DB3" s="222" t="s">
+      <c r="DB3" s="308" t="s">
         <v>189</v>
       </c>
-      <c r="DC3" s="255" t="s">
+      <c r="DC3" s="336" t="s">
         <v>189</v>
       </c>
-      <c r="DD3" s="326" t="s">
+      <c r="DD3" s="238" t="s">
         <v>433</v>
       </c>
-      <c r="DE3" s="329" t="s">
+      <c r="DE3" s="241" t="s">
         <v>434</v>
       </c>
-      <c r="DF3" s="320" t="s">
+      <c r="DF3" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="DG3" s="258" t="s">
+      <c r="DG3" s="339" t="s">
         <v>114</v>
       </c>
-      <c r="DH3" s="342" t="s">
+      <c r="DH3" s="223" t="s">
         <v>503</v>
       </c>
-      <c r="DI3" s="343" t="s">
+      <c r="DI3" s="226" t="s">
         <v>504</v>
       </c>
       <c r="DJ3" s="137"/>
       <c r="DK3" s="14"/>
       <c r="DL3" s="64"/>
-      <c r="DM3" s="243" t="s">
+      <c r="DM3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DN3" s="243" t="s">
+      <c r="DN3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DO3" s="243" t="s">
+      <c r="DO3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DP3" s="243" t="s">
+      <c r="DP3" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="DQ3" s="247" t="s">
+      <c r="DQ3" s="328" t="s">
         <v>116</v>
       </c>
       <c r="DR3" s="140"/>
@@ -19493,11 +19493,11 @@
       </c>
     </row>
     <row r="4" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="279"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="338"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="271"/>
+      <c r="A4" s="253"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="256"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -19623,74 +19623,74 @@
       <c r="AY4" s="117"/>
       <c r="AZ4" s="217"/>
       <c r="BA4" s="117"/>
-      <c r="BB4" s="324"/>
-      <c r="BC4" s="230"/>
-      <c r="BD4" s="230"/>
-      <c r="BE4" s="230"/>
-      <c r="BF4" s="230"/>
-      <c r="BG4" s="230"/>
-      <c r="BH4" s="230"/>
-      <c r="BI4" s="230"/>
-      <c r="BJ4" s="230"/>
-      <c r="BK4" s="230"/>
-      <c r="BL4" s="230"/>
-      <c r="BM4" s="230"/>
-      <c r="BN4" s="230"/>
-      <c r="BO4" s="230"/>
-      <c r="BP4" s="230"/>
-      <c r="BQ4" s="230"/>
-      <c r="BR4" s="230"/>
-      <c r="BS4" s="230"/>
-      <c r="BT4" s="230"/>
-      <c r="BU4" s="230"/>
-      <c r="BV4" s="230"/>
-      <c r="BW4" s="230"/>
-      <c r="BX4" s="230"/>
-      <c r="BY4" s="232"/>
-      <c r="BZ4" s="324"/>
-      <c r="CA4" s="230"/>
-      <c r="CB4" s="230"/>
-      <c r="CC4" s="230"/>
-      <c r="CD4" s="230"/>
-      <c r="CE4" s="230"/>
-      <c r="CF4" s="230"/>
-      <c r="CG4" s="230"/>
-      <c r="CH4" s="230"/>
-      <c r="CI4" s="230"/>
-      <c r="CJ4" s="230"/>
-      <c r="CK4" s="230"/>
-      <c r="CL4" s="230"/>
-      <c r="CM4" s="230"/>
-      <c r="CN4" s="230"/>
-      <c r="CO4" s="230"/>
-      <c r="CP4" s="230"/>
-      <c r="CQ4" s="230"/>
-      <c r="CR4" s="230"/>
-      <c r="CS4" s="230"/>
-      <c r="CT4" s="230"/>
-      <c r="CU4" s="230"/>
-      <c r="CV4" s="230"/>
-      <c r="CW4" s="232"/>
-      <c r="CX4" s="333"/>
-      <c r="CY4" s="223"/>
-      <c r="CZ4" s="223"/>
-      <c r="DA4" s="223"/>
-      <c r="DB4" s="223"/>
-      <c r="DC4" s="256"/>
-      <c r="DD4" s="327"/>
-      <c r="DE4" s="330"/>
-      <c r="DF4" s="321"/>
-      <c r="DG4" s="259"/>
-      <c r="DH4" s="344"/>
-      <c r="DI4" s="345"/>
+      <c r="BB4" s="233"/>
+      <c r="BC4" s="236"/>
+      <c r="BD4" s="236"/>
+      <c r="BE4" s="236"/>
+      <c r="BF4" s="236"/>
+      <c r="BG4" s="236"/>
+      <c r="BH4" s="236"/>
+      <c r="BI4" s="236"/>
+      <c r="BJ4" s="236"/>
+      <c r="BK4" s="236"/>
+      <c r="BL4" s="236"/>
+      <c r="BM4" s="236"/>
+      <c r="BN4" s="236"/>
+      <c r="BO4" s="236"/>
+      <c r="BP4" s="236"/>
+      <c r="BQ4" s="236"/>
+      <c r="BR4" s="236"/>
+      <c r="BS4" s="236"/>
+      <c r="BT4" s="236"/>
+      <c r="BU4" s="236"/>
+      <c r="BV4" s="236"/>
+      <c r="BW4" s="236"/>
+      <c r="BX4" s="236"/>
+      <c r="BY4" s="306"/>
+      <c r="BZ4" s="233"/>
+      <c r="CA4" s="236"/>
+      <c r="CB4" s="236"/>
+      <c r="CC4" s="236"/>
+      <c r="CD4" s="236"/>
+      <c r="CE4" s="236"/>
+      <c r="CF4" s="236"/>
+      <c r="CG4" s="236"/>
+      <c r="CH4" s="236"/>
+      <c r="CI4" s="236"/>
+      <c r="CJ4" s="236"/>
+      <c r="CK4" s="236"/>
+      <c r="CL4" s="236"/>
+      <c r="CM4" s="236"/>
+      <c r="CN4" s="236"/>
+      <c r="CO4" s="236"/>
+      <c r="CP4" s="236"/>
+      <c r="CQ4" s="236"/>
+      <c r="CR4" s="236"/>
+      <c r="CS4" s="236"/>
+      <c r="CT4" s="236"/>
+      <c r="CU4" s="236"/>
+      <c r="CV4" s="236"/>
+      <c r="CW4" s="306"/>
+      <c r="CX4" s="245"/>
+      <c r="CY4" s="309"/>
+      <c r="CZ4" s="309"/>
+      <c r="DA4" s="309"/>
+      <c r="DB4" s="309"/>
+      <c r="DC4" s="337"/>
+      <c r="DD4" s="239"/>
+      <c r="DE4" s="242"/>
+      <c r="DF4" s="230"/>
+      <c r="DG4" s="340"/>
+      <c r="DH4" s="224"/>
+      <c r="DI4" s="227"/>
       <c r="DJ4" s="131"/>
       <c r="DK4" s="217"/>
       <c r="DL4" s="20"/>
-      <c r="DM4" s="244"/>
-      <c r="DN4" s="244"/>
-      <c r="DO4" s="244"/>
-      <c r="DP4" s="244"/>
-      <c r="DQ4" s="248"/>
+      <c r="DM4" s="326"/>
+      <c r="DN4" s="326"/>
+      <c r="DO4" s="326"/>
+      <c r="DP4" s="326"/>
+      <c r="DQ4" s="329"/>
       <c r="DR4" s="136"/>
       <c r="DS4" s="118"/>
       <c r="DT4" s="118"/>
@@ -19719,11 +19719,11 @@
       </c>
     </row>
     <row r="5" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="279"/>
-      <c r="B5" s="271"/>
-      <c r="C5" s="338"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="271"/>
+      <c r="A5" s="253"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="256"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -19809,74 +19809,74 @@
       <c r="AY5" s="117"/>
       <c r="AZ5" s="217"/>
       <c r="BA5" s="117"/>
-      <c r="BB5" s="324"/>
-      <c r="BC5" s="230"/>
-      <c r="BD5" s="230"/>
-      <c r="BE5" s="230"/>
-      <c r="BF5" s="230"/>
-      <c r="BG5" s="230"/>
-      <c r="BH5" s="230"/>
-      <c r="BI5" s="230"/>
-      <c r="BJ5" s="230"/>
-      <c r="BK5" s="230"/>
-      <c r="BL5" s="230"/>
-      <c r="BM5" s="230"/>
-      <c r="BN5" s="230"/>
-      <c r="BO5" s="230"/>
-      <c r="BP5" s="230"/>
-      <c r="BQ5" s="230"/>
-      <c r="BR5" s="230"/>
-      <c r="BS5" s="230"/>
-      <c r="BT5" s="230"/>
-      <c r="BU5" s="230"/>
-      <c r="BV5" s="230"/>
-      <c r="BW5" s="230"/>
-      <c r="BX5" s="230"/>
-      <c r="BY5" s="232"/>
-      <c r="BZ5" s="324"/>
-      <c r="CA5" s="230"/>
-      <c r="CB5" s="230"/>
-      <c r="CC5" s="230"/>
-      <c r="CD5" s="230"/>
-      <c r="CE5" s="230"/>
-      <c r="CF5" s="230"/>
-      <c r="CG5" s="230"/>
-      <c r="CH5" s="230"/>
-      <c r="CI5" s="230"/>
-      <c r="CJ5" s="230"/>
-      <c r="CK5" s="230"/>
-      <c r="CL5" s="230"/>
-      <c r="CM5" s="230"/>
-      <c r="CN5" s="230"/>
-      <c r="CO5" s="230"/>
-      <c r="CP5" s="230"/>
-      <c r="CQ5" s="230"/>
-      <c r="CR5" s="230"/>
-      <c r="CS5" s="230"/>
-      <c r="CT5" s="230"/>
-      <c r="CU5" s="230"/>
-      <c r="CV5" s="230"/>
-      <c r="CW5" s="232"/>
-      <c r="CX5" s="333"/>
-      <c r="CY5" s="223"/>
-      <c r="CZ5" s="223"/>
-      <c r="DA5" s="223"/>
-      <c r="DB5" s="223"/>
-      <c r="DC5" s="256"/>
-      <c r="DD5" s="327"/>
-      <c r="DE5" s="330"/>
-      <c r="DF5" s="321"/>
-      <c r="DG5" s="259"/>
-      <c r="DH5" s="344"/>
-      <c r="DI5" s="345"/>
+      <c r="BB5" s="233"/>
+      <c r="BC5" s="236"/>
+      <c r="BD5" s="236"/>
+      <c r="BE5" s="236"/>
+      <c r="BF5" s="236"/>
+      <c r="BG5" s="236"/>
+      <c r="BH5" s="236"/>
+      <c r="BI5" s="236"/>
+      <c r="BJ5" s="236"/>
+      <c r="BK5" s="236"/>
+      <c r="BL5" s="236"/>
+      <c r="BM5" s="236"/>
+      <c r="BN5" s="236"/>
+      <c r="BO5" s="236"/>
+      <c r="BP5" s="236"/>
+      <c r="BQ5" s="236"/>
+      <c r="BR5" s="236"/>
+      <c r="BS5" s="236"/>
+      <c r="BT5" s="236"/>
+      <c r="BU5" s="236"/>
+      <c r="BV5" s="236"/>
+      <c r="BW5" s="236"/>
+      <c r="BX5" s="236"/>
+      <c r="BY5" s="306"/>
+      <c r="BZ5" s="233"/>
+      <c r="CA5" s="236"/>
+      <c r="CB5" s="236"/>
+      <c r="CC5" s="236"/>
+      <c r="CD5" s="236"/>
+      <c r="CE5" s="236"/>
+      <c r="CF5" s="236"/>
+      <c r="CG5" s="236"/>
+      <c r="CH5" s="236"/>
+      <c r="CI5" s="236"/>
+      <c r="CJ5" s="236"/>
+      <c r="CK5" s="236"/>
+      <c r="CL5" s="236"/>
+      <c r="CM5" s="236"/>
+      <c r="CN5" s="236"/>
+      <c r="CO5" s="236"/>
+      <c r="CP5" s="236"/>
+      <c r="CQ5" s="236"/>
+      <c r="CR5" s="236"/>
+      <c r="CS5" s="236"/>
+      <c r="CT5" s="236"/>
+      <c r="CU5" s="236"/>
+      <c r="CV5" s="236"/>
+      <c r="CW5" s="306"/>
+      <c r="CX5" s="245"/>
+      <c r="CY5" s="309"/>
+      <c r="CZ5" s="309"/>
+      <c r="DA5" s="309"/>
+      <c r="DB5" s="309"/>
+      <c r="DC5" s="337"/>
+      <c r="DD5" s="239"/>
+      <c r="DE5" s="242"/>
+      <c r="DF5" s="230"/>
+      <c r="DG5" s="340"/>
+      <c r="DH5" s="224"/>
+      <c r="DI5" s="227"/>
       <c r="DJ5" s="131"/>
       <c r="DK5" s="217"/>
       <c r="DL5" s="20"/>
-      <c r="DM5" s="244"/>
-      <c r="DN5" s="244"/>
-      <c r="DO5" s="244"/>
-      <c r="DP5" s="244"/>
-      <c r="DQ5" s="248"/>
+      <c r="DM5" s="326"/>
+      <c r="DN5" s="326"/>
+      <c r="DO5" s="326"/>
+      <c r="DP5" s="326"/>
+      <c r="DQ5" s="329"/>
       <c r="DR5" s="127" t="s">
         <v>191</v>
       </c>
@@ -19945,11 +19945,11 @@
       </c>
     </row>
     <row r="6" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="279"/>
-      <c r="B6" s="271"/>
-      <c r="C6" s="338"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="271"/>
+      <c r="A6" s="253"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="342"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="256"/>
       <c r="G6" s="213" t="s">
         <v>216</v>
       </c>
@@ -20043,74 +20043,74 @@
       <c r="AY6" s="117"/>
       <c r="AZ6" s="217"/>
       <c r="BA6" s="117"/>
-      <c r="BB6" s="324"/>
-      <c r="BC6" s="230"/>
-      <c r="BD6" s="230"/>
-      <c r="BE6" s="230"/>
-      <c r="BF6" s="230"/>
-      <c r="BG6" s="230"/>
-      <c r="BH6" s="230"/>
-      <c r="BI6" s="230"/>
-      <c r="BJ6" s="230"/>
-      <c r="BK6" s="230"/>
-      <c r="BL6" s="230"/>
-      <c r="BM6" s="230"/>
-      <c r="BN6" s="230"/>
-      <c r="BO6" s="230"/>
-      <c r="BP6" s="230"/>
-      <c r="BQ6" s="230"/>
-      <c r="BR6" s="230"/>
-      <c r="BS6" s="230"/>
-      <c r="BT6" s="230"/>
-      <c r="BU6" s="230"/>
-      <c r="BV6" s="230"/>
-      <c r="BW6" s="230"/>
-      <c r="BX6" s="230"/>
-      <c r="BY6" s="232"/>
-      <c r="BZ6" s="324"/>
-      <c r="CA6" s="230"/>
-      <c r="CB6" s="230"/>
-      <c r="CC6" s="230"/>
-      <c r="CD6" s="230"/>
-      <c r="CE6" s="230"/>
-      <c r="CF6" s="230"/>
-      <c r="CG6" s="230"/>
-      <c r="CH6" s="230"/>
-      <c r="CI6" s="230"/>
-      <c r="CJ6" s="230"/>
-      <c r="CK6" s="230"/>
-      <c r="CL6" s="230"/>
-      <c r="CM6" s="230"/>
-      <c r="CN6" s="230"/>
-      <c r="CO6" s="230"/>
-      <c r="CP6" s="230"/>
-      <c r="CQ6" s="230"/>
-      <c r="CR6" s="230"/>
-      <c r="CS6" s="230"/>
-      <c r="CT6" s="230"/>
-      <c r="CU6" s="230"/>
-      <c r="CV6" s="230"/>
-      <c r="CW6" s="232"/>
-      <c r="CX6" s="333"/>
-      <c r="CY6" s="223"/>
-      <c r="CZ6" s="223"/>
-      <c r="DA6" s="223"/>
-      <c r="DB6" s="223"/>
-      <c r="DC6" s="256"/>
-      <c r="DD6" s="327"/>
-      <c r="DE6" s="330"/>
-      <c r="DF6" s="321"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="344"/>
-      <c r="DI6" s="345"/>
+      <c r="BB6" s="233"/>
+      <c r="BC6" s="236"/>
+      <c r="BD6" s="236"/>
+      <c r="BE6" s="236"/>
+      <c r="BF6" s="236"/>
+      <c r="BG6" s="236"/>
+      <c r="BH6" s="236"/>
+      <c r="BI6" s="236"/>
+      <c r="BJ6" s="236"/>
+      <c r="BK6" s="236"/>
+      <c r="BL6" s="236"/>
+      <c r="BM6" s="236"/>
+      <c r="BN6" s="236"/>
+      <c r="BO6" s="236"/>
+      <c r="BP6" s="236"/>
+      <c r="BQ6" s="236"/>
+      <c r="BR6" s="236"/>
+      <c r="BS6" s="236"/>
+      <c r="BT6" s="236"/>
+      <c r="BU6" s="236"/>
+      <c r="BV6" s="236"/>
+      <c r="BW6" s="236"/>
+      <c r="BX6" s="236"/>
+      <c r="BY6" s="306"/>
+      <c r="BZ6" s="233"/>
+      <c r="CA6" s="236"/>
+      <c r="CB6" s="236"/>
+      <c r="CC6" s="236"/>
+      <c r="CD6" s="236"/>
+      <c r="CE6" s="236"/>
+      <c r="CF6" s="236"/>
+      <c r="CG6" s="236"/>
+      <c r="CH6" s="236"/>
+      <c r="CI6" s="236"/>
+      <c r="CJ6" s="236"/>
+      <c r="CK6" s="236"/>
+      <c r="CL6" s="236"/>
+      <c r="CM6" s="236"/>
+      <c r="CN6" s="236"/>
+      <c r="CO6" s="236"/>
+      <c r="CP6" s="236"/>
+      <c r="CQ6" s="236"/>
+      <c r="CR6" s="236"/>
+      <c r="CS6" s="236"/>
+      <c r="CT6" s="236"/>
+      <c r="CU6" s="236"/>
+      <c r="CV6" s="236"/>
+      <c r="CW6" s="306"/>
+      <c r="CX6" s="245"/>
+      <c r="CY6" s="309"/>
+      <c r="CZ6" s="309"/>
+      <c r="DA6" s="309"/>
+      <c r="DB6" s="309"/>
+      <c r="DC6" s="337"/>
+      <c r="DD6" s="239"/>
+      <c r="DE6" s="242"/>
+      <c r="DF6" s="230"/>
+      <c r="DG6" s="340"/>
+      <c r="DH6" s="224"/>
+      <c r="DI6" s="227"/>
       <c r="DJ6" s="131"/>
       <c r="DK6" s="217"/>
       <c r="DL6" s="20"/>
-      <c r="DM6" s="245"/>
-      <c r="DN6" s="245"/>
-      <c r="DO6" s="245"/>
-      <c r="DP6" s="245"/>
-      <c r="DQ6" s="249"/>
+      <c r="DM6" s="295"/>
+      <c r="DN6" s="295"/>
+      <c r="DO6" s="295"/>
+      <c r="DP6" s="295"/>
+      <c r="DQ6" s="330"/>
       <c r="DR6" s="136"/>
       <c r="DS6" s="30"/>
       <c r="DT6" s="30"/>
@@ -20171,11 +20171,11 @@
       </c>
     </row>
     <row r="7" spans="1:143" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="280"/>
-      <c r="B7" s="271"/>
-      <c r="C7" s="338"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="271"/>
+      <c r="A7" s="267"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="256"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
       <c r="I7" s="208" t="s">
@@ -20237,66 +20237,66 @@
       <c r="AY7" s="123"/>
       <c r="AZ7" s="119"/>
       <c r="BA7" s="123"/>
-      <c r="BB7" s="325"/>
-      <c r="BC7" s="264"/>
-      <c r="BD7" s="264"/>
-      <c r="BE7" s="264"/>
-      <c r="BF7" s="264"/>
-      <c r="BG7" s="264"/>
-      <c r="BH7" s="264"/>
-      <c r="BI7" s="264"/>
-      <c r="BJ7" s="264"/>
-      <c r="BK7" s="264"/>
-      <c r="BL7" s="264"/>
-      <c r="BM7" s="264"/>
-      <c r="BN7" s="264"/>
-      <c r="BO7" s="264"/>
-      <c r="BP7" s="264"/>
-      <c r="BQ7" s="264"/>
-      <c r="BR7" s="264"/>
-      <c r="BS7" s="264"/>
-      <c r="BT7" s="264"/>
-      <c r="BU7" s="264"/>
-      <c r="BV7" s="264"/>
-      <c r="BW7" s="264"/>
-      <c r="BX7" s="264"/>
-      <c r="BY7" s="265"/>
-      <c r="BZ7" s="325"/>
-      <c r="CA7" s="264"/>
-      <c r="CB7" s="264"/>
-      <c r="CC7" s="264"/>
-      <c r="CD7" s="264"/>
-      <c r="CE7" s="264"/>
-      <c r="CF7" s="264"/>
-      <c r="CG7" s="264"/>
-      <c r="CH7" s="264"/>
-      <c r="CI7" s="264"/>
-      <c r="CJ7" s="264"/>
-      <c r="CK7" s="264"/>
-      <c r="CL7" s="264"/>
-      <c r="CM7" s="264"/>
-      <c r="CN7" s="264"/>
-      <c r="CO7" s="264"/>
-      <c r="CP7" s="264"/>
-      <c r="CQ7" s="264"/>
-      <c r="CR7" s="264"/>
-      <c r="CS7" s="264"/>
-      <c r="CT7" s="264"/>
-      <c r="CU7" s="264"/>
-      <c r="CV7" s="264"/>
-      <c r="CW7" s="265"/>
-      <c r="CX7" s="334"/>
-      <c r="CY7" s="224"/>
-      <c r="CZ7" s="224"/>
-      <c r="DA7" s="224"/>
-      <c r="DB7" s="224"/>
-      <c r="DC7" s="257"/>
-      <c r="DD7" s="328"/>
-      <c r="DE7" s="331"/>
-      <c r="DF7" s="322"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="346"/>
-      <c r="DI7" s="347"/>
+      <c r="BB7" s="234"/>
+      <c r="BC7" s="237"/>
+      <c r="BD7" s="237"/>
+      <c r="BE7" s="237"/>
+      <c r="BF7" s="237"/>
+      <c r="BG7" s="237"/>
+      <c r="BH7" s="237"/>
+      <c r="BI7" s="237"/>
+      <c r="BJ7" s="237"/>
+      <c r="BK7" s="237"/>
+      <c r="BL7" s="237"/>
+      <c r="BM7" s="237"/>
+      <c r="BN7" s="237"/>
+      <c r="BO7" s="237"/>
+      <c r="BP7" s="237"/>
+      <c r="BQ7" s="237"/>
+      <c r="BR7" s="237"/>
+      <c r="BS7" s="237"/>
+      <c r="BT7" s="237"/>
+      <c r="BU7" s="237"/>
+      <c r="BV7" s="237"/>
+      <c r="BW7" s="237"/>
+      <c r="BX7" s="237"/>
+      <c r="BY7" s="307"/>
+      <c r="BZ7" s="234"/>
+      <c r="CA7" s="237"/>
+      <c r="CB7" s="237"/>
+      <c r="CC7" s="237"/>
+      <c r="CD7" s="237"/>
+      <c r="CE7" s="237"/>
+      <c r="CF7" s="237"/>
+      <c r="CG7" s="237"/>
+      <c r="CH7" s="237"/>
+      <c r="CI7" s="237"/>
+      <c r="CJ7" s="237"/>
+      <c r="CK7" s="237"/>
+      <c r="CL7" s="237"/>
+      <c r="CM7" s="237"/>
+      <c r="CN7" s="237"/>
+      <c r="CO7" s="237"/>
+      <c r="CP7" s="237"/>
+      <c r="CQ7" s="237"/>
+      <c r="CR7" s="237"/>
+      <c r="CS7" s="237"/>
+      <c r="CT7" s="237"/>
+      <c r="CU7" s="237"/>
+      <c r="CV7" s="237"/>
+      <c r="CW7" s="307"/>
+      <c r="CX7" s="246"/>
+      <c r="CY7" s="310"/>
+      <c r="CZ7" s="310"/>
+      <c r="DA7" s="310"/>
+      <c r="DB7" s="310"/>
+      <c r="DC7" s="338"/>
+      <c r="DD7" s="240"/>
+      <c r="DE7" s="243"/>
+      <c r="DF7" s="231"/>
+      <c r="DG7" s="341"/>
+      <c r="DH7" s="225"/>
+      <c r="DI7" s="228"/>
       <c r="DJ7" s="208" t="s">
         <v>368</v>
       </c>
@@ -20306,11 +20306,11 @@
       <c r="DL7" s="211" t="s">
         <v>368</v>
       </c>
-      <c r="DM7" s="246"/>
-      <c r="DN7" s="246"/>
-      <c r="DO7" s="246"/>
-      <c r="DP7" s="246"/>
-      <c r="DQ7" s="250"/>
+      <c r="DM7" s="327"/>
+      <c r="DN7" s="327"/>
+      <c r="DO7" s="327"/>
+      <c r="DP7" s="327"/>
+      <c r="DQ7" s="331"/>
       <c r="DR7" s="208" t="s">
         <v>371</v>
       </c>
@@ -20353,44 +20353,44 @@
       <c r="EM7" s="145"/>
     </row>
     <row r="8" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="281"/>
-      <c r="B8" s="271"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="271"/>
-      <c r="BR8" s="336" t="s">
+      <c r="A8" s="252"/>
+      <c r="B8" s="256"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="256"/>
+      <c r="BR8" s="347" t="s">
         <v>226</v>
       </c>
-      <c r="BS8" s="337"/>
-      <c r="BT8" s="337"/>
-      <c r="BU8" s="337"/>
-      <c r="BV8" s="337"/>
-      <c r="BW8" s="337"/>
-      <c r="BX8" s="337"/>
-      <c r="BY8" s="337"/>
-      <c r="BZ8" s="337"/>
-      <c r="CA8" s="337"/>
-      <c r="CB8" s="337"/>
-      <c r="CC8" s="337"/>
-      <c r="CD8" s="337"/>
-      <c r="CE8" s="337"/>
-      <c r="CF8" s="337"/>
-      <c r="CG8" s="337"/>
-      <c r="CH8" s="337"/>
-      <c r="CI8" s="337"/>
-      <c r="CJ8" s="337"/>
-      <c r="CK8" s="337"/>
-      <c r="CL8" s="337"/>
-      <c r="CM8" s="337"/>
-      <c r="CN8" s="337"/>
-      <c r="CO8" s="337"/>
-      <c r="CP8" s="337"/>
-      <c r="CQ8" s="337"/>
-      <c r="CR8" s="337"/>
-      <c r="CS8" s="337"/>
-      <c r="CT8" s="337"/>
-      <c r="CU8" s="337"/>
-      <c r="CV8" s="337"/>
-      <c r="CW8" s="337"/>
+      <c r="BS8" s="348"/>
+      <c r="BT8" s="348"/>
+      <c r="BU8" s="348"/>
+      <c r="BV8" s="348"/>
+      <c r="BW8" s="348"/>
+      <c r="BX8" s="348"/>
+      <c r="BY8" s="348"/>
+      <c r="BZ8" s="348"/>
+      <c r="CA8" s="348"/>
+      <c r="CB8" s="348"/>
+      <c r="CC8" s="348"/>
+      <c r="CD8" s="348"/>
+      <c r="CE8" s="348"/>
+      <c r="CF8" s="348"/>
+      <c r="CG8" s="348"/>
+      <c r="CH8" s="348"/>
+      <c r="CI8" s="348"/>
+      <c r="CJ8" s="348"/>
+      <c r="CK8" s="348"/>
+      <c r="CL8" s="348"/>
+      <c r="CM8" s="348"/>
+      <c r="CN8" s="348"/>
+      <c r="CO8" s="348"/>
+      <c r="CP8" s="348"/>
+      <c r="CQ8" s="348"/>
+      <c r="CR8" s="348"/>
+      <c r="CS8" s="348"/>
+      <c r="CT8" s="348"/>
+      <c r="CU8" s="348"/>
+      <c r="CV8" s="348"/>
+      <c r="CW8" s="348"/>
       <c r="CX8" s="116"/>
       <c r="CY8" s="116"/>
       <c r="CZ8" s="116"/>
@@ -20399,129 +20399,129 @@
       <c r="DC8" s="116"/>
     </row>
     <row r="9" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="279"/>
-      <c r="B9" s="271"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="271"/>
-      <c r="AG9" s="339" t="s">
+      <c r="A9" s="253"/>
+      <c r="B9" s="256"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="256"/>
+      <c r="AG9" s="343" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="340"/>
-      <c r="AI9" s="340"/>
-      <c r="AJ9" s="340"/>
-      <c r="AK9" s="340"/>
-      <c r="AL9" s="340"/>
-      <c r="AM9" s="340"/>
-      <c r="AN9" s="340"/>
-      <c r="AO9" s="340"/>
-      <c r="AP9" s="340"/>
-      <c r="AQ9" s="340"/>
-      <c r="AR9" s="340"/>
-      <c r="AS9" s="340"/>
-      <c r="AT9" s="340"/>
-      <c r="AU9" s="340"/>
-      <c r="AV9" s="340"/>
-      <c r="AW9" s="340"/>
-      <c r="AX9" s="340"/>
-      <c r="AY9" s="340"/>
-      <c r="AZ9" s="340"/>
-      <c r="BA9" s="340"/>
-      <c r="BB9" s="340"/>
-      <c r="BC9" s="340"/>
-      <c r="BD9" s="340"/>
-      <c r="BE9" s="340"/>
-      <c r="BF9" s="340"/>
-      <c r="BG9" s="340"/>
-      <c r="BH9" s="340"/>
-      <c r="BI9" s="340"/>
-      <c r="BJ9" s="340"/>
-      <c r="BK9" s="340"/>
-      <c r="BL9" s="340"/>
-      <c r="BM9" s="340"/>
-      <c r="BN9" s="340"/>
-      <c r="BO9" s="340"/>
-      <c r="BP9" s="340"/>
-      <c r="BQ9" s="340"/>
-      <c r="BR9" s="340"/>
-      <c r="BS9" s="340"/>
-      <c r="BT9" s="340"/>
-      <c r="BU9" s="340"/>
-      <c r="BV9" s="340"/>
-      <c r="BW9" s="340"/>
-      <c r="BX9" s="340"/>
-      <c r="BY9" s="340"/>
-      <c r="BZ9" s="340"/>
-      <c r="CA9" s="340"/>
-      <c r="CB9" s="340"/>
-      <c r="CC9" s="340"/>
-      <c r="CD9" s="340"/>
-      <c r="CE9" s="340"/>
-      <c r="CF9" s="340"/>
-      <c r="CG9" s="340"/>
-      <c r="CH9" s="340"/>
-      <c r="CI9" s="340"/>
-      <c r="CJ9" s="340"/>
-      <c r="CK9" s="340"/>
-      <c r="CL9" s="340"/>
-      <c r="CM9" s="340"/>
-      <c r="CN9" s="340"/>
-      <c r="CO9" s="340"/>
-      <c r="CP9" s="340"/>
-      <c r="CQ9" s="340"/>
-      <c r="CR9" s="340"/>
-      <c r="CS9" s="340"/>
-      <c r="CT9" s="340"/>
-      <c r="CU9" s="340"/>
-      <c r="CV9" s="340"/>
-      <c r="CW9" s="340"/>
-      <c r="CX9" s="340"/>
-      <c r="CY9" s="340"/>
-      <c r="CZ9" s="340"/>
-      <c r="DA9" s="340"/>
-      <c r="DB9" s="340"/>
-      <c r="DC9" s="340"/>
-      <c r="DD9" s="340"/>
-      <c r="DE9" s="340"/>
-      <c r="DF9" s="340"/>
-      <c r="DG9" s="340"/>
-      <c r="DH9" s="340"/>
-      <c r="DI9" s="340"/>
-      <c r="DJ9" s="340"/>
-      <c r="DK9" s="340"/>
-      <c r="DL9" s="340"/>
-      <c r="DM9" s="340"/>
-      <c r="DN9" s="340"/>
-      <c r="DO9" s="340"/>
-      <c r="DP9" s="340"/>
-      <c r="DQ9" s="340"/>
-      <c r="DR9" s="340"/>
-      <c r="DS9" s="340"/>
-      <c r="DT9" s="340"/>
-      <c r="DU9" s="340"/>
-      <c r="DV9" s="340"/>
-      <c r="DW9" s="340"/>
-      <c r="DX9" s="340"/>
-      <c r="DY9" s="340"/>
-      <c r="DZ9" s="340"/>
-      <c r="EA9" s="340"/>
-      <c r="EB9" s="340"/>
-      <c r="EC9" s="340"/>
-      <c r="ED9" s="340"/>
-      <c r="EE9" s="340"/>
-      <c r="EF9" s="340"/>
-      <c r="EG9" s="340"/>
-      <c r="EH9" s="340"/>
-      <c r="EI9" s="340"/>
-      <c r="EJ9" s="340"/>
-      <c r="EK9" s="340"/>
-      <c r="EL9" s="340"/>
-      <c r="EM9" s="341"/>
+      <c r="AH9" s="344"/>
+      <c r="AI9" s="344"/>
+      <c r="AJ9" s="344"/>
+      <c r="AK9" s="344"/>
+      <c r="AL9" s="344"/>
+      <c r="AM9" s="344"/>
+      <c r="AN9" s="344"/>
+      <c r="AO9" s="344"/>
+      <c r="AP9" s="344"/>
+      <c r="AQ9" s="344"/>
+      <c r="AR9" s="344"/>
+      <c r="AS9" s="344"/>
+      <c r="AT9" s="344"/>
+      <c r="AU9" s="344"/>
+      <c r="AV9" s="344"/>
+      <c r="AW9" s="344"/>
+      <c r="AX9" s="344"/>
+      <c r="AY9" s="344"/>
+      <c r="AZ9" s="344"/>
+      <c r="BA9" s="344"/>
+      <c r="BB9" s="344"/>
+      <c r="BC9" s="344"/>
+      <c r="BD9" s="344"/>
+      <c r="BE9" s="344"/>
+      <c r="BF9" s="344"/>
+      <c r="BG9" s="344"/>
+      <c r="BH9" s="344"/>
+      <c r="BI9" s="344"/>
+      <c r="BJ9" s="344"/>
+      <c r="BK9" s="344"/>
+      <c r="BL9" s="344"/>
+      <c r="BM9" s="344"/>
+      <c r="BN9" s="344"/>
+      <c r="BO9" s="344"/>
+      <c r="BP9" s="344"/>
+      <c r="BQ9" s="344"/>
+      <c r="BR9" s="344"/>
+      <c r="BS9" s="344"/>
+      <c r="BT9" s="344"/>
+      <c r="BU9" s="344"/>
+      <c r="BV9" s="344"/>
+      <c r="BW9" s="344"/>
+      <c r="BX9" s="344"/>
+      <c r="BY9" s="344"/>
+      <c r="BZ9" s="344"/>
+      <c r="CA9" s="344"/>
+      <c r="CB9" s="344"/>
+      <c r="CC9" s="344"/>
+      <c r="CD9" s="344"/>
+      <c r="CE9" s="344"/>
+      <c r="CF9" s="344"/>
+      <c r="CG9" s="344"/>
+      <c r="CH9" s="344"/>
+      <c r="CI9" s="344"/>
+      <c r="CJ9" s="344"/>
+      <c r="CK9" s="344"/>
+      <c r="CL9" s="344"/>
+      <c r="CM9" s="344"/>
+      <c r="CN9" s="344"/>
+      <c r="CO9" s="344"/>
+      <c r="CP9" s="344"/>
+      <c r="CQ9" s="344"/>
+      <c r="CR9" s="344"/>
+      <c r="CS9" s="344"/>
+      <c r="CT9" s="344"/>
+      <c r="CU9" s="344"/>
+      <c r="CV9" s="344"/>
+      <c r="CW9" s="344"/>
+      <c r="CX9" s="344"/>
+      <c r="CY9" s="344"/>
+      <c r="CZ9" s="344"/>
+      <c r="DA9" s="344"/>
+      <c r="DB9" s="344"/>
+      <c r="DC9" s="344"/>
+      <c r="DD9" s="344"/>
+      <c r="DE9" s="344"/>
+      <c r="DF9" s="344"/>
+      <c r="DG9" s="344"/>
+      <c r="DH9" s="344"/>
+      <c r="DI9" s="344"/>
+      <c r="DJ9" s="344"/>
+      <c r="DK9" s="344"/>
+      <c r="DL9" s="344"/>
+      <c r="DM9" s="344"/>
+      <c r="DN9" s="344"/>
+      <c r="DO9" s="344"/>
+      <c r="DP9" s="344"/>
+      <c r="DQ9" s="344"/>
+      <c r="DR9" s="344"/>
+      <c r="DS9" s="344"/>
+      <c r="DT9" s="344"/>
+      <c r="DU9" s="344"/>
+      <c r="DV9" s="344"/>
+      <c r="DW9" s="344"/>
+      <c r="DX9" s="344"/>
+      <c r="DY9" s="344"/>
+      <c r="DZ9" s="344"/>
+      <c r="EA9" s="344"/>
+      <c r="EB9" s="344"/>
+      <c r="EC9" s="344"/>
+      <c r="ED9" s="344"/>
+      <c r="EE9" s="344"/>
+      <c r="EF9" s="344"/>
+      <c r="EG9" s="344"/>
+      <c r="EH9" s="344"/>
+      <c r="EI9" s="344"/>
+      <c r="EJ9" s="344"/>
+      <c r="EK9" s="344"/>
+      <c r="EL9" s="344"/>
+      <c r="EM9" s="345"/>
     </row>
     <row r="10" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="279"/>
-      <c r="B10" s="271"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="271"/>
+      <c r="A10" s="253"/>
+      <c r="B10" s="256"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="256"/>
       <c r="I10" s="114" t="s">
         <v>261</v>
       </c>
@@ -20529,38 +20529,38 @@
         <v>228</v>
       </c>
       <c r="BB10" s="159"/>
-      <c r="DI10" s="335" t="s">
+      <c r="DI10" s="346" t="s">
         <v>230</v>
       </c>
-      <c r="DJ10" s="335"/>
-      <c r="DK10" s="335"/>
-      <c r="DL10" s="335"/>
-      <c r="DM10" s="335"/>
-      <c r="DN10" s="335"/>
-      <c r="DO10" s="335"/>
-      <c r="DP10" s="335"/>
-      <c r="DQ10" s="335"/>
-      <c r="DR10" s="335"/>
-      <c r="DS10" s="335"/>
-      <c r="DT10" s="335"/>
-      <c r="DU10" s="335"/>
-      <c r="DV10" s="335"/>
-      <c r="DW10" s="335"/>
-      <c r="DX10" s="335"/>
-      <c r="DY10" s="335"/>
-      <c r="DZ10" s="335"/>
-      <c r="EA10" s="335"/>
-      <c r="EB10" s="335"/>
-      <c r="EC10" s="335"/>
-      <c r="ED10" s="335"/>
-      <c r="EE10" s="335"/>
-      <c r="EF10" s="335"/>
+      <c r="DJ10" s="346"/>
+      <c r="DK10" s="346"/>
+      <c r="DL10" s="346"/>
+      <c r="DM10" s="346"/>
+      <c r="DN10" s="346"/>
+      <c r="DO10" s="346"/>
+      <c r="DP10" s="346"/>
+      <c r="DQ10" s="346"/>
+      <c r="DR10" s="346"/>
+      <c r="DS10" s="346"/>
+      <c r="DT10" s="346"/>
+      <c r="DU10" s="346"/>
+      <c r="DV10" s="346"/>
+      <c r="DW10" s="346"/>
+      <c r="DX10" s="346"/>
+      <c r="DY10" s="346"/>
+      <c r="DZ10" s="346"/>
+      <c r="EA10" s="346"/>
+      <c r="EB10" s="346"/>
+      <c r="EC10" s="346"/>
+      <c r="ED10" s="346"/>
+      <c r="EE10" s="346"/>
+      <c r="EF10" s="346"/>
     </row>
     <row r="11" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="280"/>
-      <c r="B11" s="271"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="271"/>
+      <c r="A11" s="267"/>
+      <c r="B11" s="256"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="256"/>
       <c r="I11" s="154" t="s">
         <v>260</v>
       </c>
@@ -20572,11 +20572,11 @@
       <c r="A12" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="271"/>
+      <c r="B12" s="256"/>
       <c r="D12" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="271"/>
+      <c r="E12" s="256"/>
       <c r="I12" s="207" t="s">
         <v>370</v>
       </c>
@@ -20588,11 +20588,11 @@
       <c r="A13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="271"/>
+      <c r="B13" s="256"/>
       <c r="D13" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="271"/>
+      <c r="E13" s="256"/>
       <c r="I13" s="112" t="s">
         <v>183</v>
       </c>
@@ -20604,11 +20604,11 @@
       <c r="A14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="271"/>
+      <c r="B14" s="256"/>
       <c r="D14" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="271"/>
+      <c r="E14" s="256"/>
       <c r="I14" s="113" t="s">
         <v>184</v>
       </c>
@@ -20618,10 +20618,10 @@
     </row>
     <row r="15" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="271"/>
+      <c r="B15" s="256"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="271"/>
-      <c r="I15" s="348" t="s">
+      <c r="E15" s="256"/>
+      <c r="I15" s="222" t="s">
         <v>505</v>
       </c>
       <c r="J15" s="109" t="s">
@@ -20629,10 +20629,10 @@
       </c>
     </row>
     <row r="16" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="281"/>
-      <c r="B16" s="271"/>
-      <c r="D16" s="281"/>
-      <c r="E16" s="271"/>
+      <c r="A16" s="252"/>
+      <c r="B16" s="256"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="256"/>
       <c r="I16" s="115" t="s">
         <v>259</v>
       </c>
@@ -20641,10 +20641,10 @@
       </c>
     </row>
     <row r="17" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="279"/>
-      <c r="B17" s="271"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="271"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="256"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="256"/>
       <c r="I17" s="110" t="s">
         <v>421</v>
       </c>
@@ -20653,10 +20653,10 @@
       </c>
     </row>
     <row r="18" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="279"/>
-      <c r="B18" s="271"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="271"/>
+      <c r="A18" s="253"/>
+      <c r="B18" s="256"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="256"/>
       <c r="I18" s="219" t="s">
         <v>436</v>
       </c>
@@ -20665,10 +20665,10 @@
       </c>
     </row>
     <row r="19" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="280"/>
-      <c r="B19" s="271"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="271"/>
+      <c r="A19" s="267"/>
+      <c r="B19" s="256"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="256"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -20677,10 +20677,10 @@
       </c>
     </row>
     <row r="20" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="279"/>
-      <c r="B20" s="271"/>
-      <c r="D20" s="281"/>
-      <c r="E20" s="271"/>
+      <c r="A20" s="253"/>
+      <c r="B20" s="256"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="256"/>
       <c r="I20" s="203" t="s">
         <v>114</v>
       </c>
@@ -20689,10 +20689,10 @@
       </c>
     </row>
     <row r="21" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="279"/>
-      <c r="B21" s="271"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="271"/>
+      <c r="A21" s="253"/>
+      <c r="B21" s="256"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="256"/>
       <c r="I21" s="220" t="s">
         <v>116</v>
       </c>
@@ -20701,354 +20701,354 @@
       </c>
     </row>
     <row r="22" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="279"/>
-      <c r="B22" s="271"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="271"/>
+      <c r="A22" s="253"/>
+      <c r="B22" s="256"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="256"/>
     </row>
     <row r="23" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="280"/>
-      <c r="B23" s="271"/>
-      <c r="D23" s="280"/>
-      <c r="E23" s="271"/>
+      <c r="A23" s="267"/>
+      <c r="B23" s="256"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="256"/>
     </row>
     <row r="24" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="281" t="s">
+      <c r="A24" s="252" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="271"/>
-      <c r="C24" s="338"/>
-      <c r="D24" s="281"/>
-      <c r="E24" s="271"/>
-      <c r="BL24" s="266" t="s">
+      <c r="B24" s="256"/>
+      <c r="C24" s="342"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="256"/>
+      <c r="BL24" s="291" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="279"/>
-      <c r="B25" s="271"/>
-      <c r="C25" s="338"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="271"/>
-      <c r="BL25" s="267"/>
+      <c r="A25" s="253"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="342"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="256"/>
+      <c r="BL25" s="292"/>
     </row>
     <row r="26" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="279"/>
-      <c r="B26" s="271"/>
-      <c r="C26" s="338"/>
-      <c r="D26" s="279"/>
-      <c r="E26" s="271"/>
-      <c r="BL26" s="267"/>
+      <c r="A26" s="253"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="342"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="256"/>
+      <c r="BL26" s="292"/>
     </row>
     <row r="27" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="291"/>
-      <c r="B27" s="272"/>
-      <c r="C27" s="338"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="271"/>
-      <c r="BL27" s="268"/>
+      <c r="A27" s="254"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="342"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="256"/>
+      <c r="BL27" s="293"/>
     </row>
     <row r="28" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="273" t="s">
+      <c r="A28" s="269" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="307" t="s">
+      <c r="B28" s="261" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="271"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="256"/>
     </row>
     <row r="29" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="274"/>
-      <c r="B29" s="308"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="271"/>
+      <c r="A29" s="259"/>
+      <c r="B29" s="262"/>
+      <c r="D29" s="253"/>
+      <c r="E29" s="256"/>
     </row>
     <row r="30" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="274"/>
-      <c r="B30" s="308"/>
-      <c r="D30" s="279"/>
-      <c r="E30" s="271"/>
+      <c r="A30" s="259"/>
+      <c r="B30" s="262"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="256"/>
     </row>
     <row r="31" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277"/>
-      <c r="B31" s="308"/>
-      <c r="D31" s="280"/>
-      <c r="E31" s="271"/>
+      <c r="A31" s="270"/>
+      <c r="B31" s="262"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="256"/>
     </row>
     <row r="32" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="308"/>
+      <c r="B32" s="262"/>
       <c r="D32" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="271"/>
+      <c r="E32" s="256"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="308"/>
+      <c r="B33" s="262"/>
       <c r="D33" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="256"/>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="308"/>
+      <c r="B34" s="262"/>
       <c r="D34" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="256"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="308"/>
+      <c r="B35" s="262"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="271"/>
+      <c r="E35" s="256"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="276"/>
-      <c r="B36" s="308"/>
+      <c r="A36" s="258"/>
+      <c r="B36" s="262"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="271"/>
+      <c r="E36" s="256"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="274"/>
-      <c r="B37" s="308"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="262"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="271"/>
+      <c r="E37" s="256"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="274"/>
-      <c r="B38" s="308"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="262"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="271"/>
+      <c r="E38" s="256"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="287"/>
-      <c r="B39" s="309"/>
+      <c r="A39" s="260"/>
+      <c r="B39" s="263"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="271"/>
+      <c r="E39" s="256"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="318"/>
-      <c r="B40" s="304" t="s">
+      <c r="A40" s="264"/>
+      <c r="B40" s="248" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="288"/>
-      <c r="E40" s="271"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="256"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="302"/>
-      <c r="B41" s="305"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="271"/>
+      <c r="A41" s="265"/>
+      <c r="B41" s="249"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="256"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="302"/>
-      <c r="B42" s="305"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="271"/>
+      <c r="A42" s="265"/>
+      <c r="B42" s="249"/>
+      <c r="D42" s="272"/>
+      <c r="E42" s="256"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="319"/>
-      <c r="B43" s="305"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="271"/>
+      <c r="A43" s="266"/>
+      <c r="B43" s="249"/>
+      <c r="D43" s="273"/>
+      <c r="E43" s="256"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="305"/>
+      <c r="B44" s="249"/>
       <c r="D44" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="271"/>
+      <c r="E44" s="256"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="305"/>
+      <c r="B45" s="249"/>
       <c r="D45" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="271"/>
+      <c r="E45" s="256"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="305"/>
+      <c r="B46" s="249"/>
       <c r="D46" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="271"/>
+      <c r="E46" s="256"/>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="305"/>
+      <c r="B47" s="249"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="271"/>
+      <c r="E47" s="256"/>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="294" t="s">
+      <c r="A48" s="276" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="305"/>
-      <c r="D48" s="281" t="s">
+      <c r="B48" s="249"/>
+      <c r="D48" s="252" t="s">
         <v>334</v>
       </c>
-      <c r="E48" s="271"/>
+      <c r="E48" s="256"/>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="294"/>
-      <c r="B49" s="305"/>
-      <c r="D49" s="279"/>
-      <c r="E49" s="271"/>
+      <c r="A49" s="276"/>
+      <c r="B49" s="249"/>
+      <c r="D49" s="253"/>
+      <c r="E49" s="256"/>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="294"/>
-      <c r="B50" s="305"/>
-      <c r="D50" s="279"/>
-      <c r="E50" s="271"/>
+      <c r="A50" s="276"/>
+      <c r="B50" s="249"/>
+      <c r="D50" s="253"/>
+      <c r="E50" s="256"/>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="295"/>
-      <c r="B51" s="306"/>
-      <c r="D51" s="280"/>
-      <c r="E51" s="272"/>
+      <c r="A51" s="277"/>
+      <c r="B51" s="250"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="257"/>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="310" t="s">
+      <c r="A52" s="285" t="s">
         <v>328</v>
       </c>
-      <c r="B52" s="297" t="s">
+      <c r="B52" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="279" t="s">
+      <c r="D52" s="253" t="s">
         <v>328</v>
       </c>
-      <c r="E52" s="284" t="s">
+      <c r="E52" s="302" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="311"/>
-      <c r="B53" s="298"/>
-      <c r="D53" s="279"/>
-      <c r="E53" s="285"/>
+      <c r="A53" s="286"/>
+      <c r="B53" s="280"/>
+      <c r="D53" s="253"/>
+      <c r="E53" s="303"/>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="311"/>
-      <c r="B54" s="298"/>
-      <c r="D54" s="279"/>
-      <c r="E54" s="285"/>
+      <c r="A54" s="286"/>
+      <c r="B54" s="280"/>
+      <c r="D54" s="253"/>
+      <c r="E54" s="303"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="311"/>
-      <c r="B55" s="298"/>
-      <c r="D55" s="280"/>
-      <c r="E55" s="285"/>
+      <c r="A55" s="286"/>
+      <c r="B55" s="280"/>
+      <c r="D55" s="267"/>
+      <c r="E55" s="303"/>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="312" t="s">
+      <c r="A56" s="287" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="298"/>
-      <c r="D56" s="281" t="s">
+      <c r="B56" s="280"/>
+      <c r="D56" s="252" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="285"/>
+      <c r="E56" s="303"/>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="313"/>
-      <c r="B57" s="298"/>
-      <c r="D57" s="279"/>
-      <c r="E57" s="285"/>
+      <c r="A57" s="288"/>
+      <c r="B57" s="280"/>
+      <c r="D57" s="253"/>
+      <c r="E57" s="303"/>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="313"/>
-      <c r="B58" s="298"/>
-      <c r="D58" s="279"/>
-      <c r="E58" s="285"/>
+      <c r="A58" s="288"/>
+      <c r="B58" s="280"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="303"/>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="315"/>
-      <c r="B59" s="298"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="285"/>
+      <c r="A59" s="290"/>
+      <c r="B59" s="280"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="303"/>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="312" t="s">
+      <c r="A60" s="287" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="298"/>
-      <c r="D60" s="281" t="s">
+      <c r="B60" s="280"/>
+      <c r="D60" s="252" t="s">
         <v>310</v>
       </c>
-      <c r="E60" s="285"/>
+      <c r="E60" s="303"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="313"/>
-      <c r="B61" s="298"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="285"/>
+      <c r="A61" s="288"/>
+      <c r="B61" s="280"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="303"/>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="313"/>
-      <c r="B62" s="298"/>
-      <c r="D62" s="279"/>
-      <c r="E62" s="285"/>
+      <c r="A62" s="288"/>
+      <c r="B62" s="280"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="303"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="314"/>
-      <c r="B63" s="299"/>
-      <c r="D63" s="291"/>
-      <c r="E63" s="286"/>
+      <c r="A63" s="289"/>
+      <c r="B63" s="281"/>
+      <c r="D63" s="254"/>
+      <c r="E63" s="304"/>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="300" t="s">
+      <c r="A64" s="282" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="304" t="s">
+      <c r="B64" s="248" t="s">
         <v>271</v>
       </c>
-      <c r="D64" s="292" t="s">
+      <c r="D64" s="274" t="s">
         <v>309</v>
       </c>
       <c r="E64" s="187"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="294"/>
-      <c r="B65" s="305"/>
-      <c r="D65" s="293"/>
+      <c r="A65" s="276"/>
+      <c r="B65" s="249"/>
+      <c r="D65" s="275"/>
       <c r="E65" s="188"/>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="294"/>
-      <c r="B66" s="305"/>
-      <c r="D66" s="293"/>
+      <c r="A66" s="276"/>
+      <c r="B66" s="249"/>
+      <c r="D66" s="275"/>
       <c r="E66" s="188"/>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="294"/>
-      <c r="B67" s="305"/>
-      <c r="D67" s="293"/>
+      <c r="A67" s="276"/>
+      <c r="B67" s="249"/>
+      <c r="D67" s="275"/>
       <c r="E67" s="188"/>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="305"/>
+      <c r="B68" s="249"/>
       <c r="D68" s="184" t="s">
         <v>268</v>
       </c>
@@ -21058,7 +21058,7 @@
       <c r="A69" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="305"/>
+      <c r="B69" s="249"/>
       <c r="D69" s="185" t="s">
         <v>268</v>
       </c>
@@ -21068,7 +21068,7 @@
       <c r="A70" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="305"/>
+      <c r="B70" s="249"/>
       <c r="D70" s="185" t="s">
         <v>268</v>
       </c>
@@ -21076,69 +21076,69 @@
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="305"/>
+      <c r="B71" s="249"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="301"/>
-      <c r="B72" s="305"/>
-      <c r="D72" s="293" t="s">
+      <c r="A72" s="283"/>
+      <c r="B72" s="249"/>
+      <c r="D72" s="275" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="188"/>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="302"/>
-      <c r="B73" s="305"/>
-      <c r="D73" s="293"/>
+      <c r="A73" s="265"/>
+      <c r="B73" s="249"/>
+      <c r="D73" s="275"/>
       <c r="E73" s="188"/>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="302"/>
-      <c r="B74" s="305"/>
-      <c r="D74" s="293"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="249"/>
+      <c r="D74" s="275"/>
       <c r="E74" s="188"/>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="303"/>
-      <c r="B75" s="306"/>
-      <c r="D75" s="296"/>
+      <c r="A75" s="284"/>
+      <c r="B75" s="250"/>
+      <c r="D75" s="278"/>
       <c r="E75" s="189"/>
     </row>
     <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="273"/>
-      <c r="B76" s="307" t="s">
+      <c r="A76" s="269"/>
+      <c r="B76" s="261" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="282" t="s">
+      <c r="D76" s="297" t="s">
         <v>331</v>
       </c>
       <c r="E76" s="187"/>
     </row>
     <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="274"/>
-      <c r="B77" s="308"/>
-      <c r="D77" s="283"/>
+      <c r="A77" s="259"/>
+      <c r="B77" s="262"/>
+      <c r="D77" s="298"/>
       <c r="E77" s="188"/>
     </row>
     <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="274"/>
-      <c r="B78" s="308"/>
-      <c r="D78" s="283"/>
+      <c r="A78" s="259"/>
+      <c r="B78" s="262"/>
+      <c r="D78" s="298"/>
       <c r="E78" s="188"/>
     </row>
     <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="274"/>
-      <c r="B79" s="308"/>
-      <c r="D79" s="283"/>
+      <c r="A79" s="259"/>
+      <c r="B79" s="262"/>
+      <c r="D79" s="298"/>
       <c r="E79" s="188"/>
     </row>
     <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="308"/>
+      <c r="B80" s="262"/>
       <c r="D80" s="178" t="s">
         <v>268</v>
       </c>
@@ -21148,7 +21148,7 @@
       <c r="A81" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="308"/>
+      <c r="B81" s="262"/>
       <c r="D81" s="179" t="s">
         <v>268</v>
       </c>
@@ -21158,7 +21158,7 @@
       <c r="A82" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="308"/>
+      <c r="B82" s="262"/>
       <c r="D82" s="179" t="s">
         <v>268</v>
       </c>
@@ -21166,60 +21166,60 @@
     </row>
     <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="308"/>
+      <c r="B83" s="262"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
     </row>
     <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="276"/>
-      <c r="B84" s="308"/>
-      <c r="D84" s="276"/>
+      <c r="A84" s="258"/>
+      <c r="B84" s="262"/>
+      <c r="D84" s="258"/>
       <c r="E84" s="188"/>
     </row>
     <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="274"/>
-      <c r="B85" s="308"/>
-      <c r="D85" s="274"/>
+      <c r="A85" s="259"/>
+      <c r="B85" s="262"/>
+      <c r="D85" s="259"/>
       <c r="E85" s="188"/>
     </row>
     <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="274"/>
-      <c r="B86" s="308"/>
-      <c r="D86" s="274"/>
+      <c r="A86" s="259"/>
+      <c r="B86" s="262"/>
+      <c r="D86" s="259"/>
       <c r="E86" s="188"/>
     </row>
     <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="277"/>
-      <c r="B87" s="308"/>
-      <c r="D87" s="277"/>
+      <c r="A87" s="270"/>
+      <c r="B87" s="262"/>
+      <c r="D87" s="270"/>
       <c r="E87" s="188"/>
     </row>
     <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="276" t="s">
+      <c r="A88" s="258" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="308"/>
-      <c r="D88" s="276" t="s">
+      <c r="B88" s="262"/>
+      <c r="D88" s="258" t="s">
         <v>308</v>
       </c>
       <c r="E88" s="188"/>
     </row>
     <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="274"/>
-      <c r="B89" s="308"/>
-      <c r="D89" s="274"/>
+      <c r="A89" s="259"/>
+      <c r="B89" s="262"/>
+      <c r="D89" s="259"/>
       <c r="E89" s="188"/>
     </row>
     <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="274"/>
-      <c r="B90" s="308"/>
-      <c r="D90" s="274"/>
+      <c r="A90" s="259"/>
+      <c r="B90" s="262"/>
+      <c r="D90" s="259"/>
       <c r="E90" s="188"/>
     </row>
     <row r="91" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="287"/>
-      <c r="B91" s="309"/>
-      <c r="D91" s="287"/>
+      <c r="A91" s="260"/>
+      <c r="B91" s="263"/>
+      <c r="D91" s="260"/>
       <c r="E91" s="189"/>
     </row>
     <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21310,6 +21310,96 @@
     <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="E3:E51"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="BV3:BV7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BB3:BB7"/>
+    <mergeCell ref="BC3:BC7"/>
+    <mergeCell ref="BD3:BD7"/>
+    <mergeCell ref="BE3:BE7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
+    <mergeCell ref="DI10:EF10"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="BR8:CW8"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DN3:DN7"/>
+    <mergeCell ref="DO3:DO7"/>
+    <mergeCell ref="DP3:DP7"/>
+    <mergeCell ref="DH3:DH7"/>
+    <mergeCell ref="DI3:DI7"/>
     <mergeCell ref="CF3:CF7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B27"/>
@@ -21334,96 +21424,6 @@
     <mergeCell ref="CJ3:CJ7"/>
     <mergeCell ref="CK3:CK7"/>
     <mergeCell ref="CL3:CL7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="DM3:DM7"/>
-    <mergeCell ref="DN3:DN7"/>
-    <mergeCell ref="DO3:DO7"/>
-    <mergeCell ref="DP3:DP7"/>
-    <mergeCell ref="DH3:DH7"/>
-    <mergeCell ref="DI3:DI7"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DF3:DF7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="DI10:EF10"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="BR8:CW8"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BB3:BB7"/>
-    <mergeCell ref="BC3:BC7"/>
-    <mergeCell ref="BD3:BD7"/>
-    <mergeCell ref="BE3:BE7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="E3:E51"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E52:E63"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="D64:D67"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -700,9 +700,6 @@
     <t>HSYNC</t>
   </si>
   <si>
-    <t>IRQH</t>
-  </si>
-  <si>
     <t>Normal pattern data</t>
   </si>
   <si>
@@ -940,9 +937,6 @@
     <t>VBL end</t>
   </si>
   <si>
-    <t>VIRQ end</t>
-  </si>
-  <si>
     <t>1FF</t>
   </si>
   <si>
@@ -956,9 +950,6 @@
   </si>
   <si>
     <t>0DF</t>
-  </si>
-  <si>
-    <t>VIRQ start</t>
   </si>
   <si>
     <t>HBL</t>
@@ -1560,6 +1551,15 @@
   </si>
   <si>
     <t>Rotation coeficient table line data</t>
+  </si>
+  <si>
+    <t>VINT start</t>
+  </si>
+  <si>
+    <t>VINT end</t>
+  </si>
+  <si>
+    <t>HINT</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1610,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1776,6 +1776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEF3535"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,7 +2497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3153,41 +3159,32 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3195,37 +3192,214 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3237,36 +3411,6 @@
     <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3276,85 +3420,43 @@
     <xf numFmtId="49" fontId="1" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3366,148 +3468,67 @@
     <xf numFmtId="49" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3521,15 +3542,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3840,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,9 +4979,13 @@
         <v>46</v>
       </c>
       <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="8"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -5047,12 +5063,8 @@
       <c r="U23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -7357,16 +7369,16 @@
         <v>87</v>
       </c>
       <c r="E3" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>338</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>340</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>341</v>
       </c>
       <c r="I3" s="84" t="s">
         <v>90</v>
@@ -7414,10 +7426,10 @@
         <v>104</v>
       </c>
       <c r="X3" s="84" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y3" s="84" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
@@ -7425,7 +7437,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -7441,16 +7453,16 @@
       <c r="M4" s="4"/>
       <c r="N4" s="19"/>
       <c r="O4" s="90" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P4" s="194" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="90" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R4" s="90" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="S4" s="90" t="s">
         <v>106</v>
@@ -7465,7 +7477,7 @@
         <v>111</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="X4" s="84"/>
       <c r="Y4" s="84"/>
@@ -7475,7 +7487,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -7491,31 +7503,31 @@
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="198" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P5" s="91" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R5" s="89" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="T5" s="196" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="U5" s="196" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V5" s="196" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="W5" s="196" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
@@ -7525,7 +7537,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -7543,28 +7555,28 @@
         <v>0</v>
       </c>
       <c r="O6" s="91" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P6" s="97">
         <v>0</v>
       </c>
       <c r="Q6" s="97" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="S6" s="99" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="T6" s="99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="U6" s="99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V6" s="99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="W6" s="196">
         <v>0</v>
@@ -7576,7 +7588,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -7592,31 +7604,31 @@
       <c r="M7" s="19"/>
       <c r="N7" s="83"/>
       <c r="O7" s="199" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P7" s="92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="93" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="R7" s="93" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="S7" s="93" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="T7" s="197" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U7" s="197" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V7" s="197" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W7" s="197" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
@@ -7626,7 +7638,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -7644,28 +7656,28 @@
         <v>0</v>
       </c>
       <c r="O8" s="96" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P8" s="98">
         <v>0</v>
       </c>
       <c r="Q8" s="98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R8" s="98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="S8" s="100" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="T8" s="100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="U8" s="100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="V8" s="100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="W8" s="197">
         <v>0</v>
@@ -7694,7 +7706,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="94"/>
       <c r="P9" s="95" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="94"/>
       <c r="R9" s="19"/>
@@ -7727,7 +7739,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="94"/>
       <c r="P10" s="96" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="94"/>
       <c r="R10" s="19"/>
@@ -7764,7 +7776,7 @@
       <c r="Q11" s="94"/>
       <c r="R11" s="94"/>
       <c r="S11" s="97" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="T11" s="94"/>
       <c r="U11" s="19"/>
@@ -7798,7 +7810,7 @@
       <c r="Q12" s="94"/>
       <c r="R12" s="94"/>
       <c r="S12" s="98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="T12" s="94"/>
       <c r="U12" s="19"/>
@@ -7836,7 +7848,7 @@
       <c r="U13" s="94"/>
       <c r="V13" s="94"/>
       <c r="W13" s="99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="X13" s="94"/>
       <c r="Y13" s="19"/>
@@ -7870,7 +7882,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="X14" s="8"/>
       <c r="Y14" s="19"/>
@@ -7891,8 +7903,8 @@
   </sheetPr>
   <dimension ref="A1:EQ181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7909,18 +7921,24 @@
     <row r="1" spans="1:147" s="126" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="153"/>
       <c r="B1" s="153"/>
+      <c r="BJ1" s="224"/>
+      <c r="BK1" s="224"/>
+      <c r="BL1" s="224"/>
+      <c r="BM1" s="224"/>
+      <c r="BP1" s="223"/>
+      <c r="BQ1" s="223"/>
     </row>
     <row r="2" spans="1:147" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="247" t="s">
-        <v>336</v>
-      </c>
-      <c r="B2" s="247"/>
-      <c r="D2" s="247" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="247"/>
+      <c r="A2" s="319" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="319"/>
+      <c r="D2" s="319" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="319"/>
       <c r="F2" s="190" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -8053,22 +8071,22 @@
         <v>149</v>
       </c>
       <c r="AY2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="BE2" s="2">
         <v>150</v>
@@ -8101,22 +8119,22 @@
         <v>159</v>
       </c>
       <c r="BO2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="BS2" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="BT2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BU2" s="2">
         <v>160</v>
@@ -8149,22 +8167,22 @@
         <v>169</v>
       </c>
       <c r="CE2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="CH2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="CK2" s="2">
         <v>170</v>
@@ -8197,22 +8215,22 @@
         <v>179</v>
       </c>
       <c r="CU2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="CX2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="CY2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="CW2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="CZ2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="DA2" s="2">
         <v>180</v>
@@ -8248,19 +8266,19 @@
         <v>187</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="DQ2" s="2">
         <v>190</v>
@@ -8293,22 +8311,22 @@
         <v>199</v>
       </c>
       <c r="EA2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="EB2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="EB2" s="2" t="s">
+      <c r="EC2" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="ED2" s="2" t="s">
         <v>195</v>
       </c>
       <c r="EE2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="EF2" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="EG2" s="2" t="s">
         <v>196</v>
@@ -8345,18 +8363,18 @@
       </c>
     </row>
     <row r="3" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="268" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="255" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="268" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="255" t="s">
-        <v>267</v>
+      <c r="A3" s="281" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="273" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="320"/>
+      <c r="D3" s="281" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="273" t="s">
+        <v>266</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>124</v>
@@ -8365,31 +8383,31 @@
         <v>125</v>
       </c>
       <c r="I3" s="128" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="K3" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="129" t="s">
+      <c r="L3" s="129" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="M3" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="N3" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="N3" s="129" t="s">
+      <c r="O3" s="129" t="s">
         <v>236</v>
       </c>
-      <c r="O3" s="129" t="s">
+      <c r="P3" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="P3" s="130" t="s">
-        <v>238</v>
-      </c>
       <c r="Q3" s="149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R3" s="138" t="s">
         <v>150</v>
@@ -8481,202 +8499,202 @@
       <c r="BC3" s="122"/>
       <c r="BD3" s="85"/>
       <c r="BE3" s="122"/>
-      <c r="BF3" s="232" t="s">
+      <c r="BF3" s="335" t="s">
+        <v>370</v>
+      </c>
+      <c r="BG3" s="232" t="s">
+        <v>372</v>
+      </c>
+      <c r="BH3" s="232" t="s">
         <v>373</v>
       </c>
-      <c r="BG3" s="235" t="s">
+      <c r="BI3" s="232" t="s">
+        <v>374</v>
+      </c>
+      <c r="BJ3" s="232" t="s">
         <v>375</v>
       </c>
-      <c r="BH3" s="235" t="s">
+      <c r="BK3" s="232" t="s">
         <v>376</v>
       </c>
-      <c r="BI3" s="235" t="s">
+      <c r="BL3" s="232" t="s">
         <v>377</v>
       </c>
-      <c r="BJ3" s="235" t="s">
+      <c r="BM3" s="232" t="s">
         <v>378</v>
       </c>
-      <c r="BK3" s="235" t="s">
+      <c r="BN3" s="232" t="s">
         <v>379</v>
       </c>
-      <c r="BL3" s="235" t="s">
+      <c r="BO3" s="232" t="s">
         <v>380</v>
       </c>
-      <c r="BM3" s="235" t="s">
+      <c r="BP3" s="232" t="s">
         <v>381</v>
       </c>
-      <c r="BN3" s="235" t="s">
+      <c r="BQ3" s="232" t="s">
         <v>382</v>
       </c>
-      <c r="BO3" s="235" t="s">
+      <c r="BR3" s="232" t="s">
         <v>383</v>
       </c>
-      <c r="BP3" s="235" t="s">
+      <c r="BS3" s="232" t="s">
         <v>384</v>
       </c>
-      <c r="BQ3" s="235" t="s">
+      <c r="BT3" s="232" t="s">
         <v>385</v>
       </c>
-      <c r="BR3" s="235" t="s">
+      <c r="BU3" s="232" t="s">
         <v>386</v>
       </c>
-      <c r="BS3" s="235" t="s">
+      <c r="BV3" s="232" t="s">
         <v>387</v>
       </c>
-      <c r="BT3" s="235" t="s">
+      <c r="BW3" s="232" t="s">
         <v>388</v>
       </c>
-      <c r="BU3" s="235" t="s">
+      <c r="BX3" s="232" t="s">
         <v>389</v>
       </c>
-      <c r="BV3" s="235" t="s">
+      <c r="BY3" s="232" t="s">
         <v>390</v>
       </c>
-      <c r="BW3" s="235" t="s">
+      <c r="BZ3" s="232" t="s">
         <v>391</v>
       </c>
-      <c r="BX3" s="235" t="s">
+      <c r="CA3" s="232" t="s">
         <v>392</v>
       </c>
-      <c r="BY3" s="235" t="s">
+      <c r="CB3" s="232" t="s">
         <v>393</v>
       </c>
-      <c r="BZ3" s="235" t="s">
+      <c r="CC3" s="234" t="s">
         <v>394</v>
       </c>
-      <c r="CA3" s="235" t="s">
+      <c r="CD3" s="335" t="s">
+        <v>371</v>
+      </c>
+      <c r="CE3" s="232" t="s">
         <v>395</v>
       </c>
-      <c r="CB3" s="235" t="s">
+      <c r="CF3" s="232" t="s">
         <v>396</v>
       </c>
-      <c r="CC3" s="305" t="s">
+      <c r="CG3" s="232" t="s">
         <v>397</v>
       </c>
-      <c r="CD3" s="232" t="s">
-        <v>374</v>
-      </c>
-      <c r="CE3" s="235" t="s">
+      <c r="CH3" s="232" t="s">
         <v>398</v>
       </c>
-      <c r="CF3" s="235" t="s">
+      <c r="CI3" s="232" t="s">
         <v>399</v>
       </c>
-      <c r="CG3" s="235" t="s">
+      <c r="CJ3" s="232" t="s">
         <v>400</v>
       </c>
-      <c r="CH3" s="235" t="s">
+      <c r="CK3" s="232" t="s">
         <v>401</v>
       </c>
-      <c r="CI3" s="235" t="s">
+      <c r="CL3" s="232" t="s">
         <v>402</v>
       </c>
-      <c r="CJ3" s="235" t="s">
+      <c r="CM3" s="232" t="s">
         <v>403</v>
       </c>
-      <c r="CK3" s="235" t="s">
+      <c r="CN3" s="232" t="s">
         <v>404</v>
       </c>
-      <c r="CL3" s="235" t="s">
+      <c r="CO3" s="232" t="s">
         <v>405</v>
       </c>
-      <c r="CM3" s="235" t="s">
+      <c r="CP3" s="232" t="s">
         <v>406</v>
       </c>
-      <c r="CN3" s="235" t="s">
+      <c r="CQ3" s="232" t="s">
         <v>407</v>
       </c>
-      <c r="CO3" s="235" t="s">
+      <c r="CR3" s="232" t="s">
         <v>408</v>
       </c>
-      <c r="CP3" s="235" t="s">
+      <c r="CS3" s="232" t="s">
         <v>409</v>
       </c>
-      <c r="CQ3" s="235" t="s">
+      <c r="CT3" s="232" t="s">
         <v>410</v>
       </c>
-      <c r="CR3" s="235" t="s">
+      <c r="CU3" s="232" t="s">
         <v>411</v>
       </c>
-      <c r="CS3" s="235" t="s">
+      <c r="CV3" s="232" t="s">
         <v>412</v>
       </c>
-      <c r="CT3" s="235" t="s">
+      <c r="CW3" s="232" t="s">
         <v>413</v>
       </c>
-      <c r="CU3" s="235" t="s">
+      <c r="CX3" s="232" t="s">
         <v>414</v>
       </c>
-      <c r="CV3" s="235" t="s">
+      <c r="CY3" s="232" t="s">
         <v>415</v>
       </c>
-      <c r="CW3" s="235" t="s">
+      <c r="CZ3" s="232" t="s">
         <v>416</v>
       </c>
-      <c r="CX3" s="235" t="s">
+      <c r="DA3" s="234" t="s">
         <v>417</v>
       </c>
-      <c r="CY3" s="235" t="s">
-        <v>418</v>
-      </c>
-      <c r="CZ3" s="235" t="s">
-        <v>419</v>
-      </c>
-      <c r="DA3" s="305" t="s">
-        <v>420</v>
-      </c>
-      <c r="DB3" s="244" t="s">
+      <c r="DB3" s="316" t="s">
         <v>188</v>
       </c>
-      <c r="DC3" s="308" t="s">
+      <c r="DC3" s="225" t="s">
         <v>188</v>
       </c>
-      <c r="DD3" s="308" t="s">
+      <c r="DD3" s="225" t="s">
         <v>188</v>
       </c>
-      <c r="DE3" s="308" t="s">
+      <c r="DE3" s="225" t="s">
         <v>189</v>
       </c>
-      <c r="DF3" s="308" t="s">
+      <c r="DF3" s="225" t="s">
         <v>189</v>
       </c>
-      <c r="DG3" s="336" t="s">
+      <c r="DG3" s="258" t="s">
         <v>189</v>
       </c>
-      <c r="DH3" s="238" t="s">
-        <v>433</v>
-      </c>
-      <c r="DI3" s="241" t="s">
-        <v>434</v>
-      </c>
-      <c r="DJ3" s="229" t="s">
-        <v>366</v>
-      </c>
-      <c r="DK3" s="339" t="s">
+      <c r="DH3" s="338" t="s">
+        <v>430</v>
+      </c>
+      <c r="DI3" s="341" t="s">
+        <v>431</v>
+      </c>
+      <c r="DJ3" s="332" t="s">
+        <v>363</v>
+      </c>
+      <c r="DK3" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="DL3" s="223" t="s">
-        <v>503</v>
-      </c>
-      <c r="DM3" s="226" t="s">
-        <v>504</v>
+      <c r="DL3" s="326" t="s">
+        <v>500</v>
+      </c>
+      <c r="DM3" s="329" t="s">
+        <v>501</v>
       </c>
       <c r="DN3" s="205"/>
       <c r="DO3" s="14"/>
       <c r="DP3" s="64"/>
-      <c r="DQ3" s="325" t="s">
+      <c r="DQ3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DR3" s="325" t="s">
+      <c r="DR3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DS3" s="325" t="s">
+      <c r="DS3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DT3" s="325" t="s">
+      <c r="DT3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DU3" s="328" t="s">
+      <c r="DU3" s="250" t="s">
         <v>116</v>
       </c>
       <c r="DV3" s="161"/>
@@ -8715,11 +8733,11 @@
       </c>
     </row>
     <row r="4" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="253"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="256"/>
+      <c r="A4" s="282"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="274"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -8727,31 +8745,31 @@
         <v>154</v>
       </c>
       <c r="I4" s="135" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="121" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="K4" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="K4" s="121" t="s">
+      <c r="L4" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="M4" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="121" t="s">
+      <c r="N4" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="O4" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="O4" s="121" t="s">
+      <c r="P4" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="P4" s="132" t="s">
-        <v>246</v>
-      </c>
       <c r="Q4" s="150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R4" s="138"/>
       <c r="S4" s="135" t="s">
@@ -8849,74 +8867,74 @@
       <c r="BC4" s="117"/>
       <c r="BD4" s="118"/>
       <c r="BE4" s="117"/>
-      <c r="BF4" s="233"/>
-      <c r="BG4" s="236"/>
-      <c r="BH4" s="236"/>
-      <c r="BI4" s="236"/>
-      <c r="BJ4" s="236"/>
-      <c r="BK4" s="236"/>
-      <c r="BL4" s="236"/>
-      <c r="BM4" s="236"/>
-      <c r="BN4" s="236"/>
-      <c r="BO4" s="236"/>
-      <c r="BP4" s="236"/>
-      <c r="BQ4" s="236"/>
-      <c r="BR4" s="236"/>
-      <c r="BS4" s="236"/>
-      <c r="BT4" s="236"/>
-      <c r="BU4" s="236"/>
-      <c r="BV4" s="236"/>
-      <c r="BW4" s="236"/>
-      <c r="BX4" s="236"/>
-      <c r="BY4" s="236"/>
-      <c r="BZ4" s="236"/>
-      <c r="CA4" s="236"/>
-      <c r="CB4" s="236"/>
-      <c r="CC4" s="306"/>
-      <c r="CD4" s="233"/>
-      <c r="CE4" s="236"/>
-      <c r="CF4" s="236"/>
-      <c r="CG4" s="236"/>
-      <c r="CH4" s="236"/>
-      <c r="CI4" s="236"/>
-      <c r="CJ4" s="236"/>
-      <c r="CK4" s="236"/>
-      <c r="CL4" s="236"/>
-      <c r="CM4" s="236"/>
-      <c r="CN4" s="236"/>
-      <c r="CO4" s="236"/>
-      <c r="CP4" s="236"/>
-      <c r="CQ4" s="236"/>
-      <c r="CR4" s="236"/>
-      <c r="CS4" s="236"/>
-      <c r="CT4" s="236"/>
-      <c r="CU4" s="236"/>
-      <c r="CV4" s="236"/>
-      <c r="CW4" s="236"/>
-      <c r="CX4" s="236"/>
-      <c r="CY4" s="236"/>
-      <c r="CZ4" s="236"/>
-      <c r="DA4" s="306"/>
-      <c r="DB4" s="245"/>
-      <c r="DC4" s="309"/>
-      <c r="DD4" s="309"/>
-      <c r="DE4" s="309"/>
-      <c r="DF4" s="309"/>
-      <c r="DG4" s="337"/>
-      <c r="DH4" s="239"/>
-      <c r="DI4" s="242"/>
-      <c r="DJ4" s="230"/>
-      <c r="DK4" s="340"/>
-      <c r="DL4" s="224"/>
-      <c r="DM4" s="227"/>
+      <c r="BF4" s="336"/>
+      <c r="BG4" s="233"/>
+      <c r="BH4" s="233"/>
+      <c r="BI4" s="233"/>
+      <c r="BJ4" s="233"/>
+      <c r="BK4" s="233"/>
+      <c r="BL4" s="233"/>
+      <c r="BM4" s="233"/>
+      <c r="BN4" s="233"/>
+      <c r="BO4" s="233"/>
+      <c r="BP4" s="233"/>
+      <c r="BQ4" s="233"/>
+      <c r="BR4" s="233"/>
+      <c r="BS4" s="233"/>
+      <c r="BT4" s="233"/>
+      <c r="BU4" s="233"/>
+      <c r="BV4" s="233"/>
+      <c r="BW4" s="233"/>
+      <c r="BX4" s="233"/>
+      <c r="BY4" s="233"/>
+      <c r="BZ4" s="233"/>
+      <c r="CA4" s="233"/>
+      <c r="CB4" s="233"/>
+      <c r="CC4" s="235"/>
+      <c r="CD4" s="336"/>
+      <c r="CE4" s="233"/>
+      <c r="CF4" s="233"/>
+      <c r="CG4" s="233"/>
+      <c r="CH4" s="233"/>
+      <c r="CI4" s="233"/>
+      <c r="CJ4" s="233"/>
+      <c r="CK4" s="233"/>
+      <c r="CL4" s="233"/>
+      <c r="CM4" s="233"/>
+      <c r="CN4" s="233"/>
+      <c r="CO4" s="233"/>
+      <c r="CP4" s="233"/>
+      <c r="CQ4" s="233"/>
+      <c r="CR4" s="233"/>
+      <c r="CS4" s="233"/>
+      <c r="CT4" s="233"/>
+      <c r="CU4" s="233"/>
+      <c r="CV4" s="233"/>
+      <c r="CW4" s="233"/>
+      <c r="CX4" s="233"/>
+      <c r="CY4" s="233"/>
+      <c r="CZ4" s="233"/>
+      <c r="DA4" s="235"/>
+      <c r="DB4" s="317"/>
+      <c r="DC4" s="226"/>
+      <c r="DD4" s="226"/>
+      <c r="DE4" s="226"/>
+      <c r="DF4" s="226"/>
+      <c r="DG4" s="259"/>
+      <c r="DH4" s="339"/>
+      <c r="DI4" s="342"/>
+      <c r="DJ4" s="333"/>
+      <c r="DK4" s="262"/>
+      <c r="DL4" s="327"/>
+      <c r="DM4" s="330"/>
       <c r="DN4" s="206"/>
       <c r="DO4" s="201"/>
       <c r="DP4" s="20"/>
-      <c r="DQ4" s="326"/>
-      <c r="DR4" s="326"/>
-      <c r="DS4" s="326"/>
-      <c r="DT4" s="326"/>
-      <c r="DU4" s="329"/>
+      <c r="DQ4" s="247"/>
+      <c r="DR4" s="247"/>
+      <c r="DS4" s="247"/>
+      <c r="DT4" s="247"/>
+      <c r="DU4" s="251"/>
       <c r="DV4" s="143"/>
       <c r="DW4" s="155"/>
       <c r="DX4" s="155"/>
@@ -8945,11 +8963,11 @@
       </c>
     </row>
     <row r="5" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="253"/>
-      <c r="B5" s="256"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="256"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="274"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -8981,7 +8999,7 @@
         <v>194</v>
       </c>
       <c r="Q5" s="151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R5" s="138"/>
       <c r="S5" s="133" t="s">
@@ -9039,74 +9057,74 @@
       <c r="BC5" s="117"/>
       <c r="BD5" s="118"/>
       <c r="BE5" s="117"/>
-      <c r="BF5" s="233"/>
-      <c r="BG5" s="236"/>
-      <c r="BH5" s="236"/>
-      <c r="BI5" s="236"/>
-      <c r="BJ5" s="236"/>
-      <c r="BK5" s="236"/>
-      <c r="BL5" s="236"/>
-      <c r="BM5" s="236"/>
-      <c r="BN5" s="236"/>
-      <c r="BO5" s="236"/>
-      <c r="BP5" s="236"/>
-      <c r="BQ5" s="236"/>
-      <c r="BR5" s="236"/>
-      <c r="BS5" s="236"/>
-      <c r="BT5" s="236"/>
-      <c r="BU5" s="236"/>
-      <c r="BV5" s="236"/>
-      <c r="BW5" s="236"/>
-      <c r="BX5" s="236"/>
-      <c r="BY5" s="236"/>
-      <c r="BZ5" s="236"/>
-      <c r="CA5" s="236"/>
-      <c r="CB5" s="236"/>
-      <c r="CC5" s="306"/>
-      <c r="CD5" s="233"/>
-      <c r="CE5" s="236"/>
-      <c r="CF5" s="236"/>
-      <c r="CG5" s="236"/>
-      <c r="CH5" s="236"/>
-      <c r="CI5" s="236"/>
-      <c r="CJ5" s="236"/>
-      <c r="CK5" s="236"/>
-      <c r="CL5" s="236"/>
-      <c r="CM5" s="236"/>
-      <c r="CN5" s="236"/>
-      <c r="CO5" s="236"/>
-      <c r="CP5" s="236"/>
-      <c r="CQ5" s="236"/>
-      <c r="CR5" s="236"/>
-      <c r="CS5" s="236"/>
-      <c r="CT5" s="236"/>
-      <c r="CU5" s="236"/>
-      <c r="CV5" s="236"/>
-      <c r="CW5" s="236"/>
-      <c r="CX5" s="236"/>
-      <c r="CY5" s="236"/>
-      <c r="CZ5" s="236"/>
-      <c r="DA5" s="306"/>
-      <c r="DB5" s="245"/>
-      <c r="DC5" s="309"/>
-      <c r="DD5" s="309"/>
-      <c r="DE5" s="309"/>
-      <c r="DF5" s="309"/>
-      <c r="DG5" s="337"/>
-      <c r="DH5" s="239"/>
-      <c r="DI5" s="242"/>
-      <c r="DJ5" s="230"/>
-      <c r="DK5" s="340"/>
-      <c r="DL5" s="224"/>
-      <c r="DM5" s="227"/>
+      <c r="BF5" s="336"/>
+      <c r="BG5" s="233"/>
+      <c r="BH5" s="233"/>
+      <c r="BI5" s="233"/>
+      <c r="BJ5" s="233"/>
+      <c r="BK5" s="233"/>
+      <c r="BL5" s="233"/>
+      <c r="BM5" s="233"/>
+      <c r="BN5" s="233"/>
+      <c r="BO5" s="233"/>
+      <c r="BP5" s="233"/>
+      <c r="BQ5" s="233"/>
+      <c r="BR5" s="233"/>
+      <c r="BS5" s="233"/>
+      <c r="BT5" s="233"/>
+      <c r="BU5" s="233"/>
+      <c r="BV5" s="233"/>
+      <c r="BW5" s="233"/>
+      <c r="BX5" s="233"/>
+      <c r="BY5" s="233"/>
+      <c r="BZ5" s="233"/>
+      <c r="CA5" s="233"/>
+      <c r="CB5" s="233"/>
+      <c r="CC5" s="235"/>
+      <c r="CD5" s="336"/>
+      <c r="CE5" s="233"/>
+      <c r="CF5" s="233"/>
+      <c r="CG5" s="233"/>
+      <c r="CH5" s="233"/>
+      <c r="CI5" s="233"/>
+      <c r="CJ5" s="233"/>
+      <c r="CK5" s="233"/>
+      <c r="CL5" s="233"/>
+      <c r="CM5" s="233"/>
+      <c r="CN5" s="233"/>
+      <c r="CO5" s="233"/>
+      <c r="CP5" s="233"/>
+      <c r="CQ5" s="233"/>
+      <c r="CR5" s="233"/>
+      <c r="CS5" s="233"/>
+      <c r="CT5" s="233"/>
+      <c r="CU5" s="233"/>
+      <c r="CV5" s="233"/>
+      <c r="CW5" s="233"/>
+      <c r="CX5" s="233"/>
+      <c r="CY5" s="233"/>
+      <c r="CZ5" s="233"/>
+      <c r="DA5" s="235"/>
+      <c r="DB5" s="317"/>
+      <c r="DC5" s="226"/>
+      <c r="DD5" s="226"/>
+      <c r="DE5" s="226"/>
+      <c r="DF5" s="226"/>
+      <c r="DG5" s="259"/>
+      <c r="DH5" s="339"/>
+      <c r="DI5" s="342"/>
+      <c r="DJ5" s="333"/>
+      <c r="DK5" s="262"/>
+      <c r="DL5" s="327"/>
+      <c r="DM5" s="330"/>
       <c r="DN5" s="143"/>
       <c r="DO5" s="30"/>
       <c r="DP5" s="210"/>
-      <c r="DQ5" s="326"/>
-      <c r="DR5" s="326"/>
-      <c r="DS5" s="326"/>
-      <c r="DT5" s="326"/>
-      <c r="DU5" s="329"/>
+      <c r="DQ5" s="247"/>
+      <c r="DR5" s="247"/>
+      <c r="DS5" s="247"/>
+      <c r="DT5" s="247"/>
+      <c r="DU5" s="251"/>
       <c r="DV5" s="133" t="s">
         <v>191</v>
       </c>
@@ -9156,13 +9174,13 @@
         <v>192</v>
       </c>
       <c r="EL5" s="133" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="EM5" s="120" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="EN5" s="120" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="EO5" s="120" t="s">
         <v>193</v>
@@ -9175,11 +9193,11 @@
       </c>
     </row>
     <row r="6" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="253"/>
-      <c r="B6" s="256"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="256"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="274"/>
       <c r="G6" s="213" t="s">
         <v>216</v>
       </c>
@@ -9277,74 +9295,74 @@
       <c r="BC6" s="117"/>
       <c r="BD6" s="202"/>
       <c r="BE6" s="117"/>
-      <c r="BF6" s="233"/>
-      <c r="BG6" s="236"/>
-      <c r="BH6" s="236"/>
-      <c r="BI6" s="236"/>
-      <c r="BJ6" s="236"/>
-      <c r="BK6" s="236"/>
-      <c r="BL6" s="236"/>
-      <c r="BM6" s="236"/>
-      <c r="BN6" s="236"/>
-      <c r="BO6" s="236"/>
-      <c r="BP6" s="236"/>
-      <c r="BQ6" s="236"/>
-      <c r="BR6" s="236"/>
-      <c r="BS6" s="236"/>
-      <c r="BT6" s="236"/>
-      <c r="BU6" s="236"/>
-      <c r="BV6" s="236"/>
-      <c r="BW6" s="236"/>
-      <c r="BX6" s="236"/>
-      <c r="BY6" s="236"/>
-      <c r="BZ6" s="236"/>
-      <c r="CA6" s="236"/>
-      <c r="CB6" s="236"/>
-      <c r="CC6" s="306"/>
-      <c r="CD6" s="233"/>
-      <c r="CE6" s="236"/>
-      <c r="CF6" s="236"/>
-      <c r="CG6" s="236"/>
-      <c r="CH6" s="236"/>
-      <c r="CI6" s="236"/>
-      <c r="CJ6" s="236"/>
-      <c r="CK6" s="236"/>
-      <c r="CL6" s="236"/>
-      <c r="CM6" s="236"/>
-      <c r="CN6" s="236"/>
-      <c r="CO6" s="236"/>
-      <c r="CP6" s="236"/>
-      <c r="CQ6" s="236"/>
-      <c r="CR6" s="236"/>
-      <c r="CS6" s="236"/>
-      <c r="CT6" s="236"/>
-      <c r="CU6" s="236"/>
-      <c r="CV6" s="236"/>
-      <c r="CW6" s="236"/>
-      <c r="CX6" s="236"/>
-      <c r="CY6" s="236"/>
-      <c r="CZ6" s="236"/>
-      <c r="DA6" s="306"/>
-      <c r="DB6" s="245"/>
-      <c r="DC6" s="309"/>
-      <c r="DD6" s="309"/>
-      <c r="DE6" s="309"/>
-      <c r="DF6" s="309"/>
-      <c r="DG6" s="337"/>
-      <c r="DH6" s="239"/>
-      <c r="DI6" s="242"/>
-      <c r="DJ6" s="230"/>
-      <c r="DK6" s="340"/>
-      <c r="DL6" s="224"/>
-      <c r="DM6" s="227"/>
+      <c r="BF6" s="336"/>
+      <c r="BG6" s="233"/>
+      <c r="BH6" s="233"/>
+      <c r="BI6" s="233"/>
+      <c r="BJ6" s="233"/>
+      <c r="BK6" s="233"/>
+      <c r="BL6" s="233"/>
+      <c r="BM6" s="233"/>
+      <c r="BN6" s="233"/>
+      <c r="BO6" s="233"/>
+      <c r="BP6" s="233"/>
+      <c r="BQ6" s="233"/>
+      <c r="BR6" s="233"/>
+      <c r="BS6" s="233"/>
+      <c r="BT6" s="233"/>
+      <c r="BU6" s="233"/>
+      <c r="BV6" s="233"/>
+      <c r="BW6" s="233"/>
+      <c r="BX6" s="233"/>
+      <c r="BY6" s="233"/>
+      <c r="BZ6" s="233"/>
+      <c r="CA6" s="233"/>
+      <c r="CB6" s="233"/>
+      <c r="CC6" s="235"/>
+      <c r="CD6" s="336"/>
+      <c r="CE6" s="233"/>
+      <c r="CF6" s="233"/>
+      <c r="CG6" s="233"/>
+      <c r="CH6" s="233"/>
+      <c r="CI6" s="233"/>
+      <c r="CJ6" s="233"/>
+      <c r="CK6" s="233"/>
+      <c r="CL6" s="233"/>
+      <c r="CM6" s="233"/>
+      <c r="CN6" s="233"/>
+      <c r="CO6" s="233"/>
+      <c r="CP6" s="233"/>
+      <c r="CQ6" s="233"/>
+      <c r="CR6" s="233"/>
+      <c r="CS6" s="233"/>
+      <c r="CT6" s="233"/>
+      <c r="CU6" s="233"/>
+      <c r="CV6" s="233"/>
+      <c r="CW6" s="233"/>
+      <c r="CX6" s="233"/>
+      <c r="CY6" s="233"/>
+      <c r="CZ6" s="233"/>
+      <c r="DA6" s="235"/>
+      <c r="DB6" s="317"/>
+      <c r="DC6" s="226"/>
+      <c r="DD6" s="226"/>
+      <c r="DE6" s="226"/>
+      <c r="DF6" s="226"/>
+      <c r="DG6" s="259"/>
+      <c r="DH6" s="339"/>
+      <c r="DI6" s="342"/>
+      <c r="DJ6" s="333"/>
+      <c r="DK6" s="262"/>
+      <c r="DL6" s="327"/>
+      <c r="DM6" s="330"/>
       <c r="DN6" s="143"/>
       <c r="DO6" s="30"/>
       <c r="DP6" s="210"/>
-      <c r="DQ6" s="295"/>
-      <c r="DR6" s="295"/>
-      <c r="DS6" s="295"/>
-      <c r="DT6" s="295"/>
-      <c r="DU6" s="330"/>
+      <c r="DQ6" s="248"/>
+      <c r="DR6" s="248"/>
+      <c r="DS6" s="248"/>
+      <c r="DT6" s="248"/>
+      <c r="DU6" s="252"/>
       <c r="DV6" s="143"/>
       <c r="DW6" s="30"/>
       <c r="DX6" s="210"/>
@@ -9405,21 +9423,21 @@
       </c>
     </row>
     <row r="7" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="267"/>
-      <c r="B7" s="256"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="267"/>
-      <c r="E7" s="256"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="274"/>
+      <c r="C7" s="320"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="274"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
       <c r="I7" s="208" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J7" s="209" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K7" s="209" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L7" s="145"/>
       <c r="M7" s="145"/>
@@ -9431,13 +9449,13 @@
         <v>150</v>
       </c>
       <c r="S7" s="208" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T7" s="209" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="U7" s="209" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="V7" s="145"/>
       <c r="W7" s="145"/>
@@ -9475,88 +9493,88 @@
       <c r="BC7" s="123"/>
       <c r="BD7" s="119"/>
       <c r="BE7" s="123"/>
-      <c r="BF7" s="234"/>
-      <c r="BG7" s="237"/>
-      <c r="BH7" s="237"/>
-      <c r="BI7" s="237"/>
-      <c r="BJ7" s="237"/>
-      <c r="BK7" s="237"/>
-      <c r="BL7" s="237"/>
-      <c r="BM7" s="237"/>
-      <c r="BN7" s="237"/>
-      <c r="BO7" s="237"/>
-      <c r="BP7" s="237"/>
-      <c r="BQ7" s="237"/>
-      <c r="BR7" s="237"/>
-      <c r="BS7" s="237"/>
-      <c r="BT7" s="237"/>
-      <c r="BU7" s="237"/>
-      <c r="BV7" s="237"/>
-      <c r="BW7" s="237"/>
-      <c r="BX7" s="237"/>
-      <c r="BY7" s="237"/>
-      <c r="BZ7" s="237"/>
-      <c r="CA7" s="237"/>
-      <c r="CB7" s="237"/>
-      <c r="CC7" s="307"/>
-      <c r="CD7" s="233"/>
-      <c r="CE7" s="236"/>
-      <c r="CF7" s="236"/>
-      <c r="CG7" s="236"/>
-      <c r="CH7" s="236"/>
-      <c r="CI7" s="236"/>
-      <c r="CJ7" s="236"/>
-      <c r="CK7" s="236"/>
-      <c r="CL7" s="236"/>
-      <c r="CM7" s="236"/>
-      <c r="CN7" s="236"/>
-      <c r="CO7" s="236"/>
-      <c r="CP7" s="236"/>
-      <c r="CQ7" s="236"/>
-      <c r="CR7" s="236"/>
-      <c r="CS7" s="236"/>
-      <c r="CT7" s="236"/>
-      <c r="CU7" s="236"/>
-      <c r="CV7" s="236"/>
-      <c r="CW7" s="236"/>
-      <c r="CX7" s="236"/>
-      <c r="CY7" s="236"/>
-      <c r="CZ7" s="236"/>
-      <c r="DA7" s="306"/>
-      <c r="DB7" s="246"/>
-      <c r="DC7" s="310"/>
-      <c r="DD7" s="310"/>
-      <c r="DE7" s="310"/>
-      <c r="DF7" s="310"/>
-      <c r="DG7" s="338"/>
-      <c r="DH7" s="240"/>
-      <c r="DI7" s="243"/>
-      <c r="DJ7" s="231"/>
-      <c r="DK7" s="341"/>
-      <c r="DL7" s="225"/>
-      <c r="DM7" s="228"/>
+      <c r="BF7" s="337"/>
+      <c r="BG7" s="270"/>
+      <c r="BH7" s="270"/>
+      <c r="BI7" s="270"/>
+      <c r="BJ7" s="270"/>
+      <c r="BK7" s="270"/>
+      <c r="BL7" s="270"/>
+      <c r="BM7" s="270"/>
+      <c r="BN7" s="270"/>
+      <c r="BO7" s="270"/>
+      <c r="BP7" s="270"/>
+      <c r="BQ7" s="270"/>
+      <c r="BR7" s="270"/>
+      <c r="BS7" s="270"/>
+      <c r="BT7" s="270"/>
+      <c r="BU7" s="270"/>
+      <c r="BV7" s="270"/>
+      <c r="BW7" s="270"/>
+      <c r="BX7" s="270"/>
+      <c r="BY7" s="270"/>
+      <c r="BZ7" s="270"/>
+      <c r="CA7" s="270"/>
+      <c r="CB7" s="270"/>
+      <c r="CC7" s="271"/>
+      <c r="CD7" s="336"/>
+      <c r="CE7" s="233"/>
+      <c r="CF7" s="233"/>
+      <c r="CG7" s="233"/>
+      <c r="CH7" s="233"/>
+      <c r="CI7" s="233"/>
+      <c r="CJ7" s="233"/>
+      <c r="CK7" s="233"/>
+      <c r="CL7" s="233"/>
+      <c r="CM7" s="233"/>
+      <c r="CN7" s="233"/>
+      <c r="CO7" s="233"/>
+      <c r="CP7" s="233"/>
+      <c r="CQ7" s="233"/>
+      <c r="CR7" s="233"/>
+      <c r="CS7" s="233"/>
+      <c r="CT7" s="233"/>
+      <c r="CU7" s="233"/>
+      <c r="CV7" s="233"/>
+      <c r="CW7" s="233"/>
+      <c r="CX7" s="233"/>
+      <c r="CY7" s="233"/>
+      <c r="CZ7" s="233"/>
+      <c r="DA7" s="235"/>
+      <c r="DB7" s="318"/>
+      <c r="DC7" s="227"/>
+      <c r="DD7" s="227"/>
+      <c r="DE7" s="227"/>
+      <c r="DF7" s="227"/>
+      <c r="DG7" s="260"/>
+      <c r="DH7" s="340"/>
+      <c r="DI7" s="343"/>
+      <c r="DJ7" s="334"/>
+      <c r="DK7" s="263"/>
+      <c r="DL7" s="328"/>
+      <c r="DM7" s="331"/>
       <c r="DN7" s="208" t="s">
+        <v>365</v>
+      </c>
+      <c r="DO7" s="209" t="s">
+        <v>365</v>
+      </c>
+      <c r="DP7" s="211" t="s">
+        <v>365</v>
+      </c>
+      <c r="DQ7" s="249"/>
+      <c r="DR7" s="249"/>
+      <c r="DS7" s="249"/>
+      <c r="DT7" s="249"/>
+      <c r="DU7" s="253"/>
+      <c r="DV7" s="208" t="s">
         <v>368</v>
       </c>
-      <c r="DO7" s="209" t="s">
+      <c r="DW7" s="209" t="s">
         <v>368</v>
       </c>
-      <c r="DP7" s="211" t="s">
+      <c r="DX7" s="211" t="s">
         <v>368</v>
-      </c>
-      <c r="DQ7" s="327"/>
-      <c r="DR7" s="327"/>
-      <c r="DS7" s="327"/>
-      <c r="DT7" s="327"/>
-      <c r="DU7" s="331"/>
-      <c r="DV7" s="208" t="s">
-        <v>371</v>
-      </c>
-      <c r="DW7" s="209" t="s">
-        <v>371</v>
-      </c>
-      <c r="DX7" s="211" t="s">
-        <v>371</v>
       </c>
       <c r="DY7" s="139"/>
       <c r="DZ7" s="145"/>
@@ -9564,13 +9582,13 @@
       <c r="EB7" s="145"/>
       <c r="EC7" s="146"/>
       <c r="ED7" s="208" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="EE7" s="209" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="EF7" s="211" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="EG7" s="145"/>
       <c r="EH7" s="145"/>
@@ -9578,191 +9596,191 @@
       <c r="EJ7" s="145"/>
       <c r="EK7" s="146"/>
       <c r="EL7" s="208" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="EM7" s="209" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="EN7" s="211" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="EO7" s="145"/>
       <c r="EP7" s="145"/>
       <c r="EQ7" s="145"/>
     </row>
     <row r="8" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="252"/>
-      <c r="B8" s="256"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="256"/>
-      <c r="BV8" s="332" t="s">
+      <c r="A8" s="284"/>
+      <c r="B8" s="274"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="274"/>
+      <c r="BV8" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="BW8" s="333"/>
-      <c r="BX8" s="333"/>
-      <c r="BY8" s="333"/>
-      <c r="BZ8" s="333"/>
-      <c r="CA8" s="333"/>
-      <c r="CB8" s="333"/>
-      <c r="CC8" s="333"/>
-      <c r="CD8" s="334"/>
-      <c r="CE8" s="334"/>
-      <c r="CF8" s="334"/>
-      <c r="CG8" s="334"/>
-      <c r="CH8" s="334"/>
-      <c r="CI8" s="334"/>
-      <c r="CJ8" s="334"/>
-      <c r="CK8" s="334"/>
-      <c r="CL8" s="334"/>
-      <c r="CM8" s="334"/>
-      <c r="CN8" s="334"/>
-      <c r="CO8" s="334"/>
-      <c r="CP8" s="334"/>
-      <c r="CQ8" s="334"/>
-      <c r="CR8" s="334"/>
-      <c r="CS8" s="334"/>
-      <c r="CT8" s="334"/>
-      <c r="CU8" s="334"/>
-      <c r="CV8" s="334"/>
-      <c r="CW8" s="334"/>
-      <c r="CX8" s="334"/>
-      <c r="CY8" s="334"/>
-      <c r="CZ8" s="334"/>
-      <c r="DA8" s="335"/>
+      <c r="BW8" s="255"/>
+      <c r="BX8" s="255"/>
+      <c r="BY8" s="255"/>
+      <c r="BZ8" s="255"/>
+      <c r="CA8" s="255"/>
+      <c r="CB8" s="255"/>
+      <c r="CC8" s="255"/>
+      <c r="CD8" s="256"/>
+      <c r="CE8" s="256"/>
+      <c r="CF8" s="256"/>
+      <c r="CG8" s="256"/>
+      <c r="CH8" s="256"/>
+      <c r="CI8" s="256"/>
+      <c r="CJ8" s="256"/>
+      <c r="CK8" s="256"/>
+      <c r="CL8" s="256"/>
+      <c r="CM8" s="256"/>
+      <c r="CN8" s="256"/>
+      <c r="CO8" s="256"/>
+      <c r="CP8" s="256"/>
+      <c r="CQ8" s="256"/>
+      <c r="CR8" s="256"/>
+      <c r="CS8" s="256"/>
+      <c r="CT8" s="256"/>
+      <c r="CU8" s="256"/>
+      <c r="CV8" s="256"/>
+      <c r="CW8" s="256"/>
+      <c r="CX8" s="256"/>
+      <c r="CY8" s="256"/>
+      <c r="CZ8" s="256"/>
+      <c r="DA8" s="257"/>
     </row>
     <row r="9" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="253"/>
-      <c r="B9" s="256"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="256"/>
-      <c r="AG9" s="315" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="274"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="274"/>
+      <c r="AG9" s="236" t="s">
+        <v>506</v>
+      </c>
+      <c r="AH9" s="237"/>
+      <c r="AI9" s="237"/>
+      <c r="AJ9" s="237"/>
+      <c r="AK9" s="237"/>
+      <c r="AL9" s="237"/>
+      <c r="AM9" s="237"/>
+      <c r="AN9" s="237"/>
+      <c r="AO9" s="237"/>
+      <c r="AP9" s="237"/>
+      <c r="AQ9" s="237"/>
+      <c r="AR9" s="237"/>
+      <c r="AS9" s="237"/>
+      <c r="AT9" s="237"/>
+      <c r="AU9" s="237"/>
+      <c r="AV9" s="237"/>
+      <c r="AW9" s="237"/>
+      <c r="AX9" s="237"/>
+      <c r="AY9" s="237"/>
+      <c r="AZ9" s="237"/>
+      <c r="BA9" s="237"/>
+      <c r="BB9" s="237"/>
+      <c r="BC9" s="237"/>
+      <c r="BD9" s="237"/>
+      <c r="BE9" s="237"/>
+      <c r="BF9" s="237"/>
+      <c r="BG9" s="237"/>
+      <c r="BH9" s="237"/>
+      <c r="BI9" s="237"/>
+      <c r="BJ9" s="237"/>
+      <c r="BK9" s="237"/>
+      <c r="BL9" s="237"/>
+      <c r="BM9" s="237"/>
+      <c r="BN9" s="237"/>
+      <c r="BO9" s="237"/>
+      <c r="BP9" s="237"/>
+      <c r="BQ9" s="237"/>
+      <c r="BR9" s="237"/>
+      <c r="BS9" s="237"/>
+      <c r="BT9" s="237"/>
+      <c r="BU9" s="237"/>
+      <c r="BV9" s="237"/>
+      <c r="BW9" s="237"/>
+      <c r="BX9" s="237"/>
+      <c r="BY9" s="237"/>
+      <c r="BZ9" s="237"/>
+      <c r="CA9" s="237"/>
+      <c r="CB9" s="237"/>
+      <c r="CC9" s="237"/>
+      <c r="CD9" s="237"/>
+      <c r="CE9" s="237"/>
+      <c r="CF9" s="237"/>
+      <c r="CG9" s="237"/>
+      <c r="CH9" s="237"/>
+      <c r="CI9" s="237"/>
+      <c r="CJ9" s="237"/>
+      <c r="CK9" s="237"/>
+      <c r="CL9" s="237"/>
+      <c r="CM9" s="237"/>
+      <c r="CN9" s="237"/>
+      <c r="CO9" s="237"/>
+      <c r="CP9" s="237"/>
+      <c r="CQ9" s="237"/>
+      <c r="CR9" s="237"/>
+      <c r="CS9" s="237"/>
+      <c r="CT9" s="237"/>
+      <c r="CU9" s="237"/>
+      <c r="CV9" s="237"/>
+      <c r="CW9" s="237"/>
+      <c r="CX9" s="237"/>
+      <c r="CY9" s="237"/>
+      <c r="CZ9" s="237"/>
+      <c r="DA9" s="237"/>
+      <c r="DB9" s="237"/>
+      <c r="DC9" s="237"/>
+      <c r="DD9" s="237"/>
+      <c r="DE9" s="237"/>
+      <c r="DF9" s="237"/>
+      <c r="DG9" s="237"/>
+      <c r="DH9" s="237"/>
+      <c r="DI9" s="237"/>
+      <c r="DJ9" s="237"/>
+      <c r="DK9" s="237"/>
+      <c r="DL9" s="237"/>
+      <c r="DM9" s="237"/>
+      <c r="DN9" s="237"/>
+      <c r="DO9" s="237"/>
+      <c r="DP9" s="237"/>
+      <c r="DQ9" s="237"/>
+      <c r="DR9" s="237"/>
+      <c r="DS9" s="237"/>
+      <c r="DT9" s="237"/>
+      <c r="DU9" s="237"/>
+      <c r="DV9" s="237"/>
+      <c r="DW9" s="237"/>
+      <c r="DX9" s="237"/>
+      <c r="DY9" s="237"/>
+      <c r="DZ9" s="237"/>
+      <c r="EA9" s="237"/>
+      <c r="EB9" s="237"/>
+      <c r="EC9" s="237"/>
+      <c r="ED9" s="237"/>
+      <c r="EE9" s="237"/>
+      <c r="EF9" s="237"/>
+      <c r="EG9" s="237"/>
+      <c r="EH9" s="237"/>
+      <c r="EI9" s="237"/>
+      <c r="EJ9" s="237"/>
+      <c r="EK9" s="237"/>
+      <c r="EL9" s="237"/>
+      <c r="EM9" s="237"/>
+      <c r="EN9" s="237"/>
+      <c r="EO9" s="237"/>
+      <c r="EP9" s="237"/>
+      <c r="EQ9" s="238"/>
+    </row>
+    <row r="10" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="282"/>
+      <c r="B10" s="274"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="274"/>
+      <c r="I10" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="J10" s="109" t="s">
         <v>227</v>
-      </c>
-      <c r="AH9" s="316"/>
-      <c r="AI9" s="316"/>
-      <c r="AJ9" s="316"/>
-      <c r="AK9" s="316"/>
-      <c r="AL9" s="316"/>
-      <c r="AM9" s="316"/>
-      <c r="AN9" s="316"/>
-      <c r="AO9" s="316"/>
-      <c r="AP9" s="316"/>
-      <c r="AQ9" s="316"/>
-      <c r="AR9" s="316"/>
-      <c r="AS9" s="316"/>
-      <c r="AT9" s="316"/>
-      <c r="AU9" s="316"/>
-      <c r="AV9" s="316"/>
-      <c r="AW9" s="316"/>
-      <c r="AX9" s="316"/>
-      <c r="AY9" s="316"/>
-      <c r="AZ9" s="316"/>
-      <c r="BA9" s="316"/>
-      <c r="BB9" s="316"/>
-      <c r="BC9" s="316"/>
-      <c r="BD9" s="316"/>
-      <c r="BE9" s="316"/>
-      <c r="BF9" s="316"/>
-      <c r="BG9" s="316"/>
-      <c r="BH9" s="316"/>
-      <c r="BI9" s="316"/>
-      <c r="BJ9" s="316"/>
-      <c r="BK9" s="316"/>
-      <c r="BL9" s="316"/>
-      <c r="BM9" s="316"/>
-      <c r="BN9" s="316"/>
-      <c r="BO9" s="316"/>
-      <c r="BP9" s="316"/>
-      <c r="BQ9" s="316"/>
-      <c r="BR9" s="316"/>
-      <c r="BS9" s="316"/>
-      <c r="BT9" s="316"/>
-      <c r="BU9" s="316"/>
-      <c r="BV9" s="316"/>
-      <c r="BW9" s="316"/>
-      <c r="BX9" s="316"/>
-      <c r="BY9" s="316"/>
-      <c r="BZ9" s="316"/>
-      <c r="CA9" s="316"/>
-      <c r="CB9" s="316"/>
-      <c r="CC9" s="316"/>
-      <c r="CD9" s="316"/>
-      <c r="CE9" s="316"/>
-      <c r="CF9" s="316"/>
-      <c r="CG9" s="316"/>
-      <c r="CH9" s="316"/>
-      <c r="CI9" s="316"/>
-      <c r="CJ9" s="316"/>
-      <c r="CK9" s="316"/>
-      <c r="CL9" s="316"/>
-      <c r="CM9" s="316"/>
-      <c r="CN9" s="316"/>
-      <c r="CO9" s="316"/>
-      <c r="CP9" s="316"/>
-      <c r="CQ9" s="316"/>
-      <c r="CR9" s="316"/>
-      <c r="CS9" s="316"/>
-      <c r="CT9" s="316"/>
-      <c r="CU9" s="316"/>
-      <c r="CV9" s="316"/>
-      <c r="CW9" s="316"/>
-      <c r="CX9" s="316"/>
-      <c r="CY9" s="316"/>
-      <c r="CZ9" s="316"/>
-      <c r="DA9" s="316"/>
-      <c r="DB9" s="316"/>
-      <c r="DC9" s="316"/>
-      <c r="DD9" s="316"/>
-      <c r="DE9" s="316"/>
-      <c r="DF9" s="316"/>
-      <c r="DG9" s="316"/>
-      <c r="DH9" s="316"/>
-      <c r="DI9" s="316"/>
-      <c r="DJ9" s="316"/>
-      <c r="DK9" s="316"/>
-      <c r="DL9" s="316"/>
-      <c r="DM9" s="316"/>
-      <c r="DN9" s="316"/>
-      <c r="DO9" s="316"/>
-      <c r="DP9" s="316"/>
-      <c r="DQ9" s="316"/>
-      <c r="DR9" s="316"/>
-      <c r="DS9" s="316"/>
-      <c r="DT9" s="316"/>
-      <c r="DU9" s="316"/>
-      <c r="DV9" s="316"/>
-      <c r="DW9" s="316"/>
-      <c r="DX9" s="316"/>
-      <c r="DY9" s="316"/>
-      <c r="DZ9" s="316"/>
-      <c r="EA9" s="316"/>
-      <c r="EB9" s="316"/>
-      <c r="EC9" s="316"/>
-      <c r="ED9" s="316"/>
-      <c r="EE9" s="316"/>
-      <c r="EF9" s="316"/>
-      <c r="EG9" s="316"/>
-      <c r="EH9" s="316"/>
-      <c r="EI9" s="316"/>
-      <c r="EJ9" s="316"/>
-      <c r="EK9" s="316"/>
-      <c r="EL9" s="316"/>
-      <c r="EM9" s="316"/>
-      <c r="EN9" s="316"/>
-      <c r="EO9" s="316"/>
-      <c r="EP9" s="316"/>
-      <c r="EQ9" s="317"/>
-    </row>
-    <row r="10" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="253"/>
-      <c r="B10" s="256"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="256"/>
-      <c r="I10" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="J10" s="109" t="s">
-        <v>228</v>
       </c>
       <c r="AT10" s="33"/>
       <c r="AU10" s="33"/>
@@ -9792,159 +9810,159 @@
       <c r="BS10" s="33"/>
       <c r="BT10" s="33"/>
       <c r="BU10" s="33"/>
-      <c r="DM10" s="322" t="s">
-        <v>230</v>
-      </c>
-      <c r="DN10" s="323"/>
-      <c r="DO10" s="323"/>
-      <c r="DP10" s="323"/>
-      <c r="DQ10" s="323"/>
-      <c r="DR10" s="323"/>
-      <c r="DS10" s="323"/>
-      <c r="DT10" s="323"/>
-      <c r="DU10" s="323"/>
-      <c r="DV10" s="323"/>
-      <c r="DW10" s="323"/>
-      <c r="DX10" s="323"/>
-      <c r="DY10" s="323"/>
-      <c r="DZ10" s="323"/>
-      <c r="EA10" s="323"/>
-      <c r="EB10" s="323"/>
-      <c r="EC10" s="323"/>
-      <c r="ED10" s="323"/>
-      <c r="EE10" s="323"/>
-      <c r="EF10" s="323"/>
-      <c r="EG10" s="323"/>
-      <c r="EH10" s="323"/>
-      <c r="EI10" s="323"/>
-      <c r="EJ10" s="324"/>
+      <c r="DM10" s="243" t="s">
+        <v>229</v>
+      </c>
+      <c r="DN10" s="244"/>
+      <c r="DO10" s="244"/>
+      <c r="DP10" s="244"/>
+      <c r="DQ10" s="244"/>
+      <c r="DR10" s="244"/>
+      <c r="DS10" s="244"/>
+      <c r="DT10" s="244"/>
+      <c r="DU10" s="244"/>
+      <c r="DV10" s="244"/>
+      <c r="DW10" s="244"/>
+      <c r="DX10" s="244"/>
+      <c r="DY10" s="244"/>
+      <c r="DZ10" s="244"/>
+      <c r="EA10" s="244"/>
+      <c r="EB10" s="244"/>
+      <c r="EC10" s="244"/>
+      <c r="ED10" s="244"/>
+      <c r="EE10" s="244"/>
+      <c r="EF10" s="244"/>
+      <c r="EG10" s="244"/>
+      <c r="EH10" s="244"/>
+      <c r="EI10" s="244"/>
+      <c r="EJ10" s="245"/>
     </row>
     <row r="11" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="267"/>
-      <c r="B11" s="256"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="256"/>
+      <c r="A11" s="283"/>
+      <c r="B11" s="274"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="274"/>
       <c r="I11" s="154" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J11" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS11" s="318" t="s">
-        <v>314</v>
-      </c>
-      <c r="AT11" s="319"/>
-      <c r="AU11" s="319"/>
-      <c r="AV11" s="319"/>
-      <c r="AW11" s="319"/>
-      <c r="AX11" s="319"/>
-      <c r="AY11" s="319"/>
-      <c r="AZ11" s="319"/>
-      <c r="BA11" s="319"/>
-      <c r="BB11" s="319"/>
-      <c r="BC11" s="319"/>
-      <c r="BD11" s="319"/>
-      <c r="BE11" s="319"/>
-      <c r="BF11" s="319"/>
-      <c r="BG11" s="319"/>
-      <c r="BH11" s="319"/>
-      <c r="BI11" s="319"/>
-      <c r="BJ11" s="319"/>
-      <c r="BK11" s="319"/>
-      <c r="BL11" s="319"/>
-      <c r="BM11" s="319"/>
-      <c r="BN11" s="319"/>
-      <c r="BO11" s="319"/>
-      <c r="BP11" s="319"/>
-      <c r="BQ11" s="319"/>
-      <c r="BR11" s="319"/>
-      <c r="BS11" s="319"/>
-      <c r="BT11" s="319"/>
-      <c r="BU11" s="319"/>
-      <c r="BV11" s="319"/>
-      <c r="BW11" s="319"/>
-      <c r="BX11" s="319"/>
-      <c r="BY11" s="319"/>
-      <c r="BZ11" s="319"/>
-      <c r="CA11" s="319"/>
-      <c r="CB11" s="319"/>
-      <c r="CC11" s="319"/>
-      <c r="CD11" s="319"/>
-      <c r="CE11" s="319"/>
-      <c r="CF11" s="319"/>
-      <c r="CG11" s="319"/>
-      <c r="CH11" s="319"/>
-      <c r="CI11" s="319"/>
-      <c r="CJ11" s="319"/>
-      <c r="CK11" s="319"/>
-      <c r="CL11" s="319"/>
-      <c r="CM11" s="319"/>
-      <c r="CN11" s="319"/>
-      <c r="CO11" s="319"/>
-      <c r="CP11" s="319"/>
-      <c r="CQ11" s="319"/>
-      <c r="CR11" s="319"/>
-      <c r="CS11" s="319"/>
-      <c r="CT11" s="319"/>
-      <c r="CU11" s="319"/>
-      <c r="CV11" s="319"/>
-      <c r="CW11" s="319"/>
-      <c r="CX11" s="319"/>
-      <c r="CY11" s="319"/>
-      <c r="CZ11" s="319"/>
-      <c r="DA11" s="319"/>
-      <c r="DB11" s="319"/>
-      <c r="DC11" s="319"/>
-      <c r="DD11" s="319"/>
-      <c r="DE11" s="319"/>
-      <c r="DF11" s="319"/>
-      <c r="DG11" s="319"/>
-      <c r="DH11" s="319"/>
-      <c r="DI11" s="319"/>
-      <c r="DJ11" s="319"/>
-      <c r="DK11" s="319"/>
-      <c r="DL11" s="319"/>
-      <c r="DM11" s="320"/>
-      <c r="DN11" s="320"/>
-      <c r="DO11" s="320"/>
-      <c r="DP11" s="320"/>
-      <c r="DQ11" s="320"/>
-      <c r="DR11" s="320"/>
-      <c r="DS11" s="320"/>
-      <c r="DT11" s="320"/>
-      <c r="DU11" s="320"/>
-      <c r="DV11" s="320"/>
-      <c r="DW11" s="320"/>
-      <c r="DX11" s="320"/>
-      <c r="DY11" s="320"/>
-      <c r="DZ11" s="320"/>
-      <c r="EA11" s="321"/>
+        <v>228</v>
+      </c>
+      <c r="AS11" s="239" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT11" s="240"/>
+      <c r="AU11" s="240"/>
+      <c r="AV11" s="240"/>
+      <c r="AW11" s="240"/>
+      <c r="AX11" s="240"/>
+      <c r="AY11" s="240"/>
+      <c r="AZ11" s="240"/>
+      <c r="BA11" s="240"/>
+      <c r="BB11" s="240"/>
+      <c r="BC11" s="240"/>
+      <c r="BD11" s="240"/>
+      <c r="BE11" s="240"/>
+      <c r="BF11" s="240"/>
+      <c r="BG11" s="240"/>
+      <c r="BH11" s="240"/>
+      <c r="BI11" s="240"/>
+      <c r="BJ11" s="240"/>
+      <c r="BK11" s="240"/>
+      <c r="BL11" s="240"/>
+      <c r="BM11" s="240"/>
+      <c r="BN11" s="240"/>
+      <c r="BO11" s="240"/>
+      <c r="BP11" s="240"/>
+      <c r="BQ11" s="240"/>
+      <c r="BR11" s="240"/>
+      <c r="BS11" s="240"/>
+      <c r="BT11" s="240"/>
+      <c r="BU11" s="240"/>
+      <c r="BV11" s="240"/>
+      <c r="BW11" s="240"/>
+      <c r="BX11" s="240"/>
+      <c r="BY11" s="240"/>
+      <c r="BZ11" s="240"/>
+      <c r="CA11" s="240"/>
+      <c r="CB11" s="240"/>
+      <c r="CC11" s="240"/>
+      <c r="CD11" s="240"/>
+      <c r="CE11" s="240"/>
+      <c r="CF11" s="240"/>
+      <c r="CG11" s="240"/>
+      <c r="CH11" s="240"/>
+      <c r="CI11" s="240"/>
+      <c r="CJ11" s="240"/>
+      <c r="CK11" s="240"/>
+      <c r="CL11" s="240"/>
+      <c r="CM11" s="240"/>
+      <c r="CN11" s="240"/>
+      <c r="CO11" s="240"/>
+      <c r="CP11" s="240"/>
+      <c r="CQ11" s="240"/>
+      <c r="CR11" s="240"/>
+      <c r="CS11" s="240"/>
+      <c r="CT11" s="240"/>
+      <c r="CU11" s="240"/>
+      <c r="CV11" s="240"/>
+      <c r="CW11" s="240"/>
+      <c r="CX11" s="240"/>
+      <c r="CY11" s="240"/>
+      <c r="CZ11" s="240"/>
+      <c r="DA11" s="240"/>
+      <c r="DB11" s="240"/>
+      <c r="DC11" s="240"/>
+      <c r="DD11" s="240"/>
+      <c r="DE11" s="240"/>
+      <c r="DF11" s="240"/>
+      <c r="DG11" s="240"/>
+      <c r="DH11" s="240"/>
+      <c r="DI11" s="240"/>
+      <c r="DJ11" s="240"/>
+      <c r="DK11" s="240"/>
+      <c r="DL11" s="240"/>
+      <c r="DM11" s="241"/>
+      <c r="DN11" s="241"/>
+      <c r="DO11" s="241"/>
+      <c r="DP11" s="241"/>
+      <c r="DQ11" s="241"/>
+      <c r="DR11" s="241"/>
+      <c r="DS11" s="241"/>
+      <c r="DT11" s="241"/>
+      <c r="DU11" s="241"/>
+      <c r="DV11" s="241"/>
+      <c r="DW11" s="241"/>
+      <c r="DX11" s="241"/>
+      <c r="DY11" s="241"/>
+      <c r="DZ11" s="241"/>
+      <c r="EA11" s="242"/>
     </row>
     <row r="12" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="B12" s="274"/>
       <c r="D12" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E12" s="274"/>
       <c r="I12" s="207" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="B13" s="274"/>
       <c r="D13" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E13" s="274"/>
       <c r="I13" s="112" t="s">
         <v>183</v>
       </c>
@@ -9954,13 +9972,13 @@
     </row>
     <row r="14" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="B14" s="274"/>
       <c r="D14" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E14" s="274"/>
       <c r="I14" s="113" t="s">
         <v>184</v>
       </c>
@@ -9970,66 +9988,66 @@
     </row>
     <row r="15" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="256"/>
+      <c r="B15" s="274"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="256"/>
+      <c r="E15" s="274"/>
       <c r="I15" s="222" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N15" s="221"/>
-      <c r="DM15" s="314" t="s">
-        <v>327</v>
-      </c>
-      <c r="DN15" s="314"/>
+      <c r="DM15" s="231" t="s">
+        <v>324</v>
+      </c>
+      <c r="DN15" s="231"/>
     </row>
     <row r="16" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252"/>
-      <c r="B16" s="256"/>
-      <c r="D16" s="252"/>
-      <c r="E16" s="256"/>
+      <c r="A16" s="284"/>
+      <c r="B16" s="274"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="274"/>
       <c r="I16" s="115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J16" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="DM16" s="314" t="s">
-        <v>326</v>
-      </c>
-      <c r="DN16" s="314"/>
+      <c r="DM16" s="231" t="s">
+        <v>323</v>
+      </c>
+      <c r="DN16" s="231"/>
     </row>
     <row r="17" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253"/>
-      <c r="B17" s="256"/>
-      <c r="D17" s="253"/>
-      <c r="E17" s="256"/>
+      <c r="A17" s="282"/>
+      <c r="B17" s="274"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="274"/>
       <c r="I17" s="110" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J17" s="109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="253"/>
-      <c r="B18" s="256"/>
-      <c r="D18" s="253"/>
-      <c r="E18" s="256"/>
+      <c r="A18" s="282"/>
+      <c r="B18" s="274"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="274"/>
       <c r="I18" s="219" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J18" s="109" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="267"/>
-      <c r="B19" s="256"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="256"/>
+      <c r="A19" s="283"/>
+      <c r="B19" s="274"/>
+      <c r="D19" s="283"/>
+      <c r="E19" s="274"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -10038,22 +10056,22 @@
       </c>
     </row>
     <row r="20" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="253"/>
-      <c r="B20" s="256"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="256"/>
+      <c r="A20" s="282"/>
+      <c r="B20" s="274"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="274"/>
       <c r="I20" s="203" t="s">
         <v>114</v>
       </c>
       <c r="J20" s="204" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="253"/>
-      <c r="B21" s="256"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="256"/>
+      <c r="A21" s="282"/>
+      <c r="B21" s="274"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="274"/>
       <c r="I21" s="220" t="s">
         <v>116</v>
       </c>
@@ -10062,25 +10080,25 @@
       </c>
     </row>
     <row r="22" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="253"/>
-      <c r="B22" s="256"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="256"/>
+      <c r="A22" s="282"/>
+      <c r="B22" s="274"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="274"/>
     </row>
     <row r="23" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="267"/>
-      <c r="B23" s="256"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="256"/>
+      <c r="A23" s="283"/>
+      <c r="B23" s="274"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="274"/>
     </row>
     <row r="24" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="252" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="256"/>
+      <c r="A24" s="284" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="274"/>
+      <c r="C24" s="320"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="274"/>
       <c r="G24" s="156"/>
       <c r="H24" s="157"/>
       <c r="I24" s="157"/>
@@ -10142,8 +10160,8 @@
       <c r="BM24" s="157"/>
       <c r="BN24" s="157"/>
       <c r="BO24" s="157"/>
-      <c r="BP24" s="291" t="s">
-        <v>313</v>
+      <c r="BP24" s="323" t="s">
+        <v>504</v>
       </c>
       <c r="BQ24" s="157"/>
       <c r="BR24" s="157"/>
@@ -10226,11 +10244,11 @@
       <c r="EQ24" s="16"/>
     </row>
     <row r="25" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="253"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="256"/>
+      <c r="A25" s="282"/>
+      <c r="B25" s="274"/>
+      <c r="C25" s="320"/>
+      <c r="D25" s="282"/>
+      <c r="E25" s="274"/>
       <c r="G25" s="158"/>
       <c r="H25" s="159"/>
       <c r="I25" s="159"/>
@@ -10292,7 +10310,7 @@
       <c r="BM25" s="159"/>
       <c r="BN25" s="159"/>
       <c r="BO25" s="159"/>
-      <c r="BP25" s="292"/>
+      <c r="BP25" s="324"/>
       <c r="BQ25" s="159"/>
       <c r="BR25" s="159"/>
       <c r="BS25" s="159"/>
@@ -10374,11 +10392,11 @@
       <c r="EQ25" s="160"/>
     </row>
     <row r="26" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="253"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="256"/>
+      <c r="A26" s="282"/>
+      <c r="B26" s="274"/>
+      <c r="C26" s="320"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="274"/>
       <c r="G26" s="158"/>
       <c r="H26" s="159"/>
       <c r="I26" s="159"/>
@@ -10440,7 +10458,7 @@
       <c r="BM26" s="159"/>
       <c r="BN26" s="159"/>
       <c r="BO26" s="159"/>
-      <c r="BP26" s="292"/>
+      <c r="BP26" s="324"/>
       <c r="BQ26" s="159"/>
       <c r="BR26" s="159"/>
       <c r="BS26" s="159"/>
@@ -10522,11 +10540,11 @@
       <c r="EQ26" s="160"/>
     </row>
     <row r="27" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="254"/>
-      <c r="B27" s="257"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="253"/>
-      <c r="E27" s="256"/>
+      <c r="A27" s="291"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="320"/>
+      <c r="D27" s="282"/>
+      <c r="E27" s="274"/>
       <c r="G27" s="13"/>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -10588,7 +10606,7 @@
       <c r="BM27" s="123"/>
       <c r="BN27" s="123"/>
       <c r="BO27" s="123"/>
-      <c r="BP27" s="293"/>
+      <c r="BP27" s="325"/>
       <c r="BQ27" s="123"/>
       <c r="BR27" s="123"/>
       <c r="BS27" s="123"/>
@@ -10670,16 +10688,16 @@
       <c r="EQ27" s="124"/>
     </row>
     <row r="28" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="269" t="s">
-        <v>311</v>
-      </c>
-      <c r="B28" s="261" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="252"/>
-      <c r="E28" s="256"/>
-      <c r="G28" s="294" t="s">
-        <v>332</v>
+      <c r="A28" s="276" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="307" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="284"/>
+      <c r="E28" s="274"/>
+      <c r="G28" s="272" t="s">
+        <v>329</v>
       </c>
       <c r="H28" s="156"/>
       <c r="I28" s="157"/>
@@ -10823,11 +10841,11 @@
       <c r="EQ28" s="16"/>
     </row>
     <row r="29" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="259"/>
-      <c r="B29" s="262"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="256"/>
-      <c r="G29" s="294"/>
+      <c r="A29" s="277"/>
+      <c r="B29" s="308"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="274"/>
+      <c r="G29" s="272"/>
       <c r="H29" s="158"/>
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
@@ -10970,11 +10988,11 @@
       <c r="EQ29" s="160"/>
     </row>
     <row r="30" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="259"/>
-      <c r="B30" s="262"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="256"/>
-      <c r="G30" s="294"/>
+      <c r="A30" s="277"/>
+      <c r="B30" s="308"/>
+      <c r="D30" s="282"/>
+      <c r="E30" s="274"/>
+      <c r="G30" s="272"/>
       <c r="H30" s="158"/>
       <c r="I30" s="159"/>
       <c r="J30" s="159"/>
@@ -11117,11 +11135,11 @@
       <c r="EQ30" s="160"/>
     </row>
     <row r="31" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="270"/>
-      <c r="B31" s="262"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="256"/>
-      <c r="G31" s="294"/>
+      <c r="A31" s="280"/>
+      <c r="B31" s="308"/>
+      <c r="D31" s="283"/>
+      <c r="E31" s="274"/>
+      <c r="G31" s="272"/>
       <c r="H31" s="13"/>
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
@@ -11265,15 +11283,15 @@
     </row>
     <row r="32" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="178" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B32" s="308"/>
       <c r="D32" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E32" s="274"/>
       <c r="G32" s="193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H32" s="157"/>
       <c r="I32" s="157"/>
@@ -11418,15 +11436,15 @@
     </row>
     <row r="33" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B33" s="308"/>
       <c r="D33" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E33" s="274"/>
       <c r="G33" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H33" s="159"/>
       <c r="I33" s="159"/>
@@ -11571,15 +11589,15 @@
     </row>
     <row r="34" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B34" s="308"/>
       <c r="D34" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E34" s="274"/>
       <c r="G34" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H34" s="159"/>
       <c r="I34" s="159"/>
@@ -11724,9 +11742,9 @@
     </row>
     <row r="35" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="262"/>
+      <c r="B35" s="308"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="256"/>
+      <c r="E35" s="274"/>
       <c r="G35" s="192"/>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
@@ -11870,10 +11888,10 @@
       <c r="EQ35" s="124"/>
     </row>
     <row r="36" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="258"/>
-      <c r="B36" s="262"/>
+      <c r="A36" s="279"/>
+      <c r="B36" s="308"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="256"/>
+      <c r="E36" s="274"/>
       <c r="G36" s="87"/>
       <c r="H36" s="157"/>
       <c r="I36" s="157"/>
@@ -12017,10 +12035,10 @@
       <c r="EQ36" s="16"/>
     </row>
     <row r="37" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="259"/>
-      <c r="B37" s="262"/>
+      <c r="A37" s="277"/>
+      <c r="B37" s="308"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="256"/>
+      <c r="E37" s="274"/>
       <c r="G37" s="191"/>
       <c r="H37" s="159"/>
       <c r="I37" s="159"/>
@@ -12164,10 +12182,10 @@
       <c r="EQ37" s="160"/>
     </row>
     <row r="38" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="259"/>
-      <c r="B38" s="262"/>
+      <c r="A38" s="277"/>
+      <c r="B38" s="308"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="256"/>
+      <c r="E38" s="274"/>
       <c r="G38" s="191"/>
       <c r="H38" s="159"/>
       <c r="I38" s="159"/>
@@ -12311,10 +12329,10 @@
       <c r="EQ38" s="160"/>
     </row>
     <row r="39" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="260"/>
-      <c r="B39" s="263"/>
+      <c r="A39" s="287"/>
+      <c r="B39" s="309"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="256"/>
+      <c r="E39" s="274"/>
       <c r="G39" s="191"/>
       <c r="H39" s="123"/>
       <c r="I39" s="123"/>
@@ -12458,50 +12476,50 @@
       <c r="EQ39" s="124"/>
     </row>
     <row r="40" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264"/>
-      <c r="B40" s="248" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="271"/>
-      <c r="E40" s="256"/>
+      <c r="A40" s="321"/>
+      <c r="B40" s="304" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="288"/>
+      <c r="E40" s="274"/>
       <c r="G40" s="87"/>
       <c r="EQ40" s="16"/>
     </row>
     <row r="41" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265"/>
-      <c r="B41" s="249"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="256"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="305"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="274"/>
       <c r="G41" s="191"/>
       <c r="EQ41" s="160"/>
     </row>
     <row r="42" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="265"/>
-      <c r="B42" s="249"/>
-      <c r="D42" s="272"/>
-      <c r="E42" s="256"/>
+      <c r="A42" s="302"/>
+      <c r="B42" s="305"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="274"/>
       <c r="G42" s="191"/>
       <c r="EQ42" s="160"/>
     </row>
     <row r="43" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="266"/>
-      <c r="B43" s="249"/>
-      <c r="D43" s="273"/>
-      <c r="E43" s="256"/>
+      <c r="A43" s="322"/>
+      <c r="B43" s="305"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="274"/>
       <c r="G43" s="191"/>
       <c r="EQ43" s="160"/>
     </row>
     <row r="44" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="181" t="s">
-        <v>268</v>
-      </c>
-      <c r="B44" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B44" s="305"/>
       <c r="D44" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E44" s="274"/>
       <c r="G44" s="193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H44" s="157"/>
       <c r="I44" s="157"/>
@@ -12646,15 +12664,15 @@
     </row>
     <row r="45" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B45" s="305"/>
       <c r="D45" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E45" s="274"/>
       <c r="G45" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H45" s="159"/>
       <c r="I45" s="159"/>
@@ -12799,15 +12817,15 @@
     </row>
     <row r="46" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B46" s="305"/>
       <c r="D46" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E46" s="274"/>
       <c r="G46" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H46" s="159"/>
       <c r="I46" s="159"/>
@@ -12952,9 +12970,9 @@
     </row>
     <row r="47" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="249"/>
+      <c r="B47" s="305"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="256"/>
+      <c r="E47" s="274"/>
       <c r="G47" s="192"/>
       <c r="H47" s="123"/>
       <c r="I47" s="123"/>
@@ -13098,53 +13116,53 @@
       <c r="EQ47" s="124"/>
     </row>
     <row r="48" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="276" t="s">
-        <v>334</v>
-      </c>
-      <c r="B48" s="249"/>
-      <c r="D48" s="252" t="s">
-        <v>334</v>
-      </c>
-      <c r="E48" s="256"/>
+      <c r="A48" s="294" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="305"/>
+      <c r="D48" s="284" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="274"/>
       <c r="G48" s="87"/>
       <c r="EQ48" s="160"/>
     </row>
     <row r="49" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="276"/>
-      <c r="B49" s="249"/>
-      <c r="D49" s="253"/>
-      <c r="E49" s="256"/>
+      <c r="A49" s="294"/>
+      <c r="B49" s="305"/>
+      <c r="D49" s="282"/>
+      <c r="E49" s="274"/>
       <c r="G49" s="158"/>
       <c r="EQ49" s="160"/>
     </row>
     <row r="50" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="276"/>
-      <c r="B50" s="249"/>
-      <c r="D50" s="253"/>
-      <c r="E50" s="256"/>
+      <c r="A50" s="294"/>
+      <c r="B50" s="305"/>
+      <c r="D50" s="282"/>
+      <c r="E50" s="274"/>
       <c r="G50" s="158"/>
       <c r="EQ50" s="160"/>
     </row>
     <row r="51" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="277"/>
-      <c r="B51" s="250"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="257"/>
+      <c r="A51" s="295"/>
+      <c r="B51" s="306"/>
+      <c r="D51" s="283"/>
+      <c r="E51" s="275"/>
       <c r="G51" s="13"/>
       <c r="EQ51" s="160"/>
     </row>
     <row r="52" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="285" t="s">
-        <v>328</v>
-      </c>
-      <c r="B52" s="279" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" s="253" t="s">
-        <v>328</v>
-      </c>
-      <c r="E52" s="302" t="s">
-        <v>269</v>
+      <c r="A52" s="310" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" s="297" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="282" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" s="267" t="s">
+        <v>268</v>
       </c>
       <c r="G52" s="156"/>
       <c r="H52" s="157"/>
@@ -13213,7 +13231,7 @@
       <c r="BS52" s="157"/>
       <c r="BT52" s="157"/>
       <c r="BU52" s="157"/>
-      <c r="BV52" s="299"/>
+      <c r="BV52" s="264"/>
       <c r="BW52" s="164"/>
       <c r="BX52" s="164"/>
       <c r="BY52" s="164"/>
@@ -13289,10 +13307,10 @@
       <c r="EQ52" s="165"/>
     </row>
     <row r="53" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="286"/>
-      <c r="B53" s="280"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="303"/>
+      <c r="A53" s="311"/>
+      <c r="B53" s="298"/>
+      <c r="D53" s="282"/>
+      <c r="E53" s="268"/>
       <c r="G53" s="158"/>
       <c r="H53" s="159"/>
       <c r="I53" s="159"/>
@@ -13360,7 +13378,7 @@
       <c r="BS53" s="159"/>
       <c r="BT53" s="159"/>
       <c r="BU53" s="159"/>
-      <c r="BV53" s="300"/>
+      <c r="BV53" s="265"/>
       <c r="BW53" s="166"/>
       <c r="BX53" s="166"/>
       <c r="BY53" s="166"/>
@@ -13436,10 +13454,10 @@
       <c r="EQ53" s="167"/>
     </row>
     <row r="54" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="286"/>
-      <c r="B54" s="280"/>
-      <c r="D54" s="253"/>
-      <c r="E54" s="303"/>
+      <c r="A54" s="311"/>
+      <c r="B54" s="298"/>
+      <c r="D54" s="282"/>
+      <c r="E54" s="268"/>
       <c r="G54" s="158"/>
       <c r="H54" s="159"/>
       <c r="I54" s="159"/>
@@ -13507,7 +13525,7 @@
       <c r="BS54" s="159"/>
       <c r="BT54" s="159"/>
       <c r="BU54" s="159"/>
-      <c r="BV54" s="300"/>
+      <c r="BV54" s="265"/>
       <c r="BW54" s="166"/>
       <c r="BX54" s="166"/>
       <c r="BY54" s="166"/>
@@ -13583,10 +13601,10 @@
       <c r="EQ54" s="167"/>
     </row>
     <row r="55" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="286"/>
-      <c r="B55" s="280"/>
-      <c r="D55" s="267"/>
-      <c r="E55" s="303"/>
+      <c r="A55" s="311"/>
+      <c r="B55" s="298"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="268"/>
       <c r="G55" s="13"/>
       <c r="H55" s="123"/>
       <c r="I55" s="123"/>
@@ -13654,7 +13672,7 @@
       <c r="BS55" s="123"/>
       <c r="BT55" s="123"/>
       <c r="BU55" s="123"/>
-      <c r="BV55" s="301"/>
+      <c r="BV55" s="266"/>
       <c r="BW55" s="168"/>
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
@@ -13730,14 +13748,14 @@
       <c r="EQ55" s="169"/>
     </row>
     <row r="56" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="287" t="s">
-        <v>329</v>
-      </c>
-      <c r="B56" s="280"/>
-      <c r="D56" s="252" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="303"/>
+      <c r="A56" s="312" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="298"/>
+      <c r="D56" s="284" t="s">
+        <v>326</v>
+      </c>
+      <c r="E56" s="268"/>
       <c r="G56" s="170"/>
       <c r="H56" s="164"/>
       <c r="I56" s="164"/>
@@ -13881,10 +13899,10 @@
       <c r="EQ56" s="165"/>
     </row>
     <row r="57" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="288"/>
-      <c r="B57" s="280"/>
-      <c r="D57" s="253"/>
-      <c r="E57" s="303"/>
+      <c r="A57" s="313"/>
+      <c r="B57" s="298"/>
+      <c r="D57" s="282"/>
+      <c r="E57" s="268"/>
       <c r="G57" s="171"/>
       <c r="H57" s="166"/>
       <c r="I57" s="166"/>
@@ -14028,10 +14046,10 @@
       <c r="EQ57" s="167"/>
     </row>
     <row r="58" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="288"/>
-      <c r="B58" s="280"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="303"/>
+      <c r="A58" s="313"/>
+      <c r="B58" s="298"/>
+      <c r="D58" s="282"/>
+      <c r="E58" s="268"/>
       <c r="G58" s="171"/>
       <c r="H58" s="166"/>
       <c r="I58" s="166"/>
@@ -14175,10 +14193,10 @@
       <c r="EQ58" s="167"/>
     </row>
     <row r="59" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="290"/>
-      <c r="B59" s="280"/>
-      <c r="D59" s="267"/>
-      <c r="E59" s="303"/>
+      <c r="A59" s="315"/>
+      <c r="B59" s="298"/>
+      <c r="D59" s="283"/>
+      <c r="E59" s="268"/>
       <c r="G59" s="172"/>
       <c r="H59" s="168"/>
       <c r="I59" s="168"/>
@@ -14322,14 +14340,14 @@
       <c r="EQ59" s="169"/>
     </row>
     <row r="60" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="287" t="s">
-        <v>310</v>
-      </c>
-      <c r="B60" s="280"/>
-      <c r="D60" s="252" t="s">
-        <v>310</v>
-      </c>
-      <c r="E60" s="303"/>
+      <c r="A60" s="312" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60" s="298"/>
+      <c r="D60" s="284" t="s">
+        <v>308</v>
+      </c>
+      <c r="E60" s="268"/>
       <c r="G60" s="170"/>
       <c r="H60" s="164"/>
       <c r="I60" s="164"/>
@@ -14396,7 +14414,7 @@
       <c r="BR60" s="164"/>
       <c r="BS60" s="164"/>
       <c r="BT60" s="164"/>
-      <c r="BU60" s="299"/>
+      <c r="BU60" s="264"/>
       <c r="BV60" s="157"/>
       <c r="BW60" s="157"/>
       <c r="BX60" s="157"/>
@@ -14473,10 +14491,10 @@
       <c r="EQ60" s="16"/>
     </row>
     <row r="61" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="288"/>
-      <c r="B61" s="280"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="303"/>
+      <c r="A61" s="313"/>
+      <c r="B61" s="298"/>
+      <c r="D61" s="282"/>
+      <c r="E61" s="268"/>
       <c r="G61" s="171"/>
       <c r="H61" s="166"/>
       <c r="I61" s="166"/>
@@ -14543,7 +14561,7 @@
       <c r="BR61" s="166"/>
       <c r="BS61" s="166"/>
       <c r="BT61" s="166"/>
-      <c r="BU61" s="300"/>
+      <c r="BU61" s="265"/>
       <c r="BV61" s="159"/>
       <c r="BW61" s="159"/>
       <c r="BX61" s="159"/>
@@ -14620,10 +14638,10 @@
       <c r="EQ61" s="160"/>
     </row>
     <row r="62" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="288"/>
-      <c r="B62" s="280"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="303"/>
+      <c r="A62" s="313"/>
+      <c r="B62" s="298"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="268"/>
       <c r="G62" s="171"/>
       <c r="H62" s="166"/>
       <c r="I62" s="166"/>
@@ -14690,7 +14708,7 @@
       <c r="BR62" s="166"/>
       <c r="BS62" s="166"/>
       <c r="BT62" s="166"/>
-      <c r="BU62" s="300"/>
+      <c r="BU62" s="265"/>
       <c r="BV62" s="159"/>
       <c r="BW62" s="159"/>
       <c r="BX62" s="159"/>
@@ -14767,10 +14785,10 @@
       <c r="EQ62" s="160"/>
     </row>
     <row r="63" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="289"/>
-      <c r="B63" s="281"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="304"/>
+      <c r="A63" s="314"/>
+      <c r="B63" s="299"/>
+      <c r="D63" s="291"/>
+      <c r="E63" s="269"/>
       <c r="G63" s="172"/>
       <c r="H63" s="168"/>
       <c r="I63" s="168"/>
@@ -14837,7 +14855,7 @@
       <c r="BR63" s="168"/>
       <c r="BS63" s="168"/>
       <c r="BT63" s="168"/>
-      <c r="BU63" s="301"/>
+      <c r="BU63" s="266"/>
       <c r="BV63" s="123"/>
       <c r="BW63" s="123"/>
       <c r="BX63" s="123"/>
@@ -14914,18 +14932,18 @@
       <c r="EQ63" s="124"/>
     </row>
     <row r="64" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="282" t="s">
-        <v>309</v>
-      </c>
-      <c r="B64" s="248" t="s">
-        <v>271</v>
-      </c>
-      <c r="D64" s="274" t="s">
-        <v>309</v>
+      <c r="A64" s="300" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="304" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="292" t="s">
+        <v>307</v>
       </c>
       <c r="E64" s="187"/>
-      <c r="G64" s="294" t="s">
-        <v>333</v>
+      <c r="G64" s="272" t="s">
+        <v>330</v>
       </c>
       <c r="H64" s="156"/>
       <c r="I64" s="157"/>
@@ -15069,11 +15087,11 @@
       <c r="EQ64" s="16"/>
     </row>
     <row r="65" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="276"/>
-      <c r="B65" s="249"/>
-      <c r="D65" s="275"/>
+      <c r="A65" s="294"/>
+      <c r="B65" s="305"/>
+      <c r="D65" s="293"/>
       <c r="E65" s="188"/>
-      <c r="G65" s="294"/>
+      <c r="G65" s="272"/>
       <c r="H65" s="158"/>
       <c r="I65" s="159"/>
       <c r="J65" s="159"/>
@@ -15216,11 +15234,11 @@
       <c r="EQ65" s="160"/>
     </row>
     <row r="66" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="276"/>
-      <c r="B66" s="249"/>
-      <c r="D66" s="275"/>
+      <c r="A66" s="294"/>
+      <c r="B66" s="305"/>
+      <c r="D66" s="293"/>
       <c r="E66" s="188"/>
-      <c r="G66" s="294"/>
+      <c r="G66" s="272"/>
       <c r="H66" s="158"/>
       <c r="I66" s="159"/>
       <c r="J66" s="159"/>
@@ -15363,11 +15381,11 @@
       <c r="EQ66" s="160"/>
     </row>
     <row r="67" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="276"/>
-      <c r="B67" s="249"/>
-      <c r="D67" s="275"/>
+      <c r="A67" s="294"/>
+      <c r="B67" s="305"/>
+      <c r="D67" s="293"/>
       <c r="E67" s="188"/>
-      <c r="G67" s="294"/>
+      <c r="G67" s="272"/>
       <c r="H67" s="13"/>
       <c r="I67" s="123"/>
       <c r="J67" s="123"/>
@@ -15511,59 +15529,59 @@
     </row>
     <row r="68" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="181" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B68" s="305"/>
       <c r="D68" s="184" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E68" s="188"/>
       <c r="G68" s="193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="EQ68" s="160"/>
     </row>
     <row r="69" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B69" s="305"/>
       <c r="D69" s="185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E69" s="188"/>
       <c r="G69" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="EQ69" s="160"/>
     </row>
     <row r="70" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B70" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B70" s="305"/>
       <c r="D70" s="185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E70" s="188"/>
       <c r="G70" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="EQ70" s="160"/>
     </row>
     <row r="71" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="249"/>
+      <c r="B71" s="305"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
       <c r="G71" s="192"/>
       <c r="EQ71" s="124"/>
     </row>
     <row r="72" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="283"/>
-      <c r="B72" s="249"/>
-      <c r="D72" s="275" t="s">
-        <v>330</v>
+      <c r="A72" s="301"/>
+      <c r="B72" s="305"/>
+      <c r="D72" s="293" t="s">
+        <v>327</v>
       </c>
       <c r="E72" s="188"/>
       <c r="G72" s="87"/>
@@ -15709,9 +15727,9 @@
       <c r="EQ72" s="16"/>
     </row>
     <row r="73" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="265"/>
-      <c r="B73" s="249"/>
-      <c r="D73" s="275"/>
+      <c r="A73" s="302"/>
+      <c r="B73" s="305"/>
+      <c r="D73" s="293"/>
       <c r="E73" s="188"/>
       <c r="G73" s="191"/>
       <c r="H73" s="159"/>
@@ -15856,9 +15874,9 @@
       <c r="EQ73" s="160"/>
     </row>
     <row r="74" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="265"/>
-      <c r="B74" s="249"/>
-      <c r="D74" s="275"/>
+      <c r="A74" s="302"/>
+      <c r="B74" s="305"/>
+      <c r="D74" s="293"/>
       <c r="E74" s="188"/>
       <c r="G74" s="191"/>
       <c r="H74" s="159"/>
@@ -16003,9 +16021,9 @@
       <c r="EQ74" s="160"/>
     </row>
     <row r="75" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="284"/>
-      <c r="B75" s="250"/>
-      <c r="D75" s="278"/>
+      <c r="A75" s="303"/>
+      <c r="B75" s="306"/>
+      <c r="D75" s="296"/>
       <c r="E75" s="189"/>
       <c r="G75" s="191"/>
       <c r="H75" s="123"/>
@@ -16150,12 +16168,12 @@
       <c r="EQ75" s="124"/>
     </row>
     <row r="76" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="269"/>
-      <c r="B76" s="261" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="297" t="s">
-        <v>331</v>
+      <c r="A76" s="276"/>
+      <c r="B76" s="307" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="285" t="s">
+        <v>328</v>
       </c>
       <c r="E76" s="187"/>
       <c r="G76" s="87"/>
@@ -16301,9 +16319,9 @@
       <c r="EQ76" s="16"/>
     </row>
     <row r="77" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="259"/>
-      <c r="B77" s="262"/>
-      <c r="D77" s="298"/>
+      <c r="A77" s="277"/>
+      <c r="B77" s="308"/>
+      <c r="D77" s="286"/>
       <c r="E77" s="188"/>
       <c r="G77" s="191"/>
       <c r="H77" s="159"/>
@@ -16448,9 +16466,9 @@
       <c r="EQ77" s="160"/>
     </row>
     <row r="78" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="259"/>
-      <c r="B78" s="262"/>
-      <c r="D78" s="298"/>
+      <c r="A78" s="277"/>
+      <c r="B78" s="308"/>
+      <c r="D78" s="286"/>
       <c r="E78" s="188"/>
       <c r="G78" s="191"/>
       <c r="H78" s="159"/>
@@ -16595,9 +16613,9 @@
       <c r="EQ78" s="160"/>
     </row>
     <row r="79" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="259"/>
-      <c r="B79" s="262"/>
-      <c r="D79" s="298"/>
+      <c r="A79" s="277"/>
+      <c r="B79" s="308"/>
+      <c r="D79" s="286"/>
       <c r="E79" s="188"/>
       <c r="G79" s="191"/>
       <c r="H79" s="123"/>
@@ -16743,16 +16761,16 @@
     </row>
     <row r="80" spans="1:147" s="152" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="178" t="s">
-        <v>268</v>
-      </c>
-      <c r="B80" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B80" s="308"/>
       <c r="C80" s="126"/>
       <c r="D80" s="178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E80" s="188"/>
       <c r="G80" s="193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H80" s="157"/>
       <c r="I80" s="157"/>
@@ -16897,16 +16915,16 @@
     </row>
     <row r="81" spans="1:147" s="152" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B81" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B81" s="308"/>
       <c r="C81" s="126"/>
       <c r="D81" s="179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E81" s="188"/>
       <c r="G81" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H81" s="159"/>
       <c r="I81" s="159"/>
@@ -17051,16 +17069,16 @@
     </row>
     <row r="82" spans="1:147" s="152" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B82" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B82" s="308"/>
       <c r="C82" s="126"/>
       <c r="D82" s="179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E82" s="188"/>
       <c r="G82" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H82" s="159"/>
       <c r="I82" s="159"/>
@@ -17205,7 +17223,7 @@
     </row>
     <row r="83" spans="1:147" s="152" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="262"/>
+      <c r="B83" s="308"/>
       <c r="C83" s="126"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
@@ -17352,9 +17370,9 @@
       <c r="EQ83" s="124"/>
     </row>
     <row r="84" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="258"/>
-      <c r="B84" s="262"/>
-      <c r="D84" s="258"/>
+      <c r="A84" s="279"/>
+      <c r="B84" s="308"/>
+      <c r="D84" s="279"/>
       <c r="E84" s="188"/>
       <c r="G84" s="156"/>
       <c r="H84" s="157"/>
@@ -17417,8 +17435,8 @@
       <c r="BM84" s="157"/>
       <c r="BN84" s="157"/>
       <c r="BO84" s="157"/>
-      <c r="BP84" s="295" t="s">
-        <v>307</v>
+      <c r="BP84" s="248" t="s">
+        <v>505</v>
       </c>
       <c r="BQ84" s="157"/>
       <c r="BR84" s="157"/>
@@ -17501,9 +17519,9 @@
       <c r="EQ84" s="16"/>
     </row>
     <row r="85" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="259"/>
-      <c r="B85" s="262"/>
-      <c r="D85" s="259"/>
+      <c r="A85" s="277"/>
+      <c r="B85" s="308"/>
+      <c r="D85" s="277"/>
       <c r="E85" s="188"/>
       <c r="G85" s="158"/>
       <c r="H85" s="159"/>
@@ -17566,7 +17584,7 @@
       <c r="BM85" s="159"/>
       <c r="BN85" s="159"/>
       <c r="BO85" s="159"/>
-      <c r="BP85" s="296"/>
+      <c r="BP85" s="278"/>
       <c r="BQ85" s="159"/>
       <c r="BR85" s="159"/>
       <c r="BS85" s="159"/>
@@ -17648,9 +17666,9 @@
       <c r="EQ85" s="160"/>
     </row>
     <row r="86" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="259"/>
-      <c r="B86" s="262"/>
-      <c r="D86" s="259"/>
+      <c r="A86" s="277"/>
+      <c r="B86" s="308"/>
+      <c r="D86" s="277"/>
       <c r="E86" s="188"/>
       <c r="G86" s="158"/>
       <c r="H86" s="159"/>
@@ -17713,7 +17731,7 @@
       <c r="BM86" s="159"/>
       <c r="BN86" s="159"/>
       <c r="BO86" s="159"/>
-      <c r="BP86" s="296"/>
+      <c r="BP86" s="278"/>
       <c r="BQ86" s="159"/>
       <c r="BR86" s="159"/>
       <c r="BS86" s="159"/>
@@ -17795,9 +17813,9 @@
       <c r="EQ86" s="160"/>
     </row>
     <row r="87" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="270"/>
-      <c r="B87" s="262"/>
-      <c r="D87" s="270"/>
+      <c r="A87" s="280"/>
+      <c r="B87" s="308"/>
+      <c r="D87" s="280"/>
       <c r="E87" s="188"/>
       <c r="G87" s="13"/>
       <c r="H87" s="123"/>
@@ -17860,7 +17878,7 @@
       <c r="BM87" s="123"/>
       <c r="BN87" s="123"/>
       <c r="BO87" s="123"/>
-      <c r="BP87" s="296"/>
+      <c r="BP87" s="278"/>
       <c r="BQ87" s="123"/>
       <c r="BR87" s="123"/>
       <c r="BS87" s="123"/>
@@ -17942,12 +17960,12 @@
       <c r="EQ87" s="124"/>
     </row>
     <row r="88" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="258" t="s">
-        <v>308</v>
-      </c>
-      <c r="B88" s="262"/>
-      <c r="D88" s="258" t="s">
-        <v>308</v>
+      <c r="A88" s="279" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" s="308"/>
+      <c r="D88" s="279" t="s">
+        <v>306</v>
       </c>
       <c r="E88" s="188"/>
       <c r="G88" s="156"/>
@@ -18038,8 +18056,8 @@
       <c r="CN88" s="157"/>
       <c r="CO88" s="157"/>
       <c r="CP88" s="157"/>
-      <c r="CQ88" s="311" t="s">
-        <v>306</v>
+      <c r="CQ88" s="228" t="s">
+        <v>305</v>
       </c>
       <c r="CR88" s="157"/>
       <c r="CS88" s="157"/>
@@ -18095,9 +18113,9 @@
       <c r="EQ88" s="16"/>
     </row>
     <row r="89" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="259"/>
-      <c r="B89" s="262"/>
-      <c r="D89" s="259"/>
+      <c r="A89" s="277"/>
+      <c r="B89" s="308"/>
+      <c r="D89" s="277"/>
       <c r="E89" s="188"/>
       <c r="G89" s="158"/>
       <c r="H89" s="159"/>
@@ -18166,13 +18184,13 @@
       <c r="BT89" s="159"/>
       <c r="BU89" s="159"/>
       <c r="BV89" s="159"/>
-      <c r="CQ89" s="312"/>
+      <c r="CQ89" s="229"/>
       <c r="EQ89" s="160"/>
     </row>
     <row r="90" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="259"/>
-      <c r="B90" s="262"/>
-      <c r="D90" s="259"/>
+      <c r="A90" s="277"/>
+      <c r="B90" s="308"/>
+      <c r="D90" s="277"/>
       <c r="E90" s="188"/>
       <c r="G90" s="158"/>
       <c r="H90" s="159"/>
@@ -18241,13 +18259,13 @@
       <c r="BT90" s="159"/>
       <c r="BU90" s="159"/>
       <c r="BV90" s="159"/>
-      <c r="CQ90" s="312"/>
+      <c r="CQ90" s="229"/>
       <c r="EQ90" s="160"/>
     </row>
     <row r="91" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="260"/>
-      <c r="B91" s="263"/>
-      <c r="D91" s="260"/>
+      <c r="A91" s="287"/>
+      <c r="B91" s="309"/>
+      <c r="D91" s="287"/>
       <c r="E91" s="189"/>
       <c r="G91" s="13"/>
       <c r="H91" s="123"/>
@@ -18337,7 +18355,7 @@
       <c r="CN91" s="123"/>
       <c r="CO91" s="123"/>
       <c r="CP91" s="123"/>
-      <c r="CQ91" s="313"/>
+      <c r="CQ91" s="230"/>
       <c r="CR91" s="123"/>
       <c r="CS91" s="123"/>
       <c r="CT91" s="123"/>
@@ -18483,6 +18501,105 @@
     <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="DL3:DL7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DJ3:DJ7"/>
+    <mergeCell ref="BF3:BF7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="CD3:CD7"/>
+    <mergeCell ref="CE3:CE7"/>
+    <mergeCell ref="CF3:CF7"/>
+    <mergeCell ref="CG3:CG7"/>
+    <mergeCell ref="CH3:CH7"/>
+    <mergeCell ref="CI3:CI7"/>
+    <mergeCell ref="DH3:DH7"/>
+    <mergeCell ref="DI3:DI7"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="BP24:BP27"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BV3:BV7"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="E3:E51"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="BP84:BP87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="BU60:BU63"/>
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="BV52:BV55"/>
+    <mergeCell ref="CB3:CB7"/>
+    <mergeCell ref="CC3:CC7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BZ3:BZ7"/>
+    <mergeCell ref="CA3:CA7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CJ3:CJ7"/>
+    <mergeCell ref="CK3:CK7"/>
+    <mergeCell ref="CL3:CL7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
     <mergeCell ref="DC3:DC7"/>
     <mergeCell ref="DD3:DD7"/>
     <mergeCell ref="DE3:DE7"/>
@@ -18507,105 +18624,6 @@
     <mergeCell ref="CQ3:CQ7"/>
     <mergeCell ref="CR3:CR7"/>
     <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="BU60:BU63"/>
-    <mergeCell ref="E52:E63"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="BV52:BV55"/>
-    <mergeCell ref="CB3:CB7"/>
-    <mergeCell ref="CC3:CC7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BZ3:BZ7"/>
-    <mergeCell ref="CA3:CA7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CJ3:CJ7"/>
-    <mergeCell ref="CK3:CK7"/>
-    <mergeCell ref="CL3:CL7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="E3:E51"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="BP84:BP87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="BP24:BP27"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="DL3:DL7"/>
-    <mergeCell ref="DM3:DM7"/>
-    <mergeCell ref="DJ3:DJ7"/>
-    <mergeCell ref="BF3:BF7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="CD3:CD7"/>
-    <mergeCell ref="CE3:CE7"/>
-    <mergeCell ref="CF3:CF7"/>
-    <mergeCell ref="CG3:CG7"/>
-    <mergeCell ref="CH3:CH7"/>
-    <mergeCell ref="CI3:CI7"/>
-    <mergeCell ref="DH3:DH7"/>
-    <mergeCell ref="DI3:DI7"/>
-    <mergeCell ref="CX3:CX7"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18619,8 +18637,8 @@
   </sheetPr>
   <dimension ref="A1:EM177"/>
   <sheetViews>
-    <sheetView topLeftCell="CM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18692,29 +18710,29 @@
       <c r="BE1" s="216"/>
       <c r="BF1" s="216"/>
       <c r="BG1" s="216"/>
-      <c r="BH1" s="216"/>
-      <c r="BI1" s="216"/>
-      <c r="BJ1" s="216"/>
-      <c r="BK1" s="216"/>
-      <c r="BL1" s="216"/>
-      <c r="BM1" s="216"/>
-      <c r="BN1" s="216"/>
+      <c r="BH1" s="224"/>
+      <c r="BI1" s="224"/>
+      <c r="BJ1" s="224"/>
+      <c r="BK1" s="224"/>
+      <c r="BL1" s="223"/>
+      <c r="BM1" s="223"/>
+      <c r="BN1" s="223"/>
       <c r="BO1" s="216"/>
       <c r="BP1" s="216"/>
       <c r="BQ1" s="216"/>
     </row>
     <row r="2" spans="1:143" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="247" t="s">
-        <v>336</v>
-      </c>
-      <c r="B2" s="247"/>
+      <c r="A2" s="319" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="319"/>
       <c r="C2" s="216"/>
-      <c r="D2" s="247" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="247"/>
+      <c r="D2" s="319" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="319"/>
       <c r="F2" s="190" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -18751,22 +18769,22 @@
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="Y2" s="2">
         <v>150</v>
@@ -18799,22 +18817,22 @@
         <v>159</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO2" s="2">
         <v>160</v>
@@ -18847,70 +18865,70 @@
         <v>169</v>
       </c>
       <c r="AY2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BE2" s="153" t="s">
+        <v>435</v>
+      </c>
+      <c r="BF2" s="153" t="s">
+        <v>436</v>
+      </c>
+      <c r="BG2" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="BH2" s="153" t="s">
+        <v>438</v>
+      </c>
+      <c r="BI2" s="153" t="s">
+        <v>439</v>
+      </c>
+      <c r="BJ2" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="BK2" s="153" t="s">
+        <v>441</v>
+      </c>
+      <c r="BL2" s="153" t="s">
+        <v>442</v>
+      </c>
+      <c r="BM2" s="153" t="s">
+        <v>443</v>
+      </c>
+      <c r="BN2" s="153" t="s">
+        <v>434</v>
+      </c>
+      <c r="BO2" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BP2" s="153" t="s">
         <v>319</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BQ2" s="153" t="s">
         <v>320</v>
       </c>
-      <c r="BE2" s="153" t="s">
-        <v>438</v>
-      </c>
-      <c r="BF2" s="153" t="s">
-        <v>439</v>
-      </c>
-      <c r="BG2" s="153" t="s">
-        <v>440</v>
-      </c>
-      <c r="BH2" s="153" t="s">
-        <v>441</v>
-      </c>
-      <c r="BI2" s="153" t="s">
-        <v>442</v>
-      </c>
-      <c r="BJ2" s="153" t="s">
-        <v>443</v>
-      </c>
-      <c r="BK2" s="153" t="s">
-        <v>444</v>
-      </c>
-      <c r="BL2" s="153" t="s">
-        <v>445</v>
-      </c>
-      <c r="BM2" s="153" t="s">
-        <v>446</v>
-      </c>
-      <c r="BN2" s="153" t="s">
-        <v>437</v>
-      </c>
-      <c r="BO2" s="153" t="s">
+      <c r="BR2" s="153" t="s">
         <v>321</v>
       </c>
-      <c r="BP2" s="153" t="s">
+      <c r="BS2" s="153" t="s">
         <v>322</v>
       </c>
-      <c r="BQ2" s="153" t="s">
-        <v>323</v>
-      </c>
-      <c r="BR2" s="153" t="s">
-        <v>324</v>
-      </c>
-      <c r="BS2" s="153" t="s">
-        <v>325</v>
-      </c>
       <c r="BT2" s="153" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BU2" s="153">
         <v>180</v>
@@ -18946,19 +18964,19 @@
         <v>187</v>
       </c>
       <c r="CF2" s="153" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CG2" s="153" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CH2" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CI2" s="153" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CJ2" s="153" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CK2" s="153">
         <v>190</v>
@@ -18991,22 +19009,22 @@
         <v>199</v>
       </c>
       <c r="CU2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="CX2" s="2" t="s">
         <v>195</v>
       </c>
       <c r="CY2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="DA2" s="2" t="s">
         <v>196</v>
@@ -19042,103 +19060,103 @@
         <v>206</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="DM2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="DP2" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="DN2" s="2" t="s">
+      <c r="DQ2" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="DO2" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="DR2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DS2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="DS2" s="2" t="s">
+      <c r="DT2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="DT2" s="2" t="s">
+      <c r="DU2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="DU2" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="DV2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="DW2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="DW2" s="2" t="s">
+      <c r="DX2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="DX2" s="2" t="s">
+      <c r="DY2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="DY2" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="DZ2" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="EG2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="EH2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="EH2" s="2" t="s">
+      <c r="EI2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="EI2" s="2" t="s">
+      <c r="EJ2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="EJ2" s="2" t="s">
+      <c r="EK2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="EK2" s="2" t="s">
+      <c r="EL2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="EL2" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="EM2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="268" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="255" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="342"/>
-      <c r="D3" s="268" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="255" t="s">
-        <v>267</v>
+      <c r="A3" s="281" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="273" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="347"/>
+      <c r="D3" s="281" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="273" t="s">
+        <v>266</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>124</v>
@@ -19147,106 +19165,106 @@
         <v>125</v>
       </c>
       <c r="I3" s="128" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="K3" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="129" t="s">
+      <c r="L3" s="129" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="M3" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="N3" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="N3" s="129" t="s">
+      <c r="O3" s="129" t="s">
         <v>236</v>
       </c>
-      <c r="O3" s="129" t="s">
+      <c r="P3" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="P3" s="130" t="s">
-        <v>238</v>
-      </c>
       <c r="Q3" s="149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R3" s="138" t="s">
         <v>150</v>
       </c>
       <c r="S3" s="128" t="s">
+        <v>448</v>
+      </c>
+      <c r="T3" s="129" t="s">
+        <v>449</v>
+      </c>
+      <c r="U3" s="129" t="s">
+        <v>450</v>
+      </c>
+      <c r="V3" s="129" t="s">
         <v>451</v>
       </c>
-      <c r="T3" s="129" t="s">
+      <c r="W3" s="129" t="s">
         <v>452</v>
       </c>
-      <c r="U3" s="129" t="s">
+      <c r="X3" s="129" t="s">
         <v>453</v>
       </c>
-      <c r="V3" s="129" t="s">
+      <c r="Y3" s="129" t="s">
         <v>454</v>
       </c>
-      <c r="W3" s="129" t="s">
+      <c r="Z3" s="130" t="s">
         <v>455</v>
       </c>
-      <c r="X3" s="129" t="s">
+      <c r="AA3" s="128" t="s">
         <v>456</v>
       </c>
-      <c r="Y3" s="129" t="s">
+      <c r="AB3" s="129" t="s">
         <v>457</v>
       </c>
-      <c r="Z3" s="130" t="s">
+      <c r="AC3" s="129" t="s">
         <v>458</v>
       </c>
-      <c r="AA3" s="128" t="s">
+      <c r="AD3" s="129" t="s">
         <v>459</v>
       </c>
-      <c r="AB3" s="129" t="s">
+      <c r="AE3" s="129" t="s">
         <v>460</v>
       </c>
-      <c r="AC3" s="129" t="s">
+      <c r="AF3" s="129" t="s">
         <v>461</v>
       </c>
-      <c r="AD3" s="129" t="s">
+      <c r="AG3" s="129" t="s">
         <v>462</v>
       </c>
-      <c r="AE3" s="129" t="s">
+      <c r="AH3" s="130" t="s">
         <v>463</v>
       </c>
-      <c r="AF3" s="129" t="s">
+      <c r="AI3" s="128" t="s">
         <v>464</v>
       </c>
-      <c r="AG3" s="129" t="s">
+      <c r="AJ3" s="129" t="s">
         <v>465</v>
       </c>
-      <c r="AH3" s="130" t="s">
+      <c r="AK3" s="129" t="s">
         <v>466</v>
       </c>
-      <c r="AI3" s="128" t="s">
+      <c r="AL3" s="129" t="s">
         <v>467</v>
       </c>
-      <c r="AJ3" s="129" t="s">
+      <c r="AM3" s="129" t="s">
         <v>468</v>
       </c>
-      <c r="AK3" s="129" t="s">
+      <c r="AN3" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="AL3" s="129" t="s">
+      <c r="AO3" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="AM3" s="129" t="s">
+      <c r="AP3" s="130" t="s">
         <v>471</v>
-      </c>
-      <c r="AN3" s="129" t="s">
-        <v>472</v>
-      </c>
-      <c r="AO3" s="129" t="s">
-        <v>473</v>
-      </c>
-      <c r="AP3" s="130" t="s">
-        <v>474</v>
       </c>
       <c r="AQ3" s="137"/>
       <c r="AR3" s="14"/>
@@ -19259,202 +19277,202 @@
       <c r="AY3" s="122"/>
       <c r="AZ3" s="85"/>
       <c r="BA3" s="122"/>
-      <c r="BB3" s="232" t="s">
+      <c r="BB3" s="335" t="s">
+        <v>370</v>
+      </c>
+      <c r="BC3" s="232" t="s">
+        <v>372</v>
+      </c>
+      <c r="BD3" s="232" t="s">
         <v>373</v>
       </c>
-      <c r="BC3" s="235" t="s">
+      <c r="BE3" s="232" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF3" s="232" t="s">
         <v>375</v>
       </c>
-      <c r="BD3" s="235" t="s">
+      <c r="BG3" s="232" t="s">
         <v>376</v>
       </c>
-      <c r="BE3" s="235" t="s">
+      <c r="BH3" s="232" t="s">
         <v>377</v>
       </c>
-      <c r="BF3" s="235" t="s">
+      <c r="BI3" s="232" t="s">
         <v>378</v>
       </c>
-      <c r="BG3" s="235" t="s">
+      <c r="BJ3" s="232" t="s">
         <v>379</v>
       </c>
-      <c r="BH3" s="235" t="s">
+      <c r="BK3" s="232" t="s">
         <v>380</v>
       </c>
-      <c r="BI3" s="235" t="s">
+      <c r="BL3" s="232" t="s">
         <v>381</v>
       </c>
-      <c r="BJ3" s="235" t="s">
+      <c r="BM3" s="232" t="s">
         <v>382</v>
       </c>
-      <c r="BK3" s="235" t="s">
+      <c r="BN3" s="232" t="s">
         <v>383</v>
       </c>
-      <c r="BL3" s="235" t="s">
+      <c r="BO3" s="232" t="s">
         <v>384</v>
       </c>
-      <c r="BM3" s="235" t="s">
+      <c r="BP3" s="232" t="s">
         <v>385</v>
       </c>
-      <c r="BN3" s="235" t="s">
+      <c r="BQ3" s="232" t="s">
         <v>386</v>
       </c>
-      <c r="BO3" s="235" t="s">
+      <c r="BR3" s="232" t="s">
         <v>387</v>
       </c>
-      <c r="BP3" s="235" t="s">
+      <c r="BS3" s="232" t="s">
         <v>388</v>
       </c>
-      <c r="BQ3" s="235" t="s">
+      <c r="BT3" s="232" t="s">
         <v>389</v>
       </c>
-      <c r="BR3" s="235" t="s">
+      <c r="BU3" s="232" t="s">
         <v>390</v>
       </c>
-      <c r="BS3" s="235" t="s">
+      <c r="BV3" s="232" t="s">
         <v>391</v>
       </c>
-      <c r="BT3" s="235" t="s">
+      <c r="BW3" s="232" t="s">
         <v>392</v>
       </c>
-      <c r="BU3" s="235" t="s">
+      <c r="BX3" s="232" t="s">
         <v>393</v>
       </c>
-      <c r="BV3" s="235" t="s">
+      <c r="BY3" s="234" t="s">
         <v>394</v>
       </c>
-      <c r="BW3" s="235" t="s">
+      <c r="BZ3" s="335" t="s">
+        <v>371</v>
+      </c>
+      <c r="CA3" s="232" t="s">
         <v>395</v>
       </c>
-      <c r="BX3" s="235" t="s">
+      <c r="CB3" s="232" t="s">
         <v>396</v>
       </c>
-      <c r="BY3" s="305" t="s">
+      <c r="CC3" s="232" t="s">
         <v>397</v>
       </c>
-      <c r="BZ3" s="232" t="s">
-        <v>374</v>
-      </c>
-      <c r="CA3" s="235" t="s">
+      <c r="CD3" s="232" t="s">
         <v>398</v>
       </c>
-      <c r="CB3" s="235" t="s">
+      <c r="CE3" s="232" t="s">
         <v>399</v>
       </c>
-      <c r="CC3" s="235" t="s">
+      <c r="CF3" s="232" t="s">
         <v>400</v>
       </c>
-      <c r="CD3" s="235" t="s">
+      <c r="CG3" s="232" t="s">
         <v>401</v>
       </c>
-      <c r="CE3" s="235" t="s">
+      <c r="CH3" s="232" t="s">
         <v>402</v>
       </c>
-      <c r="CF3" s="235" t="s">
+      <c r="CI3" s="232" t="s">
         <v>403</v>
       </c>
-      <c r="CG3" s="235" t="s">
+      <c r="CJ3" s="232" t="s">
         <v>404</v>
       </c>
-      <c r="CH3" s="235" t="s">
+      <c r="CK3" s="232" t="s">
         <v>405</v>
       </c>
-      <c r="CI3" s="235" t="s">
+      <c r="CL3" s="232" t="s">
         <v>406</v>
       </c>
-      <c r="CJ3" s="235" t="s">
+      <c r="CM3" s="232" t="s">
         <v>407</v>
       </c>
-      <c r="CK3" s="235" t="s">
+      <c r="CN3" s="232" t="s">
         <v>408</v>
       </c>
-      <c r="CL3" s="235" t="s">
+      <c r="CO3" s="232" t="s">
         <v>409</v>
       </c>
-      <c r="CM3" s="235" t="s">
+      <c r="CP3" s="232" t="s">
         <v>410</v>
       </c>
-      <c r="CN3" s="235" t="s">
+      <c r="CQ3" s="232" t="s">
         <v>411</v>
       </c>
-      <c r="CO3" s="235" t="s">
+      <c r="CR3" s="232" t="s">
         <v>412</v>
       </c>
-      <c r="CP3" s="235" t="s">
+      <c r="CS3" s="232" t="s">
         <v>413</v>
       </c>
-      <c r="CQ3" s="235" t="s">
+      <c r="CT3" s="232" t="s">
         <v>414</v>
       </c>
-      <c r="CR3" s="235" t="s">
+      <c r="CU3" s="232" t="s">
         <v>415</v>
       </c>
-      <c r="CS3" s="235" t="s">
+      <c r="CV3" s="232" t="s">
         <v>416</v>
       </c>
-      <c r="CT3" s="235" t="s">
+      <c r="CW3" s="234" t="s">
         <v>417</v>
       </c>
-      <c r="CU3" s="235" t="s">
-        <v>418</v>
-      </c>
-      <c r="CV3" s="235" t="s">
-        <v>419</v>
-      </c>
-      <c r="CW3" s="305" t="s">
-        <v>420</v>
-      </c>
-      <c r="CX3" s="244" t="s">
+      <c r="CX3" s="316" t="s">
         <v>188</v>
       </c>
-      <c r="CY3" s="308" t="s">
+      <c r="CY3" s="225" t="s">
         <v>188</v>
       </c>
-      <c r="CZ3" s="308" t="s">
+      <c r="CZ3" s="225" t="s">
         <v>188</v>
       </c>
-      <c r="DA3" s="308" t="s">
+      <c r="DA3" s="225" t="s">
         <v>189</v>
       </c>
-      <c r="DB3" s="308" t="s">
+      <c r="DB3" s="225" t="s">
         <v>189</v>
       </c>
-      <c r="DC3" s="336" t="s">
+      <c r="DC3" s="258" t="s">
         <v>189</v>
       </c>
-      <c r="DD3" s="238" t="s">
-        <v>433</v>
-      </c>
-      <c r="DE3" s="241" t="s">
-        <v>434</v>
-      </c>
-      <c r="DF3" s="229" t="s">
-        <v>366</v>
-      </c>
-      <c r="DG3" s="339" t="s">
+      <c r="DD3" s="338" t="s">
+        <v>430</v>
+      </c>
+      <c r="DE3" s="341" t="s">
+        <v>431</v>
+      </c>
+      <c r="DF3" s="332" t="s">
+        <v>363</v>
+      </c>
+      <c r="DG3" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="DH3" s="223" t="s">
-        <v>503</v>
-      </c>
-      <c r="DI3" s="226" t="s">
-        <v>504</v>
+      <c r="DH3" s="326" t="s">
+        <v>500</v>
+      </c>
+      <c r="DI3" s="329" t="s">
+        <v>501</v>
       </c>
       <c r="DJ3" s="137"/>
       <c r="DK3" s="14"/>
       <c r="DL3" s="64"/>
-      <c r="DM3" s="325" t="s">
+      <c r="DM3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DN3" s="325" t="s">
+      <c r="DN3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DO3" s="325" t="s">
+      <c r="DO3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DP3" s="325" t="s">
+      <c r="DP3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="DQ3" s="328" t="s">
+      <c r="DQ3" s="250" t="s">
         <v>116</v>
       </c>
       <c r="DR3" s="140"/>
@@ -19493,11 +19511,11 @@
       </c>
     </row>
     <row r="4" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="253"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="342"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="256"/>
+      <c r="A4" s="282"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="347"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="274"/>
       <c r="G4" s="121" t="s">
         <v>153</v>
       </c>
@@ -19505,116 +19523,116 @@
         <v>154</v>
       </c>
       <c r="I4" s="135" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="121" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="K4" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="K4" s="121" t="s">
+      <c r="L4" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="M4" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="121" t="s">
+      <c r="N4" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="O4" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="O4" s="121" t="s">
+      <c r="P4" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="P4" s="132" t="s">
-        <v>246</v>
-      </c>
       <c r="Q4" s="150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R4" s="138"/>
       <c r="S4" s="135" t="s">
+        <v>472</v>
+      </c>
+      <c r="T4" s="121" t="s">
+        <v>473</v>
+      </c>
+      <c r="U4" s="121" t="s">
+        <v>474</v>
+      </c>
+      <c r="V4" s="121" t="s">
         <v>475</v>
       </c>
-      <c r="T4" s="121" t="s">
+      <c r="W4" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="U4" s="121" t="s">
+      <c r="X4" s="121" t="s">
         <v>477</v>
       </c>
-      <c r="V4" s="121" t="s">
+      <c r="Y4" s="121" t="s">
         <v>478</v>
       </c>
-      <c r="W4" s="121" t="s">
+      <c r="Z4" s="132" t="s">
         <v>479</v>
       </c>
-      <c r="X4" s="121" t="s">
+      <c r="AA4" s="135" t="s">
         <v>480</v>
       </c>
-      <c r="Y4" s="121" t="s">
+      <c r="AB4" s="121" t="s">
         <v>481</v>
       </c>
-      <c r="Z4" s="132" t="s">
+      <c r="AC4" s="121" t="s">
         <v>482</v>
       </c>
-      <c r="AA4" s="135" t="s">
+      <c r="AD4" s="121" t="s">
         <v>483</v>
       </c>
-      <c r="AB4" s="121" t="s">
+      <c r="AE4" s="121" t="s">
         <v>484</v>
       </c>
-      <c r="AC4" s="121" t="s">
+      <c r="AF4" s="121" t="s">
         <v>485</v>
       </c>
-      <c r="AD4" s="121" t="s">
+      <c r="AG4" s="121" t="s">
         <v>486</v>
       </c>
-      <c r="AE4" s="121" t="s">
+      <c r="AH4" s="132" t="s">
         <v>487</v>
       </c>
-      <c r="AF4" s="121" t="s">
+      <c r="AI4" s="135" t="s">
         <v>488</v>
       </c>
-      <c r="AG4" s="121" t="s">
+      <c r="AJ4" s="121" t="s">
         <v>489</v>
       </c>
-      <c r="AH4" s="132" t="s">
+      <c r="AK4" s="121" t="s">
         <v>490</v>
       </c>
-      <c r="AI4" s="135" t="s">
+      <c r="AL4" s="121" t="s">
         <v>491</v>
       </c>
-      <c r="AJ4" s="121" t="s">
+      <c r="AM4" s="121" t="s">
         <v>492</v>
       </c>
-      <c r="AK4" s="121" t="s">
+      <c r="AN4" s="121" t="s">
         <v>493</v>
       </c>
-      <c r="AL4" s="121" t="s">
+      <c r="AO4" s="121" t="s">
         <v>494</v>
       </c>
-      <c r="AM4" s="121" t="s">
+      <c r="AP4" s="132" t="s">
         <v>495</v>
       </c>
-      <c r="AN4" s="121" t="s">
+      <c r="AQ4" s="135" t="s">
         <v>496</v>
       </c>
-      <c r="AO4" s="121" t="s">
+      <c r="AR4" s="121" t="s">
         <v>497</v>
       </c>
-      <c r="AP4" s="132" t="s">
+      <c r="AS4" s="121" t="s">
         <v>498</v>
       </c>
-      <c r="AQ4" s="135" t="s">
+      <c r="AT4" s="121" t="s">
         <v>499</v>
-      </c>
-      <c r="AR4" s="121" t="s">
-        <v>500</v>
-      </c>
-      <c r="AS4" s="121" t="s">
-        <v>501</v>
-      </c>
-      <c r="AT4" s="121" t="s">
-        <v>502</v>
       </c>
       <c r="AU4" s="217"/>
       <c r="AV4" s="217"/>
@@ -19623,74 +19641,74 @@
       <c r="AY4" s="117"/>
       <c r="AZ4" s="217"/>
       <c r="BA4" s="117"/>
-      <c r="BB4" s="233"/>
-      <c r="BC4" s="236"/>
-      <c r="BD4" s="236"/>
-      <c r="BE4" s="236"/>
-      <c r="BF4" s="236"/>
-      <c r="BG4" s="236"/>
-      <c r="BH4" s="236"/>
-      <c r="BI4" s="236"/>
-      <c r="BJ4" s="236"/>
-      <c r="BK4" s="236"/>
-      <c r="BL4" s="236"/>
-      <c r="BM4" s="236"/>
-      <c r="BN4" s="236"/>
-      <c r="BO4" s="236"/>
-      <c r="BP4" s="236"/>
-      <c r="BQ4" s="236"/>
-      <c r="BR4" s="236"/>
-      <c r="BS4" s="236"/>
-      <c r="BT4" s="236"/>
-      <c r="BU4" s="236"/>
-      <c r="BV4" s="236"/>
-      <c r="BW4" s="236"/>
-      <c r="BX4" s="236"/>
-      <c r="BY4" s="306"/>
-      <c r="BZ4" s="233"/>
-      <c r="CA4" s="236"/>
-      <c r="CB4" s="236"/>
-      <c r="CC4" s="236"/>
-      <c r="CD4" s="236"/>
-      <c r="CE4" s="236"/>
-      <c r="CF4" s="236"/>
-      <c r="CG4" s="236"/>
-      <c r="CH4" s="236"/>
-      <c r="CI4" s="236"/>
-      <c r="CJ4" s="236"/>
-      <c r="CK4" s="236"/>
-      <c r="CL4" s="236"/>
-      <c r="CM4" s="236"/>
-      <c r="CN4" s="236"/>
-      <c r="CO4" s="236"/>
-      <c r="CP4" s="236"/>
-      <c r="CQ4" s="236"/>
-      <c r="CR4" s="236"/>
-      <c r="CS4" s="236"/>
-      <c r="CT4" s="236"/>
-      <c r="CU4" s="236"/>
-      <c r="CV4" s="236"/>
-      <c r="CW4" s="306"/>
-      <c r="CX4" s="245"/>
-      <c r="CY4" s="309"/>
-      <c r="CZ4" s="309"/>
-      <c r="DA4" s="309"/>
-      <c r="DB4" s="309"/>
-      <c r="DC4" s="337"/>
-      <c r="DD4" s="239"/>
-      <c r="DE4" s="242"/>
-      <c r="DF4" s="230"/>
-      <c r="DG4" s="340"/>
-      <c r="DH4" s="224"/>
-      <c r="DI4" s="227"/>
+      <c r="BB4" s="336"/>
+      <c r="BC4" s="233"/>
+      <c r="BD4" s="233"/>
+      <c r="BE4" s="233"/>
+      <c r="BF4" s="233"/>
+      <c r="BG4" s="233"/>
+      <c r="BH4" s="233"/>
+      <c r="BI4" s="233"/>
+      <c r="BJ4" s="233"/>
+      <c r="BK4" s="233"/>
+      <c r="BL4" s="233"/>
+      <c r="BM4" s="233"/>
+      <c r="BN4" s="233"/>
+      <c r="BO4" s="233"/>
+      <c r="BP4" s="233"/>
+      <c r="BQ4" s="233"/>
+      <c r="BR4" s="233"/>
+      <c r="BS4" s="233"/>
+      <c r="BT4" s="233"/>
+      <c r="BU4" s="233"/>
+      <c r="BV4" s="233"/>
+      <c r="BW4" s="233"/>
+      <c r="BX4" s="233"/>
+      <c r="BY4" s="235"/>
+      <c r="BZ4" s="336"/>
+      <c r="CA4" s="233"/>
+      <c r="CB4" s="233"/>
+      <c r="CC4" s="233"/>
+      <c r="CD4" s="233"/>
+      <c r="CE4" s="233"/>
+      <c r="CF4" s="233"/>
+      <c r="CG4" s="233"/>
+      <c r="CH4" s="233"/>
+      <c r="CI4" s="233"/>
+      <c r="CJ4" s="233"/>
+      <c r="CK4" s="233"/>
+      <c r="CL4" s="233"/>
+      <c r="CM4" s="233"/>
+      <c r="CN4" s="233"/>
+      <c r="CO4" s="233"/>
+      <c r="CP4" s="233"/>
+      <c r="CQ4" s="233"/>
+      <c r="CR4" s="233"/>
+      <c r="CS4" s="233"/>
+      <c r="CT4" s="233"/>
+      <c r="CU4" s="233"/>
+      <c r="CV4" s="233"/>
+      <c r="CW4" s="235"/>
+      <c r="CX4" s="317"/>
+      <c r="CY4" s="226"/>
+      <c r="CZ4" s="226"/>
+      <c r="DA4" s="226"/>
+      <c r="DB4" s="226"/>
+      <c r="DC4" s="259"/>
+      <c r="DD4" s="339"/>
+      <c r="DE4" s="342"/>
+      <c r="DF4" s="333"/>
+      <c r="DG4" s="262"/>
+      <c r="DH4" s="327"/>
+      <c r="DI4" s="330"/>
       <c r="DJ4" s="131"/>
       <c r="DK4" s="217"/>
       <c r="DL4" s="20"/>
-      <c r="DM4" s="326"/>
-      <c r="DN4" s="326"/>
-      <c r="DO4" s="326"/>
-      <c r="DP4" s="326"/>
-      <c r="DQ4" s="329"/>
+      <c r="DM4" s="247"/>
+      <c r="DN4" s="247"/>
+      <c r="DO4" s="247"/>
+      <c r="DP4" s="247"/>
+      <c r="DQ4" s="251"/>
       <c r="DR4" s="136"/>
       <c r="DS4" s="118"/>
       <c r="DT4" s="118"/>
@@ -19719,11 +19737,11 @@
       </c>
     </row>
     <row r="5" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="253"/>
-      <c r="B5" s="256"/>
-      <c r="C5" s="342"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="256"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="274"/>
       <c r="G5" s="120" t="s">
         <v>193</v>
       </c>
@@ -19755,32 +19773,32 @@
         <v>194</v>
       </c>
       <c r="Q5" s="151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R5" s="138"/>
       <c r="S5" s="133" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="T5" s="120" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="U5" s="120" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="V5" s="120" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="W5" s="120" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="X5" s="120" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Y5" s="120" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z5" s="134" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AA5" s="143"/>
       <c r="AB5" s="30"/>
@@ -19809,74 +19827,74 @@
       <c r="AY5" s="117"/>
       <c r="AZ5" s="217"/>
       <c r="BA5" s="117"/>
-      <c r="BB5" s="233"/>
-      <c r="BC5" s="236"/>
-      <c r="BD5" s="236"/>
-      <c r="BE5" s="236"/>
-      <c r="BF5" s="236"/>
-      <c r="BG5" s="236"/>
-      <c r="BH5" s="236"/>
-      <c r="BI5" s="236"/>
-      <c r="BJ5" s="236"/>
-      <c r="BK5" s="236"/>
-      <c r="BL5" s="236"/>
-      <c r="BM5" s="236"/>
-      <c r="BN5" s="236"/>
-      <c r="BO5" s="236"/>
-      <c r="BP5" s="236"/>
-      <c r="BQ5" s="236"/>
-      <c r="BR5" s="236"/>
-      <c r="BS5" s="236"/>
-      <c r="BT5" s="236"/>
-      <c r="BU5" s="236"/>
-      <c r="BV5" s="236"/>
-      <c r="BW5" s="236"/>
-      <c r="BX5" s="236"/>
-      <c r="BY5" s="306"/>
-      <c r="BZ5" s="233"/>
-      <c r="CA5" s="236"/>
-      <c r="CB5" s="236"/>
-      <c r="CC5" s="236"/>
-      <c r="CD5" s="236"/>
-      <c r="CE5" s="236"/>
-      <c r="CF5" s="236"/>
-      <c r="CG5" s="236"/>
-      <c r="CH5" s="236"/>
-      <c r="CI5" s="236"/>
-      <c r="CJ5" s="236"/>
-      <c r="CK5" s="236"/>
-      <c r="CL5" s="236"/>
-      <c r="CM5" s="236"/>
-      <c r="CN5" s="236"/>
-      <c r="CO5" s="236"/>
-      <c r="CP5" s="236"/>
-      <c r="CQ5" s="236"/>
-      <c r="CR5" s="236"/>
-      <c r="CS5" s="236"/>
-      <c r="CT5" s="236"/>
-      <c r="CU5" s="236"/>
-      <c r="CV5" s="236"/>
-      <c r="CW5" s="306"/>
-      <c r="CX5" s="245"/>
-      <c r="CY5" s="309"/>
-      <c r="CZ5" s="309"/>
-      <c r="DA5" s="309"/>
-      <c r="DB5" s="309"/>
-      <c r="DC5" s="337"/>
-      <c r="DD5" s="239"/>
-      <c r="DE5" s="242"/>
-      <c r="DF5" s="230"/>
-      <c r="DG5" s="340"/>
-      <c r="DH5" s="224"/>
-      <c r="DI5" s="227"/>
+      <c r="BB5" s="336"/>
+      <c r="BC5" s="233"/>
+      <c r="BD5" s="233"/>
+      <c r="BE5" s="233"/>
+      <c r="BF5" s="233"/>
+      <c r="BG5" s="233"/>
+      <c r="BH5" s="233"/>
+      <c r="BI5" s="233"/>
+      <c r="BJ5" s="233"/>
+      <c r="BK5" s="233"/>
+      <c r="BL5" s="233"/>
+      <c r="BM5" s="233"/>
+      <c r="BN5" s="233"/>
+      <c r="BO5" s="233"/>
+      <c r="BP5" s="233"/>
+      <c r="BQ5" s="233"/>
+      <c r="BR5" s="233"/>
+      <c r="BS5" s="233"/>
+      <c r="BT5" s="233"/>
+      <c r="BU5" s="233"/>
+      <c r="BV5" s="233"/>
+      <c r="BW5" s="233"/>
+      <c r="BX5" s="233"/>
+      <c r="BY5" s="235"/>
+      <c r="BZ5" s="336"/>
+      <c r="CA5" s="233"/>
+      <c r="CB5" s="233"/>
+      <c r="CC5" s="233"/>
+      <c r="CD5" s="233"/>
+      <c r="CE5" s="233"/>
+      <c r="CF5" s="233"/>
+      <c r="CG5" s="233"/>
+      <c r="CH5" s="233"/>
+      <c r="CI5" s="233"/>
+      <c r="CJ5" s="233"/>
+      <c r="CK5" s="233"/>
+      <c r="CL5" s="233"/>
+      <c r="CM5" s="233"/>
+      <c r="CN5" s="233"/>
+      <c r="CO5" s="233"/>
+      <c r="CP5" s="233"/>
+      <c r="CQ5" s="233"/>
+      <c r="CR5" s="233"/>
+      <c r="CS5" s="233"/>
+      <c r="CT5" s="233"/>
+      <c r="CU5" s="233"/>
+      <c r="CV5" s="233"/>
+      <c r="CW5" s="235"/>
+      <c r="CX5" s="317"/>
+      <c r="CY5" s="226"/>
+      <c r="CZ5" s="226"/>
+      <c r="DA5" s="226"/>
+      <c r="DB5" s="226"/>
+      <c r="DC5" s="259"/>
+      <c r="DD5" s="339"/>
+      <c r="DE5" s="342"/>
+      <c r="DF5" s="333"/>
+      <c r="DG5" s="262"/>
+      <c r="DH5" s="327"/>
+      <c r="DI5" s="330"/>
       <c r="DJ5" s="131"/>
       <c r="DK5" s="217"/>
       <c r="DL5" s="20"/>
-      <c r="DM5" s="326"/>
-      <c r="DN5" s="326"/>
-      <c r="DO5" s="326"/>
-      <c r="DP5" s="326"/>
-      <c r="DQ5" s="329"/>
+      <c r="DM5" s="247"/>
+      <c r="DN5" s="247"/>
+      <c r="DO5" s="247"/>
+      <c r="DP5" s="247"/>
+      <c r="DQ5" s="251"/>
       <c r="DR5" s="127" t="s">
         <v>191</v>
       </c>
@@ -19945,11 +19963,11 @@
       </c>
     </row>
     <row r="6" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="253"/>
-      <c r="B6" s="256"/>
-      <c r="C6" s="342"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="256"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="347"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="274"/>
       <c r="G6" s="213" t="s">
         <v>216</v>
       </c>
@@ -19985,40 +20003,40 @@
       </c>
       <c r="R6" s="138"/>
       <c r="S6" s="215" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="T6" s="213" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="U6" s="213" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="V6" s="213" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="W6" s="213" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="X6" s="213" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Y6" s="213" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Z6" s="214" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AA6" s="215" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AB6" s="213" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AC6" s="213" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AD6" s="213" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
@@ -20043,74 +20061,74 @@
       <c r="AY6" s="117"/>
       <c r="AZ6" s="217"/>
       <c r="BA6" s="117"/>
-      <c r="BB6" s="233"/>
-      <c r="BC6" s="236"/>
-      <c r="BD6" s="236"/>
-      <c r="BE6" s="236"/>
-      <c r="BF6" s="236"/>
-      <c r="BG6" s="236"/>
-      <c r="BH6" s="236"/>
-      <c r="BI6" s="236"/>
-      <c r="BJ6" s="236"/>
-      <c r="BK6" s="236"/>
-      <c r="BL6" s="236"/>
-      <c r="BM6" s="236"/>
-      <c r="BN6" s="236"/>
-      <c r="BO6" s="236"/>
-      <c r="BP6" s="236"/>
-      <c r="BQ6" s="236"/>
-      <c r="BR6" s="236"/>
-      <c r="BS6" s="236"/>
-      <c r="BT6" s="236"/>
-      <c r="BU6" s="236"/>
-      <c r="BV6" s="236"/>
-      <c r="BW6" s="236"/>
-      <c r="BX6" s="236"/>
-      <c r="BY6" s="306"/>
-      <c r="BZ6" s="233"/>
-      <c r="CA6" s="236"/>
-      <c r="CB6" s="236"/>
-      <c r="CC6" s="236"/>
-      <c r="CD6" s="236"/>
-      <c r="CE6" s="236"/>
-      <c r="CF6" s="236"/>
-      <c r="CG6" s="236"/>
-      <c r="CH6" s="236"/>
-      <c r="CI6" s="236"/>
-      <c r="CJ6" s="236"/>
-      <c r="CK6" s="236"/>
-      <c r="CL6" s="236"/>
-      <c r="CM6" s="236"/>
-      <c r="CN6" s="236"/>
-      <c r="CO6" s="236"/>
-      <c r="CP6" s="236"/>
-      <c r="CQ6" s="236"/>
-      <c r="CR6" s="236"/>
-      <c r="CS6" s="236"/>
-      <c r="CT6" s="236"/>
-      <c r="CU6" s="236"/>
-      <c r="CV6" s="236"/>
-      <c r="CW6" s="306"/>
-      <c r="CX6" s="245"/>
-      <c r="CY6" s="309"/>
-      <c r="CZ6" s="309"/>
-      <c r="DA6" s="309"/>
-      <c r="DB6" s="309"/>
-      <c r="DC6" s="337"/>
-      <c r="DD6" s="239"/>
-      <c r="DE6" s="242"/>
-      <c r="DF6" s="230"/>
-      <c r="DG6" s="340"/>
-      <c r="DH6" s="224"/>
-      <c r="DI6" s="227"/>
+      <c r="BB6" s="336"/>
+      <c r="BC6" s="233"/>
+      <c r="BD6" s="233"/>
+      <c r="BE6" s="233"/>
+      <c r="BF6" s="233"/>
+      <c r="BG6" s="233"/>
+      <c r="BH6" s="233"/>
+      <c r="BI6" s="233"/>
+      <c r="BJ6" s="233"/>
+      <c r="BK6" s="233"/>
+      <c r="BL6" s="233"/>
+      <c r="BM6" s="233"/>
+      <c r="BN6" s="233"/>
+      <c r="BO6" s="233"/>
+      <c r="BP6" s="233"/>
+      <c r="BQ6" s="233"/>
+      <c r="BR6" s="233"/>
+      <c r="BS6" s="233"/>
+      <c r="BT6" s="233"/>
+      <c r="BU6" s="233"/>
+      <c r="BV6" s="233"/>
+      <c r="BW6" s="233"/>
+      <c r="BX6" s="233"/>
+      <c r="BY6" s="235"/>
+      <c r="BZ6" s="336"/>
+      <c r="CA6" s="233"/>
+      <c r="CB6" s="233"/>
+      <c r="CC6" s="233"/>
+      <c r="CD6" s="233"/>
+      <c r="CE6" s="233"/>
+      <c r="CF6" s="233"/>
+      <c r="CG6" s="233"/>
+      <c r="CH6" s="233"/>
+      <c r="CI6" s="233"/>
+      <c r="CJ6" s="233"/>
+      <c r="CK6" s="233"/>
+      <c r="CL6" s="233"/>
+      <c r="CM6" s="233"/>
+      <c r="CN6" s="233"/>
+      <c r="CO6" s="233"/>
+      <c r="CP6" s="233"/>
+      <c r="CQ6" s="233"/>
+      <c r="CR6" s="233"/>
+      <c r="CS6" s="233"/>
+      <c r="CT6" s="233"/>
+      <c r="CU6" s="233"/>
+      <c r="CV6" s="233"/>
+      <c r="CW6" s="235"/>
+      <c r="CX6" s="317"/>
+      <c r="CY6" s="226"/>
+      <c r="CZ6" s="226"/>
+      <c r="DA6" s="226"/>
+      <c r="DB6" s="226"/>
+      <c r="DC6" s="259"/>
+      <c r="DD6" s="339"/>
+      <c r="DE6" s="342"/>
+      <c r="DF6" s="333"/>
+      <c r="DG6" s="262"/>
+      <c r="DH6" s="327"/>
+      <c r="DI6" s="330"/>
       <c r="DJ6" s="131"/>
       <c r="DK6" s="217"/>
       <c r="DL6" s="20"/>
-      <c r="DM6" s="295"/>
-      <c r="DN6" s="295"/>
-      <c r="DO6" s="295"/>
-      <c r="DP6" s="295"/>
-      <c r="DQ6" s="330"/>
+      <c r="DM6" s="248"/>
+      <c r="DN6" s="248"/>
+      <c r="DO6" s="248"/>
+      <c r="DP6" s="248"/>
+      <c r="DQ6" s="252"/>
       <c r="DR6" s="136"/>
       <c r="DS6" s="30"/>
       <c r="DT6" s="30"/>
@@ -20171,21 +20189,21 @@
       </c>
     </row>
     <row r="7" spans="1:143" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="267"/>
-      <c r="B7" s="256"/>
-      <c r="C7" s="342"/>
-      <c r="D7" s="267"/>
-      <c r="E7" s="256"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="274"/>
+      <c r="C7" s="347"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="274"/>
       <c r="G7" s="145"/>
       <c r="H7" s="146"/>
       <c r="I7" s="208" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J7" s="209" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K7" s="209" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L7" s="145"/>
       <c r="M7" s="145"/>
@@ -20197,13 +20215,13 @@
         <v>150</v>
       </c>
       <c r="S7" s="208" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="T7" s="209" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="U7" s="209" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="V7" s="145"/>
       <c r="W7" s="145"/>
@@ -20237,88 +20255,88 @@
       <c r="AY7" s="123"/>
       <c r="AZ7" s="119"/>
       <c r="BA7" s="123"/>
-      <c r="BB7" s="234"/>
-      <c r="BC7" s="237"/>
-      <c r="BD7" s="237"/>
-      <c r="BE7" s="237"/>
-      <c r="BF7" s="237"/>
-      <c r="BG7" s="237"/>
-      <c r="BH7" s="237"/>
-      <c r="BI7" s="237"/>
-      <c r="BJ7" s="237"/>
-      <c r="BK7" s="237"/>
-      <c r="BL7" s="237"/>
-      <c r="BM7" s="237"/>
-      <c r="BN7" s="237"/>
-      <c r="BO7" s="237"/>
-      <c r="BP7" s="237"/>
-      <c r="BQ7" s="237"/>
-      <c r="BR7" s="237"/>
-      <c r="BS7" s="237"/>
-      <c r="BT7" s="237"/>
-      <c r="BU7" s="237"/>
-      <c r="BV7" s="237"/>
-      <c r="BW7" s="237"/>
-      <c r="BX7" s="237"/>
-      <c r="BY7" s="307"/>
-      <c r="BZ7" s="234"/>
-      <c r="CA7" s="237"/>
-      <c r="CB7" s="237"/>
-      <c r="CC7" s="237"/>
-      <c r="CD7" s="237"/>
-      <c r="CE7" s="237"/>
-      <c r="CF7" s="237"/>
-      <c r="CG7" s="237"/>
-      <c r="CH7" s="237"/>
-      <c r="CI7" s="237"/>
-      <c r="CJ7" s="237"/>
-      <c r="CK7" s="237"/>
-      <c r="CL7" s="237"/>
-      <c r="CM7" s="237"/>
-      <c r="CN7" s="237"/>
-      <c r="CO7" s="237"/>
-      <c r="CP7" s="237"/>
-      <c r="CQ7" s="237"/>
-      <c r="CR7" s="237"/>
-      <c r="CS7" s="237"/>
-      <c r="CT7" s="237"/>
-      <c r="CU7" s="237"/>
-      <c r="CV7" s="237"/>
-      <c r="CW7" s="307"/>
-      <c r="CX7" s="246"/>
-      <c r="CY7" s="310"/>
-      <c r="CZ7" s="310"/>
-      <c r="DA7" s="310"/>
-      <c r="DB7" s="310"/>
-      <c r="DC7" s="338"/>
-      <c r="DD7" s="240"/>
-      <c r="DE7" s="243"/>
-      <c r="DF7" s="231"/>
-      <c r="DG7" s="341"/>
-      <c r="DH7" s="225"/>
-      <c r="DI7" s="228"/>
+      <c r="BB7" s="337"/>
+      <c r="BC7" s="270"/>
+      <c r="BD7" s="270"/>
+      <c r="BE7" s="270"/>
+      <c r="BF7" s="270"/>
+      <c r="BG7" s="270"/>
+      <c r="BH7" s="270"/>
+      <c r="BI7" s="270"/>
+      <c r="BJ7" s="270"/>
+      <c r="BK7" s="270"/>
+      <c r="BL7" s="270"/>
+      <c r="BM7" s="270"/>
+      <c r="BN7" s="270"/>
+      <c r="BO7" s="270"/>
+      <c r="BP7" s="270"/>
+      <c r="BQ7" s="270"/>
+      <c r="BR7" s="270"/>
+      <c r="BS7" s="270"/>
+      <c r="BT7" s="270"/>
+      <c r="BU7" s="270"/>
+      <c r="BV7" s="270"/>
+      <c r="BW7" s="270"/>
+      <c r="BX7" s="270"/>
+      <c r="BY7" s="271"/>
+      <c r="BZ7" s="337"/>
+      <c r="CA7" s="270"/>
+      <c r="CB7" s="270"/>
+      <c r="CC7" s="270"/>
+      <c r="CD7" s="270"/>
+      <c r="CE7" s="270"/>
+      <c r="CF7" s="270"/>
+      <c r="CG7" s="270"/>
+      <c r="CH7" s="270"/>
+      <c r="CI7" s="270"/>
+      <c r="CJ7" s="270"/>
+      <c r="CK7" s="270"/>
+      <c r="CL7" s="270"/>
+      <c r="CM7" s="270"/>
+      <c r="CN7" s="270"/>
+      <c r="CO7" s="270"/>
+      <c r="CP7" s="270"/>
+      <c r="CQ7" s="270"/>
+      <c r="CR7" s="270"/>
+      <c r="CS7" s="270"/>
+      <c r="CT7" s="270"/>
+      <c r="CU7" s="270"/>
+      <c r="CV7" s="270"/>
+      <c r="CW7" s="271"/>
+      <c r="CX7" s="318"/>
+      <c r="CY7" s="227"/>
+      <c r="CZ7" s="227"/>
+      <c r="DA7" s="227"/>
+      <c r="DB7" s="227"/>
+      <c r="DC7" s="260"/>
+      <c r="DD7" s="340"/>
+      <c r="DE7" s="343"/>
+      <c r="DF7" s="334"/>
+      <c r="DG7" s="263"/>
+      <c r="DH7" s="328"/>
+      <c r="DI7" s="331"/>
       <c r="DJ7" s="208" t="s">
+        <v>365</v>
+      </c>
+      <c r="DK7" s="209" t="s">
+        <v>365</v>
+      </c>
+      <c r="DL7" s="211" t="s">
+        <v>365</v>
+      </c>
+      <c r="DM7" s="249"/>
+      <c r="DN7" s="249"/>
+      <c r="DO7" s="249"/>
+      <c r="DP7" s="249"/>
+      <c r="DQ7" s="253"/>
+      <c r="DR7" s="208" t="s">
         <v>368</v>
       </c>
-      <c r="DK7" s="209" t="s">
+      <c r="DS7" s="209" t="s">
         <v>368</v>
       </c>
-      <c r="DL7" s="211" t="s">
+      <c r="DT7" s="211" t="s">
         <v>368</v>
-      </c>
-      <c r="DM7" s="327"/>
-      <c r="DN7" s="327"/>
-      <c r="DO7" s="327"/>
-      <c r="DP7" s="327"/>
-      <c r="DQ7" s="331"/>
-      <c r="DR7" s="208" t="s">
-        <v>371</v>
-      </c>
-      <c r="DS7" s="209" t="s">
-        <v>371</v>
-      </c>
-      <c r="DT7" s="211" t="s">
-        <v>371</v>
       </c>
       <c r="DU7" s="139"/>
       <c r="DV7" s="145"/>
@@ -20326,13 +20344,13 @@
       <c r="DX7" s="145"/>
       <c r="DY7" s="146"/>
       <c r="DZ7" s="208" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="EA7" s="209" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="EB7" s="211" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="EC7" s="145"/>
       <c r="ED7" s="145"/>
@@ -20340,57 +20358,57 @@
       <c r="EF7" s="145"/>
       <c r="EG7" s="146"/>
       <c r="EH7" s="208" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="EI7" s="209" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="EJ7" s="211" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="EK7" s="145"/>
       <c r="EL7" s="145"/>
       <c r="EM7" s="145"/>
     </row>
     <row r="8" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="252"/>
-      <c r="B8" s="256"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="256"/>
-      <c r="BR8" s="347" t="s">
+      <c r="A8" s="284"/>
+      <c r="B8" s="274"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="274"/>
+      <c r="BR8" s="345" t="s">
         <v>226</v>
       </c>
-      <c r="BS8" s="348"/>
-      <c r="BT8" s="348"/>
-      <c r="BU8" s="348"/>
-      <c r="BV8" s="348"/>
-      <c r="BW8" s="348"/>
-      <c r="BX8" s="348"/>
-      <c r="BY8" s="348"/>
-      <c r="BZ8" s="348"/>
-      <c r="CA8" s="348"/>
-      <c r="CB8" s="348"/>
-      <c r="CC8" s="348"/>
-      <c r="CD8" s="348"/>
-      <c r="CE8" s="348"/>
-      <c r="CF8" s="348"/>
-      <c r="CG8" s="348"/>
-      <c r="CH8" s="348"/>
-      <c r="CI8" s="348"/>
-      <c r="CJ8" s="348"/>
-      <c r="CK8" s="348"/>
-      <c r="CL8" s="348"/>
-      <c r="CM8" s="348"/>
-      <c r="CN8" s="348"/>
-      <c r="CO8" s="348"/>
-      <c r="CP8" s="348"/>
-      <c r="CQ8" s="348"/>
-      <c r="CR8" s="348"/>
-      <c r="CS8" s="348"/>
-      <c r="CT8" s="348"/>
-      <c r="CU8" s="348"/>
-      <c r="CV8" s="348"/>
-      <c r="CW8" s="348"/>
+      <c r="BS8" s="346"/>
+      <c r="BT8" s="346"/>
+      <c r="BU8" s="346"/>
+      <c r="BV8" s="346"/>
+      <c r="BW8" s="346"/>
+      <c r="BX8" s="346"/>
+      <c r="BY8" s="346"/>
+      <c r="BZ8" s="346"/>
+      <c r="CA8" s="346"/>
+      <c r="CB8" s="346"/>
+      <c r="CC8" s="346"/>
+      <c r="CD8" s="346"/>
+      <c r="CE8" s="346"/>
+      <c r="CF8" s="346"/>
+      <c r="CG8" s="346"/>
+      <c r="CH8" s="346"/>
+      <c r="CI8" s="346"/>
+      <c r="CJ8" s="346"/>
+      <c r="CK8" s="346"/>
+      <c r="CL8" s="346"/>
+      <c r="CM8" s="346"/>
+      <c r="CN8" s="346"/>
+      <c r="CO8" s="346"/>
+      <c r="CP8" s="346"/>
+      <c r="CQ8" s="346"/>
+      <c r="CR8" s="346"/>
+      <c r="CS8" s="346"/>
+      <c r="CT8" s="346"/>
+      <c r="CU8" s="346"/>
+      <c r="CV8" s="346"/>
+      <c r="CW8" s="346"/>
       <c r="CX8" s="116"/>
       <c r="CY8" s="116"/>
       <c r="CZ8" s="116"/>
@@ -20399,200 +20417,200 @@
       <c r="DC8" s="116"/>
     </row>
     <row r="9" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="253"/>
-      <c r="B9" s="256"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="256"/>
-      <c r="AG9" s="343" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="274"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="274"/>
+      <c r="AG9" s="348" t="s">
+        <v>506</v>
+      </c>
+      <c r="AH9" s="349"/>
+      <c r="AI9" s="349"/>
+      <c r="AJ9" s="349"/>
+      <c r="AK9" s="349"/>
+      <c r="AL9" s="349"/>
+      <c r="AM9" s="349"/>
+      <c r="AN9" s="349"/>
+      <c r="AO9" s="349"/>
+      <c r="AP9" s="349"/>
+      <c r="AQ9" s="349"/>
+      <c r="AR9" s="349"/>
+      <c r="AS9" s="349"/>
+      <c r="AT9" s="349"/>
+      <c r="AU9" s="349"/>
+      <c r="AV9" s="349"/>
+      <c r="AW9" s="349"/>
+      <c r="AX9" s="349"/>
+      <c r="AY9" s="349"/>
+      <c r="AZ9" s="349"/>
+      <c r="BA9" s="349"/>
+      <c r="BB9" s="349"/>
+      <c r="BC9" s="349"/>
+      <c r="BD9" s="349"/>
+      <c r="BE9" s="349"/>
+      <c r="BF9" s="349"/>
+      <c r="BG9" s="349"/>
+      <c r="BH9" s="349"/>
+      <c r="BI9" s="349"/>
+      <c r="BJ9" s="349"/>
+      <c r="BK9" s="349"/>
+      <c r="BL9" s="349"/>
+      <c r="BM9" s="349"/>
+      <c r="BN9" s="349"/>
+      <c r="BO9" s="349"/>
+      <c r="BP9" s="349"/>
+      <c r="BQ9" s="349"/>
+      <c r="BR9" s="349"/>
+      <c r="BS9" s="349"/>
+      <c r="BT9" s="349"/>
+      <c r="BU9" s="349"/>
+      <c r="BV9" s="349"/>
+      <c r="BW9" s="349"/>
+      <c r="BX9" s="349"/>
+      <c r="BY9" s="349"/>
+      <c r="BZ9" s="349"/>
+      <c r="CA9" s="349"/>
+      <c r="CB9" s="349"/>
+      <c r="CC9" s="349"/>
+      <c r="CD9" s="349"/>
+      <c r="CE9" s="349"/>
+      <c r="CF9" s="349"/>
+      <c r="CG9" s="349"/>
+      <c r="CH9" s="349"/>
+      <c r="CI9" s="349"/>
+      <c r="CJ9" s="349"/>
+      <c r="CK9" s="349"/>
+      <c r="CL9" s="349"/>
+      <c r="CM9" s="349"/>
+      <c r="CN9" s="349"/>
+      <c r="CO9" s="349"/>
+      <c r="CP9" s="349"/>
+      <c r="CQ9" s="349"/>
+      <c r="CR9" s="349"/>
+      <c r="CS9" s="349"/>
+      <c r="CT9" s="349"/>
+      <c r="CU9" s="349"/>
+      <c r="CV9" s="349"/>
+      <c r="CW9" s="349"/>
+      <c r="CX9" s="349"/>
+      <c r="CY9" s="349"/>
+      <c r="CZ9" s="349"/>
+      <c r="DA9" s="349"/>
+      <c r="DB9" s="349"/>
+      <c r="DC9" s="349"/>
+      <c r="DD9" s="349"/>
+      <c r="DE9" s="349"/>
+      <c r="DF9" s="349"/>
+      <c r="DG9" s="349"/>
+      <c r="DH9" s="349"/>
+      <c r="DI9" s="349"/>
+      <c r="DJ9" s="349"/>
+      <c r="DK9" s="349"/>
+      <c r="DL9" s="349"/>
+      <c r="DM9" s="349"/>
+      <c r="DN9" s="349"/>
+      <c r="DO9" s="349"/>
+      <c r="DP9" s="349"/>
+      <c r="DQ9" s="349"/>
+      <c r="DR9" s="349"/>
+      <c r="DS9" s="349"/>
+      <c r="DT9" s="349"/>
+      <c r="DU9" s="349"/>
+      <c r="DV9" s="349"/>
+      <c r="DW9" s="349"/>
+      <c r="DX9" s="349"/>
+      <c r="DY9" s="349"/>
+      <c r="DZ9" s="349"/>
+      <c r="EA9" s="349"/>
+      <c r="EB9" s="349"/>
+      <c r="EC9" s="349"/>
+      <c r="ED9" s="349"/>
+      <c r="EE9" s="349"/>
+      <c r="EF9" s="349"/>
+      <c r="EG9" s="349"/>
+      <c r="EH9" s="349"/>
+      <c r="EI9" s="349"/>
+      <c r="EJ9" s="349"/>
+      <c r="EK9" s="349"/>
+      <c r="EL9" s="349"/>
+      <c r="EM9" s="350"/>
+    </row>
+    <row r="10" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="282"/>
+      <c r="B10" s="274"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="274"/>
+      <c r="I10" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="J10" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="344"/>
-      <c r="AI9" s="344"/>
-      <c r="AJ9" s="344"/>
-      <c r="AK9" s="344"/>
-      <c r="AL9" s="344"/>
-      <c r="AM9" s="344"/>
-      <c r="AN9" s="344"/>
-      <c r="AO9" s="344"/>
-      <c r="AP9" s="344"/>
-      <c r="AQ9" s="344"/>
-      <c r="AR9" s="344"/>
-      <c r="AS9" s="344"/>
-      <c r="AT9" s="344"/>
-      <c r="AU9" s="344"/>
-      <c r="AV9" s="344"/>
-      <c r="AW9" s="344"/>
-      <c r="AX9" s="344"/>
-      <c r="AY9" s="344"/>
-      <c r="AZ9" s="344"/>
-      <c r="BA9" s="344"/>
-      <c r="BB9" s="344"/>
-      <c r="BC9" s="344"/>
-      <c r="BD9" s="344"/>
-      <c r="BE9" s="344"/>
-      <c r="BF9" s="344"/>
-      <c r="BG9" s="344"/>
-      <c r="BH9" s="344"/>
-      <c r="BI9" s="344"/>
-      <c r="BJ9" s="344"/>
-      <c r="BK9" s="344"/>
-      <c r="BL9" s="344"/>
-      <c r="BM9" s="344"/>
-      <c r="BN9" s="344"/>
-      <c r="BO9" s="344"/>
-      <c r="BP9" s="344"/>
-      <c r="BQ9" s="344"/>
-      <c r="BR9" s="344"/>
-      <c r="BS9" s="344"/>
-      <c r="BT9" s="344"/>
-      <c r="BU9" s="344"/>
-      <c r="BV9" s="344"/>
-      <c r="BW9" s="344"/>
-      <c r="BX9" s="344"/>
-      <c r="BY9" s="344"/>
-      <c r="BZ9" s="344"/>
-      <c r="CA9" s="344"/>
-      <c r="CB9" s="344"/>
-      <c r="CC9" s="344"/>
-      <c r="CD9" s="344"/>
-      <c r="CE9" s="344"/>
-      <c r="CF9" s="344"/>
-      <c r="CG9" s="344"/>
-      <c r="CH9" s="344"/>
-      <c r="CI9" s="344"/>
-      <c r="CJ9" s="344"/>
-      <c r="CK9" s="344"/>
-      <c r="CL9" s="344"/>
-      <c r="CM9" s="344"/>
-      <c r="CN9" s="344"/>
-      <c r="CO9" s="344"/>
-      <c r="CP9" s="344"/>
-      <c r="CQ9" s="344"/>
-      <c r="CR9" s="344"/>
-      <c r="CS9" s="344"/>
-      <c r="CT9" s="344"/>
-      <c r="CU9" s="344"/>
-      <c r="CV9" s="344"/>
-      <c r="CW9" s="344"/>
-      <c r="CX9" s="344"/>
-      <c r="CY9" s="344"/>
-      <c r="CZ9" s="344"/>
-      <c r="DA9" s="344"/>
-      <c r="DB9" s="344"/>
-      <c r="DC9" s="344"/>
-      <c r="DD9" s="344"/>
-      <c r="DE9" s="344"/>
-      <c r="DF9" s="344"/>
-      <c r="DG9" s="344"/>
-      <c r="DH9" s="344"/>
-      <c r="DI9" s="344"/>
-      <c r="DJ9" s="344"/>
-      <c r="DK9" s="344"/>
-      <c r="DL9" s="344"/>
-      <c r="DM9" s="344"/>
-      <c r="DN9" s="344"/>
-      <c r="DO9" s="344"/>
-      <c r="DP9" s="344"/>
-      <c r="DQ9" s="344"/>
-      <c r="DR9" s="344"/>
-      <c r="DS9" s="344"/>
-      <c r="DT9" s="344"/>
-      <c r="DU9" s="344"/>
-      <c r="DV9" s="344"/>
-      <c r="DW9" s="344"/>
-      <c r="DX9" s="344"/>
-      <c r="DY9" s="344"/>
-      <c r="DZ9" s="344"/>
-      <c r="EA9" s="344"/>
-      <c r="EB9" s="344"/>
-      <c r="EC9" s="344"/>
-      <c r="ED9" s="344"/>
-      <c r="EE9" s="344"/>
-      <c r="EF9" s="344"/>
-      <c r="EG9" s="344"/>
-      <c r="EH9" s="344"/>
-      <c r="EI9" s="344"/>
-      <c r="EJ9" s="344"/>
-      <c r="EK9" s="344"/>
-      <c r="EL9" s="344"/>
-      <c r="EM9" s="345"/>
-    </row>
-    <row r="10" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="253"/>
-      <c r="B10" s="256"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="256"/>
-      <c r="I10" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="J10" s="109" t="s">
+      <c r="BB10" s="159"/>
+      <c r="DI10" s="344" t="s">
+        <v>229</v>
+      </c>
+      <c r="DJ10" s="344"/>
+      <c r="DK10" s="344"/>
+      <c r="DL10" s="344"/>
+      <c r="DM10" s="344"/>
+      <c r="DN10" s="344"/>
+      <c r="DO10" s="344"/>
+      <c r="DP10" s="344"/>
+      <c r="DQ10" s="344"/>
+      <c r="DR10" s="344"/>
+      <c r="DS10" s="344"/>
+      <c r="DT10" s="344"/>
+      <c r="DU10" s="344"/>
+      <c r="DV10" s="344"/>
+      <c r="DW10" s="344"/>
+      <c r="DX10" s="344"/>
+      <c r="DY10" s="344"/>
+      <c r="DZ10" s="344"/>
+      <c r="EA10" s="344"/>
+      <c r="EB10" s="344"/>
+      <c r="EC10" s="344"/>
+      <c r="ED10" s="344"/>
+      <c r="EE10" s="344"/>
+      <c r="EF10" s="344"/>
+    </row>
+    <row r="11" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="283"/>
+      <c r="B11" s="274"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="274"/>
+      <c r="I11" s="154" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="109" t="s">
         <v>228</v>
-      </c>
-      <c r="BB10" s="159"/>
-      <c r="DI10" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="DJ10" s="346"/>
-      <c r="DK10" s="346"/>
-      <c r="DL10" s="346"/>
-      <c r="DM10" s="346"/>
-      <c r="DN10" s="346"/>
-      <c r="DO10" s="346"/>
-      <c r="DP10" s="346"/>
-      <c r="DQ10" s="346"/>
-      <c r="DR10" s="346"/>
-      <c r="DS10" s="346"/>
-      <c r="DT10" s="346"/>
-      <c r="DU10" s="346"/>
-      <c r="DV10" s="346"/>
-      <c r="DW10" s="346"/>
-      <c r="DX10" s="346"/>
-      <c r="DY10" s="346"/>
-      <c r="DZ10" s="346"/>
-      <c r="EA10" s="346"/>
-      <c r="EB10" s="346"/>
-      <c r="EC10" s="346"/>
-      <c r="ED10" s="346"/>
-      <c r="EE10" s="346"/>
-      <c r="EF10" s="346"/>
-    </row>
-    <row r="11" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="267"/>
-      <c r="B11" s="256"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="256"/>
-      <c r="I11" s="154" t="s">
-        <v>260</v>
-      </c>
-      <c r="J11" s="109" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="B12" s="274"/>
       <c r="D12" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E12" s="274"/>
       <c r="I12" s="207" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="B13" s="274"/>
       <c r="D13" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E13" s="274"/>
       <c r="I13" s="112" t="s">
         <v>183</v>
       </c>
@@ -20602,13 +20620,13 @@
     </row>
     <row r="14" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="B14" s="274"/>
       <c r="D14" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E14" s="274"/>
       <c r="I14" s="113" t="s">
         <v>184</v>
       </c>
@@ -20618,57 +20636,57 @@
     </row>
     <row r="15" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
-      <c r="B15" s="256"/>
+      <c r="B15" s="274"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="256"/>
+      <c r="E15" s="274"/>
       <c r="I15" s="222" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252"/>
-      <c r="B16" s="256"/>
-      <c r="D16" s="252"/>
-      <c r="E16" s="256"/>
+      <c r="A16" s="284"/>
+      <c r="B16" s="274"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="274"/>
       <c r="I16" s="115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J16" s="109" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253"/>
-      <c r="B17" s="256"/>
-      <c r="D17" s="253"/>
-      <c r="E17" s="256"/>
+      <c r="A17" s="282"/>
+      <c r="B17" s="274"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="274"/>
       <c r="I17" s="110" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J17" s="109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="253"/>
-      <c r="B18" s="256"/>
-      <c r="D18" s="253"/>
-      <c r="E18" s="256"/>
+      <c r="A18" s="282"/>
+      <c r="B18" s="274"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="274"/>
       <c r="I18" s="219" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J18" s="109" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="267"/>
-      <c r="B19" s="256"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="256"/>
+      <c r="A19" s="283"/>
+      <c r="B19" s="274"/>
+      <c r="D19" s="283"/>
+      <c r="E19" s="274"/>
       <c r="I19" s="111" t="s">
         <v>114</v>
       </c>
@@ -20677,22 +20695,22 @@
       </c>
     </row>
     <row r="20" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="253"/>
-      <c r="B20" s="256"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="256"/>
+      <c r="A20" s="282"/>
+      <c r="B20" s="274"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="274"/>
       <c r="I20" s="203" t="s">
         <v>114</v>
       </c>
       <c r="J20" s="204" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="253"/>
-      <c r="B21" s="256"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="256"/>
+      <c r="A21" s="282"/>
+      <c r="B21" s="274"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="274"/>
       <c r="I21" s="220" t="s">
         <v>116</v>
       </c>
@@ -20701,525 +20719,525 @@
       </c>
     </row>
     <row r="22" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="253"/>
-      <c r="B22" s="256"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="256"/>
+      <c r="A22" s="282"/>
+      <c r="B22" s="274"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="274"/>
     </row>
     <row r="23" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="267"/>
-      <c r="B23" s="256"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="256"/>
+      <c r="A23" s="283"/>
+      <c r="B23" s="274"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="274"/>
     </row>
     <row r="24" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="252" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="342"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="256"/>
-      <c r="BL24" s="291" t="s">
-        <v>313</v>
+      <c r="A24" s="284" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="274"/>
+      <c r="C24" s="347"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="274"/>
+      <c r="BL24" s="323" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="253"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="342"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="256"/>
-      <c r="BL25" s="292"/>
+      <c r="A25" s="282"/>
+      <c r="B25" s="274"/>
+      <c r="C25" s="347"/>
+      <c r="D25" s="282"/>
+      <c r="E25" s="274"/>
+      <c r="BL25" s="324"/>
     </row>
     <row r="26" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="253"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="342"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="256"/>
-      <c r="BL26" s="292"/>
+      <c r="A26" s="282"/>
+      <c r="B26" s="274"/>
+      <c r="C26" s="347"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="274"/>
+      <c r="BL26" s="324"/>
     </row>
     <row r="27" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="254"/>
-      <c r="B27" s="257"/>
-      <c r="C27" s="342"/>
-      <c r="D27" s="253"/>
-      <c r="E27" s="256"/>
-      <c r="BL27" s="293"/>
+      <c r="A27" s="291"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="347"/>
+      <c r="D27" s="282"/>
+      <c r="E27" s="274"/>
+      <c r="BL27" s="325"/>
     </row>
     <row r="28" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="269" t="s">
-        <v>311</v>
-      </c>
-      <c r="B28" s="261" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="252"/>
-      <c r="E28" s="256"/>
+      <c r="A28" s="276" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="307" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="284"/>
+      <c r="E28" s="274"/>
     </row>
     <row r="29" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="259"/>
-      <c r="B29" s="262"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="256"/>
+      <c r="A29" s="277"/>
+      <c r="B29" s="308"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="274"/>
     </row>
     <row r="30" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="259"/>
-      <c r="B30" s="262"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="256"/>
+      <c r="A30" s="277"/>
+      <c r="B30" s="308"/>
+      <c r="D30" s="282"/>
+      <c r="E30" s="274"/>
     </row>
     <row r="31" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="270"/>
-      <c r="B31" s="262"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="256"/>
+      <c r="A31" s="280"/>
+      <c r="B31" s="308"/>
+      <c r="D31" s="283"/>
+      <c r="E31" s="274"/>
     </row>
     <row r="32" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="178" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B32" s="308"/>
       <c r="D32" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E32" s="274"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B33" s="308"/>
       <c r="D33" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E33" s="274"/>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B34" s="308"/>
       <c r="D34" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E34" s="274"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180"/>
-      <c r="B35" s="262"/>
+      <c r="B35" s="308"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="256"/>
+      <c r="E35" s="274"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="258"/>
-      <c r="B36" s="262"/>
+      <c r="A36" s="279"/>
+      <c r="B36" s="308"/>
       <c r="D36" s="177"/>
-      <c r="E36" s="256"/>
+      <c r="E36" s="274"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="259"/>
-      <c r="B37" s="262"/>
+      <c r="A37" s="277"/>
+      <c r="B37" s="308"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="256"/>
+      <c r="E37" s="274"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="259"/>
-      <c r="B38" s="262"/>
+      <c r="A38" s="277"/>
+      <c r="B38" s="308"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="256"/>
+      <c r="E38" s="274"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="260"/>
-      <c r="B39" s="263"/>
+      <c r="A39" s="287"/>
+      <c r="B39" s="309"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="256"/>
+      <c r="E39" s="274"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264"/>
-      <c r="B40" s="248" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="271"/>
-      <c r="E40" s="256"/>
+      <c r="A40" s="321"/>
+      <c r="B40" s="304" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="288"/>
+      <c r="E40" s="274"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265"/>
-      <c r="B41" s="249"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="256"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="305"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="274"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="265"/>
-      <c r="B42" s="249"/>
-      <c r="D42" s="272"/>
-      <c r="E42" s="256"/>
+      <c r="A42" s="302"/>
+      <c r="B42" s="305"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="274"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="266"/>
-      <c r="B43" s="249"/>
-      <c r="D43" s="273"/>
-      <c r="E43" s="256"/>
+      <c r="A43" s="322"/>
+      <c r="B43" s="305"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="274"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="181" t="s">
-        <v>268</v>
-      </c>
-      <c r="B44" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B44" s="305"/>
       <c r="D44" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E44" s="274"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B45" s="305"/>
       <c r="D45" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E45" s="274"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B46" s="305"/>
       <c r="D46" s="176" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="256"/>
+        <v>267</v>
+      </c>
+      <c r="E46" s="274"/>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="183"/>
-      <c r="B47" s="249"/>
+      <c r="B47" s="305"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="256"/>
+      <c r="E47" s="274"/>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="276" t="s">
-        <v>334</v>
-      </c>
-      <c r="B48" s="249"/>
-      <c r="D48" s="252" t="s">
-        <v>334</v>
-      </c>
-      <c r="E48" s="256"/>
+      <c r="A48" s="294" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="305"/>
+      <c r="D48" s="284" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="274"/>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="276"/>
-      <c r="B49" s="249"/>
-      <c r="D49" s="253"/>
-      <c r="E49" s="256"/>
+      <c r="A49" s="294"/>
+      <c r="B49" s="305"/>
+      <c r="D49" s="282"/>
+      <c r="E49" s="274"/>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="276"/>
-      <c r="B50" s="249"/>
-      <c r="D50" s="253"/>
-      <c r="E50" s="256"/>
+      <c r="A50" s="294"/>
+      <c r="B50" s="305"/>
+      <c r="D50" s="282"/>
+      <c r="E50" s="274"/>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="277"/>
-      <c r="B51" s="250"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="257"/>
+      <c r="A51" s="295"/>
+      <c r="B51" s="306"/>
+      <c r="D51" s="283"/>
+      <c r="E51" s="275"/>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="285" t="s">
-        <v>328</v>
-      </c>
-      <c r="B52" s="279" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" s="253" t="s">
-        <v>328</v>
-      </c>
-      <c r="E52" s="302" t="s">
-        <v>269</v>
+      <c r="A52" s="310" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" s="297" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="282" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" s="267" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="286"/>
-      <c r="B53" s="280"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="303"/>
+      <c r="A53" s="311"/>
+      <c r="B53" s="298"/>
+      <c r="D53" s="282"/>
+      <c r="E53" s="268"/>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="286"/>
-      <c r="B54" s="280"/>
-      <c r="D54" s="253"/>
-      <c r="E54" s="303"/>
+      <c r="A54" s="311"/>
+      <c r="B54" s="298"/>
+      <c r="D54" s="282"/>
+      <c r="E54" s="268"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="286"/>
-      <c r="B55" s="280"/>
-      <c r="D55" s="267"/>
-      <c r="E55" s="303"/>
+      <c r="A55" s="311"/>
+      <c r="B55" s="298"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="268"/>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="287" t="s">
-        <v>329</v>
-      </c>
-      <c r="B56" s="280"/>
-      <c r="D56" s="252" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="303"/>
+      <c r="A56" s="312" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="298"/>
+      <c r="D56" s="284" t="s">
+        <v>326</v>
+      </c>
+      <c r="E56" s="268"/>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="288"/>
-      <c r="B57" s="280"/>
-      <c r="D57" s="253"/>
-      <c r="E57" s="303"/>
+      <c r="A57" s="313"/>
+      <c r="B57" s="298"/>
+      <c r="D57" s="282"/>
+      <c r="E57" s="268"/>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="288"/>
-      <c r="B58" s="280"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="303"/>
+      <c r="A58" s="313"/>
+      <c r="B58" s="298"/>
+      <c r="D58" s="282"/>
+      <c r="E58" s="268"/>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="290"/>
-      <c r="B59" s="280"/>
-      <c r="D59" s="267"/>
-      <c r="E59" s="303"/>
+      <c r="A59" s="315"/>
+      <c r="B59" s="298"/>
+      <c r="D59" s="283"/>
+      <c r="E59" s="268"/>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="287" t="s">
-        <v>310</v>
-      </c>
-      <c r="B60" s="280"/>
-      <c r="D60" s="252" t="s">
-        <v>310</v>
-      </c>
-      <c r="E60" s="303"/>
+      <c r="A60" s="312" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60" s="298"/>
+      <c r="D60" s="284" t="s">
+        <v>308</v>
+      </c>
+      <c r="E60" s="268"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="288"/>
-      <c r="B61" s="280"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="303"/>
+      <c r="A61" s="313"/>
+      <c r="B61" s="298"/>
+      <c r="D61" s="282"/>
+      <c r="E61" s="268"/>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="288"/>
-      <c r="B62" s="280"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="303"/>
+      <c r="A62" s="313"/>
+      <c r="B62" s="298"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="268"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="289"/>
-      <c r="B63" s="281"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="304"/>
+      <c r="A63" s="314"/>
+      <c r="B63" s="299"/>
+      <c r="D63" s="291"/>
+      <c r="E63" s="269"/>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="282" t="s">
-        <v>309</v>
-      </c>
-      <c r="B64" s="248" t="s">
-        <v>271</v>
-      </c>
-      <c r="D64" s="274" t="s">
-        <v>309</v>
+      <c r="A64" s="300" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="304" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="292" t="s">
+        <v>307</v>
       </c>
       <c r="E64" s="187"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="276"/>
-      <c r="B65" s="249"/>
-      <c r="D65" s="275"/>
+      <c r="A65" s="294"/>
+      <c r="B65" s="305"/>
+      <c r="D65" s="293"/>
       <c r="E65" s="188"/>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="276"/>
-      <c r="B66" s="249"/>
-      <c r="D66" s="275"/>
+      <c r="A66" s="294"/>
+      <c r="B66" s="305"/>
+      <c r="D66" s="293"/>
       <c r="E66" s="188"/>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="276"/>
-      <c r="B67" s="249"/>
-      <c r="D67" s="275"/>
+      <c r="A67" s="294"/>
+      <c r="B67" s="305"/>
+      <c r="D67" s="293"/>
       <c r="E67" s="188"/>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="181" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B68" s="305"/>
       <c r="D68" s="184" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E68" s="188"/>
     </row>
     <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B69" s="305"/>
       <c r="D69" s="185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E69" s="188"/>
     </row>
     <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="B70" s="249"/>
+        <v>267</v>
+      </c>
+      <c r="B70" s="305"/>
       <c r="D70" s="185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E70" s="188"/>
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="183"/>
-      <c r="B71" s="249"/>
+      <c r="B71" s="305"/>
       <c r="D71" s="186"/>
       <c r="E71" s="188"/>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="283"/>
-      <c r="B72" s="249"/>
-      <c r="D72" s="275" t="s">
-        <v>330</v>
+      <c r="A72" s="301"/>
+      <c r="B72" s="305"/>
+      <c r="D72" s="293" t="s">
+        <v>327</v>
       </c>
       <c r="E72" s="188"/>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="265"/>
-      <c r="B73" s="249"/>
-      <c r="D73" s="275"/>
+      <c r="A73" s="302"/>
+      <c r="B73" s="305"/>
+      <c r="D73" s="293"/>
       <c r="E73" s="188"/>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="265"/>
-      <c r="B74" s="249"/>
-      <c r="D74" s="275"/>
+      <c r="A74" s="302"/>
+      <c r="B74" s="305"/>
+      <c r="D74" s="293"/>
       <c r="E74" s="188"/>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="284"/>
-      <c r="B75" s="250"/>
-      <c r="D75" s="278"/>
+      <c r="A75" s="303"/>
+      <c r="B75" s="306"/>
+      <c r="D75" s="296"/>
       <c r="E75" s="189"/>
     </row>
     <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="269"/>
-      <c r="B76" s="261" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="297" t="s">
-        <v>331</v>
+      <c r="A76" s="276"/>
+      <c r="B76" s="307" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="285" t="s">
+        <v>328</v>
       </c>
       <c r="E76" s="187"/>
     </row>
     <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="259"/>
-      <c r="B77" s="262"/>
-      <c r="D77" s="298"/>
+      <c r="A77" s="277"/>
+      <c r="B77" s="308"/>
+      <c r="D77" s="286"/>
       <c r="E77" s="188"/>
     </row>
     <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="259"/>
-      <c r="B78" s="262"/>
-      <c r="D78" s="298"/>
+      <c r="A78" s="277"/>
+      <c r="B78" s="308"/>
+      <c r="D78" s="286"/>
       <c r="E78" s="188"/>
     </row>
     <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="259"/>
-      <c r="B79" s="262"/>
-      <c r="D79" s="298"/>
+      <c r="A79" s="277"/>
+      <c r="B79" s="308"/>
+      <c r="D79" s="286"/>
       <c r="E79" s="188"/>
     </row>
     <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="178" t="s">
-        <v>268</v>
-      </c>
-      <c r="B80" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B80" s="308"/>
       <c r="D80" s="178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E80" s="188"/>
     </row>
     <row r="81" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B81" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B81" s="308"/>
       <c r="D81" s="179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E81" s="188"/>
     </row>
     <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="179" t="s">
-        <v>268</v>
-      </c>
-      <c r="B82" s="262"/>
+        <v>267</v>
+      </c>
+      <c r="B82" s="308"/>
       <c r="D82" s="179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E82" s="188"/>
     </row>
     <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
-      <c r="B83" s="262"/>
+      <c r="B83" s="308"/>
       <c r="D83" s="179"/>
       <c r="E83" s="188"/>
     </row>
     <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="258"/>
-      <c r="B84" s="262"/>
-      <c r="D84" s="258"/>
+      <c r="A84" s="279"/>
+      <c r="B84" s="308"/>
+      <c r="D84" s="279"/>
       <c r="E84" s="188"/>
     </row>
     <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="259"/>
-      <c r="B85" s="262"/>
-      <c r="D85" s="259"/>
+      <c r="A85" s="277"/>
+      <c r="B85" s="308"/>
+      <c r="D85" s="277"/>
       <c r="E85" s="188"/>
     </row>
     <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="259"/>
-      <c r="B86" s="262"/>
-      <c r="D86" s="259"/>
+      <c r="A86" s="277"/>
+      <c r="B86" s="308"/>
+      <c r="D86" s="277"/>
       <c r="E86" s="188"/>
     </row>
     <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="270"/>
-      <c r="B87" s="262"/>
-      <c r="D87" s="270"/>
+      <c r="A87" s="280"/>
+      <c r="B87" s="308"/>
+      <c r="D87" s="280"/>
       <c r="E87" s="188"/>
     </row>
     <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="258" t="s">
-        <v>308</v>
-      </c>
-      <c r="B88" s="262"/>
-      <c r="D88" s="258" t="s">
-        <v>308</v>
+      <c r="A88" s="279" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" s="308"/>
+      <c r="D88" s="279" t="s">
+        <v>306</v>
       </c>
       <c r="E88" s="188"/>
     </row>
     <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="259"/>
-      <c r="B89" s="262"/>
-      <c r="D89" s="259"/>
+      <c r="A89" s="277"/>
+      <c r="B89" s="308"/>
+      <c r="D89" s="277"/>
       <c r="E89" s="188"/>
     </row>
     <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="259"/>
-      <c r="B90" s="262"/>
-      <c r="D90" s="259"/>
+      <c r="A90" s="277"/>
+      <c r="B90" s="308"/>
+      <c r="D90" s="277"/>
       <c r="E90" s="188"/>
     </row>
     <row r="91" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="260"/>
-      <c r="B91" s="263"/>
-      <c r="D91" s="260"/>
+      <c r="A91" s="287"/>
+      <c r="B91" s="309"/>
+      <c r="D91" s="287"/>
       <c r="E91" s="189"/>
     </row>
     <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21310,6 +21328,96 @@
     <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="CF3:CF7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="BZ3:BZ7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="CA3:CA7"/>
+    <mergeCell ref="CB3:CB7"/>
+    <mergeCell ref="CC3:CC7"/>
+    <mergeCell ref="CD3:CD7"/>
+    <mergeCell ref="CE3:CE7"/>
+    <mergeCell ref="BF3:BF7"/>
+    <mergeCell ref="AG9:EM9"/>
+    <mergeCell ref="BL24:BL27"/>
+    <mergeCell ref="CR3:CR7"/>
+    <mergeCell ref="CG3:CG7"/>
+    <mergeCell ref="CH3:CH7"/>
+    <mergeCell ref="CI3:CI7"/>
+    <mergeCell ref="CJ3:CJ7"/>
+    <mergeCell ref="CK3:CK7"/>
+    <mergeCell ref="CL3:CL7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DN3:DN7"/>
+    <mergeCell ref="DO3:DO7"/>
+    <mergeCell ref="DP3:DP7"/>
+    <mergeCell ref="DH3:DH7"/>
+    <mergeCell ref="DI3:DI7"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="DI10:EF10"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="BR8:CW8"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BB3:BB7"/>
+    <mergeCell ref="BC3:BC7"/>
+    <mergeCell ref="BD3:BD7"/>
+    <mergeCell ref="BE3:BE7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B76:B91"/>
@@ -21334,96 +21442,6 @@
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="B64:B75"/>
     <mergeCell ref="D64:D67"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BB3:BB7"/>
-    <mergeCell ref="BC3:BC7"/>
-    <mergeCell ref="BD3:BD7"/>
-    <mergeCell ref="BE3:BE7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="DI10:EF10"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="BR8:CW8"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DF3:DF7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="DM3:DM7"/>
-    <mergeCell ref="DN3:DN7"/>
-    <mergeCell ref="DO3:DO7"/>
-    <mergeCell ref="DP3:DP7"/>
-    <mergeCell ref="DH3:DH7"/>
-    <mergeCell ref="DI3:DI7"/>
-    <mergeCell ref="CF3:CF7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="BZ3:BZ7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="CA3:CA7"/>
-    <mergeCell ref="CB3:CB7"/>
-    <mergeCell ref="CC3:CC7"/>
-    <mergeCell ref="CD3:CD7"/>
-    <mergeCell ref="CE3:CE7"/>
-    <mergeCell ref="BF3:BF7"/>
-    <mergeCell ref="AG9:EM9"/>
-    <mergeCell ref="BL24:BL27"/>
-    <mergeCell ref="CR3:CR7"/>
-    <mergeCell ref="CG3:CG7"/>
-    <mergeCell ref="CH3:CH7"/>
-    <mergeCell ref="CI3:CI7"/>
-    <mergeCell ref="CJ3:CJ7"/>
-    <mergeCell ref="CK3:CK7"/>
-    <mergeCell ref="CL3:CL7"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>
